--- a/SEDRA Report DATA.xlsx
+++ b/SEDRA Report DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvano/Desktop/Covid-19 study/SEDRA/SEDRA 2021.12.30/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvano/Desktop/Covid-19 study/SEDRA/SEDRA 2022.01.06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C98CE066-EF90-CC42-BDDE-BFC6FDE6736A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E9463A-CC87-624B-9BD3-CD6D8418DAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{28802D33-BBEF-DC4E-A6DC-98F4CCB65A55}"/>
   </bookViews>
@@ -43,7 +43,7 @@
     <definedName name="Weight_b">[2]CONST!$E$5</definedName>
     <definedName name="Weight_c">[2]CONST!$E$6</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="211">
   <si>
     <t>Sort: A-Z</t>
   </si>
@@ -79,36 +79,6 @@
  every</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Daily Deaths
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> /Mio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Daily Tests
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> /Mio</t>
-    </r>
-  </si>
-  <si>
     <t>Imm. 
 Level</t>
   </si>
@@ -121,21 +91,6 @@
 Level</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Tot  Cases
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>/last 14 days</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Population
  </t>
   </si>
@@ -729,6 +684,21 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>SEDRA report of 2022-01-06</t>
+  </si>
+  <si>
+    <t>Daily Deaths
+ /Mio</t>
+  </si>
+  <si>
+    <t>Daily Tests
+ /Mio</t>
+  </si>
+  <si>
+    <t>Tot  Cases
+/last 14 days</t>
   </si>
 </sst>
 </file>
@@ -738,7 +708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-45C]#,##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,12 +739,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
     </font>
     <font>
       <sz val="9"/>
@@ -912,20 +876,20 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1389,8 +1353,8 @@
   </sheetPr>
   <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1409,9 +1373,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
-        <f>"SEDRA report of " &amp; ReportDate</f>
-        <v>SEDRA report of 2021-12-30</v>
+      <c r="A1" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1445,26 +1408,26 @@
         <v>5</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>8</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="12" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q2" s="18"/>
     </row>
@@ -1485,38 +1448,38 @@
     </row>
     <row r="4" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="25">
-        <v>60.93205262045786</v>
+        <v>60.1480129465996</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" s="26">
-        <v>8.3091864859591818E-6</v>
+        <v>9.9660031266640337E-6</v>
       </c>
       <c r="E4" s="27">
-        <v>120348.7250755287</v>
+        <v>100341.12846347607</v>
       </c>
       <c r="F4" s="28">
-        <v>3.5999999999999997E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="G4" s="25">
         <v>0</v>
       </c>
       <c r="H4" s="28">
-        <v>6.0939552620457862</v>
+        <v>6.0156137946599602</v>
       </c>
       <c r="I4" s="28">
-        <v>2.4999999999999996E-3</v>
+        <v>2.7083333333333334E-3</v>
       </c>
       <c r="J4" s="28">
         <v>0</v>
       </c>
       <c r="K4"/>
       <c r="L4" s="27">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="M4" s="29">
         <v>39835428</v>
@@ -1524,38 +1487,38 @@
     </row>
     <row r="5" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="25">
-        <v>38.237894600731238</v>
+        <v>37.157608100773373</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="26">
-        <v>1.3822106599037777E-3</v>
+        <v>2.2005378473713634E-3</v>
       </c>
       <c r="E5" s="27">
-        <v>723.4787207252582</v>
+        <v>454.43435621638719</v>
       </c>
       <c r="F5" s="28">
-        <v>1.5409999999999999</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="G5" s="25">
         <v>0</v>
       </c>
       <c r="H5" s="28">
-        <v>3.8558936267397907</v>
+        <v>3.7323441434106703</v>
       </c>
       <c r="I5" s="28">
-        <v>0.10701388888888888</v>
+        <v>5.527777777777778E-2</v>
       </c>
       <c r="J5" s="28">
         <v>0</v>
       </c>
       <c r="K5"/>
       <c r="L5" s="27">
-        <v>3971</v>
+        <v>6322</v>
       </c>
       <c r="M5" s="29">
         <v>2872934</v>
@@ -1563,38 +1526,38 @@
     </row>
     <row r="6" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="25">
-        <v>50.524623086966024</v>
+        <v>49.724953355090349</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" s="26">
-        <v>9.6197323392405331E-5</v>
+        <v>1.1435199066823206E-4</v>
       </c>
       <c r="E6" s="27">
-        <v>10395.299627213421</v>
+        <v>8744.928655429243</v>
       </c>
       <c r="F6" s="28">
-        <v>0.186</v>
+        <v>0.15</v>
       </c>
       <c r="G6" s="25">
         <v>0</v>
       </c>
       <c r="H6" s="28">
-        <v>5.0563373086966026</v>
+        <v>4.9756203355090349</v>
       </c>
       <c r="I6" s="28">
-        <v>1.2916666666666667E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="J6" s="28">
         <v>0</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="27">
-        <v>4292</v>
+        <v>5102</v>
       </c>
       <c r="M6" s="29">
         <v>44616626</v>
@@ -1602,19 +1565,19 @@
     </row>
     <row r="7" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="25">
-        <v>25.831325263068994</v>
+        <v>24.119748388100621</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="D7" s="26">
-        <v>3.3262662564314711E-2</v>
+        <v>4.806474131913023E-2</v>
       </c>
       <c r="E7" s="27">
-        <v>30.063738826272832</v>
+        <v>20.8052716514255</v>
       </c>
       <c r="F7" s="28">
         <v>1.847</v>
@@ -1623,17 +1586,17 @@
         <v>0</v>
       </c>
       <c r="H7" s="28">
-        <v>2.4923830316717268</v>
+        <v>2.3464046297865329</v>
       </c>
       <c r="I7" s="28">
         <v>0.1282638888888889</v>
       </c>
       <c r="J7" s="28">
-        <v>1.292286613018391</v>
+        <v>1.0404937569019601</v>
       </c>
       <c r="K7"/>
       <c r="L7" s="27">
-        <v>2573</v>
+        <v>3718</v>
       </c>
       <c r="M7" s="29">
         <v>77354</v>
@@ -1641,38 +1604,38 @@
     </row>
     <row r="8" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="25">
-        <v>45.83046795332033</v>
+        <v>42.798642950386871</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8" s="26">
-        <v>4.1914195338657004E-4</v>
+        <v>5.676672606401953E-4</v>
       </c>
       <c r="E8" s="27">
-        <v>2385.8265485481261</v>
+        <v>1761.5953382131549</v>
       </c>
       <c r="F8" s="28">
-        <v>8.7999999999999995E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="G8" s="25">
         <v>0</v>
       </c>
       <c r="H8" s="28">
-        <v>4.5848801286653664</v>
+        <v>4.2829267950386871</v>
       </c>
       <c r="I8" s="28">
-        <v>6.1111111111111106E-3</v>
+        <v>1.0208333333333333E-2</v>
       </c>
       <c r="J8" s="28">
         <v>0</v>
       </c>
       <c r="K8"/>
       <c r="L8" s="27">
-        <v>14223</v>
+        <v>19263</v>
       </c>
       <c r="M8" s="29">
         <v>33933611</v>
@@ -1680,38 +1643,38 @@
     </row>
     <row r="9" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="25">
-        <v>40.504753573465969</v>
+        <v>36.881676096072049</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="26">
-        <v>1.0635280771412365E-3</v>
+        <v>5.0542905761283528E-3</v>
       </c>
       <c r="E9" s="27">
-        <v>940.26666666666665</v>
+        <v>197.85170340681361</v>
       </c>
       <c r="F9" s="28">
-        <v>1.4470000000000001</v>
+        <v>0</v>
       </c>
       <c r="G9" s="25">
         <v>0</v>
       </c>
       <c r="H9" s="28">
-        <v>4.0806211906799303</v>
+        <v>3.6881676096072047</v>
       </c>
       <c r="I9" s="28">
-        <v>0.10048611111111111</v>
+        <v>0</v>
       </c>
       <c r="J9" s="28">
         <v>0</v>
       </c>
       <c r="K9"/>
       <c r="L9" s="27">
-        <v>105</v>
+        <v>499</v>
       </c>
       <c r="M9" s="29">
         <v>98728</v>
@@ -1719,38 +1682,38 @@
     </row>
     <row r="10" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="25">
-        <v>35.273134481927428</v>
+        <v>30.719241295495145</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="26">
-        <v>5.045474127284141E-3</v>
+        <v>1.3076093375181497E-2</v>
       </c>
       <c r="E10" s="27">
-        <v>198.19742897745792</v>
+        <v>76.475440432232304</v>
       </c>
       <c r="F10" s="28">
-        <v>0.52300000000000002</v>
+        <v>0.752</v>
       </c>
       <c r="G10" s="25">
-        <v>2113</v>
+        <v>2717</v>
       </c>
       <c r="H10" s="28">
-        <v>3.5178210069549731</v>
+        <v>3.0691833112734632</v>
       </c>
       <c r="I10" s="28">
-        <v>3.6319444444444446E-2</v>
+        <v>5.2222222222222225E-2</v>
       </c>
       <c r="J10" s="28">
-        <v>0.20388274571103263</v>
+        <v>0.18407484942717967</v>
       </c>
       <c r="K10"/>
       <c r="L10" s="27">
-        <v>230103</v>
+        <v>596346</v>
       </c>
       <c r="M10" s="29">
         <v>45605823</v>
@@ -1758,38 +1721,38 @@
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="25">
-        <v>41.817774490246073</v>
+        <v>43.220436919424245</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="26">
-        <v>5.6230728593915089E-4</v>
+        <v>4.2552073225952518E-4</v>
       </c>
       <c r="E11" s="27">
-        <v>1778.3870581186338</v>
+        <v>2350.0617577197149</v>
       </c>
       <c r="F11" s="28">
-        <v>1.54</v>
+        <v>1.2030000000000001</v>
       </c>
       <c r="G11" s="25">
-        <v>2127</v>
+        <v>1440</v>
       </c>
       <c r="H11" s="28">
-        <v>4.1933374222004698</v>
+        <v>4.3373502926720846</v>
       </c>
       <c r="I11" s="28">
-        <v>0.10694444444444445</v>
+        <v>8.3541666666666667E-2</v>
       </c>
       <c r="J11" s="28">
-        <v>0.20523360157471196</v>
+        <v>9.7558992703400335E-2</v>
       </c>
       <c r="K11"/>
       <c r="L11" s="27">
-        <v>1669</v>
+        <v>1263</v>
       </c>
       <c r="M11" s="29">
         <v>2968128</v>
@@ -1797,38 +1760,38 @@
     </row>
     <row r="12" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="25">
-        <v>35.146691145852387</v>
+        <v>29.81713944239916</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="26">
-        <v>5.9081634065666503E-3</v>
+        <v>1.8658831667191261E-2</v>
       </c>
       <c r="E12" s="27">
-        <v>169.25733619495801</v>
+        <v>53.593923662345325</v>
       </c>
       <c r="F12" s="28">
-        <v>0.316</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="G12" s="25">
-        <v>10328</v>
+        <v>9030</v>
       </c>
       <c r="H12" s="28">
-        <v>3.4215978810608561</v>
+        <v>2.9299946592321588</v>
       </c>
       <c r="I12" s="28">
-        <v>2.1944444444444444E-2</v>
+        <v>3.152777777777778E-2</v>
       </c>
       <c r="J12" s="28">
-        <v>0.99654566857716276</v>
+        <v>0.61177618341090623</v>
       </c>
       <c r="K12"/>
       <c r="L12" s="27">
-        <v>152361</v>
+        <v>481178</v>
       </c>
       <c r="M12" s="29">
         <v>25788217</v>
@@ -1836,38 +1799,38 @@
     </row>
     <row r="13" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B13" s="25">
-        <v>40.159568095863605</v>
+        <v>35.536622948403931</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" s="26">
-        <v>3.6118257158629279E-3</v>
+        <v>6.0335691234129291E-3</v>
       </c>
       <c r="E13" s="27">
-        <v>276.86828730634988</v>
+        <v>165.73937905501995</v>
       </c>
       <c r="F13" s="28">
-        <v>1.675</v>
+        <v>1.927</v>
       </c>
       <c r="G13" s="25">
-        <v>66359</v>
+        <v>36327</v>
       </c>
       <c r="H13" s="28">
-        <v>3.4105566125061393</v>
+        <v>3.3476952442892527</v>
       </c>
       <c r="I13" s="28">
-        <v>0.11631944444444445</v>
+        <v>0.13381944444444444</v>
       </c>
       <c r="J13" s="28">
-        <v>6.4029603041355481</v>
+        <v>2.461128838844739</v>
       </c>
       <c r="K13"/>
       <c r="L13" s="27">
-        <v>32662</v>
+        <v>54562</v>
       </c>
       <c r="M13" s="29">
         <v>9043072</v>
@@ -1875,38 +1838,38 @@
     </row>
     <row r="14" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="25">
-        <v>39.994751234481043</v>
+        <v>41.355377869733786</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D14" s="26">
-        <v>8.1108490529126285E-4</v>
+        <v>6.3022431799223419E-4</v>
       </c>
       <c r="E14" s="27">
-        <v>1232.9165460684997</v>
+        <v>1586.736613378861</v>
       </c>
       <c r="F14" s="28">
-        <v>1.244</v>
+        <v>1.0620000000000001</v>
       </c>
       <c r="G14" s="25">
-        <v>914</v>
+        <v>833</v>
       </c>
       <c r="H14" s="28">
-        <v>4.0165726311190362</v>
+        <v>4.1520192702426888</v>
       </c>
       <c r="I14" s="28">
-        <v>8.638888888888889E-2</v>
+        <v>7.375000000000001E-2</v>
       </c>
       <c r="J14" s="28">
-        <v>8.819158995735156E-2</v>
+        <v>5.643516730689755E-2</v>
       </c>
       <c r="K14"/>
       <c r="L14" s="27">
-        <v>8292</v>
+        <v>6443</v>
       </c>
       <c r="M14" s="29">
         <v>10223344</v>
@@ -1914,38 +1877,38 @@
     </row>
     <row r="15" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B15" s="25">
-        <v>36.737647025595997</v>
+        <v>32.227514517629281</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="26">
-        <v>3.2702298230851017E-3</v>
+        <v>8.3670518046730525E-3</v>
       </c>
       <c r="E15" s="27">
-        <v>305.78890600924495</v>
+        <v>119.51641071966276</v>
       </c>
       <c r="F15" s="28">
-        <v>1.08</v>
+        <v>0.36</v>
       </c>
       <c r="G15" s="25">
-        <v>1570</v>
+        <v>0</v>
       </c>
       <c r="H15" s="28">
-        <v>3.6811158189454813</v>
+        <v>3.2144455399589678</v>
       </c>
       <c r="I15" s="28">
-        <v>7.5000000000000011E-2</v>
+        <v>2.4999999999999998E-2</v>
       </c>
       <c r="J15" s="28">
-        <v>0.15148883614118375</v>
+        <v>0.15805911803960626</v>
       </c>
       <c r="K15"/>
       <c r="L15" s="27">
-        <v>1298</v>
+        <v>3321</v>
       </c>
       <c r="M15" s="29">
         <v>396914</v>
@@ -1953,38 +1916,38 @@
     </row>
     <row r="16" spans="1:17" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="25">
-        <v>40.354975706665051</v>
+        <v>35.519834552196194</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D16" s="26">
-        <v>1.8011834387217261E-3</v>
+        <v>5.080950297289645E-3</v>
       </c>
       <c r="E16" s="27">
-        <v>555.19053667831054</v>
+        <v>196.81357649442756</v>
       </c>
       <c r="F16" s="28">
-        <v>0</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G16" s="25">
-        <v>11932</v>
+        <v>12803</v>
       </c>
       <c r="H16" s="28">
-        <v>3.9203660551992052</v>
+        <v>3.4669523591375615</v>
       </c>
       <c r="I16" s="28">
-        <v>0</v>
+        <v>5.6944444444444447E-3</v>
       </c>
       <c r="J16" s="28">
-        <v>1.1513151546729965</v>
+        <v>0.86739429415391289</v>
       </c>
       <c r="K16"/>
       <c r="L16" s="27">
-        <v>3149</v>
+        <v>8883</v>
       </c>
       <c r="M16" s="29">
         <v>1748295</v>
@@ -1992,38 +1955,38 @@
     </row>
     <row r="17" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B17" s="25">
-        <v>56.13053397422285</v>
+        <v>54.463190986305641</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="26">
-        <v>2.6866543164751549E-5</v>
+        <v>4.557330587413876E-5</v>
       </c>
       <c r="E17" s="27">
-        <v>37221.014771709932</v>
+        <v>21942.669745348991</v>
       </c>
       <c r="F17" s="28">
-        <v>1.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G17" s="25">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H17" s="28">
-        <v>5.612283677338918</v>
+        <v>5.4459988235514665</v>
       </c>
       <c r="I17" s="28">
-        <v>9.7222222222222219E-4</v>
+        <v>1.5972222222222221E-3</v>
       </c>
       <c r="J17" s="28">
-        <v>1.0613867500337715E-2</v>
+        <v>7.9944174576397492E-3</v>
       </c>
       <c r="K17"/>
       <c r="L17" s="27">
-        <v>4468</v>
+        <v>7579</v>
       </c>
       <c r="M17" s="29">
         <v>166303494</v>
@@ -2031,38 +1994,38 @@
     </row>
     <row r="18" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" s="25">
-        <v>34.668430224109017</v>
+        <v>30.787506547302286</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D18" s="26">
-        <v>4.3064495947279877E-3</v>
+        <v>1.0813046561096667E-2</v>
       </c>
       <c r="E18" s="27">
-        <v>232.20984665052464</v>
+        <v>92.480874316939889</v>
       </c>
       <c r="F18" s="28">
-        <v>0.497</v>
+        <v>1.986</v>
       </c>
       <c r="G18" s="25">
         <v>0</v>
       </c>
       <c r="H18" s="28">
-        <v>3.4771971890775686</v>
+        <v>3.1201256547302285</v>
       </c>
       <c r="I18" s="28">
-        <v>3.4513888888888886E-2</v>
+        <v>0.13791666666666666</v>
       </c>
       <c r="J18" s="28">
         <v>0</v>
       </c>
       <c r="K18"/>
       <c r="L18" s="27">
-        <v>1239</v>
+        <v>3111</v>
       </c>
       <c r="M18" s="29">
         <v>287708</v>
@@ -2070,38 +2033,38 @@
     </row>
     <row r="19" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B19" s="25">
-        <v>36.88502474765734</v>
+        <v>37.372631251912416</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="26">
-        <v>1.8772900221934714E-3</v>
+        <v>1.6685610418954329E-3</v>
       </c>
       <c r="E19" s="27">
-        <v>532.68274383708467</v>
+        <v>599.31879918761103</v>
       </c>
       <c r="F19" s="28">
-        <v>1.694</v>
+        <v>1.6339999999999999</v>
       </c>
       <c r="G19" s="25">
-        <v>1890</v>
+        <v>1763</v>
       </c>
       <c r="H19" s="28">
-        <v>3.7055575872727293</v>
+        <v>3.7593605901817906</v>
       </c>
       <c r="I19" s="28">
-        <v>0.11763888888888889</v>
+        <v>0.11347222222222221</v>
       </c>
       <c r="J19" s="28">
-        <v>0.18236554159671162</v>
+        <v>0.11944201676117694</v>
       </c>
       <c r="K19"/>
       <c r="L19" s="27">
-        <v>17727</v>
+        <v>15756</v>
       </c>
       <c r="M19" s="29">
         <v>9442867</v>
@@ -2109,38 +2072,38 @@
     </row>
     <row r="20" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" s="25">
-        <v>30.577877623158962</v>
+        <v>29.613616705901396</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D20" s="26">
-        <v>9.4165968755711444E-3</v>
+        <v>1.5140039823478247E-2</v>
       </c>
       <c r="E20" s="27">
-        <v>106.19547732729581</v>
+        <v>66.050024416003268</v>
       </c>
       <c r="F20" s="28">
-        <v>2.4319999999999999</v>
+        <v>1.6950000000000001</v>
       </c>
       <c r="G20" s="25">
-        <v>5606</v>
+        <v>6598</v>
       </c>
       <c r="H20" s="28">
-        <v>3.0543623006126599</v>
+        <v>2.9519731821278454</v>
       </c>
       <c r="I20" s="28">
-        <v>0.16888888888888889</v>
+        <v>0.11770833333333333</v>
       </c>
       <c r="J20" s="28">
-        <v>0.54092128369902925</v>
+        <v>0.44700988462294128</v>
       </c>
       <c r="K20"/>
       <c r="L20" s="27">
-        <v>109537</v>
+        <v>176114</v>
       </c>
       <c r="M20" s="29">
         <v>11632334</v>
@@ -2148,38 +2111,38 @@
     </row>
     <row r="21" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" s="25">
-        <v>37.443736251431609</v>
+        <v>31.982469273082557</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="26">
-        <v>3.1389303927984885E-3</v>
+        <v>9.2908388180235352E-3</v>
       </c>
       <c r="E21" s="27">
-        <v>318.57985837922894</v>
+        <v>107.63290802764487</v>
       </c>
       <c r="F21" s="28">
-        <v>2.117</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="G21" s="25">
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <v>3.7884777918098278</v>
+        <v>3.2294075702152427</v>
       </c>
       <c r="I21" s="28">
-        <v>0.14701388888888889</v>
+        <v>0.17152777777777778</v>
       </c>
       <c r="J21" s="28">
-        <v>0</v>
+        <v>0.20297690426346349</v>
       </c>
       <c r="K21"/>
       <c r="L21" s="27">
-        <v>1271</v>
+        <v>3762</v>
       </c>
       <c r="M21" s="29">
         <v>404915</v>
@@ -2187,19 +2150,19 @@
     </row>
     <row r="22" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B22" s="25">
-        <v>65.493417667567968</v>
+        <v>56.61321922926205</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="26">
-        <v>2.2488097572000261E-6</v>
+        <v>4.7144690267014833E-5</v>
       </c>
       <c r="E22" s="27">
-        <v>444679.67857142858</v>
+        <v>21211.296422487223</v>
       </c>
       <c r="F22" s="28">
         <v>0</v>
@@ -2208,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28">
-        <v>6.5493417667567968</v>
+        <v>5.6613219229262048</v>
       </c>
       <c r="I22" s="28">
         <v>0</v>
@@ -2218,7 +2181,7 @@
       </c>
       <c r="K22"/>
       <c r="L22" s="27">
-        <v>28</v>
+        <v>587</v>
       </c>
       <c r="M22" s="29">
         <v>12451031</v>
@@ -2226,38 +2189,38 @@
     </row>
     <row r="23" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B23" s="25">
-        <v>59.139091251823999</v>
+        <v>61.074572838954118</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D23" s="26">
-        <v>1.0257725349403769E-5</v>
+        <v>1.5386588024105653E-5</v>
       </c>
       <c r="E23" s="27">
-        <v>97487.5</v>
+        <v>64991.666666666672</v>
       </c>
       <c r="F23" s="28">
         <v>0</v>
       </c>
       <c r="G23" s="25">
-        <v>1632</v>
+        <v>7628</v>
       </c>
       <c r="H23" s="28">
-        <v>5.8981620054000805</v>
+        <v>6.0557781174828049</v>
       </c>
       <c r="I23" s="28">
         <v>0</v>
       </c>
       <c r="J23" s="28">
-        <v>0.15747119782319224</v>
+        <v>0.51679166412606792</v>
       </c>
       <c r="K23"/>
       <c r="L23" s="27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M23" s="29">
         <v>779900</v>
@@ -2265,38 +2228,38 @@
     </row>
     <row r="24" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" s="25">
-        <v>36.184555006552003</v>
+        <v>33.14958381263137</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="26">
-        <v>2.8064040910894812E-3</v>
+        <v>5.9952153886406552E-3</v>
       </c>
       <c r="E24" s="27">
-        <v>356.32787280173449</v>
+        <v>166.79967860616568</v>
       </c>
       <c r="F24" s="28">
-        <v>1.859</v>
+        <v>2.39</v>
       </c>
       <c r="G24" s="25">
-        <v>0</v>
+        <v>1427</v>
       </c>
       <c r="H24" s="28">
-        <v>3.6503338982989217</v>
+        <v>3.3550822227500987</v>
       </c>
       <c r="I24" s="28">
-        <v>0.12909722222222222</v>
+        <v>0.16597222222222224</v>
       </c>
       <c r="J24" s="28">
-        <v>6.8507690229452509E-2</v>
+        <v>9.6678251797050196E-2</v>
       </c>
       <c r="K24"/>
       <c r="L24" s="27">
-        <v>33208</v>
+        <v>70941</v>
       </c>
       <c r="M24" s="29">
         <v>11832936</v>
@@ -2304,38 +2267,38 @@
     </row>
     <row r="25" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B25" s="25">
-        <v>35.485825554484805</v>
+        <v>34.998522078739036</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="26">
-        <v>2.0490528607836041E-3</v>
+        <v>3.2300084051921597E-3</v>
       </c>
       <c r="E25" s="27">
-        <v>488.03035740989981</v>
+        <v>309.59671757897729</v>
       </c>
       <c r="F25" s="28">
-        <v>8.0980000000000008</v>
+        <v>6.1280000000000001</v>
       </c>
       <c r="G25" s="25">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="H25" s="28">
-        <v>3.7088962844860922</v>
+        <v>3.6202493745981572</v>
       </c>
       <c r="I25" s="28">
-        <v>0.5623611111111112</v>
+        <v>0.42555555555555558</v>
       </c>
       <c r="J25" s="28">
-        <v>8.3946042957216471E-2</v>
+        <v>7.2694999424130949E-2</v>
       </c>
       <c r="K25"/>
       <c r="L25" s="27">
-        <v>6687</v>
+        <v>10541</v>
       </c>
       <c r="M25" s="29">
         <v>3263459</v>
@@ -2343,38 +2306,38 @@
     </row>
     <row r="26" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" s="25">
-        <v>31.849008801167866</v>
+        <v>30.662436441658617</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D26" s="26">
-        <v>8.1948407335102041E-3</v>
+        <v>8.7020907376816666E-3</v>
       </c>
       <c r="E26" s="27">
-        <v>122.02799694578772</v>
+        <v>114.91491299554193</v>
       </c>
       <c r="F26" s="28">
-        <v>1.0129999999999999</v>
+        <v>1.847</v>
       </c>
       <c r="G26" s="25">
         <v>0</v>
       </c>
       <c r="H26" s="28">
-        <v>3.2060050467834533</v>
+        <v>3.1047228108325284</v>
       </c>
       <c r="I26" s="28">
-        <v>7.0347222222222214E-2</v>
+        <v>0.1282638888888889</v>
       </c>
       <c r="J26" s="28">
         <v>0</v>
       </c>
       <c r="K26"/>
       <c r="L26" s="27">
-        <v>19645</v>
+        <v>20861</v>
       </c>
       <c r="M26" s="29">
         <v>2397240</v>
@@ -2382,38 +2345,38 @@
     </row>
     <row r="27" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="25">
-        <v>45.763209086986151</v>
+        <v>43.727825208312964</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D27" s="26">
-        <v>3.3777203479801979E-4</v>
+        <v>4.5472889049903172E-4</v>
       </c>
       <c r="E27" s="27">
-        <v>2960.5766522322606</v>
+        <v>2199.1125281320328</v>
       </c>
       <c r="F27" s="28">
-        <v>0.505</v>
+        <v>0.27</v>
       </c>
       <c r="G27" s="25">
-        <v>235</v>
+        <v>0</v>
       </c>
       <c r="H27" s="28">
-        <v>4.5845742339750579</v>
+        <v>4.3768154122698171</v>
       </c>
       <c r="I27" s="28">
-        <v>3.5069444444444445E-2</v>
+        <v>1.8750000000000003E-2</v>
       </c>
       <c r="J27" s="28">
-        <v>2.2675080568903296E-2</v>
+        <v>1.5921085614791025E-2</v>
       </c>
       <c r="K27"/>
       <c r="L27" s="27">
-        <v>72281</v>
+        <v>97309</v>
       </c>
       <c r="M27" s="29">
         <v>213993441</v>
@@ -2421,19 +2384,19 @@
     </row>
     <row r="28" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" s="25">
-        <v>46.487088893504549</v>
+        <v>46.921068048027941</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D28" s="26">
-        <v>2.1289510160078998E-4</v>
+        <v>2.3327867515831243E-4</v>
       </c>
       <c r="E28" s="27">
-        <v>4697.1489361702124</v>
+        <v>4286.7184466019417</v>
       </c>
       <c r="F28" s="28">
         <v>0</v>
@@ -2442,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28">
-        <v>4.6487088893504547</v>
+        <v>4.6921068048027941</v>
       </c>
       <c r="I28" s="28">
         <v>0</v>
@@ -2452,7 +2415,7 @@
       </c>
       <c r="K28"/>
       <c r="L28" s="27">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="M28" s="29">
         <v>441532</v>
@@ -2460,38 +2423,38 @@
     </row>
     <row r="29" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" s="25">
-        <v>33.673889555160606</v>
+        <v>32.064664649834803</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29" s="26">
-        <v>3.259406190392299E-3</v>
+        <v>5.494692716976563E-3</v>
       </c>
       <c r="E29" s="27">
-        <v>306.80435072734554</v>
+        <v>181.99379865417603</v>
       </c>
       <c r="F29" s="28">
-        <v>9.4039999999999999</v>
+        <v>10.045999999999999</v>
       </c>
       <c r="G29" s="25">
-        <v>3457</v>
+        <v>4298</v>
       </c>
       <c r="H29" s="28">
-        <v>3.529949131320302</v>
+        <v>3.3866394823002017</v>
       </c>
       <c r="I29" s="28">
-        <v>0.6530555555555555</v>
+        <v>0.69763888888888881</v>
       </c>
       <c r="J29" s="28">
-        <v>0.33356490862424976</v>
+        <v>0.29118649349945464</v>
       </c>
       <c r="K29"/>
       <c r="L29" s="27">
-        <v>22479</v>
+        <v>37895</v>
       </c>
       <c r="M29" s="29">
         <v>6896655</v>
@@ -2499,38 +2462,38 @@
     </row>
     <row r="30" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30" s="25">
-        <v>54.211541809906358</v>
+        <v>52.393355195326677</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D30" s="26">
-        <v>4.4657192550231316E-5</v>
+        <v>7.4289100523666058E-5</v>
       </c>
       <c r="E30" s="27">
-        <v>22392.809375000001</v>
+        <v>13460.924859110832</v>
       </c>
       <c r="F30" s="28">
-        <v>7.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
       <c r="G30" s="25">
         <v>0</v>
       </c>
       <c r="H30" s="28">
-        <v>5.4213000143239691</v>
+        <v>5.2414188528660013</v>
       </c>
       <c r="I30" s="28">
-        <v>4.861111111111111E-4</v>
+        <v>6.9444444444444449E-3</v>
       </c>
       <c r="J30" s="28">
         <v>0</v>
       </c>
       <c r="K30"/>
       <c r="L30" s="27">
-        <v>960</v>
+        <v>1597</v>
       </c>
       <c r="M30" s="29">
         <v>21497097</v>
@@ -2538,19 +2501,19 @@
     </row>
     <row r="31" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="25">
-        <v>44.203286988032289</v>
+        <v>42.293875905049305</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D31" s="26">
-        <v>4.8500954148565504E-4</v>
+        <v>8.0731568025892847E-4</v>
       </c>
       <c r="E31" s="27">
-        <v>2061.8151076716017</v>
+        <v>1238.6728320194059</v>
       </c>
       <c r="F31" s="28">
         <v>0</v>
@@ -2559,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="28">
-        <v>4.4203286988032291</v>
+        <v>4.2293875905049303</v>
       </c>
       <c r="I31" s="28">
         <v>0</v>
@@ -2569,7 +2532,7 @@
       </c>
       <c r="K31"/>
       <c r="L31" s="27">
-        <v>5944</v>
+        <v>9894</v>
       </c>
       <c r="M31" s="29">
         <v>12255429</v>
@@ -2577,38 +2540,38 @@
     </row>
     <row r="32" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B32" s="25">
-        <v>62.516065391211626</v>
+        <v>62.316741585942388</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D32" s="26">
-        <v>5.3108480680846003E-6</v>
+        <v>7.0221213344674154E-6</v>
       </c>
       <c r="E32" s="27">
-        <v>188293.84444444443</v>
+        <v>142407.10924369749</v>
       </c>
       <c r="F32" s="28">
-        <v>5.0999999999999997E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G32" s="25">
         <v>0</v>
       </c>
       <c r="H32" s="28">
-        <v>6.2526690391211623</v>
+        <v>6.2321949919275719</v>
       </c>
       <c r="I32" s="28">
-        <v>3.5416666666666665E-3</v>
+        <v>1.7361111111111112E-3</v>
       </c>
       <c r="J32" s="28">
         <v>0</v>
       </c>
       <c r="K32"/>
       <c r="L32" s="27">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="M32" s="29">
         <v>16946446</v>
@@ -2616,19 +2579,19 @@
     </row>
     <row r="33" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B33" s="25">
-        <v>53.175432829580274</v>
+        <v>52.946284899970209</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D33" s="26">
-        <v>6.2627960309814831E-5</v>
+        <v>3.3646458442105793E-5</v>
       </c>
       <c r="E33" s="27">
-        <v>15967.30909090909</v>
+        <v>29720.810043668123</v>
       </c>
       <c r="F33" s="28">
         <v>0</v>
@@ -2637,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="28">
-        <v>5.3175432829580274</v>
+        <v>5.2946284899970211</v>
       </c>
       <c r="I33" s="28">
         <v>0</v>
@@ -2647,7 +2610,7 @@
       </c>
       <c r="K33"/>
       <c r="L33" s="27">
-        <v>1705</v>
+        <v>916</v>
       </c>
       <c r="M33" s="29">
         <v>27224262</v>
@@ -2655,38 +2618,38 @@
     </row>
     <row r="34" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B34" s="25">
-        <v>33.219782464836442</v>
+        <v>29.911292032994108</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D34" s="26">
-        <v>7.4747202453677979E-3</v>
+        <v>1.2562154379201192E-2</v>
       </c>
       <c r="E34" s="27">
-        <v>133.78427113974143</v>
+        <v>79.604180128185021</v>
       </c>
       <c r="F34" s="28">
-        <v>0.53700000000000003</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="G34" s="25">
-        <v>4032</v>
+        <v>4175</v>
       </c>
       <c r="H34" s="28">
-        <v>3.2942610976096787</v>
+        <v>2.9878647036788069</v>
       </c>
       <c r="I34" s="28">
-        <v>3.7291666666666667E-2</v>
+        <v>8.3402777777777784E-2</v>
       </c>
       <c r="J34" s="28">
-        <v>0.38904648873965147</v>
+        <v>0.28285332953937248</v>
       </c>
       <c r="K34"/>
       <c r="L34" s="27">
-        <v>284547</v>
+        <v>478215</v>
       </c>
       <c r="M34" s="29">
         <v>38067913</v>
@@ -2694,38 +2657,38 @@
     </row>
     <row r="35" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B35" s="25">
-        <v>37.762021976183661</v>
+        <v>29.81037455652821</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35" s="26">
-        <v>3.9099414309638177E-3</v>
+        <v>1.5349679035986767E-2</v>
       </c>
       <c r="E35" s="27">
-        <v>255.75830678197539</v>
+        <v>65.147942028985497</v>
       </c>
       <c r="F35" s="28">
-        <v>0</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="G35" s="25">
         <v>0</v>
       </c>
       <c r="H35" s="28">
-        <v>3.7762021976183662</v>
+        <v>3.0128082889861543</v>
       </c>
       <c r="I35" s="28">
-        <v>0</v>
+        <v>0.10590277777777778</v>
       </c>
       <c r="J35" s="28">
         <v>0</v>
       </c>
       <c r="K35"/>
       <c r="L35" s="27">
-        <v>2197</v>
+        <v>8625</v>
       </c>
       <c r="M35" s="29">
         <v>561901</v>
@@ -2733,19 +2696,19 @@
     </row>
     <row r="36" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B36" s="25">
-        <v>55.57060442708574</v>
+        <v>52.369042868831656</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36" s="26">
-        <v>4.1057019053099122E-5</v>
+        <v>1.0020351679791024E-4</v>
       </c>
       <c r="E36" s="27">
-        <v>24356.371287128713</v>
+        <v>9979.689655172413</v>
       </c>
       <c r="F36" s="28">
         <v>0</v>
@@ -2754,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="28">
-        <v>5.5570604427085737</v>
+        <v>5.2369042868831652</v>
       </c>
       <c r="I36" s="28">
         <v>0</v>
@@ -2764,7 +2727,7 @@
       </c>
       <c r="K36"/>
       <c r="L36" s="27">
-        <v>202</v>
+        <v>493</v>
       </c>
       <c r="M36" s="29">
         <v>4919987</v>
@@ -2772,38 +2735,38 @@
     </row>
     <row r="37" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B37" s="25">
-        <v>100</v>
+        <v>56.125543027226456</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="26">
-        <v>0</v>
+        <v>2.8495443537194979E-5</v>
       </c>
       <c r="E37" s="27">
-        <v>0</v>
+        <v>35093.32987551867</v>
       </c>
       <c r="F37" s="28">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G37" s="25">
         <v>0</v>
       </c>
       <c r="H37" s="28">
-        <v>10</v>
+        <v>5.6130751360559792</v>
       </c>
       <c r="I37" s="28">
-        <v>0</v>
+        <v>1.7361111111111112E-3</v>
       </c>
       <c r="J37" s="28">
         <v>0</v>
       </c>
       <c r="K37"/>
       <c r="L37" s="27">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="M37" s="29">
         <v>16914985</v>
@@ -2811,38 +2774,38 @@
     </row>
     <row r="38" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B38" s="25">
-        <v>40.451911915300045</v>
+        <v>40.116502981755119</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D38" s="26">
-        <v>8.8515925319333463E-4</v>
+        <v>1.0965856254426187E-3</v>
       </c>
       <c r="E38" s="27">
-        <v>1129.7402093378807</v>
+        <v>911.9214923106133</v>
       </c>
       <c r="F38" s="28">
-        <v>1.056</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="G38" s="25">
-        <v>2536</v>
+        <v>2694</v>
       </c>
       <c r="H38" s="28">
-        <v>4.0427214024564986</v>
+        <v>4.0105861366239175</v>
       </c>
       <c r="I38" s="28">
-        <v>7.3333333333333334E-2</v>
+        <v>5.7291666666666664E-2</v>
       </c>
       <c r="J38" s="28">
-        <v>0.24469789073505857</v>
+        <v>0.18251661551594481</v>
       </c>
       <c r="K38"/>
       <c r="L38" s="27">
-        <v>17006</v>
+        <v>21068</v>
       </c>
       <c r="M38" s="29">
         <v>19212362</v>
@@ -2850,19 +2813,19 @@
     </row>
     <row r="39" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B39" s="25">
-        <v>69.579622760885684</v>
+        <v>67.89463038081486</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D39" s="26">
-        <v>1.3910660580628259E-6</v>
+        <v>1.7753575773385194E-6</v>
       </c>
       <c r="E39" s="27">
-        <v>718873.12195121951</v>
+        <v>563266.81045241805</v>
       </c>
       <c r="F39" s="28">
         <v>0</v>
@@ -2871,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <v>6.9579622760885682</v>
+        <v>6.789463038081486</v>
       </c>
       <c r="I39" s="28">
         <v>0</v>
@@ -2881,7 +2844,7 @@
       </c>
       <c r="K39"/>
       <c r="L39" s="27">
-        <v>2009</v>
+        <v>2564</v>
       </c>
       <c r="M39" s="29">
         <v>1444216102</v>
@@ -2889,38 +2852,38 @@
     </row>
     <row r="40" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B40" s="25">
-        <v>41.684185068403337</v>
+        <v>37.684623456441322</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D40" s="26">
-        <v>8.8895449896159899E-4</v>
+        <v>2.4866070177216055E-3</v>
       </c>
       <c r="E40" s="27">
-        <v>1124.9169683804007</v>
+        <v>402.15441880167555</v>
       </c>
       <c r="F40" s="28">
-        <v>0.72699999999999998</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="G40" s="25">
-        <v>1114</v>
+        <v>1425</v>
       </c>
       <c r="H40" s="28">
-        <v>4.1728153870869615</v>
+        <v>3.7756414036578585</v>
       </c>
       <c r="I40" s="28">
-        <v>5.0486111111111107E-2</v>
+        <v>5.6111111111111112E-2</v>
       </c>
       <c r="J40" s="28">
-        <v>0.1074895308670565</v>
+        <v>9.654275319607325E-2</v>
       </c>
       <c r="K40"/>
       <c r="L40" s="27">
-        <v>45573</v>
+        <v>127478</v>
       </c>
       <c r="M40" s="29">
         <v>51265841</v>
@@ -2928,38 +2891,38 @@
     </row>
     <row r="41" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B41" s="25">
-        <v>38.5896383588506</v>
+        <v>35.970748613375868</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D41" s="26">
-        <v>1.9078041005969907E-3</v>
+        <v>2.5685008599187803E-3</v>
       </c>
       <c r="E41" s="27">
-        <v>524.16283185840712</v>
+        <v>389.3321647677476</v>
       </c>
       <c r="F41" s="28">
-        <v>0.64300000000000002</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="G41" s="25">
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <v>3.8723596692183935</v>
+        <v>3.6071165280042536</v>
       </c>
       <c r="I41" s="28">
-        <v>4.4652777777777777E-2</v>
+        <v>3.3472222222222223E-2</v>
       </c>
       <c r="J41" s="28">
         <v>0</v>
       </c>
       <c r="K41"/>
       <c r="L41" s="27">
-        <v>1695</v>
+        <v>2282</v>
       </c>
       <c r="M41" s="29">
         <v>888456</v>
@@ -2967,38 +2930,38 @@
     </row>
     <row r="42" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="25">
-        <v>48.774434228684605</v>
+        <v>45.884921862280308</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D42" s="26">
-        <v>1.6086216463553142E-4</v>
+        <v>3.1589086615790618E-4</v>
       </c>
       <c r="E42" s="27">
-        <v>6216.5021978021978</v>
+        <v>3165.6502518186908</v>
       </c>
       <c r="F42" s="28">
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G42" s="25">
         <v>0</v>
       </c>
       <c r="H42" s="28">
-        <v>4.8774434228684607</v>
+        <v>4.5895546862280305</v>
       </c>
       <c r="I42" s="28">
-        <v>0</v>
+        <v>3.5416666666666665E-3</v>
       </c>
       <c r="J42" s="28">
         <v>0</v>
       </c>
       <c r="K42"/>
       <c r="L42" s="27">
-        <v>910</v>
+        <v>1787</v>
       </c>
       <c r="M42" s="29">
         <v>5657017</v>
@@ -3006,38 +2969,38 @@
     </row>
     <row r="43" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B43" s="25">
-        <v>45.49901240576952</v>
+        <v>39.823703471014653</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D43" s="26">
-        <v>4.1408407346645384E-4</v>
+        <v>2.4389707597878441E-3</v>
       </c>
       <c r="E43" s="27">
-        <v>2414.968515037594</v>
+        <v>410.00901547790011</v>
       </c>
       <c r="F43" s="28">
-        <v>0.27800000000000002</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="G43" s="25">
         <v>0</v>
       </c>
       <c r="H43" s="28">
-        <v>4.5550271282822337</v>
+        <v>3.9857883302217272</v>
       </c>
       <c r="I43" s="28">
-        <v>1.9305555555555558E-2</v>
+        <v>3.2847222222222222E-2</v>
       </c>
       <c r="J43" s="28">
-        <v>6.6577896138482031E-3</v>
+        <v>6.4361835464048833E-2</v>
       </c>
       <c r="K43"/>
       <c r="L43" s="27">
-        <v>2128</v>
+        <v>12534</v>
       </c>
       <c r="M43" s="29">
         <v>5139053</v>
@@ -3045,38 +3008,38 @@
     </row>
     <row r="44" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44" s="25">
-        <v>49.363472426643987</v>
+        <v>43.966427232077216</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D44" s="26">
-        <v>2.272523216755874E-4</v>
+        <v>4.7147094387965476E-4</v>
       </c>
       <c r="E44" s="27">
-        <v>4400.3950878334417</v>
+        <v>2121.0214817718543</v>
       </c>
       <c r="F44" s="28">
-        <v>2.5999999999999999E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G44" s="25">
-        <v>118</v>
+        <v>191</v>
       </c>
       <c r="H44" s="28">
-        <v>4.9357503308173927</v>
+        <v>4.3973278782350587</v>
       </c>
       <c r="I44" s="28">
-        <v>1.8055555555555555E-3</v>
+        <v>6.5972222222222222E-3</v>
       </c>
       <c r="J44" s="28">
-        <v>1.1385785136725911E-2</v>
+        <v>1.2940116393298239E-2</v>
       </c>
       <c r="K44"/>
       <c r="L44" s="27">
-        <v>6148</v>
+        <v>12755</v>
       </c>
       <c r="M44" s="29">
         <v>27053629</v>
@@ -3084,38 +3047,38 @@
     </row>
     <row r="45" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B45" s="25">
-        <v>27.914940935311218</v>
+        <v>27.388579572325348</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D45" s="26">
-        <v>1.0661356405009044E-2</v>
+        <v>1.4443643843664472E-2</v>
       </c>
       <c r="E45" s="27">
-        <v>93.796695468333482</v>
+        <v>69.234606642467014</v>
       </c>
       <c r="F45" s="28">
-        <v>10.99</v>
+        <v>9.4849999999999994</v>
       </c>
       <c r="G45" s="25">
-        <v>2218</v>
+        <v>2963</v>
       </c>
       <c r="H45" s="28">
-        <v>2.9990510103955925</v>
+        <v>2.9163880061644671</v>
       </c>
       <c r="I45" s="28">
-        <v>0.76319444444444451</v>
+        <v>0.65868055555555549</v>
       </c>
       <c r="J45" s="28">
-        <v>0.21401416468862772</v>
+        <v>0.2007411773473439</v>
       </c>
       <c r="K45"/>
       <c r="L45" s="27">
-        <v>43516</v>
+        <v>58954</v>
       </c>
       <c r="M45" s="29">
         <v>4081657</v>
@@ -3123,38 +3086,38 @@
     </row>
     <row r="46" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B46" s="25">
-        <v>49.599169346968452</v>
+        <v>44.903768584610411</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D46" s="26">
-        <v>1.489728560146421E-4</v>
+        <v>5.4437827159324441E-4</v>
       </c>
       <c r="E46" s="27">
-        <v>6712.6322657176752</v>
+        <v>1836.9579613699075</v>
       </c>
       <c r="F46" s="28">
-        <v>6.3E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="G46" s="25">
         <v>0</v>
       </c>
       <c r="H46" s="28">
-        <v>4.9612294346968451</v>
+        <v>4.4911685251277076</v>
       </c>
       <c r="I46" s="28">
-        <v>4.3750000000000004E-3</v>
+        <v>2.638888888888889E-3</v>
       </c>
       <c r="J46" s="28">
         <v>0</v>
       </c>
       <c r="K46"/>
       <c r="L46" s="27">
-        <v>1686</v>
+        <v>6161</v>
       </c>
       <c r="M46" s="29">
         <v>11317498</v>
@@ -3162,38 +3125,38 @@
     </row>
     <row r="47" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B47" s="25">
-        <v>38.206451301868348</v>
+        <v>32.532049110338441</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47" s="26">
-        <v>2.0389395148464572E-2</v>
+        <v>4.8542139831808974E-2</v>
       </c>
       <c r="E47" s="27">
-        <v>49.045103727626035</v>
+        <v>20.600657561962571</v>
       </c>
       <c r="F47" s="28">
-        <v>1.754</v>
+        <v>2.2320000000000002</v>
       </c>
       <c r="G47" s="25">
-        <v>103037</v>
+        <v>126661</v>
       </c>
       <c r="H47" s="28">
-        <v>2.8629858280968676</v>
+        <v>2.4415854961168035</v>
       </c>
       <c r="I47" s="28">
-        <v>0.12180555555555556</v>
+        <v>0.15500000000000003</v>
       </c>
       <c r="J47" s="28">
-        <v>9.9420096875663369</v>
+        <v>8.5811941491704093</v>
       </c>
       <c r="K47"/>
       <c r="L47" s="27">
-        <v>18269</v>
+        <v>43494</v>
       </c>
       <c r="M47" s="29">
         <v>896005</v>
@@ -3201,38 +3164,38 @@
     </row>
     <row r="48" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B48" s="25">
-        <v>28.436310425687093</v>
+        <v>30.210702289640434</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D48" s="26">
-        <v>8.5059955412593886E-3</v>
+        <v>9.6793777791950864E-3</v>
       </c>
       <c r="E48" s="27">
-        <v>117.56413404514213</v>
+        <v>103.31242594430049</v>
       </c>
       <c r="F48" s="28">
-        <v>10.297000000000001</v>
+        <v>5.1680000000000001</v>
       </c>
       <c r="G48" s="25">
-        <v>4567</v>
+        <v>5976</v>
       </c>
       <c r="H48" s="28">
-        <v>3.0140850278347315</v>
+        <v>3.0882499136587991</v>
       </c>
       <c r="I48" s="28">
-        <v>0.71506944444444454</v>
+        <v>0.35888888888888892</v>
       </c>
       <c r="J48" s="28">
-        <v>0.44066848067311221</v>
+        <v>0.4048698197191114</v>
       </c>
       <c r="K48"/>
       <c r="L48" s="27">
-        <v>91223</v>
+        <v>103807</v>
       </c>
       <c r="M48" s="29">
         <v>10724553</v>
@@ -3240,38 +3203,38 @@
     </row>
     <row r="49" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B49" s="25">
-        <v>49.056543283457451</v>
+        <v>49.451182739739039</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D49" s="26">
-        <v>1.2346014991060749E-4</v>
+        <v>1.0950660907459056E-4</v>
       </c>
       <c r="E49" s="27">
-        <v>8099.7795703638758</v>
+        <v>9131.8689205219453</v>
       </c>
       <c r="F49" s="28">
-        <v>0.122</v>
+        <v>3.1E-2</v>
       </c>
       <c r="G49" s="25">
         <v>0</v>
       </c>
       <c r="H49" s="28">
-        <v>4.9081959950124121</v>
+        <v>4.9457641073072374</v>
       </c>
       <c r="I49" s="28">
-        <v>8.4722222222222213E-3</v>
+        <v>2.1527777777777778E-3</v>
       </c>
       <c r="J49" s="28">
         <v>0</v>
       </c>
       <c r="K49"/>
       <c r="L49" s="27">
-        <v>11405</v>
+        <v>10116</v>
       </c>
       <c r="M49" s="29">
         <v>92377986</v>
@@ -3279,38 +3242,38 @@
     </row>
     <row r="50" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B50" s="25">
-        <v>27.635520752460852</v>
+        <v>25.686099868585071</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D50" s="26">
-        <v>3.3445363753680783E-2</v>
+        <v>4.2244665768267332E-2</v>
       </c>
       <c r="E50" s="27">
-        <v>29.899510358590327</v>
+        <v>23.671627691067304</v>
       </c>
       <c r="F50" s="28">
-        <v>2.04</v>
+        <v>1.8919999999999999</v>
       </c>
       <c r="G50" s="25">
-        <v>25446</v>
+        <v>27359</v>
       </c>
       <c r="H50" s="28">
-        <v>2.5605243730519094</v>
+        <v>2.422671342318762</v>
       </c>
       <c r="I50" s="28">
-        <v>0.14166666666666666</v>
+        <v>0.13138888888888889</v>
       </c>
       <c r="J50" s="28">
-        <v>2.4552770219417588</v>
+        <v>1.853553112064118</v>
       </c>
       <c r="K50"/>
       <c r="L50" s="27">
-        <v>194428</v>
+        <v>245581</v>
       </c>
       <c r="M50" s="29">
         <v>5813302</v>
@@ -3318,19 +3281,19 @@
     </row>
     <row r="51" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B51" s="25">
-        <v>51.300461244003955</v>
+        <v>46.66209914042598</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D51" s="26">
-        <v>1.0576762852014125E-4</v>
+        <v>3.921384717775048E-4</v>
       </c>
       <c r="E51" s="27">
-        <v>9454.6886792452824</v>
+        <v>2550.1195928753182</v>
       </c>
       <c r="F51" s="28">
         <v>0</v>
@@ -3339,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="28">
-        <v>5.1300461244003959</v>
+        <v>4.6662099140425983</v>
       </c>
       <c r="I51" s="28">
         <v>0</v>
@@ -3349,7 +3312,7 @@
       </c>
       <c r="K51"/>
       <c r="L51" s="27">
-        <v>106</v>
+        <v>393</v>
       </c>
       <c r="M51" s="29">
         <v>1002197</v>
@@ -3357,38 +3320,38 @@
     </row>
     <row r="52" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B52" s="25">
-        <v>32.199214476076186</v>
+        <v>31.096250170707332</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D52" s="26">
-        <v>7.3158565648728038E-3</v>
+        <v>8.549021781300228E-3</v>
       </c>
       <c r="E52" s="27">
-        <v>136.68939393939394</v>
+        <v>116.97244732576985</v>
       </c>
       <c r="F52" s="28">
-        <v>5.9379999999999997</v>
+        <v>0</v>
       </c>
       <c r="G52" s="25">
         <v>0</v>
       </c>
       <c r="H52" s="28">
-        <v>3.3436297809409519</v>
+        <v>3.1096250170707331</v>
       </c>
       <c r="I52" s="28">
-        <v>0.41236111111111107</v>
+        <v>0</v>
       </c>
       <c r="J52" s="28">
         <v>0</v>
       </c>
       <c r="K52"/>
       <c r="L52" s="27">
-        <v>528</v>
+        <v>617</v>
       </c>
       <c r="M52" s="29">
         <v>72172</v>
@@ -3396,38 +3359,38 @@
     </row>
     <row r="53" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B53" s="25">
-        <v>43.798155696222068</v>
+        <v>38.684551174445104</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D53" s="26">
-        <v>5.7094789949783237E-4</v>
+        <v>2.4039334968942953E-3</v>
       </c>
       <c r="E53" s="27">
-        <v>1751.4732970898626</v>
+        <v>415.98488531064868</v>
       </c>
       <c r="F53" s="28">
-        <v>0.23499999999999999</v>
+        <v>7.8E-2</v>
       </c>
       <c r="G53" s="25">
         <v>0</v>
       </c>
       <c r="H53" s="28">
-        <v>4.3847114029555403</v>
+        <v>3.8700801174445107</v>
       </c>
       <c r="I53" s="28">
-        <v>1.6319444444444442E-2</v>
+        <v>5.4166666666666669E-3</v>
       </c>
       <c r="J53" s="28">
         <v>0</v>
       </c>
       <c r="K53"/>
       <c r="L53" s="27">
-        <v>6254</v>
+        <v>26332</v>
       </c>
       <c r="M53" s="29">
         <v>10953714</v>
@@ -3435,38 +3398,38 @@
     </row>
     <row r="54" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B54" s="25">
-        <v>42.813796683919712</v>
+        <v>40.627154288888939</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D54" s="26">
-        <v>6.5807737429140123E-4</v>
+        <v>1.2148604738447784E-3</v>
       </c>
       <c r="E54" s="27">
-        <v>1519.5781515460415</v>
+        <v>823.1397938523836</v>
       </c>
       <c r="F54" s="28">
-        <v>0.38300000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="G54" s="25">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="H54" s="28">
-        <v>4.2870623800903829</v>
+        <v>4.0653184484752165</v>
       </c>
       <c r="I54" s="28">
-        <v>2.6597222222222223E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J54" s="28">
-        <v>2.2964549682548872E-2</v>
+        <v>1.8969804136772291E-2</v>
       </c>
       <c r="K54"/>
       <c r="L54" s="27">
-        <v>11772</v>
+        <v>21732</v>
       </c>
       <c r="M54" s="29">
         <v>17888474</v>
@@ -3474,38 +3437,38 @@
     </row>
     <row r="55" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B55" s="25">
-        <v>49.225431062984157</v>
+        <v>49.449465649903104</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D55" s="26">
-        <v>1.1633603136562896E-4</v>
+        <v>1.0983295367860641E-4</v>
       </c>
       <c r="E55" s="27">
-        <v>8595.7891829499549</v>
+        <v>9104.7355689459437</v>
       </c>
       <c r="F55" s="28">
-        <v>0.29699999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="G55" s="25">
         <v>0</v>
       </c>
       <c r="H55" s="28">
-        <v>4.9287306062984158</v>
+        <v>4.9493632316569771</v>
       </c>
       <c r="I55" s="28">
-        <v>2.0624999999999998E-2</v>
+        <v>1.4722222222222222E-2</v>
       </c>
       <c r="J55" s="28">
         <v>0</v>
       </c>
       <c r="K55"/>
       <c r="L55" s="27">
-        <v>12129</v>
+        <v>11451</v>
       </c>
       <c r="M55" s="29">
         <v>104258327</v>
@@ -3513,38 +3476,38 @@
     </row>
     <row r="56" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B56" s="25">
-        <v>48.40022460248472</v>
+        <v>51.528564697924175</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D56" s="26">
-        <v>8.6062744496433229E-5</v>
+        <v>6.1670629746107228E-5</v>
       </c>
       <c r="E56" s="27">
-        <v>11619.429590017826</v>
+        <v>16215.174129353236</v>
       </c>
       <c r="F56" s="28">
-        <v>0.17499999999999999</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="G56" s="25">
         <v>0</v>
       </c>
       <c r="H56" s="28">
-        <v>4.8436682935818052</v>
+        <v>5.1542314697924176</v>
       </c>
       <c r="I56" s="28">
-        <v>1.2152777777777776E-2</v>
+        <v>4.5833333333333334E-3</v>
       </c>
       <c r="J56" s="28">
         <v>0</v>
       </c>
       <c r="K56"/>
       <c r="L56" s="27">
-        <v>561</v>
+        <v>402</v>
       </c>
       <c r="M56" s="29">
         <v>6518500</v>
@@ -3552,38 +3515,38 @@
     </row>
     <row r="57" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B57" s="25">
-        <v>57.003567602663111</v>
+        <v>50.202146174767158</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D57" s="26">
-        <v>6.4142752800038069E-5</v>
+        <v>1.7449587589687778E-4</v>
       </c>
       <c r="E57" s="27">
-        <v>15590.225806451614</v>
+        <v>5730.794466403162</v>
       </c>
       <c r="F57" s="28">
         <v>0</v>
       </c>
       <c r="G57" s="25">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H57" s="28">
-        <v>5.6989673085208121</v>
+        <v>5.0192119278294864</v>
       </c>
       <c r="I57" s="28">
         <v>0</v>
       </c>
       <c r="J57" s="28">
-        <v>1.3894517454987551E-2</v>
+        <v>1.0026896472293923E-2</v>
       </c>
       <c r="K57"/>
       <c r="L57" s="27">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="M57" s="29">
         <v>1449891</v>
@@ -3591,38 +3554,38 @@
     </row>
     <row r="58" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B58" s="25">
-        <v>51.550723303558286</v>
+        <v>50.618060438962274</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D58" s="26">
-        <v>7.4691889016182875E-5</v>
+        <v>1.0606803570327828E-4</v>
       </c>
       <c r="E58" s="27">
-        <v>13388.334572490707</v>
+        <v>9427.9109947643974</v>
       </c>
       <c r="F58" s="28">
-        <v>0.11899999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="G58" s="25">
         <v>0</v>
       </c>
       <c r="H58" s="28">
-        <v>5.1575514970224949</v>
+        <v>5.0651185438962276</v>
       </c>
       <c r="I58" s="28">
-        <v>8.2638888888888883E-3</v>
+        <v>1.1041666666666667E-2</v>
       </c>
       <c r="J58" s="28">
         <v>0</v>
       </c>
       <c r="K58"/>
       <c r="L58" s="27">
-        <v>269</v>
+        <v>382</v>
       </c>
       <c r="M58" s="29">
         <v>3601462</v>
@@ -3630,38 +3593,38 @@
     </row>
     <row r="59" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B59" s="25">
-        <v>31.630035191732198</v>
+        <v>30.739535583222793</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D59" s="26">
-        <v>7.4102693353697742E-3</v>
+        <v>9.7382409137420495E-3</v>
       </c>
       <c r="E59" s="27">
-        <v>134.94786150712829</v>
+        <v>102.68795040681907</v>
       </c>
       <c r="F59" s="28">
-        <v>3.1259999999999999</v>
+        <v>1.833</v>
       </c>
       <c r="G59" s="25">
-        <v>4787</v>
+        <v>5672</v>
       </c>
       <c r="H59" s="28">
-        <v>3.1819388976058409</v>
+        <v>3.0737136550852178</v>
       </c>
       <c r="I59" s="28">
-        <v>0.21708333333333332</v>
+        <v>0.12729166666666666</v>
       </c>
       <c r="J59" s="28">
-        <v>0.46189621567378758</v>
+        <v>0.38427403237061575</v>
       </c>
       <c r="K59"/>
       <c r="L59" s="27">
-        <v>9820</v>
+        <v>12905</v>
       </c>
       <c r="M59" s="29">
         <v>1325188</v>
@@ -3669,38 +3632,38 @@
     </row>
     <row r="60" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B60" s="25">
-        <v>29.615181222999663</v>
+        <v>32.721805671134334</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D60" s="26">
-        <v>6.8152603830363987E-3</v>
+        <v>3.0544990527726339E-3</v>
       </c>
       <c r="E60" s="27">
-        <v>146.72953692115144</v>
+        <v>327.38592571907287</v>
       </c>
       <c r="F60" s="28">
-        <v>3.6560000000000001</v>
+        <v>3.29</v>
       </c>
       <c r="G60" s="25">
         <v>0</v>
       </c>
       <c r="H60" s="28">
-        <v>3.037684788966633</v>
+        <v>3.3407222337801001</v>
       </c>
       <c r="I60" s="28">
-        <v>0.25388888888888889</v>
+        <v>0.22847222222222222</v>
       </c>
       <c r="J60" s="28">
         <v>0</v>
       </c>
       <c r="K60"/>
       <c r="L60" s="27">
-        <v>7990</v>
+        <v>3581</v>
       </c>
       <c r="M60" s="29">
         <v>1172369</v>
@@ -3708,38 +3671,38 @@
     </row>
     <row r="61" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B61" s="25">
-        <v>46.080787780260437</v>
+        <v>43.619532179244899</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D61" s="26">
-        <v>3.4817029177707133E-4</v>
+        <v>4.5691995602234502E-4</v>
       </c>
       <c r="E61" s="27">
-        <v>2872.1577446943297</v>
+        <v>2188.5671370219084</v>
       </c>
       <c r="F61" s="28">
-        <v>0.05</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="G61" s="25">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="H61" s="28">
-        <v>4.6083292291154123</v>
+        <v>4.3633976736604847</v>
       </c>
       <c r="I61" s="28">
-        <v>3.4722222222222225E-3</v>
+        <v>6.6666666666666671E-3</v>
       </c>
       <c r="J61" s="28">
-        <v>7.9121557729790234E-3</v>
+        <v>5.5554426400547417E-3</v>
       </c>
       <c r="K61"/>
       <c r="L61" s="27">
-        <v>41041</v>
+        <v>53860</v>
       </c>
       <c r="M61" s="29">
         <v>117876226</v>
@@ -3747,38 +3710,38 @@
     </row>
     <row r="62" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B62" s="25">
-        <v>43.160020568805123</v>
+        <v>36.238416992724993</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D62" s="26">
-        <v>8.0629173362690618E-4</v>
+        <v>3.259500785802177E-3</v>
       </c>
       <c r="E62" s="27">
-        <v>1240.2458791208792</v>
+        <v>306.79544682296978</v>
       </c>
       <c r="F62" s="28">
-        <v>0.158</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="G62" s="25">
         <v>0</v>
       </c>
       <c r="H62" s="28">
-        <v>4.3192937235471787</v>
+        <v>3.6436125326058328</v>
       </c>
       <c r="I62" s="28">
-        <v>1.0972222222222222E-2</v>
+        <v>6.5902777777777768E-2</v>
       </c>
       <c r="J62" s="28">
         <v>0</v>
       </c>
       <c r="K62"/>
       <c r="L62" s="27">
-        <v>728</v>
+        <v>2943</v>
       </c>
       <c r="M62" s="29">
         <v>902899</v>
@@ -3786,38 +3749,38 @@
     </row>
     <row r="63" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B63" s="25">
-        <v>32.666749281254475</v>
+        <v>29.785130207533481</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D63" s="26">
-        <v>6.7982238358318793E-3</v>
+        <v>1.2333732430171721E-2</v>
       </c>
       <c r="E63" s="27">
-        <v>147.09724542008007</v>
+        <v>81.078457446808514</v>
       </c>
       <c r="F63" s="28">
-        <v>1.2869999999999999</v>
+        <v>2.008</v>
       </c>
       <c r="G63" s="25">
-        <v>3638</v>
+        <v>3994</v>
       </c>
       <c r="H63" s="28">
-        <v>3.2583844736106942</v>
+        <v>2.9932872834715853</v>
       </c>
       <c r="I63" s="28">
-        <v>8.9374999999999996E-2</v>
+        <v>0.13944444444444445</v>
       </c>
       <c r="J63" s="28">
-        <v>0.35102954514753276</v>
+        <v>0.27059070615095898</v>
       </c>
       <c r="K63"/>
       <c r="L63" s="27">
-        <v>37719</v>
+        <v>68432</v>
       </c>
       <c r="M63" s="29">
         <v>5548361</v>
@@ -3825,38 +3788,38 @@
     </row>
     <row r="64" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B64" s="25">
-        <v>29.301626693847506</v>
+        <v>26.409555989881188</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D64" s="26">
-        <v>1.8989217169469906E-2</v>
+        <v>3.4044466197976922E-2</v>
       </c>
       <c r="E64" s="27">
-        <v>52.661465245010703</v>
+        <v>29.373349377392341</v>
       </c>
       <c r="F64" s="28">
-        <v>2.6619999999999999</v>
+        <v>3.0979999999999999</v>
       </c>
       <c r="G64" s="25">
-        <v>15191</v>
+        <v>19820</v>
       </c>
       <c r="H64" s="28">
-        <v>2.83904349253842</v>
+        <v>2.5712181520866331</v>
       </c>
       <c r="I64" s="28">
-        <v>0.18486111111111111</v>
+        <v>0.21513888888888888</v>
       </c>
       <c r="J64" s="28">
-        <v>1.4657751017966383</v>
+        <v>1.3427911356815241</v>
       </c>
       <c r="K64"/>
       <c r="L64" s="27">
-        <v>1280291</v>
+        <v>2295346</v>
       </c>
       <c r="M64" s="29">
         <v>67422000</v>
@@ -3864,19 +3827,19 @@
     </row>
     <row r="65" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B65" s="25">
-        <v>41.354476128836644</v>
+        <v>37.090259105984771</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D65" s="26">
-        <v>1.4884837782913943E-3</v>
+        <v>2.0190194174288635E-3</v>
       </c>
       <c r="E65" s="27">
-        <v>671.82458726415098</v>
+        <v>495.28993697022389</v>
       </c>
       <c r="F65" s="28">
         <v>0.125</v>
@@ -3885,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="28">
-        <v>4.1380517795503309</v>
+        <v>3.711630077265144</v>
       </c>
       <c r="I65" s="28">
         <v>8.6805555555555559E-3</v>
@@ -3895,7 +3858,7 @@
       </c>
       <c r="K65"/>
       <c r="L65" s="27">
-        <v>3392</v>
+        <v>4601</v>
       </c>
       <c r="M65" s="29">
         <v>2278829</v>
@@ -3903,38 +3866,38 @@
     </row>
     <row r="66" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B66" s="25">
-        <v>54.593969645317152</v>
+        <v>49.898864295282301</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D66" s="26">
-        <v>3.6591196319006071E-5</v>
+        <v>2.8348124620768437E-4</v>
       </c>
       <c r="E66" s="27">
-        <v>27328.978021978022</v>
+        <v>3527.5702127659579</v>
       </c>
       <c r="F66" s="28">
-        <v>0</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G66" s="25">
         <v>0</v>
       </c>
       <c r="H66" s="28">
-        <v>5.458287332929407</v>
+        <v>4.9910739295282305</v>
       </c>
       <c r="I66" s="28">
-        <v>0</v>
+        <v>3.9583333333333337E-3</v>
       </c>
       <c r="J66" s="28">
-        <v>1.1096316023080338E-2</v>
+        <v>0</v>
       </c>
       <c r="K66"/>
       <c r="L66" s="27">
-        <v>91</v>
+        <v>705</v>
       </c>
       <c r="M66" s="29">
         <v>2486937</v>
@@ -3942,38 +3905,38 @@
     </row>
     <row r="67" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B67" s="25">
-        <v>27.124011861795907</v>
+        <v>28.905974042276117</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D67" s="26">
-        <v>7.8996967917516897E-3</v>
+        <v>7.6725481578974481E-3</v>
       </c>
       <c r="E67" s="27">
-        <v>126.58713699545152</v>
+        <v>130.33479613558211</v>
       </c>
       <c r="F67" s="28">
-        <v>16.835000000000001</v>
+        <v>11.63</v>
       </c>
       <c r="G67" s="25">
         <v>0</v>
       </c>
       <c r="H67" s="28">
-        <v>3.0631303528462572</v>
+        <v>3.1328890708942785</v>
       </c>
       <c r="I67" s="28">
-        <v>1.1690972222222222</v>
+        <v>0.80763888888888891</v>
       </c>
       <c r="J67" s="28">
         <v>0</v>
       </c>
       <c r="K67"/>
       <c r="L67" s="27">
-        <v>31439</v>
+        <v>30535</v>
       </c>
       <c r="M67" s="29">
         <v>3979773</v>
@@ -3981,38 +3944,38 @@
     </row>
     <row r="68" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B68" s="25">
-        <v>32.049828996229422</v>
+        <v>32.459990103123801</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D68" s="26">
-        <v>5.118612504571041E-3</v>
+        <v>5.5897779167413736E-3</v>
       </c>
       <c r="E68" s="27">
-        <v>195.36544309751451</v>
+        <v>178.89798394404937</v>
       </c>
       <c r="F68" s="28">
-        <v>3.073</v>
+        <v>2.907</v>
       </c>
       <c r="G68" s="25">
         <v>0</v>
       </c>
       <c r="H68" s="28">
-        <v>3.2690037329562758</v>
+        <v>3.2956267732135403</v>
       </c>
       <c r="I68" s="28">
-        <v>0.21340277777777777</v>
+        <v>0.201875</v>
       </c>
       <c r="J68" s="28">
-        <v>0</v>
+        <v>0.10934737098839455</v>
       </c>
       <c r="K68"/>
       <c r="L68" s="27">
-        <v>429454</v>
+        <v>468985</v>
       </c>
       <c r="M68" s="29">
         <v>83900471</v>
@@ -4020,38 +3983,38 @@
     </row>
     <row r="69" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B69" s="25">
-        <v>46.812490456574501</v>
+        <v>43.769408142359794</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D69" s="26">
-        <v>2.9572551831380485E-4</v>
+        <v>4.2619265874636582E-4</v>
       </c>
       <c r="E69" s="27">
-        <v>3381.5140664961637</v>
+        <v>2346.3566992014198</v>
       </c>
       <c r="F69" s="28">
-        <v>8.1000000000000003E-2</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="G69" s="25">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="H69" s="28">
-        <v>4.6813541145028541</v>
+        <v>4.3784365989591896</v>
       </c>
       <c r="I69" s="28">
-        <v>5.6249999999999998E-3</v>
+        <v>8.1250000000000003E-3</v>
       </c>
       <c r="J69" s="28">
-        <v>1.5824311545958047E-2</v>
+        <v>9.4171527678976723E-3</v>
       </c>
       <c r="K69"/>
       <c r="L69" s="27">
-        <v>9384</v>
+        <v>13524</v>
       </c>
       <c r="M69" s="29">
         <v>31732128</v>
@@ -4059,38 +4022,38 @@
     </row>
     <row r="70" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B70" s="25">
-        <v>32.253586144850516</v>
+        <v>27.073696096687048</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D70" s="26">
-        <v>1.4285566893108085E-2</v>
+        <v>3.5237288114347017E-2</v>
       </c>
       <c r="E70" s="27">
-        <v>70.000722231221985</v>
+        <v>28.379028396139418</v>
       </c>
       <c r="F70" s="28">
-        <v>7.0250000000000004</v>
+        <v>6.5709999999999997</v>
       </c>
       <c r="G70" s="25">
-        <v>33453</v>
+        <v>37990</v>
       </c>
       <c r="H70" s="28">
-        <v>3.0489257725255383</v>
+        <v>2.5868858504463312</v>
       </c>
       <c r="I70" s="28">
-        <v>0.48784722222222227</v>
+        <v>0.45631944444444444</v>
       </c>
       <c r="J70" s="28">
-        <v>3.2278700862617962</v>
+        <v>2.5737959255570688</v>
       </c>
       <c r="K70"/>
       <c r="L70" s="27">
-        <v>148152</v>
+        <v>365437</v>
       </c>
       <c r="M70" s="29">
         <v>10370747</v>
@@ -4098,19 +4061,19 @@
     </row>
     <row r="71" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B71" s="25">
-        <v>41.363138047715253</v>
+        <v>32.07152371905763</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D71" s="26">
-        <v>2.3536698668318364E-3</v>
+        <v>1.264433924700261E-2</v>
       </c>
       <c r="E71" s="27">
-        <v>424.86842105263162</v>
+        <v>79.086773967809663</v>
       </c>
       <c r="F71" s="28">
         <v>0</v>
@@ -4119,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="28">
-        <v>4.1363138047715253</v>
+        <v>3.2071523719057629</v>
       </c>
       <c r="I71" s="28">
         <v>0</v>
@@ -4129,7 +4092,7 @@
       </c>
       <c r="K71"/>
       <c r="L71" s="27">
-        <v>266</v>
+        <v>1429</v>
       </c>
       <c r="M71" s="29">
         <v>113015</v>
@@ -4137,38 +4100,38 @@
     </row>
     <row r="72" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B72" s="25">
-        <v>47.330346311166366</v>
+        <v>45.109006306793923</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D72" s="26">
-        <v>2.3928940198361982E-4</v>
+        <v>3.7611230941505988E-4</v>
       </c>
       <c r="E72" s="27">
-        <v>4179.0400732768494</v>
+        <v>2658.780303030303</v>
       </c>
       <c r="F72" s="28">
-        <v>0.13300000000000001</v>
+        <v>6.3E-2</v>
       </c>
       <c r="G72" s="25">
-        <v>256</v>
+        <v>362</v>
       </c>
       <c r="H72" s="28">
-        <v>4.7333353280135277</v>
+        <v>4.5097606060017092</v>
       </c>
       <c r="I72" s="28">
-        <v>9.2361111111111116E-3</v>
+        <v>4.3750000000000004E-3</v>
       </c>
       <c r="J72" s="28">
-        <v>2.4701364364422315E-2</v>
+        <v>2.4525246776827027E-2</v>
       </c>
       <c r="K72"/>
       <c r="L72" s="27">
-        <v>4367</v>
+        <v>6864</v>
       </c>
       <c r="M72" s="29">
         <v>18249868</v>
@@ -4176,38 +4139,38 @@
     </row>
     <row r="73" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B73" s="25">
-        <v>55.098192332540201</v>
+        <v>48.182483855536425</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D73" s="26">
-        <v>6.1271799554234687E-5</v>
+        <v>2.0463447444836304E-4</v>
       </c>
       <c r="E73" s="27">
-        <v>16320.721886336156</v>
+        <v>4886.7621288921073</v>
       </c>
       <c r="F73" s="28">
-        <v>2.1000000000000001E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G73" s="25">
         <v>0</v>
       </c>
       <c r="H73" s="28">
-        <v>5.5102567332540202</v>
+        <v>4.8195817188869761</v>
       </c>
       <c r="I73" s="28">
-        <v>1.4583333333333334E-3</v>
+        <v>4.4444444444444444E-3</v>
       </c>
       <c r="J73" s="28">
         <v>0</v>
       </c>
       <c r="K73"/>
       <c r="L73" s="27">
-        <v>827</v>
+        <v>2762</v>
       </c>
       <c r="M73" s="29">
         <v>13497237</v>
@@ -4215,19 +4178,19 @@
     </row>
     <row r="74" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B74" s="25">
-        <v>60.191159672296514</v>
+        <v>55.356389792092777</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" s="26">
-        <v>1.0419302502121073E-5</v>
+        <v>7.6408218348887857E-5</v>
       </c>
       <c r="E74" s="27">
-        <v>95975.714285714275</v>
+        <v>13087.597402597403</v>
       </c>
       <c r="F74" s="28">
         <v>0</v>
@@ -4236,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="28">
-        <v>6.0191159672296513</v>
+        <v>5.5356389792092777</v>
       </c>
       <c r="I74" s="28">
         <v>0</v>
@@ -4246,7 +4209,7 @@
       </c>
       <c r="K74"/>
       <c r="L74" s="27">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="M74" s="29">
         <v>2015490</v>
@@ -4254,38 +4217,38 @@
     </row>
     <row r="75" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B75" s="25">
-        <v>40.930923017184256</v>
+        <v>36.262417113998517</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D75" s="26">
-        <v>8.4395232871373822E-4</v>
+        <v>4.2855570275163891E-3</v>
       </c>
       <c r="E75" s="27">
-        <v>1184.9010494752624</v>
+        <v>233.34189548272806</v>
       </c>
       <c r="F75" s="28">
-        <v>1.8080000000000001</v>
+        <v>2.169</v>
       </c>
       <c r="G75" s="25">
         <v>0</v>
       </c>
       <c r="H75" s="28">
-        <v>4.1307589683850923</v>
+        <v>3.6714292113998517</v>
       </c>
       <c r="I75" s="28">
-        <v>0.12555555555555556</v>
+        <v>0.15062500000000001</v>
       </c>
       <c r="J75" s="28">
         <v>0</v>
       </c>
       <c r="K75"/>
       <c r="L75" s="27">
-        <v>667</v>
+        <v>3387</v>
       </c>
       <c r="M75" s="29">
         <v>790329</v>
@@ -4293,38 +4256,38 @@
     </row>
     <row r="76" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B76" s="25">
-        <v>58.54419778006384</v>
+        <v>57.886972700052084</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D76" s="26">
-        <v>6.7581131798542727E-6</v>
+        <v>3.1104649122662617E-5</v>
       </c>
       <c r="E76" s="27">
-        <v>147970.29487179487</v>
+        <v>32149.534818941502</v>
       </c>
       <c r="F76" s="28">
-        <v>1.2E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="G76" s="25">
         <v>0</v>
       </c>
       <c r="H76" s="28">
-        <v>5.8546697780063841</v>
+        <v>5.7907597700052085</v>
       </c>
       <c r="I76" s="28">
-        <v>8.3333333333333339E-4</v>
+        <v>6.875E-3</v>
       </c>
       <c r="J76" s="28">
         <v>0</v>
       </c>
       <c r="K76"/>
       <c r="L76" s="27">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="M76" s="29">
         <v>11541683</v>
@@ -4332,13 +4295,13 @@
     </row>
     <row r="77" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B77" s="25">
-        <v>51.970902315616904</v>
+        <v>51.472062409486973</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D77" s="26">
         <v>7.1251160439924732E-5</v>
@@ -4347,16 +4310,16 @@
         <v>14034.859135285915</v>
       </c>
       <c r="F77" s="28">
-        <v>0.14199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G77" s="25">
         <v>0</v>
       </c>
       <c r="H77" s="28">
-        <v>5.2000485648950239</v>
+        <v>5.1472062409486972</v>
       </c>
       <c r="I77" s="28">
-        <v>9.8611111111111104E-3</v>
+        <v>0</v>
       </c>
       <c r="J77" s="28">
         <v>0</v>
@@ -4371,19 +4334,19 @@
     </row>
     <row r="78" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B78" s="25">
-        <v>59.253345352246193</v>
+        <v>57.545357217345618</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D78" s="26">
-        <v>1.6417752356741871E-5</v>
+        <v>2.4097023620379198E-5</v>
       </c>
       <c r="E78" s="27">
-        <v>60909.677419354841</v>
+        <v>41498.901098901093</v>
       </c>
       <c r="F78" s="28">
         <v>0</v>
@@ -4392,17 +4355,17 @@
         <v>0</v>
       </c>
       <c r="H78" s="28">
-        <v>5.8575022729270065</v>
+        <v>5.6987170730621095</v>
       </c>
       <c r="I78" s="28">
         <v>0</v>
       </c>
       <c r="J78" s="28">
-        <v>0.67832262297612844</v>
+        <v>0.55818648672452464</v>
       </c>
       <c r="K78"/>
       <c r="L78" s="27">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="M78" s="29">
         <v>7552800</v>
@@ -4410,38 +4373,38 @@
     </row>
     <row r="79" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B79" s="25">
-        <v>30.708632511204279</v>
+        <v>32.502249921678668</v>
       </c>
       <c r="C79" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D79" s="26">
-        <v>4.1245932962306426E-3</v>
+        <v>4.0587858082519268E-3</v>
       </c>
       <c r="E79" s="27">
-        <v>242.44814656365602</v>
+        <v>246.37910134772267</v>
       </c>
       <c r="F79" s="28">
-        <v>11.818</v>
+        <v>8.5259999999999998</v>
       </c>
       <c r="G79" s="25">
-        <v>1394</v>
+        <v>1534</v>
       </c>
       <c r="H79" s="28">
-        <v>3.3036209196396968</v>
+        <v>3.4174572494729349</v>
       </c>
       <c r="I79" s="28">
-        <v>0.82069444444444439</v>
+        <v>0.59208333333333329</v>
       </c>
       <c r="J79" s="28">
-        <v>0.13450664814064339</v>
+        <v>0.10392742694931675</v>
       </c>
       <c r="K79"/>
       <c r="L79" s="27">
-        <v>39737</v>
+        <v>39103</v>
       </c>
       <c r="M79" s="29">
         <v>9634162</v>
@@ -4449,38 +4412,38 @@
     </row>
     <row r="80" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B80" s="25">
-        <v>30.330208236613572</v>
+        <v>26.761200674838232</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D80" s="26">
-        <v>1.9021562289854445E-2</v>
+        <v>3.5662378793466239E-2</v>
       </c>
       <c r="E80" s="27">
-        <v>52.571917320028504</v>
+        <v>28.04075425790754</v>
       </c>
       <c r="F80" s="28">
-        <v>0</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="G80" s="25">
-        <v>12595</v>
+        <v>0</v>
       </c>
       <c r="H80" s="28">
-        <v>2.9114920407824902</v>
+        <v>2.5828846551785176</v>
       </c>
       <c r="I80" s="28">
-        <v>0</v>
+        <v>5.3819444444444448E-2</v>
       </c>
       <c r="J80" s="28">
-        <v>1.2152878287886684</v>
+        <v>1.0938124563863878</v>
       </c>
       <c r="K80"/>
       <c r="L80" s="27">
-        <v>7015</v>
+        <v>13152</v>
       </c>
       <c r="M80" s="29">
         <v>368792</v>
@@ -4488,38 +4451,38 @@
     </row>
     <row r="81" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B81" s="25">
-        <v>51.479756025890232</v>
+        <v>47.521618540749458</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D81" s="26">
-        <v>8.092024475917116E-5</v>
+        <v>3.2564737937937566E-4</v>
       </c>
       <c r="E81" s="27">
-        <v>12357.846951354706</v>
+        <v>3070.80622575811</v>
       </c>
       <c r="F81" s="28">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="G81" s="25">
-        <v>800</v>
+        <v>908</v>
       </c>
       <c r="H81" s="28">
-        <v>5.1444230928918078</v>
+        <v>4.7504893842572589</v>
       </c>
       <c r="I81" s="28">
-        <v>1.388888888888889E-2</v>
+        <v>1.4930555555555555E-2</v>
       </c>
       <c r="J81" s="28">
-        <v>7.7191763638819744E-2</v>
+        <v>6.151636484353299E-2</v>
       </c>
       <c r="K81"/>
       <c r="L81" s="27">
-        <v>112755</v>
+        <v>453760</v>
       </c>
       <c r="M81" s="29">
         <v>1393409033</v>
@@ -4527,38 +4490,38 @@
     </row>
     <row r="82" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B82" s="25">
-        <v>60.219494941556924</v>
+        <v>59.912893026163573</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" s="26">
-        <v>9.7082886147776689E-6</v>
+        <v>1.2523439021895459E-5</v>
       </c>
       <c r="E82" s="27">
-        <v>103004.76630637347</v>
+        <v>79850.271019936437</v>
       </c>
       <c r="F82" s="28">
-        <v>2.4E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G82" s="25">
-        <v>580</v>
+        <v>666</v>
       </c>
       <c r="H82" s="28">
-        <v>6.0168530912918783</v>
+        <v>5.9870688658704916</v>
       </c>
       <c r="I82" s="28">
-        <v>1.6666666666666668E-3</v>
+        <v>9.7222222222222219E-4</v>
       </c>
       <c r="J82" s="28">
-        <v>5.5964028638144307E-2</v>
+        <v>4.5121034125322659E-2</v>
       </c>
       <c r="K82"/>
       <c r="L82" s="27">
-        <v>2683</v>
+        <v>3461</v>
       </c>
       <c r="M82" s="29">
         <v>276361788</v>
@@ -4566,38 +4529,38 @@
     </row>
     <row r="83" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B83" s="25">
-        <v>44.654091050491246</v>
+        <v>45.298929541209219</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83" s="26">
-        <v>3.2040923565156073E-4</v>
+        <v>2.7318991832881015E-4</v>
       </c>
       <c r="E83" s="27">
-        <v>3121.0086624577889</v>
+        <v>3660.4571871367689</v>
       </c>
       <c r="F83" s="28">
-        <v>0.52100000000000002</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="G83" s="25">
-        <v>1183</v>
+        <v>1159</v>
       </c>
       <c r="H83" s="28">
-        <v>4.4648485396677007</v>
+        <v>4.5300824768609749</v>
       </c>
       <c r="I83" s="28">
-        <v>3.6180555555555556E-2</v>
+        <v>2.6805555555555555E-2</v>
       </c>
       <c r="J83" s="28">
-        <v>0.11414732048090469</v>
+        <v>7.8521439266139581E-2</v>
       </c>
       <c r="K83"/>
       <c r="L83" s="27">
-        <v>27244</v>
+        <v>23229</v>
       </c>
       <c r="M83" s="29">
         <v>85028760</v>
@@ -4605,38 +4568,38 @@
     </row>
     <row r="84" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B84" s="25">
-        <v>49.773342138231158</v>
+        <v>50.491261382034082</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D84" s="26">
-        <v>9.1477886574754425E-5</v>
+        <v>9.7476038415467015E-5</v>
       </c>
       <c r="E84" s="27">
-        <v>10931.60366339262</v>
+        <v>10258.931489785749</v>
       </c>
       <c r="F84" s="28">
-        <v>0.16</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="G84" s="25">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="H84" s="28">
-        <v>4.9776474194040805</v>
+        <v>5.0501656407033577</v>
       </c>
       <c r="I84" s="28">
-        <v>1.1111111111111112E-2</v>
+        <v>9.6527777777777792E-3</v>
       </c>
       <c r="J84" s="28">
-        <v>3.0201277523688223E-2</v>
+        <v>1.8563308333841455E-2</v>
       </c>
       <c r="K84"/>
       <c r="L84" s="27">
-        <v>3767</v>
+        <v>4014</v>
       </c>
       <c r="M84" s="29">
         <v>41179351</v>
@@ -4644,38 +4607,38 @@
     </row>
     <row r="85" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B85" s="25">
-        <v>27.557998510256997</v>
+        <v>24.899302261530359</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="D85" s="26">
-        <v>2.5667963902174313E-2</v>
+        <v>4.5816054252700834E-2</v>
       </c>
       <c r="E85" s="27">
-        <v>38.959069905630137</v>
+        <v>21.826410333907148</v>
       </c>
       <c r="F85" s="28">
-        <v>0.63100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G85" s="25">
-        <v>6622</v>
+        <v>8316</v>
       </c>
       <c r="H85" s="28">
-        <v>2.705050202007</v>
+        <v>2.4335899078668222</v>
       </c>
       <c r="I85" s="28">
-        <v>4.3819444444444446E-2</v>
+        <v>0</v>
       </c>
       <c r="J85" s="28">
-        <v>0.63895482352033039</v>
+        <v>0.56340318286213698</v>
       </c>
       <c r="K85"/>
       <c r="L85" s="27">
-        <v>127901</v>
+        <v>228297</v>
       </c>
       <c r="M85" s="29">
         <v>4982904</v>
@@ -4683,38 +4646,38 @@
     </row>
     <row r="86" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B86" s="25">
-        <v>38.451716886633562</v>
+        <v>33.984309130104968</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D86" s="26">
-        <v>2.8807448068022819E-3</v>
+        <v>9.4215907867829084E-3</v>
       </c>
       <c r="E86" s="27">
-        <v>347.13244909396599</v>
+        <v>106.13918844818132</v>
       </c>
       <c r="F86" s="28">
-        <v>3.1E-2</v>
+        <v>0.246</v>
       </c>
       <c r="G86" s="25">
-        <v>14008</v>
+        <v>22398</v>
       </c>
       <c r="H86" s="28">
-        <v>3.7106547438651165</v>
+        <v>3.2518110297764165</v>
       </c>
       <c r="I86" s="28">
-        <v>2.1527777777777778E-3</v>
+        <v>1.7083333333333332E-2</v>
       </c>
       <c r="J86" s="28">
-        <v>1.3516277813157336</v>
+        <v>1.517448832340806</v>
       </c>
       <c r="K86"/>
       <c r="L86" s="27">
-        <v>26765</v>
+        <v>87536</v>
       </c>
       <c r="M86" s="29">
         <v>9291000</v>
@@ -4722,38 +4685,38 @@
     </row>
     <row r="87" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B87" s="25">
-        <v>31.741889697725231</v>
+        <v>27.955693593574455</v>
       </c>
       <c r="C87" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D87" s="26">
-        <v>1.1152496350228089E-2</v>
+        <v>2.415888848482654E-2</v>
       </c>
       <c r="E87" s="27">
-        <v>89.666023515851506</v>
+        <v>41.392632803784387</v>
       </c>
       <c r="F87" s="28">
-        <v>2.371</v>
+        <v>2.9039999999999999</v>
       </c>
       <c r="G87" s="25">
-        <v>13430</v>
+        <v>15476</v>
       </c>
       <c r="H87" s="28">
-        <v>3.0939991298971878</v>
+        <v>2.7512205419214855</v>
       </c>
       <c r="I87" s="28">
-        <v>0.16465277777777779</v>
+        <v>0.20166666666666666</v>
       </c>
       <c r="J87" s="28">
-        <v>1.2958567320866863</v>
+        <v>1.0484881743595997</v>
       </c>
       <c r="K87"/>
       <c r="L87" s="27">
-        <v>673248</v>
+        <v>1458411</v>
       </c>
       <c r="M87" s="29">
         <v>60367471</v>
@@ -4761,38 +4724,38 @@
     </row>
     <row r="88" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B88" s="25">
-        <v>44.572417861624771</v>
+        <v>38.833722105897756</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D88" s="26">
-        <v>5.5961703899360413E-4</v>
+        <v>1.9892636932975771E-3</v>
       </c>
       <c r="E88" s="27">
-        <v>1786.9362980769229</v>
+        <v>502.69856297548603</v>
       </c>
       <c r="F88" s="28">
-        <v>0.432</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="G88" s="25">
-        <v>459</v>
+        <v>762</v>
       </c>
       <c r="H88" s="28">
-        <v>4.4618129087237</v>
+        <v>3.8942305472258871</v>
       </c>
       <c r="I88" s="28">
-        <v>0.03</v>
+        <v>5.3402777777777778E-2</v>
       </c>
       <c r="J88" s="28">
-        <v>4.4288774387772824E-2</v>
+        <v>5.162496697221601E-2</v>
       </c>
       <c r="K88"/>
       <c r="L88" s="27">
-        <v>1664</v>
+        <v>5915</v>
       </c>
       <c r="M88" s="29">
         <v>2973462</v>
@@ -4800,38 +4763,38 @@
     </row>
     <row r="89" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B89" s="25">
-        <v>56.665353845375407</v>
+        <v>53.23502858305919</v>
       </c>
       <c r="C89" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D89" s="26">
-        <v>2.6481387709761071E-5</v>
+        <v>9.5302849178358222E-5</v>
       </c>
       <c r="E89" s="27">
-        <v>37762.371479928101</v>
+        <v>10492.865728793808</v>
       </c>
       <c r="F89" s="28">
-        <v>8.0000000000000002E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G89" s="25">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H89" s="28">
-        <v>5.663633678599564</v>
+        <v>5.3213926399329861</v>
       </c>
       <c r="I89" s="28">
-        <v>5.5555555555555556E-4</v>
+        <v>4.861111111111111E-4</v>
       </c>
       <c r="J89" s="28">
-        <v>3.0683726046430847E-2</v>
+        <v>2.256051706266133E-2</v>
       </c>
       <c r="K89"/>
       <c r="L89" s="27">
-        <v>3338</v>
+        <v>12013</v>
       </c>
       <c r="M89" s="29">
         <v>126050796</v>
@@ -4839,38 +4802,38 @@
     </row>
     <row r="90" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B90" s="25">
-        <v>35.366435667245568</v>
+        <v>35.306276690791904</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D90" s="26">
-        <v>1.9582195850783063E-3</v>
+        <v>2.537145212075697E-3</v>
       </c>
       <c r="E90" s="27">
-        <v>510.66795962007063</v>
+        <v>394.14377830659402</v>
       </c>
       <c r="F90" s="28">
-        <v>0</v>
+        <v>2.6429999999999998</v>
       </c>
       <c r="G90" s="25">
-        <v>0</v>
+        <v>3486</v>
       </c>
       <c r="H90" s="28">
-        <v>3.4963784130164575</v>
+        <v>3.5620727629289091</v>
       </c>
       <c r="I90" s="28">
-        <v>0</v>
+        <v>0.18354166666666666</v>
       </c>
       <c r="J90" s="28">
-        <v>0.40265153708099344</v>
+        <v>0.236174061502815</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="27">
-        <v>20109</v>
+        <v>26054</v>
       </c>
       <c r="M90" s="29">
         <v>10269022</v>
@@ -4878,38 +4841,38 @@
     </row>
     <row r="91" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B91" s="25">
-        <v>44.397932094209558</v>
+        <v>44.793813583935858</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D91" s="26">
-        <v>3.4214342563958287E-4</v>
+        <v>2.8344363804331656E-4</v>
       </c>
       <c r="E91" s="27">
-        <v>2922.7508847515005</v>
+        <v>3528.0382615156018</v>
       </c>
       <c r="F91" s="28">
-        <v>0.38400000000000001</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="G91" s="25">
         <v>0</v>
       </c>
       <c r="H91" s="28">
-        <v>4.447793209420956</v>
+        <v>4.4881521917269191</v>
       </c>
       <c r="I91" s="28">
-        <v>2.6666666666666668E-2</v>
+        <v>2.9236111111111109E-2</v>
       </c>
       <c r="J91" s="28">
         <v>0</v>
       </c>
       <c r="K91"/>
       <c r="L91" s="27">
-        <v>6499</v>
+        <v>5384</v>
       </c>
       <c r="M91" s="29">
         <v>18994958</v>
@@ -4917,38 +4880,38 @@
     </row>
     <row r="92" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B92" s="25">
-        <v>42.950279379027897</v>
+        <v>42.040666761726968</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D92" s="26">
-        <v>6.1252287003628694E-4</v>
+        <v>5.8271512110548299E-4</v>
       </c>
       <c r="E92" s="27">
-        <v>1632.5921021377671</v>
+        <v>1716.1044287007273</v>
       </c>
       <c r="F92" s="28">
-        <v>5.1999999999999998E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="G92" s="25">
         <v>0</v>
       </c>
       <c r="H92" s="28">
-        <v>4.2961112712361231</v>
+        <v>4.2059625095060298</v>
       </c>
       <c r="I92" s="28">
-        <v>3.6111111111111109E-3</v>
+        <v>6.3194444444444444E-3</v>
       </c>
       <c r="J92" s="28">
         <v>0</v>
       </c>
       <c r="K92"/>
       <c r="L92" s="27">
-        <v>33680</v>
+        <v>32041</v>
       </c>
       <c r="M92" s="29">
         <v>54985702</v>
@@ -4956,13 +4919,13 @@
     </row>
     <row r="93" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B93" s="25">
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D93" s="26">
         <v>0</v>
@@ -4995,38 +4958,38 @@
     </row>
     <row r="94" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B94" s="25">
-        <v>44.376423888365252</v>
+        <v>38.895664785832516</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D94" s="26">
-        <v>6.330059953060526E-4</v>
+        <v>2.5098456689799107E-3</v>
       </c>
       <c r="E94" s="27">
-        <v>1579.7638686131388</v>
+        <v>398.4308726067747</v>
       </c>
       <c r="F94" s="28">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="G94" s="25">
-        <v>4846</v>
+        <v>5116</v>
       </c>
       <c r="H94" s="28">
-        <v>4.39157097801231</v>
+        <v>3.8555934364533493</v>
       </c>
       <c r="I94" s="28">
         <v>2.2916666666666667E-3</v>
       </c>
       <c r="J94" s="28">
-        <v>0.46758910824215055</v>
+        <v>0.34660542129902505</v>
       </c>
       <c r="K94"/>
       <c r="L94" s="27">
-        <v>2740</v>
+        <v>10864</v>
       </c>
       <c r="M94" s="29">
         <v>4328553</v>
@@ -5034,38 +4997,38 @@
     </row>
     <row r="95" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B95" s="25">
-        <v>50.881185736334338</v>
+        <v>50.06715493213531</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D95" s="26">
-        <v>8.1317408397598977E-5</v>
+        <v>1.3291398292817198E-4</v>
       </c>
       <c r="E95" s="27">
-        <v>12297.489795918367</v>
+        <v>7523.6628830874006</v>
       </c>
       <c r="F95" s="28">
-        <v>0.25900000000000001</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="G95" s="25">
         <v>0</v>
       </c>
       <c r="H95" s="28">
-        <v>5.0935144069667668</v>
+        <v>5.0116529932135307</v>
       </c>
       <c r="I95" s="28">
-        <v>1.7986111111111112E-2</v>
+        <v>1.6458333333333332E-2</v>
       </c>
       <c r="J95" s="28">
         <v>0</v>
       </c>
       <c r="K95"/>
       <c r="L95" s="27">
-        <v>539</v>
+        <v>881</v>
       </c>
       <c r="M95" s="29">
         <v>6628347</v>
@@ -5073,38 +5036,38 @@
     </row>
     <row r="96" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B96" s="25">
-        <v>36.240384137676443</v>
+        <v>37.093904718857068</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D96" s="26">
-        <v>2.100453725107252E-3</v>
+        <v>1.7511008410216716E-3</v>
       </c>
       <c r="E96" s="27">
-        <v>476.08761290322576</v>
+        <v>571.06933911159263</v>
       </c>
       <c r="F96" s="28">
-        <v>1.3939999999999999</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="G96" s="25">
-        <v>433</v>
+        <v>339</v>
       </c>
       <c r="H96" s="28">
-        <v>3.6489020762273596</v>
+        <v>3.7268646039324809</v>
       </c>
       <c r="I96" s="28">
-        <v>9.6805555555555547E-2</v>
+        <v>6.5902777777777768E-2</v>
       </c>
       <c r="J96" s="28">
-        <v>4.1780042069511185E-2</v>
+        <v>2.2967012865592166E-2</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="27">
-        <v>15500</v>
+        <v>12922</v>
       </c>
       <c r="M96" s="29">
         <v>7379358</v>
@@ -5112,38 +5075,38 @@
     </row>
     <row r="97" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B97" s="25">
-        <v>31.916979650098231</v>
+        <v>31.561947960149762</v>
       </c>
       <c r="C97" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D97" s="26">
-        <v>5.6520476888845565E-3</v>
+        <v>6.9584677337281341E-3</v>
       </c>
       <c r="E97" s="27">
-        <v>176.9270280515542</v>
+        <v>143.70979909167886</v>
       </c>
       <c r="F97" s="28">
-        <v>5.5090000000000003</v>
+        <v>4.8970000000000002</v>
       </c>
       <c r="G97" s="25">
-        <v>3566</v>
+        <v>4127</v>
       </c>
       <c r="H97" s="28">
-        <v>3.2720605697011527</v>
+        <v>3.2302554930367169</v>
       </c>
       <c r="I97" s="28">
-        <v>0.38256944444444446</v>
+        <v>0.34006944444444448</v>
       </c>
       <c r="J97" s="28">
-        <v>0.34408228642003896</v>
+        <v>0.27960136311592582</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="27">
-        <v>10552</v>
+        <v>12991</v>
       </c>
       <c r="M97" s="29">
         <v>1866934</v>
@@ -5151,38 +5114,38 @@
     </row>
     <row r="98" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B98" s="25">
-        <v>34.074573762658289</v>
+        <v>32.159441801475424</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D98" s="26">
-        <v>4.0584114610532403E-3</v>
+        <v>6.9072177589183633E-3</v>
       </c>
       <c r="E98" s="27">
-        <v>246.40182731508443</v>
+        <v>144.77609290786211</v>
       </c>
       <c r="F98" s="28">
-        <v>2.2370000000000001</v>
+        <v>2.722</v>
       </c>
       <c r="G98" s="25">
         <v>0</v>
       </c>
       <c r="H98" s="28">
-        <v>3.4540615429324957</v>
+        <v>3.2726525134808759</v>
       </c>
       <c r="I98" s="28">
-        <v>0.15534722222222222</v>
+        <v>0.18902777777777777</v>
       </c>
       <c r="J98" s="28">
         <v>0</v>
       </c>
       <c r="K98"/>
       <c r="L98" s="27">
-        <v>27472</v>
+        <v>46756</v>
       </c>
       <c r="M98" s="29">
         <v>6769151</v>
@@ -5190,38 +5153,38 @@
     </row>
     <row r="99" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B99" s="25">
-        <v>36.419605997905499</v>
+        <v>36.965824491527748</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D99" s="26">
-        <v>2.0865494215788578E-3</v>
+        <v>1.8503362795133267E-3</v>
       </c>
       <c r="E99" s="27">
-        <v>479.2601553829079</v>
+        <v>540.4423028785983</v>
       </c>
       <c r="F99" s="28">
-        <v>0</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="G99" s="25">
         <v>0</v>
       </c>
       <c r="H99" s="28">
-        <v>3.6419605997905502</v>
+        <v>3.707603282486108</v>
       </c>
       <c r="I99" s="28">
-        <v>0</v>
+        <v>3.6736111111111115E-2</v>
       </c>
       <c r="J99" s="28">
         <v>0</v>
       </c>
       <c r="K99"/>
       <c r="L99" s="27">
-        <v>4505</v>
+        <v>3995</v>
       </c>
       <c r="M99" s="29">
         <v>2159067</v>
@@ -5229,19 +5192,19 @@
     </row>
     <row r="100" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B100" s="25">
-        <v>52.765950504130494</v>
+        <v>49.592356951116955</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D100" s="26">
-        <v>8.3780419627937718E-5</v>
+        <v>1.779851310989829E-4</v>
       </c>
       <c r="E100" s="27">
-        <v>11935.963133640553</v>
+        <v>5618.4468546637745</v>
       </c>
       <c r="F100" s="28">
         <v>0</v>
@@ -5250,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="28">
-        <v>5.2765950504130492</v>
+        <v>4.9592356951116958</v>
       </c>
       <c r="I100" s="28">
         <v>0</v>
@@ -5260,7 +5223,7 @@
       </c>
       <c r="K100"/>
       <c r="L100" s="27">
-        <v>434</v>
+        <v>922</v>
       </c>
       <c r="M100" s="29">
         <v>5180208</v>
@@ -5268,38 +5231,38 @@
     </row>
     <row r="101" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B101" s="25">
-        <v>39.440452814759773</v>
+        <v>39.107937323163227</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D101" s="26">
-        <v>1.1092847376848413E-3</v>
+        <v>1.1886117457431432E-3</v>
       </c>
       <c r="E101" s="27">
-        <v>901.48179816038351</v>
+        <v>841.31761576592908</v>
       </c>
       <c r="F101" s="28">
-        <v>1.252</v>
+        <v>1.458</v>
       </c>
       <c r="G101" s="25">
         <v>0</v>
       </c>
       <c r="H101" s="28">
-        <v>3.9701286148093109</v>
+        <v>3.9411687323163225</v>
       </c>
       <c r="I101" s="28">
-        <v>8.6944444444444449E-2</v>
+        <v>0.10124999999999999</v>
       </c>
       <c r="J101" s="28">
         <v>0</v>
       </c>
       <c r="K101"/>
       <c r="L101" s="27">
-        <v>7719</v>
+        <v>8271</v>
       </c>
       <c r="M101" s="29">
         <v>6958538</v>
@@ -5307,38 +5270,38 @@
     </row>
     <row r="102" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B102" s="25">
-        <v>28.689935911367137</v>
+        <v>27.34028075544526</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D102" s="26">
-        <v>1.4063888743660794E-2</v>
+        <v>1.5344800543733989E-2</v>
       </c>
       <c r="E102" s="27">
-        <v>71.104089219330845</v>
+        <v>65.168654173764907</v>
       </c>
       <c r="F102" s="28">
-        <v>0</v>
+        <v>7.4690000000000003</v>
       </c>
       <c r="G102" s="25">
-        <v>4732</v>
+        <v>5280</v>
       </c>
       <c r="H102" s="28">
-        <v>2.8233346629443519</v>
+        <v>2.8538606115532792</v>
       </c>
       <c r="I102" s="28">
-        <v>0</v>
+        <v>0.51868055555555559</v>
       </c>
       <c r="J102" s="28">
-        <v>0.45658928192361875</v>
+        <v>0.35771630657913461</v>
       </c>
       <c r="K102"/>
       <c r="L102" s="27">
-        <v>538</v>
+        <v>587</v>
       </c>
       <c r="M102" s="29">
         <v>38254</v>
@@ -5346,38 +5309,38 @@
     </row>
     <row r="103" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B103" s="25">
-        <v>29.935224017451244</v>
+        <v>29.979768372817567</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D103" s="26">
-        <v>7.4397868738247542E-3</v>
+        <v>9.2536345730747527E-3</v>
       </c>
       <c r="E103" s="27">
-        <v>134.4124525284829</v>
+        <v>108.06564621750833</v>
       </c>
       <c r="F103" s="28">
-        <v>7.9660000000000002</v>
+        <v>6.3730000000000002</v>
       </c>
       <c r="G103" s="25">
-        <v>4438</v>
+        <v>6014</v>
       </c>
       <c r="H103" s="28">
-        <v>3.1166586041998223</v>
+        <v>3.0900032413013228</v>
       </c>
       <c r="I103" s="28">
-        <v>0.55319444444444443</v>
+        <v>0.44256944444444446</v>
       </c>
       <c r="J103" s="28">
-        <v>0.42822130878635245</v>
+        <v>0.40744429313767339</v>
       </c>
       <c r="K103"/>
       <c r="L103" s="27">
-        <v>20012</v>
+        <v>24891</v>
       </c>
       <c r="M103" s="29">
         <v>2689862</v>
@@ -5385,38 +5348,38 @@
     </row>
     <row r="104" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B104" s="25">
-        <v>30.656802840414137</v>
+        <v>28.53656028043039</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D104" s="26">
-        <v>1.0596804733354967E-2</v>
+        <v>1.8679487219878579E-2</v>
       </c>
       <c r="E104" s="27">
-        <v>94.36806897576929</v>
+        <v>53.534660145049756</v>
       </c>
       <c r="F104" s="28">
-        <v>1.125</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="G104" s="25">
-        <v>5096</v>
+        <v>6641</v>
       </c>
       <c r="H104" s="28">
-        <v>3.0399466306034855</v>
+        <v>2.8508512175886445</v>
       </c>
       <c r="I104" s="28">
-        <v>7.8125E-2</v>
+        <v>0.140625</v>
       </c>
       <c r="J104" s="28">
-        <v>0.49171153437928172</v>
+        <v>0.44992310454394557</v>
       </c>
       <c r="K104"/>
       <c r="L104" s="27">
-        <v>6727</v>
+        <v>11858</v>
       </c>
       <c r="M104" s="29">
         <v>634814</v>
@@ -5424,38 +5387,38 @@
     </row>
     <row r="105" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B105" s="25">
-        <v>48.709642845957532</v>
+        <v>48.347859401626621</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D105" s="26">
-        <v>1.5777069203080007E-4</v>
+        <v>1.8077671936371942E-4</v>
       </c>
       <c r="E105" s="27">
-        <v>6338.3128205128205</v>
+        <v>5531.6857365246151</v>
       </c>
       <c r="F105" s="28">
-        <v>0.156</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="G105" s="25">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H105" s="28">
-        <v>4.8731528978457197</v>
+        <v>4.8386279187301708</v>
       </c>
       <c r="I105" s="28">
-        <v>1.0833333333333334E-2</v>
+        <v>1.3958333333333335E-2</v>
       </c>
       <c r="J105" s="28">
-        <v>1.0613867500337715E-2</v>
+        <v>3.4552143249120949E-3</v>
       </c>
       <c r="K105"/>
       <c r="L105" s="27">
-        <v>4485</v>
+        <v>5139</v>
       </c>
       <c r="M105" s="29">
         <v>28427333</v>
@@ -5463,38 +5426,38 @@
     </row>
     <row r="106" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B106" s="25">
-        <v>43.229135195897932</v>
+        <v>42.515554219597334</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D106" s="26">
-        <v>5.4932691547669168E-4</v>
+        <v>5.0565763969803864E-4</v>
       </c>
       <c r="E106" s="27">
-        <v>1820.4096173445751</v>
+        <v>1977.6226472068445</v>
       </c>
       <c r="F106" s="28">
-        <v>0.26200000000000001</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="G106" s="25">
         <v>0</v>
       </c>
       <c r="H106" s="28">
-        <v>4.3283718529231265</v>
+        <v>4.2583679219597332</v>
       </c>
       <c r="I106" s="28">
-        <v>1.8194444444444444E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="J106" s="28">
         <v>0</v>
       </c>
       <c r="K106"/>
       <c r="L106" s="27">
-        <v>10793</v>
+        <v>9935</v>
       </c>
       <c r="M106" s="29">
         <v>19647681</v>
@@ -5502,38 +5465,38 @@
     </row>
     <row r="107" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B107" s="25">
-        <v>38.408234740148842</v>
+        <v>38.664560882374545</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D107" s="26">
-        <v>1.4373541529149434E-3</v>
+        <v>1.3725205137448079E-3</v>
       </c>
       <c r="E107" s="27">
-        <v>695.72276113858754</v>
+        <v>728.58656026319295</v>
       </c>
       <c r="F107" s="28">
-        <v>0.85899999999999999</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="G107" s="25">
-        <v>3376</v>
+        <v>3438</v>
       </c>
       <c r="H107" s="28">
-        <v>3.8261443830926356</v>
+        <v>3.8582472120628508</v>
       </c>
       <c r="I107" s="28">
-        <v>5.9652777777777777E-2</v>
+        <v>5.0277777777777775E-2</v>
       </c>
       <c r="J107" s="28">
-        <v>0.32574924255581927</v>
+        <v>0.23292209507936831</v>
       </c>
       <c r="K107"/>
       <c r="L107" s="27">
-        <v>47111</v>
+        <v>44986</v>
       </c>
       <c r="M107" s="29">
         <v>32776195</v>
@@ -5541,38 +5504,38 @@
     </row>
     <row r="108" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B108" s="25">
-        <v>35.553970065716413</v>
+        <v>34.220181270667524</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D108" s="26">
-        <v>3.5153232037084727E-3</v>
+        <v>4.7937897796254732E-3</v>
       </c>
       <c r="E108" s="27">
-        <v>284.46886446886447</v>
+        <v>208.60322333077517</v>
       </c>
       <c r="F108" s="28">
-        <v>0.26300000000000001</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="G108" s="25">
-        <v>8265</v>
+        <v>7250</v>
       </c>
       <c r="H108" s="28">
-        <v>3.4811274324289525</v>
+        <v>3.3838582175459431</v>
       </c>
       <c r="I108" s="28">
-        <v>1.8263888888888889E-2</v>
+        <v>3.6527777777777777E-2</v>
       </c>
       <c r="J108" s="28">
-        <v>0.79748740809355645</v>
+        <v>0.4911824285414253</v>
       </c>
       <c r="K108"/>
       <c r="L108" s="27">
-        <v>1911</v>
+        <v>2606</v>
       </c>
       <c r="M108" s="29">
         <v>543620</v>
@@ -5580,38 +5543,38 @@
     </row>
     <row r="109" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B109" s="25">
-        <v>51.274791074243225</v>
+        <v>48.873036460205959</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D109" s="26">
-        <v>8.3046745344347674E-5</v>
+        <v>1.8421801132389364E-4</v>
       </c>
       <c r="E109" s="27">
-        <v>12041.411085450347</v>
+        <v>5428.3508589276416</v>
       </c>
       <c r="F109" s="28">
-        <v>4.1000000000000002E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G109" s="25">
         <v>0</v>
       </c>
       <c r="H109" s="28">
-        <v>5.1283332740909895</v>
+        <v>4.8890119793539295</v>
       </c>
       <c r="I109" s="28">
-        <v>2.8472222222222223E-3</v>
+        <v>5.6944444444444447E-3</v>
       </c>
       <c r="J109" s="28">
         <v>0</v>
       </c>
       <c r="K109"/>
       <c r="L109" s="27">
-        <v>1732</v>
+        <v>3842</v>
       </c>
       <c r="M109" s="29">
         <v>20855724</v>
@@ -5619,38 +5582,38 @@
     </row>
     <row r="110" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B110" s="25">
-        <v>29.906735886738904</v>
+        <v>26.422010541889343</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D110" s="26">
-        <v>1.9397403603952722E-2</v>
+        <v>2.8035264483627205E-2</v>
       </c>
       <c r="E110" s="27">
-        <v>51.553291379482573</v>
+        <v>35.669362084456424</v>
       </c>
       <c r="F110" s="28">
-        <v>0.83</v>
+        <v>2.214</v>
       </c>
       <c r="G110" s="25">
-        <v>13866</v>
+        <v>13021</v>
       </c>
       <c r="H110" s="28">
-        <v>2.8741726310135727</v>
+        <v>2.6001096900228942</v>
       </c>
       <c r="I110" s="28">
-        <v>5.7638888888888885E-2</v>
+        <v>0.15375</v>
       </c>
       <c r="J110" s="28">
-        <v>1.3379262432698431</v>
+        <v>0.88216364166039996</v>
       </c>
       <c r="K110"/>
       <c r="L110" s="27">
-        <v>10011</v>
+        <v>14469</v>
       </c>
       <c r="M110" s="29">
         <v>516100</v>
@@ -5658,19 +5621,19 @@
     </row>
     <row r="111" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B111" s="25">
-        <v>100</v>
+        <v>61.429201105160331</v>
       </c>
       <c r="C111" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D111" s="26">
-        <v>0</v>
+        <v>5.0320373041698815E-5</v>
       </c>
       <c r="E111" s="27">
-        <v>0</v>
+        <v>19872.666666666668</v>
       </c>
       <c r="F111" s="28">
         <v>0</v>
@@ -5679,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="28">
-        <v>10</v>
+        <v>6.1429201105160329</v>
       </c>
       <c r="I111" s="28">
         <v>0</v>
@@ -5689,7 +5652,7 @@
       </c>
       <c r="K111"/>
       <c r="L111" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M111" s="29">
         <v>59618</v>
@@ -5697,38 +5660,38 @@
     </row>
     <row r="112" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B112" s="25">
-        <v>47.564633790873778</v>
+        <v>41.869979355454937</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D112" s="26">
-        <v>2.4920891874742151E-4</v>
+        <v>1.1553660543945584E-3</v>
       </c>
       <c r="E112" s="27">
-        <v>4012.6974789915967</v>
+        <v>865.52655428675007</v>
       </c>
       <c r="F112" s="28">
-        <v>0.09</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="G112" s="25">
         <v>0</v>
       </c>
       <c r="H112" s="28">
-        <v>4.7583383790873777</v>
+        <v>4.1976021022121603</v>
       </c>
       <c r="I112" s="28">
-        <v>6.2499999999999995E-3</v>
+        <v>3.5347222222222224E-2</v>
       </c>
       <c r="J112" s="28">
         <v>0</v>
       </c>
       <c r="K112"/>
       <c r="L112" s="27">
-        <v>1190</v>
+        <v>5517</v>
       </c>
       <c r="M112" s="29">
         <v>4775110</v>
@@ -5736,19 +5699,19 @@
     </row>
     <row r="113" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B113" s="25">
-        <v>43.597871386885615</v>
+        <v>43.007367971531409</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D113" s="26">
-        <v>4.3740203607899308E-4</v>
+        <v>6.1644631655657011E-4</v>
       </c>
       <c r="E113" s="27">
-        <v>2286.2262118491922</v>
+        <v>1622.2012738853505</v>
       </c>
       <c r="F113" s="28">
         <v>0</v>
@@ -5757,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="28">
-        <v>4.3597871386885618</v>
+        <v>4.3007367971531405</v>
       </c>
       <c r="I113" s="28">
         <v>0</v>
@@ -5767,7 +5730,7 @@
       </c>
       <c r="K113"/>
       <c r="L113" s="27">
-        <v>557</v>
+        <v>785</v>
       </c>
       <c r="M113" s="29">
         <v>1273428</v>
@@ -5775,38 +5738,38 @@
     </row>
     <row r="114" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B114" s="25">
-        <v>45.70939359548273</v>
+        <v>42.347078976139024</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D114" s="26">
-        <v>2.6405967900746665E-4</v>
+        <v>8.8048553141501808E-4</v>
       </c>
       <c r="E114" s="27">
-        <v>3787.0227054684997</v>
+        <v>1135.7370045512407</v>
       </c>
       <c r="F114" s="28">
-        <v>0.84799999999999998</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="G114" s="25">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="H114" s="28">
-        <v>4.5874095538785378</v>
+        <v>4.2521803232251703</v>
       </c>
       <c r="I114" s="28">
-        <v>5.8888888888888886E-2</v>
+        <v>6.3819444444444443E-2</v>
       </c>
       <c r="J114" s="28">
-        <v>1.196472336401706E-2</v>
+        <v>1.6734077220652697E-2</v>
       </c>
       <c r="K114"/>
       <c r="L114" s="27">
-        <v>34397</v>
+        <v>114694</v>
       </c>
       <c r="M114" s="29">
         <v>130262220</v>
@@ -5814,13 +5777,13 @@
     </row>
     <row r="115" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B115" s="25">
         <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D115" s="26">
         <v>0</v>
@@ -5853,38 +5816,38 @@
     </row>
     <row r="116" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B116" s="25">
-        <v>38.453408704715599</v>
+        <v>38.98689099753863</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D116" s="26">
-        <v>1.0859773485502699E-3</v>
+        <v>1.280310137238213E-3</v>
       </c>
       <c r="E116" s="27">
-        <v>920.82951945080094</v>
+        <v>781.06075310559004</v>
       </c>
       <c r="F116" s="28">
-        <v>4.0830000000000002</v>
+        <v>2.2719999999999998</v>
       </c>
       <c r="G116" s="25">
         <v>0</v>
       </c>
       <c r="H116" s="28">
-        <v>3.9304033704715602</v>
+        <v>3.9460224330871965</v>
       </c>
       <c r="I116" s="28">
-        <v>0.28354166666666669</v>
+        <v>0.15777777777777777</v>
       </c>
       <c r="J116" s="28">
         <v>0</v>
       </c>
       <c r="K116"/>
       <c r="L116" s="27">
-        <v>4370</v>
+        <v>5152</v>
       </c>
       <c r="M116" s="29">
         <v>4024025</v>
@@ -5892,38 +5855,38 @@
     </row>
     <row r="117" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B117" s="25">
-        <v>27.294337223261689</v>
+        <v>24.507553505018102</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>162</v>
       </c>
       <c r="D117" s="26">
-        <v>2.2039473684210525E-2</v>
+        <v>2.4974696356275302E-2</v>
       </c>
       <c r="E117" s="27">
-        <v>45.373134328358212</v>
+        <v>40.040526849037491</v>
       </c>
       <c r="F117" s="28">
-        <v>0</v>
+        <v>14.459</v>
       </c>
       <c r="G117" s="25">
         <v>0</v>
       </c>
       <c r="H117" s="28">
-        <v>2.7294337223261689</v>
+        <v>2.7519845171684767</v>
       </c>
       <c r="I117" s="28">
-        <v>0</v>
+        <v>1.0040972222222222</v>
       </c>
       <c r="J117" s="28">
         <v>0</v>
       </c>
       <c r="K117"/>
       <c r="L117" s="27">
-        <v>871</v>
+        <v>987</v>
       </c>
       <c r="M117" s="29">
         <v>39520</v>
@@ -5931,38 +5894,38 @@
     </row>
     <row r="118" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B118" s="25">
-        <v>40.313509118561726</v>
+        <v>40.1153057822427</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D118" s="26">
-        <v>9.3203279265619433E-4</v>
+        <v>1.135980670907421E-3</v>
       </c>
       <c r="E118" s="27">
-        <v>1072.9236223009991</v>
+        <v>880.29666842940242</v>
       </c>
       <c r="F118" s="28">
         <v>0.34300000000000003</v>
       </c>
       <c r="G118" s="25">
-        <v>1706</v>
+        <v>2032</v>
       </c>
       <c r="H118" s="28">
-        <v>4.0220356015935277</v>
+        <v>4.004909753698346</v>
       </c>
       <c r="I118" s="28">
         <v>2.3819444444444445E-2</v>
       </c>
       <c r="J118" s="28">
-        <v>0.16461143595978309</v>
+        <v>0.13766657859257603</v>
       </c>
       <c r="K118"/>
       <c r="L118" s="27">
-        <v>3103</v>
+        <v>3782</v>
       </c>
       <c r="M118" s="29">
         <v>3329282</v>
@@ -5970,38 +5933,38 @@
     </row>
     <row r="119" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B119" s="25">
-        <v>30.357629012046939</v>
+        <v>25.337261940573402</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D119" s="26">
-        <v>1.253242173008243E-2</v>
+        <v>3.3876229796624795E-2</v>
       </c>
       <c r="E119" s="27">
-        <v>79.793037733451911</v>
+        <v>29.519223538259073</v>
       </c>
       <c r="F119" s="28">
-        <v>4.3220000000000001</v>
+        <v>4.7770000000000001</v>
       </c>
       <c r="G119" s="25">
         <v>0</v>
       </c>
       <c r="H119" s="28">
-        <v>3.1258045678713606</v>
+        <v>2.6332470273906736</v>
       </c>
       <c r="I119" s="28">
-        <v>0.3001388888888889</v>
+        <v>0.33173611111111112</v>
       </c>
       <c r="J119" s="28">
         <v>0</v>
       </c>
       <c r="K119"/>
       <c r="L119" s="27">
-        <v>7871</v>
+        <v>21276</v>
       </c>
       <c r="M119" s="29">
         <v>628051</v>
@@ -6009,38 +5972,38 @@
     </row>
     <row r="120" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B120" s="25">
-        <v>48.273586355565619</v>
+        <v>43.235568704120169</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D120" s="26">
-        <v>2.374896394508824E-4</v>
+        <v>7.8806179829061553E-4</v>
       </c>
       <c r="E120" s="27">
-        <v>4210.7100011275224</v>
+        <v>1268.9360176690452</v>
       </c>
       <c r="F120" s="28">
-        <v>0.08</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="G120" s="25">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="H120" s="28">
-        <v>4.8250402774253747</v>
+        <v>4.3234022957251881</v>
       </c>
       <c r="I120" s="28">
-        <v>5.5555555555555558E-3</v>
+        <v>1.0347222222222221E-2</v>
       </c>
       <c r="J120" s="28">
-        <v>3.9850247978540684E-2</v>
+        <v>3.2587413534955249E-2</v>
       </c>
       <c r="K120"/>
       <c r="L120" s="27">
-        <v>8869</v>
+        <v>29430</v>
       </c>
       <c r="M120" s="29">
         <v>37344787</v>
@@ -6048,38 +6011,38 @@
     </row>
     <row r="121" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B121" s="25">
-        <v>41.943996219954464</v>
+        <v>39.762171627957954</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D121" s="26">
-        <v>8.5470763107162271E-4</v>
+        <v>1.117244962347315E-3</v>
       </c>
       <c r="E121" s="27">
-        <v>1169.9907238996</v>
+        <v>895.05885790616139</v>
       </c>
       <c r="F121" s="28">
-        <v>0.155</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="G121" s="25">
         <v>0</v>
       </c>
       <c r="H121" s="28">
-        <v>4.196239336916614</v>
+        <v>3.9816165728687616</v>
       </c>
       <c r="I121" s="28">
-        <v>1.0763888888888889E-2</v>
+        <v>2.1249999999999998E-2</v>
       </c>
       <c r="J121" s="28">
-        <v>1.3894517454987551E-2</v>
+        <v>9.7558992703400335E-3</v>
       </c>
       <c r="K121"/>
       <c r="L121" s="27">
-        <v>27490</v>
+        <v>35934</v>
       </c>
       <c r="M121" s="29">
         <v>32163045</v>
@@ -6087,38 +6050,38 @@
     </row>
     <row r="122" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B122" s="25">
-        <v>52.66516919504555</v>
+        <v>53.027843666695887</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D122" s="26">
-        <v>5.3479532373947139E-5</v>
+        <v>4.579789363992061E-5</v>
       </c>
       <c r="E122" s="27">
-        <v>18698.742408734219</v>
+        <v>21835.065338645418</v>
       </c>
       <c r="F122" s="28">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G122" s="25">
         <v>0</v>
       </c>
       <c r="H122" s="28">
-        <v>5.2677669195045551</v>
+        <v>5.3038260333362555</v>
       </c>
       <c r="I122" s="28">
-        <v>4.1666666666666666E-3</v>
+        <v>3.4722222222222225E-3</v>
       </c>
       <c r="J122" s="28">
         <v>0</v>
       </c>
       <c r="K122"/>
       <c r="L122" s="27">
-        <v>2931</v>
+        <v>2510</v>
       </c>
       <c r="M122" s="29">
         <v>54806014</v>
@@ -6126,38 +6089,38 @@
     </row>
     <row r="123" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B123" s="25">
-        <v>32.86140634884643</v>
+        <v>32.976573627841177</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D123" s="26">
-        <v>4.8567179315931706E-3</v>
+        <v>3.8475749649060967E-3</v>
       </c>
       <c r="E123" s="27">
-        <v>205.90036606716535</v>
+        <v>259.90396785534909</v>
       </c>
       <c r="F123" s="28">
-        <v>1.27</v>
+        <v>3.8650000000000002</v>
       </c>
       <c r="G123" s="25">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="H123" s="28">
-        <v>3.3051113671450105</v>
+        <v>3.3726363033374942</v>
       </c>
       <c r="I123" s="28">
-        <v>8.819444444444445E-2</v>
+        <v>0.26840277777777777</v>
       </c>
       <c r="J123" s="28">
-        <v>7.4876010729655149E-2</v>
+        <v>5.5418927799570465E-2</v>
       </c>
       <c r="K123"/>
       <c r="L123" s="27">
-        <v>12566</v>
+        <v>9955</v>
       </c>
       <c r="M123" s="29">
         <v>2587344</v>
@@ -6165,38 +6128,38 @@
     </row>
     <row r="124" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B124" s="25">
-        <v>49.922933248660478</v>
+        <v>49.459278482278123</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D124" s="26">
-        <v>1.0214012371389713E-4</v>
+        <v>1.2859343849958146E-4</v>
       </c>
       <c r="E124" s="27">
-        <v>9790.4717914879566</v>
+        <v>7776.4465408805036</v>
       </c>
       <c r="F124" s="28">
-        <v>4.2999999999999997E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="G124" s="25">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H124" s="28">
-        <v>4.9908444583788523</v>
+        <v>4.9454966484893248</v>
       </c>
       <c r="I124" s="28">
-        <v>2.9861111111111108E-3</v>
+        <v>4.0277777777777777E-3</v>
       </c>
       <c r="J124" s="28">
-        <v>2.3446998205291496E-2</v>
+        <v>1.6395330718210335E-2</v>
       </c>
       <c r="K124"/>
       <c r="L124" s="27">
-        <v>3031</v>
+        <v>3816</v>
       </c>
       <c r="M124" s="29">
         <v>29674920</v>
@@ -6204,38 +6167,38 @@
     </row>
     <row r="125" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B125" s="25">
-        <v>29.4925278373716</v>
+        <v>29.444313446552652</v>
       </c>
       <c r="C125" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D125" s="26">
-        <v>1.0462179965939743E-2</v>
+        <v>1.2866638941124995E-2</v>
       </c>
       <c r="E125" s="27">
-        <v>95.582374156778044</v>
+        <v>77.720374728457642</v>
       </c>
       <c r="F125" s="28">
-        <v>2.254</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="G125" s="25">
-        <v>2812</v>
+        <v>3875</v>
       </c>
       <c r="H125" s="28">
-        <v>2.9690782121514481</v>
+        <v>2.943990990715982</v>
       </c>
       <c r="I125" s="28">
-        <v>0.15652777777777777</v>
+        <v>8.6041666666666669E-2</v>
       </c>
       <c r="J125" s="28">
-        <v>0.27132904919045137</v>
+        <v>0.26252853939283077</v>
       </c>
       <c r="K125"/>
       <c r="L125" s="27">
-        <v>179668</v>
+        <v>220960</v>
       </c>
       <c r="M125" s="29">
         <v>17173094</v>
@@ -6243,38 +6206,38 @@
     </row>
     <row r="126" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B126" s="25">
-        <v>47.867872971675901</v>
+        <v>48.167338246752792</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D126" s="26">
-        <v>1.5636590793737556E-4</v>
+        <v>1.5734197477843283E-4</v>
       </c>
       <c r="E126" s="27">
-        <v>6395.25593008739</v>
+        <v>6355.5831265508687</v>
       </c>
       <c r="F126" s="28">
-        <v>5.6000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G126" s="25">
-        <v>2305</v>
+        <v>2299</v>
       </c>
       <c r="H126" s="28">
-        <v>4.765713086935822</v>
+        <v>4.8011582604929792</v>
       </c>
       <c r="I126" s="28">
-        <v>3.8888888888888888E-3</v>
+        <v>0</v>
       </c>
       <c r="J126" s="28">
-        <v>0.22240876898434939</v>
+        <v>0.15575564182299817</v>
       </c>
       <c r="K126"/>
       <c r="L126" s="27">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="M126" s="29">
         <v>5122600</v>
@@ -6282,19 +6245,19 @@
     </row>
     <row r="127" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B127" s="25">
-        <v>57.993031611865504</v>
+        <v>58.674187498023215</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D127" s="26">
-        <v>1.4323272378359982E-5</v>
+        <v>1.2532863331064984E-5</v>
       </c>
       <c r="E127" s="27">
-        <v>69816.447916666672</v>
+        <v>79790.226190476198</v>
       </c>
       <c r="F127" s="28">
         <v>2.1000000000000001E-2</v>
@@ -6303,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="28">
-        <v>5.7997406611865507</v>
+        <v>5.8678562498023217</v>
       </c>
       <c r="I127" s="28">
         <v>1.4583333333333334E-3</v>
@@ -6313,7 +6276,7 @@
       </c>
       <c r="K127"/>
       <c r="L127" s="27">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M127" s="29">
         <v>6702379</v>
@@ -6321,38 +6284,38 @@
     </row>
     <row r="128" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B128" s="25">
-        <v>62.957856163330405</v>
+        <v>59.291875604442566</v>
       </c>
       <c r="C128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D128" s="26">
-        <v>5.8096018393358594E-6</v>
+        <v>1.3847544110197802E-5</v>
       </c>
       <c r="E128" s="27">
-        <v>172128.83561643836</v>
+        <v>72214.971264367807</v>
       </c>
       <c r="F128" s="28">
-        <v>6.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G128" s="25">
         <v>0</v>
       </c>
       <c r="H128" s="28">
-        <v>6.2959106163330407</v>
+        <v>5.929541727110923</v>
       </c>
       <c r="I128" s="28">
-        <v>4.1666666666666669E-4</v>
+        <v>1.1805555555555556E-3</v>
       </c>
       <c r="J128" s="28">
         <v>0</v>
       </c>
       <c r="K128"/>
       <c r="L128" s="27">
-        <v>146</v>
+        <v>348</v>
       </c>
       <c r="M128" s="29">
         <v>25130810</v>
@@ -6360,38 +6323,38 @@
     </row>
     <row r="129" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B129" s="25">
-        <v>50.256762954223291</v>
+        <v>50.782689862932607</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D129" s="26">
-        <v>9.669788043846817E-5</v>
+        <v>6.0747195997984945E-5</v>
       </c>
       <c r="E129" s="27">
-        <v>10341.488308384698</v>
+        <v>16461.665161189845</v>
       </c>
       <c r="F129" s="28">
-        <v>2.5999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G129" s="25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H129" s="28">
-        <v>5.0257548115071629</v>
+        <v>5.0786605874124788</v>
       </c>
       <c r="I129" s="28">
-        <v>1.8055555555555555E-3</v>
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="J129" s="28">
-        <v>4.6315058183291841E-3</v>
+        <v>1.0839888078155594E-3</v>
       </c>
       <c r="K129"/>
       <c r="L129" s="27">
-        <v>20442</v>
+        <v>12842</v>
       </c>
       <c r="M129" s="29">
         <v>211400704</v>
@@ -6399,38 +6362,38 @@
     </row>
     <row r="130" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B130" s="25">
-        <v>36.057935248224759</v>
+        <v>35.367154645945561</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D130" s="26">
-        <v>1.9398260206533852E-3</v>
+        <v>3.8085891078768939E-3</v>
       </c>
       <c r="E130" s="27">
-        <v>515.51014851485149</v>
+        <v>262.56442259203226</v>
       </c>
       <c r="F130" s="28">
-        <v>5.83</v>
+        <v>3.3610000000000002</v>
       </c>
       <c r="G130" s="25">
-        <v>0</v>
+        <v>2486</v>
       </c>
       <c r="H130" s="28">
-        <v>3.7272518581558094</v>
+        <v>3.5898938218264549</v>
       </c>
       <c r="I130" s="28">
-        <v>0.40486111111111112</v>
+        <v>0.23340277777777779</v>
       </c>
       <c r="J130" s="28">
-        <v>0</v>
+        <v>0.16842476101434253</v>
       </c>
       <c r="K130"/>
       <c r="L130" s="27">
-        <v>4040</v>
+        <v>7932</v>
       </c>
       <c r="M130" s="29">
         <v>2082661</v>
@@ -6438,38 +6401,38 @@
     </row>
     <row r="131" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B131" s="25">
-        <v>29.878907444555406</v>
+        <v>30.162286202493942</v>
       </c>
       <c r="C131" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D131" s="26">
-        <v>9.551691122833255E-3</v>
+        <v>1.1136870065641118E-2</v>
       </c>
       <c r="E131" s="27">
-        <v>104.69350266252921</v>
+        <v>89.791835058321013</v>
       </c>
       <c r="F131" s="28">
-        <v>1.2549999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G131" s="25">
-        <v>2644</v>
+        <v>3775</v>
       </c>
       <c r="H131" s="28">
-        <v>2.988524699906244</v>
+        <v>3.014611592648329</v>
       </c>
       <c r="I131" s="28">
-        <v>8.7152777777777773E-2</v>
+        <v>7.9861111111111105E-2</v>
       </c>
       <c r="J131" s="28">
-        <v>0.25511877882629924</v>
+        <v>0.2557536093439835</v>
       </c>
       <c r="K131"/>
       <c r="L131" s="27">
-        <v>52206</v>
+        <v>60870</v>
       </c>
       <c r="M131" s="29">
         <v>5465629</v>
@@ -6477,38 +6440,38 @@
     </row>
     <row r="132" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B132" s="25">
-        <v>50.474574112825152</v>
+        <v>46.484611775758957</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D132" s="26">
-        <v>1.3516162726941351E-4</v>
+        <v>3.3905275055825965E-4</v>
       </c>
       <c r="E132" s="27">
-        <v>7398.5495750708205</v>
+        <v>2949.3935629587804</v>
       </c>
       <c r="F132" s="28">
-        <v>8.2000000000000003E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G132" s="25">
         <v>0</v>
       </c>
       <c r="H132" s="28">
-        <v>5.0491657446158484</v>
+        <v>4.6490236775758955</v>
       </c>
       <c r="I132" s="28">
-        <v>5.6944444444444447E-3</v>
+        <v>1.8749999999999999E-3</v>
       </c>
       <c r="J132" s="28">
         <v>0</v>
       </c>
       <c r="K132"/>
       <c r="L132" s="27">
-        <v>706</v>
+        <v>1771</v>
       </c>
       <c r="M132" s="29">
         <v>5223376</v>
@@ -6516,38 +6479,38 @@
     </row>
     <row r="133" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B133" s="25">
-        <v>56.993211976388096</v>
+        <v>55.422641053283215</v>
       </c>
       <c r="C133" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D133" s="26">
-        <v>2.1691836323802749E-5</v>
+        <v>3.7357915863286084E-5</v>
       </c>
       <c r="E133" s="27">
-        <v>46100.292528147387</v>
+        <v>26768.088553429217</v>
       </c>
       <c r="F133" s="28">
-        <v>1.7999999999999999E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G133" s="25">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H133" s="28">
-        <v>5.6977181586955652</v>
+        <v>5.5412997033513971</v>
       </c>
       <c r="I133" s="28">
-        <v>1.2499999999999998E-3</v>
+        <v>1.5277777777777776E-3</v>
       </c>
       <c r="J133" s="28">
-        <v>1.9780389432447556E-2</v>
+        <v>1.4227353102579216E-2</v>
       </c>
       <c r="K133"/>
       <c r="L133" s="27">
-        <v>4885</v>
+        <v>8413</v>
       </c>
       <c r="M133" s="29">
         <v>225199929</v>
@@ -6555,38 +6518,38 @@
     </row>
     <row r="134" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B134" s="25">
-        <v>40.668086232620283</v>
+        <v>40.901765920600923</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D134" s="26">
-        <v>8.9110040752430329E-4</v>
+        <v>7.1456526018064028E-4</v>
       </c>
       <c r="E134" s="27">
-        <v>1122.2079931241942</v>
+        <v>1399.4523043944266</v>
       </c>
       <c r="F134" s="28">
         <v>0.95699999999999996</v>
       </c>
       <c r="G134" s="25">
-        <v>1002</v>
+        <v>1022.9999999999999</v>
       </c>
       <c r="H134" s="28">
-        <v>4.0770778548662658</v>
+        <v>4.1031833386201217</v>
       </c>
       <c r="I134" s="28">
         <v>6.6458333333333328E-2</v>
       </c>
       <c r="J134" s="28">
-        <v>9.6682683957621723E-2</v>
+        <v>6.9307534399707313E-2</v>
       </c>
       <c r="K134"/>
       <c r="L134" s="27">
-        <v>4654</v>
+        <v>3732</v>
       </c>
       <c r="M134" s="29">
         <v>5222756</v>
@@ -6594,38 +6557,38 @@
     </row>
     <row r="135" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B135" s="25">
-        <v>37.725296884131609</v>
+        <v>34.065395214857737</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D135" s="26">
-        <v>2.1040340899624635E-3</v>
+        <v>6.1370513807452697E-3</v>
       </c>
       <c r="E135" s="27">
-        <v>475.27747044147952</v>
+        <v>162.94470063220527</v>
       </c>
       <c r="F135" s="28">
-        <v>0.61899999999999999</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="G135" s="25">
-        <v>2848</v>
+        <v>3772</v>
       </c>
       <c r="H135" s="28">
-        <v>3.7579452538910743</v>
+        <v>3.3972761520081884</v>
       </c>
       <c r="I135" s="28">
-        <v>4.2986111111111114E-2</v>
+        <v>5.4305555555555558E-2</v>
       </c>
       <c r="J135" s="28">
-        <v>0.27480267855419827</v>
+        <v>0.25555036144251808</v>
       </c>
       <c r="K135"/>
       <c r="L135" s="27">
-        <v>9219</v>
+        <v>26890</v>
       </c>
       <c r="M135" s="29">
         <v>4381583</v>
@@ -6633,19 +6596,19 @@
     </row>
     <row r="136" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B136" s="25">
-        <v>56.412523106711689</v>
+        <v>57.074531150362645</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D136" s="26">
-        <v>2.10549286901367E-5</v>
+        <v>2.4783405645681738E-5</v>
       </c>
       <c r="E136" s="27">
-        <v>47494.817708333328</v>
+        <v>40349.579646017701</v>
       </c>
       <c r="F136" s="28">
         <v>1.6E-2</v>
@@ -6654,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="28">
-        <v>5.6415856440045022</v>
+        <v>5.7077864483695979</v>
       </c>
       <c r="I136" s="28">
         <v>1.1111111111111111E-3</v>
@@ -6664,7 +6627,7 @@
       </c>
       <c r="K136"/>
       <c r="L136" s="27">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="M136" s="29">
         <v>9119005</v>
@@ -6672,38 +6635,38 @@
     </row>
     <row r="137" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B137" s="25">
-        <v>46.38403382382301</v>
+        <v>42.055606108012803</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D137" s="26">
-        <v>2.9045765572000047E-4</v>
+        <v>1.0589169184451138E-3</v>
       </c>
       <c r="E137" s="27">
-        <v>3442.8426323319027</v>
+        <v>944.36115107913668</v>
       </c>
       <c r="F137" s="28">
-        <v>0.55400000000000005</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="G137" s="25">
-        <v>434</v>
+        <v>642</v>
       </c>
       <c r="H137" s="28">
-        <v>4.6457573958715619</v>
+        <v>4.215231939043254</v>
       </c>
       <c r="I137" s="28">
-        <v>3.8472222222222227E-2</v>
+        <v>4.6736111111111117E-2</v>
       </c>
       <c r="J137" s="28">
-        <v>4.1876531774059707E-2</v>
+        <v>4.3495050913599322E-2</v>
       </c>
       <c r="K137"/>
       <c r="L137" s="27">
-        <v>2097</v>
+        <v>7645</v>
       </c>
       <c r="M137" s="29">
         <v>7219641</v>
@@ -6711,38 +6674,38 @@
     </row>
     <row r="138" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B138" s="25">
-        <v>41.052228272610861</v>
+        <v>38.659069528995147</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D138" s="26">
-        <v>1.013147262924125E-3</v>
+        <v>1.7436756609790669E-3</v>
       </c>
       <c r="E138" s="27">
-        <v>987.0233445766022</v>
+        <v>573.50115183606101</v>
       </c>
       <c r="F138" s="28">
-        <v>0.98099999999999998</v>
+        <v>1.2030000000000001</v>
       </c>
       <c r="G138" s="25">
         <v>0</v>
       </c>
       <c r="H138" s="28">
-        <v>4.1224954649518946</v>
+        <v>3.8909694528995149</v>
       </c>
       <c r="I138" s="28">
-        <v>6.8125000000000005E-2</v>
+        <v>8.3541666666666667E-2</v>
       </c>
       <c r="J138" s="28">
-        <v>3.1648623091916094E-2</v>
+        <v>0</v>
       </c>
       <c r="K138"/>
       <c r="L138" s="27">
-        <v>33798</v>
+        <v>58168</v>
       </c>
       <c r="M138" s="29">
         <v>33359415</v>
@@ -6750,38 +6713,38 @@
     </row>
     <row r="139" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B139" s="25">
-        <v>56.454365151840527</v>
+        <v>46.870124366043633</v>
       </c>
       <c r="C139" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D139" s="26">
-        <v>3.8218082790417133E-5</v>
+        <v>4.5939144096850603E-4</v>
       </c>
       <c r="E139" s="27">
-        <v>26165.62441093308</v>
+        <v>2176.7928411808521</v>
       </c>
       <c r="F139" s="28">
-        <v>0.504</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="G139" s="25">
-        <v>225</v>
+        <v>436</v>
       </c>
       <c r="H139" s="28">
-        <v>5.6537654968317108</v>
+        <v>4.6939752337697325</v>
       </c>
       <c r="I139" s="28">
-        <v>3.5000000000000003E-2</v>
+        <v>3.3055555555555553E-2</v>
       </c>
       <c r="J139" s="28">
-        <v>2.1710183523418053E-2</v>
+        <v>2.953869501297399E-2</v>
       </c>
       <c r="K139"/>
       <c r="L139" s="27">
-        <v>4244</v>
+        <v>51014</v>
       </c>
       <c r="M139" s="29">
         <v>111046910</v>
@@ -6789,38 +6752,38 @@
     </row>
     <row r="140" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B140" s="25">
-        <v>30.255753320819476</v>
+        <v>31.360503824068623</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D140" s="26">
-        <v>5.0576236209222952E-3</v>
+        <v>4.2826679366087259E-3</v>
       </c>
       <c r="E140" s="27">
-        <v>197.72131636352225</v>
+        <v>233.49930809528516</v>
       </c>
       <c r="F140" s="28">
-        <v>11.225</v>
+        <v>10.946</v>
       </c>
       <c r="G140" s="25">
-        <v>1854</v>
+        <v>2181</v>
       </c>
       <c r="H140" s="28">
-        <v>3.2415403075253177</v>
+        <v>3.3493159266369932</v>
       </c>
       <c r="I140" s="28">
-        <v>0.77951388888888884</v>
+        <v>0.76013888888888892</v>
       </c>
       <c r="J140" s="28">
-        <v>0.17889191223296474</v>
+        <v>0.14776122436535843</v>
       </c>
       <c r="K140"/>
       <c r="L140" s="27">
-        <v>191163</v>
+        <v>161872</v>
       </c>
       <c r="M140" s="29">
         <v>37797000</v>
@@ -6828,38 +6791,38 @@
     </row>
     <row r="141" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B141" s="25">
-        <v>31.892276672173747</v>
+        <v>27.817262676950545</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D141" s="26">
-        <v>1.4524795280216028E-2</v>
+        <v>2.8123344364429197E-2</v>
       </c>
       <c r="E141" s="27">
-        <v>68.847786196483113</v>
+        <v>35.557648729175114</v>
       </c>
       <c r="F141" s="28">
-        <v>1.363</v>
+        <v>1.6439999999999999</v>
       </c>
       <c r="G141" s="25">
-        <v>22860</v>
+        <v>22387</v>
       </c>
       <c r="H141" s="28">
-        <v>2.9970480359527807</v>
+        <v>2.6643059086915111</v>
       </c>
       <c r="I141" s="28">
-        <v>9.465277777777778E-2</v>
+        <v>0.11416666666666667</v>
       </c>
       <c r="J141" s="28">
-        <v>2.2057546459792738</v>
+        <v>1.5167035900354329</v>
       </c>
       <c r="K141"/>
       <c r="L141" s="27">
-        <v>147687</v>
+        <v>285956</v>
       </c>
       <c r="M141" s="29">
         <v>10167923</v>
@@ -6867,38 +6830,38 @@
     </row>
     <row r="142" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B142" s="25">
-        <v>39.865753966902858</v>
+        <v>35.806601644852776</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D142" s="26">
-        <v>1.2840706986190866E-3</v>
+        <v>4.4408440265290439E-3</v>
       </c>
       <c r="E142" s="27">
-        <v>778.77331916024445</v>
+        <v>225.18241893345629</v>
       </c>
       <c r="F142" s="28">
-        <v>0.14599999999999999</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="G142" s="25">
         <v>0</v>
       </c>
       <c r="H142" s="28">
-        <v>3.9896170633569525</v>
+        <v>3.5816809978186113</v>
       </c>
       <c r="I142" s="28">
-        <v>1.0138888888888888E-2</v>
+        <v>3.402777777777778E-3</v>
       </c>
       <c r="J142" s="28">
         <v>0</v>
       </c>
       <c r="K142"/>
       <c r="L142" s="27">
-        <v>3763</v>
+        <v>13014</v>
       </c>
       <c r="M142" s="29">
         <v>2930524</v>
@@ -6906,38 +6869,38 @@
     </row>
     <row r="143" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B143" s="25">
-        <v>42.497478059004486</v>
+        <v>40.352966272110393</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D143" s="26">
-        <v>5.747140858851726E-4</v>
+        <v>1.4003721918057158E-3</v>
       </c>
       <c r="E143" s="27">
-        <v>1739.9956335850086</v>
+        <v>714.09587097737619</v>
       </c>
       <c r="F143" s="28">
-        <v>1.875</v>
+        <v>1.6879999999999999</v>
       </c>
       <c r="G143" s="25">
-        <v>1771</v>
+        <v>2249</v>
       </c>
       <c r="H143" s="28">
-        <v>4.271721979224905</v>
+        <v>4.0552264761978485</v>
       </c>
       <c r="I143" s="28">
-        <v>0.13020833333333334</v>
+        <v>0.11722222222222221</v>
       </c>
       <c r="J143" s="28">
-        <v>0.17088326675543719</v>
+        <v>0.15236817679857456</v>
       </c>
       <c r="K143"/>
       <c r="L143" s="27">
-        <v>10993</v>
+        <v>26786</v>
       </c>
       <c r="M143" s="29">
         <v>19127772</v>
@@ -6945,38 +6908,38 @@
     </row>
     <row r="144" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B144" s="25">
-        <v>34.993031340477472</v>
+        <v>35.712122329534637</v>
       </c>
       <c r="C144" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D144" s="26">
-        <v>2.3617999070700288E-3</v>
+        <v>1.9219389612735269E-3</v>
       </c>
       <c r="E144" s="27">
-        <v>423.40589353336333</v>
+        <v>520.3078870607701</v>
       </c>
       <c r="F144" s="28">
-        <v>6.359</v>
+        <v>5.5780000000000003</v>
       </c>
       <c r="G144" s="25">
-        <v>3039</v>
+        <v>2157</v>
       </c>
       <c r="H144" s="28">
-        <v>3.602459079502117</v>
+        <v>3.6728070421714332</v>
       </c>
       <c r="I144" s="28">
-        <v>0.4415972222222222</v>
+        <v>0.38736111111111116</v>
       </c>
       <c r="J144" s="28">
-        <v>0.29323221212296652</v>
+        <v>0.1461352411536351</v>
       </c>
       <c r="K144"/>
       <c r="L144" s="27">
-        <v>344615</v>
+        <v>280434</v>
       </c>
       <c r="M144" s="29">
         <v>145912022</v>
@@ -6984,38 +6947,38 @@
     </row>
     <row r="145" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B145" s="25">
-        <v>43.693972006748155</v>
+        <v>40.194704275061476</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D145" s="26">
-        <v>7.1765810264845813E-4</v>
+        <v>1.1427695983818648E-3</v>
       </c>
       <c r="E145" s="27">
-        <v>1393.4211796809404</v>
+        <v>875.06703137358295</v>
       </c>
       <c r="F145" s="28">
-        <v>4.2999999999999997E-2</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="G145" s="25">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="H145" s="28">
-        <v>4.3569581568395428</v>
+        <v>4.0141423659152586</v>
       </c>
       <c r="I145" s="28">
-        <v>2.9861111111111108E-3</v>
+        <v>1.3472222222222222E-2</v>
       </c>
       <c r="J145" s="28">
-        <v>0.13334877168606107</v>
+        <v>9.3697282575557414E-2</v>
       </c>
       <c r="K145"/>
       <c r="L145" s="27">
-        <v>9528</v>
+        <v>15172</v>
       </c>
       <c r="M145" s="29">
         <v>13276517</v>
@@ -7023,38 +6986,38 @@
     </row>
     <row r="146" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B146" s="25">
-        <v>39.010990680562472</v>
+        <v>30.968243151990478</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D146" s="26">
-        <v>2.2410637582639227E-3</v>
+        <v>1.5892877152354986E-2</v>
       </c>
       <c r="E146" s="27">
-        <v>446.21666666666664</v>
+        <v>62.921269095182133</v>
       </c>
       <c r="F146" s="28">
         <v>0</v>
       </c>
       <c r="G146" s="25">
-        <v>1625</v>
+        <v>6611</v>
       </c>
       <c r="H146" s="28">
-        <v>3.885419491067112</v>
+        <v>3.0520352526461187</v>
       </c>
       <c r="I146" s="28">
         <v>0</v>
       </c>
       <c r="J146" s="28">
-        <v>0.1567957698913526</v>
+        <v>0.44789062552929138</v>
       </c>
       <c r="K146"/>
       <c r="L146" s="27">
-        <v>120</v>
+        <v>851</v>
       </c>
       <c r="M146" s="29">
         <v>53546</v>
@@ -7062,38 +7025,38 @@
     </row>
     <row r="147" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B147" s="25">
-        <v>38.85293340107399</v>
+        <v>32.822928995463961</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D147" s="26">
-        <v>1.8763455729632703E-3</v>
+        <v>5.4609248322948353E-3</v>
       </c>
       <c r="E147" s="27">
-        <v>532.95086705202311</v>
+        <v>183.11916583912614</v>
       </c>
       <c r="F147" s="28">
-        <v>0</v>
+        <v>7.7469999999999999</v>
       </c>
       <c r="G147" s="25">
         <v>0</v>
       </c>
       <c r="H147" s="28">
-        <v>3.885293340107399</v>
+        <v>3.4436887328797297</v>
       </c>
       <c r="I147" s="28">
-        <v>0</v>
+        <v>0.53798611111111105</v>
       </c>
       <c r="J147" s="28">
         <v>0</v>
       </c>
       <c r="K147"/>
       <c r="L147" s="27">
-        <v>346</v>
+        <v>1007</v>
       </c>
       <c r="M147" s="29">
         <v>184401</v>
@@ -7101,19 +7064,19 @@
     </row>
     <row r="148" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B148" s="25">
-        <v>42.443192654406502</v>
+        <v>38.738025740587091</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D148" s="26">
-        <v>6.9312077629526947E-4</v>
+        <v>2.9457632992548953E-3</v>
       </c>
       <c r="E148" s="27">
-        <v>1442.75</v>
+        <v>339.47058823529409</v>
       </c>
       <c r="F148" s="28">
         <v>0</v>
@@ -7122,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="28">
-        <v>4.2443192654406499</v>
+        <v>3.8738025740587094</v>
       </c>
       <c r="I148" s="28">
         <v>0</v>
@@ -7132,7 +7095,7 @@
       </c>
       <c r="K148"/>
       <c r="L148" s="27">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="M148" s="29">
         <v>5771</v>
@@ -7140,38 +7103,38 @@
     </row>
     <row r="149" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B149" s="25">
-        <v>39.10288049498876</v>
+        <v>36.438668319224398</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D149" s="26">
-        <v>1.1413781017174595E-3</v>
+        <v>3.9274191374057462E-3</v>
       </c>
       <c r="E149" s="27">
-        <v>876.1338582677165</v>
+        <v>254.62013729977119</v>
       </c>
       <c r="F149" s="28">
-        <v>2.5680000000000001</v>
+        <v>3.8519999999999999</v>
       </c>
       <c r="G149" s="25">
         <v>0</v>
       </c>
       <c r="H149" s="28">
-        <v>3.9579793692850549</v>
+        <v>3.7200383240330339</v>
       </c>
       <c r="I149" s="28">
-        <v>0.17833333333333334</v>
+        <v>0.26750000000000002</v>
       </c>
       <c r="J149" s="28">
-        <v>5.8086802138211852E-2</v>
+        <v>4.0785078894060418E-2</v>
       </c>
       <c r="K149"/>
       <c r="L149" s="27">
-        <v>127</v>
+        <v>437</v>
       </c>
       <c r="M149" s="29">
         <v>111269</v>
@@ -7179,13 +7142,13 @@
     </row>
     <row r="150" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B150" s="25">
         <v>100</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D150" s="26">
         <v>0</v>
@@ -7218,38 +7181,38 @@
     </row>
     <row r="151" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B151" s="25">
-        <v>23.437489955395492</v>
+        <v>20.567814080819907</v>
       </c>
       <c r="C151" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D151" s="26">
-        <v>2.6256983240223464E-2</v>
+        <v>4.116436342252279E-2</v>
       </c>
       <c r="E151" s="27">
-        <v>38.085106382978722</v>
+        <v>24.292857142857141</v>
       </c>
       <c r="F151" s="28">
-        <v>8.4009999999999998</v>
+        <v>16.802</v>
       </c>
       <c r="G151" s="25">
         <v>0</v>
       </c>
       <c r="H151" s="28">
-        <v>2.5187698288728826</v>
+        <v>2.4068230747486572</v>
       </c>
       <c r="I151" s="28">
-        <v>0.58340277777777771</v>
+        <v>1.1668055555555554</v>
       </c>
       <c r="J151" s="28">
         <v>0</v>
       </c>
       <c r="K151"/>
       <c r="L151" s="27">
-        <v>893</v>
+        <v>1400</v>
       </c>
       <c r="M151" s="29">
         <v>34010</v>
@@ -7257,38 +7220,38 @@
     </row>
     <row r="152" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B152" s="25">
-        <v>46.27070729040458</v>
+        <v>39.108808427212807</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D152" s="26">
-        <v>6.3573360075929873E-4</v>
+        <v>1.8355688472627639E-3</v>
       </c>
       <c r="E152" s="27">
-        <v>1572.9859154929577</v>
+        <v>544.79024390243899</v>
       </c>
       <c r="F152" s="28">
-        <v>0</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="G152" s="25">
         <v>0</v>
       </c>
       <c r="H152" s="28">
-        <v>4.627070729040458</v>
+        <v>3.9641725093879474</v>
       </c>
       <c r="I152" s="28">
-        <v>0</v>
+        <v>0.17763888888888887</v>
       </c>
       <c r="J152" s="28">
         <v>0</v>
       </c>
       <c r="K152"/>
       <c r="L152" s="27">
-        <v>142</v>
+        <v>410</v>
       </c>
       <c r="M152" s="29">
         <v>223364</v>
@@ -7296,38 +7259,38 @@
     </row>
     <row r="153" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B153" s="25">
-        <v>50.646796019893927</v>
+        <v>45.678144000546602</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D153" s="26">
-        <v>1.3794301637659489E-4</v>
+        <v>4.7823075277555495E-4</v>
       </c>
       <c r="E153" s="27">
-        <v>7249.3702564102568</v>
+        <v>2091.0407668185317</v>
       </c>
       <c r="F153" s="28">
-        <v>2.8000000000000001E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="G153" s="25">
-        <v>2228</v>
+        <v>3261</v>
       </c>
       <c r="H153" s="28">
-        <v>5.0437650291493146</v>
+        <v>4.5468255198320362</v>
       </c>
       <c r="I153" s="28">
-        <v>1.9444444444444444E-3</v>
+        <v>3.6805555555555554E-3</v>
       </c>
       <c r="J153" s="28">
-        <v>0.21497906173411299</v>
+        <v>0.22093046889290868</v>
       </c>
       <c r="K153"/>
       <c r="L153" s="27">
-        <v>4875</v>
+        <v>16901</v>
       </c>
       <c r="M153" s="29">
         <v>35340680</v>
@@ -7335,38 +7298,38 @@
     </row>
     <row r="154" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B154" s="25">
-        <v>56.098967389603246</v>
+        <v>49.673294399204408</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D154" s="26">
-        <v>4.3904773047796077E-5</v>
+        <v>1.753864841220569E-4</v>
       </c>
       <c r="E154" s="27">
-        <v>22776.566887417215</v>
+        <v>5701.6936339522545</v>
       </c>
       <c r="F154" s="28">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G154" s="25">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="H154" s="28">
-        <v>5.6090958744125716</v>
+        <v>4.9668909397713925</v>
       </c>
       <c r="I154" s="28">
-        <v>0</v>
+        <v>1.1805555555555556E-3</v>
       </c>
       <c r="J154" s="28">
-        <v>8.0086454775275488E-3</v>
+        <v>7.9266681571512777E-3</v>
       </c>
       <c r="K154"/>
       <c r="L154" s="27">
-        <v>755</v>
+        <v>3016</v>
       </c>
       <c r="M154" s="29">
         <v>17196308</v>
@@ -7374,38 +7337,38 @@
     </row>
     <row r="155" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B155" s="25">
-        <v>35.590628496763806</v>
+        <v>33.743399030844756</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D155" s="26">
-        <v>2.5761302367574581E-3</v>
+        <v>5.8579239871312822E-3</v>
       </c>
       <c r="E155" s="27">
-        <v>388.17913230143483</v>
+        <v>170.70894094850073</v>
       </c>
       <c r="F155" s="28">
-        <v>3.5339999999999998</v>
+        <v>3.3679999999999999</v>
       </c>
       <c r="G155" s="25">
-        <v>2067</v>
+        <v>2669</v>
       </c>
       <c r="H155" s="28">
-        <v>3.6127434277462003</v>
+        <v>3.4264242814507688</v>
       </c>
       <c r="I155" s="28">
-        <v>0.24541666666666664</v>
+        <v>0.23388888888888887</v>
       </c>
       <c r="J155" s="28">
-        <v>0.19944421930180051</v>
+        <v>0.18082288300373298</v>
       </c>
       <c r="K155"/>
       <c r="L155" s="27">
-        <v>17702</v>
+        <v>40253</v>
       </c>
       <c r="M155" s="29">
         <v>6871547</v>
@@ -7413,38 +7376,38 @@
     </row>
     <row r="156" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B156" s="25">
-        <v>31.821002668399117</v>
+        <v>28.804391303159328</v>
       </c>
       <c r="C156" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D156" s="26">
-        <v>7.4916590840157721E-3</v>
+        <v>2.748963704377717E-2</v>
       </c>
       <c r="E156" s="27">
-        <v>133.48178137651823</v>
+        <v>36.377344611989706</v>
       </c>
       <c r="F156" s="28">
-        <v>4.3330000000000002</v>
+        <v>0</v>
       </c>
       <c r="G156" s="25">
         <v>0</v>
       </c>
       <c r="H156" s="28">
-        <v>3.272371100173245</v>
+        <v>2.8804391303159327</v>
       </c>
       <c r="I156" s="28">
-        <v>0.3009027777777778</v>
+        <v>0</v>
       </c>
       <c r="J156" s="28">
         <v>0</v>
       </c>
       <c r="K156"/>
       <c r="L156" s="27">
-        <v>741</v>
+        <v>2719</v>
       </c>
       <c r="M156" s="29">
         <v>98910</v>
@@ -7452,19 +7415,19 @@
     </row>
     <row r="157" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B157" s="25">
-        <v>53.399861978961127</v>
+        <v>50.692471038049632</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D157" s="26">
-        <v>6.7433591730504415E-5</v>
+        <v>9.1139754214998678E-5</v>
       </c>
       <c r="E157" s="27">
-        <v>14829.4043715847</v>
+        <v>10972.16037735849</v>
       </c>
       <c r="F157" s="28">
         <v>0</v>
@@ -7473,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="28">
-        <v>5.3399861978961125</v>
+        <v>5.0692471038049636</v>
       </c>
       <c r="I157" s="28">
         <v>0</v>
@@ -7483,7 +7446,7 @@
       </c>
       <c r="K157"/>
       <c r="L157" s="27">
-        <v>549</v>
+        <v>742</v>
       </c>
       <c r="M157" s="29">
         <v>8141343</v>
@@ -7491,38 +7454,38 @@
     </row>
     <row r="158" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B158" s="25">
-        <v>40.912549034198207</v>
+        <v>40.418589659023866</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D158" s="26">
-        <v>7.4977996186005569E-4</v>
+        <v>1.1317294997799619E-3</v>
       </c>
       <c r="E158" s="27">
-        <v>1333.724627048178</v>
+        <v>883.60337005832787</v>
       </c>
       <c r="F158" s="28">
-        <v>0.183</v>
+        <v>0.21</v>
       </c>
       <c r="G158" s="25">
         <v>0</v>
       </c>
       <c r="H158" s="28">
-        <v>4.0950674034198205</v>
+        <v>4.0462339659023865</v>
       </c>
       <c r="I158" s="28">
-        <v>1.2708333333333334E-2</v>
+        <v>1.4583333333333334E-2</v>
       </c>
       <c r="J158" s="28">
         <v>0</v>
       </c>
       <c r="K158"/>
       <c r="L158" s="27">
-        <v>4089</v>
+        <v>6172</v>
       </c>
       <c r="M158" s="29">
         <v>5453600</v>
@@ -7530,38 +7493,38 @@
     </row>
     <row r="159" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B159" s="25">
-        <v>27.851088799741429</v>
+        <v>29.248533825326003</v>
       </c>
       <c r="C159" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D159" s="26">
-        <v>1.0396602942539142E-2</v>
+        <v>8.6475681072443484E-3</v>
       </c>
       <c r="E159" s="27">
-        <v>96.185264122029835</v>
+        <v>115.63944771504806</v>
       </c>
       <c r="F159" s="28">
-        <v>9.3919999999999995</v>
+        <v>7.1420000000000003</v>
       </c>
       <c r="G159" s="25">
-        <v>0</v>
+        <v>6030</v>
       </c>
       <c r="H159" s="28">
-        <v>2.93070703895058</v>
+        <v>3.0327922210047182</v>
       </c>
       <c r="I159" s="28">
-        <v>0.65222222222222215</v>
+        <v>0.49597222222222226</v>
       </c>
       <c r="J159" s="28">
-        <v>0.50068507690229458</v>
+        <v>0.4085282819454889</v>
       </c>
       <c r="K159"/>
       <c r="L159" s="27">
-        <v>56773</v>
+        <v>47222</v>
       </c>
       <c r="M159" s="29">
         <v>5460726</v>
@@ -7569,38 +7532,38 @@
     </row>
     <row r="160" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B160" s="25">
-        <v>30.441442320708148</v>
+        <v>29.630243991472547</v>
       </c>
       <c r="C160" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D160" s="26">
-        <v>8.1415368954882404E-3</v>
+        <v>1.2395590946941945E-2</v>
       </c>
       <c r="E160" s="27">
-        <v>122.82693216733631</v>
+        <v>80.6738463926728</v>
       </c>
       <c r="F160" s="28">
-        <v>3.78</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="G160" s="25">
-        <v>2051</v>
+        <v>3280</v>
       </c>
       <c r="H160" s="28">
-        <v>3.1031041936679125</v>
+        <v>3.013823461920369</v>
       </c>
       <c r="I160" s="28">
-        <v>0.26250000000000001</v>
+        <v>0.24340277777777777</v>
       </c>
       <c r="J160" s="28">
-        <v>0.19790038402902413</v>
+        <v>0.22221770560218965</v>
       </c>
       <c r="K160"/>
       <c r="L160" s="27">
-        <v>16924</v>
+        <v>25767</v>
       </c>
       <c r="M160" s="29">
         <v>2078723</v>
@@ -7608,19 +7571,19 @@
     </row>
     <row r="161" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B161" s="25">
-        <v>66.135587570661244</v>
+        <v>61.876533745834543</v>
       </c>
       <c r="C161" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D161" s="26">
-        <v>5.6818585359271019E-6</v>
+        <v>1.1363717071854204E-5</v>
       </c>
       <c r="E161" s="27">
-        <v>175998.75</v>
+        <v>87999.375</v>
       </c>
       <c r="F161" s="28">
         <v>0</v>
@@ -7629,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="28">
-        <v>6.6135587570661247</v>
+        <v>6.1876533745834541</v>
       </c>
       <c r="I161" s="28">
         <v>0</v>
@@ -7639,7 +7602,7 @@
       </c>
       <c r="K161"/>
       <c r="L161" s="27">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M161" s="29">
         <v>703995</v>
@@ -7647,38 +7610,38 @@
     </row>
     <row r="162" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B162" s="25">
-        <v>55.529073928028623</v>
+        <v>55.950696146320723</v>
       </c>
       <c r="C162" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D162" s="26">
-        <v>2.7995965646871847E-5</v>
+        <v>4.4561264097313485E-5</v>
       </c>
       <c r="E162" s="27">
-        <v>35719.432314410478</v>
+        <v>22441.01508916324</v>
       </c>
       <c r="F162" s="28">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G162" s="25">
         <v>0</v>
       </c>
       <c r="H162" s="28">
-        <v>5.5529073928028625</v>
+        <v>5.5954237812987389</v>
       </c>
       <c r="I162" s="28">
-        <v>0</v>
+        <v>1.1805555555555556E-3</v>
       </c>
       <c r="J162" s="28">
         <v>0</v>
       </c>
       <c r="K162"/>
       <c r="L162" s="27">
-        <v>458</v>
+        <v>729</v>
       </c>
       <c r="M162" s="29">
         <v>16359500</v>
@@ -7686,38 +7649,38 @@
     </row>
     <row r="163" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B163" s="25">
-        <v>33.912966182359604</v>
+        <v>35.846772399747572</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D163" s="26">
-        <v>3.1763767480348253E-3</v>
+        <v>2.1700144678734531E-3</v>
       </c>
       <c r="E163" s="27">
-        <v>314.82411543866272</v>
+        <v>460.82642065514381</v>
       </c>
       <c r="F163" s="28">
-        <v>0.94899999999999995</v>
+        <v>0</v>
       </c>
       <c r="G163" s="25">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="H163" s="28">
-        <v>3.4048438656259141</v>
+        <v>3.5805919571553022</v>
       </c>
       <c r="I163" s="28">
-        <v>6.5902777777777768E-2</v>
+        <v>0</v>
       </c>
       <c r="J163" s="28">
-        <v>6.2235859433798418E-2</v>
+        <v>4.0852828194548892E-2</v>
       </c>
       <c r="K163"/>
       <c r="L163" s="27">
-        <v>190716</v>
+        <v>130292</v>
       </c>
       <c r="M163" s="29">
         <v>60041996</v>
@@ -7725,38 +7688,38 @@
     </row>
     <row r="164" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B164" s="25">
-        <v>37.466193115483769</v>
+        <v>38.790101531668988</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D164" s="26">
-        <v>1.5453993888804687E-3</v>
+        <v>1.1947915438720578E-3</v>
       </c>
       <c r="E164" s="27">
-        <v>647.08191759052556</v>
+        <v>836.96608427543686</v>
       </c>
       <c r="F164" s="28">
-        <v>1.37</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="G164" s="25">
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="H164" s="28">
-        <v>3.7751609782150437</v>
+        <v>3.8708672914872579</v>
       </c>
       <c r="I164" s="28">
-        <v>9.5138888888888898E-2</v>
+        <v>7.1319444444444435E-2</v>
       </c>
       <c r="J164" s="28">
-        <v>0</v>
+        <v>0.29538695012973992</v>
       </c>
       <c r="K164"/>
       <c r="L164" s="27">
-        <v>79287</v>
+        <v>61299</v>
       </c>
       <c r="M164" s="29">
         <v>51305184</v>
@@ -7764,38 +7727,38 @@
     </row>
     <row r="165" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B165" s="25">
-        <v>47.661916018801719</v>
+        <v>47.921187193029965</v>
       </c>
       <c r="C165" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D165" s="26">
-        <v>1.9268318763186564E-4</v>
+        <v>1.4602802455274084E-4</v>
       </c>
       <c r="E165" s="27">
-        <v>5189.8663930688554</v>
+        <v>6848.0006016847174</v>
       </c>
       <c r="F165" s="28">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G165" s="25">
         <v>0</v>
       </c>
       <c r="H165" s="28">
-        <v>4.7661916018801715</v>
+        <v>4.7923895526363296</v>
       </c>
       <c r="I165" s="28">
-        <v>0</v>
+        <v>9.0277777777777774E-4</v>
       </c>
       <c r="J165" s="28">
         <v>0</v>
       </c>
       <c r="K165"/>
       <c r="L165" s="27">
-        <v>2193</v>
+        <v>1662</v>
       </c>
       <c r="M165" s="29">
         <v>11381377</v>
@@ -7803,38 +7766,38 @@
     </row>
     <row r="166" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B166" s="25">
-        <v>29.374869341899831</v>
+        <v>26.649372779471523</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D166" s="26">
-        <v>1.8666660847888782E-2</v>
+        <v>2.576646835544287E-2</v>
       </c>
       <c r="E166" s="27">
-        <v>53.571445270732553</v>
+        <v>38.810130523330393</v>
       </c>
       <c r="F166" s="28">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="G166" s="25">
-        <v>0</v>
+        <v>6321</v>
       </c>
       <c r="H166" s="28">
-        <v>2.896312533873497</v>
+        <v>2.6496129451083887</v>
       </c>
       <c r="I166" s="28">
-        <v>8.1944444444444445E-2</v>
+        <v>9.1666666666666674E-2</v>
       </c>
       <c r="J166" s="28">
-        <v>0.65757733649819572</v>
+        <v>0.4282433283876344</v>
       </c>
       <c r="K166"/>
       <c r="L166" s="27">
-        <v>872577</v>
+        <v>1204459</v>
       </c>
       <c r="M166" s="29">
         <v>46745211</v>
@@ -7842,38 +7805,38 @@
     </row>
     <row r="167" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B167" s="25">
-        <v>43.159643720697204</v>
+        <v>44.039296226220763</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D167" s="26">
-        <v>4.1968049391863334E-4</v>
+        <v>3.6813915194769056E-4</v>
       </c>
       <c r="E167" s="27">
-        <v>2382.7650188428288</v>
+        <v>2716.3641647712916</v>
       </c>
       <c r="F167" s="28">
-        <v>0.86399999999999999</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="G167" s="25">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="H167" s="28">
-        <v>4.3311758196082684</v>
+        <v>4.4184642204961033</v>
       </c>
       <c r="I167" s="28">
-        <v>0.06</v>
+        <v>5.5833333333333339E-2</v>
       </c>
       <c r="J167" s="28">
-        <v>2.7885524614523628E-2</v>
+        <v>2.2154021259730493E-2</v>
       </c>
       <c r="K167"/>
       <c r="L167" s="27">
-        <v>9022</v>
+        <v>7914</v>
       </c>
       <c r="M167" s="29">
         <v>21497306</v>
@@ -7881,38 +7844,38 @@
     </row>
     <row r="168" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B168" s="25">
-        <v>54.955077566038867</v>
+        <v>55.531387207478197</v>
       </c>
       <c r="C168" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D168" s="26">
-        <v>3.1307510990305784E-5</v>
+        <v>2.9904685106671881E-5</v>
       </c>
       <c r="E168" s="27">
-        <v>31941.21692745377</v>
+        <v>33439.576321667912</v>
       </c>
       <c r="F168" s="28">
-        <v>0.105</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="G168" s="25">
         <v>0</v>
       </c>
       <c r="H168" s="28">
-        <v>5.4976952566038868</v>
+        <v>5.5537428874144865</v>
       </c>
       <c r="I168" s="28">
-        <v>7.2916666666666668E-3</v>
+        <v>2.0138888888888888E-3</v>
       </c>
       <c r="J168" s="28">
         <v>0</v>
       </c>
       <c r="K168"/>
       <c r="L168" s="27">
-        <v>1406</v>
+        <v>1343</v>
       </c>
       <c r="M168" s="29">
         <v>44909351</v>
@@ -7920,38 +7883,38 @@
     </row>
     <row r="169" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B169" s="25">
-        <v>40.201258600925144</v>
+        <v>33.487326628588697</v>
       </c>
       <c r="C169" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D169" s="26">
-        <v>1.5985184133775377E-3</v>
+        <v>7.6022561752489871E-3</v>
       </c>
       <c r="E169" s="27">
-        <v>625.57928118393238</v>
+        <v>131.53989775505667</v>
       </c>
       <c r="F169" s="28">
-        <v>0.72399999999999998</v>
+        <v>1.448</v>
       </c>
       <c r="G169" s="25">
         <v>0</v>
       </c>
       <c r="H169" s="28">
-        <v>4.0352091934258478</v>
+        <v>3.3788993295255363</v>
       </c>
       <c r="I169" s="28">
-        <v>5.0277777777777775E-2</v>
+        <v>0.10055555555555555</v>
       </c>
       <c r="J169" s="28">
         <v>0</v>
       </c>
       <c r="K169"/>
       <c r="L169" s="27">
-        <v>946</v>
+        <v>4499</v>
       </c>
       <c r="M169" s="29">
         <v>591798</v>
@@ -7959,38 +7922,38 @@
     </row>
     <row r="170" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B170" s="25">
-        <v>33.281044820877774</v>
+        <v>30.874893284265429</v>
       </c>
       <c r="C170" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D170" s="26">
-        <v>6.6956629320466341E-3</v>
+        <v>1.0034685480807928E-2</v>
       </c>
       <c r="E170" s="27">
-        <v>149.35040938423319</v>
+        <v>99.654344115973871</v>
       </c>
       <c r="F170" s="28">
-        <v>0.63300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="G170" s="25">
         <v>0</v>
       </c>
       <c r="H170" s="28">
-        <v>3.2942339531794622</v>
+        <v>3.1047809950932095</v>
       </c>
       <c r="I170" s="28">
-        <v>4.3958333333333335E-2</v>
+        <v>5.7638888888888885E-2</v>
       </c>
       <c r="J170" s="28">
-        <v>0.4705802890831548</v>
+        <v>0</v>
       </c>
       <c r="K170"/>
       <c r="L170" s="27">
-        <v>68029</v>
+        <v>101954</v>
       </c>
       <c r="M170" s="29">
         <v>10160159</v>
@@ -7998,38 +7961,38 @@
     </row>
     <row r="171" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B171" s="25">
-        <v>28.449528126760075</v>
+        <v>26.970997539028662</v>
       </c>
       <c r="C171" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D171" s="26">
-        <v>1.6964041280964681E-2</v>
+        <v>2.6134950009718324E-2</v>
       </c>
       <c r="E171" s="27">
-        <v>58.948217788298955</v>
+        <v>38.262939076912268</v>
       </c>
       <c r="F171" s="28">
-        <v>2.4420000000000002</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="G171" s="25">
-        <v>6493</v>
+        <v>8175.0000000000009</v>
       </c>
       <c r="H171" s="28">
-        <v>2.8331770475126503</v>
+        <v>2.6823605340868735</v>
       </c>
       <c r="I171" s="28">
-        <v>0.16958333333333334</v>
+        <v>0.13548611111111111</v>
       </c>
       <c r="J171" s="28">
-        <v>0.62650765163357069</v>
+        <v>0.55385053149326235</v>
       </c>
       <c r="K171"/>
       <c r="L171" s="27">
-        <v>147850</v>
+        <v>227779</v>
       </c>
       <c r="M171" s="29">
         <v>8715494</v>
@@ -8037,38 +8000,38 @@
     </row>
     <row r="172" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B172" s="25">
-        <v>53.55987746642878</v>
+        <v>55.091802140487097</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D172" s="26">
-        <v>3.7098434074003388E-5</v>
+        <v>2.6319095559875561E-5</v>
       </c>
       <c r="E172" s="27">
-        <v>26955.315634218288</v>
+        <v>37995.226611226608</v>
       </c>
       <c r="F172" s="28">
-        <v>0.23499999999999999</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="G172" s="25">
         <v>0</v>
       </c>
       <c r="H172" s="28">
-        <v>5.3608835799762113</v>
+        <v>5.5132427140487099</v>
       </c>
       <c r="I172" s="28">
-        <v>1.6319444444444442E-2</v>
+        <v>1.3541666666666667E-2</v>
       </c>
       <c r="J172" s="28">
         <v>0</v>
       </c>
       <c r="K172"/>
       <c r="L172" s="27">
-        <v>678</v>
+        <v>481</v>
       </c>
       <c r="M172" s="29">
         <v>18275704</v>
@@ -8076,38 +8039,38 @@
     </row>
     <row r="173" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B173" s="25">
-        <v>61.149383728288846</v>
+        <v>59.258871196594946</v>
       </c>
       <c r="C173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D173" s="26">
-        <v>9.0966223947608829E-6</v>
+        <v>1.4462372010103706E-5</v>
       </c>
       <c r="E173" s="27">
-        <v>109930.91244239631</v>
+        <v>69144.950724637689</v>
       </c>
       <c r="F173" s="28">
         <v>0</v>
       </c>
       <c r="G173" s="25">
-        <v>608</v>
+        <v>658</v>
       </c>
       <c r="H173" s="28">
-        <v>6.1090717987923346</v>
+        <v>5.9214292156873531</v>
       </c>
       <c r="I173" s="28">
         <v>0</v>
       </c>
       <c r="J173" s="28">
-        <v>5.8665740365502997E-2</v>
+        <v>4.457903972141488E-2</v>
       </c>
       <c r="K173"/>
       <c r="L173" s="27">
-        <v>217</v>
+        <v>345</v>
       </c>
       <c r="M173" s="29">
         <v>23855008</v>
@@ -8115,13 +8078,13 @@
     </row>
     <row r="174" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B174" s="25">
         <v>100</v>
       </c>
       <c r="C174" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D174" s="26">
         <v>0</v>
@@ -8154,19 +8117,19 @@
     </row>
     <row r="175" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B175" s="25">
-        <v>58.19835282956597</v>
+        <v>53.112039938104289</v>
       </c>
       <c r="C175" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D175" s="26">
-        <v>4.5903604901314731E-5</v>
+        <v>6.6359408998322846E-5</v>
       </c>
       <c r="E175" s="27">
-        <v>21784.781438186325</v>
+        <v>15069.453075226662</v>
       </c>
       <c r="F175" s="28">
         <v>7.0000000000000001E-3</v>
@@ -8175,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="H175" s="28">
-        <v>5.81998111628993</v>
+        <v>5.3113498271437622</v>
       </c>
       <c r="I175" s="28">
         <v>4.861111111111111E-4</v>
@@ -8185,7 +8148,7 @@
       </c>
       <c r="K175"/>
       <c r="L175" s="27">
-        <v>2823</v>
+        <v>4081</v>
       </c>
       <c r="M175" s="29">
         <v>61498438</v>
@@ -8193,38 +8156,38 @@
     </row>
     <row r="176" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B176" s="25">
-        <v>42.463350094035363</v>
+        <v>42.495449861690325</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D176" s="26">
-        <v>4.9787819572269922E-4</v>
+        <v>6.1827702893763514E-4</v>
       </c>
       <c r="E176" s="27">
-        <v>2008.5233870273064</v>
+        <v>1617.3979513977201</v>
       </c>
       <c r="F176" s="28">
-        <v>0.34899999999999998</v>
+        <v>0.221</v>
       </c>
       <c r="G176" s="25">
         <v>0</v>
       </c>
       <c r="H176" s="28">
-        <v>4.2483953986912493</v>
+        <v>4.2506736137206405</v>
       </c>
       <c r="I176" s="28">
-        <v>2.4236111111111111E-2</v>
+        <v>1.5347222222222222E-2</v>
       </c>
       <c r="J176" s="28">
-        <v>5.2104440456203327E-2</v>
+        <v>3.4755391150586373E-2</v>
       </c>
       <c r="K176"/>
       <c r="L176" s="27">
-        <v>34827</v>
+        <v>43249</v>
       </c>
       <c r="M176" s="29">
         <v>69950844</v>
@@ -8232,19 +8195,19 @@
     </row>
     <row r="177" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B177" s="25">
-        <v>65.754474246509304</v>
+        <v>62.331021217225455</v>
       </c>
       <c r="C177" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D177" s="26">
-        <v>2.2323504790252069E-6</v>
+        <v>8.1852850897590921E-6</v>
       </c>
       <c r="E177" s="27">
-        <v>447958.33333333337</v>
+        <v>122170.45454545454</v>
       </c>
       <c r="F177" s="28">
         <v>0</v>
@@ -8253,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="H177" s="28">
-        <v>6.5754474246509309</v>
+        <v>6.2331021217225455</v>
       </c>
       <c r="I177" s="28">
         <v>0</v>
@@ -8263,7 +8226,7 @@
       </c>
       <c r="K177"/>
       <c r="L177" s="27">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M177" s="29">
         <v>1343875</v>
@@ -8271,38 +8234,38 @@
     </row>
     <row r="178" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B178" s="25">
-        <v>46.121803396416631</v>
+        <v>42.651157089900714</v>
       </c>
       <c r="C178" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D178" s="26">
-        <v>3.4794949235938299E-4</v>
+        <v>6.6358096407250465E-4</v>
       </c>
       <c r="E178" s="27">
-        <v>2873.9803389830508</v>
+        <v>1506.9751155350159</v>
       </c>
       <c r="F178" s="28">
-        <v>0</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="G178" s="25">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="H178" s="28">
-        <v>4.6105110677529737</v>
+        <v>4.265898764297213</v>
       </c>
       <c r="I178" s="28">
-        <v>0</v>
+        <v>7.013888888888889E-3</v>
       </c>
       <c r="J178" s="28">
-        <v>1.6692718886894768E-2</v>
+        <v>1.3211113595252129E-2</v>
       </c>
       <c r="K178"/>
       <c r="L178" s="27">
-        <v>2950</v>
+        <v>5626</v>
       </c>
       <c r="M178" s="29">
         <v>8478242</v>
@@ -8310,38 +8273,38 @@
     </row>
     <row r="179" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B179" s="25">
-        <v>28.372735778490256</v>
+        <v>29.82313924607945</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D179" s="26">
-        <v>5.8359353956963719E-3</v>
+        <v>5.070636907909082E-3</v>
       </c>
       <c r="E179" s="27">
-        <v>171.35213675213674</v>
+        <v>197.21388420460934</v>
       </c>
       <c r="F179" s="28">
-        <v>17.202999999999999</v>
+        <v>14.455</v>
       </c>
       <c r="G179" s="25">
         <v>0</v>
       </c>
       <c r="H179" s="28">
-        <v>3.1956694111823589</v>
+        <v>3.2834597579412783</v>
       </c>
       <c r="I179" s="28">
-        <v>1.1946527777777778</v>
+        <v>1.0038194444444444</v>
       </c>
       <c r="J179" s="28">
         <v>0</v>
       </c>
       <c r="K179"/>
       <c r="L179" s="27">
-        <v>8190</v>
+        <v>7116</v>
       </c>
       <c r="M179" s="29">
         <v>1403374</v>
@@ -8349,38 +8312,38 @@
     </row>
     <row r="180" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B180" s="25">
-        <v>45.038136073147761</v>
+        <v>41.078778015998026</v>
       </c>
       <c r="C180" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D180" s="26">
-        <v>3.4869992402664801E-4</v>
+        <v>1.1603781710161159E-3</v>
       </c>
       <c r="E180" s="27">
-        <v>2867.7952907256126</v>
+        <v>861.78801444043324</v>
       </c>
       <c r="F180" s="28">
-        <v>0.56299999999999994</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="G180" s="25">
         <v>0</v>
       </c>
       <c r="H180" s="28">
-        <v>4.5086148131948587</v>
+        <v>4.1214717351580639</v>
       </c>
       <c r="I180" s="28">
-        <v>3.9097222222222221E-2</v>
+        <v>6.1527777777777778E-2</v>
       </c>
       <c r="J180" s="28">
-        <v>6.9279607865840712E-2</v>
+        <v>4.8643997750723221E-2</v>
       </c>
       <c r="K180"/>
       <c r="L180" s="27">
-        <v>4162</v>
+        <v>13850</v>
       </c>
       <c r="M180" s="29">
         <v>11935764</v>
@@ -8388,38 +8351,38 @@
     </row>
     <row r="181" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B181" s="25">
-        <v>34.944071123767962</v>
+        <v>32.960556436318029</v>
       </c>
       <c r="C181" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D181" s="26">
-        <v>3.8020883994136783E-3</v>
+        <v>6.3458447526899891E-3</v>
       </c>
       <c r="E181" s="27">
-        <v>263.01334817838807</v>
+        <v>157.58343277718893</v>
       </c>
       <c r="F181" s="28">
-        <v>1.802</v>
+        <v>1.7350000000000001</v>
       </c>
       <c r="G181" s="25">
-        <v>4255</v>
+        <v>4523</v>
       </c>
       <c r="H181" s="28">
-        <v>3.4908924097580654</v>
+        <v>3.3015584683542003</v>
       </c>
       <c r="I181" s="28">
-        <v>0.12513888888888888</v>
+        <v>0.12048611111111111</v>
       </c>
       <c r="J181" s="28">
-        <v>0.41056369285397248</v>
+        <v>0.3064300861093609</v>
       </c>
       <c r="K181"/>
       <c r="L181" s="27">
-        <v>323340</v>
+        <v>539668</v>
       </c>
       <c r="M181" s="29">
         <v>85042736</v>
@@ -8427,38 +8390,38 @@
     </row>
     <row r="182" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B182" s="25">
-        <v>48.168415138206541</v>
+        <v>44.634344023403408</v>
       </c>
       <c r="C182" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D182" s="26">
-        <v>2.2727497957336943E-4</v>
+        <v>4.1338156882252439E-4</v>
       </c>
       <c r="E182" s="27">
-        <v>4399.9563958916897</v>
+        <v>2419.0725359342919</v>
       </c>
       <c r="F182" s="28">
-        <v>5.1999999999999998E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="G182" s="25">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="H182" s="28">
-        <v>4.8164485546743947</v>
+        <v>4.4644894719358099</v>
       </c>
       <c r="I182" s="28">
-        <v>3.6111111111111109E-3</v>
+        <v>7.152777777777777E-3</v>
       </c>
       <c r="J182" s="28">
-        <v>1.4762924795924275E-2</v>
+        <v>1.0907637378644065E-2</v>
       </c>
       <c r="K182"/>
       <c r="L182" s="27">
-        <v>10710</v>
+        <v>19480</v>
       </c>
       <c r="M182" s="29">
         <v>47123533</v>
@@ -8466,38 +8429,38 @@
     </row>
     <row r="183" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B183" s="25">
-        <v>35.909048626856908</v>
+        <v>37.214992024350551</v>
       </c>
       <c r="C183" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D183" s="26">
-        <v>1.7382453219147239E-3</v>
+        <v>1.4060379201405614E-3</v>
       </c>
       <c r="E183" s="27">
-        <v>575.29278945417968</v>
+        <v>711.21837162117947</v>
       </c>
       <c r="F183" s="28">
-        <v>5.548</v>
+        <v>4.5289999999999999</v>
       </c>
       <c r="G183" s="25">
-        <v>521</v>
+        <v>465</v>
       </c>
       <c r="H183" s="28">
-        <v>3.7014610824120457</v>
+        <v>3.8127030266290078</v>
       </c>
       <c r="I183" s="28">
-        <v>0.38527777777777777</v>
+        <v>0.31451388888888887</v>
       </c>
       <c r="J183" s="28">
-        <v>5.0271136069781355E-2</v>
+        <v>3.1503424727139691E-2</v>
       </c>
       <c r="K183"/>
       <c r="L183" s="27">
-        <v>75556</v>
+        <v>61116</v>
       </c>
       <c r="M183" s="29">
         <v>43466822</v>
@@ -8505,38 +8468,38 @@
     </row>
     <row r="184" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B184" s="25">
-        <v>43.027913279078774</v>
+        <v>38.871030668412665</v>
       </c>
       <c r="C184" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D184" s="26">
-        <v>1.6173421840254955E-3</v>
+        <v>3.1054691468382356E-3</v>
       </c>
       <c r="E184" s="27">
-        <v>618.2983476700291</v>
+        <v>322.01253746736711</v>
       </c>
       <c r="F184" s="28">
         <v>0.114</v>
       </c>
       <c r="G184" s="25">
-        <v>0</v>
+        <v>42500</v>
       </c>
       <c r="H184" s="28">
-        <v>3.9823407233998784</v>
+        <v>3.6015435397652582</v>
       </c>
       <c r="I184" s="28">
         <v>7.9166666666666673E-3</v>
       </c>
       <c r="J184" s="28">
-        <v>3.22825604507999</v>
+        <v>2.8793452707600795</v>
       </c>
       <c r="K184"/>
       <c r="L184" s="27">
-        <v>16159</v>
+        <v>31027</v>
       </c>
       <c r="M184" s="29">
         <v>9991083</v>
@@ -8544,38 +8507,38 @@
     </row>
     <row r="185" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B185" s="25">
-        <v>28.574713058359514</v>
+        <v>26.248139175742182</v>
       </c>
       <c r="C185" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D185" s="26">
-        <v>2.4272262861026489E-2</v>
+        <v>3.3041421456418751E-2</v>
       </c>
       <c r="E185" s="27">
-        <v>41.199290141409968</v>
+        <v>30.265041754301894</v>
       </c>
       <c r="F185" s="28">
-        <v>1.47</v>
+        <v>2.2959999999999998</v>
       </c>
       <c r="G185" s="25">
-        <v>20602</v>
+        <v>0</v>
       </c>
       <c r="H185" s="28">
-        <v>2.689308216525081</v>
+        <v>2.5330701420412005</v>
       </c>
       <c r="I185" s="28">
-        <v>0.10208333333333333</v>
+        <v>0.15944444444444444</v>
       </c>
       <c r="J185" s="28">
-        <v>1.9878808931087053</v>
+        <v>1.3957710886635095</v>
       </c>
       <c r="K185"/>
       <c r="L185" s="27">
-        <v>1655541</v>
+        <v>2253660</v>
       </c>
       <c r="M185" s="29">
         <v>68207114</v>
@@ -8583,38 +8546,38 @@
     </row>
     <row r="186" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B186" s="25">
-        <v>30.428247603291304</v>
+        <v>27.695135168724505</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D186" s="26">
-        <v>1.1215520988995529E-2</v>
+        <v>2.0016005643529376E-2</v>
       </c>
       <c r="E186" s="27">
-        <v>89.162153143057935</v>
+        <v>49.960017888148052</v>
       </c>
       <c r="F186" s="28">
-        <v>3.613</v>
+        <v>3.774</v>
       </c>
       <c r="G186" s="25">
-        <v>3957</v>
+        <v>0</v>
       </c>
       <c r="H186" s="28">
-        <v>3.0799146175726126</v>
+        <v>2.811133848945647</v>
       </c>
       <c r="I186" s="28">
-        <v>0.25090277777777775</v>
+        <v>0.26208333333333333</v>
       </c>
       <c r="J186" s="28">
-        <v>0.3818097608985121</v>
+        <v>0.37004667926803653</v>
       </c>
       <c r="K186"/>
       <c r="L186" s="27">
-        <v>3733816</v>
+        <v>6663630</v>
       </c>
       <c r="M186" s="29">
         <v>332915074</v>
@@ -8622,38 +8585,38 @@
     </row>
     <row r="187" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B187" s="25">
-        <v>37.996768722481519</v>
+        <v>33.978764071046996</v>
       </c>
       <c r="C187" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D187" s="26">
-        <v>2.3172590463773172E-3</v>
+        <v>7.1247968524758747E-3</v>
       </c>
       <c r="E187" s="27">
-        <v>431.54432887568106</v>
+        <v>140.35487898191778</v>
       </c>
       <c r="F187" s="28">
-        <v>0.41</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="G187" s="25">
-        <v>3116</v>
+        <v>4920</v>
       </c>
       <c r="H187" s="28">
-        <v>3.7781523469774982</v>
+        <v>3.3790645845977045</v>
       </c>
       <c r="I187" s="28">
-        <v>2.8472222222222222E-2</v>
+        <v>4.8402777777777774E-2</v>
       </c>
       <c r="J187" s="28">
-        <v>0.30066191937320291</v>
+        <v>0.33332655840328446</v>
       </c>
       <c r="K187"/>
       <c r="L187" s="27">
-        <v>8076</v>
+        <v>24831</v>
       </c>
       <c r="M187" s="29">
         <v>3485152</v>
@@ -8661,38 +8624,38 @@
     </row>
     <row r="188" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B188" s="25">
-        <v>51.406674503793894</v>
+        <v>52.39669300670009</v>
       </c>
       <c r="C188" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D188" s="26">
-        <v>6.6213329801169946E-5</v>
+        <v>5.1685883609814011E-5</v>
       </c>
       <c r="E188" s="27">
-        <v>15102.699154428126</v>
+        <v>19347.642531356898</v>
       </c>
       <c r="F188" s="28">
-        <v>5.8999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G188" s="25">
         <v>0</v>
       </c>
       <c r="H188" s="28">
-        <v>5.1418966170460561</v>
+        <v>5.239669300670009</v>
       </c>
       <c r="I188" s="28">
-        <v>4.0972222222222217E-3</v>
+        <v>0</v>
       </c>
       <c r="J188" s="28">
         <v>0</v>
       </c>
       <c r="K188"/>
       <c r="L188" s="27">
-        <v>2247</v>
+        <v>1754</v>
       </c>
       <c r="M188" s="29">
         <v>33935765</v>
@@ -8700,13 +8663,13 @@
     </row>
     <row r="189" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B189" s="25">
-        <v>67.401749055789054</v>
+        <v>100</v>
       </c>
       <c r="C189" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D189" s="26">
         <v>0</v>
@@ -8721,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="H189" s="28">
-        <v>6.7401749055789058</v>
+        <v>10</v>
       </c>
       <c r="I189" s="28">
         <v>0</v>
@@ -8739,13 +8702,13 @@
     </row>
     <row r="190" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B190" s="25">
         <v>100</v>
       </c>
       <c r="C190" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D190" s="26">
         <v>0</v>
@@ -8778,38 +8741,38 @@
     </row>
     <row r="191" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B191" s="25">
-        <v>47.670902453763077</v>
+        <v>48.965527552515617</v>
       </c>
       <c r="C191" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D191" s="26">
-        <v>1.5593131037657028E-4</v>
+        <v>1.1318606510578125E-4</v>
       </c>
       <c r="E191" s="27">
-        <v>6413.0802055406612</v>
+        <v>8835.0098491843637</v>
       </c>
       <c r="F191" s="28">
-        <v>0.09</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G191" s="25">
         <v>0</v>
       </c>
       <c r="H191" s="28">
-        <v>4.7689652453763074</v>
+        <v>4.898323588584895</v>
       </c>
       <c r="I191" s="28">
-        <v>6.2499999999999995E-3</v>
+        <v>5.9027777777777785E-3</v>
       </c>
       <c r="J191" s="28">
         <v>0</v>
       </c>
       <c r="K191"/>
       <c r="L191" s="27">
-        <v>4476</v>
+        <v>3249</v>
       </c>
       <c r="M191" s="29">
         <v>28704947</v>
@@ -8817,38 +8780,38 @@
     </row>
     <row r="192" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B192" s="25">
-        <v>35.805457224991613</v>
+        <v>35.974196257800067</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D192" s="26">
-        <v>2.256367955657289E-3</v>
+        <v>2.4330635542163795E-3</v>
       </c>
       <c r="E192" s="27">
-        <v>443.19012663371035</v>
+        <v>411.00447140686038</v>
       </c>
       <c r="F192" s="28">
-        <v>2.3820000000000001</v>
+        <v>2.1480000000000001</v>
       </c>
       <c r="G192" s="25">
-        <v>1040</v>
+        <v>0</v>
       </c>
       <c r="H192" s="28">
-        <v>3.6201357932261149</v>
+        <v>3.6362889864976076</v>
       </c>
       <c r="I192" s="28">
-        <v>0.16541666666666668</v>
+        <v>0.14916666666666667</v>
       </c>
       <c r="J192" s="28">
-        <v>0.10034929273046567</v>
+        <v>5.8806392823994094E-2</v>
       </c>
       <c r="K192"/>
       <c r="L192" s="27">
-        <v>221505</v>
+        <v>238851</v>
       </c>
       <c r="M192" s="29">
         <v>98168829</v>
@@ -8856,38 +8819,38 @@
     </row>
     <row r="193" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B193" s="25">
-        <v>68.170855295946581</v>
+        <v>69.157655644824999</v>
       </c>
       <c r="C193" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D193" s="26">
-        <v>1.3118780488660798E-6</v>
+        <v>1.5414567074176437E-6</v>
       </c>
       <c r="E193" s="27">
-        <v>762265.97499999998</v>
+        <v>648737</v>
       </c>
       <c r="F193" s="28">
-        <v>1.4E-2</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="G193" s="25">
         <v>0</v>
       </c>
       <c r="H193" s="28">
-        <v>6.817377196261325</v>
+        <v>6.9159530644825002</v>
       </c>
       <c r="I193" s="28">
-        <v>9.7222222222222219E-4</v>
+        <v>6.249999999999999E-4</v>
       </c>
       <c r="J193" s="28">
         <v>0</v>
       </c>
       <c r="K193"/>
       <c r="L193" s="27">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M193" s="29">
         <v>30490639</v>
@@ -8895,38 +8858,38 @@
     </row>
     <row r="194" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B194" s="25">
-        <v>38.702464618859594</v>
+        <v>36.224708733307288</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D194" s="26">
-        <v>1.9055363669453972E-3</v>
+        <v>2.5806186328519143E-3</v>
       </c>
       <c r="E194" s="27">
-        <v>524.78662561712986</v>
+        <v>387.50398345177871</v>
       </c>
       <c r="F194" s="28">
-        <v>0.317</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="G194" s="25">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="H194" s="28">
-        <v>3.8711094911319885</v>
+        <v>3.6265121161408342</v>
       </c>
       <c r="I194" s="28">
-        <v>2.2013888888888888E-2</v>
+        <v>2.7291666666666669E-2</v>
       </c>
       <c r="J194" s="28">
-        <v>5.7411374206372177E-2</v>
+        <v>4.1462571898945144E-2</v>
       </c>
       <c r="K194"/>
       <c r="L194" s="27">
-        <v>36054</v>
+        <v>48827</v>
       </c>
       <c r="M194" s="29">
         <v>18920657</v>
@@ -8934,37 +8897,37 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B195" s="25">
-        <v>35.903926971511481</v>
+        <v>38.276020583236679</v>
       </c>
       <c r="C195" s="31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D195">
-        <v>1.9659862056956552E-3</v>
+        <v>1.2479317919204598E-3</v>
       </c>
       <c r="E195">
-        <v>508.65056789457714</v>
+        <v>801.32584687267718</v>
       </c>
       <c r="F195">
-        <v>1.3440000000000001</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="G195" s="27">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="H195">
-        <v>3.6151892389601374</v>
+        <v>3.8469369680985372</v>
       </c>
       <c r="I195">
-        <v>9.3333333333333338E-2</v>
+        <v>7.2986111111111113E-2</v>
       </c>
       <c r="J195">
-        <v>3.2034581910110195E-2</v>
+        <v>2.5609235584642589E-2</v>
       </c>
       <c r="L195">
-        <v>29671</v>
+        <v>18834</v>
       </c>
       <c r="M195">
         <v>15092171</v>

--- a/SEDRA Report DATA.xlsx
+++ b/SEDRA Report DATA.xlsx
@@ -5,39 +5,57 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvano/Desktop/Covid-19 study/SEDRA/SEDRA 2022.01.06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvano/Desktop/Covid-19 study/SEDRA/SEDRA 2022.01.20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E9463A-CC87-624B-9BD3-CD6D8418DAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D69B07-D2B8-5343-B2C7-9BCE4AB26445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6460" windowWidth="27240" windowHeight="16440" xr2:uid="{28802D33-BBEF-DC4E-A6DC-98F4CCB65A55}"/>
+    <workbookView xWindow="20740" yWindow="980" windowWidth="27960" windowHeight="24620" xr2:uid="{28802D33-BBEF-DC4E-A6DC-98F4CCB65A55}"/>
   </bookViews>
   <sheets>
-    <sheet name="SO AZ" sheetId="1" r:id="rId1"/>
+    <sheet name="SO AZ" sheetId="2" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="DATA" localSheetId="0">[3]CONST!$B$9</definedName>
     <definedName name="DATA">[1]CONST!$B$9</definedName>
+    <definedName name="Incubation" localSheetId="0">[3]CONST!$B$20</definedName>
     <definedName name="Incubation">[1]CONST!$B$20</definedName>
+    <definedName name="new_cases" localSheetId="0">[3]CONST!$C$55</definedName>
     <definedName name="new_cases">[1]CONST!$C$55</definedName>
+    <definedName name="new_deaths_smoothed_per_million" localSheetId="0">[3]CONST!$C$65</definedName>
     <definedName name="new_deaths_smoothed_per_million">[1]CONST!$C$65</definedName>
+    <definedName name="new_tests_smoothed_per_thousand" localSheetId="0">[3]CONST!$C$80</definedName>
     <definedName name="new_tests_smoothed_per_thousand">[1]CONST!$C$80</definedName>
+    <definedName name="population" localSheetId="0">[3]CONST!$C$98</definedName>
     <definedName name="population">[1]CONST!$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'SO AZ'!$A$1:$J$194</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SO AZ'!$2:$2</definedName>
+    <definedName name="ProCapTourism" localSheetId="0">[3]CONST!$B$21</definedName>
     <definedName name="ProCapTourism">[1]CONST!$B$21</definedName>
+    <definedName name="ReportDate" localSheetId="0">[3]CONST!$B$5</definedName>
     <definedName name="ReportDate">[1]CONST!$B$5</definedName>
+    <definedName name="RG_A" localSheetId="0">[3]CONST!$B$42</definedName>
     <definedName name="RG_A">[1]CONST!$B$42</definedName>
+    <definedName name="RG_B" localSheetId="0">[3]CONST!$B$43</definedName>
     <definedName name="RG_B">[1]CONST!$B$43</definedName>
+    <definedName name="RG_C" localSheetId="0">[3]CONST!$B$44</definedName>
     <definedName name="RG_C">[1]CONST!$B$44</definedName>
+    <definedName name="RG_D" localSheetId="0">[3]CONST!$B$45</definedName>
     <definedName name="RG_D">[1]CONST!$B$45</definedName>
+    <definedName name="RG_E" localSheetId="0">[3]CONST!$B$46</definedName>
     <definedName name="RG_E">[1]CONST!$B$46</definedName>
+    <definedName name="Thresh_H" localSheetId="0">[3]CONST!$B$36</definedName>
     <definedName name="Thresh_H">[1]CONST!$B$36</definedName>
+    <definedName name="Thresh_L" localSheetId="0">[3]CONST!$B$34</definedName>
     <definedName name="Thresh_L">[1]CONST!$B$34</definedName>
+    <definedName name="Thresh_M" localSheetId="0">[3]CONST!$B$35</definedName>
     <definedName name="Thresh_M">[1]CONST!$B$35</definedName>
+    <definedName name="Thresh_VH" localSheetId="0">[3]CONST!$B$37</definedName>
     <definedName name="Thresh_VH">[1]CONST!$B$37</definedName>
     <definedName name="Weight_a">[2]CONST!$E$4</definedName>
     <definedName name="Weight_b">[2]CONST!$E$5</definedName>
@@ -53,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="210">
   <si>
     <t>Sort: A-Z</t>
   </si>
@@ -686,19 +704,49 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>SEDRA report of 2022-01-06</t>
-  </si>
-  <si>
-    <t>Daily Deaths
- /Mio</t>
-  </si>
-  <si>
-    <t>Daily Tests
- /Mio</t>
-  </si>
-  <si>
-    <t>Tot  Cases
-/last 14 days</t>
+    <r>
+      <t xml:space="preserve">Tot  Cases
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>/last 14 days</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily Tests
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> /Mio</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Daily Deaths
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> /Mio</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -708,7 +756,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-45C]#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +801,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -830,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -893,6 +947,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,6 +1102,113 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CONST"/>
+      <sheetName val="Table"/>
+      <sheetName val="SO AZ"/>
+      <sheetName val="SO SI"/>
+      <sheetName val="TOUR2019"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>2022-01-20</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>[owid-covid-data.xlsx]Sheet1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>1400</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>A: VERY LOW</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>B: LOW</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>C: MEDIUM</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>D: HIGH</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>E: VERY HIGH</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="C98">
+            <v>49</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1347,14 +1510,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D29E3F0-0D6C-AE47-96C8-DA4A11672A6A}">
-  <sheetPr codeName="Sheet1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E3728A-2BD6-FB47-B1F0-856C364690BE}">
+  <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:M195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1367,14 +1530,15 @@
     <col min="6" max="6" width="5.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="27" customWidth="1"/>
     <col min="8" max="10" width="5.83203125" customWidth="1"/>
-    <col min="11" max="11" width="1.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="0.33203125" customWidth="1"/>
+    <col min="12" max="12" width="9.83203125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>207</v>
+      <c r="A1" s="1" t="str">
+        <f>"SEDRA report of " &amp; ReportDate</f>
+        <v>SEDRA report of 2022-01-20</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1408,10 +1572,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>6</v>
@@ -1424,7 +1588,7 @@
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>9</v>
@@ -1451,37 +1615,37 @@
         <v>10</v>
       </c>
       <c r="B4" s="25">
-        <v>60.1480129465996</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="26">
-        <v>9.9660031266640337E-6</v>
-      </c>
-      <c r="E4" s="27">
-        <v>100341.12846347607</v>
-      </c>
-      <c r="F4" s="28">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="28">
-        <v>6.0156137946599602</v>
-      </c>
-      <c r="I4" s="28">
-        <v>2.7083333333333334E-3</v>
-      </c>
-      <c r="J4" s="28">
+        <v>57.527408817088698</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>2.5806174343099815E-5</v>
+      </c>
+      <c r="E4">
+        <v>38750.416342412449</v>
+      </c>
+      <c r="F4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5.7534908817088697</v>
+      </c>
+      <c r="I4">
+        <v>2.4999999999999996E-3</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="27">
-        <v>397</v>
-      </c>
-      <c r="M4" s="29">
+      <c r="L4">
+        <v>1028</v>
+      </c>
+      <c r="M4" s="32">
         <v>39835428</v>
       </c>
     </row>
@@ -1490,35 +1654,35 @@
         <v>12</v>
       </c>
       <c r="B5" s="25">
-        <v>37.157608100773373</v>
+        <v>30.739244601344975</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="26">
-        <v>2.2005378473713634E-3</v>
+        <v>9.8348935269658121E-3</v>
       </c>
       <c r="E5" s="27">
-        <v>454.43435621638719</v>
+        <v>101.67878251636878</v>
       </c>
       <c r="F5" s="28">
-        <v>0.79600000000000004</v>
+        <v>1.5409999999999999</v>
       </c>
       <c r="G5" s="25">
-        <v>0</v>
+        <v>2426</v>
       </c>
       <c r="H5" s="28">
-        <v>3.7323441434106703</v>
+        <v>3.0895926465026609</v>
       </c>
       <c r="I5" s="28">
-        <v>5.527777777777778E-2</v>
+        <v>0.10701388888888888</v>
       </c>
       <c r="J5" s="28">
-        <v>0</v>
+        <v>0.16435980298503419</v>
       </c>
       <c r="K5"/>
       <c r="L5" s="27">
-        <v>6322</v>
+        <v>28255</v>
       </c>
       <c r="M5" s="29">
         <v>2872934</v>
@@ -1529,35 +1693,35 @@
         <v>14</v>
       </c>
       <c r="B6" s="25">
-        <v>49.724953355090349</v>
+        <v>47.649807551974327</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="26">
-        <v>1.1435199066823206E-4</v>
+        <v>2.1617501959919606E-4</v>
       </c>
       <c r="E6" s="27">
-        <v>8744.928655429243</v>
+        <v>4625.8813893208917</v>
       </c>
       <c r="F6" s="28">
-        <v>0.15</v>
+        <v>0.224</v>
       </c>
       <c r="G6" s="25">
         <v>0</v>
       </c>
       <c r="H6" s="28">
-        <v>4.9756203355090349</v>
+        <v>4.7696474218640992</v>
       </c>
       <c r="I6" s="28">
-        <v>1.0416666666666666E-2</v>
+        <v>1.5555555555555555E-2</v>
       </c>
       <c r="J6" s="28">
         <v>0</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="27">
-        <v>5102</v>
+        <v>9645</v>
       </c>
       <c r="M6" s="29">
         <v>44616626</v>
@@ -1568,35 +1732,35 @@
         <v>16</v>
       </c>
       <c r="B7" s="25">
-        <v>24.119748388100621</v>
+        <v>20.968837566435639</v>
       </c>
       <c r="C7" t="s">
         <v>162</v>
       </c>
       <c r="D7" s="26">
-        <v>4.806474131913023E-2</v>
+        <v>8.9355430876231351E-2</v>
       </c>
       <c r="E7" s="27">
-        <v>20.8052716514255</v>
+        <v>11.191261574074074</v>
       </c>
       <c r="F7" s="28">
-        <v>1.847</v>
+        <v>5.54</v>
       </c>
       <c r="G7" s="25">
         <v>0</v>
       </c>
       <c r="H7" s="28">
-        <v>2.3464046297865329</v>
+        <v>2.1269092049745599</v>
       </c>
       <c r="I7" s="28">
-        <v>0.1282638888888889</v>
+        <v>0.38472222222222224</v>
       </c>
       <c r="J7" s="28">
-        <v>1.0404937569019601</v>
+        <v>0.85391218335670682</v>
       </c>
       <c r="K7"/>
       <c r="L7" s="27">
-        <v>3718</v>
+        <v>6912</v>
       </c>
       <c r="M7" s="29">
         <v>77354</v>
@@ -1607,35 +1771,35 @@
         <v>18</v>
       </c>
       <c r="B8" s="25">
-        <v>42.798642950386871</v>
+        <v>45.328562962620992</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8" s="26">
-        <v>5.676672606401953E-4</v>
+        <v>2.2381938662525483E-4</v>
       </c>
       <c r="E8" s="27">
-        <v>1761.5953382131549</v>
+        <v>4467.8882159315335</v>
       </c>
       <c r="F8" s="28">
-        <v>0.14699999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="G8" s="25">
         <v>0</v>
       </c>
       <c r="H8" s="28">
-        <v>4.2829267950386871</v>
+        <v>4.535835462928766</v>
       </c>
       <c r="I8" s="28">
-        <v>1.0208333333333333E-2</v>
+        <v>9.9305555555555553E-3</v>
       </c>
       <c r="J8" s="28">
         <v>0</v>
       </c>
       <c r="K8"/>
       <c r="L8" s="27">
-        <v>19263</v>
+        <v>7595</v>
       </c>
       <c r="M8" s="29">
         <v>33933611</v>
@@ -1646,35 +1810,35 @@
         <v>19</v>
       </c>
       <c r="B9" s="25">
-        <v>36.881676096072049</v>
+        <v>29.509760292726522</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="26">
-        <v>5.0542905761283528E-3</v>
+        <v>1.0392188639494369E-2</v>
       </c>
       <c r="E9" s="27">
-        <v>197.85170340681361</v>
+        <v>96.226120857699797</v>
       </c>
       <c r="F9" s="28">
-        <v>0</v>
+        <v>1.4470000000000001</v>
       </c>
       <c r="G9" s="25">
         <v>0</v>
       </c>
       <c r="H9" s="28">
-        <v>3.6881676096072047</v>
+        <v>2.9811218626059857</v>
       </c>
       <c r="I9" s="28">
-        <v>0</v>
+        <v>0.10048611111111111</v>
       </c>
       <c r="J9" s="28">
         <v>0</v>
       </c>
       <c r="K9"/>
       <c r="L9" s="27">
-        <v>499</v>
+        <v>1026</v>
       </c>
       <c r="M9" s="29">
         <v>98728</v>
@@ -1685,35 +1849,35 @@
         <v>20</v>
       </c>
       <c r="B10" s="25">
-        <v>30.719241295495145</v>
+        <v>24.554701447705142</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D10" s="26">
-        <v>1.3076093375181497E-2</v>
+        <v>3.4009516723335964E-2</v>
       </c>
       <c r="E10" s="27">
-        <v>76.475440432232304</v>
+        <v>29.403534549899682</v>
       </c>
       <c r="F10" s="28">
-        <v>0.752</v>
+        <v>3.1360000000000001</v>
       </c>
       <c r="G10" s="25">
-        <v>2717</v>
+        <v>2919</v>
       </c>
       <c r="H10" s="28">
-        <v>3.0691833112734632</v>
+        <v>2.5010274572912623</v>
       </c>
       <c r="I10" s="28">
-        <v>5.2222222222222225E-2</v>
+        <v>0.21777777777777779</v>
       </c>
       <c r="J10" s="28">
-        <v>0.18407484942717967</v>
+        <v>0.1977602081258511</v>
       </c>
       <c r="K10"/>
       <c r="L10" s="27">
-        <v>596346</v>
+        <v>1551032</v>
       </c>
       <c r="M10" s="29">
         <v>45605823</v>
@@ -1724,35 +1888,35 @@
         <v>21</v>
       </c>
       <c r="B11" s="25">
-        <v>43.220436919424245</v>
+        <v>40.08798739518501</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="26">
-        <v>4.2552073225952518E-4</v>
+        <v>1.3274360135411951E-3</v>
       </c>
       <c r="E11" s="27">
-        <v>2350.0617577197149</v>
+        <v>753.33197969543141</v>
       </c>
       <c r="F11" s="28">
-        <v>1.2030000000000001</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="G11" s="25">
-        <v>1440</v>
+        <v>1657</v>
       </c>
       <c r="H11" s="28">
-        <v>4.3373502926720846</v>
+        <v>4.009614347094228</v>
       </c>
       <c r="I11" s="28">
-        <v>8.3541666666666667E-2</v>
+        <v>4.0138888888888884E-2</v>
       </c>
       <c r="J11" s="28">
-        <v>9.7558992703400335E-2</v>
+        <v>0.11226059090939887</v>
       </c>
       <c r="K11"/>
       <c r="L11" s="27">
-        <v>1263</v>
+        <v>3940</v>
       </c>
       <c r="M11" s="29">
         <v>2968128</v>
@@ -1763,35 +1927,35 @@
         <v>22</v>
       </c>
       <c r="B12" s="25">
-        <v>29.81713944239916</v>
+        <v>23.068196882023035</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D12" s="26">
-        <v>1.8658831667191261E-2</v>
+        <v>5.1343759050887464E-2</v>
       </c>
       <c r="E12" s="27">
-        <v>53.593923662345325</v>
+        <v>19.476563821688377</v>
       </c>
       <c r="F12" s="28">
-        <v>0.45400000000000001</v>
+        <v>2.2490000000000001</v>
       </c>
       <c r="G12" s="25">
-        <v>9030</v>
+        <v>8196</v>
       </c>
       <c r="H12" s="28">
-        <v>2.9299946592321588</v>
+        <v>2.2981465281886182</v>
       </c>
       <c r="I12" s="28">
-        <v>3.152777777777778E-2</v>
+        <v>0.15618055555555557</v>
       </c>
       <c r="J12" s="28">
-        <v>0.61177618341090623</v>
+        <v>0.55527326680352018</v>
       </c>
       <c r="K12"/>
       <c r="L12" s="27">
-        <v>481178</v>
+        <v>1324064</v>
       </c>
       <c r="M12" s="29">
         <v>25788217</v>
@@ -1802,35 +1966,35 @@
         <v>23</v>
       </c>
       <c r="B13" s="25">
-        <v>35.536622948403931</v>
+        <v>32.645409080991705</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13" s="26">
-        <v>6.0335691234129291E-3</v>
+        <v>2.1293870047700603E-2</v>
       </c>
       <c r="E13" s="27">
-        <v>165.73937905501995</v>
+        <v>46.961872020440175</v>
       </c>
       <c r="F13" s="28">
-        <v>1.927</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="G13" s="25">
-        <v>36327</v>
+        <v>81846</v>
       </c>
       <c r="H13" s="28">
-        <v>3.3476952442892527</v>
+        <v>2.7291233166545519</v>
       </c>
       <c r="I13" s="28">
-        <v>0.13381944444444444</v>
+        <v>6.3611111111111118E-2</v>
       </c>
       <c r="J13" s="28">
-        <v>2.461128838844739</v>
+        <v>5.5450092477795172</v>
       </c>
       <c r="K13"/>
       <c r="L13" s="27">
-        <v>54562</v>
+        <v>192562</v>
       </c>
       <c r="M13" s="29">
         <v>9043072</v>
@@ -1841,35 +2005,35 @@
         <v>24</v>
       </c>
       <c r="B14" s="25">
-        <v>41.355377869733786</v>
+        <v>40.703123038316754</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="26">
-        <v>6.3022431799223419E-4</v>
+        <v>9.6348122492992503E-4</v>
       </c>
       <c r="E14" s="27">
-        <v>1586.736613378861</v>
+        <v>1037.9029441624366</v>
       </c>
       <c r="F14" s="28">
-        <v>1.0620000000000001</v>
+        <v>1.034</v>
       </c>
       <c r="G14" s="25">
-        <v>833</v>
+        <v>961</v>
       </c>
       <c r="H14" s="28">
-        <v>4.1520192702426888</v>
+        <v>4.0853432627214001</v>
       </c>
       <c r="I14" s="28">
-        <v>7.375000000000001E-2</v>
+        <v>7.1805555555555553E-2</v>
       </c>
       <c r="J14" s="28">
-        <v>5.643516730689755E-2</v>
+        <v>6.5107077769422025E-2</v>
       </c>
       <c r="K14"/>
       <c r="L14" s="27">
-        <v>6443</v>
+        <v>9850</v>
       </c>
       <c r="M14" s="29">
         <v>10223344</v>
@@ -1880,35 +2044,35 @@
         <v>25</v>
       </c>
       <c r="B15" s="25">
-        <v>32.227514517629281</v>
+        <v>28.283036463649633</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="26">
-        <v>8.3670518046730525E-3</v>
+        <v>1.257703180033962E-2</v>
       </c>
       <c r="E15" s="27">
-        <v>119.51641071966276</v>
+        <v>79.510016025641022</v>
       </c>
       <c r="F15" s="28">
-        <v>0.36</v>
+        <v>2.5190000000000001</v>
       </c>
       <c r="G15" s="25">
-        <v>0</v>
+        <v>2139</v>
       </c>
       <c r="H15" s="28">
-        <v>3.2144455399589678</v>
+        <v>2.8662912376571459</v>
       </c>
       <c r="I15" s="28">
-        <v>2.4999999999999998E-2</v>
+        <v>0.17493055555555556</v>
       </c>
       <c r="J15" s="28">
-        <v>0.15805911803960626</v>
+        <v>0.14491575374484256</v>
       </c>
       <c r="K15"/>
       <c r="L15" s="27">
-        <v>3321</v>
+        <v>4992</v>
       </c>
       <c r="M15" s="29">
         <v>396914</v>
@@ -1919,35 +2083,35 @@
         <v>26</v>
       </c>
       <c r="B16" s="25">
-        <v>35.519834552196194</v>
+        <v>29.081059411812941</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D16" s="26">
-        <v>5.080950297289645E-3</v>
+        <v>1.8731964571196507E-2</v>
       </c>
       <c r="E16" s="27">
-        <v>196.81357649442756</v>
+        <v>53.38468350178632</v>
       </c>
       <c r="F16" s="28">
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="G16" s="25">
-        <v>12803</v>
+        <v>13856</v>
       </c>
       <c r="H16" s="28">
-        <v>3.4669523591375615</v>
+        <v>2.8159408437578</v>
       </c>
       <c r="I16" s="28">
         <v>5.6944444444444447E-3</v>
       </c>
       <c r="J16" s="28">
-        <v>0.86739429415391289</v>
+        <v>0.93873430756827436</v>
       </c>
       <c r="K16"/>
       <c r="L16" s="27">
-        <v>8883</v>
+        <v>32749</v>
       </c>
       <c r="M16" s="29">
         <v>1748295</v>
@@ -1958,35 +2122,35 @@
         <v>27</v>
       </c>
       <c r="B17" s="25">
-        <v>54.463190986305641</v>
+        <v>46.188822877109956</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="26">
-        <v>4.557330587413876E-5</v>
+        <v>3.8023855349665712E-4</v>
       </c>
       <c r="E17" s="27">
-        <v>21942.669745348991</v>
+        <v>2629.9279512927969</v>
       </c>
       <c r="F17" s="28">
-        <v>2.3E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="G17" s="25">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="H17" s="28">
-        <v>5.4459988235514665</v>
+        <v>4.6185684598247061</v>
       </c>
       <c r="I17" s="28">
-        <v>1.5972222222222221E-3</v>
+        <v>3.402777777777778E-3</v>
       </c>
       <c r="J17" s="28">
-        <v>7.9944174576397492E-3</v>
+        <v>1.3346612196229074E-2</v>
       </c>
       <c r="K17"/>
       <c r="L17" s="27">
-        <v>7579</v>
+        <v>63235</v>
       </c>
       <c r="M17" s="29">
         <v>166303494</v>
@@ -1997,16 +2161,16 @@
         <v>28</v>
       </c>
       <c r="B18" s="25">
-        <v>30.787506547302286</v>
+        <v>26.099936126138111</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="26">
-        <v>1.0813046561096667E-2</v>
+        <v>2.4417117355096139E-2</v>
       </c>
       <c r="E18" s="27">
-        <v>92.480874316939889</v>
+        <v>40.954875444839857</v>
       </c>
       <c r="F18" s="28">
         <v>1.986</v>
@@ -2015,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="28">
-        <v>3.1201256547302285</v>
+        <v>2.651368612613811</v>
       </c>
       <c r="I18" s="28">
         <v>0.13791666666666666</v>
@@ -2025,7 +2189,7 @@
       </c>
       <c r="K18"/>
       <c r="L18" s="27">
-        <v>3111</v>
+        <v>7025</v>
       </c>
       <c r="M18" s="29">
         <v>287708</v>
@@ -2036,35 +2200,35 @@
         <v>29</v>
       </c>
       <c r="B19" s="25">
-        <v>37.372631251912416</v>
+        <v>37.773207109963501</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="26">
-        <v>1.6685610418954329E-3</v>
+        <v>1.7151570598209209E-3</v>
       </c>
       <c r="E19" s="27">
-        <v>599.31879918761103</v>
+        <v>583.03698444060262</v>
       </c>
       <c r="F19" s="28">
         <v>1.6339999999999999</v>
       </c>
       <c r="G19" s="25">
-        <v>1763</v>
+        <v>2097</v>
       </c>
       <c r="H19" s="28">
-        <v>3.7593605901817906</v>
+        <v>3.7971553493505841</v>
       </c>
       <c r="I19" s="28">
         <v>0.11347222222222221</v>
       </c>
       <c r="J19" s="28">
-        <v>0.11944201676117694</v>
+        <v>0.14207028312432674</v>
       </c>
       <c r="K19"/>
       <c r="L19" s="27">
-        <v>15756</v>
+        <v>16196</v>
       </c>
       <c r="M19" s="29">
         <v>9442867</v>
@@ -2075,35 +2239,35 @@
         <v>30</v>
       </c>
       <c r="B20" s="25">
-        <v>29.613616705901396</v>
+        <v>25.295278958293402</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="26">
-        <v>1.5140039823478247E-2</v>
+        <v>3.7461871366485863E-2</v>
       </c>
       <c r="E20" s="27">
-        <v>66.050024416003268</v>
+        <v>26.693807957885944</v>
       </c>
       <c r="F20" s="28">
-        <v>1.6950000000000001</v>
+        <v>2.37</v>
       </c>
       <c r="G20" s="25">
-        <v>6598</v>
+        <v>8923</v>
       </c>
       <c r="H20" s="28">
-        <v>2.9519731821278454</v>
+        <v>2.5184501950034761</v>
       </c>
       <c r="I20" s="28">
-        <v>0.11770833333333333</v>
+        <v>0.16458333333333333</v>
       </c>
       <c r="J20" s="28">
-        <v>0.44700988462294128</v>
+        <v>0.6045270082586397</v>
       </c>
       <c r="K20"/>
       <c r="L20" s="27">
-        <v>176114</v>
+        <v>435769</v>
       </c>
       <c r="M20" s="29">
         <v>11632334</v>
@@ -2114,35 +2278,35 @@
         <v>31</v>
       </c>
       <c r="B21" s="25">
-        <v>31.982469273082557</v>
+        <v>26.874671608575195</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="26">
-        <v>9.2908388180235352E-3</v>
+        <v>2.4086536680537892E-2</v>
       </c>
       <c r="E21" s="27">
-        <v>107.63290802764487</v>
+        <v>41.516969137701217</v>
       </c>
       <c r="F21" s="28">
-        <v>2.4700000000000002</v>
+        <v>1.764</v>
       </c>
       <c r="G21" s="25">
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <v>3.2294075702152427</v>
+        <v>2.6741368779364407</v>
       </c>
       <c r="I21" s="28">
-        <v>0.17152777777777778</v>
+        <v>0.1225</v>
       </c>
       <c r="J21" s="28">
-        <v>0.20297690426346349</v>
+        <v>0.50080282921078845</v>
       </c>
       <c r="K21"/>
       <c r="L21" s="27">
-        <v>3762</v>
+        <v>9753</v>
       </c>
       <c r="M21" s="29">
         <v>404915</v>
@@ -2153,35 +2317,35 @@
         <v>32</v>
       </c>
       <c r="B22" s="25">
-        <v>56.61321922926205</v>
+        <v>51.276945393575303</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="26">
-        <v>4.7144690267014833E-5</v>
+        <v>6.3207617104157874E-5</v>
       </c>
       <c r="E22" s="27">
-        <v>21211.296422487223</v>
+        <v>15820.878017789075</v>
       </c>
       <c r="F22" s="28">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G22" s="25">
         <v>0</v>
       </c>
       <c r="H22" s="28">
-        <v>5.6613219229262048</v>
+        <v>5.1279237060241973</v>
       </c>
       <c r="I22" s="28">
-        <v>0</v>
+        <v>7.6388888888888882E-4</v>
       </c>
       <c r="J22" s="28">
         <v>0</v>
       </c>
       <c r="K22"/>
       <c r="L22" s="27">
-        <v>587</v>
+        <v>787</v>
       </c>
       <c r="M22" s="29">
         <v>12451031</v>
@@ -2192,35 +2356,35 @@
         <v>33</v>
       </c>
       <c r="B23" s="25">
-        <v>61.074572838954118</v>
+        <v>46.411023453640475</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D23" s="26">
-        <v>1.5386588024105653E-5</v>
+        <v>8.2831132196435435E-4</v>
       </c>
       <c r="E23" s="27">
-        <v>64991.666666666672</v>
+        <v>1207.2755417956657</v>
       </c>
       <c r="F23" s="28">
         <v>0</v>
       </c>
       <c r="G23" s="25">
-        <v>7628</v>
+        <v>53029</v>
       </c>
       <c r="H23" s="28">
-        <v>6.0557781174828049</v>
+        <v>4.2818345798037267</v>
       </c>
       <c r="I23" s="28">
         <v>0</v>
       </c>
       <c r="J23" s="28">
-        <v>0.51679166412606792</v>
+        <v>3.5926776556032061</v>
       </c>
       <c r="K23"/>
       <c r="L23" s="27">
-        <v>12</v>
+        <v>646</v>
       </c>
       <c r="M23" s="29">
         <v>779900</v>
@@ -2231,35 +2395,35 @@
         <v>34</v>
       </c>
       <c r="B24" s="25">
-        <v>33.14958381263137</v>
+        <v>28.484350777128071</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="26">
-        <v>5.9952153886406552E-3</v>
+        <v>1.2952829289366561E-2</v>
       </c>
       <c r="E24" s="27">
-        <v>166.79967860616568</v>
+        <v>77.203210021530637</v>
       </c>
       <c r="F24" s="28">
-        <v>2.39</v>
+        <v>4.8410000000000002</v>
       </c>
       <c r="G24" s="25">
-        <v>1427</v>
+        <v>1873</v>
       </c>
       <c r="H24" s="28">
-        <v>3.3550822227500987</v>
+        <v>2.9365998003979827</v>
       </c>
       <c r="I24" s="28">
-        <v>0.16597222222222224</v>
+        <v>0.33618055555555559</v>
       </c>
       <c r="J24" s="28">
-        <v>9.6678251797050196E-2</v>
+        <v>0.12689443981490892</v>
       </c>
       <c r="K24"/>
       <c r="L24" s="27">
-        <v>70941</v>
+        <v>153270</v>
       </c>
       <c r="M24" s="29">
         <v>11832936</v>
@@ -2270,35 +2434,35 @@
         <v>35</v>
       </c>
       <c r="B25" s="25">
-        <v>34.998522078739036</v>
+        <v>29.000282436587419</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="26">
-        <v>3.2300084051921597E-3</v>
+        <v>9.0891290498823496E-3</v>
       </c>
       <c r="E25" s="27">
-        <v>309.59671757897729</v>
+        <v>110.0215427145843</v>
       </c>
       <c r="F25" s="28">
-        <v>6.1280000000000001</v>
+        <v>10.023999999999999</v>
       </c>
       <c r="G25" s="25">
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <v>3.6202493745981572</v>
+        <v>3.1088615769920751</v>
       </c>
       <c r="I25" s="28">
-        <v>0.42555555555555558</v>
+        <v>0.69611111111111101</v>
       </c>
       <c r="J25" s="28">
-        <v>7.2694999424130949E-2</v>
+        <v>0</v>
       </c>
       <c r="K25"/>
       <c r="L25" s="27">
-        <v>10541</v>
+        <v>29662</v>
       </c>
       <c r="M25" s="29">
         <v>3263459</v>
@@ -2309,35 +2473,35 @@
         <v>36</v>
       </c>
       <c r="B26" s="25">
-        <v>30.662436441658617</v>
+        <v>31.183571392586099</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="26">
-        <v>8.7020907376816666E-3</v>
+        <v>5.8780097111678434E-3</v>
       </c>
       <c r="E26" s="27">
-        <v>114.91491299554193</v>
+        <v>170.12561209282521</v>
       </c>
       <c r="F26" s="28">
-        <v>1.847</v>
+        <v>1.788</v>
       </c>
       <c r="G26" s="25">
-        <v>0</v>
+        <v>2585</v>
       </c>
       <c r="H26" s="28">
-        <v>3.1047228108325284</v>
+        <v>3.13809394508234</v>
       </c>
       <c r="I26" s="28">
-        <v>0.1282638888888889</v>
+        <v>0.12416666666666668</v>
       </c>
       <c r="J26" s="28">
-        <v>0</v>
+        <v>0.1751319417627013</v>
       </c>
       <c r="K26"/>
       <c r="L26" s="27">
-        <v>20861</v>
+        <v>14091</v>
       </c>
       <c r="M26" s="29">
         <v>2397240</v>
@@ -2348,35 +2512,35 @@
         <v>37</v>
       </c>
       <c r="B27" s="25">
-        <v>43.727825208312964</v>
+        <v>33.744774866902837</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D27" s="26">
-        <v>4.5472889049903172E-4</v>
+        <v>5.6461917447273536E-3</v>
       </c>
       <c r="E27" s="27">
-        <v>2199.1125281320328</v>
+        <v>177.11052780554985</v>
       </c>
       <c r="F27" s="28">
-        <v>0.27</v>
+        <v>1.099</v>
       </c>
       <c r="G27" s="25">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H27" s="28">
-        <v>4.3768154122698171</v>
+        <v>3.3966280777182436</v>
       </c>
       <c r="I27" s="28">
-        <v>1.8750000000000003E-2</v>
+        <v>7.631944444444444E-2</v>
       </c>
       <c r="J27" s="28">
-        <v>1.5921085614791025E-2</v>
+        <v>7.4524230537319699E-3</v>
       </c>
       <c r="K27"/>
       <c r="L27" s="27">
-        <v>97309</v>
+        <v>1208248</v>
       </c>
       <c r="M27" s="29">
         <v>213993441</v>
@@ -2387,16 +2551,16 @@
         <v>38</v>
       </c>
       <c r="B28" s="25">
-        <v>46.921068048027941</v>
+        <v>40.620878351431351</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D28" s="26">
-        <v>2.3327867515831243E-4</v>
+        <v>1.0282380439016877E-3</v>
       </c>
       <c r="E28" s="27">
-        <v>4286.7184466019417</v>
+        <v>972.53744493392071</v>
       </c>
       <c r="F28" s="28">
         <v>0</v>
@@ -2405,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28">
-        <v>4.6921068048027941</v>
+        <v>4.0620878351431351</v>
       </c>
       <c r="I28" s="28">
         <v>0</v>
@@ -2415,7 +2579,7 @@
       </c>
       <c r="K28"/>
       <c r="L28" s="27">
-        <v>103</v>
+        <v>454</v>
       </c>
       <c r="M28" s="29">
         <v>441532</v>
@@ -2426,35 +2590,35 @@
         <v>39</v>
       </c>
       <c r="B29" s="25">
-        <v>32.064664649834803</v>
+        <v>27.236423154599592</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="26">
-        <v>5.494692716976563E-3</v>
+        <v>1.317682267708041E-2</v>
       </c>
       <c r="E29" s="27">
-        <v>181.99379865417603</v>
+        <v>75.890829261851323</v>
       </c>
       <c r="F29" s="28">
-        <v>10.045999999999999</v>
+        <v>12.346</v>
       </c>
       <c r="G29" s="25">
-        <v>4298</v>
+        <v>5463</v>
       </c>
       <c r="H29" s="28">
-        <v>3.3866394823002017</v>
+        <v>2.94383920593644</v>
       </c>
       <c r="I29" s="28">
-        <v>0.69763888888888881</v>
+        <v>0.85736111111111113</v>
       </c>
       <c r="J29" s="28">
-        <v>0.29118649349945464</v>
+        <v>0.37011442856852506</v>
       </c>
       <c r="K29"/>
       <c r="L29" s="27">
-        <v>37895</v>
+        <v>90876</v>
       </c>
       <c r="M29" s="29">
         <v>6896655</v>
@@ -2465,35 +2629,35 @@
         <v>40</v>
       </c>
       <c r="B30" s="25">
-        <v>52.393355195326677</v>
+        <v>49.924697925201428</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="26">
-        <v>7.4289100523666058E-5</v>
+        <v>8.3639200213870741E-5</v>
       </c>
       <c r="E30" s="27">
-        <v>13460.924859110832</v>
+        <v>11956.116240266963</v>
       </c>
       <c r="F30" s="28">
-        <v>0.1</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="G30" s="25">
         <v>0</v>
       </c>
       <c r="H30" s="28">
-        <v>5.2414188528660013</v>
+        <v>4.994407292520143</v>
       </c>
       <c r="I30" s="28">
-        <v>6.9444444444444449E-3</v>
+        <v>6.4583333333333333E-3</v>
       </c>
       <c r="J30" s="28">
         <v>0</v>
       </c>
       <c r="K30"/>
       <c r="L30" s="27">
-        <v>1597</v>
+        <v>1798</v>
       </c>
       <c r="M30" s="29">
         <v>21497097</v>
@@ -2504,16 +2668,16 @@
         <v>41</v>
       </c>
       <c r="B31" s="25">
-        <v>42.293875905049305</v>
+        <v>42.463705220539119</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="26">
-        <v>8.0731568025892847E-4</v>
+        <v>2.7065556007872105E-4</v>
       </c>
       <c r="E31" s="27">
-        <v>1238.6728320194059</v>
+        <v>3694.7328911667169</v>
       </c>
       <c r="F31" s="28">
         <v>0</v>
@@ -2522,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="28">
-        <v>4.2293875905049303</v>
+        <v>4.2463705220539119</v>
       </c>
       <c r="I31" s="28">
         <v>0</v>
@@ -2532,7 +2696,7 @@
       </c>
       <c r="K31"/>
       <c r="L31" s="27">
-        <v>9894</v>
+        <v>3317</v>
       </c>
       <c r="M31" s="29">
         <v>12255429</v>
@@ -2543,35 +2707,35 @@
         <v>42</v>
       </c>
       <c r="B32" s="25">
-        <v>62.316741585942388</v>
+        <v>57.478410160128988</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D32" s="26">
-        <v>7.0221213344674154E-6</v>
+        <v>2.1302401695317119E-5</v>
       </c>
       <c r="E32" s="27">
-        <v>142407.10924369749</v>
+        <v>46943.063711911353</v>
       </c>
       <c r="F32" s="28">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="25">
         <v>0</v>
       </c>
       <c r="H32" s="28">
-        <v>6.2321949919275719</v>
+        <v>5.7478410160128988</v>
       </c>
       <c r="I32" s="28">
-        <v>1.7361111111111112E-3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="28">
         <v>0</v>
       </c>
       <c r="K32"/>
       <c r="L32" s="27">
-        <v>119</v>
+        <v>361</v>
       </c>
       <c r="M32" s="29">
         <v>16946446</v>
@@ -2582,16 +2746,16 @@
         <v>43</v>
       </c>
       <c r="B33" s="25">
-        <v>52.946284899970209</v>
+        <v>59.59287832322596</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="26">
-        <v>3.3646458442105793E-5</v>
+        <v>1.0982850517674272E-5</v>
       </c>
       <c r="E33" s="27">
-        <v>29720.810043668123</v>
+        <v>91051.043478260865</v>
       </c>
       <c r="F33" s="28">
         <v>0</v>
@@ -2600,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="28">
-        <v>5.2946284899970211</v>
+        <v>5.9592878323225964</v>
       </c>
       <c r="I33" s="28">
         <v>0</v>
@@ -2610,7 +2774,7 @@
       </c>
       <c r="K33"/>
       <c r="L33" s="27">
-        <v>916</v>
+        <v>299</v>
       </c>
       <c r="M33" s="29">
         <v>27224262</v>
@@ -2621,35 +2785,35 @@
         <v>44</v>
       </c>
       <c r="B34" s="25">
-        <v>29.911292032994108</v>
+        <v>28.287536544238385</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="26">
-        <v>1.2562154379201192E-2</v>
+        <v>1.1745850107411982E-2</v>
       </c>
       <c r="E34" s="27">
-        <v>79.604180128185021</v>
+        <v>85.136451670617703</v>
       </c>
       <c r="F34" s="28">
-        <v>1.2010000000000001</v>
+        <v>3.85</v>
       </c>
       <c r="G34" s="25">
-        <v>4175</v>
+        <v>3305</v>
       </c>
       <c r="H34" s="28">
-        <v>2.9878647036788069</v>
+        <v>2.8865708439457318</v>
       </c>
       <c r="I34" s="28">
-        <v>8.3402777777777784E-2</v>
+        <v>0.2673611111111111</v>
       </c>
       <c r="J34" s="28">
-        <v>0.28285332953937248</v>
+        <v>0.22391143811440148</v>
       </c>
       <c r="K34"/>
       <c r="L34" s="27">
-        <v>478215</v>
+        <v>447140</v>
       </c>
       <c r="M34" s="29">
         <v>38067913</v>
@@ -2660,35 +2824,35 @@
         <v>45</v>
       </c>
       <c r="B35" s="25">
-        <v>29.81037455652821</v>
+        <v>26.73778464916689</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="26">
-        <v>1.5349679035986767E-2</v>
+        <v>1.3374242081790208E-2</v>
       </c>
       <c r="E35" s="27">
-        <v>65.147942028985497</v>
+        <v>74.770592149035267</v>
       </c>
       <c r="F35" s="28">
-        <v>1.5249999999999999</v>
+        <v>3.0510000000000002</v>
       </c>
       <c r="G35" s="25">
         <v>0</v>
       </c>
       <c r="H35" s="28">
-        <v>3.0128082889861543</v>
+        <v>2.7373409649166889</v>
       </c>
       <c r="I35" s="28">
-        <v>0.10590277777777778</v>
+        <v>0.21187500000000001</v>
       </c>
       <c r="J35" s="28">
         <v>0</v>
       </c>
       <c r="K35"/>
       <c r="L35" s="27">
-        <v>8625</v>
+        <v>7515</v>
       </c>
       <c r="M35" s="29">
         <v>561901</v>
@@ -2699,35 +2863,35 @@
         <v>46</v>
       </c>
       <c r="B36" s="25">
-        <v>52.369042868831656</v>
+        <v>46.487607441518627</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="26">
-        <v>1.0020351679791024E-4</v>
+        <v>2.144314608961365E-4</v>
       </c>
       <c r="E36" s="27">
-        <v>9979.689655172413</v>
+        <v>4663.4947867298579</v>
       </c>
       <c r="F36" s="28">
-        <v>0</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="G36" s="25">
         <v>0</v>
       </c>
       <c r="H36" s="28">
-        <v>5.2369042868831652</v>
+        <v>4.6505732441518628</v>
       </c>
       <c r="I36" s="28">
-        <v>0</v>
+        <v>6.0416666666666665E-3</v>
       </c>
       <c r="J36" s="28">
         <v>0</v>
       </c>
       <c r="K36"/>
       <c r="L36" s="27">
-        <v>493</v>
+        <v>1055</v>
       </c>
       <c r="M36" s="29">
         <v>4919987</v>
@@ -2738,35 +2902,35 @@
         <v>47</v>
       </c>
       <c r="B37" s="25">
-        <v>56.125543027226456</v>
+        <v>54.27846686251381</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="26">
-        <v>2.8495443537194979E-5</v>
+        <v>4.1619900933994328E-5</v>
       </c>
       <c r="E37" s="27">
-        <v>35093.32987551867</v>
+        <v>24026.967329545452</v>
       </c>
       <c r="F37" s="28">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G37" s="25">
         <v>0</v>
       </c>
       <c r="H37" s="28">
-        <v>5.6130751360559792</v>
+        <v>5.4278466862513808</v>
       </c>
       <c r="I37" s="28">
-        <v>1.7361111111111112E-3</v>
+        <v>0</v>
       </c>
       <c r="J37" s="28">
         <v>0</v>
       </c>
       <c r="K37"/>
       <c r="L37" s="27">
-        <v>482</v>
+        <v>704</v>
       </c>
       <c r="M37" s="29">
         <v>16914985</v>
@@ -2777,35 +2941,35 @@
         <v>48</v>
       </c>
       <c r="B38" s="25">
-        <v>40.116502981755119</v>
+        <v>34.241581777551666</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D38" s="26">
-        <v>1.0965856254426187E-3</v>
+        <v>5.1644873233181844E-3</v>
       </c>
       <c r="E38" s="27">
-        <v>911.9214923106133</v>
+        <v>193.63006188143757</v>
       </c>
       <c r="F38" s="28">
-        <v>0.82499999999999996</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="G38" s="25">
-        <v>2694</v>
+        <v>4426</v>
       </c>
       <c r="H38" s="28">
-        <v>4.0105861366239175</v>
+        <v>3.4135265040256351</v>
       </c>
       <c r="I38" s="28">
-        <v>5.7291666666666664E-2</v>
+        <v>6.4513888888888898E-2</v>
       </c>
       <c r="J38" s="28">
-        <v>0.18251661551594481</v>
+        <v>0.2998584039619791</v>
       </c>
       <c r="K38"/>
       <c r="L38" s="27">
-        <v>21068</v>
+        <v>99222</v>
       </c>
       <c r="M38" s="29">
         <v>19212362</v>
@@ -2816,16 +2980,16 @@
         <v>49</v>
       </c>
       <c r="B39" s="25">
-        <v>67.89463038081486</v>
+        <v>67.867201797954522</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="26">
-        <v>1.7753575773385194E-6</v>
+        <v>1.5157011453954833E-6</v>
       </c>
       <c r="E39" s="27">
-        <v>563266.81045241805</v>
+        <v>659760.66788487893</v>
       </c>
       <c r="F39" s="28">
         <v>0</v>
@@ -2834,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <v>6.789463038081486</v>
+        <v>6.7867201797954522</v>
       </c>
       <c r="I39" s="28">
         <v>0</v>
@@ -2844,7 +3008,7 @@
       </c>
       <c r="K39"/>
       <c r="L39" s="27">
-        <v>2564</v>
+        <v>2189</v>
       </c>
       <c r="M39" s="29">
         <v>1444216102</v>
@@ -2855,35 +3019,35 @@
         <v>50</v>
       </c>
       <c r="B40" s="25">
-        <v>37.684623456441322</v>
+        <v>30.917290794750208</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D40" s="26">
-        <v>2.4866070177216055E-3</v>
+        <v>8.0434455371560173E-3</v>
       </c>
       <c r="E40" s="27">
-        <v>402.15441880167555</v>
+        <v>124.32483012169156</v>
       </c>
       <c r="F40" s="28">
-        <v>0.80800000000000005</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="G40" s="25">
-        <v>1425</v>
+        <v>1727</v>
       </c>
       <c r="H40" s="28">
-        <v>3.7756414036578585</v>
+        <v>3.1381954419473281</v>
       </c>
       <c r="I40" s="28">
-        <v>5.6111111111111112E-2</v>
+        <v>0.19388888888888889</v>
       </c>
       <c r="J40" s="28">
-        <v>9.654275319607325E-2</v>
+        <v>0.11700304194359194</v>
       </c>
       <c r="K40"/>
       <c r="L40" s="27">
-        <v>127478</v>
+        <v>412354</v>
       </c>
       <c r="M40" s="29">
         <v>51265841</v>
@@ -2894,35 +3058,35 @@
         <v>51</v>
       </c>
       <c r="B41" s="25">
-        <v>35.970748613375868</v>
+        <v>40.416085036336412</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="26">
-        <v>2.5685008599187803E-3</v>
+        <v>4.2658274579720324E-4</v>
       </c>
       <c r="E41" s="27">
-        <v>389.3321647677476</v>
+        <v>2344.2110817941953</v>
       </c>
       <c r="F41" s="28">
-        <v>0.48199999999999998</v>
+        <v>0</v>
       </c>
       <c r="G41" s="25">
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <v>3.6071165280042536</v>
+        <v>4.0416085036336415</v>
       </c>
       <c r="I41" s="28">
-        <v>3.3472222222222223E-2</v>
+        <v>0</v>
       </c>
       <c r="J41" s="28">
         <v>0</v>
       </c>
       <c r="K41"/>
       <c r="L41" s="27">
-        <v>2282</v>
+        <v>379</v>
       </c>
       <c r="M41" s="29">
         <v>888456</v>
@@ -2933,35 +3097,35 @@
         <v>52</v>
       </c>
       <c r="B42" s="25">
-        <v>45.884921862280308</v>
+        <v>43.794705460213848</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D42" s="26">
-        <v>3.1589086615790618E-4</v>
+        <v>3.4770975586603326E-4</v>
       </c>
       <c r="E42" s="27">
-        <v>3165.6502518186908</v>
+        <v>2875.9618708693442</v>
       </c>
       <c r="F42" s="28">
-        <v>5.0999999999999997E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G42" s="25">
         <v>0</v>
       </c>
       <c r="H42" s="28">
-        <v>4.5895546862280305</v>
+        <v>4.3799913793547178</v>
       </c>
       <c r="I42" s="28">
-        <v>3.5416666666666665E-3</v>
+        <v>1.7361111111111112E-3</v>
       </c>
       <c r="J42" s="28">
         <v>0</v>
       </c>
       <c r="K42"/>
       <c r="L42" s="27">
-        <v>1787</v>
+        <v>1967</v>
       </c>
       <c r="M42" s="29">
         <v>5657017</v>
@@ -2972,35 +3136,35 @@
         <v>53</v>
       </c>
       <c r="B43" s="25">
-        <v>39.823703471014653</v>
+        <v>30.480729353624934</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="26">
-        <v>2.4389707597878441E-3</v>
+        <v>1.0883911880262765E-2</v>
       </c>
       <c r="E43" s="27">
-        <v>410.00901547790011</v>
+        <v>91.878729908998267</v>
       </c>
       <c r="F43" s="28">
-        <v>0.47299999999999998</v>
+        <v>1.1120000000000001</v>
       </c>
       <c r="G43" s="25">
-        <v>0</v>
+        <v>4384</v>
       </c>
       <c r="H43" s="28">
-        <v>3.9857883302217272</v>
+        <v>3.0415383086950136</v>
       </c>
       <c r="I43" s="28">
-        <v>3.2847222222222222E-2</v>
+        <v>7.7222222222222234E-2</v>
       </c>
       <c r="J43" s="28">
-        <v>6.4361835464048833E-2</v>
+        <v>0.29701293334146328</v>
       </c>
       <c r="K43"/>
       <c r="L43" s="27">
-        <v>12534</v>
+        <v>55933</v>
       </c>
       <c r="M43" s="29">
         <v>5139053</v>
@@ -3011,35 +3175,35 @@
         <v>54</v>
       </c>
       <c r="B44" s="25">
-        <v>43.966427232077216</v>
+        <v>46.46678911848344</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44" s="26">
-        <v>4.7147094387965476E-4</v>
+        <v>1.4205118285609669E-4</v>
       </c>
       <c r="E44" s="27">
-        <v>2121.0214817718543</v>
+        <v>7039.7161072079098</v>
       </c>
       <c r="F44" s="28">
-        <v>9.5000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="G44" s="25">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="H44" s="28">
-        <v>4.3973278782350587</v>
+        <v>4.6478018946129218</v>
       </c>
       <c r="I44" s="28">
-        <v>6.5972222222222222E-3</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="J44" s="28">
-        <v>1.2940116393298239E-2</v>
+        <v>7.5201723542204424E-3</v>
       </c>
       <c r="K44"/>
       <c r="L44" s="27">
-        <v>12755</v>
+        <v>3843</v>
       </c>
       <c r="M44" s="29">
         <v>27053629</v>
@@ -3050,35 +3214,35 @@
         <v>55</v>
       </c>
       <c r="B45" s="25">
-        <v>27.388579572325348</v>
+        <v>24.400622272444107</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D45" s="26">
-        <v>1.4443643843664472E-2</v>
+        <v>2.5138320049920903E-2</v>
       </c>
       <c r="E45" s="27">
-        <v>69.234606642467014</v>
+        <v>39.779905658538489</v>
       </c>
       <c r="F45" s="28">
-        <v>9.4849999999999994</v>
+        <v>10.29</v>
       </c>
       <c r="G45" s="25">
-        <v>2963</v>
+        <v>3946</v>
       </c>
       <c r="H45" s="28">
-        <v>2.9163880061644671</v>
+        <v>2.6277033532716594</v>
       </c>
       <c r="I45" s="28">
-        <v>0.65868055555555549</v>
+        <v>0.71458333333333324</v>
       </c>
       <c r="J45" s="28">
-        <v>0.2007411773473439</v>
+        <v>0.26733873972751232</v>
       </c>
       <c r="K45"/>
       <c r="L45" s="27">
-        <v>58954</v>
+        <v>102606</v>
       </c>
       <c r="M45" s="29">
         <v>4081657</v>
@@ -3089,35 +3253,35 @@
         <v>56</v>
       </c>
       <c r="B46" s="25">
-        <v>44.903768584610411</v>
+        <v>35.117955987627838</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="26">
-        <v>5.4437827159324441E-4</v>
+        <v>3.6442683709774016E-3</v>
       </c>
       <c r="E46" s="27">
-        <v>1836.9579613699075</v>
+        <v>274.40350111531376</v>
       </c>
       <c r="F46" s="28">
-        <v>3.7999999999999999E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="G46" s="25">
         <v>0</v>
       </c>
       <c r="H46" s="28">
-        <v>4.4911685251277076</v>
+        <v>3.5173164320961172</v>
       </c>
       <c r="I46" s="28">
-        <v>2.638888888888889E-3</v>
+        <v>1.8402777777777778E-2</v>
       </c>
       <c r="J46" s="28">
         <v>0</v>
       </c>
       <c r="K46"/>
       <c r="L46" s="27">
-        <v>6161</v>
+        <v>41244</v>
       </c>
       <c r="M46" s="29">
         <v>11317498</v>
@@ -3128,35 +3292,35 @@
         <v>57</v>
       </c>
       <c r="B47" s="25">
-        <v>32.532049110338441</v>
+        <v>29.862800640666197</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="26">
-        <v>4.8542139831808974E-2</v>
+        <v>4.8221829119257147E-2</v>
       </c>
       <c r="E47" s="27">
-        <v>20.600657561962571</v>
+        <v>20.737496239035341</v>
       </c>
       <c r="F47" s="28">
-        <v>2.2320000000000002</v>
+        <v>4.4640000000000004</v>
       </c>
       <c r="G47" s="25">
-        <v>126661</v>
+        <v>121725</v>
       </c>
       <c r="H47" s="28">
-        <v>2.4415854961168035</v>
+        <v>2.2546017038706889</v>
       </c>
       <c r="I47" s="28">
-        <v>0.15500000000000003</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="J47" s="28">
-        <v>8.5811941491704093</v>
+        <v>8.2467836019593097</v>
       </c>
       <c r="K47"/>
       <c r="L47" s="27">
-        <v>43494</v>
+        <v>43207</v>
       </c>
       <c r="M47" s="29">
         <v>896005</v>
@@ -3167,35 +3331,35 @@
         <v>58</v>
       </c>
       <c r="B48" s="25">
-        <v>30.210702289640434</v>
+        <v>29.39533158911571</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="26">
-        <v>9.6793777791950864E-3</v>
+        <v>1.5662284479362451E-2</v>
       </c>
       <c r="E48" s="27">
-        <v>103.31242594430049</v>
+        <v>63.847646319900456</v>
       </c>
       <c r="F48" s="28">
-        <v>5.1680000000000001</v>
+        <v>2.7570000000000001</v>
       </c>
       <c r="G48" s="25">
-        <v>5976</v>
+        <v>10282</v>
       </c>
       <c r="H48" s="28">
-        <v>3.0882499136587991</v>
+        <v>2.9273108281493236</v>
       </c>
       <c r="I48" s="28">
-        <v>0.35888888888888892</v>
+        <v>0.19145833333333334</v>
       </c>
       <c r="J48" s="28">
-        <v>0.4048698197191114</v>
+        <v>0.69659830762247377</v>
       </c>
       <c r="K48"/>
       <c r="L48" s="27">
-        <v>103807</v>
+        <v>167971</v>
       </c>
       <c r="M48" s="29">
         <v>10724553</v>
@@ -3206,35 +3370,35 @@
         <v>59</v>
       </c>
       <c r="B49" s="25">
-        <v>49.451182739739039</v>
+        <v>51.908577571992332</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="26">
-        <v>1.0950660907459056E-4</v>
+        <v>4.3549336526994645E-5</v>
       </c>
       <c r="E49" s="27">
-        <v>9131.8689205219453</v>
+        <v>22962.462341536168</v>
       </c>
       <c r="F49" s="28">
-        <v>3.1E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G49" s="25">
         <v>0</v>
       </c>
       <c r="H49" s="28">
-        <v>4.9457641073072374</v>
+        <v>5.1925660905325666</v>
       </c>
       <c r="I49" s="28">
-        <v>2.1527777777777778E-3</v>
+        <v>5.6944444444444447E-3</v>
       </c>
       <c r="J49" s="28">
         <v>0</v>
       </c>
       <c r="K49"/>
       <c r="L49" s="27">
-        <v>10116</v>
+        <v>4023</v>
       </c>
       <c r="M49" s="29">
         <v>92377986</v>
@@ -3245,35 +3409,35 @@
         <v>60</v>
       </c>
       <c r="B50" s="25">
-        <v>25.686099868585071</v>
+        <v>24.650273178693016</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D50" s="26">
-        <v>4.2244665768267332E-2</v>
+        <v>6.080468552984173E-2</v>
       </c>
       <c r="E50" s="27">
-        <v>23.671627691067304</v>
+        <v>16.446101008272134</v>
       </c>
       <c r="F50" s="28">
-        <v>1.8919999999999999</v>
+        <v>2.3839999999999999</v>
       </c>
       <c r="G50" s="25">
-        <v>27359</v>
+        <v>36545</v>
       </c>
       <c r="H50" s="28">
-        <v>2.422671342318762</v>
+        <v>2.2671041659008457</v>
       </c>
       <c r="I50" s="28">
-        <v>0.13138888888888889</v>
+        <v>0.16555555555555554</v>
       </c>
       <c r="J50" s="28">
-        <v>1.853553112064118</v>
+        <v>2.4758981863512259</v>
       </c>
       <c r="K50"/>
       <c r="L50" s="27">
-        <v>245581</v>
+        <v>353476</v>
       </c>
       <c r="M50" s="29">
         <v>5813302</v>
@@ -3284,16 +3448,16 @@
         <v>61</v>
       </c>
       <c r="B51" s="25">
-        <v>46.66209914042598</v>
+        <v>39.084822974967246</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51" s="26">
-        <v>3.921384717775048E-4</v>
+        <v>1.2492553859171399E-3</v>
       </c>
       <c r="E51" s="27">
-        <v>2550.1195928753182</v>
+        <v>800.47683706070291</v>
       </c>
       <c r="F51" s="28">
         <v>0</v>
@@ -3302,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="28">
-        <v>4.6662099140425983</v>
+        <v>3.9084822974967244</v>
       </c>
       <c r="I51" s="28">
         <v>0</v>
@@ -3312,7 +3476,7 @@
       </c>
       <c r="K51"/>
       <c r="L51" s="27">
-        <v>393</v>
+        <v>1252</v>
       </c>
       <c r="M51" s="29">
         <v>1002197</v>
@@ -3323,35 +3487,35 @@
         <v>62</v>
       </c>
       <c r="B52" s="25">
-        <v>31.096250170707332</v>
+        <v>28.08660340067253</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="26">
-        <v>8.549021781300228E-3</v>
+        <v>1.6793216205730755E-2</v>
       </c>
       <c r="E52" s="27">
-        <v>116.97244732576985</v>
+        <v>59.547854785478542</v>
       </c>
       <c r="F52" s="28">
-        <v>0</v>
+        <v>1.9790000000000001</v>
       </c>
       <c r="G52" s="25">
         <v>0</v>
       </c>
       <c r="H52" s="28">
-        <v>3.1096250170707331</v>
+        <v>2.8498895067339198</v>
       </c>
       <c r="I52" s="28">
-        <v>0</v>
+        <v>0.13743055555555556</v>
       </c>
       <c r="J52" s="28">
         <v>0</v>
       </c>
       <c r="K52"/>
       <c r="L52" s="27">
-        <v>617</v>
+        <v>1212</v>
       </c>
       <c r="M52" s="29">
         <v>72172</v>
@@ -3362,35 +3526,35 @@
         <v>63</v>
       </c>
       <c r="B53" s="25">
-        <v>38.684551174445104</v>
+        <v>31.372827487089516</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D53" s="26">
-        <v>2.4039334968942953E-3</v>
+        <v>7.816344301120149E-3</v>
       </c>
       <c r="E53" s="27">
-        <v>415.98488531064868</v>
+        <v>127.93704594828192</v>
       </c>
       <c r="F53" s="28">
-        <v>7.8E-2</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="G53" s="25">
         <v>0</v>
       </c>
       <c r="H53" s="28">
-        <v>3.8700801174445107</v>
+        <v>3.1413660820422851</v>
       </c>
       <c r="I53" s="28">
-        <v>5.4166666666666669E-3</v>
+        <v>1.3611111111111112E-2</v>
       </c>
       <c r="J53" s="28">
         <v>0</v>
       </c>
       <c r="K53"/>
       <c r="L53" s="27">
-        <v>26332</v>
+        <v>85618</v>
       </c>
       <c r="M53" s="29">
         <v>10953714</v>
@@ -3401,35 +3565,35 @@
         <v>64</v>
       </c>
       <c r="B54" s="25">
-        <v>40.627154288888939</v>
+        <v>33.782189637152456</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D54" s="26">
-        <v>1.2148604738447784E-3</v>
+        <v>3.8883696843006283E-3</v>
       </c>
       <c r="E54" s="27">
-        <v>823.1397938523836</v>
+        <v>257.17719280590018</v>
       </c>
       <c r="F54" s="28">
-        <v>0.216</v>
+        <v>4.2569999999999997</v>
       </c>
       <c r="G54" s="25">
-        <v>280</v>
+        <v>768</v>
       </c>
       <c r="H54" s="28">
-        <v>4.0653184484752165</v>
+        <v>3.4617033174377312</v>
       </c>
       <c r="I54" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>0.29562499999999997</v>
       </c>
       <c r="J54" s="28">
-        <v>1.8969804136772291E-2</v>
+        <v>5.203146277514685E-2</v>
       </c>
       <c r="K54"/>
       <c r="L54" s="27">
-        <v>21732</v>
+        <v>69557</v>
       </c>
       <c r="M54" s="29">
         <v>17888474</v>
@@ -3440,35 +3604,35 @@
         <v>65</v>
       </c>
       <c r="B55" s="25">
-        <v>49.449465649903104</v>
+        <v>48.814081111720313</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="26">
-        <v>1.0983295367860641E-4</v>
+        <v>1.4482296459639141E-4</v>
       </c>
       <c r="E55" s="27">
-        <v>9104.7355689459437</v>
+        <v>6904.982250480165</v>
       </c>
       <c r="F55" s="28">
-        <v>0.21199999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="G55" s="25">
         <v>0</v>
       </c>
       <c r="H55" s="28">
-        <v>4.9493632316569771</v>
+        <v>4.8870331111720313</v>
       </c>
       <c r="I55" s="28">
-        <v>1.4722222222222222E-2</v>
+        <v>1.8750000000000003E-2</v>
       </c>
       <c r="J55" s="28">
         <v>0</v>
       </c>
       <c r="K55"/>
       <c r="L55" s="27">
-        <v>11451</v>
+        <v>15099</v>
       </c>
       <c r="M55" s="29">
         <v>104258327</v>
@@ -3479,35 +3643,35 @@
         <v>66</v>
       </c>
       <c r="B56" s="25">
-        <v>51.528564697924175</v>
+        <v>46.133565603803355</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="26">
-        <v>6.1670629746107228E-5</v>
+        <v>2.3226202347165759E-4</v>
       </c>
       <c r="E56" s="27">
-        <v>16215.174129353236</v>
+        <v>4305.4821664464989</v>
       </c>
       <c r="F56" s="28">
-        <v>6.6000000000000003E-2</v>
+        <v>0.307</v>
       </c>
       <c r="G56" s="25">
         <v>0</v>
       </c>
       <c r="H56" s="28">
-        <v>5.1542314697924176</v>
+        <v>4.6197523937136689</v>
       </c>
       <c r="I56" s="28">
-        <v>4.5833333333333334E-3</v>
+        <v>2.1319444444444443E-2</v>
       </c>
       <c r="J56" s="28">
         <v>0</v>
       </c>
       <c r="K56"/>
       <c r="L56" s="27">
-        <v>402</v>
+        <v>1514</v>
       </c>
       <c r="M56" s="29">
         <v>6518500</v>
@@ -3518,35 +3682,35 @@
         <v>67</v>
       </c>
       <c r="B57" s="25">
-        <v>50.202146174767158</v>
+        <v>39.337259869392369</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D57" s="26">
-        <v>1.7449587589687778E-4</v>
+        <v>1.1600872065555272E-3</v>
       </c>
       <c r="E57" s="27">
-        <v>5730.794466403162</v>
+        <v>862.00416171224742</v>
       </c>
       <c r="F57" s="28">
-        <v>0</v>
+        <v>0.19700000000000001</v>
       </c>
       <c r="G57" s="25">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="H57" s="28">
-        <v>5.0192119278294864</v>
+        <v>3.9362109453242291</v>
       </c>
       <c r="I57" s="28">
-        <v>0</v>
+        <v>1.3680555555555557E-2</v>
       </c>
       <c r="J57" s="28">
-        <v>1.0026896472293923E-2</v>
+        <v>1.6192082816744915E-2</v>
       </c>
       <c r="K57"/>
       <c r="L57" s="27">
-        <v>253</v>
+        <v>1682</v>
       </c>
       <c r="M57" s="29">
         <v>1449891</v>
@@ -3557,16 +3721,16 @@
         <v>68</v>
       </c>
       <c r="B58" s="25">
-        <v>50.618060438962274</v>
+        <v>45.959015447707237</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="26">
-        <v>1.0606803570327828E-4</v>
+        <v>2.6350409916861539E-4</v>
       </c>
       <c r="E58" s="27">
-        <v>9427.9109947643974</v>
+        <v>3795.0073761854587</v>
       </c>
       <c r="F58" s="28">
         <v>0.159</v>
@@ -3575,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="28">
-        <v>5.0651185438962276</v>
+        <v>4.5992140447707239</v>
       </c>
       <c r="I58" s="28">
         <v>1.1041666666666667E-2</v>
@@ -3585,7 +3749,7 @@
       </c>
       <c r="K58"/>
       <c r="L58" s="27">
-        <v>382</v>
+        <v>949</v>
       </c>
       <c r="M58" s="29">
         <v>3601462</v>
@@ -3596,35 +3760,35 @@
         <v>69</v>
       </c>
       <c r="B59" s="25">
-        <v>30.739535583222793</v>
+        <v>27.054311144204657</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="26">
-        <v>9.7382409137420495E-3</v>
+        <v>2.3117474652653059E-2</v>
       </c>
       <c r="E59" s="27">
-        <v>102.68795040681907</v>
+        <v>43.257320058756321</v>
       </c>
       <c r="F59" s="28">
-        <v>1.833</v>
+        <v>2.911</v>
       </c>
       <c r="G59" s="25">
-        <v>5672</v>
+        <v>7966</v>
       </c>
       <c r="H59" s="28">
-        <v>3.0737136550852178</v>
+        <v>2.7121078549846818</v>
       </c>
       <c r="I59" s="28">
-        <v>0.12729166666666666</v>
+        <v>0.20215277777777779</v>
       </c>
       <c r="J59" s="28">
-        <v>0.38427403237061575</v>
+        <v>0.53969092769117155</v>
       </c>
       <c r="K59"/>
       <c r="L59" s="27">
-        <v>12905</v>
+        <v>30635</v>
       </c>
       <c r="M59" s="29">
         <v>1325188</v>
@@ -3635,35 +3799,35 @@
         <v>70</v>
       </c>
       <c r="B60" s="25">
-        <v>32.721805671134334</v>
+        <v>38.962594050033466</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D60" s="26">
-        <v>3.0544990527726339E-3</v>
+        <v>8.3762023731436095E-4</v>
       </c>
       <c r="E60" s="27">
-        <v>327.38592571907287</v>
+        <v>1193.8584521384928</v>
       </c>
       <c r="F60" s="28">
-        <v>3.29</v>
+        <v>1.706</v>
       </c>
       <c r="G60" s="25">
         <v>0</v>
       </c>
       <c r="H60" s="28">
-        <v>3.3407222337801001</v>
+        <v>3.9318010716700131</v>
       </c>
       <c r="I60" s="28">
-        <v>0.22847222222222222</v>
+        <v>0.11847222222222221</v>
       </c>
       <c r="J60" s="28">
         <v>0</v>
       </c>
       <c r="K60"/>
       <c r="L60" s="27">
-        <v>3581</v>
+        <v>982</v>
       </c>
       <c r="M60" s="29">
         <v>1172369</v>
@@ -3674,35 +3838,35 @@
         <v>71</v>
       </c>
       <c r="B61" s="25">
-        <v>43.619532179244899</v>
+        <v>46.202185808246519</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D61" s="26">
-        <v>4.5691995602234502E-4</v>
+        <v>1.7457294569305263E-4</v>
       </c>
       <c r="E61" s="27">
-        <v>2188.5671370219084</v>
+        <v>5728.2644571872879</v>
       </c>
       <c r="F61" s="28">
-        <v>9.6000000000000002E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G61" s="25">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="H61" s="28">
-        <v>4.3633976736604847</v>
+        <v>4.6223756021080948</v>
       </c>
       <c r="I61" s="28">
-        <v>6.6666666666666671E-3</v>
+        <v>8.6805555555555559E-3</v>
       </c>
       <c r="J61" s="28">
-        <v>5.5554426400547417E-3</v>
+        <v>4.4714538322391823E-3</v>
       </c>
       <c r="K61"/>
       <c r="L61" s="27">
-        <v>53860</v>
+        <v>20578</v>
       </c>
       <c r="M61" s="29">
         <v>117876226</v>
@@ -3713,35 +3877,35 @@
         <v>72</v>
       </c>
       <c r="B62" s="25">
-        <v>36.238416992724993</v>
+        <v>31.548168986584137</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D62" s="26">
-        <v>3.259500785802177E-3</v>
+        <v>5.3826618481136873E-3</v>
       </c>
       <c r="E62" s="27">
-        <v>306.79544682296978</v>
+        <v>185.78168724279834</v>
       </c>
       <c r="F62" s="28">
-        <v>0.94899999999999995</v>
+        <v>4.9050000000000002</v>
       </c>
       <c r="G62" s="25">
         <v>0</v>
       </c>
       <c r="H62" s="28">
-        <v>3.6436125326058328</v>
+        <v>3.2570043986584136</v>
       </c>
       <c r="I62" s="28">
-        <v>6.5902777777777768E-2</v>
+        <v>0.34062500000000001</v>
       </c>
       <c r="J62" s="28">
         <v>0</v>
       </c>
       <c r="K62"/>
       <c r="L62" s="27">
-        <v>2943</v>
+        <v>4860</v>
       </c>
       <c r="M62" s="29">
         <v>902899</v>
@@ -3752,35 +3916,35 @@
         <v>73</v>
       </c>
       <c r="B63" s="25">
-        <v>29.785130207533481</v>
+        <v>26.977819415376899</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="26">
-        <v>1.2333732430171721E-2</v>
+        <v>2.04763172403526E-2</v>
       </c>
       <c r="E63" s="27">
-        <v>81.078457446808514</v>
+        <v>48.836906962415284</v>
       </c>
       <c r="F63" s="28">
-        <v>2.008</v>
+        <v>1.03</v>
       </c>
       <c r="G63" s="25">
-        <v>3994</v>
+        <v>4544</v>
       </c>
       <c r="H63" s="28">
-        <v>2.9932872834715853</v>
+        <v>2.6884549927290613</v>
       </c>
       <c r="I63" s="28">
-        <v>0.13944444444444445</v>
+        <v>7.1527777777777773E-2</v>
       </c>
       <c r="J63" s="28">
-        <v>0.27059070615095898</v>
+        <v>0.30785282141961884</v>
       </c>
       <c r="K63"/>
       <c r="L63" s="27">
-        <v>68432</v>
+        <v>113610</v>
       </c>
       <c r="M63" s="29">
         <v>5548361</v>
@@ -3791,35 +3955,35 @@
         <v>74</v>
       </c>
       <c r="B64" s="25">
-        <v>26.409555989881188</v>
+        <v>22.859198153533363</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D64" s="26">
-        <v>3.4044466197976922E-2</v>
+        <v>6.5591691139390701E-2</v>
       </c>
       <c r="E64" s="27">
-        <v>29.373349377392341</v>
+        <v>15.245833468066444</v>
       </c>
       <c r="F64" s="28">
-        <v>3.0979999999999999</v>
+        <v>3.3559999999999999</v>
       </c>
       <c r="G64" s="25">
-        <v>19820</v>
+        <v>19125</v>
       </c>
       <c r="H64" s="28">
-        <v>2.5712181520866331</v>
+        <v>2.2262659448357995</v>
       </c>
       <c r="I64" s="28">
-        <v>0.21513888888888888</v>
+        <v>0.23305555555555554</v>
       </c>
       <c r="J64" s="28">
-        <v>1.3427911356815241</v>
+        <v>1.2957053718420357</v>
       </c>
       <c r="K64"/>
       <c r="L64" s="27">
-        <v>2295346</v>
+        <v>4422323</v>
       </c>
       <c r="M64" s="29">
         <v>67422000</v>
@@ -3830,16 +3994,16 @@
         <v>75</v>
       </c>
       <c r="B65" s="25">
-        <v>37.090259105984771</v>
+        <v>38.844725048490957</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="26">
-        <v>2.0190194174288635E-3</v>
+        <v>1.3265585087779733E-3</v>
       </c>
       <c r="E65" s="27">
-        <v>495.28993697022389</v>
+        <v>753.83030102547139</v>
       </c>
       <c r="F65" s="28">
         <v>0.125</v>
@@ -3848,17 +4012,17 @@
         <v>0</v>
       </c>
       <c r="H65" s="28">
-        <v>3.711630077265144</v>
+        <v>3.872801893902841</v>
       </c>
       <c r="I65" s="28">
         <v>8.6805555555555559E-3</v>
       </c>
       <c r="J65" s="28">
-        <v>0</v>
+        <v>0.14274777612921147</v>
       </c>
       <c r="K65"/>
       <c r="L65" s="27">
-        <v>4601</v>
+        <v>3023</v>
       </c>
       <c r="M65" s="29">
         <v>2278829</v>
@@ -3869,35 +4033,35 @@
         <v>76</v>
       </c>
       <c r="B66" s="25">
-        <v>49.898864295282301</v>
+        <v>43.661905012681693</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D66" s="26">
-        <v>2.8348124620768437E-4</v>
+        <v>3.1363882559148058E-4</v>
       </c>
       <c r="E66" s="27">
-        <v>3527.5702127659579</v>
+        <v>3188.3807692307696</v>
       </c>
       <c r="F66" s="28">
-        <v>5.7000000000000002E-2</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="G66" s="25">
         <v>0</v>
       </c>
       <c r="H66" s="28">
-        <v>4.9910739295282305</v>
+        <v>4.3697738346015029</v>
       </c>
       <c r="I66" s="28">
-        <v>3.9583333333333337E-3</v>
+        <v>1.1944444444444443E-2</v>
       </c>
       <c r="J66" s="28">
         <v>0</v>
       </c>
       <c r="K66"/>
       <c r="L66" s="27">
-        <v>705</v>
+        <v>780</v>
       </c>
       <c r="M66" s="29">
         <v>2486937</v>
@@ -3908,35 +4072,35 @@
         <v>77</v>
       </c>
       <c r="B67" s="25">
-        <v>28.905974042276117</v>
+        <v>27.336210471988956</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="26">
-        <v>7.6725481578974481E-3</v>
+        <v>1.8284208672203164E-2</v>
       </c>
       <c r="E67" s="27">
-        <v>130.33479613558211</v>
+        <v>54.692003243228385</v>
       </c>
       <c r="F67" s="28">
-        <v>11.63</v>
+        <v>8.0050000000000008</v>
       </c>
       <c r="G67" s="25">
-        <v>0</v>
+        <v>13070</v>
       </c>
       <c r="H67" s="28">
-        <v>3.1328890708942785</v>
+        <v>2.8118435447937955</v>
       </c>
       <c r="I67" s="28">
-        <v>0.80763888888888891</v>
+        <v>0.55590277777777786</v>
       </c>
       <c r="J67" s="28">
-        <v>0</v>
+        <v>0.88548335738433503</v>
       </c>
       <c r="K67"/>
       <c r="L67" s="27">
-        <v>30535</v>
+        <v>72767</v>
       </c>
       <c r="M67" s="29">
         <v>3979773</v>
@@ -3947,35 +4111,35 @@
         <v>78</v>
       </c>
       <c r="B68" s="25">
-        <v>32.459990103123801</v>
+        <v>29.643385147583871</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="26">
-        <v>5.5897779167413736E-3</v>
+        <v>1.2574148719618034E-2</v>
       </c>
       <c r="E68" s="27">
-        <v>178.89798394404937</v>
+        <v>79.528246587366368</v>
       </c>
       <c r="F68" s="28">
-        <v>2.907</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="G68" s="25">
         <v>0</v>
       </c>
       <c r="H68" s="28">
-        <v>3.2956267732135403</v>
+        <v>2.9813679590278124</v>
       </c>
       <c r="I68" s="28">
-        <v>0.201875</v>
+        <v>0.135625</v>
       </c>
       <c r="J68" s="28">
-        <v>0.10934737098839455</v>
+        <v>0.23658055730574581</v>
       </c>
       <c r="K68"/>
       <c r="L68" s="27">
-        <v>468985</v>
+        <v>1054977</v>
       </c>
       <c r="M68" s="29">
         <v>83900471</v>
@@ -3986,35 +4150,35 @@
         <v>79</v>
       </c>
       <c r="B69" s="25">
-        <v>43.769408142359794</v>
+        <v>46.043538813001419</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D69" s="26">
-        <v>4.2619265874636582E-4</v>
+        <v>2.1467201947502544E-4</v>
       </c>
       <c r="E69" s="27">
-        <v>2346.3566992014198</v>
+        <v>4658.2689371697006</v>
       </c>
       <c r="F69" s="28">
-        <v>0.11700000000000001</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G69" s="25">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="H69" s="28">
-        <v>4.3784365989591896</v>
+        <v>4.6060214011845613</v>
       </c>
       <c r="I69" s="28">
-        <v>8.1250000000000003E-3</v>
+        <v>6.5972222222222222E-3</v>
       </c>
       <c r="J69" s="28">
-        <v>9.4171527678976723E-3</v>
+        <v>3.1164678224697329E-3</v>
       </c>
       <c r="K69"/>
       <c r="L69" s="27">
-        <v>13524</v>
+        <v>6812</v>
       </c>
       <c r="M69" s="29">
         <v>31732128</v>
@@ -4025,35 +4189,35 @@
         <v>80</v>
       </c>
       <c r="B70" s="25">
-        <v>27.073696096687048</v>
+        <v>24.830385745824891</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D70" s="26">
-        <v>3.5237288114347017E-2</v>
+        <v>3.0889096031365918E-2</v>
       </c>
       <c r="E70" s="27">
-        <v>28.379028396139418</v>
+        <v>32.373883618496421</v>
       </c>
       <c r="F70" s="28">
-        <v>6.5709999999999997</v>
+        <v>8.7330000000000005</v>
       </c>
       <c r="G70" s="25">
-        <v>37990</v>
+        <v>33124</v>
       </c>
       <c r="H70" s="28">
-        <v>2.5868858504463312</v>
+        <v>2.4405632916444731</v>
       </c>
       <c r="I70" s="28">
-        <v>0.45631944444444444</v>
+        <v>0.60645833333333332</v>
       </c>
       <c r="J70" s="28">
-        <v>2.5737959255570688</v>
+        <v>2.2441278293801616</v>
       </c>
       <c r="K70"/>
       <c r="L70" s="27">
-        <v>365437</v>
+        <v>320343</v>
       </c>
       <c r="M70" s="29">
         <v>10370747</v>
@@ -4064,35 +4228,35 @@
         <v>81</v>
       </c>
       <c r="B71" s="25">
-        <v>32.07152371905763</v>
+        <v>24.192900861081554</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D71" s="26">
-        <v>1.264433924700261E-2</v>
+        <v>3.1703756138565679E-2</v>
       </c>
       <c r="E71" s="27">
-        <v>79.086773967809663</v>
+        <v>31.542003907340217</v>
       </c>
       <c r="F71" s="28">
-        <v>0</v>
+        <v>5.056</v>
       </c>
       <c r="G71" s="25">
         <v>0</v>
       </c>
       <c r="H71" s="28">
-        <v>3.2071523719057629</v>
+        <v>2.5246234194414887</v>
       </c>
       <c r="I71" s="28">
-        <v>0</v>
+        <v>0.3511111111111111</v>
       </c>
       <c r="J71" s="28">
         <v>0</v>
       </c>
       <c r="K71"/>
       <c r="L71" s="27">
-        <v>1429</v>
+        <v>3583</v>
       </c>
       <c r="M71" s="29">
         <v>113015</v>
@@ -4103,35 +4267,35 @@
         <v>82</v>
       </c>
       <c r="B72" s="25">
-        <v>45.109006306793923</v>
+        <v>38.458974383916427</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D72" s="26">
-        <v>3.7611230941505988E-4</v>
+        <v>1.7040123249110624E-3</v>
       </c>
       <c r="E72" s="27">
-        <v>2658.780303030303</v>
+        <v>586.85021544793869</v>
       </c>
       <c r="F72" s="28">
-        <v>6.3E-2</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="G72" s="25">
-        <v>362</v>
+        <v>637</v>
       </c>
       <c r="H72" s="28">
-        <v>4.5097606060017092</v>
+        <v>3.8543109746171935</v>
       </c>
       <c r="I72" s="28">
-        <v>4.3750000000000004E-3</v>
+        <v>4.2430555555555555E-2</v>
       </c>
       <c r="J72" s="28">
-        <v>2.4525246776827027E-2</v>
+        <v>4.3156304411156955E-2</v>
       </c>
       <c r="K72"/>
       <c r="L72" s="27">
-        <v>6864</v>
+        <v>31098</v>
       </c>
       <c r="M72" s="29">
         <v>18249868</v>
@@ -4142,35 +4306,35 @@
         <v>83</v>
       </c>
       <c r="B73" s="25">
-        <v>48.182483855536425</v>
+        <v>47.182797238315082</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="26">
-        <v>2.0463447444836304E-4</v>
+        <v>1.4958617085852459E-4</v>
       </c>
       <c r="E73" s="27">
-        <v>4886.7621288921073</v>
+        <v>6685.109955423477</v>
       </c>
       <c r="F73" s="28">
-        <v>6.4000000000000001E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G73" s="25">
         <v>0</v>
       </c>
       <c r="H73" s="28">
-        <v>4.8195817188869761</v>
+        <v>4.7191547238315081</v>
       </c>
       <c r="I73" s="28">
-        <v>4.4444444444444444E-3</v>
+        <v>2.9166666666666668E-3</v>
       </c>
       <c r="J73" s="28">
         <v>0</v>
       </c>
       <c r="K73"/>
       <c r="L73" s="27">
-        <v>2762</v>
+        <v>2019</v>
       </c>
       <c r="M73" s="29">
         <v>13497237</v>
@@ -4181,35 +4345,35 @@
         <v>84</v>
       </c>
       <c r="B74" s="25">
-        <v>55.356389792092777</v>
+        <v>45.541986844558025</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="26">
-        <v>7.6408218348887857E-5</v>
+        <v>3.0265592982351688E-4</v>
       </c>
       <c r="E74" s="27">
-        <v>13087.597402597403</v>
+        <v>3304.0819672131147</v>
       </c>
       <c r="F74" s="28">
-        <v>0</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="G74" s="25">
         <v>0</v>
       </c>
       <c r="H74" s="28">
-        <v>5.5356389792092777</v>
+        <v>4.5586361844558025</v>
       </c>
       <c r="I74" s="28">
-        <v>0</v>
+        <v>1.4791666666666667E-2</v>
       </c>
       <c r="J74" s="28">
         <v>0</v>
       </c>
       <c r="K74"/>
       <c r="L74" s="27">
-        <v>154</v>
+        <v>610</v>
       </c>
       <c r="M74" s="29">
         <v>2015490</v>
@@ -4220,35 +4384,35 @@
         <v>85</v>
       </c>
       <c r="B75" s="25">
-        <v>36.262417113998517</v>
+        <v>27.263699738318675</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D75" s="26">
-        <v>4.2855570275163891E-3</v>
+        <v>1.5627668983423357E-2</v>
       </c>
       <c r="E75" s="27">
-        <v>233.34189548272806</v>
+        <v>63.989069710954588</v>
       </c>
       <c r="F75" s="28">
-        <v>2.169</v>
+        <v>6.5069999999999997</v>
       </c>
       <c r="G75" s="25">
-        <v>0</v>
+        <v>3506</v>
       </c>
       <c r="H75" s="28">
-        <v>3.6714292113998517</v>
+        <v>2.8381795690806091</v>
       </c>
       <c r="I75" s="28">
-        <v>0.15062500000000001</v>
+        <v>0.45187499999999997</v>
       </c>
       <c r="J75" s="28">
-        <v>0</v>
+        <v>0.23752904751258441</v>
       </c>
       <c r="K75"/>
       <c r="L75" s="27">
-        <v>3387</v>
+        <v>12351</v>
       </c>
       <c r="M75" s="29">
         <v>790329</v>
@@ -4259,35 +4423,35 @@
         <v>86</v>
       </c>
       <c r="B76" s="25">
-        <v>57.886972700052084</v>
+        <v>48.968980785128771</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="26">
-        <v>3.1104649122662617E-5</v>
+        <v>1.5708281019327945E-4</v>
       </c>
       <c r="E76" s="27">
-        <v>32149.534818941502</v>
+        <v>6366.0689464975176</v>
       </c>
       <c r="F76" s="28">
-        <v>9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="G76" s="25">
         <v>0</v>
       </c>
       <c r="H76" s="28">
-        <v>5.7907597700052085</v>
+        <v>4.8968980785128773</v>
       </c>
       <c r="I76" s="28">
-        <v>6.875E-3</v>
+        <v>0</v>
       </c>
       <c r="J76" s="28">
         <v>0</v>
       </c>
       <c r="K76"/>
       <c r="L76" s="27">
-        <v>359</v>
+        <v>1813</v>
       </c>
       <c r="M76" s="29">
         <v>11541683</v>
@@ -4298,35 +4462,35 @@
         <v>87</v>
       </c>
       <c r="B77" s="25">
-        <v>51.472062409486973</v>
+        <v>42.821620203493183</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77" s="26">
-        <v>7.1251160439924732E-5</v>
+        <v>8.0622128960824188E-4</v>
       </c>
       <c r="E77" s="27">
-        <v>14034.859135285915</v>
+        <v>1240.3542462714163</v>
       </c>
       <c r="F77" s="28">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="G77" s="25">
         <v>0</v>
       </c>
       <c r="H77" s="28">
-        <v>5.1472062409486972</v>
+        <v>4.2877870203493185</v>
       </c>
       <c r="I77" s="28">
-        <v>0</v>
+        <v>1.8750000000000003E-2</v>
       </c>
       <c r="J77" s="28">
         <v>0</v>
       </c>
       <c r="K77"/>
       <c r="L77" s="27">
-        <v>717</v>
+        <v>8113</v>
       </c>
       <c r="M77" s="29">
         <v>10062994</v>
@@ -4337,16 +4501,16 @@
         <v>88</v>
       </c>
       <c r="B78" s="25">
-        <v>57.545357217345618</v>
+        <v>57.040368233982797</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="26">
-        <v>2.4097023620379198E-5</v>
+        <v>2.317021501959538E-5</v>
       </c>
       <c r="E78" s="27">
-        <v>41498.901098901093</v>
+        <v>43158.857142857145</v>
       </c>
       <c r="F78" s="28">
         <v>0</v>
@@ -4355,17 +4519,17 @@
         <v>0</v>
       </c>
       <c r="H78" s="28">
-        <v>5.6987170730621095</v>
+        <v>5.6042759784290039</v>
       </c>
       <c r="I78" s="28">
         <v>0</v>
       </c>
       <c r="J78" s="28">
-        <v>0.55818648672452464</v>
+        <v>0.99760844969275686</v>
       </c>
       <c r="K78"/>
       <c r="L78" s="27">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M78" s="29">
         <v>7552800</v>
@@ -4376,35 +4540,35 @@
         <v>89</v>
       </c>
       <c r="B79" s="25">
-        <v>32.502249921678668</v>
+        <v>28.891869205786318</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="26">
-        <v>4.0587858082519268E-3</v>
+        <v>1.1320860081032476E-2</v>
       </c>
       <c r="E79" s="27">
-        <v>246.37910134772267</v>
+        <v>88.332511208706578</v>
       </c>
       <c r="F79" s="28">
-        <v>8.5259999999999998</v>
+        <v>8.7929999999999993</v>
       </c>
       <c r="G79" s="25">
-        <v>1534</v>
+        <v>2889</v>
       </c>
       <c r="H79" s="28">
-        <v>3.4174572494729349</v>
+        <v>3.0528016476675122</v>
       </c>
       <c r="I79" s="28">
-        <v>0.59208333333333329</v>
+        <v>0.61062499999999997</v>
       </c>
       <c r="J79" s="28">
-        <v>0.10392742694931675</v>
+        <v>0.1957277291111969</v>
       </c>
       <c r="K79"/>
       <c r="L79" s="27">
-        <v>39103</v>
+        <v>109067</v>
       </c>
       <c r="M79" s="29">
         <v>9634162</v>
@@ -4415,35 +4579,35 @@
         <v>90</v>
       </c>
       <c r="B80" s="25">
-        <v>26.761200674838232</v>
+        <v>23.100277211849527</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D80" s="26">
-        <v>3.5662378793466239E-2</v>
+        <v>4.848803661684635E-2</v>
       </c>
       <c r="E80" s="27">
-        <v>28.04075425790754</v>
+        <v>20.623643887708312</v>
       </c>
       <c r="F80" s="28">
-        <v>0.77500000000000002</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="G80" s="25">
         <v>0</v>
       </c>
       <c r="H80" s="28">
-        <v>2.5828846551785176</v>
+        <v>2.3180902211849528</v>
       </c>
       <c r="I80" s="28">
-        <v>5.3819444444444448E-2</v>
+        <v>2.6875E-2</v>
       </c>
       <c r="J80" s="28">
-        <v>1.0938124563863878</v>
+        <v>0</v>
       </c>
       <c r="K80"/>
       <c r="L80" s="27">
-        <v>13152</v>
+        <v>17882</v>
       </c>
       <c r="M80" s="29">
         <v>368792</v>
@@ -4454,35 +4618,35 @@
         <v>91</v>
       </c>
       <c r="B81" s="25">
-        <v>47.521618540749458</v>
+        <v>37.195127789984355</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D81" s="26">
-        <v>3.2564737937937566E-4</v>
+        <v>2.3967413163741131E-3</v>
       </c>
       <c r="E81" s="27">
-        <v>3070.80622575811</v>
+        <v>417.23317955432935</v>
       </c>
       <c r="F81" s="28">
-        <v>0.215</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="G81" s="25">
-        <v>908</v>
+        <v>1248</v>
       </c>
       <c r="H81" s="28">
-        <v>4.7504893842572589</v>
+        <v>3.7180368329641409</v>
       </c>
       <c r="I81" s="28">
-        <v>1.4930555555555555E-2</v>
+        <v>2.326388888888889E-2</v>
       </c>
       <c r="J81" s="28">
-        <v>6.151636484353299E-2</v>
+        <v>8.4551127009613619E-2</v>
       </c>
       <c r="K81"/>
       <c r="L81" s="27">
-        <v>453760</v>
+        <v>3339641</v>
       </c>
       <c r="M81" s="29">
         <v>1393409033</v>
@@ -4493,35 +4657,35 @@
         <v>92</v>
       </c>
       <c r="B82" s="25">
-        <v>59.912893026163573</v>
+        <v>54.663698311452229</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="26">
-        <v>1.2523439021895459E-5</v>
+        <v>4.6949327162407849E-5</v>
       </c>
       <c r="E82" s="27">
-        <v>79850.271019936437</v>
+        <v>21299.559768786126</v>
       </c>
       <c r="F82" s="28">
-        <v>1.4E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G82" s="25">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="H82" s="28">
-        <v>5.9870688658704916</v>
+        <v>5.4624046436998457</v>
       </c>
       <c r="I82" s="28">
-        <v>9.7222222222222219E-4</v>
+        <v>1.5972222222222221E-3</v>
       </c>
       <c r="J82" s="28">
-        <v>4.5121034125322659E-2</v>
+        <v>4.4443541120437934E-2</v>
       </c>
       <c r="K82"/>
       <c r="L82" s="27">
-        <v>3461</v>
+        <v>12975</v>
       </c>
       <c r="M82" s="29">
         <v>276361788</v>
@@ -4532,35 +4696,35 @@
         <v>93</v>
       </c>
       <c r="B83" s="25">
-        <v>45.298929541209219</v>
+        <v>45.034201982750247</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="26">
-        <v>2.7318991832881015E-4</v>
+        <v>3.9423131655689207E-4</v>
       </c>
       <c r="E83" s="27">
-        <v>3660.4571871367689</v>
+        <v>2536.581844217058</v>
       </c>
       <c r="F83" s="28">
-        <v>0.38600000000000001</v>
+        <v>0.252</v>
       </c>
       <c r="G83" s="25">
-        <v>1159</v>
+        <v>1034</v>
       </c>
       <c r="H83" s="28">
-        <v>4.5300824768609749</v>
+        <v>4.501664920604517</v>
       </c>
       <c r="I83" s="28">
-        <v>2.6805555555555555E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="J83" s="28">
-        <v>7.8521439266139581E-2</v>
+        <v>7.0052776705080519E-2</v>
       </c>
       <c r="K83"/>
       <c r="L83" s="27">
-        <v>23229</v>
+        <v>33521</v>
       </c>
       <c r="M83" s="29">
         <v>85028760</v>
@@ -4571,35 +4735,35 @@
         <v>94</v>
       </c>
       <c r="B84" s="25">
-        <v>50.491261382034082</v>
+        <v>41.949299266253924</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" s="26">
-        <v>9.7476038415467015E-5</v>
+        <v>1.0058196400424086E-3</v>
       </c>
       <c r="E84" s="27">
-        <v>10258.931489785749</v>
+        <v>994.21403220744105</v>
       </c>
       <c r="F84" s="28">
-        <v>0.13900000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="G84" s="25">
-        <v>274</v>
+        <v>537</v>
       </c>
       <c r="H84" s="28">
-        <v>5.0501656407033577</v>
+        <v>4.1943959558558284</v>
       </c>
       <c r="I84" s="28">
-        <v>9.6527777777777792E-3</v>
+        <v>1.0347222222222221E-2</v>
       </c>
       <c r="J84" s="28">
-        <v>1.8563308333841455E-2</v>
+        <v>3.6381374362309711E-2</v>
       </c>
       <c r="K84"/>
       <c r="L84" s="27">
-        <v>4014</v>
+        <v>41419</v>
       </c>
       <c r="M84" s="29">
         <v>41179351</v>
@@ -4610,35 +4774,35 @@
         <v>95</v>
       </c>
       <c r="B85" s="25">
-        <v>24.899302261530359</v>
+        <v>22.83677163318708</v>
       </c>
       <c r="C85" t="s">
         <v>162</v>
       </c>
       <c r="D85" s="26">
-        <v>4.5816054252700834E-2</v>
+        <v>4.4006266225478152E-2</v>
       </c>
       <c r="E85" s="27">
-        <v>21.826410333907148</v>
+        <v>22.724036501443369</v>
       </c>
       <c r="F85" s="28">
-        <v>0</v>
+        <v>1.4910000000000001</v>
       </c>
       <c r="G85" s="25">
-        <v>8316</v>
+        <v>5155</v>
       </c>
       <c r="H85" s="28">
-        <v>2.4335899078668222</v>
+        <v>2.2798148989169005</v>
       </c>
       <c r="I85" s="28">
-        <v>0</v>
+        <v>0.10354166666666667</v>
       </c>
       <c r="J85" s="28">
-        <v>0.56340318286213698</v>
+        <v>0.34924764401807551</v>
       </c>
       <c r="K85"/>
       <c r="L85" s="27">
-        <v>228297</v>
+        <v>219279</v>
       </c>
       <c r="M85" s="29">
         <v>4982904</v>
@@ -4649,35 +4813,35 @@
         <v>96</v>
       </c>
       <c r="B86" s="25">
-        <v>33.984309130104968</v>
+        <v>25.917850337393617</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="26">
-        <v>9.4215907867829084E-3</v>
+        <v>7.0551070928855888E-2</v>
       </c>
       <c r="E86" s="27">
-        <v>106.13918844818132</v>
+        <v>14.174129277334512</v>
       </c>
       <c r="F86" s="28">
-        <v>0.246</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="G86" s="25">
-        <v>22398</v>
+        <v>44417</v>
       </c>
       <c r="H86" s="28">
-        <v>3.2518110297764165</v>
+        <v>2.3155296324263803</v>
       </c>
       <c r="I86" s="28">
-        <v>1.7083333333333332E-2</v>
+        <v>8.2222222222222224E-2</v>
       </c>
       <c r="J86" s="28">
-        <v>1.517448832340806</v>
+        <v>3.0092206797964813</v>
       </c>
       <c r="K86"/>
       <c r="L86" s="27">
-        <v>87536</v>
+        <v>655490</v>
       </c>
       <c r="M86" s="29">
         <v>9291000</v>
@@ -4688,35 +4852,35 @@
         <v>97</v>
       </c>
       <c r="B87" s="25">
-        <v>27.955693593574455</v>
+        <v>24.079586435001477</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D87" s="26">
-        <v>2.415888848482654E-2</v>
+        <v>4.0465352606870016E-2</v>
       </c>
       <c r="E87" s="27">
-        <v>41.392632803784387</v>
+        <v>24.712499350128603</v>
       </c>
       <c r="F87" s="28">
-        <v>2.9039999999999999</v>
+        <v>5.6840000000000002</v>
       </c>
       <c r="G87" s="25">
-        <v>15476</v>
+        <v>17968</v>
       </c>
       <c r="H87" s="28">
-        <v>2.7512205419214855</v>
+        <v>2.4046433670491272</v>
       </c>
       <c r="I87" s="28">
-        <v>0.20166666666666666</v>
+        <v>0.39472222222222225</v>
       </c>
       <c r="J87" s="28">
-        <v>1.0484881743595997</v>
+        <v>1.2173194311768731</v>
       </c>
       <c r="K87"/>
       <c r="L87" s="27">
-        <v>1458411</v>
+        <v>2442791</v>
       </c>
       <c r="M87" s="29">
         <v>60367471</v>
@@ -4727,35 +4891,35 @@
         <v>98</v>
       </c>
       <c r="B88" s="25">
-        <v>38.833722105897756</v>
+        <v>31.941659037663317</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="26">
-        <v>1.9892636932975771E-3</v>
+        <v>6.3057809381791329E-3</v>
       </c>
       <c r="E88" s="27">
-        <v>502.69856297548603</v>
+        <v>158.58463999999998</v>
       </c>
       <c r="F88" s="28">
-        <v>0.76900000000000002</v>
+        <v>2.258</v>
       </c>
       <c r="G88" s="25">
-        <v>762</v>
+        <v>1159</v>
       </c>
       <c r="H88" s="28">
-        <v>3.8942305472258871</v>
+        <v>3.2333554265063844</v>
       </c>
       <c r="I88" s="28">
-        <v>5.3402777777777778E-2</v>
+        <v>0.15680555555555556</v>
       </c>
       <c r="J88" s="28">
-        <v>5.162496697221601E-2</v>
+        <v>7.8521439266139581E-2</v>
       </c>
       <c r="K88"/>
       <c r="L88" s="27">
-        <v>5915</v>
+        <v>18750</v>
       </c>
       <c r="M88" s="29">
         <v>2973462</v>
@@ -4766,35 +4930,35 @@
         <v>99</v>
       </c>
       <c r="B89" s="25">
-        <v>53.23502858305919</v>
+        <v>38.53545777893401</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D89" s="26">
-        <v>9.5302849178358222E-5</v>
+        <v>2.2206999787609434E-3</v>
       </c>
       <c r="E89" s="27">
-        <v>10492.865728793808</v>
+        <v>450.30846560279508</v>
       </c>
       <c r="F89" s="28">
-        <v>7.0000000000000001E-3</v>
+        <v>6.2E-2</v>
       </c>
       <c r="G89" s="25">
-        <v>333</v>
+        <v>1181</v>
       </c>
       <c r="H89" s="28">
-        <v>5.3213926399329861</v>
+        <v>3.8468362521723791</v>
       </c>
       <c r="I89" s="28">
-        <v>4.861111111111111E-4</v>
+        <v>4.3055555555555555E-3</v>
       </c>
       <c r="J89" s="28">
-        <v>2.256051706266133E-2</v>
+        <v>8.0011923876885979E-2</v>
       </c>
       <c r="K89"/>
       <c r="L89" s="27">
-        <v>12013</v>
+        <v>279921</v>
       </c>
       <c r="M89" s="29">
         <v>126050796</v>
@@ -4805,35 +4969,35 @@
         <v>100</v>
       </c>
       <c r="B90" s="25">
-        <v>35.306276690791904</v>
+        <v>34.106243350732683</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D90" s="26">
-        <v>2.537145212075697E-3</v>
+        <v>4.8377537802528807E-3</v>
       </c>
       <c r="E90" s="27">
-        <v>394.14377830659402</v>
+        <v>206.7075021638922</v>
       </c>
       <c r="F90" s="28">
-        <v>2.6429999999999998</v>
+        <v>1.363</v>
       </c>
       <c r="G90" s="25">
-        <v>3486</v>
+        <v>3416</v>
       </c>
       <c r="H90" s="28">
-        <v>3.5620727629289091</v>
+        <v>3.4158770073597391</v>
       </c>
       <c r="I90" s="28">
-        <v>0.18354166666666666</v>
+        <v>9.465277777777778E-2</v>
       </c>
       <c r="J90" s="28">
-        <v>0.236174061502815</v>
+        <v>0.2314316104686219</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="27">
-        <v>26054</v>
+        <v>49679</v>
       </c>
       <c r="M90" s="29">
         <v>10269022</v>
@@ -4844,35 +5008,35 @@
         <v>101</v>
       </c>
       <c r="B91" s="25">
-        <v>44.793813583935858</v>
+        <v>33.355006306601972</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D91" s="26">
-        <v>2.8344363804331656E-4</v>
+        <v>6.7431578422021254E-3</v>
       </c>
       <c r="E91" s="27">
-        <v>3528.0382615156018</v>
+        <v>148.29847133956872</v>
       </c>
       <c r="F91" s="28">
-        <v>0.42099999999999999</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="G91" s="25">
         <v>0</v>
       </c>
       <c r="H91" s="28">
-        <v>4.4881521917269191</v>
+        <v>3.3447506306601968</v>
       </c>
       <c r="I91" s="28">
-        <v>2.9236111111111109E-2</v>
+        <v>3.0833333333333334E-2</v>
       </c>
       <c r="J91" s="28">
         <v>0</v>
       </c>
       <c r="K91"/>
       <c r="L91" s="27">
-        <v>5384</v>
+        <v>128086</v>
       </c>
       <c r="M91" s="29">
         <v>18994958</v>
@@ -4883,35 +5047,35 @@
         <v>102</v>
       </c>
       <c r="B92" s="25">
-        <v>42.040666761726968</v>
+        <v>44.952959714300185</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="26">
-        <v>5.8271512110548299E-4</v>
+        <v>2.3084182866302226E-4</v>
       </c>
       <c r="E92" s="27">
-        <v>1716.1044287007273</v>
+        <v>4331.9705349405185</v>
       </c>
       <c r="F92" s="28">
-        <v>9.0999999999999998E-2</v>
+        <v>0.125</v>
       </c>
       <c r="G92" s="25">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="H92" s="28">
-        <v>4.2059625095060298</v>
+        <v>4.4969990724001887</v>
       </c>
       <c r="I92" s="28">
-        <v>6.3194444444444444E-3</v>
+        <v>8.6805555555555559E-3</v>
       </c>
       <c r="J92" s="28">
-        <v>0</v>
+        <v>9.0106569649668379E-3</v>
       </c>
       <c r="K92"/>
       <c r="L92" s="27">
-        <v>32041</v>
+        <v>12693</v>
       </c>
       <c r="M92" s="29">
         <v>54985702</v>
@@ -4922,16 +5086,16 @@
         <v>103</v>
       </c>
       <c r="B93" s="25">
-        <v>100</v>
+        <v>50.841757560030644</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D93" s="26">
-        <v>0</v>
+        <v>2.8833163080370383E-4</v>
       </c>
       <c r="E93" s="27">
-        <v>0</v>
+        <v>3468.2285714285713</v>
       </c>
       <c r="F93" s="28">
         <v>0</v>
@@ -4940,7 +5104,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="28">
-        <v>10</v>
+        <v>5.0841757560030647</v>
       </c>
       <c r="I93" s="28">
         <v>0</v>
@@ -4950,7 +5114,7 @@
       </c>
       <c r="K93"/>
       <c r="L93" s="27">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="M93" s="29">
         <v>121388</v>
@@ -4961,35 +5125,35 @@
         <v>104</v>
       </c>
       <c r="B94" s="25">
-        <v>38.895664785832516</v>
+        <v>29.824701347387446</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D94" s="26">
-        <v>2.5098456689799107E-3</v>
+        <v>1.3559958720616336E-2</v>
       </c>
       <c r="E94" s="27">
-        <v>398.4308726067747</v>
+        <v>73.746537183746483</v>
       </c>
       <c r="F94" s="28">
-        <v>3.3000000000000002E-2</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="G94" s="25">
-        <v>5116</v>
+        <v>7513</v>
       </c>
       <c r="H94" s="28">
-        <v>3.8555934364533493</v>
+        <v>2.9370700852817553</v>
       </c>
       <c r="I94" s="28">
-        <v>2.2916666666666667E-3</v>
+        <v>1.8333333333333333E-2</v>
       </c>
       <c r="J94" s="28">
-        <v>0.34660542129902505</v>
+        <v>0.5090004945698936</v>
       </c>
       <c r="K94"/>
       <c r="L94" s="27">
-        <v>10864</v>
+        <v>58695</v>
       </c>
       <c r="M94" s="29">
         <v>4328553</v>
@@ -5000,35 +5164,35 @@
         <v>105</v>
       </c>
       <c r="B95" s="25">
-        <v>50.06715493213531</v>
+        <v>40.632578479978157</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D95" s="26">
-        <v>1.3291398292817198E-4</v>
+        <v>1.1754061759289306E-3</v>
       </c>
       <c r="E95" s="27">
-        <v>7523.6628830874006</v>
+        <v>850.76973430881787</v>
       </c>
       <c r="F95" s="28">
-        <v>0.23699999999999999</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="G95" s="25">
         <v>0</v>
       </c>
       <c r="H95" s="28">
-        <v>5.0116529932135307</v>
+        <v>4.0704453479978158</v>
       </c>
       <c r="I95" s="28">
-        <v>1.6458333333333332E-2</v>
+        <v>2.3958333333333331E-2</v>
       </c>
       <c r="J95" s="28">
         <v>0</v>
       </c>
       <c r="K95"/>
       <c r="L95" s="27">
-        <v>881</v>
+        <v>7791</v>
       </c>
       <c r="M95" s="29">
         <v>6628347</v>
@@ -5039,35 +5203,35 @@
         <v>106</v>
       </c>
       <c r="B96" s="25">
-        <v>37.093904718857068</v>
+        <v>37.663308141581709</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="26">
-        <v>1.7511008410216716E-3</v>
+        <v>1.8241424253979818E-3</v>
       </c>
       <c r="E96" s="27">
-        <v>571.06933911159263</v>
+        <v>548.20280811232453</v>
       </c>
       <c r="F96" s="28">
-        <v>0.94899999999999995</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="G96" s="25">
-        <v>339</v>
+        <v>644</v>
       </c>
       <c r="H96" s="28">
-        <v>3.7268646039324809</v>
+        <v>3.77688442587338</v>
       </c>
       <c r="I96" s="28">
-        <v>6.5902777777777768E-2</v>
+        <v>4.9722222222222223E-2</v>
       </c>
       <c r="J96" s="28">
-        <v>2.2967012865592166E-2</v>
+        <v>4.3630549514576261E-2</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="27">
-        <v>12922</v>
+        <v>13461</v>
       </c>
       <c r="M96" s="29">
         <v>7379358</v>
@@ -5078,35 +5242,35 @@
         <v>107</v>
       </c>
       <c r="B97" s="25">
-        <v>31.561947960149762</v>
+        <v>27.626310406223869</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="26">
-        <v>6.9584677337281341E-3</v>
+        <v>1.9217604907297205E-2</v>
       </c>
       <c r="E97" s="27">
-        <v>143.70979909167886</v>
+        <v>52.035620714644068</v>
       </c>
       <c r="F97" s="28">
-        <v>4.8970000000000002</v>
+        <v>5.5860000000000003</v>
       </c>
       <c r="G97" s="25">
-        <v>4127</v>
+        <v>9344</v>
       </c>
       <c r="H97" s="28">
-        <v>3.2302554930367169</v>
+        <v>2.8157010942459584</v>
       </c>
       <c r="I97" s="28">
-        <v>0.34006944444444448</v>
+        <v>0.38791666666666669</v>
       </c>
       <c r="J97" s="28">
-        <v>0.27960136311592582</v>
+        <v>0.63304946376428661</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="27">
-        <v>12991</v>
+        <v>35878</v>
       </c>
       <c r="M97" s="29">
         <v>1866934</v>
@@ -5117,35 +5281,35 @@
         <v>108</v>
       </c>
       <c r="B98" s="25">
-        <v>32.159441801475424</v>
+        <v>28.343131101309556</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="26">
-        <v>6.9072177589183633E-3</v>
+        <v>1.3848856378000728E-2</v>
       </c>
       <c r="E98" s="27">
-        <v>144.77609290786211</v>
+        <v>72.20812843351645</v>
       </c>
       <c r="F98" s="28">
-        <v>2.722</v>
+        <v>2.258</v>
       </c>
       <c r="G98" s="25">
         <v>0</v>
       </c>
       <c r="H98" s="28">
-        <v>3.2726525134808759</v>
+        <v>2.8813547767976222</v>
       </c>
       <c r="I98" s="28">
-        <v>0.18902777777777777</v>
+        <v>0.15680555555555556</v>
       </c>
       <c r="J98" s="28">
         <v>0</v>
       </c>
       <c r="K98"/>
       <c r="L98" s="27">
-        <v>46756</v>
+        <v>93745</v>
       </c>
       <c r="M98" s="29">
         <v>6769151</v>
@@ -5156,35 +5320,35 @@
         <v>109</v>
       </c>
       <c r="B99" s="25">
-        <v>36.965824491527748</v>
+        <v>40.130930898272325</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="26">
-        <v>1.8503362795133267E-3</v>
+        <v>8.8000974495001775E-4</v>
       </c>
       <c r="E99" s="27">
-        <v>540.4423028785983</v>
+        <v>1136.351052631579</v>
       </c>
       <c r="F99" s="28">
-        <v>0.52900000000000003</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="G99" s="25">
         <v>0</v>
       </c>
       <c r="H99" s="28">
-        <v>3.707603282486108</v>
+        <v>4.0172180898272325</v>
       </c>
       <c r="I99" s="28">
-        <v>3.6736111111111115E-2</v>
+        <v>1.375E-2</v>
       </c>
       <c r="J99" s="28">
         <v>0</v>
       </c>
       <c r="K99"/>
       <c r="L99" s="27">
-        <v>3995</v>
+        <v>1900</v>
       </c>
       <c r="M99" s="29">
         <v>2159067</v>
@@ -5195,35 +5359,35 @@
         <v>110</v>
       </c>
       <c r="B100" s="25">
-        <v>49.592356951116955</v>
+        <v>48.852902265703882</v>
       </c>
       <c r="C100" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="26">
-        <v>1.779851310989829E-4</v>
+        <v>6.8916151629432645E-5</v>
       </c>
       <c r="E100" s="27">
-        <v>5618.4468546637745</v>
+        <v>14510.386554621848</v>
       </c>
       <c r="F100" s="28">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="G100" s="25">
         <v>0</v>
       </c>
       <c r="H100" s="28">
-        <v>4.9592356951116958</v>
+        <v>4.8858735599037217</v>
       </c>
       <c r="I100" s="28">
-        <v>0</v>
+        <v>1.9444444444444444E-3</v>
       </c>
       <c r="J100" s="28">
         <v>0</v>
       </c>
       <c r="K100"/>
       <c r="L100" s="27">
-        <v>922</v>
+        <v>357</v>
       </c>
       <c r="M100" s="29">
         <v>5180208</v>
@@ -5234,35 +5398,35 @@
         <v>111</v>
       </c>
       <c r="B101" s="25">
-        <v>39.107937323163227</v>
+        <v>39.066989301127116</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="26">
-        <v>1.1886117457431432E-3</v>
+        <v>1.3175181338378839E-3</v>
       </c>
       <c r="E101" s="27">
-        <v>841.31761576592908</v>
+        <v>759.00283595113433</v>
       </c>
       <c r="F101" s="28">
-        <v>1.458</v>
+        <v>1.375</v>
       </c>
       <c r="G101" s="25">
         <v>0</v>
       </c>
       <c r="H101" s="28">
-        <v>3.9411687323163225</v>
+        <v>3.9353447634460452</v>
       </c>
       <c r="I101" s="28">
-        <v>0.10124999999999999</v>
+        <v>9.5486111111111105E-2</v>
       </c>
       <c r="J101" s="28">
         <v>0</v>
       </c>
       <c r="K101"/>
       <c r="L101" s="27">
-        <v>8271</v>
+        <v>9168</v>
       </c>
       <c r="M101" s="29">
         <v>6958538</v>
@@ -5273,35 +5437,35 @@
         <v>112</v>
       </c>
       <c r="B102" s="25">
-        <v>27.34028075544526</v>
+        <v>24.932542760936368</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D102" s="26">
-        <v>1.5344800543733989E-2</v>
+        <v>3.105557588748889E-2</v>
       </c>
       <c r="E102" s="27">
-        <v>65.168654173764907</v>
+        <v>32.200336700336699</v>
       </c>
       <c r="F102" s="28">
-        <v>7.4690000000000003</v>
+        <v>3.734</v>
       </c>
       <c r="G102" s="25">
-        <v>5280</v>
+        <v>0</v>
       </c>
       <c r="H102" s="28">
-        <v>2.8538606115532792</v>
+        <v>2.5710459427603034</v>
       </c>
       <c r="I102" s="28">
-        <v>0.51868055555555559</v>
+        <v>0.25930555555555557</v>
       </c>
       <c r="J102" s="28">
-        <v>0.35771630657913461</v>
+        <v>0</v>
       </c>
       <c r="K102"/>
       <c r="L102" s="27">
-        <v>587</v>
+        <v>1188</v>
       </c>
       <c r="M102" s="29">
         <v>38254</v>
@@ -5312,35 +5476,35 @@
         <v>113</v>
       </c>
       <c r="B103" s="25">
-        <v>29.979768372817567</v>
+        <v>26.959230862674239</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="26">
-        <v>9.2536345730747527E-3</v>
+        <v>2.0918173497376444E-2</v>
       </c>
       <c r="E103" s="27">
-        <v>108.06564621750833</v>
+        <v>47.805321058524541</v>
       </c>
       <c r="F103" s="28">
-        <v>6.3730000000000002</v>
+        <v>5.5759999999999996</v>
       </c>
       <c r="G103" s="25">
-        <v>6014</v>
+        <v>8563</v>
       </c>
       <c r="H103" s="28">
-        <v>3.0900032413013228</v>
+        <v>2.7540760269258118</v>
       </c>
       <c r="I103" s="28">
-        <v>0.44256944444444446</v>
+        <v>0.38722222222222219</v>
       </c>
       <c r="J103" s="28">
-        <v>0.40744429313767339</v>
+        <v>0.58013726008278965</v>
       </c>
       <c r="K103"/>
       <c r="L103" s="27">
-        <v>24891</v>
+        <v>56267</v>
       </c>
       <c r="M103" s="29">
         <v>2689862</v>
@@ -5351,35 +5515,35 @@
         <v>114</v>
       </c>
       <c r="B104" s="25">
-        <v>28.53656028043039</v>
+        <v>24.830496579201096</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D104" s="26">
-        <v>1.8679487219878579E-2</v>
+        <v>3.846165963573582E-2</v>
       </c>
       <c r="E104" s="27">
-        <v>53.534660145049756</v>
+        <v>25.999918086500656</v>
       </c>
       <c r="F104" s="28">
-        <v>2.0249999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="G104" s="25">
-        <v>6641</v>
+        <v>9315</v>
       </c>
       <c r="H104" s="28">
-        <v>2.8508512175886445</v>
+        <v>2.4668161845150975</v>
       </c>
       <c r="I104" s="28">
-        <v>0.140625</v>
+        <v>0.15625</v>
       </c>
       <c r="J104" s="28">
-        <v>0.44992310454394557</v>
+        <v>0.63108473405012089</v>
       </c>
       <c r="K104"/>
       <c r="L104" s="27">
-        <v>11858</v>
+        <v>24416</v>
       </c>
       <c r="M104" s="29">
         <v>634814</v>
@@ -5390,35 +5554,35 @@
         <v>115</v>
       </c>
       <c r="B105" s="25">
-        <v>48.347859401626621</v>
+        <v>48.273843994391733</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="26">
-        <v>1.8077671936371942E-4</v>
+        <v>1.193569583189531E-4</v>
       </c>
       <c r="E105" s="27">
-        <v>5531.6857365246151</v>
+        <v>8378.2295903330396</v>
       </c>
       <c r="F105" s="28">
-        <v>0.20100000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="G105" s="25">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="H105" s="28">
-        <v>4.8386279187301708</v>
+        <v>4.8324560532165357</v>
       </c>
       <c r="I105" s="28">
-        <v>1.3958333333333335E-2</v>
+        <v>1.8125000000000002E-2</v>
       </c>
       <c r="J105" s="28">
-        <v>3.4552143249120949E-3</v>
+        <v>3.6584622263775126E-3</v>
       </c>
       <c r="K105"/>
       <c r="L105" s="27">
-        <v>5139</v>
+        <v>3393</v>
       </c>
       <c r="M105" s="29">
         <v>28427333</v>
@@ -5429,35 +5593,35 @@
         <v>116</v>
       </c>
       <c r="B106" s="25">
-        <v>42.515554219597334</v>
+        <v>44.890057525456371</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="26">
-        <v>5.0565763969803864E-4</v>
+        <v>2.5438116589942601E-4</v>
       </c>
       <c r="E106" s="27">
-        <v>1977.6226472068445</v>
+        <v>3931.1086434573826</v>
       </c>
       <c r="F106" s="28">
-        <v>0.32700000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G106" s="25">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="H106" s="28">
-        <v>4.2583679219597332</v>
+        <v>4.4971632823722665</v>
       </c>
       <c r="I106" s="28">
-        <v>2.2708333333333334E-2</v>
+        <v>2.8749999999999998E-2</v>
       </c>
       <c r="J106" s="28">
-        <v>0</v>
+        <v>4.6747017337045995E-3</v>
       </c>
       <c r="K106"/>
       <c r="L106" s="27">
-        <v>9935</v>
+        <v>4998</v>
       </c>
       <c r="M106" s="29">
         <v>19647681</v>
@@ -5468,35 +5632,35 @@
         <v>117</v>
       </c>
       <c r="B107" s="25">
-        <v>38.664560882374545</v>
+        <v>38.864957996837106</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="26">
-        <v>1.3725205137448079E-3</v>
+        <v>1.3493939732784723E-3</v>
       </c>
       <c r="E107" s="27">
-        <v>728.58656026319295</v>
+        <v>741.07341503120199</v>
       </c>
       <c r="F107" s="28">
-        <v>0.72399999999999998</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="G107" s="25">
-        <v>3438</v>
+        <v>3497</v>
       </c>
       <c r="H107" s="28">
-        <v>3.8582472120628508</v>
+        <v>3.8721580359695582</v>
       </c>
       <c r="I107" s="28">
-        <v>5.0277777777777775E-2</v>
+        <v>3.1180555555555555E-2</v>
       </c>
       <c r="J107" s="28">
-        <v>0.23292209507936831</v>
+        <v>0.23691930380818818</v>
       </c>
       <c r="K107"/>
       <c r="L107" s="27">
-        <v>44986</v>
+        <v>44228</v>
       </c>
       <c r="M107" s="29">
         <v>32776195</v>
@@ -5507,35 +5671,35 @@
         <v>118</v>
       </c>
       <c r="B108" s="25">
-        <v>34.220181270667524</v>
+        <v>28.260814790184789</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="26">
-        <v>4.7937897796254732E-3</v>
+        <v>2.5534380633530775E-2</v>
       </c>
       <c r="E108" s="27">
-        <v>208.60322333077517</v>
+        <v>39.162884518406457</v>
       </c>
       <c r="F108" s="28">
-        <v>0.52600000000000002</v>
+        <v>1.3140000000000001</v>
       </c>
       <c r="G108" s="25">
-        <v>7250</v>
+        <v>12071</v>
       </c>
       <c r="H108" s="28">
-        <v>3.3838582175459431</v>
+        <v>2.7716762983988437</v>
       </c>
       <c r="I108" s="28">
-        <v>3.6527777777777777E-2</v>
+        <v>9.1249999999999998E-2</v>
       </c>
       <c r="J108" s="28">
-        <v>0.4911824285414253</v>
+        <v>0.81780180619635101</v>
       </c>
       <c r="K108"/>
       <c r="L108" s="27">
-        <v>2606</v>
+        <v>13881</v>
       </c>
       <c r="M108" s="29">
         <v>543620</v>
@@ -5546,35 +5710,35 @@
         <v>119</v>
       </c>
       <c r="B109" s="25">
-        <v>48.873036460205959</v>
+        <v>44.909448625745519</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D109" s="26">
-        <v>1.8421801132389364E-4</v>
+        <v>2.761352231166849E-4</v>
       </c>
       <c r="E109" s="27">
-        <v>5428.3508589276416</v>
+        <v>3621.4141343983329</v>
       </c>
       <c r="F109" s="28">
-        <v>8.2000000000000003E-2</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G109" s="25">
         <v>0</v>
       </c>
       <c r="H109" s="28">
-        <v>4.8890119793539295</v>
+        <v>4.494653195907885</v>
       </c>
       <c r="I109" s="28">
-        <v>5.6944444444444447E-3</v>
+        <v>1.2361111111111111E-2</v>
       </c>
       <c r="J109" s="28">
         <v>0</v>
       </c>
       <c r="K109"/>
       <c r="L109" s="27">
-        <v>3842</v>
+        <v>5759</v>
       </c>
       <c r="M109" s="29">
         <v>20855724</v>
@@ -5585,35 +5749,35 @@
         <v>120</v>
       </c>
       <c r="B110" s="25">
-        <v>26.422010541889343</v>
+        <v>26.838490234917529</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="26">
-        <v>2.8035264483627205E-2</v>
+        <v>1.3040108506103468E-2</v>
       </c>
       <c r="E110" s="27">
-        <v>35.669362084456424</v>
+        <v>76.68647845468054</v>
       </c>
       <c r="F110" s="28">
-        <v>2.214</v>
+        <v>6.6429999999999998</v>
       </c>
       <c r="G110" s="25">
-        <v>13021</v>
+        <v>7574</v>
       </c>
       <c r="H110" s="28">
-        <v>2.6001096900228942</v>
+        <v>2.7709315366351173</v>
       </c>
       <c r="I110" s="28">
-        <v>0.15375</v>
+        <v>0.46131944444444445</v>
       </c>
       <c r="J110" s="28">
-        <v>0.88216364166039996</v>
+        <v>0.51313320189969036</v>
       </c>
       <c r="K110"/>
       <c r="L110" s="27">
-        <v>14469</v>
+        <v>6730</v>
       </c>
       <c r="M110" s="29">
         <v>516100</v>
@@ -5624,16 +5788,16 @@
         <v>121</v>
       </c>
       <c r="B111" s="25">
-        <v>61.429201105160331</v>
+        <v>53.647688601323892</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D111" s="26">
-        <v>5.0320373041698815E-5</v>
+        <v>0</v>
       </c>
       <c r="E111" s="27">
-        <v>19872.666666666668</v>
+        <v>0</v>
       </c>
       <c r="F111" s="28">
         <v>0</v>
@@ -5642,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="28">
-        <v>6.1429201105160329</v>
+        <v>5.3647688601323891</v>
       </c>
       <c r="I111" s="28">
         <v>0</v>
@@ -5652,7 +5816,7 @@
       </c>
       <c r="K111"/>
       <c r="L111" s="27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M111" s="29">
         <v>59618</v>
@@ -5663,35 +5827,35 @@
         <v>122</v>
       </c>
       <c r="B112" s="25">
-        <v>41.869979355454937</v>
+        <v>35.883113362750017</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="26">
-        <v>1.1553660543945584E-3</v>
+        <v>2.2703141917149554E-3</v>
       </c>
       <c r="E112" s="27">
-        <v>865.52655428675007</v>
+        <v>440.4676690342219</v>
       </c>
       <c r="F112" s="28">
-        <v>0.50900000000000001</v>
+        <v>0.628</v>
       </c>
       <c r="G112" s="25">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="H112" s="28">
-        <v>4.1976021022121603</v>
+        <v>3.59425389333685</v>
       </c>
       <c r="I112" s="28">
-        <v>3.5347222222222224E-2</v>
+        <v>4.3611111111111114E-2</v>
       </c>
       <c r="J112" s="28">
-        <v>0</v>
+        <v>7.1407762714849971E-2</v>
       </c>
       <c r="K112"/>
       <c r="L112" s="27">
-        <v>5517</v>
+        <v>10841</v>
       </c>
       <c r="M112" s="29">
         <v>4775110</v>
@@ -5702,16 +5866,16 @@
         <v>123</v>
       </c>
       <c r="B113" s="25">
-        <v>43.007367971531409</v>
+        <v>40.452485728556404</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="26">
-        <v>6.1644631655657011E-4</v>
+        <v>7.9863172476182397E-4</v>
       </c>
       <c r="E113" s="27">
-        <v>1622.2012738853505</v>
+        <v>1252.141592920354</v>
       </c>
       <c r="F113" s="28">
         <v>0</v>
@@ -5720,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="28">
-        <v>4.3007367971531405</v>
+        <v>4.0452485728556402</v>
       </c>
       <c r="I113" s="28">
         <v>0</v>
@@ -5730,7 +5894,7 @@
       </c>
       <c r="K113"/>
       <c r="L113" s="27">
-        <v>785</v>
+        <v>1017</v>
       </c>
       <c r="M113" s="29">
         <v>1273428</v>
@@ -5741,35 +5905,35 @@
         <v>124</v>
       </c>
       <c r="B114" s="25">
-        <v>42.347078976139024</v>
+        <v>35.051988534809333</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="26">
-        <v>8.8048553141501808E-4</v>
+        <v>3.3794526148871102E-3</v>
       </c>
       <c r="E114" s="27">
-        <v>1135.7370045512407</v>
+        <v>295.90590961234847</v>
       </c>
       <c r="F114" s="28">
-        <v>0.91900000000000004</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="G114" s="25">
-        <v>247</v>
+        <v>386</v>
       </c>
       <c r="H114" s="28">
-        <v>4.2521803232251703</v>
+        <v>3.5300003971487448</v>
       </c>
       <c r="I114" s="28">
-        <v>6.3819444444444443E-2</v>
+        <v>9.1388888888888895E-2</v>
       </c>
       <c r="J114" s="28">
-        <v>1.6734077220652697E-2</v>
+        <v>2.6151229988550368E-2</v>
       </c>
       <c r="K114"/>
       <c r="L114" s="27">
-        <v>114694</v>
+        <v>440215</v>
       </c>
       <c r="M114" s="29">
         <v>130262220</v>
@@ -5819,35 +5983,35 @@
         <v>126</v>
       </c>
       <c r="B116" s="25">
-        <v>38.98689099753863</v>
+        <v>33.964571576571217</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D116" s="26">
-        <v>1.280310137238213E-3</v>
+        <v>5.3878889917433415E-3</v>
       </c>
       <c r="E116" s="27">
-        <v>781.06075310559004</v>
+        <v>185.60144827268115</v>
       </c>
       <c r="F116" s="28">
-        <v>2.2719999999999998</v>
+        <v>2.556</v>
       </c>
       <c r="G116" s="25">
-        <v>0</v>
+        <v>2860</v>
       </c>
       <c r="H116" s="28">
-        <v>3.9460224330871965</v>
+        <v>3.4303308577174185</v>
       </c>
       <c r="I116" s="28">
-        <v>0.15777777777777777</v>
+        <v>0.17749999999999999</v>
       </c>
       <c r="J116" s="28">
-        <v>0</v>
+        <v>0.1937629993970312</v>
       </c>
       <c r="K116"/>
       <c r="L116" s="27">
-        <v>5152</v>
+        <v>21681</v>
       </c>
       <c r="M116" s="29">
         <v>4024025</v>
@@ -5858,35 +6022,35 @@
         <v>127</v>
       </c>
       <c r="B117" s="25">
-        <v>24.507553505018102</v>
+        <v>22.939115576531062</v>
       </c>
       <c r="C117" t="s">
         <v>162</v>
       </c>
       <c r="D117" s="26">
-        <v>2.4974696356275302E-2</v>
+        <v>3.9650809716599192E-2</v>
       </c>
       <c r="E117" s="27">
-        <v>40.040526849037491</v>
+        <v>25.220165922144222</v>
       </c>
       <c r="F117" s="28">
-        <v>14.459</v>
+        <v>3.6150000000000002</v>
       </c>
       <c r="G117" s="25">
         <v>0</v>
       </c>
       <c r="H117" s="28">
-        <v>2.7519845171684767</v>
+        <v>2.3692240576531063</v>
       </c>
       <c r="I117" s="28">
-        <v>1.0040972222222222</v>
+        <v>0.25104166666666666</v>
       </c>
       <c r="J117" s="28">
         <v>0</v>
       </c>
       <c r="K117"/>
       <c r="L117" s="27">
-        <v>987</v>
+        <v>1567</v>
       </c>
       <c r="M117" s="29">
         <v>39520</v>
@@ -5897,35 +6061,35 @@
         <v>128</v>
       </c>
       <c r="B118" s="25">
-        <v>40.1153057822427</v>
+        <v>32.3391512471906</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D118" s="26">
-        <v>1.135980670907421E-3</v>
+        <v>7.7794551497890538E-3</v>
       </c>
       <c r="E118" s="27">
-        <v>880.29666842940242</v>
+        <v>128.54370656370656</v>
       </c>
       <c r="F118" s="28">
-        <v>0.34300000000000003</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="G118" s="25">
-        <v>2032</v>
+        <v>6311</v>
       </c>
       <c r="H118" s="28">
-        <v>4.004909753698346</v>
+        <v>3.2027835411807848</v>
       </c>
       <c r="I118" s="28">
-        <v>2.3819444444444445E-2</v>
+        <v>3.8750000000000007E-2</v>
       </c>
       <c r="J118" s="28">
-        <v>0.13766657859257603</v>
+        <v>0.42756583538274967</v>
       </c>
       <c r="K118"/>
       <c r="L118" s="27">
-        <v>3782</v>
+        <v>25900</v>
       </c>
       <c r="M118" s="29">
         <v>3329282</v>
@@ -5936,35 +6100,35 @@
         <v>129</v>
       </c>
       <c r="B119" s="25">
-        <v>25.337261940573402</v>
+        <v>21.603347289171676</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D119" s="26">
-        <v>3.3876229796624795E-2</v>
+        <v>4.2192433417031418E-2</v>
       </c>
       <c r="E119" s="27">
-        <v>29.519223538259073</v>
+        <v>23.700932110645685</v>
       </c>
       <c r="F119" s="28">
-        <v>4.7770000000000001</v>
+        <v>8.1890000000000001</v>
       </c>
       <c r="G119" s="25">
         <v>0</v>
       </c>
       <c r="H119" s="28">
-        <v>2.6332470273906736</v>
+        <v>2.3309388955838344</v>
       </c>
       <c r="I119" s="28">
-        <v>0.33173611111111112</v>
+        <v>0.56868055555555552</v>
       </c>
       <c r="J119" s="28">
         <v>0</v>
       </c>
       <c r="K119"/>
       <c r="L119" s="27">
-        <v>21276</v>
+        <v>26499</v>
       </c>
       <c r="M119" s="29">
         <v>628051</v>
@@ -5975,35 +6139,35 @@
         <v>130</v>
       </c>
       <c r="B120" s="25">
-        <v>43.235568704120169</v>
+        <v>36.449866464912589</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="26">
-        <v>7.8806179829061553E-4</v>
+        <v>2.5270729218511809E-3</v>
       </c>
       <c r="E120" s="27">
-        <v>1268.9360176690452</v>
+        <v>395.71473832558041</v>
       </c>
       <c r="F120" s="28">
-        <v>0.14899999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="G120" s="25">
-        <v>481</v>
+        <v>818</v>
       </c>
       <c r="H120" s="28">
-        <v>4.3234022957251881</v>
+        <v>3.6475697537113021</v>
       </c>
       <c r="I120" s="28">
-        <v>1.0347222222222221E-2</v>
+        <v>2.7083333333333334E-2</v>
       </c>
       <c r="J120" s="28">
-        <v>3.2587413534955249E-2</v>
+        <v>5.5418927799570465E-2</v>
       </c>
       <c r="K120"/>
       <c r="L120" s="27">
-        <v>29430</v>
+        <v>94373</v>
       </c>
       <c r="M120" s="29">
         <v>37344787</v>
@@ -6014,35 +6178,35 @@
         <v>131</v>
       </c>
       <c r="B121" s="25">
-        <v>39.762171627957954</v>
+        <v>41.159102255478608</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="26">
-        <v>1.117244962347315E-3</v>
+        <v>5.6558699588300798E-4</v>
       </c>
       <c r="E121" s="27">
-        <v>895.05885790616139</v>
+        <v>1768.0745973283492</v>
       </c>
       <c r="F121" s="28">
-        <v>0.30599999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="G121" s="25">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H121" s="28">
-        <v>3.9816165728687616</v>
+        <v>4.1181480543860278</v>
       </c>
       <c r="I121" s="28">
-        <v>2.1249999999999998E-2</v>
+        <v>1.1388888888888889E-2</v>
       </c>
       <c r="J121" s="28">
-        <v>9.7558992703400335E-3</v>
+        <v>1.1788378284994207E-2</v>
       </c>
       <c r="K121"/>
       <c r="L121" s="27">
-        <v>35934</v>
+        <v>18191</v>
       </c>
       <c r="M121" s="29">
         <v>32163045</v>
@@ -6053,35 +6217,35 @@
         <v>132</v>
       </c>
       <c r="B122" s="25">
-        <v>53.027843666695887</v>
+        <v>54.177467018676317</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="26">
-        <v>4.579789363992061E-5</v>
+        <v>3.8462932188427353E-5</v>
       </c>
       <c r="E122" s="27">
-        <v>21835.065338645418</v>
+        <v>25999.057874762806</v>
       </c>
       <c r="F122" s="28">
-        <v>0.05</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G122" s="25">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="H122" s="28">
-        <v>5.3038260333362555</v>
+        <v>5.4169047571747733</v>
       </c>
       <c r="I122" s="28">
-        <v>3.4722222222222225E-3</v>
+        <v>1.5972222222222221E-3</v>
       </c>
       <c r="J122" s="28">
-        <v>0</v>
+        <v>1.3211113595252129E-2</v>
       </c>
       <c r="K122"/>
       <c r="L122" s="27">
-        <v>2510</v>
+        <v>2108</v>
       </c>
       <c r="M122" s="29">
         <v>54806014</v>
@@ -6092,35 +6256,35 @@
         <v>133</v>
       </c>
       <c r="B123" s="25">
-        <v>32.976573627841177</v>
+        <v>36.171925977462706</v>
       </c>
       <c r="C123" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D123" s="26">
-        <v>3.8475749649060967E-3</v>
+        <v>1.5061777637608296E-3</v>
       </c>
       <c r="E123" s="27">
-        <v>259.90396785534909</v>
+        <v>663.9322555812164</v>
       </c>
       <c r="F123" s="28">
-        <v>3.8650000000000002</v>
+        <v>5.577</v>
       </c>
       <c r="G123" s="25">
-        <v>818</v>
+        <v>535</v>
       </c>
       <c r="H123" s="28">
-        <v>3.3726363033374942</v>
+        <v>3.7297555101701376</v>
       </c>
       <c r="I123" s="28">
-        <v>0.26840277777777777</v>
+        <v>0.38729166666666665</v>
       </c>
       <c r="J123" s="28">
-        <v>5.5418927799570465E-2</v>
+        <v>3.6245875761332765E-2</v>
       </c>
       <c r="K123"/>
       <c r="L123" s="27">
-        <v>9955</v>
+        <v>3897</v>
       </c>
       <c r="M123" s="29">
         <v>2587344</v>
@@ -6131,35 +6295,35 @@
         <v>134</v>
       </c>
       <c r="B124" s="25">
-        <v>49.459278482278123</v>
+        <v>39.457815625504978</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D124" s="26">
-        <v>1.2859343849958146E-4</v>
+        <v>1.9305528035121913E-3</v>
       </c>
       <c r="E124" s="27">
-        <v>7776.4465408805036</v>
+        <v>517.98634991010488</v>
       </c>
       <c r="F124" s="28">
-        <v>5.8000000000000003E-2</v>
+        <v>0.106</v>
       </c>
       <c r="G124" s="25">
-        <v>242</v>
+        <v>517</v>
       </c>
       <c r="H124" s="28">
-        <v>4.9454966484893248</v>
+        <v>3.9444872570485767</v>
       </c>
       <c r="I124" s="28">
-        <v>4.0277777777777777E-3</v>
+        <v>7.3611111111111108E-3</v>
       </c>
       <c r="J124" s="28">
-        <v>1.6395330718210335E-2</v>
+        <v>3.5026388352540259E-2</v>
       </c>
       <c r="K124"/>
       <c r="L124" s="27">
-        <v>3816</v>
+        <v>57289</v>
       </c>
       <c r="M124" s="29">
         <v>29674920</v>
@@ -6170,35 +6334,35 @@
         <v>135</v>
       </c>
       <c r="B125" s="25">
-        <v>29.444313446552652</v>
+        <v>26.463628754523473</v>
       </c>
       <c r="C125" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="26">
-        <v>1.2866638941124995E-2</v>
+        <v>2.7710091146068379E-2</v>
       </c>
       <c r="E125" s="27">
-        <v>77.720374728457642</v>
+        <v>36.087936150361024</v>
       </c>
       <c r="F125" s="28">
-        <v>1.2390000000000001</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="G125" s="25">
-        <v>3875</v>
+        <v>6990</v>
       </c>
       <c r="H125" s="28">
-        <v>2.943990990715982</v>
+        <v>2.6099227810775716</v>
       </c>
       <c r="I125" s="28">
-        <v>8.6041666666666669E-2</v>
+        <v>3.6388888888888887E-2</v>
       </c>
       <c r="J125" s="28">
-        <v>0.26252853939283077</v>
+        <v>0.47356761041442247</v>
       </c>
       <c r="K125"/>
       <c r="L125" s="27">
-        <v>220960</v>
+        <v>475868</v>
       </c>
       <c r="M125" s="29">
         <v>17173094</v>
@@ -6209,38 +6373,38 @@
         <v>136</v>
       </c>
       <c r="B126" s="25">
-        <v>48.167338246752792</v>
+        <v>48.013831688649859</v>
       </c>
       <c r="C126" t="s">
         <v>15</v>
       </c>
       <c r="D126" s="26">
-        <v>1.5734197477843283E-4</v>
+        <v>1.7088348321401401E-4</v>
       </c>
       <c r="E126" s="27">
-        <v>6355.5831265508687</v>
+        <v>5851.9406392694063</v>
       </c>
       <c r="F126" s="28">
         <v>0</v>
       </c>
       <c r="G126" s="25">
-        <v>2299</v>
+        <v>2667</v>
       </c>
       <c r="H126" s="28">
-        <v>4.8011582604929792</v>
+        <v>4.7833144304247099</v>
       </c>
       <c r="I126" s="28">
         <v>0</v>
       </c>
       <c r="J126" s="28">
-        <v>0.15575564182299817</v>
+        <v>0.18068738440275603</v>
       </c>
       <c r="K126"/>
       <c r="L126" s="27">
-        <v>806</v>
+        <v>876</v>
       </c>
       <c r="M126" s="29">
-        <v>5122600</v>
+        <v>5126300</v>
       </c>
     </row>
     <row r="127" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6248,16 +6412,16 @@
         <v>137</v>
       </c>
       <c r="B127" s="25">
-        <v>58.674187498023215</v>
+        <v>59.401080538683608</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="26">
-        <v>1.2532863331064984E-5</v>
+        <v>1.1637658807417486E-5</v>
       </c>
       <c r="E127" s="27">
-        <v>79790.226190476198</v>
+        <v>85927.935897435891</v>
       </c>
       <c r="F127" s="28">
         <v>2.1000000000000001E-2</v>
@@ -6266,7 +6430,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="28">
-        <v>5.8678562498023217</v>
+        <v>5.9405455538683611</v>
       </c>
       <c r="I127" s="28">
         <v>1.4583333333333334E-3</v>
@@ -6276,7 +6440,7 @@
       </c>
       <c r="K127"/>
       <c r="L127" s="27">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M127" s="29">
         <v>6702379</v>
@@ -6287,35 +6451,35 @@
         <v>138</v>
       </c>
       <c r="B128" s="25">
-        <v>59.291875604442566</v>
+        <v>54.402381536080661</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
       </c>
       <c r="D128" s="26">
-        <v>1.3847544110197802E-5</v>
+        <v>3.6329907392559173E-5</v>
       </c>
       <c r="E128" s="27">
-        <v>72214.971264367807</v>
+        <v>27525.531215772178</v>
       </c>
       <c r="F128" s="28">
-        <v>1.7000000000000001E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G128" s="25">
         <v>0</v>
       </c>
       <c r="H128" s="28">
-        <v>5.929541727110923</v>
+        <v>5.4413006536080664</v>
       </c>
       <c r="I128" s="28">
-        <v>1.1805555555555556E-3</v>
+        <v>3.5416666666666665E-3</v>
       </c>
       <c r="J128" s="28">
         <v>0</v>
       </c>
       <c r="K128"/>
       <c r="L128" s="27">
-        <v>348</v>
+        <v>913</v>
       </c>
       <c r="M128" s="29">
         <v>25130810</v>
@@ -6326,35 +6490,35 @@
         <v>139</v>
       </c>
       <c r="B129" s="25">
-        <v>50.782689862932607</v>
+        <v>54.738396334689142</v>
       </c>
       <c r="C129" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="26">
-        <v>6.0747195997984945E-5</v>
+        <v>2.5430378888426031E-5</v>
       </c>
       <c r="E129" s="27">
-        <v>16461.665161189845</v>
+        <v>39323.047619047618</v>
       </c>
       <c r="F129" s="28">
-        <v>2.4E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G129" s="25">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H129" s="28">
-        <v>5.0786605874124788</v>
+        <v>5.4739092530735292</v>
       </c>
       <c r="I129" s="28">
-        <v>1.6666666666666668E-3</v>
+        <v>1.1805555555555556E-3</v>
       </c>
       <c r="J129" s="28">
-        <v>1.0839888078155594E-3</v>
+        <v>2.8454706205158433E-3</v>
       </c>
       <c r="K129"/>
       <c r="L129" s="27">
-        <v>12842</v>
+        <v>5376</v>
       </c>
       <c r="M129" s="29">
         <v>211400704</v>
@@ -6365,35 +6529,35 @@
         <v>140</v>
       </c>
       <c r="B130" s="25">
-        <v>35.367154645945561</v>
+        <v>28.961953174041508</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D130" s="26">
-        <v>3.8085891078768939E-3</v>
+        <v>9.8964737900215163E-3</v>
       </c>
       <c r="E130" s="27">
-        <v>262.56442259203226</v>
+        <v>101.04609189267866</v>
       </c>
       <c r="F130" s="28">
-        <v>3.3610000000000002</v>
+        <v>6.585</v>
       </c>
       <c r="G130" s="25">
-        <v>2486</v>
+        <v>0</v>
       </c>
       <c r="H130" s="28">
-        <v>3.5898938218264549</v>
+        <v>3.0333828174041506</v>
       </c>
       <c r="I130" s="28">
-        <v>0.23340277777777779</v>
+        <v>0.45729166666666665</v>
       </c>
       <c r="J130" s="28">
-        <v>0.16842476101434253</v>
+        <v>0</v>
       </c>
       <c r="K130"/>
       <c r="L130" s="27">
-        <v>7932</v>
+        <v>20611</v>
       </c>
       <c r="M130" s="29">
         <v>2082661</v>
@@ -6404,35 +6568,35 @@
         <v>141</v>
       </c>
       <c r="B131" s="25">
-        <v>30.162286202493942</v>
+        <v>26.780609078065631</v>
       </c>
       <c r="C131" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="26">
-        <v>1.1136870065641118E-2</v>
+        <v>2.6148682978665402E-2</v>
       </c>
       <c r="E131" s="27">
-        <v>89.791835058321013</v>
+        <v>38.242843848613553</v>
       </c>
       <c r="F131" s="28">
-        <v>1.1499999999999999</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="G131" s="25">
-        <v>3775</v>
+        <v>5885</v>
       </c>
       <c r="H131" s="28">
-        <v>3.014611592648329</v>
+        <v>2.6556071111357635</v>
       </c>
       <c r="I131" s="28">
-        <v>7.9861111111111105E-2</v>
+        <v>5.8055555555555555E-2</v>
       </c>
       <c r="J131" s="28">
-        <v>0.2557536093439835</v>
+        <v>0.39870463337466039</v>
       </c>
       <c r="K131"/>
       <c r="L131" s="27">
-        <v>60870</v>
+        <v>142919</v>
       </c>
       <c r="M131" s="29">
         <v>5465629</v>
@@ -6443,35 +6607,35 @@
         <v>142</v>
       </c>
       <c r="B132" s="25">
-        <v>46.484611775758957</v>
+        <v>38.277942216737877</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D132" s="26">
-        <v>3.3905275055825965E-4</v>
+        <v>2.204895837481353E-3</v>
       </c>
       <c r="E132" s="27">
-        <v>2949.3935629587804</v>
+        <v>453.53616393157938</v>
       </c>
       <c r="F132" s="28">
-        <v>2.7E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="G132" s="25">
         <v>0</v>
       </c>
       <c r="H132" s="28">
-        <v>4.6490236775758955</v>
+        <v>3.8312108883404545</v>
       </c>
       <c r="I132" s="28">
-        <v>1.8749999999999999E-3</v>
+        <v>1.1388888888888889E-2</v>
       </c>
       <c r="J132" s="28">
         <v>0</v>
       </c>
       <c r="K132"/>
       <c r="L132" s="27">
-        <v>1771</v>
+        <v>11517</v>
       </c>
       <c r="M132" s="29">
         <v>5223376</v>
@@ -6482,35 +6646,35 @@
         <v>143</v>
       </c>
       <c r="B133" s="25">
-        <v>55.422641053283215</v>
+        <v>47.880584250452735</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
       </c>
       <c r="D133" s="26">
-        <v>3.7357915863286084E-5</v>
+        <v>2.3240682282808358E-4</v>
       </c>
       <c r="E133" s="27">
-        <v>26768.088553429217</v>
+        <v>4302.7996675455688</v>
       </c>
       <c r="F133" s="28">
-        <v>2.1999999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G133" s="25">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="H133" s="28">
-        <v>5.5412997033513971</v>
+        <v>4.7873345415537454</v>
       </c>
       <c r="I133" s="28">
-        <v>1.5277777777777776E-3</v>
+        <v>2.9166666666666668E-3</v>
       </c>
       <c r="J133" s="28">
-        <v>1.4227353102579216E-2</v>
+        <v>1.5988834915279498E-2</v>
       </c>
       <c r="K133"/>
       <c r="L133" s="27">
-        <v>8413</v>
+        <v>52338</v>
       </c>
       <c r="M133" s="29">
         <v>225199929</v>
@@ -6521,35 +6685,35 @@
         <v>144</v>
       </c>
       <c r="B134" s="25">
-        <v>40.901765920600923</v>
+        <v>39.431360160883266</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="26">
-        <v>7.1456526018064028E-4</v>
+        <v>1.5181639731972928E-3</v>
       </c>
       <c r="E134" s="27">
-        <v>1399.4523043944266</v>
+        <v>658.69037709673353</v>
       </c>
       <c r="F134" s="28">
-        <v>0.95699999999999996</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="G134" s="25">
-        <v>1022.9999999999999</v>
+        <v>1089</v>
       </c>
       <c r="H134" s="28">
-        <v>4.1031833386201217</v>
+        <v>3.9534247839317986</v>
       </c>
       <c r="I134" s="28">
-        <v>6.6458333333333328E-2</v>
+        <v>5.8888888888888886E-2</v>
       </c>
       <c r="J134" s="28">
-        <v>6.9307534399707313E-2</v>
+        <v>7.3778988231946507E-2</v>
       </c>
       <c r="K134"/>
       <c r="L134" s="27">
-        <v>3732</v>
+        <v>7929</v>
       </c>
       <c r="M134" s="29">
         <v>5222756</v>
@@ -6560,35 +6724,35 @@
         <v>145</v>
       </c>
       <c r="B135" s="25">
-        <v>34.065395214857737</v>
+        <v>27.097548003286253</v>
       </c>
       <c r="C135" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="26">
-        <v>6.1370513807452697E-3</v>
+        <v>2.3405924297223171E-2</v>
       </c>
       <c r="E135" s="27">
-        <v>162.94470063220527</v>
+        <v>42.724226025059728</v>
       </c>
       <c r="F135" s="28">
-        <v>0.78200000000000003</v>
+        <v>2.5760000000000001</v>
       </c>
       <c r="G135" s="25">
-        <v>3772</v>
+        <v>6167</v>
       </c>
       <c r="H135" s="28">
-        <v>3.3972761520081884</v>
+        <v>2.7216404733840509</v>
       </c>
       <c r="I135" s="28">
-        <v>5.4305555555555558E-2</v>
+        <v>0.1788888888888889</v>
       </c>
       <c r="J135" s="28">
-        <v>0.25555036144251808</v>
+        <v>0.41780993611240963</v>
       </c>
       <c r="K135"/>
       <c r="L135" s="27">
-        <v>26890</v>
+        <v>102555</v>
       </c>
       <c r="M135" s="29">
         <v>4381583</v>
@@ -6599,16 +6763,16 @@
         <v>146</v>
       </c>
       <c r="B136" s="25">
-        <v>57.074531150362645</v>
+        <v>55.699413594789654</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="26">
-        <v>2.4783405645681738E-5</v>
+        <v>1.7655434995375044E-5</v>
       </c>
       <c r="E136" s="27">
-        <v>40349.579646017701</v>
+        <v>56639.782608695648</v>
       </c>
       <c r="F136" s="28">
         <v>1.6E-2</v>
@@ -6617,7 +6781,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="28">
-        <v>5.7077864483695979</v>
+        <v>5.5702746928122986</v>
       </c>
       <c r="I136" s="28">
         <v>1.1111111111111111E-3</v>
@@ -6627,7 +6791,7 @@
       </c>
       <c r="K136"/>
       <c r="L136" s="27">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="M136" s="29">
         <v>9119005</v>
@@ -6638,35 +6802,35 @@
         <v>147</v>
       </c>
       <c r="B137" s="25">
-        <v>42.055606108012803</v>
+        <v>33.788703492055518</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D137" s="26">
-        <v>1.0589169184451138E-3</v>
+        <v>6.0781415585622611E-3</v>
       </c>
       <c r="E137" s="27">
-        <v>944.36115107913668</v>
+        <v>164.52397338316393</v>
       </c>
       <c r="F137" s="28">
-        <v>0.67300000000000004</v>
+        <v>4.2939999999999996</v>
       </c>
       <c r="G137" s="25">
-        <v>642</v>
+        <v>1722</v>
       </c>
       <c r="H137" s="28">
-        <v>4.215231939043254</v>
+        <v>3.4566622529947701</v>
       </c>
       <c r="I137" s="28">
-        <v>4.6736111111111117E-2</v>
+        <v>0.29819444444444443</v>
       </c>
       <c r="J137" s="28">
-        <v>4.3495050913599322E-2</v>
+        <v>0.11666429544114956</v>
       </c>
       <c r="K137"/>
       <c r="L137" s="27">
-        <v>7645</v>
+        <v>43882</v>
       </c>
       <c r="M137" s="29">
         <v>7219641</v>
@@ -6677,35 +6841,35 @@
         <v>148</v>
       </c>
       <c r="B138" s="25">
-        <v>38.659069528995147</v>
+        <v>29.479838168962903</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D138" s="26">
-        <v>1.7436756609790669E-3</v>
+        <v>1.3499397396507103E-2</v>
       </c>
       <c r="E138" s="27">
-        <v>573.50115183606101</v>
+        <v>74.077380688025727</v>
       </c>
       <c r="F138" s="28">
-        <v>1.2030000000000001</v>
+        <v>2.625</v>
       </c>
       <c r="G138" s="25">
         <v>0</v>
       </c>
       <c r="H138" s="28">
-        <v>3.8909694528995149</v>
+        <v>3.0025967926657531</v>
       </c>
       <c r="I138" s="28">
-        <v>8.3541666666666667E-2</v>
+        <v>0.18229166666666666</v>
       </c>
       <c r="J138" s="28">
-        <v>0</v>
+        <v>7.4524230537319702E-4</v>
       </c>
       <c r="K138"/>
       <c r="L138" s="27">
-        <v>58168</v>
+        <v>450332</v>
       </c>
       <c r="M138" s="29">
         <v>33359415</v>
@@ -6716,35 +6880,35 @@
         <v>149</v>
       </c>
       <c r="B139" s="25">
-        <v>46.870124366043633</v>
+        <v>34.622110257673015</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D139" s="26">
-        <v>4.5939144096850603E-4</v>
+        <v>3.9223153530341366E-3</v>
       </c>
       <c r="E139" s="27">
-        <v>2176.7928411808521</v>
+        <v>254.95145341295478</v>
       </c>
       <c r="F139" s="28">
-        <v>0.47599999999999998</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="G139" s="25">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="H139" s="28">
-        <v>4.6939752337697325</v>
+        <v>3.4733776924339681</v>
       </c>
       <c r="I139" s="28">
-        <v>3.3055555555555553E-2</v>
+        <v>3.7222222222222226E-2</v>
       </c>
       <c r="J139" s="28">
-        <v>2.953869501297399E-2</v>
+        <v>0</v>
       </c>
       <c r="K139"/>
       <c r="L139" s="27">
-        <v>51014</v>
+        <v>435561</v>
       </c>
       <c r="M139" s="29">
         <v>111046910</v>
@@ -6755,35 +6919,35 @@
         <v>150</v>
       </c>
       <c r="B140" s="25">
-        <v>31.360503824068623</v>
+        <v>31.506390979881303</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="26">
-        <v>4.2826679366087259E-3</v>
+        <v>6.0126729634627091E-3</v>
       </c>
       <c r="E140" s="27">
-        <v>233.49930809528516</v>
+        <v>166.31538187370467</v>
       </c>
       <c r="F140" s="28">
-        <v>10.946</v>
+        <v>7.4039999999999999</v>
       </c>
       <c r="G140" s="25">
-        <v>2181</v>
+        <v>2461</v>
       </c>
       <c r="H140" s="28">
-        <v>3.3493159266369932</v>
+        <v>3.2882159951379171</v>
       </c>
       <c r="I140" s="28">
-        <v>0.76013888888888892</v>
+        <v>0.51416666666666666</v>
       </c>
       <c r="J140" s="28">
-        <v>0.14776122436535843</v>
+        <v>0.1667310285021307</v>
       </c>
       <c r="K140"/>
       <c r="L140" s="27">
-        <v>161872</v>
+        <v>227261</v>
       </c>
       <c r="M140" s="29">
         <v>37797000</v>
@@ -6794,35 +6958,35 @@
         <v>151</v>
       </c>
       <c r="B141" s="25">
-        <v>27.817262676950545</v>
+        <v>24.419277962764959</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D141" s="26">
-        <v>2.8123344364429197E-2</v>
+        <v>5.1194821203897789E-2</v>
       </c>
       <c r="E141" s="27">
-        <v>35.557648729175114</v>
+        <v>19.533225753777291</v>
       </c>
       <c r="F141" s="28">
-        <v>1.6439999999999999</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="G141" s="25">
-        <v>22387</v>
+        <v>26730</v>
       </c>
       <c r="H141" s="28">
-        <v>2.6643059086915111</v>
+        <v>2.3322505827374758</v>
       </c>
       <c r="I141" s="28">
-        <v>0.11416666666666667</v>
+        <v>0.23805555555555555</v>
       </c>
       <c r="J141" s="28">
-        <v>1.5167035900354329</v>
+        <v>1.8109388020568689</v>
       </c>
       <c r="K141"/>
       <c r="L141" s="27">
-        <v>285956</v>
+        <v>520545</v>
       </c>
       <c r="M141" s="29">
         <v>10167923</v>
@@ -6833,35 +6997,35 @@
         <v>152</v>
       </c>
       <c r="B142" s="25">
-        <v>35.806601644852776</v>
+        <v>27.713892058402678</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D142" s="26">
-        <v>4.4408440265290439E-3</v>
+        <v>1.835507915990451E-2</v>
       </c>
       <c r="E142" s="27">
-        <v>225.18241893345629</v>
+        <v>54.480832868562928</v>
       </c>
       <c r="F142" s="28">
-        <v>4.9000000000000002E-2</v>
+        <v>0.439</v>
       </c>
       <c r="G142" s="25">
         <v>0</v>
       </c>
       <c r="H142" s="28">
-        <v>3.5816809978186113</v>
+        <v>2.7805350391736012</v>
       </c>
       <c r="I142" s="28">
-        <v>3.402777777777778E-3</v>
+        <v>3.048611111111111E-2</v>
       </c>
       <c r="J142" s="28">
         <v>0</v>
       </c>
       <c r="K142"/>
       <c r="L142" s="27">
-        <v>13014</v>
+        <v>53790</v>
       </c>
       <c r="M142" s="29">
         <v>2930524</v>
@@ -6872,35 +7036,35 @@
         <v>153</v>
       </c>
       <c r="B143" s="25">
-        <v>40.352966272110393</v>
+        <v>32.504059052920795</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D143" s="26">
-        <v>1.4003721918057158E-3</v>
+        <v>7.118131688311634E-3</v>
       </c>
       <c r="E143" s="27">
-        <v>714.09587097737619</v>
+        <v>140.48630227536466</v>
       </c>
       <c r="F143" s="28">
-        <v>1.6879999999999999</v>
+        <v>2.0760000000000001</v>
       </c>
       <c r="G143" s="25">
-        <v>2249</v>
+        <v>3892</v>
       </c>
       <c r="H143" s="28">
-        <v>4.0552264761978485</v>
+        <v>3.2672878775419658</v>
       </c>
       <c r="I143" s="28">
-        <v>0.11722222222222221</v>
+        <v>0.14416666666666667</v>
       </c>
       <c r="J143" s="28">
-        <v>0.15236817679857456</v>
+        <v>0.26368027750113482</v>
       </c>
       <c r="K143"/>
       <c r="L143" s="27">
-        <v>26786</v>
+        <v>136154</v>
       </c>
       <c r="M143" s="29">
         <v>19127772</v>
@@ -6911,35 +7075,35 @@
         <v>154</v>
       </c>
       <c r="B144" s="25">
-        <v>35.712122329534637</v>
+        <v>36.380424744217351</v>
       </c>
       <c r="C144" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="26">
-        <v>1.9219389612735269E-3</v>
+        <v>2.2893384343614948E-3</v>
       </c>
       <c r="E144" s="27">
-        <v>520.3078870607701</v>
+        <v>436.80741343902866</v>
       </c>
       <c r="F144" s="28">
-        <v>5.5780000000000003</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="G144" s="25">
-        <v>2157</v>
+        <v>3296</v>
       </c>
       <c r="H144" s="28">
-        <v>3.6728070421714332</v>
+        <v>3.7134206383140675</v>
       </c>
       <c r="I144" s="28">
-        <v>0.38736111111111116</v>
+        <v>0.32569444444444445</v>
       </c>
       <c r="J144" s="28">
-        <v>0.1461352411536351</v>
+        <v>0.22330169441000519</v>
       </c>
       <c r="K144"/>
       <c r="L144" s="27">
-        <v>280434</v>
+        <v>334042</v>
       </c>
       <c r="M144" s="29">
         <v>145912022</v>
@@ -6950,35 +7114,35 @@
         <v>155</v>
       </c>
       <c r="B145" s="25">
-        <v>40.194704275061476</v>
+        <v>40.90138432076462</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="26">
-        <v>1.1427695983818648E-3</v>
+        <v>6.6922672565402502E-4</v>
       </c>
       <c r="E145" s="27">
-        <v>875.06703137358295</v>
+        <v>1494.261902082161</v>
       </c>
       <c r="F145" s="28">
-        <v>0.19400000000000001</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="G145" s="25">
-        <v>1383</v>
+        <v>1199</v>
       </c>
       <c r="H145" s="28">
-        <v>4.0141423659152586</v>
+        <v>4.088077790947894</v>
       </c>
       <c r="I145" s="28">
-        <v>1.3472222222222222E-2</v>
+        <v>2.0208333333333332E-2</v>
       </c>
       <c r="J145" s="28">
-        <v>9.3697282575557414E-2</v>
+        <v>8.1231411285678484E-2</v>
       </c>
       <c r="K145"/>
       <c r="L145" s="27">
-        <v>15172</v>
+        <v>8885</v>
       </c>
       <c r="M145" s="29">
         <v>13276517</v>
@@ -6989,35 +7153,35 @@
         <v>156</v>
       </c>
       <c r="B146" s="25">
-        <v>30.968243151990478</v>
+        <v>25.280863417668481</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="26">
-        <v>1.5892877152354986E-2</v>
+        <v>2.754640869532738E-2</v>
       </c>
       <c r="E146" s="27">
-        <v>62.921269095182133</v>
+        <v>36.302372881355936</v>
       </c>
       <c r="F146" s="28">
         <v>0</v>
       </c>
       <c r="G146" s="25">
-        <v>6611</v>
+        <v>3231</v>
       </c>
       <c r="H146" s="28">
-        <v>3.0520352526461187</v>
+        <v>2.5061965427790227</v>
       </c>
       <c r="I146" s="28">
         <v>0</v>
       </c>
       <c r="J146" s="28">
-        <v>0.44789062552929138</v>
+        <v>0.21889798987825451</v>
       </c>
       <c r="K146"/>
       <c r="L146" s="27">
-        <v>851</v>
+        <v>1475</v>
       </c>
       <c r="M146" s="29">
         <v>53546</v>
@@ -7028,35 +7192,35 @@
         <v>157</v>
       </c>
       <c r="B147" s="25">
-        <v>32.822928995463961</v>
+        <v>26.196626598265439</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="26">
-        <v>5.4609248322948353E-3</v>
+        <v>2.2179923102369294E-2</v>
       </c>
       <c r="E147" s="27">
-        <v>183.11916583912614</v>
+        <v>45.085819070904641</v>
       </c>
       <c r="F147" s="28">
-        <v>7.7469999999999999</v>
+        <v>3.8740000000000001</v>
       </c>
       <c r="G147" s="25">
         <v>0</v>
       </c>
       <c r="H147" s="28">
-        <v>3.4436887328797297</v>
+        <v>2.7003709931598774</v>
       </c>
       <c r="I147" s="28">
-        <v>0.53798611111111105</v>
+        <v>0.26902777777777781</v>
       </c>
       <c r="J147" s="28">
         <v>0</v>
       </c>
       <c r="K147"/>
       <c r="L147" s="27">
-        <v>1007</v>
+        <v>4090</v>
       </c>
       <c r="M147" s="29">
         <v>184401</v>
@@ -7067,16 +7231,16 @@
         <v>158</v>
       </c>
       <c r="B148" s="25">
-        <v>38.738025740587091</v>
+        <v>21.817944644992352</v>
       </c>
       <c r="C148" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D148" s="26">
-        <v>2.9457632992548953E-3</v>
+        <v>8.4040894125801416E-2</v>
       </c>
       <c r="E148" s="27">
-        <v>339.47058823529409</v>
+        <v>11.898969072164949</v>
       </c>
       <c r="F148" s="28">
         <v>0</v>
@@ -7085,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="28">
-        <v>3.8738025740587094</v>
+        <v>2.1817944644992351</v>
       </c>
       <c r="I148" s="28">
         <v>0</v>
@@ -7095,7 +7259,7 @@
       </c>
       <c r="K148"/>
       <c r="L148" s="27">
-        <v>17</v>
+        <v>485</v>
       </c>
       <c r="M148" s="29">
         <v>5771</v>
@@ -7106,35 +7270,35 @@
         <v>159</v>
       </c>
       <c r="B149" s="25">
-        <v>36.438668319224398</v>
+        <v>31.298672052646801</v>
       </c>
       <c r="C149" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D149" s="26">
-        <v>3.9274191374057462E-3</v>
+        <v>3.3073003262364181E-3</v>
       </c>
       <c r="E149" s="27">
-        <v>254.62013729977119</v>
+        <v>302.36141304347825</v>
       </c>
       <c r="F149" s="28">
-        <v>3.8519999999999999</v>
+        <v>6.4189999999999996</v>
       </c>
       <c r="G149" s="25">
         <v>0</v>
       </c>
       <c r="H149" s="28">
-        <v>3.7200383240330339</v>
+        <v>3.2635963719313468</v>
       </c>
       <c r="I149" s="28">
-        <v>0.26750000000000002</v>
+        <v>0.44576388888888885</v>
       </c>
       <c r="J149" s="28">
-        <v>4.0785078894060418E-2</v>
+        <v>0</v>
       </c>
       <c r="K149"/>
       <c r="L149" s="27">
-        <v>437</v>
+        <v>368</v>
       </c>
       <c r="M149" s="29">
         <v>111269</v>
@@ -7145,16 +7309,16 @@
         <v>160</v>
       </c>
       <c r="B150" s="25">
-        <v>100</v>
+        <v>61.463103463848554</v>
       </c>
       <c r="C150" t="s">
         <v>11</v>
       </c>
       <c r="D150" s="26">
-        <v>0</v>
+        <v>4.9964025901351029E-5</v>
       </c>
       <c r="E150" s="27">
-        <v>0</v>
+        <v>20014.399999999998</v>
       </c>
       <c r="F150" s="28">
         <v>0</v>
@@ -7163,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="28">
-        <v>10</v>
+        <v>6.1463103463848556</v>
       </c>
       <c r="I150" s="28">
         <v>0</v>
@@ -7173,7 +7337,7 @@
       </c>
       <c r="K150"/>
       <c r="L150" s="27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M150" s="29">
         <v>200144</v>
@@ -7184,35 +7348,35 @@
         <v>161</v>
       </c>
       <c r="B151" s="25">
-        <v>20.567814080819907</v>
+        <v>19.257335387083419</v>
       </c>
       <c r="C151" t="s">
         <v>162</v>
       </c>
       <c r="D151" s="26">
-        <v>4.116436342252279E-2</v>
+        <v>7.1478976771537778E-2</v>
       </c>
       <c r="E151" s="27">
-        <v>24.292857142857141</v>
+        <v>13.990127519539286</v>
       </c>
       <c r="F151" s="28">
-        <v>16.802</v>
+        <v>12.601000000000001</v>
       </c>
       <c r="G151" s="25">
         <v>0</v>
       </c>
       <c r="H151" s="28">
-        <v>2.4068230747486572</v>
+        <v>2.1882543720416754</v>
       </c>
       <c r="I151" s="28">
-        <v>1.1668055555555554</v>
+        <v>0.87506944444444446</v>
       </c>
       <c r="J151" s="28">
         <v>0</v>
       </c>
       <c r="K151"/>
       <c r="L151" s="27">
-        <v>1400</v>
+        <v>2431</v>
       </c>
       <c r="M151" s="29">
         <v>34010</v>
@@ -7223,35 +7387,35 @@
         <v>163</v>
       </c>
       <c r="B152" s="25">
-        <v>39.108808427212807</v>
+        <v>31.157341118693836</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D152" s="26">
-        <v>1.8355688472627639E-3</v>
+        <v>7.3154134059203813E-3</v>
       </c>
       <c r="E152" s="27">
-        <v>544.79024390243899</v>
+        <v>136.69767441860463</v>
       </c>
       <c r="F152" s="28">
-        <v>2.5579999999999998</v>
+        <v>1.2789999999999999</v>
       </c>
       <c r="G152" s="25">
         <v>0</v>
       </c>
       <c r="H152" s="28">
-        <v>3.9641725093879474</v>
+        <v>3.142379945202717</v>
       </c>
       <c r="I152" s="28">
-        <v>0.17763888888888887</v>
+        <v>8.8819444444444437E-2</v>
       </c>
       <c r="J152" s="28">
         <v>0</v>
       </c>
       <c r="K152"/>
       <c r="L152" s="27">
-        <v>410</v>
+        <v>1634</v>
       </c>
       <c r="M152" s="29">
         <v>223364</v>
@@ -7262,35 +7426,35 @@
         <v>164</v>
       </c>
       <c r="B153" s="25">
-        <v>45.678144000546602</v>
+        <v>38.036063124521164</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D153" s="26">
-        <v>4.7823075277555495E-4</v>
+        <v>1.971580626066052E-3</v>
       </c>
       <c r="E153" s="27">
-        <v>2091.0407668185317</v>
+        <v>507.20725633996869</v>
       </c>
       <c r="F153" s="28">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="G153" s="25">
-        <v>3261</v>
+        <v>5260</v>
       </c>
       <c r="H153" s="28">
-        <v>4.5468255198320362</v>
+        <v>3.7690743470618466</v>
       </c>
       <c r="I153" s="28">
         <v>3.6805555555555554E-3</v>
       </c>
       <c r="J153" s="28">
-        <v>0.22093046889290868</v>
+        <v>0.35636132056936509</v>
       </c>
       <c r="K153"/>
       <c r="L153" s="27">
-        <v>16901</v>
+        <v>69677</v>
       </c>
       <c r="M153" s="29">
         <v>35340680</v>
@@ -7301,35 +7465,35 @@
         <v>165</v>
       </c>
       <c r="B154" s="25">
-        <v>49.673294399204408</v>
+        <v>43.979395458363655</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D154" s="26">
-        <v>1.753864841220569E-4</v>
+        <v>3.768250719863822E-4</v>
       </c>
       <c r="E154" s="27">
-        <v>5701.6936339522545</v>
+        <v>2653.7512345679011</v>
       </c>
       <c r="F154" s="28">
-        <v>1.7000000000000001E-2</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="G154" s="25">
         <v>117</v>
       </c>
       <c r="H154" s="28">
-        <v>4.9668909397713925</v>
+        <v>4.3995635456873172</v>
       </c>
       <c r="I154" s="28">
-        <v>1.1805555555555556E-3</v>
+        <v>8.0555555555555554E-3</v>
       </c>
       <c r="J154" s="28">
         <v>7.9266681571512777E-3</v>
       </c>
       <c r="K154"/>
       <c r="L154" s="27">
-        <v>3016</v>
+        <v>6480</v>
       </c>
       <c r="M154" s="29">
         <v>17196308</v>
@@ -7340,35 +7504,35 @@
         <v>166</v>
       </c>
       <c r="B155" s="25">
-        <v>33.743399030844756</v>
+        <v>26.323940136467204</v>
       </c>
       <c r="C155" t="s">
         <v>17</v>
       </c>
       <c r="D155" s="26">
-        <v>5.8579239871312822E-3</v>
+        <v>2.5345966490515164E-2</v>
       </c>
       <c r="E155" s="27">
-        <v>170.70894094850073</v>
+        <v>39.454009393337387</v>
       </c>
       <c r="F155" s="28">
-        <v>3.3679999999999999</v>
+        <v>3.7010000000000001</v>
       </c>
       <c r="G155" s="25">
-        <v>2669</v>
+        <v>4754</v>
       </c>
       <c r="H155" s="28">
-        <v>3.4264242814507688</v>
+        <v>2.6772901628611674</v>
       </c>
       <c r="I155" s="28">
-        <v>0.23388888888888887</v>
+        <v>0.25701388888888888</v>
       </c>
       <c r="J155" s="28">
-        <v>0.18082288300373298</v>
+        <v>0.322080174522198</v>
       </c>
       <c r="K155"/>
       <c r="L155" s="27">
-        <v>40253</v>
+        <v>174166</v>
       </c>
       <c r="M155" s="29">
         <v>6871547</v>
@@ -7379,35 +7543,35 @@
         <v>167</v>
       </c>
       <c r="B156" s="25">
-        <v>28.804391303159328</v>
+        <v>19.465039681907854</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D156" s="26">
-        <v>2.748963704377717E-2</v>
+        <v>7.480537862703468E-2</v>
       </c>
       <c r="E156" s="27">
-        <v>36.377344611989706</v>
+        <v>13.36802270577105</v>
       </c>
       <c r="F156" s="28">
-        <v>0</v>
+        <v>10.11</v>
       </c>
       <c r="G156" s="25">
         <v>0</v>
       </c>
       <c r="H156" s="28">
-        <v>2.8804391303159327</v>
+        <v>2.1571289681907855</v>
       </c>
       <c r="I156" s="28">
-        <v>0</v>
+        <v>0.70208333333333328</v>
       </c>
       <c r="J156" s="28">
         <v>0</v>
       </c>
       <c r="K156"/>
       <c r="L156" s="27">
-        <v>2719</v>
+        <v>7399</v>
       </c>
       <c r="M156" s="29">
         <v>98910</v>
@@ -7418,16 +7582,16 @@
         <v>168</v>
       </c>
       <c r="B157" s="25">
-        <v>50.692471038049632</v>
+        <v>53.9463290798207</v>
       </c>
       <c r="C157" t="s">
         <v>15</v>
       </c>
       <c r="D157" s="26">
-        <v>9.1139754214998678E-5</v>
+        <v>2.6408419348011748E-5</v>
       </c>
       <c r="E157" s="27">
-        <v>10972.16037735849</v>
+        <v>37866.711627906974</v>
       </c>
       <c r="F157" s="28">
         <v>0</v>
@@ -7436,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="28">
-        <v>5.0692471038049636</v>
+        <v>5.3946329079820696</v>
       </c>
       <c r="I157" s="28">
         <v>0</v>
@@ -7446,7 +7610,7 @@
       </c>
       <c r="K157"/>
       <c r="L157" s="27">
-        <v>742</v>
+        <v>215</v>
       </c>
       <c r="M157" s="29">
         <v>8141343</v>
@@ -7457,35 +7621,35 @@
         <v>169</v>
       </c>
       <c r="B158" s="25">
-        <v>40.418589659023866</v>
+        <v>39.230335659597735</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
       </c>
       <c r="D158" s="26">
-        <v>1.1317294997799619E-3</v>
+        <v>2.6285389467507699E-3</v>
       </c>
       <c r="E158" s="27">
-        <v>883.60337005832787</v>
+        <v>380.43948378095575</v>
       </c>
       <c r="F158" s="28">
-        <v>0.21</v>
+        <v>0.157</v>
       </c>
       <c r="G158" s="25">
-        <v>0</v>
+        <v>41516</v>
       </c>
       <c r="H158" s="28">
-        <v>4.0462339659023865</v>
+        <v>3.6450364033851645</v>
       </c>
       <c r="I158" s="28">
-        <v>1.4583333333333334E-2</v>
+        <v>1.0902777777777779E-2</v>
       </c>
       <c r="J158" s="28">
-        <v>0</v>
+        <v>2.8126799590794223</v>
       </c>
       <c r="K158"/>
       <c r="L158" s="27">
-        <v>6172</v>
+        <v>14335</v>
       </c>
       <c r="M158" s="29">
         <v>5453600</v>
@@ -7496,38 +7660,38 @@
         <v>170</v>
       </c>
       <c r="B159" s="25">
-        <v>29.248533825326003</v>
+        <v>29.44050392934027</v>
       </c>
       <c r="C159" t="s">
         <v>17</v>
       </c>
       <c r="D159" s="26">
-        <v>8.6475681072443484E-3</v>
+        <v>9.0527722061854148E-3</v>
       </c>
       <c r="E159" s="27">
-        <v>115.63944771504806</v>
+        <v>110.46340029595996</v>
       </c>
       <c r="F159" s="28">
-        <v>7.1420000000000003</v>
+        <v>10.276999999999999</v>
       </c>
       <c r="G159" s="25">
-        <v>6030</v>
+        <v>8210</v>
       </c>
       <c r="H159" s="28">
-        <v>3.0327922210047182</v>
+        <v>3.1025323838996579</v>
       </c>
       <c r="I159" s="28">
-        <v>0.49597222222222226</v>
+        <v>0.71368055555555554</v>
       </c>
       <c r="J159" s="28">
-        <v>0.4085282819454889</v>
+        <v>0.55622175701035892</v>
       </c>
       <c r="K159"/>
       <c r="L159" s="27">
-        <v>47222</v>
+        <v>49331</v>
       </c>
       <c r="M159" s="29">
-        <v>5460726</v>
+        <v>5449270</v>
       </c>
     </row>
     <row r="160" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7535,35 +7699,35 @@
         <v>171</v>
       </c>
       <c r="B160" s="25">
-        <v>29.630243991472547</v>
+        <v>24.3708951709818</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D160" s="26">
-        <v>1.2395590946941945E-2</v>
+        <v>4.3661420978167845E-2</v>
       </c>
       <c r="E160" s="27">
-        <v>80.6738463926728</v>
+        <v>22.903514764213309</v>
       </c>
       <c r="F160" s="28">
-        <v>3.5049999999999999</v>
+        <v>3.23</v>
       </c>
       <c r="G160" s="25">
-        <v>3280</v>
+        <v>6724</v>
       </c>
       <c r="H160" s="28">
-        <v>3.013823461920369</v>
+        <v>2.4588265541163978</v>
       </c>
       <c r="I160" s="28">
-        <v>0.24340277777777777</v>
+        <v>0.22430555555555556</v>
       </c>
       <c r="J160" s="28">
-        <v>0.22221770560218965</v>
+        <v>0.4555462964844888</v>
       </c>
       <c r="K160"/>
       <c r="L160" s="27">
-        <v>25767</v>
+        <v>90760</v>
       </c>
       <c r="M160" s="29">
         <v>2078723</v>
@@ -7574,16 +7738,16 @@
         <v>172</v>
       </c>
       <c r="B161" s="25">
-        <v>61.876533745834543</v>
+        <v>58.235767700468337</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D161" s="26">
-        <v>1.1363717071854204E-5</v>
+        <v>7.5284625601034104E-5</v>
       </c>
       <c r="E161" s="27">
-        <v>87999.375</v>
+        <v>13282.924528301886</v>
       </c>
       <c r="F161" s="28">
         <v>0</v>
@@ -7592,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="H161" s="28">
-        <v>6.1876533745834541</v>
+        <v>5.8235767700468335</v>
       </c>
       <c r="I161" s="28">
         <v>0</v>
@@ -7602,7 +7766,7 @@
       </c>
       <c r="K161"/>
       <c r="L161" s="27">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="M161" s="29">
         <v>703995</v>
@@ -7613,35 +7777,35 @@
         <v>173</v>
       </c>
       <c r="B162" s="25">
-        <v>55.950696146320723</v>
+        <v>54.899622995446919</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
       </c>
       <c r="D162" s="26">
-        <v>4.4561264097313485E-5</v>
+        <v>3.7287203154130629E-6</v>
       </c>
       <c r="E162" s="27">
-        <v>22441.01508916324</v>
+        <v>268188.5245901639</v>
       </c>
       <c r="F162" s="28">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G162" s="25">
         <v>0</v>
       </c>
       <c r="H162" s="28">
-        <v>5.5954237812987389</v>
+        <v>5.4899622995446915</v>
       </c>
       <c r="I162" s="28">
-        <v>1.1805555555555556E-3</v>
+        <v>0</v>
       </c>
       <c r="J162" s="28">
         <v>0</v>
       </c>
       <c r="K162"/>
       <c r="L162" s="27">
-        <v>729</v>
+        <v>61</v>
       </c>
       <c r="M162" s="29">
         <v>16359500</v>
@@ -7652,35 +7816,35 @@
         <v>174</v>
       </c>
       <c r="B163" s="25">
-        <v>35.846772399747572</v>
+        <v>38.26177614609955</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="26">
-        <v>2.1700144678734531E-3</v>
+        <v>1.1376370632315421E-3</v>
       </c>
       <c r="E163" s="27">
-        <v>460.82642065514381</v>
+        <v>879.01496208239394</v>
       </c>
       <c r="F163" s="28">
-        <v>0</v>
+        <v>2.0390000000000001</v>
       </c>
       <c r="G163" s="25">
-        <v>603</v>
+        <v>565</v>
       </c>
       <c r="H163" s="28">
-        <v>3.5805919571553022</v>
+        <v>3.8648289457990228</v>
       </c>
       <c r="I163" s="28">
-        <v>0</v>
+        <v>0.14159722222222224</v>
       </c>
       <c r="J163" s="28">
-        <v>4.0852828194548892E-2</v>
+        <v>3.8278354775986935E-2</v>
       </c>
       <c r="K163"/>
       <c r="L163" s="27">
-        <v>130292</v>
+        <v>68306</v>
       </c>
       <c r="M163" s="29">
         <v>60041996</v>
@@ -7691,35 +7855,35 @@
         <v>175</v>
       </c>
       <c r="B164" s="25">
-        <v>38.790101531668988</v>
+        <v>39.724321936871732</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="26">
-        <v>1.1947915438720578E-3</v>
+        <v>1.2037964818525941E-3</v>
       </c>
       <c r="E164" s="27">
-        <v>836.96608427543686</v>
+        <v>830.70520231213868</v>
       </c>
       <c r="F164" s="28">
-        <v>1.0269999999999999</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="G164" s="25">
-        <v>4360</v>
+        <v>3490</v>
       </c>
       <c r="H164" s="28">
-        <v>3.8708672914872579</v>
+        <v>3.9628293544833628</v>
       </c>
       <c r="I164" s="28">
-        <v>7.1319444444444435E-2</v>
+        <v>4.6805555555555559E-2</v>
       </c>
       <c r="J164" s="28">
-        <v>0.29538695012973992</v>
+        <v>0.2364450587047689</v>
       </c>
       <c r="K164"/>
       <c r="L164" s="27">
-        <v>61299</v>
+        <v>61761</v>
       </c>
       <c r="M164" s="29">
         <v>51305184</v>
@@ -7730,35 +7894,35 @@
         <v>176</v>
       </c>
       <c r="B165" s="25">
-        <v>47.921187193029965</v>
+        <v>50.411549567753255</v>
       </c>
       <c r="C165" t="s">
         <v>15</v>
       </c>
       <c r="D165" s="26">
-        <v>1.4602802455274084E-4</v>
+        <v>6.0625353153664972E-5</v>
       </c>
       <c r="E165" s="27">
-        <v>6848.0006016847174</v>
+        <v>16494.749275362319</v>
       </c>
       <c r="F165" s="28">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="G165" s="25">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H165" s="28">
-        <v>4.7923895526363296</v>
+        <v>5.0411344681165584</v>
       </c>
       <c r="I165" s="28">
         <v>9.0277777777777774E-4</v>
       </c>
       <c r="J165" s="28">
-        <v>0</v>
+        <v>2.9132199210043152E-3</v>
       </c>
       <c r="K165"/>
       <c r="L165" s="27">
-        <v>1662</v>
+        <v>690</v>
       </c>
       <c r="M165" s="29">
         <v>11381377</v>
@@ -7769,35 +7933,35 @@
         <v>177</v>
       </c>
       <c r="B166" s="25">
-        <v>26.649372779471523</v>
+        <v>24.001192976748253</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D166" s="26">
-        <v>2.576646835544287E-2</v>
+        <v>4.0900382287289282E-2</v>
       </c>
       <c r="E166" s="27">
-        <v>38.810130523330393</v>
+        <v>24.449649222735324</v>
       </c>
       <c r="F166" s="28">
-        <v>1.32</v>
+        <v>2.992</v>
       </c>
       <c r="G166" s="25">
-        <v>6321</v>
+        <v>6838</v>
       </c>
       <c r="H166" s="28">
-        <v>2.6496129451083887</v>
+        <v>2.4161256593341411</v>
       </c>
       <c r="I166" s="28">
-        <v>9.1666666666666674E-2</v>
+        <v>0.20777777777777778</v>
       </c>
       <c r="J166" s="28">
-        <v>0.4282433283876344</v>
+        <v>0.46326971674017464</v>
       </c>
       <c r="K166"/>
       <c r="L166" s="27">
-        <v>1204459</v>
+        <v>1911897</v>
       </c>
       <c r="M166" s="29">
         <v>46745211</v>
@@ -7808,35 +7972,35 @@
         <v>178</v>
       </c>
       <c r="B167" s="25">
-        <v>44.039296226220763</v>
+        <v>43.897393915281029</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="26">
-        <v>3.6813915194769056E-4</v>
+        <v>4.3261234686802153E-4</v>
       </c>
       <c r="E167" s="27">
-        <v>2716.3641647712916</v>
+        <v>2311.5382795698924</v>
       </c>
       <c r="F167" s="28">
-        <v>0.80400000000000005</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="G167" s="25">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="H167" s="28">
-        <v>4.4184642204961033</v>
+        <v>4.3986510235748773</v>
       </c>
       <c r="I167" s="28">
-        <v>5.5833333333333339E-2</v>
+        <v>3.7361111111111116E-2</v>
       </c>
       <c r="J167" s="28">
-        <v>2.2154021259730493E-2</v>
+        <v>2.2967012865592166E-2</v>
       </c>
       <c r="K167"/>
       <c r="L167" s="27">
-        <v>7914</v>
+        <v>9300</v>
       </c>
       <c r="M167" s="29">
         <v>21497306</v>
@@ -7847,35 +8011,35 @@
         <v>179</v>
       </c>
       <c r="B168" s="25">
-        <v>55.531387207478197</v>
+        <v>49.485055973423883</v>
       </c>
       <c r="C168" t="s">
         <v>15</v>
       </c>
       <c r="D168" s="26">
-        <v>2.9904685106671881E-5</v>
+        <v>1.4509227710727773E-4</v>
       </c>
       <c r="E168" s="27">
-        <v>33439.576321667912</v>
+        <v>6892.165592387968</v>
       </c>
       <c r="F168" s="28">
-        <v>2.9000000000000001E-2</v>
+        <v>0.111</v>
       </c>
       <c r="G168" s="25">
         <v>0</v>
       </c>
       <c r="H168" s="28">
-        <v>5.5537428874144865</v>
+        <v>4.9508180973423883</v>
       </c>
       <c r="I168" s="28">
-        <v>2.0138888888888888E-3</v>
+        <v>7.7083333333333335E-3</v>
       </c>
       <c r="J168" s="28">
         <v>0</v>
       </c>
       <c r="K168"/>
       <c r="L168" s="27">
-        <v>1343</v>
+        <v>6516</v>
       </c>
       <c r="M168" s="29">
         <v>44909351</v>
@@ -7886,35 +8050,35 @@
         <v>180</v>
       </c>
       <c r="B169" s="25">
-        <v>33.487326628588697</v>
+        <v>25.839805390438638</v>
       </c>
       <c r="C169" t="s">
         <v>17</v>
       </c>
       <c r="D169" s="26">
-        <v>7.6022561752489871E-3</v>
+        <v>2.1154177607899994E-2</v>
       </c>
       <c r="E169" s="27">
-        <v>131.53989775505667</v>
+        <v>47.271986580397794</v>
       </c>
       <c r="F169" s="28">
-        <v>1.448</v>
+        <v>6.0350000000000001</v>
       </c>
       <c r="G169" s="25">
         <v>0</v>
       </c>
       <c r="H169" s="28">
-        <v>3.3788993295255363</v>
+        <v>2.7097097057105306</v>
       </c>
       <c r="I169" s="28">
-        <v>0.10055555555555555</v>
+        <v>0.41909722222222223</v>
       </c>
       <c r="J169" s="28">
         <v>0</v>
       </c>
       <c r="K169"/>
       <c r="L169" s="27">
-        <v>4499</v>
+        <v>12519</v>
       </c>
       <c r="M169" s="29">
         <v>591798</v>
@@ -7925,35 +8089,35 @@
         <v>181</v>
       </c>
       <c r="B170" s="25">
-        <v>30.874893284265429</v>
+        <v>25.630058801973334</v>
       </c>
       <c r="C170" t="s">
         <v>17</v>
       </c>
       <c r="D170" s="26">
-        <v>1.0034685480807928E-2</v>
+        <v>3.6066659980419601E-2</v>
       </c>
       <c r="E170" s="27">
-        <v>99.654344115973871</v>
+        <v>27.726437672434727</v>
       </c>
       <c r="F170" s="28">
-        <v>0.83</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="G170" s="25">
         <v>0</v>
       </c>
       <c r="H170" s="28">
-        <v>3.1047809950932095</v>
+        <v>2.5567204790706626</v>
       </c>
       <c r="I170" s="28">
-        <v>5.7638888888888885E-2</v>
+        <v>0.14548611111111112</v>
       </c>
       <c r="J170" s="28">
-        <v>0</v>
+        <v>0.49931234460004204</v>
       </c>
       <c r="K170"/>
       <c r="L170" s="27">
-        <v>101954</v>
+        <v>366443</v>
       </c>
       <c r="M170" s="29">
         <v>10160159</v>
@@ -7964,35 +8128,35 @@
         <v>182</v>
       </c>
       <c r="B171" s="25">
-        <v>26.970997539028662</v>
+        <v>24.150963398305777</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D171" s="26">
-        <v>2.6134950009718324E-2</v>
+        <v>4.4305348612482552E-2</v>
       </c>
       <c r="E171" s="27">
-        <v>38.262939076912268</v>
+        <v>22.570638338646564</v>
       </c>
       <c r="F171" s="28">
-        <v>1.9510000000000001</v>
+        <v>2</v>
       </c>
       <c r="G171" s="25">
-        <v>8175.0000000000009</v>
+        <v>10261</v>
       </c>
       <c r="H171" s="28">
-        <v>2.6823605340868735</v>
+        <v>2.3872454492660227</v>
       </c>
       <c r="I171" s="28">
-        <v>0.13548611111111111</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="J171" s="28">
-        <v>0.55385053149326235</v>
+        <v>0.69517557231221583</v>
       </c>
       <c r="K171"/>
       <c r="L171" s="27">
-        <v>227779</v>
+        <v>386143</v>
       </c>
       <c r="M171" s="29">
         <v>8715494</v>
@@ -8003,35 +8167,35 @@
         <v>183</v>
       </c>
       <c r="B172" s="25">
-        <v>55.091802140487097</v>
+        <v>56.715368107762771</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
       </c>
       <c r="D172" s="26">
-        <v>2.6319095559875561E-5</v>
+        <v>2.2981330842302985E-5</v>
       </c>
       <c r="E172" s="27">
-        <v>37995.226611226608</v>
+        <v>43513.580952380951</v>
       </c>
       <c r="F172" s="28">
-        <v>0.19500000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="G172" s="25">
         <v>0</v>
       </c>
       <c r="H172" s="28">
-        <v>5.5132427140487099</v>
+        <v>5.6752868107762771</v>
       </c>
       <c r="I172" s="28">
-        <v>1.3541666666666667E-2</v>
+        <v>1.2499999999999999E-2</v>
       </c>
       <c r="J172" s="28">
         <v>0</v>
       </c>
       <c r="K172"/>
       <c r="L172" s="27">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="M172" s="29">
         <v>18275704</v>
@@ -8042,35 +8206,35 @@
         <v>184</v>
       </c>
       <c r="B173" s="25">
-        <v>59.258871196594946</v>
+        <v>54.947922994395043</v>
       </c>
       <c r="C173" t="s">
         <v>15</v>
       </c>
       <c r="D173" s="26">
-        <v>1.4462372010103706E-5</v>
+        <v>3.5338491607296883E-5</v>
       </c>
       <c r="E173" s="27">
-        <v>69144.950724637689</v>
+        <v>28297.755634638197</v>
       </c>
       <c r="F173" s="28">
         <v>0</v>
       </c>
       <c r="G173" s="25">
-        <v>658</v>
+        <v>1103</v>
       </c>
       <c r="H173" s="28">
-        <v>5.9214292156873531</v>
+        <v>5.4873195515956255</v>
       </c>
       <c r="I173" s="28">
         <v>0</v>
       </c>
       <c r="J173" s="28">
-        <v>4.457903972141488E-2</v>
+        <v>7.4727478438785119E-2</v>
       </c>
       <c r="K173"/>
       <c r="L173" s="27">
-        <v>345</v>
+        <v>843</v>
       </c>
       <c r="M173" s="29">
         <v>23855008</v>
@@ -8120,35 +8284,35 @@
         <v>186</v>
       </c>
       <c r="B175" s="25">
-        <v>53.112039938104289</v>
+        <v>55.685052796068319</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
       </c>
       <c r="D175" s="26">
-        <v>6.6359408998322846E-5</v>
+        <v>2.9740592761071428E-5</v>
       </c>
       <c r="E175" s="27">
-        <v>15069.453075226662</v>
+        <v>33624.077638053583</v>
       </c>
       <c r="F175" s="28">
-        <v>7.0000000000000001E-3</v>
+        <v>0.03</v>
       </c>
       <c r="G175" s="25">
         <v>0</v>
       </c>
       <c r="H175" s="28">
-        <v>5.3113498271437622</v>
+        <v>5.5691302796068323</v>
       </c>
       <c r="I175" s="28">
-        <v>4.861111111111111E-4</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="J175" s="28">
         <v>0</v>
       </c>
       <c r="K175"/>
       <c r="L175" s="27">
-        <v>4081</v>
+        <v>1829</v>
       </c>
       <c r="M175" s="29">
         <v>61498438</v>
@@ -8159,35 +8323,35 @@
         <v>187</v>
       </c>
       <c r="B176" s="25">
-        <v>42.495449861690325</v>
+        <v>38.947231380388949</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="26">
-        <v>6.1827702893763514E-4</v>
+        <v>1.6647690483906098E-3</v>
       </c>
       <c r="E176" s="27">
-        <v>1617.3979513977201</v>
+        <v>600.6839212722839</v>
       </c>
       <c r="F176" s="28">
-        <v>0.221</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="G176" s="25">
         <v>0</v>
       </c>
       <c r="H176" s="28">
-        <v>4.2506736137206405</v>
+        <v>3.8935845428714524</v>
       </c>
       <c r="I176" s="28">
-        <v>1.5347222222222222E-2</v>
+        <v>1.6597222222222222E-2</v>
       </c>
       <c r="J176" s="28">
-        <v>3.4755391150586373E-2</v>
+        <v>6.1177618341090631E-2</v>
       </c>
       <c r="K176"/>
       <c r="L176" s="27">
-        <v>43249</v>
+        <v>116452</v>
       </c>
       <c r="M176" s="29">
         <v>69950844</v>
@@ -8198,16 +8362,16 @@
         <v>188</v>
       </c>
       <c r="B177" s="25">
-        <v>62.331021217225455</v>
+        <v>57.693586474927528</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D177" s="26">
-        <v>8.1852850897590921E-6</v>
+        <v>1.6370570179518184E-5</v>
       </c>
       <c r="E177" s="27">
-        <v>122170.45454545454</v>
+        <v>61085.227272727272</v>
       </c>
       <c r="F177" s="28">
         <v>0</v>
@@ -8216,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="H177" s="28">
-        <v>6.2331021217225455</v>
+        <v>5.7693586474927532</v>
       </c>
       <c r="I177" s="28">
         <v>0</v>
@@ -8226,7 +8390,7 @@
       </c>
       <c r="K177"/>
       <c r="L177" s="27">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M177" s="29">
         <v>1343875</v>
@@ -8237,35 +8401,35 @@
         <v>189</v>
       </c>
       <c r="B178" s="25">
-        <v>42.651157089900714</v>
+        <v>42.759709123095909</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
       <c r="D178" s="26">
-        <v>6.6358096407250465E-4</v>
+        <v>3.7094954354924053E-4</v>
       </c>
       <c r="E178" s="27">
-        <v>1506.9751155350159</v>
+        <v>2695.7844197138315</v>
       </c>
       <c r="F178" s="28">
-        <v>0.10100000000000001</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="G178" s="25">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H178" s="28">
-        <v>4.265898764297213</v>
+        <v>4.2764743251806028</v>
       </c>
       <c r="I178" s="28">
-        <v>7.013888888888889E-3</v>
+        <v>5.8333333333333336E-3</v>
       </c>
       <c r="J178" s="28">
-        <v>1.3211113595252129E-2</v>
+        <v>1.2465871289878932E-2</v>
       </c>
       <c r="K178"/>
       <c r="L178" s="27">
-        <v>5626</v>
+        <v>3145</v>
       </c>
       <c r="M178" s="29">
         <v>8478242</v>
@@ -8276,35 +8440,35 @@
         <v>190</v>
       </c>
       <c r="B179" s="25">
-        <v>29.82313924607945</v>
+        <v>29.626018995605786</v>
       </c>
       <c r="C179" t="s">
         <v>17</v>
       </c>
       <c r="D179" s="26">
-        <v>5.070636907909082E-3</v>
+        <v>6.3482720928277137E-3</v>
       </c>
       <c r="E179" s="27">
-        <v>197.21388420460934</v>
+        <v>157.52317880794703</v>
       </c>
       <c r="F179" s="28">
-        <v>14.455</v>
+        <v>12.419</v>
       </c>
       <c r="G179" s="25">
         <v>0</v>
       </c>
       <c r="H179" s="28">
-        <v>3.2834597579412783</v>
+        <v>3.2213310662272452</v>
       </c>
       <c r="I179" s="28">
-        <v>1.0038194444444444</v>
+        <v>0.86243055555555559</v>
       </c>
       <c r="J179" s="28">
         <v>0</v>
       </c>
       <c r="K179"/>
       <c r="L179" s="27">
-        <v>7116</v>
+        <v>8909</v>
       </c>
       <c r="M179" s="29">
         <v>1403374</v>
@@ -8315,35 +8479,35 @@
         <v>191</v>
       </c>
       <c r="B180" s="25">
-        <v>41.078778015998026</v>
+        <v>32.795743010893837</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D180" s="26">
-        <v>1.1603781710161159E-3</v>
+        <v>6.7928621913100826E-3</v>
       </c>
       <c r="E180" s="27">
-        <v>861.78801444043324</v>
+        <v>147.21335010730408</v>
       </c>
       <c r="F180" s="28">
-        <v>0.88600000000000001</v>
+        <v>1.64</v>
       </c>
       <c r="G180" s="25">
-        <v>0</v>
+        <v>2519</v>
       </c>
       <c r="H180" s="28">
-        <v>4.1214717351580639</v>
+        <v>3.2966749189630042</v>
       </c>
       <c r="I180" s="28">
-        <v>6.1527777777777778E-2</v>
+        <v>0.11388888888888889</v>
       </c>
       <c r="J180" s="28">
-        <v>4.8643997750723221E-2</v>
+        <v>0.17066048793046212</v>
       </c>
       <c r="K180"/>
       <c r="L180" s="27">
-        <v>13850</v>
+        <v>81078</v>
       </c>
       <c r="M180" s="29">
         <v>11935764</v>
@@ -8354,35 +8518,35 @@
         <v>192</v>
       </c>
       <c r="B181" s="25">
-        <v>32.960556436318029</v>
+        <v>29.601658572557579</v>
       </c>
       <c r="C181" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="26">
-        <v>6.3458447526899891E-3</v>
+        <v>1.1158401582940606E-2</v>
       </c>
       <c r="E181" s="27">
-        <v>157.58343277718893</v>
+        <v>89.618570596064458</v>
       </c>
       <c r="F181" s="28">
-        <v>1.7350000000000001</v>
+        <v>1.917</v>
       </c>
       <c r="G181" s="25">
-        <v>4523</v>
+        <v>4686</v>
       </c>
       <c r="H181" s="28">
-        <v>3.3015584683542003</v>
+        <v>2.9683560350468596</v>
       </c>
       <c r="I181" s="28">
-        <v>0.12048611111111111</v>
+        <v>0.13312499999999999</v>
       </c>
       <c r="J181" s="28">
-        <v>0.3064300861093609</v>
+        <v>0.31747322208898193</v>
       </c>
       <c r="K181"/>
       <c r="L181" s="27">
-        <v>539668</v>
+        <v>948941</v>
       </c>
       <c r="M181" s="29">
         <v>85042736</v>
@@ -8393,35 +8557,35 @@
         <v>193</v>
       </c>
       <c r="B182" s="25">
-        <v>44.634344023403408</v>
+        <v>45.597429573601126</v>
       </c>
       <c r="C182" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D182" s="26">
-        <v>4.1338156882252439E-4</v>
+        <v>1.9423416321522413E-4</v>
       </c>
       <c r="E182" s="27">
-        <v>2419.0725359342919</v>
+        <v>5148.424888014858</v>
       </c>
       <c r="F182" s="28">
-        <v>0.10299999999999999</v>
+        <v>0.246</v>
       </c>
       <c r="G182" s="25">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H182" s="28">
-        <v>4.4644894719358099</v>
+        <v>4.5639872164537625</v>
       </c>
       <c r="I182" s="28">
-        <v>7.152777777777777E-3</v>
+        <v>1.7083333333333332E-2</v>
       </c>
       <c r="J182" s="28">
-        <v>1.0907637378644065E-2</v>
+        <v>8.8074090635014198E-3</v>
       </c>
       <c r="K182"/>
       <c r="L182" s="27">
-        <v>19480</v>
+        <v>9153</v>
       </c>
       <c r="M182" s="29">
         <v>47123533</v>
@@ -8432,35 +8596,35 @@
         <v>194</v>
       </c>
       <c r="B183" s="25">
-        <v>37.214992024350551</v>
+        <v>36.247298468437911</v>
       </c>
       <c r="C183" t="s">
         <v>13</v>
       </c>
       <c r="D183" s="26">
-        <v>1.4060379201405614E-3</v>
+        <v>2.5999140217796463E-3</v>
       </c>
       <c r="E183" s="27">
-        <v>711.21837162117947</v>
+        <v>384.62810370763646</v>
       </c>
       <c r="F183" s="28">
-        <v>4.5289999999999999</v>
+        <v>3.3290000000000002</v>
       </c>
       <c r="G183" s="25">
-        <v>465</v>
+        <v>858</v>
       </c>
       <c r="H183" s="28">
-        <v>3.8127030266290078</v>
+        <v>3.6882711235285468</v>
       </c>
       <c r="I183" s="28">
-        <v>0.31451388888888887</v>
+        <v>0.23118055555555556</v>
       </c>
       <c r="J183" s="28">
-        <v>3.1503424727139691E-2</v>
+        <v>5.8128899819109368E-2</v>
       </c>
       <c r="K183"/>
       <c r="L183" s="27">
-        <v>61116</v>
+        <v>113010</v>
       </c>
       <c r="M183" s="29">
         <v>43466822</v>
@@ -8471,35 +8635,35 @@
         <v>195</v>
       </c>
       <c r="B184" s="25">
-        <v>38.871030668412665</v>
+        <v>37.069014704645241</v>
       </c>
       <c r="C184" t="s">
         <v>13</v>
       </c>
       <c r="D184" s="26">
-        <v>3.1054691468382356E-3</v>
+        <v>3.939612952870074E-3</v>
       </c>
       <c r="E184" s="27">
-        <v>322.01253746736711</v>
+        <v>253.83204186885499</v>
       </c>
       <c r="F184" s="28">
-        <v>0.114</v>
+        <v>0.315</v>
       </c>
       <c r="G184" s="25">
-        <v>42500</v>
+        <v>44021</v>
       </c>
       <c r="H184" s="28">
-        <v>3.6015435397652582</v>
+        <v>3.4152247747842193</v>
       </c>
       <c r="I184" s="28">
-        <v>7.9166666666666673E-3</v>
+        <v>2.1874999999999999E-2</v>
       </c>
       <c r="J184" s="28">
-        <v>2.8793452707600795</v>
+        <v>2.9823919568030459</v>
       </c>
       <c r="K184"/>
       <c r="L184" s="27">
-        <v>31027</v>
+        <v>39361</v>
       </c>
       <c r="M184" s="29">
         <v>9991083</v>
@@ -8510,35 +8674,35 @@
         <v>196</v>
       </c>
       <c r="B185" s="25">
-        <v>26.248139175742182</v>
+        <v>26.169495690222547</v>
       </c>
       <c r="C185" t="s">
         <v>17</v>
       </c>
       <c r="D185" s="26">
-        <v>3.3041421456418751E-2</v>
+        <v>2.3523440678050095E-2</v>
       </c>
       <c r="E185" s="27">
-        <v>30.265041754301894</v>
+        <v>42.510788012958827</v>
       </c>
       <c r="F185" s="28">
-        <v>2.2959999999999998</v>
+        <v>3.9</v>
       </c>
       <c r="G185" s="25">
-        <v>0</v>
+        <v>20261</v>
       </c>
       <c r="H185" s="28">
-        <v>2.5330701420412005</v>
+        <v>2.5609327113025606</v>
       </c>
       <c r="I185" s="28">
-        <v>0.15944444444444444</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="J185" s="28">
-        <v>1.3957710886635095</v>
+        <v>1.3726685771969405</v>
       </c>
       <c r="K185"/>
       <c r="L185" s="27">
-        <v>2253660</v>
+        <v>1604466</v>
       </c>
       <c r="M185" s="29">
         <v>68207114</v>
@@ -8549,35 +8713,35 @@
         <v>197</v>
       </c>
       <c r="B186" s="25">
-        <v>27.695135168724505</v>
+        <v>24.152697325334131</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D186" s="26">
-        <v>2.0016005643529376E-2</v>
+        <v>3.2391678365395978E-2</v>
       </c>
       <c r="E186" s="27">
-        <v>49.960017888148052</v>
+        <v>30.872126745624264</v>
       </c>
       <c r="F186" s="28">
-        <v>3.774</v>
+        <v>5.8559999999999999</v>
       </c>
       <c r="G186" s="25">
-        <v>0</v>
+        <v>5698</v>
       </c>
       <c r="H186" s="28">
-        <v>2.811133848945647</v>
+        <v>2.4986661811150817</v>
       </c>
       <c r="I186" s="28">
-        <v>0.26208333333333333</v>
+        <v>0.40666666666666668</v>
       </c>
       <c r="J186" s="28">
-        <v>0.37004667926803653</v>
+        <v>0.38603551418331611</v>
       </c>
       <c r="K186"/>
       <c r="L186" s="27">
-        <v>6663630</v>
+        <v>10783678</v>
       </c>
       <c r="M186" s="29">
         <v>332915074</v>
@@ -8588,35 +8752,35 @@
         <v>198</v>
       </c>
       <c r="B187" s="25">
-        <v>33.978764071046996</v>
+        <v>25.417070663050509</v>
       </c>
       <c r="C187" t="s">
         <v>17</v>
       </c>
       <c r="D187" s="26">
-        <v>7.1247968524758747E-3</v>
+        <v>3.5925262370192175E-2</v>
       </c>
       <c r="E187" s="27">
-        <v>140.35487898191778</v>
+        <v>27.835565672297431</v>
       </c>
       <c r="F187" s="28">
-        <v>0.69699999999999995</v>
+        <v>2.5</v>
       </c>
       <c r="G187" s="25">
-        <v>4920</v>
+        <v>9323</v>
       </c>
       <c r="H187" s="28">
-        <v>3.3790645845977045</v>
+        <v>2.5306277267929813</v>
       </c>
       <c r="I187" s="28">
-        <v>4.8402777777777774E-2</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="J187" s="28">
-        <v>0.33332655840328446</v>
+        <v>0.63162672845402879</v>
       </c>
       <c r="K187"/>
       <c r="L187" s="27">
-        <v>24831</v>
+        <v>125205</v>
       </c>
       <c r="M187" s="29">
         <v>3485152</v>
@@ -8627,35 +8791,35 @@
         <v>199</v>
       </c>
       <c r="B188" s="25">
-        <v>52.39669300670009</v>
+        <v>46.818602131173769</v>
       </c>
       <c r="C188" t="s">
         <v>15</v>
       </c>
       <c r="D188" s="26">
-        <v>5.1685883609814011E-5</v>
+        <v>2.9676655292727304E-4</v>
       </c>
       <c r="E188" s="27">
-        <v>19347.642531356898</v>
+        <v>3369.6519710058583</v>
       </c>
       <c r="F188" s="28">
-        <v>0</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="G188" s="25">
         <v>0</v>
       </c>
       <c r="H188" s="28">
-        <v>5.239669300670009</v>
+        <v>4.6836935464507103</v>
       </c>
       <c r="I188" s="28">
-        <v>0</v>
+        <v>6.1111111111111106E-3</v>
       </c>
       <c r="J188" s="28">
         <v>0</v>
       </c>
       <c r="K188"/>
       <c r="L188" s="27">
-        <v>1754</v>
+        <v>10071</v>
       </c>
       <c r="M188" s="29">
         <v>33935765</v>
@@ -8705,16 +8869,16 @@
         <v>201</v>
       </c>
       <c r="B190" s="25">
-        <v>100</v>
+        <v>39.7606874139247</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D190" s="26">
-        <v>0</v>
+        <v>2.4630541871921183E-3</v>
       </c>
       <c r="E190" s="27">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="F190" s="28">
         <v>0</v>
@@ -8723,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="H190" s="28">
-        <v>10</v>
+        <v>3.9760687413924698</v>
       </c>
       <c r="I190" s="28">
         <v>0</v>
@@ -8733,7 +8897,7 @@
       </c>
       <c r="K190"/>
       <c r="L190" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M190" s="29">
         <v>812</v>
@@ -8744,35 +8908,35 @@
         <v>202</v>
       </c>
       <c r="B191" s="25">
-        <v>48.965527552515617</v>
+        <v>43.913274906122666</v>
       </c>
       <c r="C191" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D191" s="26">
-        <v>1.1318606510578125E-4</v>
+        <v>6.0843171039472741E-4</v>
       </c>
       <c r="E191" s="27">
-        <v>8835.0098491843637</v>
+        <v>1643.5698253650157</v>
       </c>
       <c r="F191" s="28">
-        <v>8.5000000000000006E-2</v>
+        <v>0.124</v>
       </c>
       <c r="G191" s="25">
         <v>0</v>
       </c>
       <c r="H191" s="28">
-        <v>4.898323588584895</v>
+        <v>4.3939108239455997</v>
       </c>
       <c r="I191" s="28">
-        <v>5.9027777777777785E-3</v>
+        <v>8.611111111111111E-3</v>
       </c>
       <c r="J191" s="28">
         <v>0</v>
       </c>
       <c r="K191"/>
       <c r="L191" s="27">
-        <v>3249</v>
+        <v>17465</v>
       </c>
       <c r="M191" s="29">
         <v>28704947</v>
@@ -8783,35 +8947,35 @@
         <v>203</v>
       </c>
       <c r="B192" s="25">
-        <v>35.974196257800067</v>
+        <v>35.524070788991359</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
       </c>
       <c r="D192" s="26">
-        <v>2.4330635542163795E-3</v>
+        <v>2.5592543229786312E-3</v>
       </c>
       <c r="E192" s="27">
-        <v>411.00447140686038</v>
+        <v>390.73881443565688</v>
       </c>
       <c r="F192" s="28">
-        <v>2.1480000000000001</v>
+        <v>1.595</v>
       </c>
       <c r="G192" s="25">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="H192" s="28">
-        <v>3.6362889864976076</v>
+        <v>3.5817745354379595</v>
       </c>
       <c r="I192" s="28">
-        <v>0.14916666666666667</v>
+        <v>0.11076388888888888</v>
       </c>
       <c r="J192" s="28">
-        <v>5.8806392823994094E-2</v>
+        <v>3.8617101278429294E-2</v>
       </c>
       <c r="K192"/>
       <c r="L192" s="27">
-        <v>238851</v>
+        <v>251239</v>
       </c>
       <c r="M192" s="29">
         <v>98168829</v>
@@ -8822,35 +8986,35 @@
         <v>204</v>
       </c>
       <c r="B193" s="25">
-        <v>69.157655644824999</v>
+        <v>61.60589463217601</v>
       </c>
       <c r="C193" t="s">
         <v>11</v>
       </c>
       <c r="D193" s="26">
-        <v>1.5414567074176437E-6</v>
+        <v>1.1642917683686458E-5</v>
       </c>
       <c r="E193" s="27">
-        <v>648737</v>
+        <v>85889.12394366198</v>
       </c>
       <c r="F193" s="28">
-        <v>8.9999999999999993E-3</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G193" s="25">
         <v>0</v>
       </c>
       <c r="H193" s="28">
-        <v>6.9159530644825002</v>
+        <v>6.1613602965509342</v>
       </c>
       <c r="I193" s="28">
-        <v>6.249999999999999E-4</v>
+        <v>2.5694444444444445E-3</v>
       </c>
       <c r="J193" s="28">
         <v>0</v>
       </c>
       <c r="K193"/>
       <c r="L193" s="27">
-        <v>47</v>
+        <v>355</v>
       </c>
       <c r="M193" s="29">
         <v>30490639</v>
@@ -8861,35 +9025,35 @@
         <v>205</v>
       </c>
       <c r="B194" s="25">
-        <v>36.224708733307288</v>
+        <v>37.43921259815334</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
       </c>
       <c r="D194" s="26">
-        <v>2.5806186328519143E-3</v>
+        <v>1.3680286049263511E-3</v>
       </c>
       <c r="E194" s="27">
-        <v>387.50398345177871</v>
+        <v>730.97886725390208</v>
       </c>
       <c r="F194" s="28">
-        <v>0.39300000000000002</v>
+        <v>0.34</v>
       </c>
       <c r="G194" s="25">
-        <v>612</v>
+        <v>324</v>
       </c>
       <c r="H194" s="28">
-        <v>3.6265121161408342</v>
+        <v>3.7488095158128409</v>
       </c>
       <c r="I194" s="28">
-        <v>2.7291666666666669E-2</v>
+        <v>2.3611111111111114E-2</v>
       </c>
       <c r="J194" s="28">
-        <v>4.1462571898945144E-2</v>
+        <v>2.1950773358265077E-2</v>
       </c>
       <c r="K194"/>
       <c r="L194" s="27">
-        <v>48827</v>
+        <v>25884</v>
       </c>
       <c r="M194" s="29">
         <v>18920657</v>
@@ -8900,40 +9064,43 @@
         <v>206</v>
       </c>
       <c r="B195" s="25">
-        <v>38.276020583236679</v>
-      </c>
-      <c r="C195" s="31" t="s">
+        <v>41.700510533838489</v>
+      </c>
+      <c r="C195" t="s">
         <v>13</v>
       </c>
-      <c r="D195">
-        <v>1.2479317919204598E-3</v>
-      </c>
-      <c r="E195">
-        <v>801.32584687267718</v>
-      </c>
-      <c r="F195">
-        <v>1.0509999999999999</v>
-      </c>
-      <c r="G195" s="27">
-        <v>378</v>
-      </c>
-      <c r="H195">
-        <v>3.8469369680985372</v>
-      </c>
-      <c r="I195">
-        <v>7.2986111111111113E-2</v>
-      </c>
-      <c r="J195">
-        <v>2.5609235584642589E-2</v>
-      </c>
-      <c r="L195">
-        <v>18834</v>
-      </c>
-      <c r="M195">
+      <c r="D195" s="26">
+        <v>4.8859769744193863E-4</v>
+      </c>
+      <c r="E195" s="27">
+        <v>2046.6735828586925</v>
+      </c>
+      <c r="F195" s="28">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="G195" s="25">
+        <v>310</v>
+      </c>
+      <c r="H195" s="28">
+        <v>4.1785966584020393</v>
+      </c>
+      <c r="I195" s="28">
+        <v>3.5486111111111114E-2</v>
+      </c>
+      <c r="J195" s="28">
+        <v>2.1002283151426462E-2</v>
+      </c>
+      <c r="L195" s="27">
+        <v>7374</v>
+      </c>
+      <c r="M195" s="33">
         <v>15092171</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M195">
+    <sortCondition ref="A4:A195"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="3" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/SEDRA Report DATA.xlsx
+++ b/SEDRA Report DATA.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvano/Desktop/Covid-19 study/SEDRA/SEDRA 2022.01.20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvano/Desktop/Covid-19 study/SEDRA/SEDRA 2022.02.17/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D69B07-D2B8-5343-B2C7-9BCE4AB26445}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF26E8F1-EAA4-4541-96C0-FBB08CE9EC44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20740" yWindow="980" windowWidth="27960" windowHeight="24620" xr2:uid="{28802D33-BBEF-DC4E-A6DC-98F4CCB65A55}"/>
+    <workbookView xWindow="16740" yWindow="1280" windowWidth="27960" windowHeight="24620" xr2:uid="{28802D33-BBEF-DC4E-A6DC-98F4CCB65A55}"/>
   </bookViews>
   <sheets>
     <sheet name="SO AZ" sheetId="2" r:id="rId1"/>
@@ -21,45 +21,45 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="DATA" localSheetId="0">[3]CONST!$B$9</definedName>
-    <definedName name="DATA">[1]CONST!$B$9</definedName>
-    <definedName name="Incubation" localSheetId="0">[3]CONST!$B$20</definedName>
-    <definedName name="Incubation">[1]CONST!$B$20</definedName>
-    <definedName name="new_cases" localSheetId="0">[3]CONST!$C$55</definedName>
-    <definedName name="new_cases">[1]CONST!$C$55</definedName>
-    <definedName name="new_deaths_smoothed_per_million" localSheetId="0">[3]CONST!$C$65</definedName>
-    <definedName name="new_deaths_smoothed_per_million">[1]CONST!$C$65</definedName>
-    <definedName name="new_tests_smoothed_per_thousand" localSheetId="0">[3]CONST!$C$80</definedName>
-    <definedName name="new_tests_smoothed_per_thousand">[1]CONST!$C$80</definedName>
-    <definedName name="population" localSheetId="0">[3]CONST!$C$98</definedName>
-    <definedName name="population">[1]CONST!$C$98</definedName>
+    <definedName name="DATA" localSheetId="0">'[1]SO AZ'!$B$9</definedName>
+    <definedName name="DATA">[2]CONST!$B$9</definedName>
+    <definedName name="Incubation" localSheetId="0">'[1]SO AZ'!$B$20</definedName>
+    <definedName name="Incubation">[2]CONST!$B$20</definedName>
+    <definedName name="new_cases" localSheetId="0">'[1]SO AZ'!$C$55</definedName>
+    <definedName name="new_cases">[2]CONST!$C$55</definedName>
+    <definedName name="new_deaths_smoothed_per_million" localSheetId="0">'[1]SO AZ'!$C$65</definedName>
+    <definedName name="new_deaths_smoothed_per_million">[2]CONST!$C$65</definedName>
+    <definedName name="new_tests_smoothed_per_thousand" localSheetId="0">'[1]SO AZ'!$C$80</definedName>
+    <definedName name="new_tests_smoothed_per_thousand">[2]CONST!$C$80</definedName>
+    <definedName name="population" localSheetId="0">'[1]SO AZ'!$C$98</definedName>
+    <definedName name="population">[2]CONST!$C$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'SO AZ'!$A$1:$J$194</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SO AZ'!$2:$2</definedName>
-    <definedName name="ProCapTourism" localSheetId="0">[3]CONST!$B$21</definedName>
-    <definedName name="ProCapTourism">[1]CONST!$B$21</definedName>
-    <definedName name="ReportDate" localSheetId="0">[3]CONST!$B$5</definedName>
-    <definedName name="ReportDate">[1]CONST!$B$5</definedName>
-    <definedName name="RG_A" localSheetId="0">[3]CONST!$B$42</definedName>
-    <definedName name="RG_A">[1]CONST!$B$42</definedName>
-    <definedName name="RG_B" localSheetId="0">[3]CONST!$B$43</definedName>
-    <definedName name="RG_B">[1]CONST!$B$43</definedName>
-    <definedName name="RG_C" localSheetId="0">[3]CONST!$B$44</definedName>
-    <definedName name="RG_C">[1]CONST!$B$44</definedName>
-    <definedName name="RG_D" localSheetId="0">[3]CONST!$B$45</definedName>
-    <definedName name="RG_D">[1]CONST!$B$45</definedName>
-    <definedName name="RG_E" localSheetId="0">[3]CONST!$B$46</definedName>
-    <definedName name="RG_E">[1]CONST!$B$46</definedName>
-    <definedName name="Thresh_H" localSheetId="0">[3]CONST!$B$36</definedName>
-    <definedName name="Thresh_H">[1]CONST!$B$36</definedName>
-    <definedName name="Thresh_L" localSheetId="0">[3]CONST!$B$34</definedName>
-    <definedName name="Thresh_L">[1]CONST!$B$34</definedName>
-    <definedName name="Thresh_M" localSheetId="0">[3]CONST!$B$35</definedName>
-    <definedName name="Thresh_M">[1]CONST!$B$35</definedName>
-    <definedName name="Thresh_VH" localSheetId="0">[3]CONST!$B$37</definedName>
-    <definedName name="Thresh_VH">[1]CONST!$B$37</definedName>
-    <definedName name="Weight_a">[2]CONST!$E$4</definedName>
-    <definedName name="Weight_b">[2]CONST!$E$5</definedName>
-    <definedName name="Weight_c">[2]CONST!$E$6</definedName>
+    <definedName name="ProCapTourism" localSheetId="0">'[1]SO AZ'!$B$21</definedName>
+    <definedName name="ProCapTourism">[2]CONST!$B$21</definedName>
+    <definedName name="ReportDate" localSheetId="0">'[1]SO AZ'!$B$5</definedName>
+    <definedName name="ReportDate">[2]CONST!$B$5</definedName>
+    <definedName name="RG_A" localSheetId="0">'[1]SO AZ'!$B$42</definedName>
+    <definedName name="RG_A">[2]CONST!$B$42</definedName>
+    <definedName name="RG_B" localSheetId="0">'[1]SO AZ'!$B$43</definedName>
+    <definedName name="RG_B">[2]CONST!$B$43</definedName>
+    <definedName name="RG_C" localSheetId="0">'[1]SO AZ'!$B$44</definedName>
+    <definedName name="RG_C">[2]CONST!$B$44</definedName>
+    <definedName name="RG_D" localSheetId="0">'[1]SO AZ'!$B$45</definedName>
+    <definedName name="RG_D">[2]CONST!$B$45</definedName>
+    <definedName name="RG_E" localSheetId="0">'[1]SO AZ'!$B$46</definedName>
+    <definedName name="RG_E">[2]CONST!$B$46</definedName>
+    <definedName name="Thresh_H" localSheetId="0">'[1]SO AZ'!$B$36</definedName>
+    <definedName name="Thresh_H">[2]CONST!$B$36</definedName>
+    <definedName name="Thresh_L" localSheetId="0">'[1]SO AZ'!$B$34</definedName>
+    <definedName name="Thresh_L">[2]CONST!$B$34</definedName>
+    <definedName name="Thresh_M" localSheetId="0">'[1]SO AZ'!$B$35</definedName>
+    <definedName name="Thresh_M">[2]CONST!$B$35</definedName>
+    <definedName name="Thresh_VH" localSheetId="0">'[1]SO AZ'!$B$37</definedName>
+    <definedName name="Thresh_VH">[2]CONST!$B$37</definedName>
+    <definedName name="Weight_a">[3]CONST!$E$4</definedName>
+    <definedName name="Weight_b">[3]CONST!$E$5</definedName>
+    <definedName name="Weight_c">[3]CONST!$E$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -884,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -947,8 +947,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,6 +965,33 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SO AZ"/>
+      <sheetName val="CONST"/>
+      <sheetName val="Table"/>
+      <sheetName val="SO SI"/>
+      <sheetName val="TOUR2019"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5">
+            <v>30.739244601344975</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1073,7 +1098,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1102,113 +1127,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="CONST"/>
-      <sheetName val="Table"/>
-      <sheetName val="SO AZ"/>
-      <sheetName val="SO SI"/>
-      <sheetName val="TOUR2019"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>2022-01-20</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>[owid-covid-data.xlsx]Sheet1</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>1400</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>60</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>35</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>A: VERY LOW</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>B: LOW</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44" t="str">
-            <v>C: MEDIUM</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45" t="str">
-            <v>D: HIGH</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46" t="str">
-            <v>E: VERY HIGH</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>49</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1517,7 +1435,7 @@
   <dimension ref="A1:Q195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:M195"/>
+      <selection sqref="A1:M195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1456,7 @@
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
         <f>"SEDRA report of " &amp; ReportDate</f>
-        <v>SEDRA report of 2022-01-20</v>
+        <v>SEDRA report of 30.739244601345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1615,37 +1533,37 @@
         <v>10</v>
       </c>
       <c r="B4" s="25">
-        <v>57.527408817088698</v>
-      </c>
-      <c r="C4" s="31" t="s">
+        <v>47.477072456328493</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
-        <v>2.5806174343099815E-5</v>
-      </c>
-      <c r="E4">
-        <v>38750.416342412449</v>
-      </c>
-      <c r="F4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G4" s="27">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>5.7534908817088697</v>
-      </c>
-      <c r="I4">
-        <v>2.4999999999999996E-3</v>
-      </c>
-      <c r="J4">
+      <c r="D4" s="26">
+        <v>2.1197211688048136E-4</v>
+      </c>
+      <c r="E4" s="27">
+        <v>4717.6016106110847</v>
+      </c>
+      <c r="F4" s="28">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <v>4.7519572456328492</v>
+      </c>
+      <c r="I4" s="28">
+        <v>1.4166666666666666E-2</v>
+      </c>
+      <c r="J4" s="28">
         <v>0</v>
       </c>
       <c r="K4"/>
-      <c r="L4">
-        <v>1028</v>
-      </c>
-      <c r="M4" s="32">
+      <c r="L4" s="27">
+        <v>8444</v>
+      </c>
+      <c r="M4" s="29">
         <v>39835428</v>
       </c>
     </row>
@@ -1654,35 +1572,35 @@
         <v>12</v>
       </c>
       <c r="B5" s="25">
-        <v>30.739244601344975</v>
+        <v>32.000287277302412</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="26">
-        <v>9.8348935269658121E-3</v>
+        <v>5.0272648101209426E-3</v>
       </c>
       <c r="E5" s="27">
-        <v>101.67878251636878</v>
+        <v>198.91532230146092</v>
       </c>
       <c r="F5" s="28">
-        <v>1.5409999999999999</v>
+        <v>1.9890000000000001</v>
       </c>
       <c r="G5" s="25">
-        <v>2426</v>
+        <v>264</v>
       </c>
       <c r="H5" s="28">
-        <v>3.0895926465026609</v>
+        <v>3.2396776461973453</v>
       </c>
       <c r="I5" s="28">
-        <v>0.10701388888888888</v>
+        <v>0.138125</v>
       </c>
       <c r="J5" s="28">
-        <v>0.16435980298503419</v>
+        <v>1.7885815328956729E-2</v>
       </c>
       <c r="K5"/>
       <c r="L5" s="27">
-        <v>28255</v>
+        <v>14443</v>
       </c>
       <c r="M5" s="29">
         <v>2872934</v>
@@ -1693,35 +1611,35 @@
         <v>14</v>
       </c>
       <c r="B6" s="25">
-        <v>47.649807551974327</v>
+        <v>43.53943890844144</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="26">
-        <v>2.1617501959919606E-4</v>
+        <v>3.2483406522044046E-4</v>
       </c>
       <c r="E6" s="27">
-        <v>4625.8813893208917</v>
+        <v>3078.4948595873871</v>
       </c>
       <c r="F6" s="28">
-        <v>0.224</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="G6" s="25">
         <v>0</v>
       </c>
       <c r="H6" s="28">
-        <v>4.7696474218640992</v>
+        <v>4.3587563908441442</v>
       </c>
       <c r="I6" s="28">
-        <v>1.5555555555555555E-2</v>
+        <v>1.6041666666666666E-2</v>
       </c>
       <c r="J6" s="28">
         <v>0</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="27">
-        <v>9645</v>
+        <v>14493</v>
       </c>
       <c r="M6" s="29">
         <v>44616626</v>
@@ -1732,35 +1650,35 @@
         <v>16</v>
       </c>
       <c r="B7" s="25">
-        <v>20.968837566435639</v>
+        <v>23.96863598525092</v>
       </c>
       <c r="C7" t="s">
         <v>162</v>
       </c>
       <c r="D7" s="26">
-        <v>8.9355430876231351E-2</v>
+        <v>2.644982806319001E-2</v>
       </c>
       <c r="E7" s="27">
-        <v>11.191261574074074</v>
+        <v>37.807429130009773</v>
       </c>
       <c r="F7" s="28">
-        <v>5.54</v>
+        <v>1.847</v>
       </c>
       <c r="G7" s="25">
-        <v>0</v>
+        <v>2366</v>
       </c>
       <c r="H7" s="28">
-        <v>2.1269092049745599</v>
+        <v>2.4193132806961861</v>
       </c>
       <c r="I7" s="28">
-        <v>0.38472222222222224</v>
+        <v>0.1282638888888889</v>
       </c>
       <c r="J7" s="28">
-        <v>0.85391218335670682</v>
+        <v>0.16029484495572585</v>
       </c>
       <c r="K7"/>
       <c r="L7" s="27">
-        <v>6912</v>
+        <v>2046</v>
       </c>
       <c r="M7" s="29">
         <v>77354</v>
@@ -1771,35 +1689,35 @@
         <v>18</v>
       </c>
       <c r="B8" s="25">
-        <v>45.328562962620992</v>
+        <v>53.723006373603987</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="26">
-        <v>2.2381938662525483E-4</v>
+        <v>1.688591290800145E-5</v>
       </c>
       <c r="E8" s="27">
-        <v>4467.8882159315335</v>
+        <v>59220.961605584642</v>
       </c>
       <c r="F8" s="28">
-        <v>0.14299999999999999</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G8" s="25">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H8" s="28">
-        <v>4.535835462928766</v>
+        <v>5.3720519991213385</v>
       </c>
       <c r="I8" s="28">
-        <v>9.9305555555555553E-3</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="J8" s="28">
-        <v>0</v>
+        <v>3.3197157239351505E-3</v>
       </c>
       <c r="K8"/>
       <c r="L8" s="27">
-        <v>7595</v>
+        <v>573</v>
       </c>
       <c r="M8" s="29">
         <v>33933611</v>
@@ -1810,35 +1728,35 @@
         <v>19</v>
       </c>
       <c r="B9" s="25">
-        <v>29.509760292726522</v>
+        <v>28.875231413141467</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="26">
-        <v>1.0392188639494369E-2</v>
+        <v>8.0726845474434813E-3</v>
       </c>
       <c r="E9" s="27">
-        <v>96.226120857699797</v>
+        <v>123.87452948557089</v>
       </c>
       <c r="F9" s="28">
-        <v>1.4470000000000001</v>
+        <v>10.129</v>
       </c>
       <c r="G9" s="25">
         <v>0</v>
       </c>
       <c r="H9" s="28">
-        <v>2.9811218626059857</v>
+        <v>3.0985439746474799</v>
       </c>
       <c r="I9" s="28">
-        <v>0.10048611111111111</v>
+        <v>0.70340277777777771</v>
       </c>
       <c r="J9" s="28">
         <v>0</v>
       </c>
       <c r="K9"/>
       <c r="L9" s="27">
-        <v>1026</v>
+        <v>797</v>
       </c>
       <c r="M9" s="29">
         <v>98728</v>
@@ -1849,35 +1767,35 @@
         <v>20</v>
       </c>
       <c r="B10" s="25">
-        <v>24.554701447705142</v>
+        <v>27.376338117779333</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D10" s="26">
-        <v>3.4009516723335964E-2</v>
+        <v>1.0803116084540345E-2</v>
       </c>
       <c r="E10" s="27">
-        <v>29.403534549899682</v>
+        <v>92.565884896028905</v>
       </c>
       <c r="F10" s="28">
-        <v>3.1360000000000001</v>
+        <v>4.8710000000000004</v>
       </c>
       <c r="G10" s="25">
-        <v>2919</v>
+        <v>937</v>
       </c>
       <c r="H10" s="28">
-        <v>2.5010274572912623</v>
+        <v>2.8327648689888303</v>
       </c>
       <c r="I10" s="28">
-        <v>0.21777777777777779</v>
+        <v>0.33826388888888892</v>
       </c>
       <c r="J10" s="28">
-        <v>0.1977602081258511</v>
+        <v>6.3481094557698695E-2</v>
       </c>
       <c r="K10"/>
       <c r="L10" s="27">
-        <v>1551032</v>
+        <v>492685</v>
       </c>
       <c r="M10" s="29">
         <v>45605823</v>
@@ -1888,35 +1806,35 @@
         <v>21</v>
       </c>
       <c r="B11" s="25">
-        <v>40.08798739518501</v>
+        <v>28.422285340904924</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" s="26">
-        <v>1.3274360135411951E-3</v>
+        <v>1.398490900661966E-2</v>
       </c>
       <c r="E11" s="27">
-        <v>753.33197969543141</v>
+        <v>71.505649377243486</v>
       </c>
       <c r="F11" s="28">
-        <v>0.57799999999999996</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="G11" s="25">
-        <v>1657</v>
+        <v>2236</v>
       </c>
       <c r="H11" s="28">
-        <v>4.009614347094228</v>
+        <v>2.8852464571679368</v>
       </c>
       <c r="I11" s="28">
-        <v>4.0138888888888884E-2</v>
+        <v>0.19388888888888889</v>
       </c>
       <c r="J11" s="28">
-        <v>0.11226059090939887</v>
+        <v>0.15148743589222444</v>
       </c>
       <c r="K11"/>
       <c r="L11" s="27">
-        <v>3940</v>
+        <v>41509</v>
       </c>
       <c r="M11" s="29">
         <v>2968128</v>
@@ -1927,35 +1845,35 @@
         <v>22</v>
       </c>
       <c r="B12" s="25">
-        <v>23.068196882023035</v>
+        <v>27.006987322775384</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D12" s="26">
-        <v>5.1343759050887464E-2</v>
+        <v>1.5388345770473391E-2</v>
       </c>
       <c r="E12" s="27">
-        <v>19.476563821688377</v>
+        <v>64.984242940444204</v>
       </c>
       <c r="F12" s="28">
         <v>2.2490000000000001</v>
       </c>
       <c r="G12" s="25">
-        <v>8196</v>
+        <v>3720</v>
       </c>
       <c r="H12" s="28">
-        <v>2.2981465281886182</v>
+        <v>2.7223501591624935</v>
       </c>
       <c r="I12" s="28">
         <v>0.15618055555555557</v>
       </c>
       <c r="J12" s="28">
-        <v>0.55527326680352018</v>
+        <v>0.25202739781711753</v>
       </c>
       <c r="K12"/>
       <c r="L12" s="27">
-        <v>1324064</v>
+        <v>396838</v>
       </c>
       <c r="M12" s="29">
         <v>25788217</v>
@@ -1966,35 +1884,35 @@
         <v>23</v>
       </c>
       <c r="B13" s="25">
-        <v>32.645409080991705</v>
+        <v>27.022829318815457</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="26">
-        <v>2.1293870047700603E-2</v>
+        <v>5.0559367436198675E-2</v>
       </c>
       <c r="E13" s="27">
-        <v>46.961872020440175</v>
+        <v>19.778728467319318</v>
       </c>
       <c r="F13" s="28">
-        <v>0.91600000000000004</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="G13" s="25">
-        <v>81846</v>
+        <v>67376</v>
       </c>
       <c r="H13" s="28">
-        <v>2.7291233166545519</v>
+        <v>2.294523578243747</v>
       </c>
       <c r="I13" s="28">
-        <v>6.3611111111111118E-2</v>
+        <v>0.16236111111111112</v>
       </c>
       <c r="J13" s="28">
-        <v>5.5450092477795172</v>
+        <v>4.5646768697113203</v>
       </c>
       <c r="K13"/>
       <c r="L13" s="27">
-        <v>192562</v>
+        <v>457212</v>
       </c>
       <c r="M13" s="29">
         <v>9043072</v>
@@ -2005,35 +1923,35 @@
         <v>24</v>
       </c>
       <c r="B14" s="25">
-        <v>40.703123038316754</v>
+        <v>31.348717326392148</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D14" s="26">
-        <v>9.6348122492992503E-4</v>
+        <v>8.0470734428969622E-3</v>
       </c>
       <c r="E14" s="27">
-        <v>1037.9029441624366</v>
+        <v>124.26878008460154</v>
       </c>
       <c r="F14" s="28">
-        <v>1.034</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="G14" s="25">
-        <v>961</v>
+        <v>1777</v>
       </c>
       <c r="H14" s="28">
-        <v>4.0853432627214001</v>
+        <v>3.1737701819424133</v>
       </c>
       <c r="I14" s="28">
-        <v>7.1805555555555553E-2</v>
+        <v>0.16979166666666665</v>
       </c>
       <c r="J14" s="28">
-        <v>6.5107077769422025E-2</v>
+        <v>0.12039050696801555</v>
       </c>
       <c r="K14"/>
       <c r="L14" s="27">
-        <v>9850</v>
+        <v>82268</v>
       </c>
       <c r="M14" s="29">
         <v>10223344</v>
@@ -2044,35 +1962,35 @@
         <v>25</v>
       </c>
       <c r="B15" s="25">
-        <v>28.283036463649633</v>
+        <v>37.382380641554406</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D15" s="26">
-        <v>1.257703180033962E-2</v>
+        <v>1.2471215427019456E-3</v>
       </c>
       <c r="E15" s="27">
-        <v>79.510016025641022</v>
+        <v>801.8464646464646</v>
       </c>
       <c r="F15" s="28">
-        <v>2.5190000000000001</v>
+        <v>2.879</v>
       </c>
       <c r="G15" s="25">
-        <v>2139</v>
+        <v>1012.9999999999999</v>
       </c>
       <c r="H15" s="28">
-        <v>2.8662912376571459</v>
+        <v>3.7913542266826248</v>
       </c>
       <c r="I15" s="28">
-        <v>0.17493055555555556</v>
+        <v>0.19993055555555556</v>
       </c>
       <c r="J15" s="28">
-        <v>0.14491575374484256</v>
+        <v>6.8630041394822594E-2</v>
       </c>
       <c r="K15"/>
       <c r="L15" s="27">
-        <v>4992</v>
+        <v>495</v>
       </c>
       <c r="M15" s="29">
         <v>396914</v>
@@ -2083,35 +2001,35 @@
         <v>26</v>
       </c>
       <c r="B16" s="25">
-        <v>29.081059411812941</v>
+        <v>23.791471395162564</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D16" s="26">
-        <v>1.8731964571196507E-2</v>
+        <v>5.6918883826814128E-2</v>
       </c>
       <c r="E16" s="27">
-        <v>53.38468350178632</v>
+        <v>17.568861733878666</v>
       </c>
       <c r="F16" s="28">
-        <v>8.2000000000000003E-2</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G16" s="25">
-        <v>13856</v>
+        <v>17351</v>
       </c>
       <c r="H16" s="28">
-        <v>2.8159408437578</v>
+        <v>2.2769078282387079</v>
       </c>
       <c r="I16" s="28">
-        <v>5.6944444444444447E-3</v>
+        <v>5.1041666666666666E-2</v>
       </c>
       <c r="J16" s="28">
-        <v>0.93873430756827436</v>
+        <v>1.1755181127754855</v>
       </c>
       <c r="K16"/>
       <c r="L16" s="27">
-        <v>32749</v>
+        <v>99511</v>
       </c>
       <c r="M16" s="29">
         <v>1748295</v>
@@ -2122,35 +2040,35 @@
         <v>27</v>
       </c>
       <c r="B17" s="25">
-        <v>46.188822877109956</v>
+        <v>39.939891057441308</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="26">
-        <v>3.8023855349665712E-4</v>
+        <v>8.8515277977262467E-4</v>
       </c>
       <c r="E17" s="27">
-        <v>2629.9279512927969</v>
+        <v>1129.7484715089263</v>
       </c>
       <c r="F17" s="28">
-        <v>4.9000000000000002E-2</v>
+        <v>0.215</v>
       </c>
       <c r="G17" s="25">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="H17" s="28">
-        <v>4.6185684598247061</v>
+        <v>3.9968084145488301</v>
       </c>
       <c r="I17" s="28">
-        <v>3.402777777777778E-3</v>
+        <v>1.4930555555555555E-2</v>
       </c>
       <c r="J17" s="28">
-        <v>1.3346612196229074E-2</v>
+        <v>1.6598578619675751E-2</v>
       </c>
       <c r="K17"/>
       <c r="L17" s="27">
-        <v>63235</v>
+        <v>147204</v>
       </c>
       <c r="M17" s="29">
         <v>166303494</v>
@@ -2161,35 +2079,35 @@
         <v>28</v>
       </c>
       <c r="B18" s="25">
-        <v>26.099936126138111</v>
+        <v>24.301850208169942</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D18" s="26">
-        <v>2.4417117355096139E-2</v>
+        <v>2.9039859857911493E-2</v>
       </c>
       <c r="E18" s="27">
-        <v>40.954875444839857</v>
+        <v>34.435427887492523</v>
       </c>
       <c r="F18" s="28">
-        <v>1.986</v>
+        <v>3.972</v>
       </c>
       <c r="G18" s="25">
         <v>0</v>
       </c>
       <c r="H18" s="28">
-        <v>2.651368612613811</v>
+        <v>2.512935020816994</v>
       </c>
       <c r="I18" s="28">
-        <v>0.13791666666666666</v>
+        <v>0.27583333333333332</v>
       </c>
       <c r="J18" s="28">
         <v>0</v>
       </c>
       <c r="K18"/>
       <c r="L18" s="27">
-        <v>7025</v>
+        <v>8355</v>
       </c>
       <c r="M18" s="29">
         <v>287708</v>
@@ -2200,35 +2118,35 @@
         <v>29</v>
       </c>
       <c r="B19" s="25">
-        <v>37.773207109963501</v>
+        <v>32.27239431582489</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="26">
-        <v>1.7151570598209209E-3</v>
+        <v>7.5795836158658167E-3</v>
       </c>
       <c r="E19" s="27">
-        <v>583.03698444060262</v>
+        <v>131.93336872843111</v>
       </c>
       <c r="F19" s="28">
-        <v>1.6339999999999999</v>
+        <v>1.589</v>
       </c>
       <c r="G19" s="25">
-        <v>2097</v>
+        <v>3353</v>
       </c>
       <c r="H19" s="28">
-        <v>3.7971553493505841</v>
+        <v>3.2376272577953711</v>
       </c>
       <c r="I19" s="28">
-        <v>0.11347222222222221</v>
+        <v>0.11034722222222222</v>
       </c>
       <c r="J19" s="28">
-        <v>0.14207028312432674</v>
+        <v>0.22716340453784817</v>
       </c>
       <c r="K19"/>
       <c r="L19" s="27">
-        <v>16196</v>
+        <v>71573</v>
       </c>
       <c r="M19" s="29">
         <v>9442867</v>
@@ -2239,35 +2157,35 @@
         <v>30</v>
       </c>
       <c r="B20" s="25">
-        <v>25.295278958293402</v>
+        <v>22.873639896526026</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D20" s="26">
-        <v>3.7461871366485863E-2</v>
+        <v>3.4224859774487221E-2</v>
       </c>
       <c r="E20" s="27">
-        <v>26.693807957885944</v>
+        <v>29.218527309948129</v>
       </c>
       <c r="F20" s="28">
-        <v>2.37</v>
+        <v>4.6420000000000003</v>
       </c>
       <c r="G20" s="25">
-        <v>8923</v>
+        <v>5098</v>
       </c>
       <c r="H20" s="28">
-        <v>2.5184501950034761</v>
+        <v>2.3495337295969128</v>
       </c>
       <c r="I20" s="28">
-        <v>0.16458333333333333</v>
+        <v>0.32236111111111115</v>
       </c>
       <c r="J20" s="28">
-        <v>0.6045270082586397</v>
+        <v>0.34538593389023259</v>
       </c>
       <c r="K20"/>
       <c r="L20" s="27">
-        <v>435769</v>
+        <v>398115</v>
       </c>
       <c r="M20" s="29">
         <v>11632334</v>
@@ -2278,35 +2196,35 @@
         <v>31</v>
       </c>
       <c r="B21" s="25">
-        <v>26.874671608575195</v>
+        <v>27.607308828284289</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="26">
-        <v>2.4086536680537892E-2</v>
+        <v>1.2790338713063235E-2</v>
       </c>
       <c r="E21" s="27">
-        <v>41.516969137701217</v>
+        <v>78.184012357597993</v>
       </c>
       <c r="F21" s="28">
-        <v>1.764</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="G21" s="25">
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <v>2.6741368779364407</v>
+        <v>2.7754392161617623</v>
       </c>
       <c r="I21" s="28">
-        <v>0.1225</v>
+        <v>4.9027777777777774E-2</v>
       </c>
       <c r="J21" s="28">
-        <v>0.50080282921078845</v>
+        <v>0</v>
       </c>
       <c r="K21"/>
       <c r="L21" s="27">
-        <v>9753</v>
+        <v>5179</v>
       </c>
       <c r="M21" s="29">
         <v>404915</v>
@@ -2317,35 +2235,35 @@
         <v>32</v>
       </c>
       <c r="B22" s="25">
-        <v>51.276945393575303</v>
+        <v>59.228534592933713</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="26">
-        <v>6.3207617104157874E-5</v>
+        <v>3.8551024409143307E-6</v>
       </c>
       <c r="E22" s="27">
-        <v>15820.878017789075</v>
+        <v>259396.47916666666</v>
       </c>
       <c r="F22" s="28">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G22" s="25">
         <v>0</v>
       </c>
       <c r="H22" s="28">
-        <v>5.1279237060241973</v>
+        <v>5.9228534592933713</v>
       </c>
       <c r="I22" s="28">
-        <v>7.6388888888888882E-4</v>
+        <v>0</v>
       </c>
       <c r="J22" s="28">
         <v>0</v>
       </c>
       <c r="K22"/>
       <c r="L22" s="27">
-        <v>787</v>
+        <v>48</v>
       </c>
       <c r="M22" s="29">
         <v>12451031</v>
@@ -2356,35 +2274,35 @@
         <v>33</v>
       </c>
       <c r="B23" s="25">
-        <v>46.411023453640475</v>
+        <v>35.666277456071263</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D23" s="26">
-        <v>8.2831132196435435E-4</v>
+        <v>3.2747788177971537E-3</v>
       </c>
       <c r="E23" s="27">
-        <v>1207.2755417956657</v>
+        <v>305.36413469068128</v>
       </c>
       <c r="F23" s="28">
-        <v>0</v>
+        <v>0.183</v>
       </c>
       <c r="G23" s="25">
-        <v>53029</v>
+        <v>10130</v>
       </c>
       <c r="H23" s="28">
-        <v>4.2818345798037267</v>
+        <v>3.5018102042123038</v>
       </c>
       <c r="I23" s="28">
-        <v>0</v>
+        <v>1.2708333333333334E-2</v>
       </c>
       <c r="J23" s="28">
-        <v>3.5926776556032061</v>
+        <v>0.68630041394822605</v>
       </c>
       <c r="K23"/>
       <c r="L23" s="27">
-        <v>646</v>
+        <v>2554</v>
       </c>
       <c r="M23" s="29">
         <v>779900</v>
@@ -2395,35 +2313,35 @@
         <v>34</v>
       </c>
       <c r="B24" s="25">
-        <v>28.484350777128071</v>
+        <v>33.093379858305596</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="26">
-        <v>1.2952829289366561E-2</v>
+        <v>3.140809685778745E-3</v>
       </c>
       <c r="E24" s="27">
-        <v>77.203210021530637</v>
+        <v>318.389237185524</v>
       </c>
       <c r="F24" s="28">
-        <v>4.8410000000000002</v>
+        <v>1.7629999999999999</v>
       </c>
       <c r="G24" s="25">
-        <v>1873</v>
+        <v>869</v>
       </c>
       <c r="H24" s="28">
-        <v>2.9365998003979827</v>
+        <v>3.3401797382847778</v>
       </c>
       <c r="I24" s="28">
-        <v>0.33618055555555559</v>
+        <v>0.12243055555555554</v>
       </c>
       <c r="J24" s="28">
-        <v>0.12689443981490892</v>
+        <v>5.8874142124482567E-2</v>
       </c>
       <c r="K24"/>
       <c r="L24" s="27">
-        <v>153270</v>
+        <v>37165</v>
       </c>
       <c r="M24" s="29">
         <v>11832936</v>
@@ -2434,35 +2352,35 @@
         <v>35</v>
       </c>
       <c r="B25" s="25">
-        <v>29.000282436587419</v>
+        <v>28.528262656403729</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="26">
-        <v>9.0891290498823496E-3</v>
+        <v>5.9066162620703983E-3</v>
       </c>
       <c r="E25" s="27">
-        <v>110.0215427145843</v>
+        <v>169.30167047105209</v>
       </c>
       <c r="F25" s="28">
-        <v>10.023999999999999</v>
+        <v>14.664999999999999</v>
       </c>
       <c r="G25" s="25">
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <v>3.1088615769920751</v>
+        <v>3.1583470989737061</v>
       </c>
       <c r="I25" s="28">
-        <v>0.69611111111111101</v>
+        <v>1.0184027777777778</v>
       </c>
       <c r="J25" s="28">
         <v>0</v>
       </c>
       <c r="K25"/>
       <c r="L25" s="27">
-        <v>29662</v>
+        <v>19276</v>
       </c>
       <c r="M25" s="29">
         <v>3263459</v>
@@ -2473,35 +2391,35 @@
         <v>36</v>
       </c>
       <c r="B26" s="25">
-        <v>31.183571392586099</v>
+        <v>33.181047863056257</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="26">
-        <v>5.8780097111678434E-3</v>
+        <v>3.7163571440489897E-3</v>
       </c>
       <c r="E26" s="27">
-        <v>170.12561209282521</v>
+        <v>269.08070490515206</v>
       </c>
       <c r="F26" s="28">
-        <v>1.788</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="G26" s="25">
-        <v>2585</v>
+        <v>0</v>
       </c>
       <c r="H26" s="28">
-        <v>3.13809394508234</v>
+        <v>3.3272758037476833</v>
       </c>
       <c r="I26" s="28">
-        <v>0.12416666666666668</v>
+        <v>4.9652777777777775E-2</v>
       </c>
       <c r="J26" s="28">
-        <v>0.1751319417627013</v>
+        <v>5.7248158912759223E-2</v>
       </c>
       <c r="K26"/>
       <c r="L26" s="27">
-        <v>14091</v>
+        <v>8909</v>
       </c>
       <c r="M26" s="29">
         <v>2397240</v>
@@ -2512,35 +2430,35 @@
         <v>37</v>
       </c>
       <c r="B27" s="25">
-        <v>33.744774866902837</v>
+        <v>28.559749426991473</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="26">
-        <v>5.6461917447273536E-3</v>
+        <v>1.0961807936907748E-2</v>
       </c>
       <c r="E27" s="27">
-        <v>177.11052780554985</v>
+        <v>91.225827505430019</v>
       </c>
       <c r="F27" s="28">
-        <v>1.099</v>
+        <v>4.03</v>
       </c>
       <c r="G27" s="25">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H27" s="28">
-        <v>3.3966280777182436</v>
+        <v>2.9377381986966542</v>
       </c>
       <c r="I27" s="28">
-        <v>7.631944444444444E-2</v>
+        <v>0.27986111111111112</v>
       </c>
       <c r="J27" s="28">
-        <v>7.4524230537319699E-3</v>
+        <v>2.1950773358265077E-2</v>
       </c>
       <c r="K27"/>
       <c r="L27" s="27">
-        <v>1208248</v>
+        <v>2345755</v>
       </c>
       <c r="M27" s="29">
         <v>213993441</v>
@@ -2551,16 +2469,16 @@
         <v>38</v>
       </c>
       <c r="B28" s="25">
-        <v>40.620878351431351</v>
+        <v>33.546724165962544</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D28" s="26">
-        <v>1.0282380439016877E-3</v>
+        <v>7.3992372013806477E-3</v>
       </c>
       <c r="E28" s="27">
-        <v>972.53744493392071</v>
+        <v>135.14906642179369</v>
       </c>
       <c r="F28" s="28">
         <v>0</v>
@@ -2569,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="28">
-        <v>4.0620878351431351</v>
+        <v>3.3546724165962543</v>
       </c>
       <c r="I28" s="28">
         <v>0</v>
@@ -2579,7 +2497,7 @@
       </c>
       <c r="K28"/>
       <c r="L28" s="27">
-        <v>454</v>
+        <v>3267</v>
       </c>
       <c r="M28" s="29">
         <v>441532</v>
@@ -2590,35 +2508,35 @@
         <v>39</v>
       </c>
       <c r="B29" s="25">
-        <v>27.236423154599592</v>
+        <v>25.463185957888033</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="26">
-        <v>1.317682267708041E-2</v>
+        <v>1.4740914254809034E-2</v>
       </c>
       <c r="E29" s="27">
-        <v>75.890829261851323</v>
+        <v>67.838397450399853</v>
       </c>
       <c r="F29" s="28">
-        <v>12.346</v>
+        <v>13.257</v>
       </c>
       <c r="G29" s="25">
-        <v>5463</v>
+        <v>4214</v>
       </c>
       <c r="H29" s="28">
-        <v>2.94383920593644</v>
+        <v>2.7939565405629612</v>
       </c>
       <c r="I29" s="28">
-        <v>0.85736111111111113</v>
+        <v>0.92062500000000003</v>
       </c>
       <c r="J29" s="28">
-        <v>0.37011442856852506</v>
+        <v>0.28549555225842294</v>
       </c>
       <c r="K29"/>
       <c r="L29" s="27">
-        <v>90876</v>
+        <v>101663</v>
       </c>
       <c r="M29" s="29">
         <v>6896655</v>
@@ -2629,35 +2547,35 @@
         <v>40</v>
       </c>
       <c r="B30" s="25">
-        <v>49.924697925201428</v>
+        <v>61.299142667329313</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D30" s="26">
-        <v>8.3639200213870741E-5</v>
+        <v>4.8843804351815501E-6</v>
       </c>
       <c r="E30" s="27">
-        <v>11956.116240266963</v>
+        <v>204734.25714285715</v>
       </c>
       <c r="F30" s="28">
-        <v>9.2999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G30" s="25">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H30" s="28">
-        <v>4.994407292520143</v>
+        <v>6.1302022097286697</v>
       </c>
       <c r="I30" s="28">
-        <v>6.4583333333333333E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="J30" s="28">
-        <v>0</v>
+        <v>1.2872367092809766E-3</v>
       </c>
       <c r="K30"/>
       <c r="L30" s="27">
-        <v>1798</v>
+        <v>105</v>
       </c>
       <c r="M30" s="29">
         <v>21497097</v>
@@ -2668,35 +2586,35 @@
         <v>41</v>
       </c>
       <c r="B31" s="25">
-        <v>42.463705220539119</v>
+        <v>52.779869097231256</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D31" s="26">
-        <v>2.7065556007872105E-4</v>
+        <v>4.495966644660093E-5</v>
       </c>
       <c r="E31" s="27">
-        <v>3694.7328911667169</v>
+        <v>22242.157894736843</v>
       </c>
       <c r="F31" s="28">
         <v>0</v>
       </c>
       <c r="G31" s="25">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="H31" s="28">
-        <v>4.2463705220539119</v>
+        <v>5.2766590234335515</v>
       </c>
       <c r="I31" s="28">
         <v>0</v>
       </c>
       <c r="J31" s="28">
-        <v>0</v>
+        <v>1.3278862895740602E-2</v>
       </c>
       <c r="K31"/>
       <c r="L31" s="27">
-        <v>3317</v>
+        <v>551</v>
       </c>
       <c r="M31" s="29">
         <v>12255429</v>
@@ -2707,35 +2625,35 @@
         <v>42</v>
       </c>
       <c r="B32" s="25">
-        <v>57.478410160128988</v>
+        <v>52.890681576350161</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="26">
-        <v>2.1302401695317119E-5</v>
+        <v>7.7774419485950036E-5</v>
       </c>
       <c r="E32" s="27">
-        <v>46943.063711911353</v>
+        <v>12857.698027314113</v>
       </c>
       <c r="F32" s="28">
         <v>0</v>
       </c>
       <c r="G32" s="25">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="H32" s="28">
-        <v>5.7478410160128988</v>
+        <v>5.2877809209257354</v>
       </c>
       <c r="I32" s="28">
         <v>0</v>
       </c>
       <c r="J32" s="28">
-        <v>0</v>
+        <v>1.2872367092809768E-2</v>
       </c>
       <c r="K32"/>
       <c r="L32" s="27">
-        <v>361</v>
+        <v>1318</v>
       </c>
       <c r="M32" s="29">
         <v>16946446</v>
@@ -2746,35 +2664,35 @@
         <v>43</v>
       </c>
       <c r="B33" s="25">
-        <v>59.59287832322596</v>
+        <v>49.333524682861672</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="26">
-        <v>1.0982850517674272E-5</v>
+        <v>1.3087590767382417E-4</v>
       </c>
       <c r="E33" s="27">
-        <v>91051.043478260865</v>
+        <v>7640.825708672467</v>
       </c>
       <c r="F33" s="28">
-        <v>0</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="G33" s="25">
         <v>0</v>
       </c>
       <c r="H33" s="28">
-        <v>5.9592878323225964</v>
+        <v>4.9363108016195003</v>
       </c>
       <c r="I33" s="28">
-        <v>0</v>
+        <v>9.8611111111111104E-3</v>
       </c>
       <c r="J33" s="28">
         <v>0</v>
       </c>
       <c r="K33"/>
       <c r="L33" s="27">
-        <v>299</v>
+        <v>3563</v>
       </c>
       <c r="M33" s="29">
         <v>27224262</v>
@@ -2785,35 +2703,35 @@
         <v>44</v>
       </c>
       <c r="B34" s="25">
-        <v>28.287536544238385</v>
+        <v>32.239000597883603</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="26">
-        <v>1.1745850107411982E-2</v>
+        <v>4.5289322795289567E-3</v>
       </c>
       <c r="E34" s="27">
-        <v>85.136451670617703</v>
+        <v>220.80259502224388</v>
       </c>
       <c r="F34" s="28">
-        <v>3.85</v>
+        <v>3.2010000000000001</v>
       </c>
       <c r="G34" s="25">
-        <v>3305</v>
+        <v>1782</v>
       </c>
       <c r="H34" s="28">
-        <v>2.8865708439457318</v>
+        <v>3.2785146344413145</v>
       </c>
       <c r="I34" s="28">
-        <v>0.2673611111111111</v>
+        <v>0.22229166666666667</v>
       </c>
       <c r="J34" s="28">
-        <v>0.22391143811440148</v>
+        <v>0.12072925347045792</v>
       </c>
       <c r="K34"/>
       <c r="L34" s="27">
-        <v>447140</v>
+        <v>172407</v>
       </c>
       <c r="M34" s="29">
         <v>38067913</v>
@@ -2824,35 +2742,35 @@
         <v>45</v>
       </c>
       <c r="B35" s="25">
-        <v>26.73778464916689</v>
+        <v>41.314670600791267</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D35" s="26">
-        <v>1.3374242081790208E-2</v>
+        <v>4.1288412015639766E-4</v>
       </c>
       <c r="E35" s="27">
-        <v>74.770592149035267</v>
+        <v>2421.9870689655172</v>
       </c>
       <c r="F35" s="28">
-        <v>3.0510000000000002</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="G35" s="25">
         <v>0</v>
       </c>
       <c r="H35" s="28">
-        <v>2.7373409649166889</v>
+        <v>4.1420503934124602</v>
       </c>
       <c r="I35" s="28">
-        <v>0.21187500000000001</v>
+        <v>3.5277777777777776E-2</v>
       </c>
       <c r="J35" s="28">
         <v>0</v>
       </c>
       <c r="K35"/>
       <c r="L35" s="27">
-        <v>7515</v>
+        <v>232</v>
       </c>
       <c r="M35" s="29">
         <v>561901</v>
@@ -2863,35 +2781,35 @@
         <v>46</v>
       </c>
       <c r="B36" s="25">
-        <v>46.487607441518627</v>
+        <v>51.542464841172333</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="26">
-        <v>2.144314608961365E-4</v>
+        <v>4.3089544748797104E-5</v>
       </c>
       <c r="E36" s="27">
-        <v>4663.4947867298579</v>
+        <v>23207.485849056604</v>
       </c>
       <c r="F36" s="28">
-        <v>8.6999999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="G36" s="25">
         <v>0</v>
       </c>
       <c r="H36" s="28">
-        <v>4.6505732441518628</v>
+        <v>5.1541448601665003</v>
       </c>
       <c r="I36" s="28">
-        <v>6.0416666666666665E-3</v>
+        <v>0</v>
       </c>
       <c r="J36" s="28">
-        <v>0</v>
+        <v>1.0162395073270868E-3</v>
       </c>
       <c r="K36"/>
       <c r="L36" s="27">
-        <v>1055</v>
+        <v>212</v>
       </c>
       <c r="M36" s="29">
         <v>4919987</v>
@@ -2902,35 +2820,35 @@
         <v>47</v>
       </c>
       <c r="B37" s="25">
-        <v>54.27846686251381</v>
+        <v>59.373954506561553</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="26">
-        <v>4.1619900933994328E-5</v>
+        <v>8.3358040222914779E-6</v>
       </c>
       <c r="E37" s="27">
-        <v>24026.967329545452</v>
+        <v>119964.43262411347</v>
       </c>
       <c r="F37" s="28">
         <v>0</v>
       </c>
       <c r="G37" s="25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H37" s="28">
-        <v>5.4278466862513808</v>
+        <v>5.9372870517753737</v>
       </c>
       <c r="I37" s="28">
         <v>0</v>
       </c>
       <c r="J37" s="28">
-        <v>0</v>
+        <v>1.0839888078155594E-3</v>
       </c>
       <c r="K37"/>
       <c r="L37" s="27">
-        <v>704</v>
+        <v>141</v>
       </c>
       <c r="M37" s="29">
         <v>16914985</v>
@@ -2941,35 +2859,35 @@
         <v>48</v>
       </c>
       <c r="B38" s="25">
-        <v>34.241581777551666</v>
+        <v>26.389678711331946</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="26">
-        <v>5.1644873233181844E-3</v>
+        <v>2.3854120591731511E-2</v>
       </c>
       <c r="E38" s="27">
-        <v>193.63006188143757</v>
+        <v>41.921478352324058</v>
       </c>
       <c r="F38" s="28">
-        <v>0.92900000000000005</v>
+        <v>3.339</v>
       </c>
       <c r="G38" s="25">
-        <v>4426</v>
+        <v>6470</v>
       </c>
       <c r="H38" s="28">
-        <v>3.4135265040256351</v>
+        <v>2.6646965737171531</v>
       </c>
       <c r="I38" s="28">
-        <v>6.4513888888888898E-2</v>
+        <v>0.231875</v>
       </c>
       <c r="J38" s="28">
-        <v>0.2998584039619791</v>
+        <v>0.43833797416041675</v>
       </c>
       <c r="K38"/>
       <c r="L38" s="27">
-        <v>99222</v>
+        <v>458294</v>
       </c>
       <c r="M38" s="29">
         <v>19212362</v>
@@ -2980,16 +2898,16 @@
         <v>49</v>
       </c>
       <c r="B39" s="25">
-        <v>67.867201797954522</v>
+        <v>72.496174984294697</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="26">
-        <v>1.5157011453954833E-6</v>
+        <v>6.1555884799295776E-7</v>
       </c>
       <c r="E39" s="27">
-        <v>659760.66788487893</v>
+        <v>1624540.0472440945</v>
       </c>
       <c r="F39" s="28">
         <v>0</v>
@@ -2998,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <v>6.7867201797954522</v>
+        <v>7.249617498429469</v>
       </c>
       <c r="I39" s="28">
         <v>0</v>
@@ -3008,7 +2926,7 @@
       </c>
       <c r="K39"/>
       <c r="L39" s="27">
-        <v>2189</v>
+        <v>889</v>
       </c>
       <c r="M39" s="29">
         <v>1444216102</v>
@@ -3019,35 +2937,35 @@
         <v>50</v>
       </c>
       <c r="B40" s="25">
-        <v>30.917290794750208</v>
+        <v>32.876430859825938</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="26">
-        <v>8.0434455371560173E-3</v>
+        <v>3.6302535249543647E-3</v>
       </c>
       <c r="E40" s="27">
-        <v>124.32483012169156</v>
+        <v>275.4628549014551</v>
       </c>
       <c r="F40" s="28">
-        <v>2.7919999999999998</v>
+        <v>4.2910000000000004</v>
       </c>
       <c r="G40" s="25">
-        <v>1727</v>
+        <v>883</v>
       </c>
       <c r="H40" s="28">
-        <v>3.1381954419473281</v>
+        <v>3.371056656082795</v>
       </c>
       <c r="I40" s="28">
-        <v>0.19388888888888889</v>
+        <v>0.29798611111111112</v>
       </c>
       <c r="J40" s="28">
-        <v>0.11700304194359194</v>
+        <v>5.9822632331321179E-2</v>
       </c>
       <c r="K40"/>
       <c r="L40" s="27">
-        <v>412354</v>
+        <v>186108</v>
       </c>
       <c r="M40" s="29">
         <v>51265841</v>
@@ -3058,16 +2976,16 @@
         <v>51</v>
       </c>
       <c r="B41" s="25">
-        <v>40.416085036336412</v>
+        <v>48.119216975779118</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D41" s="26">
-        <v>4.2658274579720324E-4</v>
+        <v>1.8571544342094599E-4</v>
       </c>
       <c r="E41" s="27">
-        <v>2344.2110817941953</v>
+        <v>5384.5818181818186</v>
       </c>
       <c r="F41" s="28">
         <v>0</v>
@@ -3076,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <v>4.0416085036336415</v>
+        <v>4.8119216975779118</v>
       </c>
       <c r="I41" s="28">
         <v>0</v>
@@ -3086,7 +3004,7 @@
       </c>
       <c r="K41"/>
       <c r="L41" s="27">
-        <v>379</v>
+        <v>165</v>
       </c>
       <c r="M41" s="29">
         <v>888456</v>
@@ -3097,35 +3015,35 @@
         <v>52</v>
       </c>
       <c r="B42" s="25">
-        <v>43.794705460213848</v>
+        <v>52.817078121958268</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D42" s="26">
-        <v>3.4770975586603326E-4</v>
+        <v>3.6591723164346157E-5</v>
       </c>
       <c r="E42" s="27">
-        <v>2875.9618708693442</v>
+        <v>27328.584541062803</v>
       </c>
       <c r="F42" s="28">
-        <v>2.5000000000000001E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="G42" s="25">
         <v>0</v>
       </c>
       <c r="H42" s="28">
-        <v>4.3799913793547178</v>
+        <v>5.2838119788624933</v>
       </c>
       <c r="I42" s="28">
-        <v>1.7361111111111112E-3</v>
+        <v>7.013888888888889E-3</v>
       </c>
       <c r="J42" s="28">
         <v>0</v>
       </c>
       <c r="K42"/>
       <c r="L42" s="27">
-        <v>1967</v>
+        <v>207</v>
       </c>
       <c r="M42" s="29">
         <v>5657017</v>
@@ -3136,35 +3054,35 @@
         <v>53</v>
       </c>
       <c r="B43" s="25">
-        <v>30.480729353624934</v>
+        <v>27.491568202111594</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="26">
-        <v>1.0883911880262765E-2</v>
+        <v>1.4871806147942044E-2</v>
       </c>
       <c r="E43" s="27">
-        <v>91.878729908998267</v>
+        <v>67.241328326376802</v>
       </c>
       <c r="F43" s="28">
-        <v>1.1120000000000001</v>
+        <v>3.6419999999999999</v>
       </c>
       <c r="G43" s="25">
-        <v>4384</v>
+        <v>0</v>
       </c>
       <c r="H43" s="28">
-        <v>3.0415383086950136</v>
+        <v>2.8093749568682735</v>
       </c>
       <c r="I43" s="28">
-        <v>7.7222222222222234E-2</v>
+        <v>0.25291666666666668</v>
       </c>
       <c r="J43" s="28">
-        <v>0.29701293334146328</v>
+        <v>0.15656863342885985</v>
       </c>
       <c r="K43"/>
       <c r="L43" s="27">
-        <v>55933</v>
+        <v>76427</v>
       </c>
       <c r="M43" s="29">
         <v>5139053</v>
@@ -3175,35 +3093,35 @@
         <v>54</v>
       </c>
       <c r="B44" s="25">
-        <v>46.46678911848344</v>
+        <v>55.782433801795904</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="26">
-        <v>1.4205118285609669E-4</v>
+        <v>2.0440880593135951E-5</v>
       </c>
       <c r="E44" s="27">
-        <v>7039.7161072079098</v>
+        <v>48921.571428571435</v>
       </c>
       <c r="F44" s="28">
-        <v>0.09</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G44" s="25">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="H44" s="28">
-        <v>4.6478018946129218</v>
+        <v>5.578179535355976</v>
       </c>
       <c r="I44" s="28">
-        <v>6.2499999999999995E-3</v>
+        <v>1.4583333333333334E-3</v>
       </c>
       <c r="J44" s="28">
-        <v>7.5201723542204424E-3</v>
+        <v>5.0134482361469616E-3</v>
       </c>
       <c r="K44"/>
       <c r="L44" s="27">
-        <v>3843</v>
+        <v>553</v>
       </c>
       <c r="M44" s="29">
         <v>27053629</v>
@@ -3214,35 +3132,35 @@
         <v>55</v>
       </c>
       <c r="B45" s="25">
-        <v>24.400622272444107</v>
+        <v>23.644650084068559</v>
       </c>
       <c r="C45" t="s">
         <v>162</v>
       </c>
       <c r="D45" s="26">
-        <v>2.5138320049920903E-2</v>
+        <v>2.330671097546903E-2</v>
       </c>
       <c r="E45" s="27">
-        <v>39.779905658538489</v>
+        <v>42.906096920004209</v>
       </c>
       <c r="F45" s="28">
-        <v>10.29</v>
+        <v>11.9</v>
       </c>
       <c r="G45" s="25">
-        <v>3946</v>
+        <v>3073</v>
       </c>
       <c r="H45" s="28">
-        <v>2.6277033532716594</v>
+        <v>2.5915623150334151</v>
       </c>
       <c r="I45" s="28">
-        <v>0.71458333333333324</v>
+        <v>0.82638888888888895</v>
       </c>
       <c r="J45" s="28">
-        <v>0.26733873972751232</v>
+        <v>0.20819360040107585</v>
       </c>
       <c r="K45"/>
       <c r="L45" s="27">
-        <v>102606</v>
+        <v>95130</v>
       </c>
       <c r="M45" s="29">
         <v>4081657</v>
@@ -3253,35 +3171,35 @@
         <v>56</v>
       </c>
       <c r="B46" s="25">
-        <v>35.117955987627838</v>
+        <v>35.730519614180196</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="26">
-        <v>3.6442683709774016E-3</v>
+        <v>2.1040869633906717E-3</v>
       </c>
       <c r="E46" s="27">
-        <v>274.40350111531376</v>
+        <v>475.26552723302399</v>
       </c>
       <c r="F46" s="28">
-        <v>0.26500000000000001</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G46" s="25">
         <v>0</v>
       </c>
       <c r="H46" s="28">
-        <v>3.5173164320961172</v>
+        <v>3.5819894614180194</v>
       </c>
       <c r="I46" s="28">
-        <v>1.8402777777777778E-2</v>
+        <v>2.9791666666666668E-2</v>
       </c>
       <c r="J46" s="28">
         <v>0</v>
       </c>
       <c r="K46"/>
       <c r="L46" s="27">
-        <v>41244</v>
+        <v>23813</v>
       </c>
       <c r="M46" s="29">
         <v>11317498</v>
@@ -3292,35 +3210,35 @@
         <v>57</v>
       </c>
       <c r="B47" s="25">
-        <v>29.862800640666197</v>
+        <v>31.341140948894363</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="26">
-        <v>4.8221829119257147E-2</v>
+        <v>4.1410483200428568E-2</v>
       </c>
       <c r="E47" s="27">
-        <v>20.737496239035341</v>
+        <v>24.148474557999137</v>
       </c>
       <c r="F47" s="28">
-        <v>4.4640000000000004</v>
+        <v>4.1449999999999996</v>
       </c>
       <c r="G47" s="25">
-        <v>121725</v>
+        <v>119588</v>
       </c>
       <c r="H47" s="28">
-        <v>2.2546017038706889</v>
+        <v>2.4102679268745586</v>
       </c>
       <c r="I47" s="28">
-        <v>0.31000000000000005</v>
+        <v>0.2878472222222222</v>
       </c>
       <c r="J47" s="28">
-        <v>8.2467836019593097</v>
+        <v>8.1020033468154438</v>
       </c>
       <c r="K47"/>
       <c r="L47" s="27">
-        <v>43207</v>
+        <v>37104</v>
       </c>
       <c r="M47" s="29">
         <v>896005</v>
@@ -3331,35 +3249,35 @@
         <v>58</v>
       </c>
       <c r="B48" s="25">
-        <v>29.39533158911571</v>
+        <v>23.304560099546904</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D48" s="26">
-        <v>1.5662284479362451E-2</v>
+        <v>4.209881754512286E-2</v>
       </c>
       <c r="E48" s="27">
-        <v>63.847646319900456</v>
+        <v>23.753636285108673</v>
       </c>
       <c r="F48" s="28">
-        <v>2.7570000000000001</v>
+        <v>4.4619999999999997</v>
       </c>
       <c r="G48" s="25">
-        <v>10282</v>
+        <v>10300</v>
       </c>
       <c r="H48" s="28">
-        <v>2.9273108281493236</v>
+        <v>2.3536325637848972</v>
       </c>
       <c r="I48" s="28">
-        <v>0.19145833333333334</v>
+        <v>0.30986111111111109</v>
       </c>
       <c r="J48" s="28">
-        <v>0.69659830762247377</v>
+        <v>0.6978177950312664</v>
       </c>
       <c r="K48"/>
       <c r="L48" s="27">
-        <v>167971</v>
+        <v>451491</v>
       </c>
       <c r="M48" s="29">
         <v>10724553</v>
@@ -3370,35 +3288,35 @@
         <v>59</v>
       </c>
       <c r="B49" s="25">
-        <v>51.908577571992332</v>
+        <v>59.389154767464063</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="26">
-        <v>4.3549336526994645E-5</v>
+        <v>8.8440984197252356E-6</v>
       </c>
       <c r="E49" s="27">
-        <v>22962.462341536168</v>
+        <v>113069.75030599756</v>
       </c>
       <c r="F49" s="28">
-        <v>8.2000000000000003E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="G49" s="25">
         <v>0</v>
       </c>
       <c r="H49" s="28">
-        <v>5.1925660905325666</v>
+        <v>5.9401446434130731</v>
       </c>
       <c r="I49" s="28">
-        <v>5.6944444444444447E-3</v>
+        <v>4.0972222222222217E-3</v>
       </c>
       <c r="J49" s="28">
         <v>0</v>
       </c>
       <c r="K49"/>
       <c r="L49" s="27">
-        <v>4023</v>
+        <v>817</v>
       </c>
       <c r="M49" s="29">
         <v>92377986</v>
@@ -3409,35 +3327,35 @@
         <v>60</v>
       </c>
       <c r="B50" s="25">
-        <v>24.650273178693016</v>
+        <v>20.749668421231572</v>
       </c>
       <c r="C50" t="s">
         <v>162</v>
       </c>
       <c r="D50" s="26">
-        <v>6.080468552984173E-2</v>
+        <v>0.1056206954326474</v>
       </c>
       <c r="E50" s="27">
-        <v>16.446101008272134</v>
+        <v>9.4678414670890305</v>
       </c>
       <c r="F50" s="28">
-        <v>2.3839999999999999</v>
+        <v>4.0789999999999997</v>
       </c>
       <c r="G50" s="25">
-        <v>36545</v>
+        <v>26416</v>
       </c>
       <c r="H50" s="28">
-        <v>2.2671041659008457</v>
+        <v>1.9809794566194752</v>
       </c>
       <c r="I50" s="28">
-        <v>0.16555555555555554</v>
+        <v>0.28326388888888887</v>
       </c>
       <c r="J50" s="28">
-        <v>2.4758981863512259</v>
+        <v>1.7896655217034885</v>
       </c>
       <c r="K50"/>
       <c r="L50" s="27">
-        <v>353476</v>
+        <v>614005</v>
       </c>
       <c r="M50" s="29">
         <v>5813302</v>
@@ -3448,16 +3366,16 @@
         <v>61</v>
       </c>
       <c r="B51" s="25">
-        <v>39.084822974967246</v>
+        <v>47.415623199539368</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D51" s="26">
-        <v>1.2492553859171399E-3</v>
+        <v>1.1774132231487422E-4</v>
       </c>
       <c r="E51" s="27">
-        <v>800.47683706070291</v>
+        <v>8493.1949152542365</v>
       </c>
       <c r="F51" s="28">
         <v>0</v>
@@ -3466,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="28">
-        <v>3.9084822974967244</v>
+        <v>4.7415623199539372</v>
       </c>
       <c r="I51" s="28">
         <v>0</v>
@@ -3476,7 +3394,7 @@
       </c>
       <c r="K51"/>
       <c r="L51" s="27">
-        <v>1252</v>
+        <v>118</v>
       </c>
       <c r="M51" s="29">
         <v>1002197</v>
@@ -3487,35 +3405,35 @@
         <v>62</v>
       </c>
       <c r="B52" s="25">
-        <v>28.08660340067253</v>
+        <v>26.510131629050612</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="26">
-        <v>1.6793216205730755E-2</v>
+        <v>1.8733026658537936E-2</v>
       </c>
       <c r="E52" s="27">
-        <v>59.547854785478542</v>
+        <v>53.38165680473373</v>
       </c>
       <c r="F52" s="28">
-        <v>1.9790000000000001</v>
+        <v>3.9590000000000001</v>
       </c>
       <c r="G52" s="25">
         <v>0</v>
       </c>
       <c r="H52" s="28">
-        <v>2.8498895067339198</v>
+        <v>2.7334923295717277</v>
       </c>
       <c r="I52" s="28">
-        <v>0.13743055555555556</v>
+        <v>0.27493055555555557</v>
       </c>
       <c r="J52" s="28">
         <v>0</v>
       </c>
       <c r="K52"/>
       <c r="L52" s="27">
-        <v>1212</v>
+        <v>1352</v>
       </c>
       <c r="M52" s="29">
         <v>72172</v>
@@ -3526,35 +3444,35 @@
         <v>63</v>
       </c>
       <c r="B53" s="25">
-        <v>31.372827487089516</v>
+        <v>36.931750721000114</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D53" s="26">
-        <v>7.816344301120149E-3</v>
+        <v>1.5579190765798705E-3</v>
       </c>
       <c r="E53" s="27">
-        <v>127.93704594828192</v>
+        <v>641.8818634632288</v>
       </c>
       <c r="F53" s="28">
-        <v>0.19600000000000001</v>
+        <v>0.313</v>
       </c>
       <c r="G53" s="25">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="H53" s="28">
-        <v>3.1413660820422851</v>
+        <v>3.6956241724739876</v>
       </c>
       <c r="I53" s="28">
-        <v>1.3611111111111112E-2</v>
+        <v>2.1736111111111112E-2</v>
       </c>
       <c r="J53" s="28">
-        <v>0</v>
+        <v>4.0717329593571945E-2</v>
       </c>
       <c r="K53"/>
       <c r="L53" s="27">
-        <v>85618</v>
+        <v>17065</v>
       </c>
       <c r="M53" s="29">
         <v>10953714</v>
@@ -3565,35 +3483,35 @@
         <v>64</v>
       </c>
       <c r="B54" s="25">
-        <v>33.782189637152456</v>
+        <v>33.049296560391674</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="26">
-        <v>3.8883696843006283E-3</v>
+        <v>4.1504937760481969E-3</v>
       </c>
       <c r="E54" s="27">
-        <v>257.17719280590018</v>
+        <v>240.93518842765943</v>
       </c>
       <c r="F54" s="28">
-        <v>4.2569999999999997</v>
+        <v>1.4219999999999999</v>
       </c>
       <c r="G54" s="25">
-        <v>768</v>
+        <v>484</v>
       </c>
       <c r="H54" s="28">
-        <v>3.4617033174377312</v>
+        <v>3.3312755898955251</v>
       </c>
       <c r="I54" s="28">
-        <v>0.29562499999999997</v>
+        <v>9.8749999999999991E-2</v>
       </c>
       <c r="J54" s="28">
-        <v>5.203146277514685E-2</v>
+        <v>3.2790661436420669E-2</v>
       </c>
       <c r="K54"/>
       <c r="L54" s="27">
-        <v>69557</v>
+        <v>74246</v>
       </c>
       <c r="M54" s="29">
         <v>17888474</v>
@@ -3604,35 +3522,35 @@
         <v>65</v>
       </c>
       <c r="B55" s="25">
-        <v>48.814081111720313</v>
+        <v>45.315613359088992</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="26">
-        <v>1.4482296459639141E-4</v>
+        <v>2.9776038896154548E-4</v>
       </c>
       <c r="E55" s="27">
-        <v>6904.982250480165</v>
+        <v>3358.4050702229097</v>
       </c>
       <c r="F55" s="28">
-        <v>0.27</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="G55" s="25">
         <v>0</v>
       </c>
       <c r="H55" s="28">
-        <v>4.8870331111720313</v>
+        <v>4.542748835908899</v>
       </c>
       <c r="I55" s="28">
-        <v>1.8750000000000003E-2</v>
+        <v>3.7291666666666667E-2</v>
       </c>
       <c r="J55" s="28">
         <v>0</v>
       </c>
       <c r="K55"/>
       <c r="L55" s="27">
-        <v>15099</v>
+        <v>31044</v>
       </c>
       <c r="M55" s="29">
         <v>104258327</v>
@@ -3643,35 +3561,35 @@
         <v>66</v>
       </c>
       <c r="B56" s="25">
-        <v>46.133565603803355</v>
+        <v>38.860421506642993</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D56" s="26">
-        <v>2.3226202347165759E-4</v>
+        <v>1.2421569379458465E-3</v>
       </c>
       <c r="E56" s="27">
-        <v>4305.4821664464989</v>
+        <v>805.05125355069777</v>
       </c>
       <c r="F56" s="28">
-        <v>0.307</v>
+        <v>1.1830000000000001</v>
       </c>
       <c r="G56" s="25">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="H56" s="28">
-        <v>4.6197523937136689</v>
+        <v>3.9058235842225604</v>
       </c>
       <c r="I56" s="28">
-        <v>2.1319444444444443E-2</v>
+        <v>8.2152777777777783E-2</v>
       </c>
       <c r="J56" s="28">
-        <v>0</v>
+        <v>4.8643997750723221E-2</v>
       </c>
       <c r="K56"/>
       <c r="L56" s="27">
-        <v>1514</v>
+        <v>8097</v>
       </c>
       <c r="M56" s="29">
         <v>6518500</v>
@@ -3682,35 +3600,35 @@
         <v>67</v>
       </c>
       <c r="B57" s="25">
-        <v>39.337259869392369</v>
+        <v>50.129730985331854</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D57" s="26">
-        <v>1.1600872065555272E-3</v>
+        <v>5.4486854529064601E-5</v>
       </c>
       <c r="E57" s="27">
-        <v>862.00416171224742</v>
+        <v>18353.050632911392</v>
       </c>
       <c r="F57" s="28">
-        <v>0.19700000000000001</v>
+        <v>0</v>
       </c>
       <c r="G57" s="25">
-        <v>239</v>
+        <v>191</v>
       </c>
       <c r="H57" s="28">
-        <v>3.9362109453242291</v>
+        <v>5.0116790868938557</v>
       </c>
       <c r="I57" s="28">
-        <v>1.3680555555555557E-2</v>
+        <v>0</v>
       </c>
       <c r="J57" s="28">
-        <v>1.6192082816744915E-2</v>
+        <v>1.2940116393298239E-2</v>
       </c>
       <c r="K57"/>
       <c r="L57" s="27">
-        <v>1682</v>
+        <v>79</v>
       </c>
       <c r="M57" s="29">
         <v>1449891</v>
@@ -3721,35 +3639,35 @@
         <v>68</v>
       </c>
       <c r="B58" s="25">
-        <v>45.959015447707237</v>
+        <v>50.588523453552895</v>
       </c>
       <c r="C58" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="26">
-        <v>2.6350409916861539E-4</v>
+        <v>6.2196963344330724E-5</v>
       </c>
       <c r="E58" s="27">
-        <v>3795.0073761854587</v>
+        <v>16077.955357142855</v>
       </c>
       <c r="F58" s="28">
-        <v>0.159</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="G58" s="25">
         <v>0</v>
       </c>
       <c r="H58" s="28">
-        <v>4.5992140447707239</v>
+        <v>5.0613315120219564</v>
       </c>
       <c r="I58" s="28">
-        <v>1.1041666666666667E-2</v>
+        <v>8.2638888888888883E-3</v>
       </c>
       <c r="J58" s="28">
         <v>0</v>
       </c>
       <c r="K58"/>
       <c r="L58" s="27">
-        <v>949</v>
+        <v>224</v>
       </c>
       <c r="M58" s="29">
         <v>3601462</v>
@@ -3760,35 +3678,35 @@
         <v>69</v>
       </c>
       <c r="B59" s="25">
-        <v>27.054311144204657</v>
+        <v>21.229829900706314</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D59" s="26">
-        <v>2.3117474652653059E-2</v>
+        <v>6.8983419711014585E-2</v>
       </c>
       <c r="E59" s="27">
-        <v>43.257320058756321</v>
+        <v>14.496236982585106</v>
       </c>
       <c r="F59" s="28">
-        <v>2.911</v>
+        <v>5.1740000000000004</v>
       </c>
       <c r="G59" s="25">
-        <v>7966</v>
+        <v>8297</v>
       </c>
       <c r="H59" s="28">
-        <v>2.7121078549846818</v>
+        <v>2.1745630621220124</v>
       </c>
       <c r="I59" s="28">
-        <v>0.20215277777777779</v>
+        <v>0.3593055555555556</v>
       </c>
       <c r="J59" s="28">
-        <v>0.53969092769117155</v>
+        <v>0.56211594615285598</v>
       </c>
       <c r="K59"/>
       <c r="L59" s="27">
-        <v>30635</v>
+        <v>91416</v>
       </c>
       <c r="M59" s="29">
         <v>1325188</v>
@@ -3799,35 +3717,35 @@
         <v>70</v>
       </c>
       <c r="B60" s="25">
-        <v>38.962594050033466</v>
+        <v>43.702511082772823</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="26">
-        <v>8.3762023731436095E-4</v>
+        <v>4.1625119736192273E-4</v>
       </c>
       <c r="E60" s="27">
-        <v>1193.8584521384928</v>
+        <v>2402.3954918032787</v>
       </c>
       <c r="F60" s="28">
-        <v>1.706</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="G60" s="25">
         <v>0</v>
       </c>
       <c r="H60" s="28">
-        <v>3.9318010716700131</v>
+        <v>4.3829386082772821</v>
       </c>
       <c r="I60" s="28">
-        <v>0.11847222222222221</v>
+        <v>4.2291666666666665E-2</v>
       </c>
       <c r="J60" s="28">
         <v>0</v>
       </c>
       <c r="K60"/>
       <c r="L60" s="27">
-        <v>982</v>
+        <v>488</v>
       </c>
       <c r="M60" s="29">
         <v>1172369</v>
@@ -3838,35 +3756,35 @@
         <v>71</v>
       </c>
       <c r="B61" s="25">
-        <v>46.202185808246519</v>
+        <v>54.544398754431441</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="26">
-        <v>1.7457294569305263E-4</v>
+        <v>2.7418590751285164E-5</v>
       </c>
       <c r="E61" s="27">
-        <v>5728.2644571872879</v>
+        <v>36471.604579207924</v>
       </c>
       <c r="F61" s="28">
-        <v>0.125</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="G61" s="25">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="H61" s="28">
-        <v>4.6223756021080948</v>
+        <v>5.4554010961669777</v>
       </c>
       <c r="I61" s="28">
-        <v>8.6805555555555559E-3</v>
+        <v>4.5138888888888893E-3</v>
       </c>
       <c r="J61" s="28">
-        <v>4.4714538322391823E-3</v>
+        <v>3.9294594283314031E-3</v>
       </c>
       <c r="K61"/>
       <c r="L61" s="27">
-        <v>20578</v>
+        <v>3232</v>
       </c>
       <c r="M61" s="29">
         <v>117876226</v>
@@ -3877,35 +3795,35 @@
         <v>72</v>
       </c>
       <c r="B62" s="25">
-        <v>31.548168986584137</v>
+        <v>36.902336214765832</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D62" s="26">
-        <v>5.3826618481136873E-3</v>
+        <v>1.3235145902254848E-3</v>
       </c>
       <c r="E62" s="27">
-        <v>185.78168724279834</v>
+        <v>755.56401673640164</v>
       </c>
       <c r="F62" s="28">
-        <v>4.9050000000000002</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="G62" s="25">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="H62" s="28">
-        <v>3.2570043986584136</v>
+        <v>3.7120703676809286</v>
       </c>
       <c r="I62" s="28">
-        <v>0.34062500000000001</v>
+        <v>7.6944444444444454E-2</v>
       </c>
       <c r="J62" s="28">
-        <v>0</v>
+        <v>1.2465871289878932E-2</v>
       </c>
       <c r="K62"/>
       <c r="L62" s="27">
-        <v>4860</v>
+        <v>1195</v>
       </c>
       <c r="M62" s="29">
         <v>902899</v>
@@ -3916,35 +3834,35 @@
         <v>73</v>
       </c>
       <c r="B63" s="25">
-        <v>26.977819415376899</v>
+        <v>28.177693495238152</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="26">
-        <v>2.04763172403526E-2</v>
+        <v>1.6026714916350972E-2</v>
       </c>
       <c r="E63" s="27">
-        <v>48.836906962415284</v>
+        <v>62.395818807494216</v>
       </c>
       <c r="F63" s="28">
-        <v>1.03</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="G63" s="25">
-        <v>4544</v>
+        <v>2917</v>
       </c>
       <c r="H63" s="28">
-        <v>2.6884549927290613</v>
+        <v>2.8516527119046611</v>
       </c>
       <c r="I63" s="28">
-        <v>7.1527777777777773E-2</v>
+        <v>0.17881944444444445</v>
       </c>
       <c r="J63" s="28">
-        <v>0.30785282141961884</v>
+        <v>0.19762470952487415</v>
       </c>
       <c r="K63"/>
       <c r="L63" s="27">
-        <v>113610</v>
+        <v>88922</v>
       </c>
       <c r="M63" s="29">
         <v>5548361</v>
@@ -3955,35 +3873,35 @@
         <v>74</v>
       </c>
       <c r="B64" s="25">
-        <v>22.859198153533363</v>
+        <v>21.946648766113345</v>
       </c>
       <c r="C64" t="s">
         <v>162</v>
       </c>
       <c r="D64" s="26">
-        <v>6.5591691139390701E-2</v>
+        <v>4.8205941680757022E-2</v>
       </c>
       <c r="E64" s="27">
-        <v>15.245833468066444</v>
+        <v>20.744330784418278</v>
       </c>
       <c r="F64" s="28">
-        <v>3.3559999999999999</v>
+        <v>5.1210000000000004</v>
       </c>
       <c r="G64" s="25">
-        <v>19125</v>
+        <v>8602</v>
       </c>
       <c r="H64" s="28">
-        <v>2.2262659448357995</v>
+        <v>2.2430744283311506</v>
       </c>
       <c r="I64" s="28">
-        <v>0.23305555555555554</v>
+        <v>0.35562500000000002</v>
       </c>
       <c r="J64" s="28">
-        <v>1.2957053718420357</v>
+        <v>0.58277948280184011</v>
       </c>
       <c r="K64"/>
       <c r="L64" s="27">
-        <v>4422323</v>
+        <v>3250141</v>
       </c>
       <c r="M64" s="29">
         <v>67422000</v>
@@ -3994,35 +3912,35 @@
         <v>75</v>
       </c>
       <c r="B65" s="25">
-        <v>38.844725048490957</v>
+        <v>42.91276359699782</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="26">
-        <v>1.3265585087779733E-3</v>
+        <v>4.0810433779805332E-4</v>
       </c>
       <c r="E65" s="27">
-        <v>753.83030102547139</v>
+        <v>2450.3537634408599</v>
       </c>
       <c r="F65" s="28">
-        <v>0.125</v>
+        <v>6.3E-2</v>
       </c>
       <c r="G65" s="25">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="H65" s="28">
-        <v>3.872801893902841</v>
+        <v>4.2888897478931112</v>
       </c>
       <c r="I65" s="28">
-        <v>8.6805555555555559E-3</v>
+        <v>4.3750000000000004E-3</v>
       </c>
       <c r="J65" s="28">
-        <v>0.14274777612921147</v>
+        <v>3.6991118066705964E-2</v>
       </c>
       <c r="K65"/>
       <c r="L65" s="27">
-        <v>3023</v>
+        <v>930</v>
       </c>
       <c r="M65" s="29">
         <v>2278829</v>
@@ -4033,35 +3951,35 @@
         <v>76</v>
       </c>
       <c r="B66" s="25">
-        <v>43.661905012681693</v>
+        <v>48.941573427464313</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D66" s="26">
-        <v>3.1363882559148058E-4</v>
+        <v>1.3631225881475888E-4</v>
       </c>
       <c r="E66" s="27">
-        <v>3188.3807692307696</v>
+        <v>7336.0973451327427</v>
       </c>
       <c r="F66" s="28">
-        <v>0.17199999999999999</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G66" s="25">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H66" s="28">
-        <v>4.3697738346015029</v>
+        <v>4.8948028483425237</v>
       </c>
       <c r="I66" s="28">
-        <v>1.1944444444444443E-2</v>
+        <v>3.9583333333333337E-3</v>
       </c>
       <c r="J66" s="28">
-        <v>0</v>
+        <v>5.4199440390777969E-3</v>
       </c>
       <c r="K66"/>
       <c r="L66" s="27">
-        <v>780</v>
+        <v>339</v>
       </c>
       <c r="M66" s="29">
         <v>2486937</v>
@@ -4072,35 +3990,35 @@
         <v>77</v>
       </c>
       <c r="B67" s="25">
-        <v>27.336210471988956</v>
+        <v>19.849009288080715</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D67" s="26">
-        <v>1.8284208672203164E-2</v>
+        <v>7.2338547952358084E-2</v>
       </c>
       <c r="E67" s="27">
-        <v>54.692003243228385</v>
+        <v>13.823888207689716</v>
       </c>
       <c r="F67" s="28">
-        <v>8.0050000000000008</v>
+        <v>10.840999999999999</v>
       </c>
       <c r="G67" s="25">
-        <v>13070</v>
+        <v>5595</v>
       </c>
       <c r="H67" s="28">
-        <v>2.8118435447937955</v>
+        <v>2.172849361851438</v>
       </c>
       <c r="I67" s="28">
-        <v>0.55590277777777786</v>
+        <v>0.75284722222222222</v>
       </c>
       <c r="J67" s="28">
-        <v>0.88548335738433503</v>
+        <v>0.37905733623300336</v>
       </c>
       <c r="K67"/>
       <c r="L67" s="27">
-        <v>72767</v>
+        <v>287891</v>
       </c>
       <c r="M67" s="29">
         <v>3979773</v>
@@ -4111,35 +4029,35 @@
         <v>78</v>
       </c>
       <c r="B68" s="25">
-        <v>29.643385147583871</v>
+        <v>25.288828395869416</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="26">
-        <v>1.2574148719618034E-2</v>
+        <v>3.0879540592805493E-2</v>
       </c>
       <c r="E68" s="27">
-        <v>79.528246587366368</v>
+        <v>32.38390147012052</v>
       </c>
       <c r="F68" s="28">
-        <v>1.9530000000000001</v>
+        <v>2.004</v>
       </c>
       <c r="G68" s="25">
         <v>0</v>
       </c>
       <c r="H68" s="28">
-        <v>2.9813679590278124</v>
+        <v>2.5406808738409881</v>
       </c>
       <c r="I68" s="28">
-        <v>0.135625</v>
+        <v>0.13916666666666666</v>
       </c>
       <c r="J68" s="28">
-        <v>0.23658055730574581</v>
+        <v>0.29951965745953674</v>
       </c>
       <c r="K68"/>
       <c r="L68" s="27">
-        <v>1054977</v>
+        <v>2590808</v>
       </c>
       <c r="M68" s="29">
         <v>83900471</v>
@@ -4150,35 +4068,35 @@
         <v>79</v>
       </c>
       <c r="B69" s="25">
-        <v>46.043538813001419</v>
+        <v>51.986971639772115</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="26">
-        <v>2.1467201947502544E-4</v>
+        <v>4.2827256968079799E-5</v>
       </c>
       <c r="E69" s="27">
-        <v>4658.2689371697006</v>
+        <v>23349.615894039733</v>
       </c>
       <c r="F69" s="28">
-        <v>9.5000000000000001E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="G69" s="25">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="H69" s="28">
-        <v>4.6060214011845613</v>
+        <v>5.1994160128488467</v>
       </c>
       <c r="I69" s="28">
-        <v>6.5972222222222222E-3</v>
+        <v>4.7222222222222223E-3</v>
       </c>
       <c r="J69" s="28">
-        <v>3.1164678224697329E-3</v>
+        <v>6.9781779503126622E-3</v>
       </c>
       <c r="K69"/>
       <c r="L69" s="27">
-        <v>6812</v>
+        <v>1359</v>
       </c>
       <c r="M69" s="29">
         <v>31732128</v>
@@ -4189,35 +4107,35 @@
         <v>80</v>
       </c>
       <c r="B70" s="25">
-        <v>24.830385745824891</v>
+        <v>26.126732621423173</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D70" s="26">
-        <v>3.0889096031365918E-2</v>
+        <v>2.5187963798557617E-2</v>
       </c>
       <c r="E70" s="27">
-        <v>32.373883618496421</v>
+        <v>39.701502193570121</v>
       </c>
       <c r="F70" s="28">
-        <v>8.7330000000000005</v>
+        <v>9.2840000000000007</v>
       </c>
       <c r="G70" s="25">
-        <v>33124</v>
+        <v>29787</v>
       </c>
       <c r="H70" s="28">
-        <v>2.4405632916444731</v>
+        <v>2.6042850874439711</v>
       </c>
       <c r="I70" s="28">
-        <v>0.60645833333333332</v>
+        <v>0.64472222222222231</v>
       </c>
       <c r="J70" s="28">
-        <v>2.2441278293801616</v>
+        <v>2.0180484136501291</v>
       </c>
       <c r="K70"/>
       <c r="L70" s="27">
-        <v>320343</v>
+        <v>261218</v>
       </c>
       <c r="M70" s="29">
         <v>10370747</v>
@@ -4228,35 +4146,35 @@
         <v>81</v>
       </c>
       <c r="B71" s="25">
-        <v>24.192900861081554</v>
+        <v>28.801876531335228</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D71" s="26">
-        <v>3.1703756138565679E-2</v>
+        <v>8.9545635535105955E-3</v>
       </c>
       <c r="E71" s="27">
-        <v>31.542003907340217</v>
+        <v>111.67490118577075</v>
       </c>
       <c r="F71" s="28">
-        <v>5.056</v>
+        <v>1.264</v>
       </c>
       <c r="G71" s="25">
         <v>0</v>
       </c>
       <c r="H71" s="28">
-        <v>2.5246234194414887</v>
+        <v>2.9065209864668562</v>
       </c>
       <c r="I71" s="28">
-        <v>0.3511111111111111</v>
+        <v>8.7777777777777774E-2</v>
       </c>
       <c r="J71" s="28">
         <v>0</v>
       </c>
       <c r="K71"/>
       <c r="L71" s="27">
-        <v>3583</v>
+        <v>1012</v>
       </c>
       <c r="M71" s="29">
         <v>113015</v>
@@ -4267,35 +4185,35 @@
         <v>82</v>
       </c>
       <c r="B72" s="25">
-        <v>38.458974383916427</v>
+        <v>36.218579541735004</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="26">
-        <v>1.7040123249110624E-3</v>
+        <v>2.4325107447352497E-3</v>
       </c>
       <c r="E72" s="27">
-        <v>586.85021544793869</v>
+        <v>411.09787579122832</v>
       </c>
       <c r="F72" s="28">
-        <v>0.61099999999999999</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="G72" s="25">
-        <v>637</v>
+        <v>727</v>
       </c>
       <c r="H72" s="28">
-        <v>3.8543109746171935</v>
+        <v>3.6382867466946549</v>
       </c>
       <c r="I72" s="28">
-        <v>4.2430555555555555E-2</v>
+        <v>7.1180555555555552E-2</v>
       </c>
       <c r="J72" s="28">
-        <v>4.3156304411156955E-2</v>
+        <v>4.9253741455119474E-2</v>
       </c>
       <c r="K72"/>
       <c r="L72" s="27">
-        <v>31098</v>
+        <v>44393</v>
       </c>
       <c r="M72" s="29">
         <v>18249868</v>
@@ -4306,35 +4224,35 @@
         <v>83</v>
       </c>
       <c r="B73" s="25">
-        <v>47.182797238315082</v>
+        <v>55.559358349574978</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="26">
-        <v>1.4958617085852459E-4</v>
+        <v>2.2300860539086631E-5</v>
       </c>
       <c r="E73" s="27">
-        <v>6685.109955423477</v>
+        <v>44841.318936877076</v>
       </c>
       <c r="F73" s="28">
-        <v>4.2000000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="G73" s="25">
         <v>0</v>
       </c>
       <c r="H73" s="28">
-        <v>4.7191547238315081</v>
+        <v>5.5577066682908312</v>
       </c>
       <c r="I73" s="28">
-        <v>2.9166666666666668E-3</v>
+        <v>5.9027777777777785E-3</v>
       </c>
       <c r="J73" s="28">
         <v>0</v>
       </c>
       <c r="K73"/>
       <c r="L73" s="27">
-        <v>2019</v>
+        <v>301</v>
       </c>
       <c r="M73" s="29">
         <v>13497237</v>
@@ -4345,35 +4263,35 @@
         <v>84</v>
       </c>
       <c r="B74" s="25">
-        <v>45.541986844558025</v>
+        <v>46.964255866397686</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="26">
-        <v>3.0265592982351688E-4</v>
+        <v>1.4934333586373537E-4</v>
       </c>
       <c r="E74" s="27">
-        <v>3304.0819672131147</v>
+        <v>6695.9800664451832</v>
       </c>
       <c r="F74" s="28">
-        <v>0.21299999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="G74" s="25">
         <v>0</v>
       </c>
       <c r="H74" s="28">
-        <v>4.5586361844558025</v>
+        <v>4.6993839199731022</v>
       </c>
       <c r="I74" s="28">
-        <v>1.4791666666666667E-2</v>
+        <v>9.8611111111111104E-3</v>
       </c>
       <c r="J74" s="28">
         <v>0</v>
       </c>
       <c r="K74"/>
       <c r="L74" s="27">
-        <v>610</v>
+        <v>301</v>
       </c>
       <c r="M74" s="29">
         <v>2015490</v>
@@ -4384,35 +4302,35 @@
         <v>85</v>
       </c>
       <c r="B75" s="25">
-        <v>27.263699738318675</v>
+        <v>32.204236794645027</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="26">
-        <v>1.5627668983423357E-2</v>
+        <v>4.3741277366767511E-3</v>
       </c>
       <c r="E75" s="27">
-        <v>63.989069710954588</v>
+        <v>228.6170089673127</v>
       </c>
       <c r="F75" s="28">
-        <v>6.5069999999999997</v>
+        <v>2.169</v>
       </c>
       <c r="G75" s="25">
-        <v>3506</v>
+        <v>0</v>
       </c>
       <c r="H75" s="28">
-        <v>2.8381795690806091</v>
+        <v>3.2656111794645026</v>
       </c>
       <c r="I75" s="28">
-        <v>0.45187499999999997</v>
+        <v>0.15062500000000001</v>
       </c>
       <c r="J75" s="28">
-        <v>0.23752904751258441</v>
+        <v>0</v>
       </c>
       <c r="K75"/>
       <c r="L75" s="27">
-        <v>12351</v>
+        <v>3457</v>
       </c>
       <c r="M75" s="29">
         <v>790329</v>
@@ -4423,35 +4341,35 @@
         <v>86</v>
       </c>
       <c r="B76" s="25">
-        <v>48.968980785128771</v>
+        <v>49.818626794436327</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="26">
-        <v>1.5708281019327945E-4</v>
+        <v>8.9415035918071913E-5</v>
       </c>
       <c r="E76" s="27">
-        <v>6366.0689464975176</v>
+        <v>11183.801356589147</v>
       </c>
       <c r="F76" s="28">
-        <v>0</v>
+        <v>-0.85399999999999998</v>
       </c>
       <c r="G76" s="25">
         <v>0</v>
       </c>
       <c r="H76" s="28">
-        <v>4.8968980785128773</v>
+        <v>4.9640710127769658</v>
       </c>
       <c r="I76" s="28">
-        <v>0</v>
+        <v>-5.9305555555555556E-2</v>
       </c>
       <c r="J76" s="28">
         <v>0</v>
       </c>
       <c r="K76"/>
       <c r="L76" s="27">
-        <v>1813</v>
+        <v>1032</v>
       </c>
       <c r="M76" s="29">
         <v>11541683</v>
@@ -4462,35 +4380,35 @@
         <v>87</v>
       </c>
       <c r="B77" s="25">
-        <v>42.821620203493183</v>
+        <v>45.715014806535578</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D77" s="26">
-        <v>8.0622128960824188E-4</v>
+        <v>0</v>
       </c>
       <c r="E77" s="27">
-        <v>1240.3542462714163</v>
+        <v>0</v>
       </c>
       <c r="F77" s="28">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="G77" s="25">
         <v>0</v>
       </c>
       <c r="H77" s="28">
-        <v>4.2877870203493185</v>
+        <v>4.5715014806535574</v>
       </c>
       <c r="I77" s="28">
-        <v>1.8750000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="J77" s="28">
         <v>0</v>
       </c>
       <c r="K77"/>
       <c r="L77" s="27">
-        <v>8113</v>
+        <v>0</v>
       </c>
       <c r="M77" s="29">
         <v>10062994</v>
@@ -4501,35 +4419,35 @@
         <v>88</v>
       </c>
       <c r="B78" s="25">
-        <v>57.040368233982797</v>
+        <v>47.130617051999401</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="26">
-        <v>2.317021501959538E-5</v>
+        <v>3.4808283020866434E-4</v>
       </c>
       <c r="E78" s="27">
-        <v>43158.857142857145</v>
+        <v>2872.8794218333969</v>
       </c>
       <c r="F78" s="28">
-        <v>0</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G78" s="25">
         <v>0</v>
       </c>
       <c r="H78" s="28">
-        <v>5.6042759784290039</v>
+        <v>4.5896988911819321</v>
       </c>
       <c r="I78" s="28">
-        <v>0</v>
+        <v>3.9583333333333337E-3</v>
       </c>
       <c r="J78" s="28">
-        <v>0.99760844969275686</v>
+        <v>1.2455031401800776</v>
       </c>
       <c r="K78"/>
       <c r="L78" s="27">
-        <v>175</v>
+        <v>2629</v>
       </c>
       <c r="M78" s="29">
         <v>7552800</v>
@@ -4540,35 +4458,35 @@
         <v>89</v>
       </c>
       <c r="B79" s="25">
-        <v>28.891869205786318</v>
+        <v>24.933038310415601</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D79" s="26">
-        <v>1.1320860081032476E-2</v>
+        <v>2.0130759686208307E-2</v>
       </c>
       <c r="E79" s="27">
-        <v>88.332511208706578</v>
+        <v>49.675224163800706</v>
       </c>
       <c r="F79" s="28">
-        <v>8.7929999999999993</v>
+        <v>9.3859999999999992</v>
       </c>
       <c r="G79" s="25">
-        <v>2889</v>
+        <v>3412</v>
       </c>
       <c r="H79" s="28">
-        <v>3.0528016476675122</v>
+        <v>2.66572943638156</v>
       </c>
       <c r="I79" s="28">
-        <v>0.61062499999999997</v>
+        <v>0.65180555555555553</v>
       </c>
       <c r="J79" s="28">
-        <v>0.1957277291111969</v>
+        <v>0.23116061326666801</v>
       </c>
       <c r="K79"/>
       <c r="L79" s="27">
-        <v>109067</v>
+        <v>193943</v>
       </c>
       <c r="M79" s="29">
         <v>9634162</v>
@@ -4579,35 +4497,35 @@
         <v>90</v>
       </c>
       <c r="B80" s="25">
-        <v>23.100277211849527</v>
+        <v>23.17051510657274</v>
       </c>
       <c r="C80" t="s">
         <v>162</v>
       </c>
       <c r="D80" s="26">
-        <v>4.848803661684635E-2</v>
+        <v>5.6275624200091107E-2</v>
       </c>
       <c r="E80" s="27">
-        <v>20.623643887708312</v>
+        <v>17.769682952683819</v>
       </c>
       <c r="F80" s="28">
-        <v>0.38700000000000001</v>
+        <v>1.9370000000000001</v>
       </c>
       <c r="G80" s="25">
         <v>0</v>
       </c>
       <c r="H80" s="28">
-        <v>2.3180902211849528</v>
+        <v>2.2749751034196164</v>
       </c>
       <c r="I80" s="28">
-        <v>2.6875E-2</v>
+        <v>0.13451388888888891</v>
       </c>
       <c r="J80" s="28">
-        <v>0</v>
+        <v>0.82430573904324433</v>
       </c>
       <c r="K80"/>
       <c r="L80" s="27">
-        <v>17882</v>
+        <v>20754</v>
       </c>
       <c r="M80" s="29">
         <v>368792</v>
@@ -4618,35 +4536,35 @@
         <v>91</v>
       </c>
       <c r="B81" s="25">
-        <v>37.195127789984355</v>
+        <v>37.332873341407371</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="26">
-        <v>2.3967413163741131E-3</v>
+        <v>1.3731990784360015E-3</v>
       </c>
       <c r="E81" s="27">
-        <v>417.23317955432935</v>
+        <v>728.22653008109012</v>
       </c>
       <c r="F81" s="28">
-        <v>0.33500000000000002</v>
+        <v>0.73</v>
       </c>
       <c r="G81" s="25">
-        <v>1248</v>
+        <v>1231</v>
       </c>
       <c r="H81" s="28">
-        <v>3.7180368329641409</v>
+        <v>3.7401557285839395</v>
       </c>
       <c r="I81" s="28">
-        <v>2.326388888888889E-2</v>
+        <v>5.0694444444444445E-2</v>
       </c>
       <c r="J81" s="28">
-        <v>8.4551127009613619E-2</v>
+        <v>8.3399388901309601E-2</v>
       </c>
       <c r="K81"/>
       <c r="L81" s="27">
-        <v>3339641</v>
+        <v>1913428</v>
       </c>
       <c r="M81" s="29">
         <v>1393409033</v>
@@ -4657,35 +4575,35 @@
         <v>92</v>
       </c>
       <c r="B82" s="25">
-        <v>54.663698311452229</v>
+        <v>40.288907581615618</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D82" s="26">
-        <v>4.6949327162407849E-5</v>
+        <v>1.2964310391565422E-3</v>
       </c>
       <c r="E82" s="27">
-        <v>21299.559768786126</v>
+        <v>771.34839401145462</v>
       </c>
       <c r="F82" s="28">
-        <v>2.3E-2</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="G82" s="25">
-        <v>656</v>
+        <v>948</v>
       </c>
       <c r="H82" s="28">
-        <v>5.4624046436998457</v>
+        <v>4.0272806244752548</v>
       </c>
       <c r="I82" s="28">
-        <v>1.5972222222222221E-3</v>
+        <v>1.6041666666666666E-2</v>
       </c>
       <c r="J82" s="28">
-        <v>4.4443541120437934E-2</v>
+        <v>6.4226336863071887E-2</v>
       </c>
       <c r="K82"/>
       <c r="L82" s="27">
-        <v>12975</v>
+        <v>358284</v>
       </c>
       <c r="M82" s="29">
         <v>276361788</v>
@@ -4696,35 +4614,35 @@
         <v>93</v>
       </c>
       <c r="B83" s="25">
-        <v>45.034201982750247</v>
+        <v>33.593255284708206</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D83" s="26">
-        <v>3.9423131655689207E-4</v>
+        <v>5.1384143435703406E-3</v>
       </c>
       <c r="E83" s="27">
-        <v>2536.581844217058</v>
+        <v>194.6125658884034</v>
       </c>
       <c r="F83" s="28">
-        <v>0.252</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="G83" s="25">
-        <v>1034</v>
+        <v>1195</v>
       </c>
       <c r="H83" s="28">
-        <v>4.501664920604517</v>
+        <v>3.3746878203957817</v>
       </c>
       <c r="I83" s="28">
-        <v>1.7500000000000002E-2</v>
+        <v>7.8194444444444441E-2</v>
       </c>
       <c r="J83" s="28">
-        <v>7.0052776705080519E-2</v>
+        <v>8.0960414083724591E-2</v>
       </c>
       <c r="K83"/>
       <c r="L83" s="27">
-        <v>33521</v>
+        <v>436913</v>
       </c>
       <c r="M83" s="29">
         <v>85028760</v>
@@ -4735,35 +4653,35 @@
         <v>94</v>
       </c>
       <c r="B84" s="25">
-        <v>41.949299266253924</v>
+        <v>36.437892187635136</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="26">
-        <v>1.0058196400424086E-3</v>
+        <v>2.0481867234867302E-3</v>
       </c>
       <c r="E84" s="27">
-        <v>994.21403220744105</v>
+        <v>488.23673571013597</v>
       </c>
       <c r="F84" s="28">
-        <v>0.14899999999999999</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="G84" s="25">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="H84" s="28">
-        <v>4.1943959558558284</v>
+        <v>3.6523358747427284</v>
       </c>
       <c r="I84" s="28">
-        <v>1.0347222222222221E-2</v>
+        <v>4.1180555555555554E-2</v>
       </c>
       <c r="J84" s="28">
-        <v>3.6381374362309711E-2</v>
+        <v>3.8075106874521522E-2</v>
       </c>
       <c r="K84"/>
       <c r="L84" s="27">
-        <v>41419</v>
+        <v>84343</v>
       </c>
       <c r="M84" s="29">
         <v>41179351</v>
@@ -4774,35 +4692,35 @@
         <v>95</v>
       </c>
       <c r="B85" s="25">
-        <v>22.83677163318708</v>
+        <v>28.4590488818273</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D85" s="26">
-        <v>4.4006266225478152E-2</v>
+        <v>1.437956661416716E-2</v>
       </c>
       <c r="E85" s="27">
-        <v>22.724036501443369</v>
+        <v>69.543125104672583</v>
       </c>
       <c r="F85" s="28">
-        <v>1.4910000000000001</v>
+        <v>1.806</v>
       </c>
       <c r="G85" s="25">
-        <v>5155</v>
+        <v>3479</v>
       </c>
       <c r="H85" s="28">
-        <v>2.2798148989169005</v>
+        <v>2.8599599065427905</v>
       </c>
       <c r="I85" s="28">
-        <v>0.10354166666666667</v>
+        <v>0.12541666666666668</v>
       </c>
       <c r="J85" s="28">
-        <v>0.34924764401807551</v>
+        <v>0.23569981639939569</v>
       </c>
       <c r="K85"/>
       <c r="L85" s="27">
-        <v>219279</v>
+        <v>71652</v>
       </c>
       <c r="M85" s="29">
         <v>4982904</v>
@@ -4813,35 +4731,35 @@
         <v>96</v>
       </c>
       <c r="B86" s="25">
-        <v>25.917850337393617</v>
+        <v>20.406798185718234</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D86" s="26">
-        <v>7.0551070928855888E-2</v>
+        <v>7.4042621892153701E-2</v>
       </c>
       <c r="E86" s="27">
-        <v>14.174129277334512</v>
+        <v>13.505734595089615</v>
       </c>
       <c r="F86" s="28">
-        <v>1.1839999999999999</v>
+        <v>5.9349999999999996</v>
       </c>
       <c r="G86" s="25">
-        <v>44417</v>
+        <v>17635</v>
       </c>
       <c r="H86" s="28">
-        <v>2.3155296324263803</v>
+        <v>2.0448497604937357</v>
       </c>
       <c r="I86" s="28">
-        <v>8.2222222222222224E-2</v>
+        <v>0.41215277777777776</v>
       </c>
       <c r="J86" s="28">
-        <v>3.0092206797964813</v>
+        <v>1.1947589141142119</v>
       </c>
       <c r="K86"/>
       <c r="L86" s="27">
-        <v>655490</v>
+        <v>687930</v>
       </c>
       <c r="M86" s="29">
         <v>9291000</v>
@@ -4852,35 +4770,35 @@
         <v>97</v>
       </c>
       <c r="B87" s="25">
-        <v>24.079586435001477</v>
+        <v>25.313743846356367</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D87" s="26">
-        <v>4.0465352606870016E-2</v>
+        <v>2.2926751395631599E-2</v>
       </c>
       <c r="E87" s="27">
-        <v>24.712499350128603</v>
+        <v>43.617169425518227</v>
       </c>
       <c r="F87" s="28">
-        <v>5.6840000000000002</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="G87" s="25">
-        <v>17968</v>
+        <v>12366</v>
       </c>
       <c r="H87" s="28">
-        <v>2.4046433670491272</v>
+        <v>2.5701997663182583</v>
       </c>
       <c r="I87" s="28">
-        <v>0.39472222222222225</v>
+        <v>0.40868055555555555</v>
       </c>
       <c r="J87" s="28">
-        <v>1.2173194311768731</v>
+        <v>0.8377878498404504</v>
       </c>
       <c r="K87"/>
       <c r="L87" s="27">
-        <v>2442791</v>
+        <v>1384030</v>
       </c>
       <c r="M87" s="29">
         <v>60367471</v>
@@ -4891,35 +4809,35 @@
         <v>98</v>
       </c>
       <c r="B88" s="25">
-        <v>31.941659037663317</v>
+        <v>36.859961792482508</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D88" s="26">
-        <v>6.3057809381791329E-3</v>
+        <v>1.3876081147161121E-3</v>
       </c>
       <c r="E88" s="27">
-        <v>158.58463999999998</v>
+        <v>720.66456616577796</v>
       </c>
       <c r="F88" s="28">
-        <v>2.258</v>
+        <v>1.4890000000000001</v>
       </c>
       <c r="G88" s="25">
-        <v>1159</v>
+        <v>642</v>
       </c>
       <c r="H88" s="28">
-        <v>3.2333554265063844</v>
+        <v>3.7126675074902242</v>
       </c>
       <c r="I88" s="28">
-        <v>0.15680555555555556</v>
+        <v>0.10340277777777779</v>
       </c>
       <c r="J88" s="28">
-        <v>7.8521439266139581E-2</v>
+        <v>4.3495050913599322E-2</v>
       </c>
       <c r="K88"/>
       <c r="L88" s="27">
-        <v>18750</v>
+        <v>4126</v>
       </c>
       <c r="M88" s="29">
         <v>2973462</v>
@@ -4930,35 +4848,35 @@
         <v>99</v>
       </c>
       <c r="B89" s="25">
-        <v>38.53545777893401</v>
+        <v>30.282372939498568</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" s="26">
-        <v>2.2206999787609434E-3</v>
+        <v>9.8592872035492742E-3</v>
       </c>
       <c r="E89" s="27">
-        <v>450.30846560279508</v>
+        <v>101.42721064459985</v>
       </c>
       <c r="F89" s="28">
-        <v>6.2E-2</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="G89" s="25">
-        <v>1181</v>
+        <v>1693</v>
       </c>
       <c r="H89" s="28">
-        <v>3.8468362521723791</v>
+        <v>3.0376631707104917</v>
       </c>
       <c r="I89" s="28">
-        <v>4.3055555555555555E-3</v>
+        <v>6.9652777777777772E-2</v>
       </c>
       <c r="J89" s="28">
-        <v>8.0011923876885979E-2</v>
+        <v>0.11469956572698388</v>
       </c>
       <c r="K89"/>
       <c r="L89" s="27">
-        <v>279921</v>
+        <v>1242771</v>
       </c>
       <c r="M89" s="29">
         <v>126050796</v>
@@ -4969,35 +4887,35 @@
         <v>100</v>
       </c>
       <c r="B90" s="25">
-        <v>34.106243350732683</v>
+        <v>27.080985910263166</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="26">
-        <v>4.8377537802528807E-3</v>
+        <v>2.2692910775729179E-2</v>
       </c>
       <c r="E90" s="27">
-        <v>206.7075021638922</v>
+        <v>44.06662547096132</v>
       </c>
       <c r="F90" s="28">
-        <v>1.363</v>
+        <v>2.226</v>
       </c>
       <c r="G90" s="25">
-        <v>3416</v>
+        <v>6597</v>
       </c>
       <c r="H90" s="28">
-        <v>3.4158770073597391</v>
+        <v>2.7097793774940713</v>
       </c>
       <c r="I90" s="28">
-        <v>9.465277777777778E-2</v>
+        <v>0.15458333333333332</v>
       </c>
       <c r="J90" s="28">
-        <v>0.2314316104686219</v>
+        <v>0.4469421353224528</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="27">
-        <v>49679</v>
+        <v>233034</v>
       </c>
       <c r="M90" s="29">
         <v>10269022</v>
@@ -5008,35 +4926,35 @@
         <v>101</v>
       </c>
       <c r="B91" s="25">
-        <v>33.355006306601972</v>
+        <v>32.177623374528189</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="26">
-        <v>6.7431578422021254E-3</v>
+        <v>4.3318863879562141E-3</v>
       </c>
       <c r="E91" s="27">
-        <v>148.29847133956872</v>
+        <v>230.84631277040495</v>
       </c>
       <c r="F91" s="28">
-        <v>0.44400000000000001</v>
+        <v>1.0980000000000001</v>
       </c>
       <c r="G91" s="25">
         <v>0</v>
       </c>
       <c r="H91" s="28">
-        <v>3.3447506306601968</v>
+        <v>3.2406373374528186</v>
       </c>
       <c r="I91" s="28">
-        <v>3.0833333333333334E-2</v>
+        <v>7.6250000000000012E-2</v>
       </c>
       <c r="J91" s="28">
         <v>0</v>
       </c>
       <c r="K91"/>
       <c r="L91" s="27">
-        <v>128086</v>
+        <v>82284</v>
       </c>
       <c r="M91" s="29">
         <v>18994958</v>
@@ -5047,35 +4965,35 @@
         <v>102</v>
       </c>
       <c r="B92" s="25">
-        <v>44.952959714300185</v>
+        <v>54.998329508229311</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D92" s="26">
-        <v>2.3084182866302226E-4</v>
+        <v>2.5752149167796384E-5</v>
       </c>
       <c r="E92" s="27">
-        <v>4331.9705349405185</v>
+        <v>38831.7104519774</v>
       </c>
       <c r="F92" s="28">
-        <v>0.125</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G92" s="25">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="H92" s="28">
-        <v>4.4969990724001887</v>
+        <v>5.5003429578180461</v>
       </c>
       <c r="I92" s="28">
-        <v>8.6805555555555559E-3</v>
+        <v>3.9583333333333337E-3</v>
       </c>
       <c r="J92" s="28">
-        <v>9.0106569649668379E-3</v>
+        <v>6.7749300488472459E-3</v>
       </c>
       <c r="K92"/>
       <c r="L92" s="27">
-        <v>12693</v>
+        <v>1416</v>
       </c>
       <c r="M92" s="29">
         <v>54985702</v>
@@ -5086,35 +5004,35 @@
         <v>103</v>
       </c>
       <c r="B93" s="25">
-        <v>50.841757560030644</v>
+        <v>28.428853879344732</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D93" s="26">
-        <v>2.8833163080370383E-4</v>
+        <v>1.6920947704880219E-2</v>
       </c>
       <c r="E93" s="27">
-        <v>3468.2285714285713</v>
+        <v>59.098344693281405</v>
       </c>
       <c r="F93" s="28">
-        <v>0</v>
+        <v>1.177</v>
       </c>
       <c r="G93" s="25">
         <v>0</v>
       </c>
       <c r="H93" s="28">
-        <v>5.0841757560030647</v>
+        <v>2.8674062212678066</v>
       </c>
       <c r="I93" s="28">
-        <v>0</v>
+        <v>8.173611111111112E-2</v>
       </c>
       <c r="J93" s="28">
         <v>0</v>
       </c>
       <c r="K93"/>
       <c r="L93" s="27">
-        <v>35</v>
+        <v>2054</v>
       </c>
       <c r="M93" s="29">
         <v>121388</v>
@@ -5125,35 +5043,35 @@
         <v>104</v>
       </c>
       <c r="B94" s="25">
-        <v>29.824701347387446</v>
+        <v>27.768936088640288</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="26">
-        <v>1.3559958720616336E-2</v>
+        <v>1.6760335382285951E-2</v>
       </c>
       <c r="E94" s="27">
-        <v>73.746537183746483</v>
+        <v>59.664677179246844</v>
       </c>
       <c r="F94" s="28">
-        <v>0.26400000000000001</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="G94" s="25">
-        <v>7513</v>
+        <v>6885</v>
       </c>
       <c r="H94" s="28">
-        <v>2.9370700852817553</v>
+        <v>2.7398732154777155</v>
       </c>
       <c r="I94" s="28">
-        <v>1.8333333333333333E-2</v>
+        <v>3.2083333333333332E-2</v>
       </c>
       <c r="J94" s="28">
-        <v>0.5090004945698936</v>
+        <v>0.46645393386313283</v>
       </c>
       <c r="K94"/>
       <c r="L94" s="27">
-        <v>58695</v>
+        <v>72548</v>
       </c>
       <c r="M94" s="29">
         <v>4328553</v>
@@ -5164,35 +5082,35 @@
         <v>105</v>
       </c>
       <c r="B95" s="25">
-        <v>40.632578479978157</v>
+        <v>42.249788384647808</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="26">
-        <v>1.1754061759289306E-3</v>
+        <v>4.1337606495254396E-4</v>
       </c>
       <c r="E95" s="27">
-        <v>850.76973430881787</v>
+        <v>2419.1047445255476</v>
       </c>
       <c r="F95" s="28">
-        <v>0.34499999999999997</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="G95" s="25">
         <v>0</v>
       </c>
       <c r="H95" s="28">
-        <v>4.0704453479978158</v>
+        <v>4.234416338464781</v>
       </c>
       <c r="I95" s="28">
-        <v>2.3958333333333331E-2</v>
+        <v>3.1458333333333331E-2</v>
       </c>
       <c r="J95" s="28">
         <v>0</v>
       </c>
       <c r="K95"/>
       <c r="L95" s="27">
-        <v>7791</v>
+        <v>2740</v>
       </c>
       <c r="M95" s="29">
         <v>6628347</v>
@@ -5203,35 +5121,35 @@
         <v>106</v>
       </c>
       <c r="B96" s="25">
-        <v>37.663308141581709</v>
+        <v>40.552173805658057</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="26">
-        <v>1.8241424253979818E-3</v>
+        <v>7.9641074467453677E-4</v>
       </c>
       <c r="E96" s="27">
-        <v>548.20280811232453</v>
+        <v>1255.63348647269</v>
       </c>
       <c r="F96" s="28">
-        <v>0.71599999999999997</v>
+        <v>0.503</v>
       </c>
       <c r="G96" s="25">
-        <v>644</v>
+        <v>156</v>
       </c>
       <c r="H96" s="28">
-        <v>3.77688442587338</v>
+        <v>4.0646396581448521</v>
       </c>
       <c r="I96" s="28">
-        <v>4.9722222222222223E-2</v>
+        <v>3.4930555555555555E-2</v>
       </c>
       <c r="J96" s="28">
-        <v>4.3630549514576261E-2</v>
+        <v>1.0568890876201702E-2</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="27">
-        <v>13461</v>
+        <v>5877</v>
       </c>
       <c r="M96" s="29">
         <v>7379358</v>
@@ -5242,35 +5160,35 @@
         <v>107</v>
       </c>
       <c r="B97" s="25">
-        <v>27.626310406223869</v>
+        <v>21.888541741950718</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D97" s="26">
-        <v>1.9217604907297205E-2</v>
+        <v>6.6691163158419095E-2</v>
       </c>
       <c r="E97" s="27">
-        <v>52.035620714644068</v>
+        <v>14.994490313875414</v>
       </c>
       <c r="F97" s="28">
-        <v>5.5860000000000003</v>
+        <v>4.8970000000000002</v>
       </c>
       <c r="G97" s="25">
-        <v>9344</v>
+        <v>12593</v>
       </c>
       <c r="H97" s="28">
-        <v>2.8157010942459584</v>
+        <v>2.2055583134232717</v>
       </c>
       <c r="I97" s="28">
-        <v>0.38791666666666669</v>
+        <v>0.34006944444444448</v>
       </c>
       <c r="J97" s="28">
-        <v>0.63304946376428661</v>
+        <v>0.85316694105133362</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="27">
-        <v>35878</v>
+        <v>124508</v>
       </c>
       <c r="M97" s="29">
         <v>1866934</v>
@@ -5281,35 +5199,35 @@
         <v>108</v>
       </c>
       <c r="B98" s="25">
-        <v>28.343131101309556</v>
+        <v>27.388356142959868</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="26">
-        <v>1.3848856378000728E-2</v>
+        <v>1.5832561572344892E-2</v>
       </c>
       <c r="E98" s="27">
-        <v>72.20812843351645</v>
+        <v>63.160973379489235</v>
       </c>
       <c r="F98" s="28">
-        <v>2.258</v>
+        <v>2.786</v>
       </c>
       <c r="G98" s="25">
         <v>0</v>
       </c>
       <c r="H98" s="28">
-        <v>2.8813547767976222</v>
+        <v>2.7968772809626534</v>
       </c>
       <c r="I98" s="28">
-        <v>0.15680555555555556</v>
+        <v>0.19347222222222221</v>
       </c>
       <c r="J98" s="28">
         <v>0</v>
       </c>
       <c r="K98"/>
       <c r="L98" s="27">
-        <v>93745</v>
+        <v>107173</v>
       </c>
       <c r="M98" s="29">
         <v>6769151</v>
@@ -5320,35 +5238,35 @@
         <v>109</v>
       </c>
       <c r="B99" s="25">
-        <v>40.130930898272325</v>
+        <v>48.43572146891232</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D99" s="26">
-        <v>8.8000974495001775E-4</v>
+        <v>1.4960165664150302E-4</v>
       </c>
       <c r="E99" s="27">
-        <v>1136.351052631579</v>
+        <v>6684.4179566563471</v>
       </c>
       <c r="F99" s="28">
-        <v>0.19800000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="G99" s="25">
         <v>0</v>
       </c>
       <c r="H99" s="28">
-        <v>4.0172180898272325</v>
+        <v>4.8463221468912323</v>
       </c>
       <c r="I99" s="28">
-        <v>1.375E-2</v>
+        <v>9.1666666666666667E-3</v>
       </c>
       <c r="J99" s="28">
         <v>0</v>
       </c>
       <c r="K99"/>
       <c r="L99" s="27">
-        <v>1900</v>
+        <v>323</v>
       </c>
       <c r="M99" s="29">
         <v>2159067</v>
@@ -5359,35 +5277,35 @@
         <v>110</v>
       </c>
       <c r="B100" s="25">
-        <v>48.852902265703882</v>
+        <v>57.61491818534067</v>
       </c>
       <c r="C100" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="26">
-        <v>6.8916151629432645E-5</v>
+        <v>2.2199880776988106E-5</v>
       </c>
       <c r="E100" s="27">
-        <v>14510.386554621848</v>
+        <v>45045.286956521741</v>
       </c>
       <c r="F100" s="28">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G100" s="25">
         <v>0</v>
       </c>
       <c r="H100" s="28">
-        <v>4.8858735599037217</v>
+        <v>5.7614918185340667</v>
       </c>
       <c r="I100" s="28">
-        <v>1.9444444444444444E-3</v>
+        <v>0</v>
       </c>
       <c r="J100" s="28">
         <v>0</v>
       </c>
       <c r="K100"/>
       <c r="L100" s="27">
-        <v>357</v>
+        <v>115</v>
       </c>
       <c r="M100" s="29">
         <v>5180208</v>
@@ -5398,35 +5316,35 @@
         <v>111</v>
       </c>
       <c r="B101" s="25">
-        <v>39.066989301127116</v>
+        <v>31.632181176066666</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D101" s="26">
-        <v>1.3175181338378839E-3</v>
+        <v>6.7683757708875058E-3</v>
       </c>
       <c r="E101" s="27">
-        <v>759.00283595113433</v>
+        <v>147.74593400993672</v>
       </c>
       <c r="F101" s="28">
-        <v>1.375</v>
+        <v>1.2929999999999999</v>
       </c>
       <c r="G101" s="25">
         <v>0</v>
       </c>
       <c r="H101" s="28">
-        <v>3.9353447634460452</v>
+        <v>3.1901556176066665</v>
       </c>
       <c r="I101" s="28">
-        <v>9.5486111111111105E-2</v>
+        <v>8.9791666666666659E-2</v>
       </c>
       <c r="J101" s="28">
         <v>0</v>
       </c>
       <c r="K101"/>
       <c r="L101" s="27">
-        <v>9168</v>
+        <v>47098</v>
       </c>
       <c r="M101" s="29">
         <v>6958538</v>
@@ -5437,35 +5355,35 @@
         <v>112</v>
       </c>
       <c r="B102" s="25">
-        <v>24.932542760936368</v>
+        <v>23.3271016910562</v>
       </c>
       <c r="C102" t="s">
         <v>162</v>
       </c>
       <c r="D102" s="26">
-        <v>3.105557588748889E-2</v>
+        <v>4.6766351231243793E-2</v>
       </c>
       <c r="E102" s="27">
-        <v>32.200336700336699</v>
+        <v>21.382895472330912</v>
       </c>
       <c r="F102" s="28">
-        <v>3.734</v>
+        <v>0</v>
       </c>
       <c r="G102" s="25">
         <v>0</v>
       </c>
       <c r="H102" s="28">
-        <v>2.5710459427603034</v>
+        <v>2.3327101691056198</v>
       </c>
       <c r="I102" s="28">
-        <v>0.25930555555555557</v>
+        <v>0</v>
       </c>
       <c r="J102" s="28">
         <v>0</v>
       </c>
       <c r="K102"/>
       <c r="L102" s="27">
-        <v>1188</v>
+        <v>1789</v>
       </c>
       <c r="M102" s="29">
         <v>38254</v>
@@ -5476,35 +5394,35 @@
         <v>113</v>
       </c>
       <c r="B103" s="25">
-        <v>26.959230862674239</v>
+        <v>22.160035326942531</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D103" s="26">
-        <v>2.0918173497376444E-2</v>
+        <v>5.5030704177389027E-2</v>
       </c>
       <c r="E103" s="27">
-        <v>47.805321058524541</v>
+        <v>18.171673703766256</v>
       </c>
       <c r="F103" s="28">
-        <v>5.5759999999999996</v>
+        <v>5.8419999999999996</v>
       </c>
       <c r="G103" s="25">
-        <v>8563</v>
+        <v>9186</v>
       </c>
       <c r="H103" s="28">
-        <v>2.7540760269258118</v>
+        <v>2.2754773585988755</v>
       </c>
       <c r="I103" s="28">
-        <v>0.38722222222222219</v>
+        <v>0.40569444444444441</v>
       </c>
       <c r="J103" s="28">
-        <v>0.58013726008278965</v>
+        <v>0.62234507428710795</v>
       </c>
       <c r="K103"/>
       <c r="L103" s="27">
-        <v>56267</v>
+        <v>148025</v>
       </c>
       <c r="M103" s="29">
         <v>2689862</v>
@@ -5515,35 +5433,35 @@
         <v>114</v>
       </c>
       <c r="B104" s="25">
-        <v>24.830496579201096</v>
+        <v>23.72591851639412</v>
       </c>
       <c r="C104" t="s">
         <v>162</v>
       </c>
       <c r="D104" s="26">
-        <v>3.846165963573582E-2</v>
+        <v>3.4055644645518218E-2</v>
       </c>
       <c r="E104" s="27">
-        <v>25.999918086500656</v>
+        <v>29.363707849576759</v>
       </c>
       <c r="F104" s="28">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="G104" s="25">
-        <v>9315</v>
+        <v>5943</v>
       </c>
       <c r="H104" s="28">
-        <v>2.4668161845150975</v>
+        <v>2.3885784423591128</v>
       </c>
       <c r="I104" s="28">
-        <v>0.15625</v>
+        <v>0.1875</v>
       </c>
       <c r="J104" s="28">
-        <v>0.63108473405012089</v>
+        <v>0.40263409280299178</v>
       </c>
       <c r="K104"/>
       <c r="L104" s="27">
-        <v>24416</v>
+        <v>21619</v>
       </c>
       <c r="M104" s="29">
         <v>634814</v>
@@ -5554,35 +5472,35 @@
         <v>115</v>
       </c>
       <c r="B105" s="25">
-        <v>48.273843994391733</v>
+        <v>48.508908860779314</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="26">
-        <v>1.193569583189531E-4</v>
+        <v>1.4278511459376087E-4</v>
       </c>
       <c r="E105" s="27">
-        <v>8378.2295903330396</v>
+        <v>7003.5311653116532</v>
       </c>
       <c r="F105" s="28">
-        <v>0.26100000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="G105" s="25">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H105" s="28">
-        <v>4.8324560532165357</v>
+        <v>4.8540714472792619</v>
       </c>
       <c r="I105" s="28">
-        <v>1.8125000000000002E-2</v>
+        <v>1.1527777777777779E-2</v>
       </c>
       <c r="J105" s="28">
-        <v>3.6584622263775126E-3</v>
+        <v>2.7777213200273708E-3</v>
       </c>
       <c r="K105"/>
       <c r="L105" s="27">
-        <v>3393</v>
+        <v>4059</v>
       </c>
       <c r="M105" s="29">
         <v>28427333</v>
@@ -5593,35 +5511,35 @@
         <v>116</v>
       </c>
       <c r="B106" s="25">
-        <v>44.890057525456371</v>
+        <v>53.229060359279131</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D106" s="26">
-        <v>2.5438116589942601E-4</v>
+        <v>3.6238373373427636E-5</v>
       </c>
       <c r="E106" s="27">
-        <v>3931.1086434573826</v>
+        <v>27595.05758426966</v>
       </c>
       <c r="F106" s="28">
-        <v>0.41399999999999998</v>
+        <v>0.153</v>
       </c>
       <c r="G106" s="25">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H106" s="28">
-        <v>4.4971632823722665</v>
+        <v>5.3258293136560084</v>
       </c>
       <c r="I106" s="28">
-        <v>2.8749999999999998E-2</v>
+        <v>1.0624999999999999E-2</v>
       </c>
       <c r="J106" s="28">
-        <v>4.6747017337045995E-3</v>
+        <v>2.6422227190504256E-3</v>
       </c>
       <c r="K106"/>
       <c r="L106" s="27">
-        <v>4998</v>
+        <v>712</v>
       </c>
       <c r="M106" s="29">
         <v>19647681</v>
@@ -5632,35 +5550,35 @@
         <v>117</v>
       </c>
       <c r="B107" s="25">
-        <v>38.864957996837106</v>
+        <v>35.814777050271367</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="26">
-        <v>1.3493939732784723E-3</v>
+        <v>3.8141706198660339E-3</v>
       </c>
       <c r="E107" s="27">
-        <v>741.07341503120199</v>
+        <v>262.1801958180684</v>
       </c>
       <c r="F107" s="28">
-        <v>0.44900000000000001</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="G107" s="25">
-        <v>3497</v>
+        <v>6064</v>
       </c>
       <c r="H107" s="28">
-        <v>3.8721580359695582</v>
+        <v>3.5472070292109268</v>
       </c>
       <c r="I107" s="28">
-        <v>3.1180555555555555E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="J107" s="28">
-        <v>0.23691930380818818</v>
+        <v>0.41083175816209699</v>
       </c>
       <c r="K107"/>
       <c r="L107" s="27">
-        <v>44228</v>
+        <v>125014</v>
       </c>
       <c r="M107" s="29">
         <v>32776195</v>
@@ -5671,35 +5589,35 @@
         <v>118</v>
       </c>
       <c r="B108" s="25">
-        <v>28.260814790184789</v>
+        <v>22.643080656078268</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D108" s="26">
-        <v>2.5534380633530775E-2</v>
+        <v>5.1190169603767335E-2</v>
       </c>
       <c r="E108" s="27">
-        <v>39.162884518406457</v>
+        <v>19.535000718700591</v>
       </c>
       <c r="F108" s="28">
-        <v>1.3140000000000001</v>
+        <v>1.84</v>
       </c>
       <c r="G108" s="25">
-        <v>12071</v>
+        <v>9538</v>
       </c>
       <c r="H108" s="28">
-        <v>2.7716762983988437</v>
+        <v>2.2380221161352551</v>
       </c>
       <c r="I108" s="28">
-        <v>9.1249999999999998E-2</v>
+        <v>0.1277777777777778</v>
       </c>
       <c r="J108" s="28">
-        <v>0.81780180619635101</v>
+        <v>0.64619282805905032</v>
       </c>
       <c r="K108"/>
       <c r="L108" s="27">
-        <v>13881</v>
+        <v>27828</v>
       </c>
       <c r="M108" s="29">
         <v>543620</v>
@@ -5710,35 +5628,35 @@
         <v>119</v>
       </c>
       <c r="B109" s="25">
-        <v>44.909448625745519</v>
+        <v>56.46073449653646</v>
       </c>
       <c r="C109" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D109" s="26">
-        <v>2.761352231166849E-4</v>
+        <v>1.448043712124307E-5</v>
       </c>
       <c r="E109" s="27">
-        <v>3621.4141343983329</v>
+        <v>69058.688741721853</v>
       </c>
       <c r="F109" s="28">
-        <v>0.17799999999999999</v>
+        <v>0</v>
       </c>
       <c r="G109" s="25">
         <v>0</v>
       </c>
       <c r="H109" s="28">
-        <v>4.494653195907885</v>
+        <v>5.6460734496536462</v>
       </c>
       <c r="I109" s="28">
-        <v>1.2361111111111111E-2</v>
+        <v>0</v>
       </c>
       <c r="J109" s="28">
         <v>0</v>
       </c>
       <c r="K109"/>
       <c r="L109" s="27">
-        <v>5759</v>
+        <v>302</v>
       </c>
       <c r="M109" s="29">
         <v>20855724</v>
@@ -5749,35 +5667,35 @@
         <v>120</v>
       </c>
       <c r="B110" s="25">
-        <v>26.838490234917529</v>
+        <v>31.586987144446439</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="26">
-        <v>1.3040108506103468E-2</v>
+        <v>5.256733191242007E-3</v>
       </c>
       <c r="E110" s="27">
-        <v>76.68647845468054</v>
+        <v>190.23221525985994</v>
       </c>
       <c r="F110" s="28">
-        <v>6.6429999999999998</v>
+        <v>4.7060000000000004</v>
       </c>
       <c r="G110" s="25">
-        <v>7574</v>
+        <v>4094.0000000000005</v>
       </c>
       <c r="H110" s="28">
-        <v>2.7709315366351173</v>
+        <v>3.2290038174913298</v>
       </c>
       <c r="I110" s="28">
-        <v>0.46131944444444445</v>
+        <v>0.32680555555555557</v>
       </c>
       <c r="J110" s="28">
-        <v>0.51313320189969036</v>
+        <v>0.27736563619980625</v>
       </c>
       <c r="K110"/>
       <c r="L110" s="27">
-        <v>6730</v>
+        <v>2713</v>
       </c>
       <c r="M110" s="29">
         <v>516100</v>
@@ -5788,10 +5706,10 @@
         <v>121</v>
       </c>
       <c r="B111" s="25">
-        <v>53.647688601323892</v>
+        <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D111" s="26">
         <v>0</v>
@@ -5806,7 +5724,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="28">
-        <v>5.3647688601323891</v>
+        <v>10</v>
       </c>
       <c r="I111" s="28">
         <v>0</v>
@@ -5827,35 +5745,35 @@
         <v>122</v>
       </c>
       <c r="B112" s="25">
-        <v>35.883113362750017</v>
+        <v>46.745819295424042</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D112" s="26">
-        <v>2.2703141917149554E-3</v>
+        <v>1.3046819863835597E-4</v>
       </c>
       <c r="E112" s="27">
-        <v>440.4676690342219</v>
+        <v>7664.7030497592305</v>
       </c>
       <c r="F112" s="28">
-        <v>0.628</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="G112" s="25">
-        <v>1054</v>
+        <v>470</v>
       </c>
       <c r="H112" s="28">
-        <v>3.59425389333685</v>
+        <v>4.677001879086113</v>
       </c>
       <c r="I112" s="28">
-        <v>4.3611111111111114E-2</v>
+        <v>1.8680555555555558E-2</v>
       </c>
       <c r="J112" s="28">
-        <v>7.1407762714849971E-2</v>
+        <v>3.184217122958205E-2</v>
       </c>
       <c r="K112"/>
       <c r="L112" s="27">
-        <v>10841</v>
+        <v>623</v>
       </c>
       <c r="M112" s="29">
         <v>4775110</v>
@@ -5866,16 +5784,16 @@
         <v>123</v>
       </c>
       <c r="B113" s="25">
-        <v>40.452485728556404</v>
+        <v>43.862352790786339</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="26">
-        <v>7.9863172476182397E-4</v>
+        <v>1.8297069013717304E-4</v>
       </c>
       <c r="E113" s="27">
-        <v>1252.141592920354</v>
+        <v>5465.3562231759661</v>
       </c>
       <c r="F113" s="28">
         <v>0</v>
@@ -5884,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="28">
-        <v>4.0452485728556402</v>
+        <v>4.3862352790786341</v>
       </c>
       <c r="I113" s="28">
         <v>0</v>
@@ -5894,7 +5812,7 @@
       </c>
       <c r="K113"/>
       <c r="L113" s="27">
-        <v>1017</v>
+        <v>233</v>
       </c>
       <c r="M113" s="29">
         <v>1273428</v>
@@ -5905,35 +5823,35 @@
         <v>124</v>
       </c>
       <c r="B114" s="25">
-        <v>35.051988534809333</v>
+        <v>33.672000327095375</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D114" s="26">
-        <v>3.3794526148871102E-3</v>
+        <v>3.168316953296205E-3</v>
       </c>
       <c r="E114" s="27">
-        <v>295.90590961234847</v>
+        <v>315.62498788501426</v>
       </c>
       <c r="F114" s="28">
-        <v>1.3160000000000001</v>
+        <v>3.4369999999999998</v>
       </c>
       <c r="G114" s="25">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="H114" s="28">
-        <v>3.5300003971487448</v>
+        <v>3.4380792818609773</v>
       </c>
       <c r="I114" s="28">
-        <v>9.1388888888888895E-2</v>
+        <v>0.23868055555555553</v>
       </c>
       <c r="J114" s="28">
-        <v>2.6151229988550368E-2</v>
+        <v>7.2491751522665527E-3</v>
       </c>
       <c r="K114"/>
       <c r="L114" s="27">
-        <v>440215</v>
+        <v>412712</v>
       </c>
       <c r="M114" s="29">
         <v>130262220</v>
@@ -5983,35 +5901,35 @@
         <v>126</v>
       </c>
       <c r="B116" s="25">
-        <v>33.964571576571217</v>
+        <v>27.593446380503497</v>
       </c>
       <c r="C116" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="26">
-        <v>5.3878889917433415E-3</v>
+        <v>1.2048881406054883E-2</v>
       </c>
       <c r="E116" s="27">
-        <v>185.60144827268115</v>
+        <v>82.995256264824164</v>
       </c>
       <c r="F116" s="28">
-        <v>2.556</v>
+        <v>5.2539999999999996</v>
       </c>
       <c r="G116" s="25">
-        <v>2860</v>
+        <v>0</v>
       </c>
       <c r="H116" s="28">
-        <v>3.4303308577174185</v>
+        <v>2.8688029713836829</v>
       </c>
       <c r="I116" s="28">
-        <v>0.17749999999999999</v>
+        <v>0.36486111111111108</v>
       </c>
       <c r="J116" s="28">
-        <v>0.1937629993970312</v>
+        <v>0</v>
       </c>
       <c r="K116"/>
       <c r="L116" s="27">
-        <v>21681</v>
+        <v>48485</v>
       </c>
       <c r="M116" s="29">
         <v>4024025</v>
@@ -6022,16 +5940,16 @@
         <v>127</v>
       </c>
       <c r="B117" s="25">
-        <v>22.939115576531062</v>
+        <v>24.442408465194973</v>
       </c>
       <c r="C117" t="s">
         <v>162</v>
       </c>
       <c r="D117" s="26">
-        <v>3.9650809716599192E-2</v>
+        <v>2.9504048582995952E-2</v>
       </c>
       <c r="E117" s="27">
-        <v>25.220165922144222</v>
+        <v>33.893653516295025</v>
       </c>
       <c r="F117" s="28">
         <v>3.6150000000000002</v>
@@ -6040,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="H117" s="28">
-        <v>2.3692240576531063</v>
+        <v>2.5195533465194973</v>
       </c>
       <c r="I117" s="28">
         <v>0.25104166666666666</v>
@@ -6050,7 +5968,7 @@
       </c>
       <c r="K117"/>
       <c r="L117" s="27">
-        <v>1567</v>
+        <v>1166</v>
       </c>
       <c r="M117" s="29">
         <v>39520</v>
@@ -6061,35 +5979,35 @@
         <v>128</v>
       </c>
       <c r="B118" s="25">
-        <v>32.3391512471906</v>
+        <v>27.11830962226227</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="26">
-        <v>7.7794551497890538E-3</v>
+        <v>1.342842090276522E-2</v>
       </c>
       <c r="E118" s="27">
-        <v>128.54370656370656</v>
+        <v>74.468919855950972</v>
       </c>
       <c r="F118" s="28">
-        <v>0.55800000000000005</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="G118" s="25">
-        <v>6311</v>
+        <v>3269</v>
       </c>
       <c r="H118" s="28">
-        <v>3.2027835411807848</v>
+        <v>2.7093503825632119</v>
       </c>
       <c r="I118" s="28">
-        <v>3.8750000000000007E-2</v>
+        <v>6.5555555555555547E-2</v>
       </c>
       <c r="J118" s="28">
-        <v>0.42756583538274967</v>
+        <v>0.22147246329681647</v>
       </c>
       <c r="K118"/>
       <c r="L118" s="27">
-        <v>25900</v>
+        <v>44707</v>
       </c>
       <c r="M118" s="29">
         <v>3329282</v>
@@ -6100,35 +6018,35 @@
         <v>129</v>
       </c>
       <c r="B119" s="25">
-        <v>21.603347289171676</v>
+        <v>26.471707744289926</v>
       </c>
       <c r="C119" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D119" s="26">
-        <v>4.2192433417031418E-2</v>
+        <v>1.3369933333439481E-2</v>
       </c>
       <c r="E119" s="27">
-        <v>23.700932110645685</v>
+        <v>74.794688579254498</v>
       </c>
       <c r="F119" s="28">
-        <v>8.1890000000000001</v>
+        <v>7.5060000000000002</v>
       </c>
       <c r="G119" s="25">
         <v>0</v>
       </c>
       <c r="H119" s="28">
-        <v>2.3309388955838344</v>
+        <v>2.8035457744289927</v>
       </c>
       <c r="I119" s="28">
-        <v>0.56868055555555552</v>
+        <v>0.52124999999999999</v>
       </c>
       <c r="J119" s="28">
         <v>0</v>
       </c>
       <c r="K119"/>
       <c r="L119" s="27">
-        <v>26499</v>
+        <v>8397</v>
       </c>
       <c r="M119" s="29">
         <v>628051</v>
@@ -6139,35 +6057,35 @@
         <v>130</v>
       </c>
       <c r="B120" s="25">
-        <v>36.449866464912589</v>
+        <v>39.031438604116595</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="26">
-        <v>2.5270729218511809E-3</v>
+        <v>8.6563621316142463E-4</v>
       </c>
       <c r="E120" s="27">
-        <v>395.71473832558041</v>
+        <v>1155.2196925170911</v>
       </c>
       <c r="F120" s="28">
-        <v>0.39</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="G120" s="25">
-        <v>818</v>
+        <v>408</v>
       </c>
       <c r="H120" s="28">
-        <v>3.6475697537113021</v>
+        <v>3.9172755222850633</v>
       </c>
       <c r="I120" s="28">
-        <v>2.7083333333333334E-2</v>
+        <v>5.631944444444445E-2</v>
       </c>
       <c r="J120" s="28">
-        <v>5.5418927799570465E-2</v>
+        <v>2.7641714599296759E-2</v>
       </c>
       <c r="K120"/>
       <c r="L120" s="27">
-        <v>94373</v>
+        <v>32327</v>
       </c>
       <c r="M120" s="29">
         <v>37344787</v>
@@ -6178,35 +6096,35 @@
         <v>131</v>
       </c>
       <c r="B121" s="25">
-        <v>41.159102255478608</v>
+        <v>52.857277943787139</v>
       </c>
       <c r="C121" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D121" s="26">
-        <v>5.6558699588300798E-4</v>
+        <v>3.5630954718373216E-5</v>
       </c>
       <c r="E121" s="27">
-        <v>1768.0745973283492</v>
+        <v>28065.484293193716</v>
       </c>
       <c r="F121" s="28">
-        <v>0.16400000000000001</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G121" s="25">
-        <v>174</v>
+        <v>57</v>
       </c>
       <c r="H121" s="28">
-        <v>4.1181480543860278</v>
+        <v>5.2860916233659294</v>
       </c>
       <c r="I121" s="28">
-        <v>1.1388888888888889E-2</v>
+        <v>2.4999999999999996E-3</v>
       </c>
       <c r="J121" s="28">
-        <v>1.1788378284994207E-2</v>
+        <v>3.8617101278429302E-3</v>
       </c>
       <c r="K121"/>
       <c r="L121" s="27">
-        <v>18191</v>
+        <v>1146</v>
       </c>
       <c r="M121" s="29">
         <v>32163045</v>
@@ -6217,35 +6135,35 @@
         <v>132</v>
       </c>
       <c r="B122" s="25">
-        <v>54.177467018676317</v>
+        <v>50.604207054337017</v>
       </c>
       <c r="C122" t="s">
         <v>15</v>
       </c>
       <c r="D122" s="26">
-        <v>3.8462932188427353E-5</v>
+        <v>1.3197456760858398E-4</v>
       </c>
       <c r="E122" s="27">
-        <v>25999.057874762806</v>
+        <v>7577.217475459699</v>
       </c>
       <c r="F122" s="28">
-        <v>2.3E-2</v>
+        <v>0</v>
       </c>
       <c r="G122" s="25">
-        <v>195</v>
+        <v>403</v>
       </c>
       <c r="H122" s="28">
-        <v>5.4169047571747733</v>
+        <v>5.0576904086240164</v>
       </c>
       <c r="I122" s="28">
-        <v>1.5972222222222221E-3</v>
+        <v>0</v>
       </c>
       <c r="J122" s="28">
-        <v>1.3211113595252129E-2</v>
+        <v>2.7302968096854403E-2</v>
       </c>
       <c r="K122"/>
       <c r="L122" s="27">
-        <v>2108</v>
+        <v>7233</v>
       </c>
       <c r="M122" s="29">
         <v>54806014</v>
@@ -6256,35 +6174,35 @@
         <v>133</v>
       </c>
       <c r="B123" s="25">
-        <v>36.171925977462706</v>
+        <v>43.636523147878634</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="26">
-        <v>1.5061777637608296E-3</v>
+        <v>3.6330692787661786E-4</v>
       </c>
       <c r="E123" s="27">
-        <v>663.9322555812164</v>
+        <v>2752.4936170212768</v>
       </c>
       <c r="F123" s="28">
-        <v>5.577</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="G123" s="25">
-        <v>535</v>
+        <v>412</v>
       </c>
       <c r="H123" s="28">
-        <v>3.7297555101701376</v>
+        <v>4.3781110436077384</v>
       </c>
       <c r="I123" s="28">
-        <v>0.38729166666666665</v>
+        <v>5.7499999999999996E-2</v>
       </c>
       <c r="J123" s="28">
-        <v>3.6245875761332765E-2</v>
+        <v>2.7912711801250649E-2</v>
       </c>
       <c r="K123"/>
       <c r="L123" s="27">
-        <v>3897</v>
+        <v>940</v>
       </c>
       <c r="M123" s="29">
         <v>2587344</v>
@@ -6295,35 +6213,35 @@
         <v>134</v>
       </c>
       <c r="B124" s="25">
-        <v>39.457815625504978</v>
+        <v>37.754959778495014</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="26">
-        <v>1.9305528035121913E-3</v>
+        <v>1.0853609714870335E-3</v>
       </c>
       <c r="E124" s="27">
-        <v>517.98634991010488</v>
+        <v>921.35245901639348</v>
       </c>
       <c r="F124" s="28">
-        <v>0.106</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="G124" s="25">
-        <v>517</v>
+        <v>266</v>
       </c>
       <c r="H124" s="28">
-        <v>3.9444872570485767</v>
+        <v>3.7823188464565081</v>
       </c>
       <c r="I124" s="28">
-        <v>7.3611111111111108E-3</v>
+        <v>2.8749999999999998E-2</v>
       </c>
       <c r="J124" s="28">
-        <v>3.5026388352540259E-2</v>
+        <v>1.8021313929933676E-2</v>
       </c>
       <c r="K124"/>
       <c r="L124" s="27">
-        <v>57289</v>
+        <v>32208</v>
       </c>
       <c r="M124" s="29">
         <v>29674920</v>
@@ -6334,35 +6252,35 @@
         <v>135</v>
       </c>
       <c r="B125" s="25">
-        <v>26.463628754523473</v>
+        <v>22.164942318092255</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D125" s="26">
-        <v>2.7710091146068379E-2</v>
+        <v>8.1054933956571831E-2</v>
       </c>
       <c r="E125" s="27">
-        <v>36.087936150361024</v>
+        <v>12.337311884502761</v>
       </c>
       <c r="F125" s="28">
-        <v>0.52400000000000002</v>
+        <v>0.433</v>
       </c>
       <c r="G125" s="25">
-        <v>6990</v>
+        <v>7775</v>
       </c>
       <c r="H125" s="28">
-        <v>2.6099227810775716</v>
+        <v>2.1728399840127715</v>
       </c>
       <c r="I125" s="28">
-        <v>3.6388888888888887E-2</v>
+        <v>3.0069444444444444E-2</v>
       </c>
       <c r="J125" s="28">
-        <v>0.47356761041442247</v>
+        <v>0.52675081129787338</v>
       </c>
       <c r="K125"/>
       <c r="L125" s="27">
-        <v>475868</v>
+        <v>1391964</v>
       </c>
       <c r="M125" s="29">
         <v>17173094</v>
@@ -6373,35 +6291,35 @@
         <v>136</v>
       </c>
       <c r="B126" s="25">
-        <v>48.013831688649859</v>
+        <v>43.175386047469779</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D126" s="26">
-        <v>1.7088348321401401E-4</v>
+        <v>6.4803074342118102E-4</v>
       </c>
       <c r="E126" s="27">
-        <v>5851.9406392694063</v>
+        <v>1543.1366646598433</v>
       </c>
       <c r="F126" s="28">
         <v>0</v>
       </c>
       <c r="G126" s="25">
-        <v>2667</v>
+        <v>3682</v>
       </c>
       <c r="H126" s="28">
-        <v>4.7833144304247099</v>
+        <v>4.2925933123071225</v>
       </c>
       <c r="I126" s="28">
         <v>0</v>
       </c>
       <c r="J126" s="28">
-        <v>0.18068738440275603</v>
+        <v>0.24945292439855557</v>
       </c>
       <c r="K126"/>
       <c r="L126" s="27">
-        <v>876</v>
+        <v>3322</v>
       </c>
       <c r="M126" s="29">
         <v>5126300</v>
@@ -6412,16 +6330,16 @@
         <v>137</v>
       </c>
       <c r="B127" s="25">
-        <v>59.401080538683608</v>
+        <v>57.450604021412296</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="26">
-        <v>1.1637658807417486E-5</v>
+        <v>2.1037306305716223E-5</v>
       </c>
       <c r="E127" s="27">
-        <v>85927.935897435891</v>
+        <v>47534.602836879436</v>
       </c>
       <c r="F127" s="28">
         <v>2.1000000000000001E-2</v>
@@ -6430,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="28">
-        <v>5.9405455538683611</v>
+        <v>5.7454979021412296</v>
       </c>
       <c r="I127" s="28">
         <v>1.4583333333333334E-3</v>
@@ -6440,7 +6358,7 @@
       </c>
       <c r="K127"/>
       <c r="L127" s="27">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="M127" s="29">
         <v>6702379</v>
@@ -6451,35 +6369,35 @@
         <v>138</v>
       </c>
       <c r="B128" s="25">
-        <v>54.402381536080661</v>
+        <v>63.430724687136355</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D128" s="26">
-        <v>3.6329907392559173E-5</v>
+        <v>2.8252173328277124E-6</v>
       </c>
       <c r="E128" s="27">
-        <v>27525.531215772178</v>
+        <v>353955.07042253518</v>
       </c>
       <c r="F128" s="28">
-        <v>5.0999999999999997E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G128" s="25">
         <v>0</v>
       </c>
       <c r="H128" s="28">
-        <v>5.4413006536080664</v>
+        <v>6.3433016353803025</v>
       </c>
       <c r="I128" s="28">
-        <v>3.5416666666666665E-3</v>
+        <v>7.6388888888888882E-4</v>
       </c>
       <c r="J128" s="28">
         <v>0</v>
       </c>
       <c r="K128"/>
       <c r="L128" s="27">
-        <v>913</v>
+        <v>71</v>
       </c>
       <c r="M128" s="29">
         <v>25130810</v>
@@ -6490,35 +6408,35 @@
         <v>139</v>
       </c>
       <c r="B129" s="25">
-        <v>54.738396334689142</v>
+        <v>61.867311913646866</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D129" s="26">
-        <v>2.5430378888426031E-5</v>
+        <v>5.307456308187129E-6</v>
       </c>
       <c r="E129" s="27">
-        <v>39323.047619047618</v>
+        <v>188414.17468805704</v>
       </c>
       <c r="F129" s="28">
-        <v>1.7000000000000001E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="G129" s="25">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H129" s="28">
-        <v>5.4739092530735292</v>
+        <v>6.1864883109693016</v>
       </c>
       <c r="I129" s="28">
-        <v>1.1805555555555556E-3</v>
+        <v>1.3888888888888889E-4</v>
       </c>
       <c r="J129" s="28">
         <v>2.8454706205158433E-3</v>
       </c>
       <c r="K129"/>
       <c r="L129" s="27">
-        <v>5376</v>
+        <v>1122</v>
       </c>
       <c r="M129" s="29">
         <v>211400704</v>
@@ -6529,35 +6447,35 @@
         <v>140</v>
       </c>
       <c r="B130" s="25">
-        <v>28.961953174041508</v>
+        <v>27.099219513367977</v>
       </c>
       <c r="C130" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="26">
-        <v>9.8964737900215163E-3</v>
+        <v>9.766831952007551E-3</v>
       </c>
       <c r="E130" s="27">
-        <v>101.04609189267866</v>
+        <v>102.38734575487932</v>
       </c>
       <c r="F130" s="28">
-        <v>6.585</v>
+        <v>13.17</v>
       </c>
       <c r="G130" s="25">
         <v>0</v>
       </c>
       <c r="H130" s="28">
-        <v>3.0333828174041506</v>
+        <v>2.9842969513367978</v>
       </c>
       <c r="I130" s="28">
-        <v>0.45729166666666665</v>
+        <v>0.9145833333333333</v>
       </c>
       <c r="J130" s="28">
         <v>0</v>
       </c>
       <c r="K130"/>
       <c r="L130" s="27">
-        <v>20611</v>
+        <v>20341</v>
       </c>
       <c r="M130" s="29">
         <v>2082661</v>
@@ -6568,35 +6486,35 @@
         <v>141</v>
       </c>
       <c r="B131" s="25">
-        <v>26.780609078065631</v>
+        <v>23.139386370707413</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D131" s="26">
-        <v>2.6148682978665402E-2</v>
+        <v>4.9824640494259671E-2</v>
       </c>
       <c r="E131" s="27">
-        <v>38.242843848613553</v>
+        <v>20.070390675778395</v>
       </c>
       <c r="F131" s="28">
-        <v>0.83599999999999997</v>
+        <v>1.202</v>
       </c>
       <c r="G131" s="25">
-        <v>5885</v>
+        <v>5312</v>
       </c>
       <c r="H131" s="28">
-        <v>2.6556071111357635</v>
+        <v>2.3029918753179315</v>
       </c>
       <c r="I131" s="28">
-        <v>5.8055555555555555E-2</v>
+        <v>8.3472222222222225E-2</v>
       </c>
       <c r="J131" s="28">
-        <v>0.39870463337466039</v>
+        <v>0.3598842841947657</v>
       </c>
       <c r="K131"/>
       <c r="L131" s="27">
-        <v>142919</v>
+        <v>272323</v>
       </c>
       <c r="M131" s="29">
         <v>5465629</v>
@@ -6607,35 +6525,35 @@
         <v>142</v>
       </c>
       <c r="B132" s="25">
-        <v>38.277942216737877</v>
+        <v>32.245357723592804</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D132" s="26">
-        <v>2.204895837481353E-3</v>
+        <v>5.7878276425055364E-3</v>
       </c>
       <c r="E132" s="27">
-        <v>453.53616393157938</v>
+        <v>172.7763958719238</v>
       </c>
       <c r="F132" s="28">
-        <v>0.16400000000000001</v>
+        <v>1.012</v>
       </c>
       <c r="G132" s="25">
         <v>0</v>
       </c>
       <c r="H132" s="28">
-        <v>3.8312108883404545</v>
+        <v>3.2456191056926138</v>
       </c>
       <c r="I132" s="28">
-        <v>1.1388888888888889E-2</v>
+        <v>7.0277777777777772E-2</v>
       </c>
       <c r="J132" s="28">
         <v>0</v>
       </c>
       <c r="K132"/>
       <c r="L132" s="27">
-        <v>11517</v>
+        <v>30232</v>
       </c>
       <c r="M132" s="29">
         <v>5223376</v>
@@ -6646,35 +6564,35 @@
         <v>143</v>
       </c>
       <c r="B133" s="25">
-        <v>47.880584250452735</v>
+        <v>44.180205191061802</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D133" s="26">
-        <v>2.3240682282808358E-4</v>
+        <v>3.3527097604013899E-4</v>
       </c>
       <c r="E133" s="27">
-        <v>4302.7996675455688</v>
+        <v>2982.662000185423</v>
       </c>
       <c r="F133" s="28">
-        <v>4.2000000000000003E-2</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="G133" s="25">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="H133" s="28">
-        <v>4.7873345415537454</v>
+        <v>4.4198611697873993</v>
       </c>
       <c r="I133" s="28">
-        <v>2.9166666666666668E-3</v>
+        <v>1.1736111111111112E-2</v>
       </c>
       <c r="J133" s="28">
-        <v>1.5988834915279498E-2</v>
+        <v>1.6801826521141171E-2</v>
       </c>
       <c r="K133"/>
       <c r="L133" s="27">
-        <v>52338</v>
+        <v>75503</v>
       </c>
       <c r="M133" s="29">
         <v>225199929</v>
@@ -6685,35 +6603,35 @@
         <v>144</v>
       </c>
       <c r="B134" s="25">
-        <v>39.431360160883266</v>
+        <v>27.456676673851316</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D134" s="26">
-        <v>1.5181639731972928E-3</v>
+        <v>1.9086474650548486E-2</v>
       </c>
       <c r="E134" s="27">
-        <v>658.69037709673353</v>
+        <v>52.393122266361701</v>
       </c>
       <c r="F134" s="28">
-        <v>0.84799999999999998</v>
+        <v>2.38</v>
       </c>
       <c r="G134" s="25">
-        <v>1089</v>
+        <v>0</v>
       </c>
       <c r="H134" s="28">
-        <v>3.9534247839317986</v>
+        <v>2.7705157311101236</v>
       </c>
       <c r="I134" s="28">
-        <v>5.8888888888888886E-2</v>
+        <v>0.16527777777777777</v>
       </c>
       <c r="J134" s="28">
-        <v>7.3778988231946507E-2</v>
+        <v>0.24735269608341293</v>
       </c>
       <c r="K134"/>
       <c r="L134" s="27">
-        <v>7929</v>
+        <v>99684</v>
       </c>
       <c r="M134" s="29">
         <v>5222756</v>
@@ -6724,35 +6642,35 @@
         <v>145</v>
       </c>
       <c r="B135" s="25">
-        <v>27.097548003286253</v>
+        <v>26.771297369060743</v>
       </c>
       <c r="C135" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="26">
-        <v>2.3405924297223171E-2</v>
+        <v>1.3586642088030742E-2</v>
       </c>
       <c r="E135" s="27">
-        <v>42.724226025059728</v>
+        <v>73.601703314239643</v>
       </c>
       <c r="F135" s="28">
-        <v>2.5760000000000001</v>
+        <v>3.9449999999999998</v>
       </c>
       <c r="G135" s="25">
-        <v>6167</v>
+        <v>3251</v>
       </c>
       <c r="H135" s="28">
-        <v>2.7216404733840509</v>
+        <v>2.7372919393172719</v>
       </c>
       <c r="I135" s="28">
-        <v>0.1788888888888889</v>
+        <v>0.2739583333333333</v>
       </c>
       <c r="J135" s="28">
-        <v>0.41780993611240963</v>
+        <v>0.22025297588802395</v>
       </c>
       <c r="K135"/>
       <c r="L135" s="27">
-        <v>102555</v>
+        <v>59531</v>
       </c>
       <c r="M135" s="29">
         <v>4381583</v>
@@ -6763,35 +6681,35 @@
         <v>146</v>
       </c>
       <c r="B136" s="25">
-        <v>55.699413594789654</v>
+        <v>48.768782707357403</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="26">
-        <v>1.7655434995375044E-5</v>
+        <v>1.7830892734459517E-4</v>
       </c>
       <c r="E136" s="27">
-        <v>56639.782608695648</v>
+        <v>5608.2441574415743</v>
       </c>
       <c r="F136" s="28">
-        <v>1.6E-2</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="G136" s="25">
         <v>0</v>
       </c>
       <c r="H136" s="28">
-        <v>5.5702746928122986</v>
+        <v>4.88112827073574</v>
       </c>
       <c r="I136" s="28">
-        <v>1.1111111111111111E-3</v>
+        <v>1.4166666666666666E-2</v>
       </c>
       <c r="J136" s="28">
         <v>0</v>
       </c>
       <c r="K136"/>
       <c r="L136" s="27">
-        <v>161</v>
+        <v>1626</v>
       </c>
       <c r="M136" s="29">
         <v>9119005</v>
@@ -6802,35 +6720,35 @@
         <v>147</v>
       </c>
       <c r="B137" s="25">
-        <v>33.788703492055518</v>
+        <v>28.678637243980344</v>
       </c>
       <c r="C137" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="26">
-        <v>6.0781415585622611E-3</v>
+        <v>8.1595469913254698E-3</v>
       </c>
       <c r="E137" s="27">
-        <v>164.52397338316393</v>
+        <v>122.55582338861633</v>
       </c>
       <c r="F137" s="28">
-        <v>4.2939999999999996</v>
+        <v>6.431</v>
       </c>
       <c r="G137" s="25">
-        <v>1722</v>
+        <v>1426</v>
       </c>
       <c r="H137" s="28">
-        <v>3.4566622529947701</v>
+        <v>2.9921818408150447</v>
       </c>
       <c r="I137" s="28">
-        <v>0.29819444444444443</v>
+        <v>0.4465972222222222</v>
       </c>
       <c r="J137" s="28">
-        <v>0.11666429544114956</v>
+        <v>9.6610502496561723E-2</v>
       </c>
       <c r="K137"/>
       <c r="L137" s="27">
-        <v>43882</v>
+        <v>58909</v>
       </c>
       <c r="M137" s="29">
         <v>7219641</v>
@@ -6841,35 +6759,35 @@
         <v>148</v>
       </c>
       <c r="B138" s="25">
-        <v>29.479838168962903</v>
+        <v>28.429679609858063</v>
       </c>
       <c r="C138" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="26">
-        <v>1.3499397396507103E-2</v>
+        <v>8.3105773887221946E-3</v>
       </c>
       <c r="E138" s="27">
-        <v>74.077380688025727</v>
+        <v>120.32858286802579</v>
       </c>
       <c r="F138" s="28">
-        <v>2.625</v>
+        <v>4.8390000000000004</v>
       </c>
       <c r="G138" s="25">
-        <v>0</v>
+        <v>2633</v>
       </c>
       <c r="H138" s="28">
-        <v>3.0025967926657531</v>
+        <v>2.9259420701671917</v>
       </c>
       <c r="I138" s="28">
-        <v>0.18229166666666666</v>
+        <v>0.33604166666666668</v>
       </c>
       <c r="J138" s="28">
-        <v>7.4524230537319702E-4</v>
+        <v>0.17838390818614797</v>
       </c>
       <c r="K138"/>
       <c r="L138" s="27">
-        <v>450332</v>
+        <v>277236</v>
       </c>
       <c r="M138" s="29">
         <v>33359415</v>
@@ -6880,35 +6798,35 @@
         <v>149</v>
       </c>
       <c r="B139" s="25">
-        <v>34.622110257673015</v>
+        <v>37.764041450063985</v>
       </c>
       <c r="C139" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D139" s="26">
-        <v>3.9223153530341366E-3</v>
+        <v>1.2078499077552E-3</v>
       </c>
       <c r="E139" s="27">
-        <v>254.95145341295478</v>
+        <v>827.91743707503281</v>
       </c>
       <c r="F139" s="28">
-        <v>0.53600000000000003</v>
+        <v>0.79100000000000004</v>
       </c>
       <c r="G139" s="25">
         <v>0</v>
       </c>
       <c r="H139" s="28">
-        <v>3.4733776924339681</v>
+        <v>3.7903901374150895</v>
       </c>
       <c r="I139" s="28">
-        <v>3.7222222222222226E-2</v>
+        <v>5.4930555555555559E-2</v>
       </c>
       <c r="J139" s="28">
-        <v>0</v>
+        <v>2.4931742579757863E-2</v>
       </c>
       <c r="K139"/>
       <c r="L139" s="27">
-        <v>435561</v>
+        <v>134128</v>
       </c>
       <c r="M139" s="29">
         <v>111046910</v>
@@ -6919,35 +6837,35 @@
         <v>150</v>
       </c>
       <c r="B140" s="25">
-        <v>31.506390979881303</v>
+        <v>26.899796236694591</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="26">
-        <v>6.0126729634627091E-3</v>
+        <v>1.5899436463211365E-2</v>
       </c>
       <c r="E140" s="27">
-        <v>166.31538187370467</v>
+        <v>62.895310932172514</v>
       </c>
       <c r="F140" s="28">
-        <v>7.4039999999999999</v>
+        <v>5.3140000000000001</v>
       </c>
       <c r="G140" s="25">
-        <v>2461</v>
+        <v>3532</v>
       </c>
       <c r="H140" s="28">
-        <v>3.2882159951379171</v>
+        <v>2.776758904070264</v>
       </c>
       <c r="I140" s="28">
-        <v>0.51416666666666666</v>
+        <v>0.36902777777777779</v>
       </c>
       <c r="J140" s="28">
-        <v>0.1667310285021307</v>
+        <v>0.23929052932528472</v>
       </c>
       <c r="K140"/>
       <c r="L140" s="27">
-        <v>227261</v>
+        <v>600951</v>
       </c>
       <c r="M140" s="29">
         <v>37797000</v>
@@ -6958,35 +6876,35 @@
         <v>151</v>
       </c>
       <c r="B141" s="25">
-        <v>24.419277962764959</v>
+        <v>22.001008071299246</v>
       </c>
       <c r="C141" t="s">
         <v>162</v>
       </c>
       <c r="D141" s="26">
-        <v>5.1194821203897789E-2</v>
+        <v>5.7228698525746115E-2</v>
       </c>
       <c r="E141" s="27">
-        <v>19.533225753777291</v>
+        <v>17.473750509110719</v>
       </c>
       <c r="F141" s="28">
-        <v>3.4279999999999999</v>
+        <v>4.5519999999999996</v>
       </c>
       <c r="G141" s="25">
-        <v>26730</v>
+        <v>16370.000000000002</v>
       </c>
       <c r="H141" s="28">
-        <v>2.3322505827374758</v>
+        <v>2.1840285355636286</v>
       </c>
       <c r="I141" s="28">
-        <v>0.23805555555555555</v>
+        <v>0.31611111111111106</v>
       </c>
       <c r="J141" s="28">
-        <v>1.8109388020568689</v>
+        <v>1.1090560489962942</v>
       </c>
       <c r="K141"/>
       <c r="L141" s="27">
-        <v>520545</v>
+        <v>581897</v>
       </c>
       <c r="M141" s="29">
         <v>10167923</v>
@@ -6997,35 +6915,35 @@
         <v>152</v>
       </c>
       <c r="B142" s="25">
-        <v>27.713892058402678</v>
+        <v>31.443811982982755</v>
       </c>
       <c r="C142" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="26">
-        <v>1.835507915990451E-2</v>
+        <v>5.5020876812474492E-3</v>
       </c>
       <c r="E142" s="27">
-        <v>54.480832868562928</v>
+        <v>181.74919374844953</v>
       </c>
       <c r="F142" s="28">
-        <v>0.439</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="G142" s="25">
         <v>0</v>
       </c>
       <c r="H142" s="28">
-        <v>2.7805350391736012</v>
+        <v>3.1484436982982755</v>
       </c>
       <c r="I142" s="28">
-        <v>3.048611111111111E-2</v>
+        <v>1.3541666666666667E-2</v>
       </c>
       <c r="J142" s="28">
         <v>0</v>
       </c>
       <c r="K142"/>
       <c r="L142" s="27">
-        <v>53790</v>
+        <v>16124</v>
       </c>
       <c r="M142" s="29">
         <v>2930524</v>
@@ -7036,35 +6954,35 @@
         <v>153</v>
       </c>
       <c r="B143" s="25">
-        <v>32.504059052920795</v>
+        <v>25.831097130709953</v>
       </c>
       <c r="C143" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="26">
-        <v>7.118131688311634E-3</v>
+        <v>2.0599680924678523E-2</v>
       </c>
       <c r="E143" s="27">
-        <v>140.48630227536466</v>
+        <v>48.544441229766569</v>
       </c>
       <c r="F143" s="28">
-        <v>2.0760000000000001</v>
+        <v>6.5570000000000004</v>
       </c>
       <c r="G143" s="25">
-        <v>3892</v>
+        <v>4285</v>
       </c>
       <c r="H143" s="28">
-        <v>3.2672878775419658</v>
+        <v>2.6906833044783514</v>
       </c>
       <c r="I143" s="28">
-        <v>0.14416666666666667</v>
+        <v>0.45534722222222224</v>
       </c>
       <c r="J143" s="28">
-        <v>0.26368027750113482</v>
+        <v>0.29030575259310448</v>
       </c>
       <c r="K143"/>
       <c r="L143" s="27">
-        <v>136154</v>
+        <v>394026</v>
       </c>
       <c r="M143" s="29">
         <v>19127772</v>
@@ -7075,35 +6993,35 @@
         <v>154</v>
       </c>
       <c r="B144" s="25">
-        <v>36.380424744217351</v>
+        <v>28.652676771619078</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D144" s="26">
-        <v>2.2893384343614948E-3</v>
+        <v>1.4437117456983771E-2</v>
       </c>
       <c r="E144" s="27">
-        <v>436.80741343902866</v>
+        <v>69.265904567138008</v>
       </c>
       <c r="F144" s="28">
-        <v>4.6900000000000004</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="G144" s="25">
-        <v>3296</v>
+        <v>7122</v>
       </c>
       <c r="H144" s="28">
-        <v>3.7134206383140675</v>
+        <v>2.9120166253540178</v>
       </c>
       <c r="I144" s="28">
-        <v>0.32569444444444445</v>
+        <v>0.31666666666666665</v>
       </c>
       <c r="J144" s="28">
-        <v>0.22330169441000519</v>
+        <v>0.48251051807890083</v>
       </c>
       <c r="K144"/>
       <c r="L144" s="27">
-        <v>334042</v>
+        <v>2106549</v>
       </c>
       <c r="M144" s="29">
         <v>145912022</v>
@@ -7114,35 +7032,35 @@
         <v>155</v>
       </c>
       <c r="B145" s="25">
-        <v>40.90138432076462</v>
+        <v>51.377846875418193</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D145" s="26">
-        <v>6.6922672565402502E-4</v>
+        <v>4.556918053130953E-5</v>
       </c>
       <c r="E145" s="27">
-        <v>1494.261902082161</v>
+        <v>21944.656198347107</v>
       </c>
       <c r="F145" s="28">
-        <v>0.29099999999999998</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="G145" s="25">
-        <v>1199</v>
+        <v>863</v>
       </c>
       <c r="H145" s="28">
-        <v>4.088077790947894</v>
+        <v>5.133062922909664</v>
       </c>
       <c r="I145" s="28">
-        <v>2.0208333333333332E-2</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="J145" s="28">
-        <v>8.1231411285678484E-2</v>
+        <v>5.8467646321551728E-2</v>
       </c>
       <c r="K145"/>
       <c r="L145" s="27">
-        <v>8885</v>
+        <v>605</v>
       </c>
       <c r="M145" s="29">
         <v>13276517</v>
@@ -7153,35 +7071,35 @@
         <v>156</v>
       </c>
       <c r="B146" s="25">
-        <v>25.280863417668481</v>
+        <v>32.969285737717342</v>
       </c>
       <c r="C146" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="26">
-        <v>2.754640869532738E-2</v>
+        <v>2.3717924774959848E-3</v>
       </c>
       <c r="E146" s="27">
-        <v>36.302372881355936</v>
+        <v>421.62204724409446</v>
       </c>
       <c r="F146" s="28">
-        <v>0</v>
+        <v>5.3360000000000003</v>
       </c>
       <c r="G146" s="25">
-        <v>3231</v>
+        <v>1401</v>
       </c>
       <c r="H146" s="28">
-        <v>2.5061965427790227</v>
+        <v>3.3986035634399663</v>
       </c>
       <c r="I146" s="28">
-        <v>0</v>
+        <v>0.37055555555555558</v>
       </c>
       <c r="J146" s="28">
-        <v>0.21889798987825451</v>
+        <v>9.4916769984349919E-2</v>
       </c>
       <c r="K146"/>
       <c r="L146" s="27">
-        <v>1475</v>
+        <v>127</v>
       </c>
       <c r="M146" s="29">
         <v>53546</v>
@@ -7192,35 +7110,35 @@
         <v>157</v>
       </c>
       <c r="B147" s="25">
-        <v>26.196626598265439</v>
+        <v>27.80244699828156</v>
       </c>
       <c r="C147" t="s">
         <v>17</v>
       </c>
       <c r="D147" s="26">
-        <v>2.2179923102369294E-2</v>
+        <v>7.8958357058801203E-3</v>
       </c>
       <c r="E147" s="27">
-        <v>45.085819070904641</v>
+        <v>126.64903846153845</v>
       </c>
       <c r="F147" s="28">
-        <v>3.8740000000000001</v>
+        <v>10.071</v>
       </c>
       <c r="G147" s="25">
         <v>0</v>
       </c>
       <c r="H147" s="28">
-        <v>2.7003709931598774</v>
+        <v>2.990057199828156</v>
       </c>
       <c r="I147" s="28">
-        <v>0.26902777777777781</v>
+        <v>0.69937499999999997</v>
       </c>
       <c r="J147" s="28">
         <v>0</v>
       </c>
       <c r="K147"/>
       <c r="L147" s="27">
-        <v>4090</v>
+        <v>1456</v>
       </c>
       <c r="M147" s="29">
         <v>184401</v>
@@ -7231,16 +7149,16 @@
         <v>158</v>
       </c>
       <c r="B148" s="25">
-        <v>21.817944644992352</v>
+        <v>23.301173863082312</v>
       </c>
       <c r="C148" t="s">
         <v>162</v>
       </c>
       <c r="D148" s="26">
-        <v>8.4040894125801416E-2</v>
+        <v>3.3962918038468203E-2</v>
       </c>
       <c r="E148" s="27">
-        <v>11.898969072164949</v>
+        <v>29.44387755102041</v>
       </c>
       <c r="F148" s="28">
         <v>0</v>
@@ -7249,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="28">
-        <v>2.1817944644992351</v>
+        <v>2.3301173863082312</v>
       </c>
       <c r="I148" s="28">
         <v>0</v>
@@ -7259,7 +7177,7 @@
       </c>
       <c r="K148"/>
       <c r="L148" s="27">
-        <v>485</v>
+        <v>196</v>
       </c>
       <c r="M148" s="29">
         <v>5771</v>
@@ -7270,35 +7188,35 @@
         <v>159</v>
       </c>
       <c r="B149" s="25">
-        <v>31.298672052646801</v>
+        <v>30.667810028898401</v>
       </c>
       <c r="C149" t="s">
         <v>17</v>
       </c>
       <c r="D149" s="26">
-        <v>3.3073003262364181E-3</v>
+        <v>0</v>
       </c>
       <c r="E149" s="27">
-        <v>302.36141304347825</v>
+        <v>0</v>
       </c>
       <c r="F149" s="28">
-        <v>6.4189999999999996</v>
+        <v>7.7030000000000003</v>
       </c>
       <c r="G149" s="25">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="H149" s="28">
-        <v>3.2635963719313468</v>
+        <v>3.2247669952985309</v>
       </c>
       <c r="I149" s="28">
-        <v>0.44576388888888885</v>
+        <v>0.53493055555555558</v>
       </c>
       <c r="J149" s="28">
-        <v>0</v>
+        <v>2.4931742579757863E-2</v>
       </c>
       <c r="K149"/>
       <c r="L149" s="27">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="M149" s="29">
         <v>111269</v>
@@ -7309,16 +7227,16 @@
         <v>160</v>
       </c>
       <c r="B150" s="25">
-        <v>61.463103463848554</v>
+        <v>52.488410117620454</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D150" s="26">
-        <v>4.9964025901351029E-5</v>
+        <v>1.9985610360540412E-5</v>
       </c>
       <c r="E150" s="27">
-        <v>20014.399999999998</v>
+        <v>50036</v>
       </c>
       <c r="F150" s="28">
         <v>0</v>
@@ -7327,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="28">
-        <v>6.1463103463848556</v>
+        <v>5.2488410117620452</v>
       </c>
       <c r="I150" s="28">
         <v>0</v>
@@ -7337,7 +7255,7 @@
       </c>
       <c r="K150"/>
       <c r="L150" s="27">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M150" s="29">
         <v>200144</v>
@@ -7348,35 +7266,35 @@
         <v>161</v>
       </c>
       <c r="B151" s="25">
-        <v>19.257335387083419</v>
+        <v>21.897657218516393</v>
       </c>
       <c r="C151" t="s">
         <v>162</v>
       </c>
       <c r="D151" s="26">
-        <v>7.1478976771537778E-2</v>
+        <v>4.7721258453396059E-2</v>
       </c>
       <c r="E151" s="27">
-        <v>13.990127519539286</v>
+        <v>20.955021565003079</v>
       </c>
       <c r="F151" s="28">
-        <v>12.601000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="G151" s="25">
         <v>0</v>
       </c>
       <c r="H151" s="28">
-        <v>2.1882543720416754</v>
+        <v>2.2772657218516392</v>
       </c>
       <c r="I151" s="28">
-        <v>0.87506944444444446</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="J151" s="28">
         <v>0</v>
       </c>
       <c r="K151"/>
       <c r="L151" s="27">
-        <v>2431</v>
+        <v>1623</v>
       </c>
       <c r="M151" s="29">
         <v>34010</v>
@@ -7387,35 +7305,35 @@
         <v>163</v>
       </c>
       <c r="B152" s="25">
-        <v>31.157341118693836</v>
+        <v>44.56509390308112</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D152" s="26">
-        <v>7.3154134059203813E-3</v>
+        <v>2.1937286223384252E-4</v>
       </c>
       <c r="E152" s="27">
-        <v>136.69767441860463</v>
+        <v>4558.4489795918362</v>
       </c>
       <c r="F152" s="28">
-        <v>1.2789999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="G152" s="25">
         <v>0</v>
       </c>
       <c r="H152" s="28">
-        <v>3.142379945202717</v>
+        <v>4.4698427236414453</v>
       </c>
       <c r="I152" s="28">
-        <v>8.8819444444444437E-2</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="J152" s="28">
         <v>0</v>
       </c>
       <c r="K152"/>
       <c r="L152" s="27">
-        <v>1634</v>
+        <v>49</v>
       </c>
       <c r="M152" s="29">
         <v>223364</v>
@@ -7426,35 +7344,35 @@
         <v>164</v>
       </c>
       <c r="B153" s="25">
-        <v>38.036063124521164</v>
+        <v>38.275771015528392</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="26">
-        <v>1.971580626066052E-3</v>
+        <v>1.4432376513411739E-3</v>
       </c>
       <c r="E153" s="27">
-        <v>507.20725633996869</v>
+        <v>692.8865797470836</v>
       </c>
       <c r="F153" s="28">
-        <v>5.2999999999999999E-2</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="G153" s="25">
-        <v>5260</v>
+        <v>3517</v>
       </c>
       <c r="H153" s="28">
-        <v>3.7690743470618466</v>
+        <v>3.8052705059043768</v>
       </c>
       <c r="I153" s="28">
-        <v>3.6805555555555554E-3</v>
+        <v>5.0694444444444441E-3</v>
       </c>
       <c r="J153" s="28">
-        <v>0.35636132056936509</v>
+        <v>0.23827428981795762</v>
       </c>
       <c r="K153"/>
       <c r="L153" s="27">
-        <v>69677</v>
+        <v>51005</v>
       </c>
       <c r="M153" s="29">
         <v>35340680</v>
@@ -7465,35 +7383,35 @@
         <v>165</v>
       </c>
       <c r="B154" s="25">
-        <v>43.979395458363655</v>
+        <v>52.881529678709377</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D154" s="26">
-        <v>3.768250719863822E-4</v>
+        <v>3.4833058351827612E-5</v>
       </c>
       <c r="E154" s="27">
-        <v>2653.7512345679011</v>
+        <v>28708.36060100167</v>
       </c>
       <c r="F154" s="28">
-        <v>0.11600000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G154" s="25">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="H154" s="28">
-        <v>4.3995635456873172</v>
+        <v>5.2886323153435502</v>
       </c>
       <c r="I154" s="28">
-        <v>8.0555555555555554E-3</v>
+        <v>3.4722222222222225E-3</v>
       </c>
       <c r="J154" s="28">
-        <v>7.9266681571512777E-3</v>
+        <v>5.6231919405432141E-3</v>
       </c>
       <c r="K154"/>
       <c r="L154" s="27">
-        <v>6480</v>
+        <v>599</v>
       </c>
       <c r="M154" s="29">
         <v>17196308</v>
@@ -7504,35 +7422,35 @@
         <v>166</v>
       </c>
       <c r="B155" s="25">
-        <v>26.323940136467204</v>
+        <v>23.391372073899543</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D155" s="26">
-        <v>2.5345966490515164E-2</v>
+        <v>2.9196191192463649E-2</v>
       </c>
       <c r="E155" s="27">
-        <v>39.454009393337387</v>
+        <v>34.25104300105172</v>
       </c>
       <c r="F155" s="28">
-        <v>3.7010000000000001</v>
+        <v>8.8770000000000007</v>
       </c>
       <c r="G155" s="25">
-        <v>4754</v>
+        <v>4172</v>
       </c>
       <c r="H155" s="28">
-        <v>2.6772901628611674</v>
+        <v>2.4958096992261636</v>
       </c>
       <c r="I155" s="28">
-        <v>0.25701388888888888</v>
+        <v>0.61645833333333333</v>
       </c>
       <c r="J155" s="28">
-        <v>0.322080174522198</v>
+        <v>0.28265008163790706</v>
       </c>
       <c r="K155"/>
       <c r="L155" s="27">
-        <v>174166</v>
+        <v>200623</v>
       </c>
       <c r="M155" s="29">
         <v>6871547</v>
@@ -7543,35 +7461,35 @@
         <v>167</v>
       </c>
       <c r="B156" s="25">
-        <v>19.465039681907854</v>
+        <v>24.470224081582472</v>
       </c>
       <c r="C156" t="s">
         <v>162</v>
       </c>
       <c r="D156" s="26">
-        <v>7.480537862703468E-2</v>
+        <v>1.7531088868668488E-2</v>
       </c>
       <c r="E156" s="27">
-        <v>13.36802270577105</v>
+        <v>57.041522491349475</v>
       </c>
       <c r="F156" s="28">
-        <v>10.11</v>
+        <v>4.3330000000000002</v>
       </c>
       <c r="G156" s="25">
         <v>0</v>
       </c>
       <c r="H156" s="28">
-        <v>2.1571289681907855</v>
+        <v>2.5372932414915805</v>
       </c>
       <c r="I156" s="28">
-        <v>0.70208333333333328</v>
+        <v>0.3009027777777778</v>
       </c>
       <c r="J156" s="28">
         <v>0</v>
       </c>
       <c r="K156"/>
       <c r="L156" s="27">
-        <v>7399</v>
+        <v>1734</v>
       </c>
       <c r="M156" s="29">
         <v>98910</v>
@@ -7582,16 +7500,16 @@
         <v>168</v>
       </c>
       <c r="B157" s="25">
-        <v>53.9463290798207</v>
+        <v>63.27656057227064</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D157" s="26">
-        <v>2.6408419348011748E-5</v>
+        <v>4.5447047250066729E-6</v>
       </c>
       <c r="E157" s="27">
-        <v>37866.711627906974</v>
+        <v>220036.29729729728</v>
       </c>
       <c r="F157" s="28">
         <v>0</v>
@@ -7600,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="28">
-        <v>5.3946329079820696</v>
+        <v>6.3276560572270641</v>
       </c>
       <c r="I157" s="28">
         <v>0</v>
@@ -7610,7 +7528,7 @@
       </c>
       <c r="K157"/>
       <c r="L157" s="27">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="M157" s="29">
         <v>8141343</v>
@@ -7621,35 +7539,35 @@
         <v>169</v>
       </c>
       <c r="B158" s="25">
-        <v>39.230335659597735</v>
+        <v>30.787212119214313</v>
       </c>
       <c r="C158" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D158" s="26">
-        <v>2.6285389467507699E-3</v>
+        <v>1.9541037113099603E-2</v>
       </c>
       <c r="E158" s="27">
-        <v>380.43948378095575</v>
+        <v>51.174356520188802</v>
       </c>
       <c r="F158" s="28">
-        <v>0.157</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="G158" s="25">
-        <v>41516</v>
+        <v>0</v>
       </c>
       <c r="H158" s="28">
-        <v>3.6450364033851645</v>
+        <v>2.7962963018586278</v>
       </c>
       <c r="I158" s="28">
-        <v>1.0902777777777779E-2</v>
+        <v>3.9999999999999994E-2</v>
       </c>
       <c r="J158" s="28">
-        <v>2.8126799590794223</v>
+        <v>2.9442491006280358</v>
       </c>
       <c r="K158"/>
       <c r="L158" s="27">
-        <v>14335</v>
+        <v>106569</v>
       </c>
       <c r="M158" s="29">
         <v>5453600</v>
@@ -7660,35 +7578,35 @@
         <v>170</v>
       </c>
       <c r="B159" s="25">
-        <v>29.44050392934027</v>
+        <v>23.393627035505936</v>
       </c>
       <c r="C159" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D159" s="26">
-        <v>9.0527722061854148E-3</v>
+        <v>5.1764364768124904E-2</v>
       </c>
       <c r="E159" s="27">
-        <v>110.46340029595996</v>
+        <v>19.318309120172433</v>
       </c>
       <c r="F159" s="28">
-        <v>10.276999999999999</v>
+        <v>3.7749999999999999</v>
       </c>
       <c r="G159" s="25">
-        <v>8210</v>
+        <v>12138</v>
       </c>
       <c r="H159" s="28">
-        <v>3.1025323838996579</v>
+        <v>2.3357744359510191</v>
       </c>
       <c r="I159" s="28">
-        <v>0.71368055555555554</v>
+        <v>0.26215277777777779</v>
       </c>
       <c r="J159" s="28">
-        <v>0.55622175701035892</v>
+        <v>0.82234100932907872</v>
       </c>
       <c r="K159"/>
       <c r="L159" s="27">
-        <v>49331</v>
+        <v>282078</v>
       </c>
       <c r="M159" s="29">
         <v>5449270</v>
@@ -7699,35 +7617,35 @@
         <v>171</v>
       </c>
       <c r="B160" s="25">
-        <v>24.3708951709818</v>
+        <v>18.598923546575577</v>
       </c>
       <c r="C160" t="s">
         <v>162</v>
       </c>
       <c r="D160" s="26">
-        <v>4.3661420978167845E-2</v>
+        <v>8.2713762247302786E-2</v>
       </c>
       <c r="E160" s="27">
-        <v>22.903514764213309</v>
+        <v>12.089886529525007</v>
       </c>
       <c r="F160" s="28">
-        <v>3.23</v>
+        <v>9.4149999999999991</v>
       </c>
       <c r="G160" s="25">
-        <v>6724</v>
+        <v>1239</v>
       </c>
       <c r="H160" s="28">
-        <v>2.4588265541163978</v>
+        <v>2.0476440496603692</v>
       </c>
       <c r="I160" s="28">
-        <v>0.22430555555555556</v>
+        <v>0.6538194444444444</v>
       </c>
       <c r="J160" s="28">
-        <v>0.4555462964844888</v>
+        <v>8.3941383305217374E-2</v>
       </c>
       <c r="K160"/>
       <c r="L160" s="27">
-        <v>90760</v>
+        <v>171939</v>
       </c>
       <c r="M160" s="29">
         <v>2078723</v>
@@ -7738,35 +7656,35 @@
         <v>172</v>
       </c>
       <c r="B161" s="25">
-        <v>58.235767700468337</v>
+        <v>32.79049994035514</v>
       </c>
       <c r="C161" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D161" s="26">
-        <v>7.5284625601034104E-5</v>
+        <v>4.8977620579691615E-3</v>
       </c>
       <c r="E161" s="27">
-        <v>13282.924528301886</v>
+        <v>204.17488399071925</v>
       </c>
       <c r="F161" s="28">
-        <v>0</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="G161" s="25">
         <v>0</v>
       </c>
       <c r="H161" s="28">
-        <v>5.8235767700468335</v>
+        <v>3.4016541607021806</v>
       </c>
       <c r="I161" s="28">
-        <v>0</v>
+        <v>0.40868055555555555</v>
       </c>
       <c r="J161" s="28">
         <v>0</v>
       </c>
       <c r="K161"/>
       <c r="L161" s="27">
-        <v>53</v>
+        <v>3448</v>
       </c>
       <c r="M161" s="29">
         <v>703995</v>
@@ -7777,35 +7695,35 @@
         <v>173</v>
       </c>
       <c r="B162" s="25">
-        <v>54.899622995446919</v>
+        <v>51.287870959934942</v>
       </c>
       <c r="C162" t="s">
         <v>15</v>
       </c>
       <c r="D162" s="26">
-        <v>3.7287203154130629E-6</v>
+        <v>4.9818148476420432E-5</v>
       </c>
       <c r="E162" s="27">
-        <v>268188.5245901639</v>
+        <v>20073.006134969324</v>
       </c>
       <c r="F162" s="28">
-        <v>0</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G162" s="25">
         <v>0</v>
       </c>
       <c r="H162" s="28">
-        <v>5.4899622995446915</v>
+        <v>5.1297037626601609</v>
       </c>
       <c r="I162" s="28">
-        <v>0</v>
+        <v>3.0555555555555553E-3</v>
       </c>
       <c r="J162" s="28">
         <v>0</v>
       </c>
       <c r="K162"/>
       <c r="L162" s="27">
-        <v>61</v>
+        <v>815</v>
       </c>
       <c r="M162" s="29">
         <v>16359500</v>
@@ -7816,35 +7734,35 @@
         <v>174</v>
       </c>
       <c r="B163" s="25">
-        <v>38.26177614609955</v>
+        <v>41.082591524025673</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="26">
-        <v>1.1376370632315421E-3</v>
+        <v>6.7139673371284991E-4</v>
       </c>
       <c r="E163" s="27">
-        <v>879.01496208239394</v>
+        <v>1489.432327842826</v>
       </c>
       <c r="F163" s="28">
-        <v>2.0390000000000001</v>
+        <v>2.76</v>
       </c>
       <c r="G163" s="25">
-        <v>565</v>
+        <v>516</v>
       </c>
       <c r="H163" s="28">
-        <v>3.8648289457990228</v>
+        <v>4.1622632884973623</v>
       </c>
       <c r="I163" s="28">
-        <v>0.14159722222222224</v>
+        <v>0.19166666666666665</v>
       </c>
       <c r="J163" s="28">
-        <v>3.8278354775986935E-2</v>
+        <v>3.4958639052051786E-2</v>
       </c>
       <c r="K163"/>
       <c r="L163" s="27">
-        <v>68306</v>
+        <v>40312</v>
       </c>
       <c r="M163" s="29">
         <v>60041996</v>
@@ -7855,35 +7773,35 @@
         <v>175</v>
       </c>
       <c r="B164" s="25">
-        <v>39.724321936871732</v>
+        <v>31.984495790227474</v>
       </c>
       <c r="C164" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D164" s="26">
-        <v>1.2037964818525941E-3</v>
+        <v>8.687328750248708E-3</v>
       </c>
       <c r="E164" s="27">
-        <v>830.70520231213868</v>
+        <v>115.11018274419179</v>
       </c>
       <c r="F164" s="28">
-        <v>0.67400000000000004</v>
+        <v>0.49</v>
       </c>
       <c r="G164" s="25">
-        <v>3490</v>
+        <v>4360</v>
       </c>
       <c r="H164" s="28">
-        <v>3.9628293544833628</v>
+        <v>3.1791192173431067</v>
       </c>
       <c r="I164" s="28">
-        <v>4.6805555555555559E-2</v>
+        <v>3.4027777777777775E-2</v>
       </c>
       <c r="J164" s="28">
-        <v>0.2364450587047689</v>
+        <v>0.29538695012973992</v>
       </c>
       <c r="K164"/>
       <c r="L164" s="27">
-        <v>61761</v>
+        <v>445705</v>
       </c>
       <c r="M164" s="29">
         <v>51305184</v>
@@ -7894,35 +7812,35 @@
         <v>176</v>
       </c>
       <c r="B165" s="25">
-        <v>50.411549567753255</v>
+        <v>59.02492538919055</v>
       </c>
       <c r="C165" t="s">
         <v>15</v>
       </c>
       <c r="D165" s="26">
-        <v>6.0625353153664972E-5</v>
+        <v>9.9284998642958587E-6</v>
       </c>
       <c r="E165" s="27">
-        <v>16494.749275362319</v>
+        <v>100720.15044247787</v>
       </c>
       <c r="F165" s="28">
-        <v>1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G165" s="25">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H165" s="28">
-        <v>5.0411344681165584</v>
+        <v>5.9021605673466615</v>
       </c>
       <c r="I165" s="28">
-        <v>9.0277777777777774E-4</v>
+        <v>0</v>
       </c>
       <c r="J165" s="28">
-        <v>2.9132199210043152E-3</v>
+        <v>3.3197157239351505E-3</v>
       </c>
       <c r="K165"/>
       <c r="L165" s="27">
-        <v>690</v>
+        <v>113</v>
       </c>
       <c r="M165" s="29">
         <v>11381377</v>
@@ -7933,35 +7851,35 @@
         <v>177</v>
       </c>
       <c r="B166" s="25">
-        <v>24.001192976748253</v>
+        <v>25.458910845613921</v>
       </c>
       <c r="C166" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D166" s="26">
-        <v>4.0900382287289282E-2</v>
+        <v>1.9146089639000666E-2</v>
       </c>
       <c r="E166" s="27">
-        <v>24.449649222735324</v>
+        <v>52.229986323838979</v>
       </c>
       <c r="F166" s="28">
-        <v>2.992</v>
+        <v>4.7859999999999996</v>
       </c>
       <c r="G166" s="25">
-        <v>6838</v>
+        <v>3157</v>
       </c>
       <c r="H166" s="28">
-        <v>2.4161256593341411</v>
+        <v>2.6242109637305147</v>
       </c>
       <c r="I166" s="28">
-        <v>0.20777777777777778</v>
+        <v>0.33236111111111111</v>
       </c>
       <c r="J166" s="28">
-        <v>0.46326971674017464</v>
+        <v>0.21388454164210755</v>
       </c>
       <c r="K166"/>
       <c r="L166" s="27">
-        <v>1911897</v>
+        <v>894988</v>
       </c>
       <c r="M166" s="29">
         <v>46745211</v>
@@ -7972,35 +7890,35 @@
         <v>178</v>
       </c>
       <c r="B167" s="25">
-        <v>43.897393915281029</v>
+        <v>40.689100017184323</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="26">
-        <v>4.3261234686802153E-4</v>
+        <v>8.1131096147582396E-4</v>
       </c>
       <c r="E167" s="27">
-        <v>2311.5382795698924</v>
+        <v>1232.5730176022018</v>
       </c>
       <c r="F167" s="28">
-        <v>0.53800000000000003</v>
+        <v>1.3819999999999999</v>
       </c>
       <c r="G167" s="25">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="H167" s="28">
-        <v>4.3986510235748773</v>
+        <v>4.0951204200364879</v>
       </c>
       <c r="I167" s="28">
-        <v>3.7361111111111116E-2</v>
+        <v>9.5972222222222209E-2</v>
       </c>
       <c r="J167" s="28">
-        <v>2.2967012865592166E-2</v>
+        <v>2.5812483486108005E-2</v>
       </c>
       <c r="K167"/>
       <c r="L167" s="27">
-        <v>9300</v>
+        <v>17441</v>
       </c>
       <c r="M167" s="29">
         <v>21497306</v>
@@ -8011,35 +7929,35 @@
         <v>179</v>
       </c>
       <c r="B168" s="25">
-        <v>49.485055973423883</v>
+        <v>50.488111392348102</v>
       </c>
       <c r="C168" t="s">
         <v>15</v>
       </c>
       <c r="D168" s="26">
-        <v>1.4509227710727773E-4</v>
+        <v>5.2305365089778296E-5</v>
       </c>
       <c r="E168" s="27">
-        <v>6892.165592387968</v>
+        <v>19118.497658578119</v>
       </c>
       <c r="F168" s="28">
-        <v>0.111</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G168" s="25">
         <v>0</v>
       </c>
       <c r="H168" s="28">
-        <v>4.9508180973423883</v>
+        <v>5.0604778059014768</v>
       </c>
       <c r="I168" s="28">
-        <v>7.7083333333333335E-3</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="J168" s="28">
         <v>0</v>
       </c>
       <c r="K168"/>
       <c r="L168" s="27">
-        <v>6516</v>
+        <v>2349</v>
       </c>
       <c r="M168" s="29">
         <v>44909351</v>
@@ -8050,35 +7968,35 @@
         <v>180</v>
       </c>
       <c r="B169" s="25">
-        <v>25.839805390438638</v>
+        <v>29.7156794422724</v>
       </c>
       <c r="C169" t="s">
         <v>17</v>
       </c>
       <c r="D169" s="26">
-        <v>2.1154177607899994E-2</v>
+        <v>7.02097675220261E-3</v>
       </c>
       <c r="E169" s="27">
-        <v>47.271986580397794</v>
+        <v>142.4303249097473</v>
       </c>
       <c r="F169" s="28">
-        <v>6.0350000000000001</v>
+        <v>4.8280000000000003</v>
       </c>
       <c r="G169" s="25">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="H169" s="28">
-        <v>2.7097097057105306</v>
+        <v>3.0704575450483613</v>
       </c>
       <c r="I169" s="28">
-        <v>0.41909722222222223</v>
+        <v>0.33527777777777779</v>
       </c>
       <c r="J169" s="28">
-        <v>0</v>
+        <v>1.6937325122118114E-2</v>
       </c>
       <c r="K169"/>
       <c r="L169" s="27">
-        <v>12519</v>
+        <v>4155</v>
       </c>
       <c r="M169" s="29">
         <v>591798</v>
@@ -8089,35 +8007,35 @@
         <v>181</v>
       </c>
       <c r="B170" s="25">
-        <v>25.630058801973334</v>
+        <v>22.90941361986259</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D170" s="26">
-        <v>3.6066659980419601E-2</v>
+        <v>3.6842828936043223E-2</v>
       </c>
       <c r="E170" s="27">
-        <v>27.726437672434727</v>
+        <v>27.142323998407818</v>
       </c>
       <c r="F170" s="28">
-        <v>2.0950000000000002</v>
+        <v>4.1479999999999997</v>
       </c>
       <c r="G170" s="25">
         <v>0</v>
       </c>
       <c r="H170" s="28">
-        <v>2.5567204790706626</v>
+        <v>2.3441337716933788</v>
       </c>
       <c r="I170" s="28">
-        <v>0.14548611111111112</v>
+        <v>0.28805555555555551</v>
       </c>
       <c r="J170" s="28">
-        <v>0.49931234460004204</v>
+        <v>0.33224256959546894</v>
       </c>
       <c r="K170"/>
       <c r="L170" s="27">
-        <v>366443</v>
+        <v>374329</v>
       </c>
       <c r="M170" s="29">
         <v>10160159</v>
@@ -8128,35 +8046,35 @@
         <v>182</v>
       </c>
       <c r="B171" s="25">
-        <v>24.150963398305777</v>
+        <v>22.786051010860167</v>
       </c>
       <c r="C171" t="s">
         <v>162</v>
       </c>
       <c r="D171" s="26">
-        <v>4.4305348612482552E-2</v>
+        <v>4.8671939880860451E-2</v>
       </c>
       <c r="E171" s="27">
-        <v>22.570638338646564</v>
+        <v>20.545719000471475</v>
       </c>
       <c r="F171" s="28">
-        <v>2</v>
+        <v>2.41</v>
       </c>
       <c r="G171" s="25">
-        <v>10261</v>
+        <v>8089</v>
       </c>
       <c r="H171" s="28">
-        <v>2.3872454492660227</v>
+        <v>2.2740110252542247</v>
       </c>
       <c r="I171" s="28">
-        <v>0.1388888888888889</v>
+        <v>0.16736111111111113</v>
       </c>
       <c r="J171" s="28">
-        <v>0.69517557231221583</v>
+        <v>0.54802409165125376</v>
       </c>
       <c r="K171"/>
       <c r="L171" s="27">
-        <v>386143</v>
+        <v>424200</v>
       </c>
       <c r="M171" s="29">
         <v>8715494</v>
@@ -8167,35 +8085,35 @@
         <v>183</v>
       </c>
       <c r="B172" s="25">
-        <v>56.715368107762771</v>
+        <v>52.644134267127761</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
       </c>
       <c r="D172" s="26">
-        <v>2.2981330842302985E-5</v>
+        <v>6.5715662718109248E-5</v>
       </c>
       <c r="E172" s="27">
-        <v>43513.580952380951</v>
+        <v>15217.072439633637</v>
       </c>
       <c r="F172" s="28">
-        <v>0.18</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="G172" s="25">
         <v>0</v>
       </c>
       <c r="H172" s="28">
-        <v>5.6752868107762771</v>
+        <v>5.2679967600461097</v>
       </c>
       <c r="I172" s="28">
-        <v>1.2499999999999999E-2</v>
+        <v>1.1944444444444443E-2</v>
       </c>
       <c r="J172" s="28">
         <v>0</v>
       </c>
       <c r="K172"/>
       <c r="L172" s="27">
-        <v>420</v>
+        <v>1201</v>
       </c>
       <c r="M172" s="29">
         <v>18275704</v>
@@ -8206,35 +8124,35 @@
         <v>184</v>
       </c>
       <c r="B173" s="25">
-        <v>54.947922994395043</v>
+        <v>54.640570361827599</v>
       </c>
       <c r="C173" t="s">
         <v>15</v>
       </c>
       <c r="D173" s="26">
-        <v>3.5338491607296883E-5</v>
+        <v>3.3955134284591309E-5</v>
       </c>
       <c r="E173" s="27">
-        <v>28297.755634638197</v>
+        <v>29450.62716049383</v>
       </c>
       <c r="F173" s="28">
         <v>0</v>
       </c>
       <c r="G173" s="25">
-        <v>1103</v>
+        <v>1216</v>
       </c>
       <c r="H173" s="28">
-        <v>5.4873195515956255</v>
+        <v>5.4558187212433618</v>
       </c>
       <c r="I173" s="28">
         <v>0</v>
       </c>
       <c r="J173" s="28">
-        <v>7.4727478438785119E-2</v>
+        <v>8.2383149393982502E-2</v>
       </c>
       <c r="K173"/>
       <c r="L173" s="27">
-        <v>843</v>
+        <v>810</v>
       </c>
       <c r="M173" s="29">
         <v>23855008</v>
@@ -8245,16 +8163,16 @@
         <v>185</v>
       </c>
       <c r="B174" s="25">
-        <v>100</v>
+        <v>57.292555011591716</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D174" s="26">
-        <v>0</v>
+        <v>1.2308165698680718E-5</v>
       </c>
       <c r="E174" s="27">
-        <v>0</v>
+        <v>81246.875</v>
       </c>
       <c r="F174" s="28">
         <v>0</v>
@@ -8263,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="H174" s="28">
-        <v>10</v>
+        <v>5.7292555011591713</v>
       </c>
       <c r="I174" s="28">
         <v>0</v>
@@ -8273,7 +8191,7 @@
       </c>
       <c r="K174"/>
       <c r="L174" s="27">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="M174" s="29">
         <v>9749625</v>
@@ -8284,35 +8202,35 @@
         <v>186</v>
       </c>
       <c r="B175" s="25">
-        <v>55.685052796068319</v>
+        <v>59.626415046297033</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
       </c>
       <c r="D175" s="26">
-        <v>2.9740592761071428E-5</v>
+        <v>8.3904570064039683E-6</v>
       </c>
       <c r="E175" s="27">
-        <v>33624.077638053583</v>
+        <v>119183.01937984495</v>
       </c>
       <c r="F175" s="28">
-        <v>0.03</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G175" s="25">
         <v>0</v>
       </c>
       <c r="H175" s="28">
-        <v>5.5691302796068323</v>
+        <v>5.9627873379630367</v>
       </c>
       <c r="I175" s="28">
-        <v>2.0833333333333333E-3</v>
+        <v>4.861111111111111E-4</v>
       </c>
       <c r="J175" s="28">
         <v>0</v>
       </c>
       <c r="K175"/>
       <c r="L175" s="27">
-        <v>1829</v>
+        <v>516</v>
       </c>
       <c r="M175" s="29">
         <v>61498438</v>
@@ -8323,35 +8241,35 @@
         <v>187</v>
       </c>
       <c r="B176" s="25">
-        <v>38.947231380388949</v>
+        <v>37.33508794636748</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
       </c>
       <c r="D176" s="26">
-        <v>1.6647690483906098E-3</v>
+        <v>2.0820763792356815E-3</v>
       </c>
       <c r="E176" s="27">
-        <v>600.6839212722839</v>
+        <v>480.28977705759979</v>
       </c>
       <c r="F176" s="28">
-        <v>0.23899999999999999</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G176" s="25">
         <v>0</v>
       </c>
       <c r="H176" s="28">
-        <v>3.8935845428714524</v>
+        <v>3.734802924837354</v>
       </c>
       <c r="I176" s="28">
-        <v>1.6597222222222222E-2</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="J176" s="28">
-        <v>6.1177618341090631E-2</v>
+        <v>4.5392031327276545E-2</v>
       </c>
       <c r="K176"/>
       <c r="L176" s="27">
-        <v>116452</v>
+        <v>145643</v>
       </c>
       <c r="M176" s="29">
         <v>69950844</v>
@@ -8362,35 +8280,35 @@
         <v>188</v>
       </c>
       <c r="B177" s="25">
-        <v>57.693586474927528</v>
+        <v>42.581018740398278</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D177" s="26">
-        <v>1.6370570179518184E-5</v>
+        <v>9.4056366849595385E-4</v>
       </c>
       <c r="E177" s="27">
-        <v>61085.227272727272</v>
+        <v>1063.192246835443</v>
       </c>
       <c r="F177" s="28">
         <v>0</v>
       </c>
       <c r="G177" s="25">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H177" s="28">
-        <v>5.7693586474927532</v>
+        <v>4.2568688367709377</v>
       </c>
       <c r="I177" s="28">
         <v>0</v>
       </c>
       <c r="J177" s="28">
-        <v>0</v>
+        <v>1.2330372688901987E-2</v>
       </c>
       <c r="K177"/>
       <c r="L177" s="27">
-        <v>22</v>
+        <v>1264</v>
       </c>
       <c r="M177" s="29">
         <v>1343875</v>
@@ -8401,35 +8319,35 @@
         <v>189</v>
       </c>
       <c r="B178" s="25">
-        <v>42.759709123095909</v>
+        <v>55.152522849233677</v>
       </c>
       <c r="C178" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D178" s="26">
-        <v>3.7094954354924053E-4</v>
+        <v>1.981542871741571E-5</v>
       </c>
       <c r="E178" s="27">
-        <v>2695.7844197138315</v>
+        <v>50465.726190476191</v>
       </c>
       <c r="F178" s="28">
-        <v>8.4000000000000005E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="G178" s="25">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="H178" s="28">
-        <v>4.2764743251806028</v>
+        <v>5.5152492506015722</v>
       </c>
       <c r="I178" s="28">
-        <v>5.8333333333333336E-3</v>
+        <v>2.3611111111111111E-3</v>
       </c>
       <c r="J178" s="28">
-        <v>1.2465871289878932E-2</v>
+        <v>7.1136765512896079E-3</v>
       </c>
       <c r="K178"/>
       <c r="L178" s="27">
-        <v>3145</v>
+        <v>168</v>
       </c>
       <c r="M178" s="29">
         <v>8478242</v>
@@ -8440,35 +8358,35 @@
         <v>190</v>
       </c>
       <c r="B179" s="25">
-        <v>29.626018995605786</v>
+        <v>30.453647009340198</v>
       </c>
       <c r="C179" t="s">
         <v>17</v>
       </c>
       <c r="D179" s="26">
-        <v>6.3482720928277137E-3</v>
+        <v>6.677478704892637E-3</v>
       </c>
       <c r="E179" s="27">
-        <v>157.52317880794703</v>
+        <v>149.75712303916339</v>
       </c>
       <c r="F179" s="28">
-        <v>12.419</v>
+        <v>6.9219999999999997</v>
       </c>
       <c r="G179" s="25">
         <v>0</v>
       </c>
       <c r="H179" s="28">
-        <v>3.2213310662272452</v>
+        <v>3.1895730342673532</v>
       </c>
       <c r="I179" s="28">
-        <v>0.86243055555555559</v>
+        <v>0.48069444444444442</v>
       </c>
       <c r="J179" s="28">
         <v>0</v>
       </c>
       <c r="K179"/>
       <c r="L179" s="27">
-        <v>8909</v>
+        <v>9371</v>
       </c>
       <c r="M179" s="29">
         <v>1403374</v>
@@ -8479,35 +8397,35 @@
         <v>191</v>
       </c>
       <c r="B180" s="25">
-        <v>32.795743010893837</v>
+        <v>30.012492235581021</v>
       </c>
       <c r="C180" t="s">
         <v>17</v>
       </c>
       <c r="D180" s="26">
-        <v>6.7928621913100826E-3</v>
+        <v>6.8955786994447949E-3</v>
       </c>
       <c r="E180" s="27">
-        <v>147.21335010730408</v>
+        <v>145.02046073094868</v>
       </c>
       <c r="F180" s="28">
-        <v>1.64</v>
+        <v>5.3259999999999996</v>
       </c>
       <c r="G180" s="25">
-        <v>2519</v>
+        <v>932</v>
       </c>
       <c r="H180" s="28">
-        <v>3.2966749189630042</v>
+        <v>3.10589332208591</v>
       </c>
       <c r="I180" s="28">
-        <v>0.11388888888888889</v>
+        <v>0.36986111111111108</v>
       </c>
       <c r="J180" s="28">
-        <v>0.17066048793046212</v>
+        <v>6.3142348055256328E-2</v>
       </c>
       <c r="K180"/>
       <c r="L180" s="27">
-        <v>81078</v>
+        <v>82304</v>
       </c>
       <c r="M180" s="29">
         <v>11935764</v>
@@ -8518,35 +8436,35 @@
         <v>192</v>
       </c>
       <c r="B181" s="25">
-        <v>29.601658572557579</v>
+        <v>27.84173536158357</v>
       </c>
       <c r="C181" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="26">
-        <v>1.1158401582940606E-2</v>
+        <v>1.6499574990155537E-2</v>
       </c>
       <c r="E181" s="27">
-        <v>89.618570596064458</v>
+        <v>60.607621747629835</v>
       </c>
       <c r="F181" s="28">
-        <v>1.917</v>
+        <v>2.8170000000000002</v>
       </c>
       <c r="G181" s="25">
-        <v>4686</v>
+        <v>5195</v>
       </c>
       <c r="H181" s="28">
-        <v>2.9683560350468596</v>
+        <v>2.8076652745545956</v>
       </c>
       <c r="I181" s="28">
-        <v>0.13312499999999999</v>
+        <v>0.19562500000000002</v>
       </c>
       <c r="J181" s="28">
-        <v>0.31747322208898193</v>
+        <v>0.35195761603761444</v>
       </c>
       <c r="K181"/>
       <c r="L181" s="27">
-        <v>948941</v>
+        <v>1403169</v>
       </c>
       <c r="M181" s="29">
         <v>85042736</v>
@@ -8557,35 +8475,35 @@
         <v>193</v>
       </c>
       <c r="B182" s="25">
-        <v>45.597429573601126</v>
+        <v>54.164277370647362</v>
       </c>
       <c r="C182" t="s">
         <v>15</v>
       </c>
       <c r="D182" s="26">
-        <v>1.9423416321522413E-4</v>
+        <v>2.7587065681174626E-5</v>
       </c>
       <c r="E182" s="27">
-        <v>5148.424888014858</v>
+        <v>36248.871538461543</v>
       </c>
       <c r="F182" s="28">
-        <v>0.246</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="G182" s="25">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="H182" s="28">
-        <v>4.5639872164537625</v>
+        <v>5.4176211757143573</v>
       </c>
       <c r="I182" s="28">
-        <v>1.7083333333333332E-2</v>
+        <v>5.6944444444444447E-3</v>
       </c>
       <c r="J182" s="28">
-        <v>8.8074090635014198E-3</v>
+        <v>5.1489468371239064E-3</v>
       </c>
       <c r="K182"/>
       <c r="L182" s="27">
-        <v>9153</v>
+        <v>1300</v>
       </c>
       <c r="M182" s="29">
         <v>47123533</v>
@@ -8596,35 +8514,35 @@
         <v>194</v>
       </c>
       <c r="B183" s="25">
-        <v>36.247298468437911</v>
+        <v>28.967176514681469</v>
       </c>
       <c r="C183" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D183" s="26">
-        <v>2.5999140217796463E-3</v>
+        <v>1.1323993274686611E-2</v>
       </c>
       <c r="E183" s="27">
-        <v>384.62810370763646</v>
+        <v>88.308070814151449</v>
       </c>
       <c r="F183" s="28">
-        <v>3.3290000000000002</v>
+        <v>4.7130000000000001</v>
       </c>
       <c r="G183" s="25">
-        <v>858</v>
+        <v>1754</v>
       </c>
       <c r="H183" s="28">
-        <v>3.6882711235285468</v>
+        <v>2.9830219241624687</v>
       </c>
       <c r="I183" s="28">
-        <v>0.23118055555555556</v>
+        <v>0.32729166666666665</v>
       </c>
       <c r="J183" s="28">
-        <v>5.8128899819109368E-2</v>
+        <v>0.11883227305678069</v>
       </c>
       <c r="K183"/>
       <c r="L183" s="27">
-        <v>113010</v>
+        <v>492218</v>
       </c>
       <c r="M183" s="29">
         <v>43466822</v>
@@ -8635,35 +8553,35 @@
         <v>195</v>
       </c>
       <c r="B184" s="25">
-        <v>37.069014704645241</v>
+        <v>38.334597338736998</v>
       </c>
       <c r="C184" t="s">
         <v>13</v>
       </c>
       <c r="D184" s="26">
-        <v>3.939612952870074E-3</v>
+        <v>2.8288224609884635E-3</v>
       </c>
       <c r="E184" s="27">
-        <v>253.83204186885499</v>
+        <v>353.50398046916462</v>
       </c>
       <c r="F184" s="28">
-        <v>0.315</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="G184" s="25">
-        <v>44021</v>
+        <v>49174</v>
       </c>
       <c r="H184" s="28">
-        <v>3.4152247747842193</v>
+        <v>3.5077468236516851</v>
       </c>
       <c r="I184" s="28">
-        <v>2.1874999999999999E-2</v>
+        <v>2.4791666666666667E-2</v>
       </c>
       <c r="J184" s="28">
-        <v>2.9823919568030459</v>
+        <v>3.3315041022201446</v>
       </c>
       <c r="K184"/>
       <c r="L184" s="27">
-        <v>39361</v>
+        <v>28263</v>
       </c>
       <c r="M184" s="29">
         <v>9991083</v>
@@ -8674,35 +8592,35 @@
         <v>196</v>
       </c>
       <c r="B185" s="25">
-        <v>26.169495690222547</v>
+        <v>28.781200842314988</v>
       </c>
       <c r="C185" t="s">
         <v>17</v>
       </c>
       <c r="D185" s="26">
-        <v>2.3523440678050095E-2</v>
+        <v>1.5754734909323387E-2</v>
       </c>
       <c r="E185" s="27">
-        <v>42.510788012958827</v>
+        <v>63.47298166268839</v>
       </c>
       <c r="F185" s="28">
-        <v>3.9</v>
+        <v>2.9990000000000001</v>
       </c>
       <c r="G185" s="25">
-        <v>20261</v>
+        <v>16160</v>
       </c>
       <c r="H185" s="28">
-        <v>2.5609327113025606</v>
+        <v>2.8311163813087941</v>
       </c>
       <c r="I185" s="28">
-        <v>0.27083333333333331</v>
+        <v>0.20826388888888889</v>
       </c>
       <c r="J185" s="28">
-        <v>1.3726685771969405</v>
+        <v>1.094828695893715</v>
       </c>
       <c r="K185"/>
       <c r="L185" s="27">
-        <v>1604466</v>
+        <v>1074585</v>
       </c>
       <c r="M185" s="29">
         <v>68207114</v>
@@ -8713,35 +8631,35 @@
         <v>197</v>
       </c>
       <c r="B186" s="25">
-        <v>24.152697325334131</v>
+        <v>26.786739862090148</v>
       </c>
       <c r="C186" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D186" s="26">
-        <v>3.2391678365395978E-2</v>
+        <v>1.1905862213977129E-2</v>
       </c>
       <c r="E186" s="27">
-        <v>30.872126745624264</v>
+        <v>83.992236935686165</v>
       </c>
       <c r="F186" s="28">
-        <v>5.8559999999999999</v>
+        <v>7.7009999999999996</v>
       </c>
       <c r="G186" s="25">
-        <v>5698</v>
+        <v>0</v>
       </c>
       <c r="H186" s="28">
-        <v>2.4986661811150817</v>
+        <v>2.8143762166006736</v>
       </c>
       <c r="I186" s="28">
-        <v>0.40666666666666668</v>
+        <v>0.53479166666666667</v>
       </c>
       <c r="J186" s="28">
-        <v>0.38603551418331611</v>
+        <v>0.24735269608341293</v>
       </c>
       <c r="K186"/>
       <c r="L186" s="27">
-        <v>10783678</v>
+        <v>3963641</v>
       </c>
       <c r="M186" s="29">
         <v>332915074</v>
@@ -8752,35 +8670,35 @@
         <v>198</v>
       </c>
       <c r="B187" s="25">
-        <v>25.417070663050509</v>
+        <v>23.445790907792308</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D187" s="26">
-        <v>3.5925262370192175E-2</v>
+        <v>3.6539869710130291E-2</v>
       </c>
       <c r="E187" s="27">
-        <v>27.835565672297431</v>
+        <v>27.367366329791828</v>
       </c>
       <c r="F187" s="28">
-        <v>2.5</v>
+        <v>5.37</v>
       </c>
       <c r="G187" s="25">
-        <v>9323</v>
+        <v>6228</v>
       </c>
       <c r="H187" s="28">
-        <v>2.5306277267929813</v>
+        <v>2.4142598264350101</v>
       </c>
       <c r="I187" s="28">
-        <v>0.1736111111111111</v>
+        <v>0.37291666666666667</v>
       </c>
       <c r="J187" s="28">
-        <v>0.63162672845402879</v>
+        <v>0.42194264344220644</v>
       </c>
       <c r="K187"/>
       <c r="L187" s="27">
-        <v>125205</v>
+        <v>127347</v>
       </c>
       <c r="M187" s="29">
         <v>3485152</v>
@@ -8791,35 +8709,35 @@
         <v>199</v>
       </c>
       <c r="B188" s="25">
-        <v>46.818602131173769</v>
+        <v>43.62266147748479</v>
       </c>
       <c r="C188" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D188" s="26">
-        <v>2.9676655292727304E-4</v>
+        <v>3.946868443955809E-4</v>
       </c>
       <c r="E188" s="27">
-        <v>3369.6519710058583</v>
+        <v>2533.6542481708225</v>
       </c>
       <c r="F188" s="28">
-        <v>8.7999999999999995E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="G188" s="25">
         <v>0</v>
       </c>
       <c r="H188" s="28">
-        <v>4.6836935464507103</v>
+        <v>4.3640161477484787</v>
       </c>
       <c r="I188" s="28">
-        <v>6.1111111111111106E-3</v>
+        <v>5.8333333333333336E-3</v>
       </c>
       <c r="J188" s="28">
         <v>0</v>
       </c>
       <c r="K188"/>
       <c r="L188" s="27">
-        <v>10071</v>
+        <v>13394</v>
       </c>
       <c r="M188" s="29">
         <v>33935765</v>
@@ -8869,16 +8787,16 @@
         <v>201</v>
       </c>
       <c r="B190" s="25">
-        <v>39.7606874139247</v>
+        <v>100</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D190" s="26">
-        <v>2.4630541871921183E-3</v>
+        <v>0</v>
       </c>
       <c r="E190" s="27">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="F190" s="28">
         <v>0</v>
@@ -8887,7 +8805,7 @@
         <v>0</v>
       </c>
       <c r="H190" s="28">
-        <v>3.9760687413924698</v>
+        <v>10</v>
       </c>
       <c r="I190" s="28">
         <v>0</v>
@@ -8897,7 +8815,7 @@
       </c>
       <c r="K190"/>
       <c r="L190" s="27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M190" s="29">
         <v>812</v>
@@ -8908,35 +8826,35 @@
         <v>202</v>
       </c>
       <c r="B191" s="25">
-        <v>43.913274906122666</v>
+        <v>40.347951314802067</v>
       </c>
       <c r="C191" t="s">
         <v>13</v>
       </c>
       <c r="D191" s="26">
-        <v>6.0843171039472741E-4</v>
+        <v>8.5574099823281327E-4</v>
       </c>
       <c r="E191" s="27">
-        <v>1643.5698253650157</v>
+        <v>1168.5778781957338</v>
       </c>
       <c r="F191" s="28">
-        <v>0.124</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="G191" s="25">
         <v>0</v>
       </c>
       <c r="H191" s="28">
-        <v>4.3939108239455997</v>
+        <v>4.0401909648135401</v>
       </c>
       <c r="I191" s="28">
-        <v>8.611111111111111E-3</v>
+        <v>1.7986111111111112E-2</v>
       </c>
       <c r="J191" s="28">
         <v>0</v>
       </c>
       <c r="K191"/>
       <c r="L191" s="27">
-        <v>17465</v>
+        <v>24564</v>
       </c>
       <c r="M191" s="29">
         <v>28704947</v>
@@ -8947,35 +8865,35 @@
         <v>203</v>
       </c>
       <c r="B192" s="25">
-        <v>35.524070788991359</v>
+        <v>36.551587697373719</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
       </c>
       <c r="D192" s="26">
-        <v>2.5592543229786312E-3</v>
+        <v>2.3171815566833337E-3</v>
       </c>
       <c r="E192" s="27">
-        <v>390.73881443565688</v>
+        <v>431.55876030333002</v>
       </c>
       <c r="F192" s="28">
-        <v>1.595</v>
+        <v>0.91</v>
       </c>
       <c r="G192" s="25">
-        <v>570</v>
+        <v>370</v>
       </c>
       <c r="H192" s="28">
-        <v>3.5817745354379595</v>
+        <v>3.6716103789526318</v>
       </c>
       <c r="I192" s="28">
-        <v>0.11076388888888888</v>
+        <v>6.3194444444444442E-2</v>
       </c>
       <c r="J192" s="28">
-        <v>3.8617101278429294E-2</v>
+        <v>2.506724118073481E-2</v>
       </c>
       <c r="K192"/>
       <c r="L192" s="27">
-        <v>251239</v>
+        <v>227475</v>
       </c>
       <c r="M192" s="29">
         <v>98168829</v>
@@ -8986,35 +8904,35 @@
         <v>204</v>
       </c>
       <c r="B193" s="25">
-        <v>61.60589463217601</v>
+        <v>56.383731142488855</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D193" s="26">
-        <v>1.1642917683686458E-5</v>
+        <v>2.3482617074702828E-5</v>
       </c>
       <c r="E193" s="27">
-        <v>85889.12394366198</v>
+        <v>42584.691340782127</v>
       </c>
       <c r="F193" s="28">
-        <v>3.6999999999999998E-2</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="G193" s="25">
         <v>0</v>
       </c>
       <c r="H193" s="28">
-        <v>6.1613602965509342</v>
+        <v>5.6454981142488858</v>
       </c>
       <c r="I193" s="28">
-        <v>2.5694444444444445E-3</v>
+        <v>2.375E-2</v>
       </c>
       <c r="J193" s="28">
         <v>0</v>
       </c>
       <c r="K193"/>
       <c r="L193" s="27">
-        <v>355</v>
+        <v>716</v>
       </c>
       <c r="M193" s="29">
         <v>30490639</v>
@@ -9025,35 +8943,35 @@
         <v>205</v>
       </c>
       <c r="B194" s="25">
-        <v>37.43921259815334</v>
+        <v>45.518518598686157</v>
       </c>
       <c r="C194" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D194" s="26">
-        <v>1.3680286049263511E-3</v>
+        <v>2.4068931644392687E-4</v>
       </c>
       <c r="E194" s="27">
-        <v>730.97886725390208</v>
+        <v>4154.7336407553794</v>
       </c>
       <c r="F194" s="28">
-        <v>0.34</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="G194" s="25">
-        <v>324</v>
+        <v>180</v>
       </c>
       <c r="H194" s="28">
-        <v>3.7488095158128409</v>
+        <v>4.5522157057931567</v>
       </c>
       <c r="I194" s="28">
-        <v>2.3611111111111114E-2</v>
+        <v>5.2777777777777779E-3</v>
       </c>
       <c r="J194" s="28">
-        <v>2.1950773358265077E-2</v>
+        <v>1.2194874087925042E-2</v>
       </c>
       <c r="K194"/>
       <c r="L194" s="27">
-        <v>25884</v>
+        <v>4554</v>
       </c>
       <c r="M194" s="29">
         <v>18920657</v>
@@ -9064,36 +8982,36 @@
         <v>206</v>
       </c>
       <c r="B195" s="25">
-        <v>41.700510533838489</v>
-      </c>
-      <c r="C195" t="s">
-        <v>13</v>
-      </c>
-      <c r="D195" s="26">
-        <v>4.8859769744193863E-4</v>
-      </c>
-      <c r="E195" s="27">
-        <v>2046.6735828586925</v>
-      </c>
-      <c r="F195" s="28">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="G195" s="25">
-        <v>310</v>
-      </c>
-      <c r="H195" s="28">
-        <v>4.1785966584020393</v>
-      </c>
-      <c r="I195" s="28">
-        <v>3.5486111111111114E-2</v>
-      </c>
-      <c r="J195" s="28">
-        <v>2.1002283151426462E-2</v>
-      </c>
-      <c r="L195" s="27">
-        <v>7374</v>
-      </c>
-      <c r="M195" s="33">
+        <v>48.756790294068018</v>
+      </c>
+      <c r="C195" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195">
+        <v>1.2880850607907901E-4</v>
+      </c>
+      <c r="E195">
+        <v>7763.4624485596705</v>
+      </c>
+      <c r="F195">
+        <v>0.151</v>
+      </c>
+      <c r="G195" s="27">
+        <v>204</v>
+      </c>
+      <c r="H195">
+        <v>4.8774427770101703</v>
+      </c>
+      <c r="I195">
+        <v>1.0486111111111111E-2</v>
+      </c>
+      <c r="J195">
+        <v>1.382085729964838E-2</v>
+      </c>
+      <c r="L195">
+        <v>1944</v>
+      </c>
+      <c r="M195">
         <v>15092171</v>
       </c>
     </row>

--- a/SEDRA Report DATA.xlsx
+++ b/SEDRA Report DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvano/Desktop/Covid-19 study/SEDRA/SEDRA 2022.02.17/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvano/Desktop/Covid-19 study/SEDRA/SEDRA 2022.03.10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF26E8F1-EAA4-4541-96C0-FBB08CE9EC44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FE5325-3423-6D47-9E8E-5871DDF9048B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="1280" windowWidth="27960" windowHeight="24620" xr2:uid="{28802D33-BBEF-DC4E-A6DC-98F4CCB65A55}"/>
+    <workbookView xWindow="18840" yWindow="1320" windowWidth="27960" windowHeight="24620" xr2:uid="{28802D33-BBEF-DC4E-A6DC-98F4CCB65A55}"/>
   </bookViews>
   <sheets>
     <sheet name="SO AZ" sheetId="2" r:id="rId1"/>
@@ -884,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -947,6 +947,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,7 +982,7 @@
       <sheetData sheetId="0">
         <row r="5">
           <cell r="B5">
-            <v>30.739244601344975</v>
+            <v>32.000287277302412</v>
           </cell>
         </row>
       </sheetData>
@@ -1435,7 +1439,7 @@
   <dimension ref="A1:Q195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection sqref="A1:M195"/>
+      <selection activeCell="R14" sqref="Q14:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1455,8 +1459,8 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>"SEDRA report of " &amp; ReportDate</f>
-        <v>SEDRA report of 30.739244601345</v>
+        <f>"SEDRA report of 10 March 2022"</f>
+        <v>SEDRA report of 10 March 2022</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1533,37 +1537,37 @@
         <v>10</v>
       </c>
       <c r="B4" s="25">
-        <v>47.477072456328493</v>
-      </c>
-      <c r="C4" t="s">
+        <v>51.934475497794764</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="26">
-        <v>2.1197211688048136E-4</v>
-      </c>
-      <c r="E4" s="27">
-        <v>4717.6016106110847</v>
-      </c>
-      <c r="F4" s="28">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="28">
-        <v>4.7519572456328492</v>
-      </c>
-      <c r="I4" s="28">
-        <v>1.4166666666666666E-2</v>
-      </c>
-      <c r="J4" s="28">
+      <c r="D4">
+        <v>7.1443941809788008E-5</v>
+      </c>
+      <c r="E4">
+        <v>13996.988053408293</v>
+      </c>
+      <c r="F4">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>5.1949475497794761</v>
+      </c>
+      <c r="I4">
+        <v>4.9999999999999992E-3</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4"/>
-      <c r="L4" s="27">
-        <v>8444</v>
-      </c>
-      <c r="M4" s="29">
+      <c r="L4">
+        <v>2846</v>
+      </c>
+      <c r="M4" s="33">
         <v>39835428</v>
       </c>
     </row>
@@ -1572,35 +1576,35 @@
         <v>12</v>
       </c>
       <c r="B5" s="25">
-        <v>32.000287277302412</v>
+        <v>41.621754799037056</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="26">
-        <v>5.0272648101209426E-3</v>
+        <v>5.332527652915104E-4</v>
       </c>
       <c r="E5" s="27">
-        <v>198.91532230146092</v>
+        <v>1875.2832898172321</v>
       </c>
       <c r="F5" s="28">
-        <v>1.9890000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="G5" s="25">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H5" s="28">
-        <v>3.2396776461973453</v>
+        <v>4.1707478399675253</v>
       </c>
       <c r="I5" s="28">
-        <v>0.138125</v>
+        <v>3.4513888888888886E-2</v>
       </c>
       <c r="J5" s="28">
-        <v>1.7885815328956729E-2</v>
+        <v>1.7818066028468256E-2</v>
       </c>
       <c r="K5"/>
       <c r="L5" s="27">
-        <v>14443</v>
+        <v>1532</v>
       </c>
       <c r="M5" s="29">
         <v>2872934</v>
@@ -1611,35 +1615,35 @@
         <v>14</v>
       </c>
       <c r="B6" s="25">
-        <v>43.53943890844144</v>
+        <v>56.084717137539236</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="26">
-        <v>3.2483406522044046E-4</v>
+        <v>1.7101248310439252E-5</v>
       </c>
       <c r="E6" s="27">
-        <v>3078.4948595873871</v>
+        <v>58475.263433813896</v>
       </c>
       <c r="F6" s="28">
-        <v>0.23100000000000001</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="G6" s="25">
         <v>0</v>
       </c>
       <c r="H6" s="28">
-        <v>4.3587563908441442</v>
+        <v>5.6093467137539239</v>
       </c>
       <c r="I6" s="28">
-        <v>1.6041666666666666E-2</v>
+        <v>2.9166666666666668E-3</v>
       </c>
       <c r="J6" s="28">
         <v>0</v>
       </c>
       <c r="K6"/>
       <c r="L6" s="27">
-        <v>14493</v>
+        <v>763</v>
       </c>
       <c r="M6" s="29">
         <v>44616626</v>
@@ -1650,35 +1654,35 @@
         <v>16</v>
       </c>
       <c r="B7" s="25">
-        <v>23.96863598525092</v>
+        <v>29.037631392016728</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D7" s="26">
-        <v>2.644982806319001E-2</v>
+        <v>1.0807456627970112E-2</v>
       </c>
       <c r="E7" s="27">
-        <v>37.807429130009773</v>
+        <v>92.528708133971293</v>
       </c>
       <c r="F7" s="28">
         <v>1.847</v>
       </c>
       <c r="G7" s="25">
-        <v>2366</v>
+        <v>0</v>
       </c>
       <c r="H7" s="28">
-        <v>2.4193132806961861</v>
+        <v>2.9422423058683393</v>
       </c>
       <c r="I7" s="28">
         <v>0.1282638888888889</v>
       </c>
       <c r="J7" s="28">
-        <v>0.16029484495572585</v>
+        <v>0</v>
       </c>
       <c r="K7"/>
       <c r="L7" s="27">
-        <v>2046</v>
+        <v>836</v>
       </c>
       <c r="M7" s="29">
         <v>77354</v>
@@ -1689,35 +1693,35 @@
         <v>18</v>
       </c>
       <c r="B8" s="25">
-        <v>53.723006373603987</v>
+        <v>63.137950153210355</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="26">
-        <v>1.688591290800145E-5</v>
+        <v>4.5382732771941067E-6</v>
       </c>
       <c r="E8" s="27">
-        <v>59220.961605584642</v>
+        <v>220348.12337662341</v>
       </c>
       <c r="F8" s="28">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="25">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="H8" s="28">
-        <v>5.3720519991213385</v>
+        <v>6.3131513969663953</v>
       </c>
       <c r="I8" s="28">
-        <v>2.7777777777777778E-4</v>
+        <v>0</v>
       </c>
       <c r="J8" s="28">
-        <v>3.3197157239351505E-3</v>
+        <v>6.4361835464048838E-3</v>
       </c>
       <c r="K8"/>
       <c r="L8" s="27">
-        <v>573</v>
+        <v>154</v>
       </c>
       <c r="M8" s="29">
         <v>33933611</v>
@@ -1728,35 +1732,35 @@
         <v>19</v>
       </c>
       <c r="B9" s="25">
-        <v>28.875231413141467</v>
+        <v>43.697355021642196</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" s="26">
-        <v>8.0726845474434813E-3</v>
+        <v>2.6334980957782997E-4</v>
       </c>
       <c r="E9" s="27">
-        <v>123.87452948557089</v>
+        <v>3797.2307692307695</v>
       </c>
       <c r="F9" s="28">
-        <v>10.129</v>
+        <v>0</v>
       </c>
       <c r="G9" s="25">
         <v>0</v>
       </c>
       <c r="H9" s="28">
-        <v>3.0985439746474799</v>
+        <v>4.3697355021642199</v>
       </c>
       <c r="I9" s="28">
-        <v>0.70340277777777771</v>
+        <v>0</v>
       </c>
       <c r="J9" s="28">
         <v>0</v>
       </c>
       <c r="K9"/>
       <c r="L9" s="27">
-        <v>797</v>
+        <v>26</v>
       </c>
       <c r="M9" s="29">
         <v>98728</v>
@@ -1767,35 +1771,35 @@
         <v>20</v>
       </c>
       <c r="B10" s="25">
-        <v>27.376338117779333</v>
+        <v>36.307703190467606</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="26">
-        <v>1.0803116084540345E-2</v>
+        <v>1.8223330823346835E-3</v>
       </c>
       <c r="E10" s="27">
-        <v>92.565884896028905</v>
+        <v>548.7471032018193</v>
       </c>
       <c r="F10" s="28">
-        <v>4.8710000000000004</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="G10" s="25">
-        <v>937</v>
+        <v>0</v>
       </c>
       <c r="H10" s="28">
-        <v>2.8327648689888303</v>
+        <v>3.6569443708106135</v>
       </c>
       <c r="I10" s="28">
-        <v>0.33826388888888892</v>
+        <v>0.10395833333333335</v>
       </c>
       <c r="J10" s="28">
-        <v>6.3481094557698695E-2</v>
+        <v>5.0134482361469619E-2</v>
       </c>
       <c r="K10"/>
       <c r="L10" s="27">
-        <v>492685</v>
+        <v>83109</v>
       </c>
       <c r="M10" s="29">
         <v>45605823</v>
@@ -1806,35 +1810,35 @@
         <v>21</v>
       </c>
       <c r="B11" s="25">
-        <v>28.422285340904924</v>
+        <v>36.821478577424003</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="26">
-        <v>1.398490900661966E-2</v>
+        <v>1.177172952109882E-3</v>
       </c>
       <c r="E11" s="27">
-        <v>71.505649377243486</v>
+        <v>849.49284487693194</v>
       </c>
       <c r="F11" s="28">
         <v>2.7919999999999998</v>
       </c>
       <c r="G11" s="25">
-        <v>2236</v>
+        <v>971</v>
       </c>
       <c r="H11" s="28">
-        <v>2.8852464571679368</v>
+        <v>3.7337360673316362</v>
       </c>
       <c r="I11" s="28">
         <v>0.19388888888888889</v>
       </c>
       <c r="J11" s="28">
-        <v>0.15148743589222444</v>
+        <v>6.5784570774306758E-2</v>
       </c>
       <c r="K11"/>
       <c r="L11" s="27">
-        <v>41509</v>
+        <v>3494</v>
       </c>
       <c r="M11" s="29">
         <v>2968128</v>
@@ -1845,35 +1849,35 @@
         <v>22</v>
       </c>
       <c r="B12" s="25">
-        <v>27.006987322775384</v>
+        <v>28.639119578902442</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="26">
-        <v>1.5388345770473391E-2</v>
+        <v>1.4623849333980709E-2</v>
       </c>
       <c r="E12" s="27">
-        <v>64.984242940444204</v>
+        <v>68.381448492932009</v>
       </c>
       <c r="F12" s="28">
-        <v>2.2490000000000001</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="G12" s="25">
-        <v>3720</v>
+        <v>3175</v>
       </c>
       <c r="H12" s="28">
-        <v>2.7223501591624935</v>
+        <v>2.8650265549851541</v>
       </c>
       <c r="I12" s="28">
-        <v>0.15618055555555557</v>
+        <v>7.5416666666666674E-2</v>
       </c>
       <c r="J12" s="28">
-        <v>0.25202739781711753</v>
+        <v>0.21510402905090004</v>
       </c>
       <c r="K12"/>
       <c r="L12" s="27">
-        <v>396838</v>
+        <v>377123</v>
       </c>
       <c r="M12" s="29">
         <v>25788217</v>
@@ -1884,35 +1888,35 @@
         <v>23</v>
       </c>
       <c r="B13" s="25">
-        <v>27.022829318815457</v>
+        <v>26.566207706861597</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="26">
-        <v>5.0559367436198675E-2</v>
+        <v>4.9000715685996968E-2</v>
       </c>
       <c r="E13" s="27">
-        <v>19.778728467319318</v>
+        <v>20.407865191360298</v>
       </c>
       <c r="F13" s="28">
-        <v>2.3380000000000001</v>
+        <v>3.3490000000000002</v>
       </c>
       <c r="G13" s="25">
-        <v>67376</v>
+        <v>56425</v>
       </c>
       <c r="H13" s="28">
-        <v>2.294523578243747</v>
+        <v>2.3441161760132871</v>
       </c>
       <c r="I13" s="28">
-        <v>0.16236111111111112</v>
+        <v>0.23256944444444447</v>
       </c>
       <c r="J13" s="28">
-        <v>4.5646768697113203</v>
+        <v>3.8227542800620582</v>
       </c>
       <c r="K13"/>
       <c r="L13" s="27">
-        <v>457212</v>
+        <v>443117</v>
       </c>
       <c r="M13" s="29">
         <v>9043072</v>
@@ -1923,35 +1927,35 @@
         <v>24</v>
       </c>
       <c r="B14" s="25">
-        <v>31.348717326392148</v>
+        <v>38.403226332649709</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="26">
-        <v>8.0470734428969622E-3</v>
+        <v>8.4267926424074163E-4</v>
       </c>
       <c r="E14" s="27">
-        <v>124.26878008460154</v>
+        <v>1186.6911201392918</v>
       </c>
       <c r="F14" s="28">
-        <v>2.4449999999999998</v>
+        <v>1.425</v>
       </c>
       <c r="G14" s="25">
-        <v>1777</v>
+        <v>579</v>
       </c>
       <c r="H14" s="28">
-        <v>3.1737701819424133</v>
+        <v>3.8660874487666885</v>
       </c>
       <c r="I14" s="28">
-        <v>0.16979166666666665</v>
+        <v>9.8958333333333343E-2</v>
       </c>
       <c r="J14" s="28">
-        <v>0.12039050696801555</v>
+        <v>3.9226844982825547E-2</v>
       </c>
       <c r="K14"/>
       <c r="L14" s="27">
-        <v>82268</v>
+        <v>8615</v>
       </c>
       <c r="M14" s="29">
         <v>10223344</v>
@@ -1962,35 +1966,35 @@
         <v>25</v>
       </c>
       <c r="B15" s="25">
-        <v>37.382380641554406</v>
+        <v>45.417337223447767</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" s="26">
-        <v>1.2471215427019456E-3</v>
+        <v>2.0911330918032623E-4</v>
       </c>
       <c r="E15" s="27">
-        <v>801.8464646464646</v>
+        <v>4782.0963855421687</v>
       </c>
       <c r="F15" s="28">
-        <v>2.879</v>
+        <v>0</v>
       </c>
       <c r="G15" s="25">
-        <v>1012.9999999999999</v>
+        <v>471</v>
       </c>
       <c r="H15" s="28">
-        <v>3.7913542266826248</v>
+        <v>4.5385427302917698</v>
       </c>
       <c r="I15" s="28">
-        <v>0.19993055555555556</v>
+        <v>0</v>
       </c>
       <c r="J15" s="28">
-        <v>6.8630041394822594E-2</v>
+        <v>3.1909920530070524E-2</v>
       </c>
       <c r="K15"/>
       <c r="L15" s="27">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="M15" s="29">
         <v>396914</v>
@@ -2001,35 +2005,35 @@
         <v>26</v>
       </c>
       <c r="B16" s="25">
-        <v>23.791471395162564</v>
+        <v>27.418344763279851</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D16" s="26">
-        <v>5.6918883826814128E-2</v>
+        <v>1.6800940344735872E-2</v>
       </c>
       <c r="E16" s="27">
-        <v>17.568861733878666</v>
+        <v>59.520477989990802</v>
       </c>
       <c r="F16" s="28">
-        <v>0.73499999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="G16" s="25">
-        <v>17351</v>
+        <v>5431</v>
       </c>
       <c r="H16" s="28">
-        <v>2.2769078282387079</v>
+        <v>2.7152481645660291</v>
       </c>
       <c r="I16" s="28">
-        <v>5.1041666666666666E-2</v>
+        <v>3.4027777777777775E-2</v>
       </c>
       <c r="J16" s="28">
-        <v>1.1755181127754855</v>
+        <v>0.36794645095289391</v>
       </c>
       <c r="K16"/>
       <c r="L16" s="27">
-        <v>99511</v>
+        <v>29373</v>
       </c>
       <c r="M16" s="29">
         <v>1748295</v>
@@ -2040,35 +2044,35 @@
         <v>27</v>
       </c>
       <c r="B17" s="25">
-        <v>39.939891057441308</v>
+        <v>51.123595850793187</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="26">
-        <v>8.8515277977262467E-4</v>
+        <v>5.5001851013424888E-5</v>
       </c>
       <c r="E17" s="27">
-        <v>1129.7484715089263</v>
+        <v>18181.206297146608</v>
       </c>
       <c r="F17" s="28">
-        <v>0.215</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G17" s="25">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="H17" s="28">
-        <v>3.9968084145488301</v>
+        <v>5.1123507929138476</v>
       </c>
       <c r="I17" s="28">
-        <v>1.4930555555555555E-2</v>
+        <v>2.4999999999999996E-3</v>
       </c>
       <c r="J17" s="28">
-        <v>1.6598578619675751E-2</v>
+        <v>7.5879216547089156E-3</v>
       </c>
       <c r="K17"/>
       <c r="L17" s="27">
-        <v>147204</v>
+        <v>9147</v>
       </c>
       <c r="M17" s="29">
         <v>166303494</v>
@@ -2079,35 +2083,35 @@
         <v>28</v>
       </c>
       <c r="B18" s="25">
-        <v>24.301850208169942</v>
+        <v>30.358200917005874</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D18" s="26">
-        <v>2.9039859857911493E-2</v>
+        <v>7.4485241981453419E-3</v>
       </c>
       <c r="E18" s="27">
-        <v>34.435427887492523</v>
+        <v>134.25478301446569</v>
       </c>
       <c r="F18" s="28">
-        <v>3.972</v>
+        <v>3.476</v>
       </c>
       <c r="G18" s="25">
-        <v>0</v>
+        <v>3187</v>
       </c>
       <c r="H18" s="28">
-        <v>2.512935020816994</v>
+        <v>3.0866450563015779</v>
       </c>
       <c r="I18" s="28">
-        <v>0.27583333333333332</v>
+        <v>0.24138888888888888</v>
       </c>
       <c r="J18" s="28">
-        <v>0</v>
+        <v>0.21591702065676172</v>
       </c>
       <c r="K18"/>
       <c r="L18" s="27">
-        <v>8355</v>
+        <v>2143</v>
       </c>
       <c r="M18" s="29">
         <v>287708</v>
@@ -2118,35 +2122,35 @@
         <v>29</v>
       </c>
       <c r="B19" s="25">
-        <v>32.27239431582489</v>
+        <v>32.956923127246192</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="26">
-        <v>7.5795836158658167E-3</v>
+        <v>3.5337784594445735E-3</v>
       </c>
       <c r="E19" s="27">
-        <v>131.93336872843111</v>
+        <v>282.98321795678623</v>
       </c>
       <c r="F19" s="28">
-        <v>1.589</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="G19" s="25">
-        <v>3353</v>
+        <v>1513</v>
       </c>
       <c r="H19" s="28">
-        <v>3.2376272577953711</v>
+        <v>3.3160043435607132</v>
       </c>
       <c r="I19" s="28">
-        <v>0.11034722222222222</v>
+        <v>0.10187500000000001</v>
       </c>
       <c r="J19" s="28">
-        <v>0.22716340453784817</v>
+        <v>0.10250469163905881</v>
       </c>
       <c r="K19"/>
       <c r="L19" s="27">
-        <v>71573</v>
+        <v>33369</v>
       </c>
       <c r="M19" s="29">
         <v>9442867</v>
@@ -2157,35 +2161,35 @@
         <v>30</v>
       </c>
       <c r="B20" s="25">
-        <v>22.873639896526026</v>
+        <v>30.920488985283878</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D20" s="26">
-        <v>3.4224859774487221E-2</v>
+        <v>7.9086449890451906E-3</v>
       </c>
       <c r="E20" s="27">
-        <v>29.218527309948129</v>
+        <v>126.44391060480891</v>
       </c>
       <c r="F20" s="28">
-        <v>4.6420000000000003</v>
+        <v>2.0019999999999998</v>
       </c>
       <c r="G20" s="25">
-        <v>5098</v>
+        <v>0</v>
       </c>
       <c r="H20" s="28">
-        <v>2.3495337295969128</v>
+        <v>3.1140150856993802</v>
       </c>
       <c r="I20" s="28">
-        <v>0.32236111111111115</v>
+        <v>0.13902777777777775</v>
       </c>
       <c r="J20" s="28">
-        <v>0.34538593389023259</v>
+        <v>0.19742146162340876</v>
       </c>
       <c r="K20"/>
       <c r="L20" s="27">
-        <v>398115</v>
+        <v>91996</v>
       </c>
       <c r="M20" s="29">
         <v>11632334</v>
@@ -2196,35 +2200,35 @@
         <v>31</v>
       </c>
       <c r="B21" s="25">
-        <v>27.607308828284289</v>
+        <v>37.969817664489547</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D21" s="26">
-        <v>1.2790338713063235E-2</v>
+        <v>1.1804946717212255E-3</v>
       </c>
       <c r="E21" s="27">
-        <v>78.184012357597993</v>
+        <v>847.10251046025098</v>
       </c>
       <c r="F21" s="28">
-        <v>0.70599999999999996</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="G21" s="25">
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <v>2.7754392161617623</v>
+        <v>3.790366027354898</v>
       </c>
       <c r="I21" s="28">
-        <v>4.9027777777777774E-2</v>
+        <v>2.4513888888888887E-2</v>
       </c>
       <c r="J21" s="28">
-        <v>0</v>
+        <v>0.1396990576072302</v>
       </c>
       <c r="K21"/>
       <c r="L21" s="27">
-        <v>5179</v>
+        <v>478</v>
       </c>
       <c r="M21" s="29">
         <v>404915</v>
@@ -2235,16 +2239,16 @@
         <v>32</v>
       </c>
       <c r="B22" s="25">
-        <v>59.228534592933713</v>
+        <v>71.920610439999024</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D22" s="26">
-        <v>3.8551024409143307E-6</v>
+        <v>6.4251707348572181E-7</v>
       </c>
       <c r="E22" s="27">
-        <v>259396.47916666666</v>
+        <v>1556378.875</v>
       </c>
       <c r="F22" s="28">
         <v>0</v>
@@ -2253,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28">
-        <v>5.9228534592933713</v>
+        <v>7.1920610439999022</v>
       </c>
       <c r="I22" s="28">
         <v>0</v>
@@ -2263,7 +2267,7 @@
       </c>
       <c r="K22"/>
       <c r="L22" s="27">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="M22" s="29">
         <v>12451031</v>
@@ -2274,35 +2278,35 @@
         <v>33</v>
       </c>
       <c r="B23" s="25">
-        <v>35.666277456071263</v>
+        <v>31.819475056333545</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D23" s="26">
-        <v>3.2747788177971537E-3</v>
+        <v>6.7534299269137073E-3</v>
       </c>
       <c r="E23" s="27">
-        <v>305.36413469068128</v>
+        <v>148.07290677805202</v>
       </c>
       <c r="F23" s="28">
         <v>0.183</v>
       </c>
       <c r="G23" s="25">
-        <v>10130</v>
+        <v>0</v>
       </c>
       <c r="H23" s="28">
-        <v>3.5018102042123038</v>
+        <v>3.1857600056333544</v>
       </c>
       <c r="I23" s="28">
         <v>1.2708333333333334E-2</v>
       </c>
       <c r="J23" s="28">
-        <v>0.68630041394822605</v>
+        <v>0</v>
       </c>
       <c r="K23"/>
       <c r="L23" s="27">
-        <v>2554</v>
+        <v>5267</v>
       </c>
       <c r="M23" s="29">
         <v>779900</v>
@@ -2313,35 +2317,35 @@
         <v>34</v>
       </c>
       <c r="B24" s="25">
-        <v>33.093379858305596</v>
+        <v>43.662971964968428</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D24" s="26">
-        <v>3.140809685778745E-3</v>
+        <v>4.1350684225791468E-4</v>
       </c>
       <c r="E24" s="27">
-        <v>318.389237185524</v>
+        <v>2418.3396689147762</v>
       </c>
       <c r="F24" s="28">
-        <v>1.7629999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="G24" s="25">
-        <v>869</v>
+        <v>0</v>
       </c>
       <c r="H24" s="28">
-        <v>3.3401797382847778</v>
+        <v>4.3683783826007838</v>
       </c>
       <c r="I24" s="28">
-        <v>0.12243055555555554</v>
+        <v>1.590277777777778E-2</v>
       </c>
       <c r="J24" s="28">
-        <v>5.8874142124482567E-2</v>
+        <v>2.6896472293923567E-2</v>
       </c>
       <c r="K24"/>
       <c r="L24" s="27">
-        <v>37165</v>
+        <v>4893</v>
       </c>
       <c r="M24" s="29">
         <v>11832936</v>
@@ -2352,35 +2356,35 @@
         <v>35</v>
       </c>
       <c r="B25" s="25">
-        <v>28.528262656403729</v>
+        <v>38.436319964050512</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D25" s="26">
-        <v>5.9066162620703983E-3</v>
+        <v>8.1723104227753431E-4</v>
       </c>
       <c r="E25" s="27">
-        <v>169.30167047105209</v>
+        <v>1223.6441694788152</v>
       </c>
       <c r="F25" s="28">
-        <v>14.664999999999999</v>
+        <v>4.5960000000000001</v>
       </c>
       <c r="G25" s="25">
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <v>3.1583470989737061</v>
+        <v>3.9393819964050514</v>
       </c>
       <c r="I25" s="28">
-        <v>1.0184027777777778</v>
+        <v>0.31916666666666665</v>
       </c>
       <c r="J25" s="28">
         <v>0</v>
       </c>
       <c r="K25"/>
       <c r="L25" s="27">
-        <v>19276</v>
+        <v>2667</v>
       </c>
       <c r="M25" s="29">
         <v>3263459</v>
@@ -2391,35 +2395,35 @@
         <v>36</v>
       </c>
       <c r="B26" s="25">
-        <v>33.181047863056257</v>
+        <v>41.716153669981928</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D26" s="26">
-        <v>3.7163571440489897E-3</v>
+        <v>5.4145600774223692E-4</v>
       </c>
       <c r="E26" s="27">
-        <v>269.08070490515206</v>
+        <v>1846.8721109399075</v>
       </c>
       <c r="F26" s="28">
-        <v>0.71499999999999997</v>
+        <v>0</v>
       </c>
       <c r="G26" s="25">
         <v>0</v>
       </c>
       <c r="H26" s="28">
-        <v>3.3272758037476833</v>
+        <v>4.1716153669981928</v>
       </c>
       <c r="I26" s="28">
-        <v>4.9652777777777775E-2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="28">
-        <v>5.7248158912759223E-2</v>
+        <v>0</v>
       </c>
       <c r="K26"/>
       <c r="L26" s="27">
-        <v>8909</v>
+        <v>1298</v>
       </c>
       <c r="M26" s="29">
         <v>2397240</v>
@@ -2430,35 +2434,35 @@
         <v>37</v>
       </c>
       <c r="B27" s="25">
-        <v>28.559749426991473</v>
+        <v>33.823091099490902</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="26">
-        <v>1.0961807936907748E-2</v>
+        <v>3.1308015650816138E-3</v>
       </c>
       <c r="E27" s="27">
-        <v>91.225827505430019</v>
+        <v>319.40702060238431</v>
       </c>
       <c r="F27" s="28">
-        <v>4.03</v>
+        <v>2.3740000000000001</v>
       </c>
       <c r="G27" s="25">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="H27" s="28">
-        <v>2.9377381986966542</v>
+        <v>3.4279260579447275</v>
       </c>
       <c r="I27" s="28">
-        <v>0.27986111111111112</v>
+        <v>0.16486111111111112</v>
       </c>
       <c r="J27" s="28">
-        <v>2.1950773358265077E-2</v>
+        <v>3.8413853376963882E-2</v>
       </c>
       <c r="K27"/>
       <c r="L27" s="27">
-        <v>2345755</v>
+        <v>669971</v>
       </c>
       <c r="M27" s="29">
         <v>213993441</v>
@@ -2469,35 +2473,35 @@
         <v>38</v>
       </c>
       <c r="B28" s="25">
-        <v>33.546724165962544</v>
+        <v>17.604771315354206</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D28" s="26">
-        <v>7.3992372013806477E-3</v>
+        <v>0.12675638458820651</v>
       </c>
       <c r="E28" s="27">
-        <v>135.14906642179369</v>
+        <v>7.8891489627816398</v>
       </c>
       <c r="F28" s="28">
-        <v>0</v>
+        <v>6.7949999999999999</v>
       </c>
       <c r="G28" s="25">
         <v>0</v>
       </c>
       <c r="H28" s="28">
-        <v>3.3546724165962543</v>
+        <v>1.9020396315354207</v>
       </c>
       <c r="I28" s="28">
-        <v>0</v>
+        <v>0.47187499999999999</v>
       </c>
       <c r="J28" s="28">
         <v>0</v>
       </c>
       <c r="K28"/>
       <c r="L28" s="27">
-        <v>3267</v>
+        <v>55967</v>
       </c>
       <c r="M28" s="29">
         <v>441532</v>
@@ -2508,35 +2512,35 @@
         <v>39</v>
       </c>
       <c r="B29" s="25">
-        <v>25.463185957888033</v>
+        <v>32.26845974957677</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="26">
-        <v>1.4740914254809034E-2</v>
+        <v>3.7925632063659847E-3</v>
       </c>
       <c r="E29" s="27">
-        <v>67.838397450399853</v>
+        <v>263.67391803027988</v>
       </c>
       <c r="F29" s="28">
-        <v>13.257</v>
+        <v>6.4630000000000001</v>
       </c>
       <c r="G29" s="25">
-        <v>4214</v>
+        <v>2177</v>
       </c>
       <c r="H29" s="28">
-        <v>2.7939565405629612</v>
+        <v>3.3467427855746696</v>
       </c>
       <c r="I29" s="28">
-        <v>0.92062500000000003</v>
+        <v>0.44881944444444444</v>
       </c>
       <c r="J29" s="28">
-        <v>0.28549555225842294</v>
+        <v>0.14749022716340454</v>
       </c>
       <c r="K29"/>
       <c r="L29" s="27">
-        <v>101663</v>
+        <v>26156</v>
       </c>
       <c r="M29" s="29">
         <v>6896655</v>
@@ -2547,35 +2551,35 @@
         <v>40</v>
       </c>
       <c r="B30" s="25">
-        <v>61.299142667329313</v>
+        <v>80.636627613823521</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="26">
-        <v>4.8843804351815501E-6</v>
+        <v>0</v>
       </c>
       <c r="E30" s="27">
-        <v>204734.25714285715</v>
+        <v>0</v>
       </c>
       <c r="F30" s="28">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G30" s="25">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H30" s="28">
-        <v>6.1302022097286697</v>
+        <v>8.0635679123616679</v>
       </c>
       <c r="I30" s="28">
-        <v>1.3888888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="J30" s="28">
-        <v>1.2872367092809766E-3</v>
+        <v>9.4849020683861445E-4</v>
       </c>
       <c r="K30"/>
       <c r="L30" s="27">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="M30" s="29">
         <v>21497097</v>
@@ -2586,35 +2590,35 @@
         <v>41</v>
       </c>
       <c r="B31" s="25">
-        <v>52.779869097231256</v>
+        <v>58.175505757679019</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="26">
-        <v>4.495966644660093E-5</v>
+        <v>1.5584929748277274E-5</v>
       </c>
       <c r="E31" s="27">
-        <v>22242.157894736843</v>
+        <v>64164.549738219896</v>
       </c>
       <c r="F31" s="28">
         <v>0</v>
       </c>
       <c r="G31" s="25">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="H31" s="28">
-        <v>5.2766590234335515</v>
+        <v>5.8164869117502329</v>
       </c>
       <c r="I31" s="28">
         <v>0</v>
       </c>
       <c r="J31" s="28">
-        <v>1.3278862895740602E-2</v>
+        <v>1.0636640176690176E-2</v>
       </c>
       <c r="K31"/>
       <c r="L31" s="27">
-        <v>551</v>
+        <v>191</v>
       </c>
       <c r="M31" s="29">
         <v>12255429</v>
@@ -2625,35 +2629,35 @@
         <v>42</v>
       </c>
       <c r="B32" s="25">
-        <v>52.890681576350161</v>
+        <v>44.711057158296491</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" s="26">
-        <v>7.7774419485950036E-5</v>
+        <v>2.8926419144167454E-4</v>
       </c>
       <c r="E32" s="27">
-        <v>12857.698027314113</v>
+        <v>3457.0473276213793</v>
       </c>
       <c r="F32" s="28">
-        <v>0</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="G32" s="25">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="H32" s="28">
-        <v>5.2877809209257354</v>
+        <v>4.4718779278612475</v>
       </c>
       <c r="I32" s="28">
-        <v>0</v>
+        <v>6.4583333333333333E-3</v>
       </c>
       <c r="J32" s="28">
-        <v>1.2872367092809768E-2</v>
+        <v>1.1652879684017261E-2</v>
       </c>
       <c r="K32"/>
       <c r="L32" s="27">
-        <v>1318</v>
+        <v>4902</v>
       </c>
       <c r="M32" s="29">
         <v>16946446</v>
@@ -2664,35 +2668,35 @@
         <v>43</v>
       </c>
       <c r="B33" s="25">
-        <v>49.333524682861672</v>
+        <v>61.427044758999784</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D33" s="26">
-        <v>1.3087590767382417E-4</v>
+        <v>3.0120192055160212E-6</v>
       </c>
       <c r="E33" s="27">
-        <v>7640.825708672467</v>
+        <v>332003.19512195117</v>
       </c>
       <c r="F33" s="28">
-        <v>0.14199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G33" s="25">
         <v>0</v>
       </c>
       <c r="H33" s="28">
-        <v>4.9363108016195003</v>
+        <v>6.1427044758999783</v>
       </c>
       <c r="I33" s="28">
-        <v>9.8611111111111104E-3</v>
+        <v>0</v>
       </c>
       <c r="J33" s="28">
         <v>0</v>
       </c>
       <c r="K33"/>
       <c r="L33" s="27">
-        <v>3563</v>
+        <v>82</v>
       </c>
       <c r="M33" s="29">
         <v>27224262</v>
@@ -2703,35 +2707,35 @@
         <v>44</v>
       </c>
       <c r="B34" s="25">
-        <v>32.239000597883603</v>
+        <v>36.329028132258522</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D34" s="26">
-        <v>4.5289322795289567E-3</v>
+        <v>2.1330562565906883E-3</v>
       </c>
       <c r="E34" s="27">
-        <v>220.80259502224388</v>
+        <v>468.81088902846022</v>
       </c>
       <c r="F34" s="28">
-        <v>3.2010000000000001</v>
+        <v>1.5609999999999999</v>
       </c>
       <c r="G34" s="25">
-        <v>1782</v>
+        <v>1126</v>
       </c>
       <c r="H34" s="28">
-        <v>3.2785146344413145</v>
+        <v>3.6577950753241835</v>
       </c>
       <c r="I34" s="28">
-        <v>0.22229166666666667</v>
+        <v>0.10840277777777778</v>
       </c>
       <c r="J34" s="28">
-        <v>0.12072925347045792</v>
+        <v>7.6285712350019977E-2</v>
       </c>
       <c r="K34"/>
       <c r="L34" s="27">
-        <v>172407</v>
+        <v>81201</v>
       </c>
       <c r="M34" s="29">
         <v>38067913</v>
@@ -2742,35 +2746,35 @@
         <v>45</v>
       </c>
       <c r="B35" s="25">
-        <v>41.314670600791267</v>
+        <v>52.199985043440364</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35" s="26">
-        <v>4.1288412015639766E-4</v>
+        <v>5.3390187951258319E-5</v>
       </c>
       <c r="E35" s="27">
-        <v>2421.9870689655172</v>
+        <v>18730.033333333333</v>
       </c>
       <c r="F35" s="28">
-        <v>0.50800000000000001</v>
+        <v>0</v>
       </c>
       <c r="G35" s="25">
         <v>0</v>
       </c>
       <c r="H35" s="28">
-        <v>4.1420503934124602</v>
+        <v>5.2199985043440362</v>
       </c>
       <c r="I35" s="28">
-        <v>3.5277777777777776E-2</v>
+        <v>0</v>
       </c>
       <c r="J35" s="28">
         <v>0</v>
       </c>
       <c r="K35"/>
       <c r="L35" s="27">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="M35" s="29">
         <v>561901</v>
@@ -2781,16 +2785,16 @@
         <v>46</v>
       </c>
       <c r="B36" s="25">
-        <v>51.542464841172333</v>
+        <v>55.682884624539582</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="26">
-        <v>4.3089544748797104E-5</v>
+        <v>2.7032591752783088E-5</v>
       </c>
       <c r="E36" s="27">
-        <v>23207.485849056604</v>
+        <v>36992.383458646618</v>
       </c>
       <c r="F36" s="28">
         <v>0</v>
@@ -2799,17 +2803,17 @@
         <v>0</v>
       </c>
       <c r="H36" s="28">
-        <v>5.1541448601665003</v>
+        <v>5.568112314272688</v>
       </c>
       <c r="I36" s="28">
         <v>0</v>
       </c>
       <c r="J36" s="28">
-        <v>1.0162395073270868E-3</v>
+        <v>1.7614818127002839E-3</v>
       </c>
       <c r="K36"/>
       <c r="L36" s="27">
-        <v>212</v>
+        <v>133</v>
       </c>
       <c r="M36" s="29">
         <v>4919987</v>
@@ -2820,35 +2824,35 @@
         <v>47</v>
       </c>
       <c r="B37" s="25">
-        <v>59.373954506561553</v>
+        <v>68.454647320509636</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D37" s="26">
-        <v>8.3358040222914779E-6</v>
+        <v>7.0943012955672147E-7</v>
       </c>
       <c r="E37" s="27">
-        <v>119964.43262411347</v>
+        <v>1409582.0833333333</v>
       </c>
       <c r="F37" s="28">
         <v>0</v>
       </c>
       <c r="G37" s="25">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H37" s="28">
-        <v>5.9372870517753737</v>
+        <v>6.8454444072608167</v>
       </c>
       <c r="I37" s="28">
         <v>0</v>
       </c>
       <c r="J37" s="28">
-        <v>1.0839888078155594E-3</v>
+        <v>2.0324790146541738E-4</v>
       </c>
       <c r="K37"/>
       <c r="L37" s="27">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="M37" s="29">
         <v>16914985</v>
@@ -2859,35 +2863,35 @@
         <v>48</v>
       </c>
       <c r="B38" s="25">
-        <v>26.389678711331946</v>
+        <v>26.651835586715745</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="26">
-        <v>2.3854120591731511E-2</v>
+        <v>1.5406486719332063E-2</v>
       </c>
       <c r="E38" s="27">
-        <v>41.921478352324058</v>
+        <v>64.907724792648523</v>
       </c>
       <c r="F38" s="28">
-        <v>3.339</v>
+        <v>6.2759999999999998</v>
       </c>
       <c r="G38" s="25">
-        <v>6470</v>
+        <v>4286</v>
       </c>
       <c r="H38" s="28">
-        <v>2.6646965737171531</v>
+        <v>2.7668962084822151</v>
       </c>
       <c r="I38" s="28">
-        <v>0.231875</v>
+        <v>0.43583333333333329</v>
       </c>
       <c r="J38" s="28">
-        <v>0.43833797416041675</v>
+        <v>0.2903735018935929</v>
       </c>
       <c r="K38"/>
       <c r="L38" s="27">
-        <v>458294</v>
+        <v>295995</v>
       </c>
       <c r="M38" s="29">
         <v>19212362</v>
@@ -2898,16 +2902,16 @@
         <v>49</v>
       </c>
       <c r="B39" s="25">
-        <v>72.496174984294697</v>
+        <v>66.097185931589564</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="26">
-        <v>6.1555884799295776E-7</v>
+        <v>3.0023207704133464E-6</v>
       </c>
       <c r="E39" s="27">
-        <v>1624540.0472440945</v>
+        <v>333075.66928044282</v>
       </c>
       <c r="F39" s="28">
         <v>0</v>
@@ -2916,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <v>7.249617498429469</v>
+        <v>6.6097185931589566</v>
       </c>
       <c r="I39" s="28">
         <v>0</v>
@@ -2926,7 +2930,7 @@
       </c>
       <c r="K39"/>
       <c r="L39" s="27">
-        <v>889</v>
+        <v>4336</v>
       </c>
       <c r="M39" s="29">
         <v>1444216102</v>
@@ -2937,35 +2941,35 @@
         <v>50</v>
       </c>
       <c r="B40" s="25">
-        <v>32.876430859825938</v>
+        <v>43.269252333044527</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D40" s="26">
-        <v>3.6302535249543647E-3</v>
+        <v>3.5731394711734077E-4</v>
       </c>
       <c r="E40" s="27">
-        <v>275.4628549014551</v>
+        <v>2798.65929686647</v>
       </c>
       <c r="F40" s="28">
-        <v>4.2910000000000004</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="G40" s="25">
-        <v>883</v>
+        <v>481</v>
       </c>
       <c r="H40" s="28">
-        <v>3.371056656082795</v>
+        <v>4.3399789919509573</v>
       </c>
       <c r="I40" s="28">
-        <v>0.29798611111111112</v>
+        <v>5.4375E-2</v>
       </c>
       <c r="J40" s="28">
-        <v>5.9822632331321179E-2</v>
+        <v>3.2587413534955249E-2</v>
       </c>
       <c r="K40"/>
       <c r="L40" s="27">
-        <v>186108</v>
+        <v>18318</v>
       </c>
       <c r="M40" s="29">
         <v>51265841</v>
@@ -2976,16 +2980,16 @@
         <v>51</v>
       </c>
       <c r="B41" s="25">
-        <v>48.119216975779118</v>
+        <v>54.862379267236548</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="26">
-        <v>1.8571544342094599E-4</v>
+        <v>3.4891992400298944E-5</v>
       </c>
       <c r="E41" s="27">
-        <v>5384.5818181818186</v>
+        <v>28659.870967741936</v>
       </c>
       <c r="F41" s="28">
         <v>0</v>
@@ -2994,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <v>4.8119216975779118</v>
+        <v>5.4862379267236552</v>
       </c>
       <c r="I41" s="28">
         <v>0</v>
@@ -3004,7 +3008,7 @@
       </c>
       <c r="K41"/>
       <c r="L41" s="27">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="M41" s="29">
         <v>888456</v>
@@ -3015,35 +3019,35 @@
         <v>52</v>
       </c>
       <c r="B42" s="25">
-        <v>52.817078121958268</v>
+        <v>56.849401840994531</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="26">
-        <v>3.6591723164346157E-5</v>
+        <v>1.3081099102230027E-5</v>
       </c>
       <c r="E42" s="27">
-        <v>27328.584541062803</v>
+        <v>76446.175675675666</v>
       </c>
       <c r="F42" s="28">
-        <v>0.10100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G42" s="25">
         <v>0</v>
       </c>
       <c r="H42" s="28">
-        <v>5.2838119788624933</v>
+        <v>5.6849401840994531</v>
       </c>
       <c r="I42" s="28">
-        <v>7.013888888888889E-3</v>
+        <v>0</v>
       </c>
       <c r="J42" s="28">
         <v>0</v>
       </c>
       <c r="K42"/>
       <c r="L42" s="27">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="M42" s="29">
         <v>5657017</v>
@@ -3054,35 +3058,35 @@
         <v>53</v>
       </c>
       <c r="B43" s="25">
-        <v>27.491568202111594</v>
+        <v>32.424451378487184</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="26">
-        <v>1.4871806147942044E-2</v>
+        <v>4.2784147195991168E-3</v>
       </c>
       <c r="E43" s="27">
-        <v>67.241328326376802</v>
+        <v>233.73143220994223</v>
       </c>
       <c r="F43" s="28">
-        <v>3.6419999999999999</v>
+        <v>2.113</v>
       </c>
       <c r="G43" s="25">
         <v>0</v>
       </c>
       <c r="H43" s="28">
-        <v>2.8093749568682735</v>
+        <v>3.2747317923374482</v>
       </c>
       <c r="I43" s="28">
-        <v>0.25291666666666668</v>
+        <v>0.14673611111111112</v>
       </c>
       <c r="J43" s="28">
-        <v>0.15656863342885985</v>
+        <v>0.1173417884460343</v>
       </c>
       <c r="K43"/>
       <c r="L43" s="27">
-        <v>76427</v>
+        <v>21987</v>
       </c>
       <c r="M43" s="29">
         <v>5139053</v>
@@ -3093,35 +3097,35 @@
         <v>54</v>
       </c>
       <c r="B44" s="25">
-        <v>55.782433801795904</v>
+        <v>61.750501327908772</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D44" s="26">
-        <v>2.0440880593135951E-5</v>
+        <v>5.9511424511661637E-6</v>
       </c>
       <c r="E44" s="27">
-        <v>48921.571428571435</v>
+        <v>168034.96273291923</v>
       </c>
       <c r="F44" s="28">
-        <v>2.1000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G44" s="25">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H44" s="28">
-        <v>5.578179535355976</v>
+        <v>6.1745445557531475</v>
       </c>
       <c r="I44" s="28">
-        <v>1.4583333333333334E-3</v>
+        <v>3.4722222222222224E-4</v>
       </c>
       <c r="J44" s="28">
-        <v>5.0134482361469616E-3</v>
+        <v>6.0974370439625209E-3</v>
       </c>
       <c r="K44"/>
       <c r="L44" s="27">
-        <v>553</v>
+        <v>161</v>
       </c>
       <c r="M44" s="29">
         <v>27053629</v>
@@ -3132,35 +3136,35 @@
         <v>55</v>
       </c>
       <c r="B45" s="25">
-        <v>23.644650084068559</v>
+        <v>31.610473053262137</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D45" s="26">
-        <v>2.330671097546903E-2</v>
+        <v>4.814221283170046E-3</v>
       </c>
       <c r="E45" s="27">
-        <v>42.906096920004209</v>
+        <v>207.71791348600507</v>
       </c>
       <c r="F45" s="28">
-        <v>11.9</v>
+        <v>5.2149999999999999</v>
       </c>
       <c r="G45" s="25">
-        <v>3073</v>
+        <v>1208</v>
       </c>
       <c r="H45" s="28">
-        <v>2.5915623150334151</v>
+        <v>3.2615090231605395</v>
       </c>
       <c r="I45" s="28">
-        <v>0.82638888888888895</v>
+        <v>0.36215277777777777</v>
       </c>
       <c r="J45" s="28">
-        <v>0.20819360040107585</v>
+        <v>8.184115499007473E-2</v>
       </c>
       <c r="K45"/>
       <c r="L45" s="27">
-        <v>95130</v>
+        <v>19650</v>
       </c>
       <c r="M45" s="29">
         <v>4081657</v>
@@ -3171,35 +3175,35 @@
         <v>56</v>
       </c>
       <c r="B46" s="25">
-        <v>35.730519614180196</v>
+        <v>41.71340310858362</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="26">
-        <v>2.1040869633906717E-3</v>
+        <v>6.6339751065120581E-4</v>
       </c>
       <c r="E46" s="27">
-        <v>475.26552723302399</v>
+        <v>1507.3918486947255</v>
       </c>
       <c r="F46" s="28">
-        <v>0.42899999999999999</v>
+        <v>0.05</v>
       </c>
       <c r="G46" s="25">
         <v>0</v>
       </c>
       <c r="H46" s="28">
-        <v>3.5819894614180194</v>
+        <v>4.1723819775250286</v>
       </c>
       <c r="I46" s="28">
-        <v>2.9791666666666668E-2</v>
+        <v>3.4722222222222225E-3</v>
       </c>
       <c r="J46" s="28">
         <v>0</v>
       </c>
       <c r="K46"/>
       <c r="L46" s="27">
-        <v>23813</v>
+        <v>7508</v>
       </c>
       <c r="M46" s="29">
         <v>11317498</v>
@@ -3210,35 +3214,35 @@
         <v>57</v>
       </c>
       <c r="B47" s="25">
-        <v>31.341140948894363</v>
+        <v>31.0141378556673</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="26">
-        <v>4.1410483200428568E-2</v>
+        <v>3.510025055663752E-2</v>
       </c>
       <c r="E47" s="27">
-        <v>24.148474557999137</v>
+        <v>28.489825119236883</v>
       </c>
       <c r="F47" s="28">
-        <v>4.1449999999999996</v>
+        <v>4.4640000000000004</v>
       </c>
       <c r="G47" s="25">
-        <v>119588</v>
+        <v>0</v>
       </c>
       <c r="H47" s="28">
-        <v>2.4102679268745586</v>
+        <v>2.5105726712262357</v>
       </c>
       <c r="I47" s="28">
-        <v>0.2878472222222222</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="J47" s="28">
-        <v>8.1020033468154438</v>
+        <v>6.8384111434049446</v>
       </c>
       <c r="K47"/>
       <c r="L47" s="27">
-        <v>37104</v>
+        <v>31450</v>
       </c>
       <c r="M47" s="29">
         <v>896005</v>
@@ -3249,35 +3253,35 @@
         <v>58</v>
       </c>
       <c r="B48" s="25">
-        <v>23.304560099546904</v>
+        <v>28.949326125484056</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D48" s="26">
-        <v>4.209881754512286E-2</v>
+        <v>1.0502815362094811E-2</v>
       </c>
       <c r="E48" s="27">
-        <v>23.753636285108673</v>
+        <v>95.212565919139195</v>
       </c>
       <c r="F48" s="28">
-        <v>4.4619999999999997</v>
+        <v>3.7429999999999999</v>
       </c>
       <c r="G48" s="25">
-        <v>10300</v>
+        <v>3021</v>
       </c>
       <c r="H48" s="28">
-        <v>2.3536325637848972</v>
+        <v>2.9524447155375046</v>
       </c>
       <c r="I48" s="28">
-        <v>0.30986111111111109</v>
+        <v>0.25993055555555555</v>
       </c>
       <c r="J48" s="28">
-        <v>0.6978177950312664</v>
+        <v>0.20467063677567529</v>
       </c>
       <c r="K48"/>
       <c r="L48" s="27">
-        <v>451491</v>
+        <v>112638</v>
       </c>
       <c r="M48" s="29">
         <v>10724553</v>
@@ -3288,35 +3292,35 @@
         <v>59</v>
       </c>
       <c r="B49" s="25">
-        <v>59.389154767464063</v>
+        <v>64.559815918800723</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D49" s="26">
-        <v>8.8440984197252356E-6</v>
+        <v>3.8104316324887189E-6</v>
       </c>
       <c r="E49" s="27">
-        <v>113069.75030599756</v>
+        <v>262437.46022727271</v>
       </c>
       <c r="F49" s="28">
-        <v>5.8999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G49" s="25">
         <v>0</v>
       </c>
       <c r="H49" s="28">
-        <v>5.9401446434130731</v>
+        <v>6.4559815918800716</v>
       </c>
       <c r="I49" s="28">
-        <v>4.0972222222222217E-3</v>
+        <v>0</v>
       </c>
       <c r="J49" s="28">
         <v>0</v>
       </c>
       <c r="K49"/>
       <c r="L49" s="27">
-        <v>817</v>
+        <v>352</v>
       </c>
       <c r="M49" s="29">
         <v>92377986</v>
@@ -3327,35 +3331,35 @@
         <v>60</v>
       </c>
       <c r="B50" s="25">
-        <v>20.749668421231572</v>
+        <v>22.072081356244198</v>
       </c>
       <c r="C50" t="s">
         <v>162</v>
       </c>
       <c r="D50" s="26">
-        <v>0.1056206954326474</v>
+        <v>3.9799583782160294E-2</v>
       </c>
       <c r="E50" s="27">
-        <v>9.4678414670890305</v>
+        <v>25.125890900603803</v>
       </c>
       <c r="F50" s="28">
-        <v>4.0789999999999997</v>
+        <v>8.8960000000000008</v>
       </c>
       <c r="G50" s="25">
-        <v>26416</v>
+        <v>9208</v>
       </c>
       <c r="H50" s="28">
-        <v>1.9809794566194752</v>
+        <v>2.3301579130679677</v>
       </c>
       <c r="I50" s="28">
-        <v>0.28326388888888887</v>
+        <v>0.61777777777777787</v>
       </c>
       <c r="J50" s="28">
-        <v>1.7896655217034885</v>
+        <v>0.62383555889785436</v>
       </c>
       <c r="K50"/>
       <c r="L50" s="27">
-        <v>614005</v>
+        <v>231367</v>
       </c>
       <c r="M50" s="29">
         <v>5813302</v>
@@ -3366,35 +3370,35 @@
         <v>61</v>
       </c>
       <c r="B51" s="25">
-        <v>47.415623199539368</v>
+        <v>59.143948329481375</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="26">
-        <v>1.1774132231487422E-4</v>
+        <v>1.8958348508327205E-5</v>
       </c>
       <c r="E51" s="27">
-        <v>8493.1949152542365</v>
+        <v>52747.210526315786</v>
       </c>
       <c r="F51" s="28">
         <v>0</v>
       </c>
       <c r="G51" s="25">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="H51" s="28">
-        <v>4.7415623199539372</v>
+        <v>5.9115425873975731</v>
       </c>
       <c r="I51" s="28">
         <v>0</v>
       </c>
       <c r="J51" s="28">
-        <v>0</v>
+        <v>2.8522455505646905E-2</v>
       </c>
       <c r="K51"/>
       <c r="L51" s="27">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="M51" s="29">
         <v>1002197</v>
@@ -3405,35 +3409,35 @@
         <v>62</v>
       </c>
       <c r="B52" s="25">
-        <v>26.510131629050612</v>
+        <v>31.793657445124396</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="26">
-        <v>1.8733026658537936E-2</v>
+        <v>6.7339134290306489E-3</v>
       </c>
       <c r="E52" s="27">
-        <v>53.38165680473373</v>
+        <v>148.50205761316872</v>
       </c>
       <c r="F52" s="28">
-        <v>3.9590000000000001</v>
+        <v>1.9790000000000001</v>
       </c>
       <c r="G52" s="25">
         <v>0</v>
       </c>
       <c r="H52" s="28">
-        <v>2.7334923295717277</v>
+        <v>3.2205949111791061</v>
       </c>
       <c r="I52" s="28">
-        <v>0.27493055555555557</v>
+        <v>0.13743055555555556</v>
       </c>
       <c r="J52" s="28">
         <v>0</v>
       </c>
       <c r="K52"/>
       <c r="L52" s="27">
-        <v>1352</v>
+        <v>486</v>
       </c>
       <c r="M52" s="29">
         <v>72172</v>
@@ -3444,35 +3448,35 @@
         <v>63</v>
       </c>
       <c r="B53" s="25">
-        <v>36.931750721000114</v>
+        <v>44.643672393129997</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="26">
-        <v>1.5579190765798705E-3</v>
+        <v>2.5215191851823043E-4</v>
       </c>
       <c r="E53" s="27">
-        <v>641.8818634632288</v>
+        <v>3965.8631426502534</v>
       </c>
       <c r="F53" s="28">
-        <v>0.313</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="G53" s="25">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="H53" s="28">
-        <v>3.6956241724739876</v>
+        <v>4.4622666832606157</v>
       </c>
       <c r="I53" s="28">
-        <v>2.1736111111111112E-2</v>
+        <v>1.8055555555555555E-3</v>
       </c>
       <c r="J53" s="28">
-        <v>4.0717329593571945E-2</v>
+        <v>2.6422227190504258E-2</v>
       </c>
       <c r="K53"/>
       <c r="L53" s="27">
-        <v>17065</v>
+        <v>2762</v>
       </c>
       <c r="M53" s="29">
         <v>10953714</v>
@@ -3483,35 +3487,35 @@
         <v>64</v>
       </c>
       <c r="B54" s="25">
-        <v>33.049296560391674</v>
+        <v>38.969018469420938</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D54" s="26">
-        <v>4.1504937760481969E-3</v>
+        <v>8.9443068201345741E-4</v>
       </c>
       <c r="E54" s="27">
-        <v>240.93518842765943</v>
+        <v>1118.0296249999999</v>
       </c>
       <c r="F54" s="28">
-        <v>1.4219999999999999</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="G54" s="25">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="H54" s="28">
-        <v>3.3312755898955251</v>
+        <v>3.9037929733927759</v>
       </c>
       <c r="I54" s="28">
-        <v>9.8749999999999991E-2</v>
+        <v>2.8819444444444443E-2</v>
       </c>
       <c r="J54" s="28">
-        <v>3.2790661436420669E-2</v>
+        <v>1.7547068826514366E-2</v>
       </c>
       <c r="K54"/>
       <c r="L54" s="27">
-        <v>74246</v>
+        <v>16000</v>
       </c>
       <c r="M54" s="29">
         <v>17888474</v>
@@ -3522,35 +3526,35 @@
         <v>65</v>
       </c>
       <c r="B55" s="25">
-        <v>45.315613359088992</v>
+        <v>47.053681366782797</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="26">
-        <v>2.9776038896154548E-4</v>
+        <v>1.6637519993966524E-4</v>
       </c>
       <c r="E55" s="27">
-        <v>3358.4050702229097</v>
+        <v>6010.5111841346716</v>
       </c>
       <c r="F55" s="28">
-        <v>0.53700000000000003</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="G55" s="25">
         <v>0</v>
       </c>
       <c r="H55" s="28">
-        <v>4.542748835908899</v>
+        <v>4.7087848033449466</v>
       </c>
       <c r="I55" s="28">
-        <v>3.7291666666666667E-2</v>
+        <v>1.1388888888888889E-2</v>
       </c>
       <c r="J55" s="28">
         <v>0</v>
       </c>
       <c r="K55"/>
       <c r="L55" s="27">
-        <v>31044</v>
+        <v>17346</v>
       </c>
       <c r="M55" s="29">
         <v>104258327</v>
@@ -3561,35 +3565,35 @@
         <v>66</v>
       </c>
       <c r="B56" s="25">
-        <v>38.860421506642993</v>
+        <v>38.748239760726179</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="26">
-        <v>1.2421569379458465E-3</v>
+        <v>1.3159469203037509E-3</v>
       </c>
       <c r="E56" s="27">
-        <v>805.05125355069777</v>
+        <v>759.90906971321988</v>
       </c>
       <c r="F56" s="28">
-        <v>1.1830000000000001</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="G56" s="25">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="H56" s="28">
-        <v>3.9058235842225604</v>
+        <v>3.8807614760726179</v>
       </c>
       <c r="I56" s="28">
-        <v>8.2152777777777783E-2</v>
+        <v>1.9791666666666666E-2</v>
       </c>
       <c r="J56" s="28">
-        <v>4.8643997750723221E-2</v>
+        <v>0</v>
       </c>
       <c r="K56"/>
       <c r="L56" s="27">
-        <v>8097</v>
+        <v>8578</v>
       </c>
       <c r="M56" s="29">
         <v>6518500</v>
@@ -3600,35 +3604,35 @@
         <v>67</v>
       </c>
       <c r="B57" s="25">
-        <v>50.129730985331854</v>
+        <v>58.947635464574255</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="26">
-        <v>5.4486854529064601E-5</v>
+        <v>1.1725019329039217E-5</v>
       </c>
       <c r="E57" s="27">
-        <v>18353.050632911392</v>
+        <v>85287.705882352937</v>
       </c>
       <c r="F57" s="28">
         <v>0</v>
       </c>
       <c r="G57" s="25">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="H57" s="28">
-        <v>5.0116790868938557</v>
+        <v>5.8924532953107684</v>
       </c>
       <c r="I57" s="28">
         <v>0</v>
       </c>
       <c r="J57" s="28">
-        <v>1.2940116393298239E-2</v>
+        <v>2.3102511466569109E-2</v>
       </c>
       <c r="K57"/>
       <c r="L57" s="27">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="M57" s="29">
         <v>1449891</v>
@@ -3639,35 +3643,35 @@
         <v>68</v>
       </c>
       <c r="B58" s="25">
-        <v>50.588523453552895</v>
+        <v>61.41522192762632</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D58" s="26">
-        <v>6.2196963344330724E-5</v>
+        <v>6.3862953433911004E-6</v>
       </c>
       <c r="E58" s="27">
-        <v>16077.955357142855</v>
+        <v>156585.30434782608</v>
       </c>
       <c r="F58" s="28">
-        <v>0.11899999999999999</v>
+        <v>0</v>
       </c>
       <c r="G58" s="25">
         <v>0</v>
       </c>
       <c r="H58" s="28">
-        <v>5.0613315120219564</v>
+        <v>6.1415221927626318</v>
       </c>
       <c r="I58" s="28">
-        <v>8.2638888888888883E-3</v>
+        <v>0</v>
       </c>
       <c r="J58" s="28">
         <v>0</v>
       </c>
       <c r="K58"/>
       <c r="L58" s="27">
-        <v>224</v>
+        <v>23</v>
       </c>
       <c r="M58" s="29">
         <v>3601462</v>
@@ -3678,35 +3682,35 @@
         <v>69</v>
       </c>
       <c r="B59" s="25">
-        <v>21.229829900706314</v>
+        <v>22.807279705387224</v>
       </c>
       <c r="C59" t="s">
         <v>162</v>
       </c>
       <c r="D59" s="26">
-        <v>6.8983419711014585E-2</v>
+        <v>3.5321026148742669E-2</v>
       </c>
       <c r="E59" s="27">
-        <v>14.496236982585106</v>
+        <v>28.311748242784198</v>
       </c>
       <c r="F59" s="28">
-        <v>5.1740000000000004</v>
+        <v>6.468</v>
       </c>
       <c r="G59" s="25">
-        <v>8297</v>
+        <v>3960</v>
       </c>
       <c r="H59" s="28">
-        <v>2.1745630621220124</v>
+        <v>2.3886492475452874</v>
       </c>
       <c r="I59" s="28">
-        <v>0.3593055555555556</v>
+        <v>0.44916666666666666</v>
       </c>
       <c r="J59" s="28">
-        <v>0.56211594615285598</v>
+        <v>0.26828722993435095</v>
       </c>
       <c r="K59"/>
       <c r="L59" s="27">
-        <v>91416</v>
+        <v>46807</v>
       </c>
       <c r="M59" s="29">
         <v>1325188</v>
@@ -3717,35 +3721,35 @@
         <v>70</v>
       </c>
       <c r="B60" s="25">
-        <v>43.702511082772823</v>
+        <v>45.71771320792773</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D60" s="26">
-        <v>4.1625119736192273E-4</v>
+        <v>2.4224454928439766E-4</v>
       </c>
       <c r="E60" s="27">
-        <v>2402.3954918032787</v>
+        <v>4128.0598591549297</v>
       </c>
       <c r="F60" s="28">
-        <v>0.60899999999999999</v>
+        <v>0.122</v>
       </c>
       <c r="G60" s="25">
         <v>0</v>
       </c>
       <c r="H60" s="28">
-        <v>4.3829386082772821</v>
+        <v>4.5743129874594395</v>
       </c>
       <c r="I60" s="28">
-        <v>4.2291666666666665E-2</v>
+        <v>8.4722222222222213E-3</v>
       </c>
       <c r="J60" s="28">
         <v>0</v>
       </c>
       <c r="K60"/>
       <c r="L60" s="27">
-        <v>488</v>
+        <v>284</v>
       </c>
       <c r="M60" s="29">
         <v>1172369</v>
@@ -3756,35 +3760,35 @@
         <v>71</v>
       </c>
       <c r="B61" s="25">
-        <v>54.544398754431441</v>
+        <v>62.783565099313655</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D61" s="26">
-        <v>2.7418590751285164E-5</v>
+        <v>4.8355806708640298E-6</v>
       </c>
       <c r="E61" s="27">
-        <v>36471.604579207924</v>
+        <v>206800.39649122808</v>
       </c>
       <c r="F61" s="28">
-        <v>6.5000000000000002E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G61" s="25">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="H61" s="28">
-        <v>5.4554010961669777</v>
+        <v>6.2783360212725983</v>
       </c>
       <c r="I61" s="28">
-        <v>4.5138888888888893E-3</v>
+        <v>9.0277777777777774E-4</v>
       </c>
       <c r="J61" s="28">
-        <v>3.9294594283314031E-3</v>
+        <v>2.9132199210043152E-3</v>
       </c>
       <c r="K61"/>
       <c r="L61" s="27">
-        <v>3232</v>
+        <v>570</v>
       </c>
       <c r="M61" s="29">
         <v>117876226</v>
@@ -3795,35 +3799,35 @@
         <v>72</v>
       </c>
       <c r="B62" s="25">
-        <v>36.902336214765832</v>
+        <v>43.740096431562982</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="26">
-        <v>1.3235145902254848E-3</v>
+        <v>4.1311375912477476E-4</v>
       </c>
       <c r="E62" s="27">
-        <v>755.56401673640164</v>
+        <v>2420.6407506702412</v>
       </c>
       <c r="F62" s="28">
-        <v>1.1080000000000001</v>
+        <v>0</v>
       </c>
       <c r="G62" s="25">
-        <v>184</v>
+        <v>660</v>
       </c>
       <c r="H62" s="28">
-        <v>3.7120703676809286</v>
+        <v>4.369538189324059</v>
       </c>
       <c r="I62" s="28">
-        <v>7.6944444444444454E-2</v>
+        <v>0</v>
       </c>
       <c r="J62" s="28">
-        <v>1.2465871289878932E-2</v>
+        <v>4.4714538322391827E-2</v>
       </c>
       <c r="K62"/>
       <c r="L62" s="27">
-        <v>1195</v>
+        <v>373</v>
       </c>
       <c r="M62" s="29">
         <v>902899</v>
@@ -3834,35 +3838,35 @@
         <v>73</v>
       </c>
       <c r="B63" s="25">
-        <v>28.177693495238152</v>
+        <v>28.1393623791034</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="26">
-        <v>1.6026714916350972E-2</v>
+        <v>1.3597709305504815E-2</v>
       </c>
       <c r="E63" s="27">
-        <v>62.395818807494216</v>
+        <v>73.541798661276417</v>
       </c>
       <c r="F63" s="28">
-        <v>2.5750000000000002</v>
+        <v>4.8659999999999997</v>
       </c>
       <c r="G63" s="25">
-        <v>2917</v>
+        <v>0</v>
       </c>
       <c r="H63" s="28">
-        <v>2.8516527119046611</v>
+        <v>2.8999050469792613</v>
       </c>
       <c r="I63" s="28">
-        <v>0.17881944444444445</v>
+        <v>0.33791666666666664</v>
       </c>
       <c r="J63" s="28">
-        <v>0.19762470952487415</v>
+        <v>0.15406190931078637</v>
       </c>
       <c r="K63"/>
       <c r="L63" s="27">
-        <v>88922</v>
+        <v>75445</v>
       </c>
       <c r="M63" s="29">
         <v>5548361</v>
@@ -3873,35 +3877,35 @@
         <v>74</v>
       </c>
       <c r="B64" s="25">
-        <v>21.946648766113345</v>
+        <v>29.254278912560334</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D64" s="26">
-        <v>4.8205941680757022E-2</v>
+        <v>1.147942807985524E-2</v>
       </c>
       <c r="E64" s="27">
-        <v>20.744330784418278</v>
+        <v>87.112353772646344</v>
       </c>
       <c r="F64" s="28">
-        <v>5.1210000000000004</v>
+        <v>1.9870000000000001</v>
       </c>
       <c r="G64" s="25">
-        <v>8602</v>
+        <v>0</v>
       </c>
       <c r="H64" s="28">
-        <v>2.2430744283311506</v>
+        <v>2.9388161637674322</v>
       </c>
       <c r="I64" s="28">
-        <v>0.35562500000000002</v>
+        <v>0.13798611111111111</v>
       </c>
       <c r="J64" s="28">
-        <v>0.58277948280184011</v>
+        <v>0.28007560821934518</v>
       </c>
       <c r="K64"/>
       <c r="L64" s="27">
-        <v>3250141</v>
+        <v>773966</v>
       </c>
       <c r="M64" s="29">
         <v>67422000</v>
@@ -3912,35 +3916,35 @@
         <v>75</v>
       </c>
       <c r="B65" s="25">
-        <v>42.91276359699782</v>
+        <v>55.979753680517632</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D65" s="26">
-        <v>4.0810433779805332E-4</v>
+        <v>1.9308162218402521E-5</v>
       </c>
       <c r="E65" s="27">
-        <v>2450.3537634408599</v>
+        <v>51791.568181818184</v>
       </c>
       <c r="F65" s="28">
-        <v>6.3E-2</v>
+        <v>0</v>
       </c>
       <c r="G65" s="25">
         <v>546</v>
       </c>
       <c r="H65" s="28">
-        <v>4.2888897478931112</v>
+        <v>5.5942762562450925</v>
       </c>
       <c r="I65" s="28">
-        <v>4.3750000000000004E-3</v>
+        <v>0</v>
       </c>
       <c r="J65" s="28">
         <v>3.6991118066705964E-2</v>
       </c>
       <c r="K65"/>
       <c r="L65" s="27">
-        <v>930</v>
+        <v>44</v>
       </c>
       <c r="M65" s="29">
         <v>2278829</v>
@@ -3951,35 +3955,35 @@
         <v>76</v>
       </c>
       <c r="B66" s="25">
-        <v>48.941573427464313</v>
+        <v>59.155049557077604</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="26">
-        <v>1.3631225881475888E-4</v>
+        <v>1.5681941279574031E-5</v>
       </c>
       <c r="E66" s="27">
-        <v>7336.0973451327427</v>
+        <v>63767.615384615383</v>
       </c>
       <c r="F66" s="28">
-        <v>5.7000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="G66" s="25">
-        <v>80</v>
+        <v>468</v>
       </c>
       <c r="H66" s="28">
-        <v>4.8948028483425237</v>
+        <v>5.9123342884448995</v>
       </c>
       <c r="I66" s="28">
-        <v>3.9583333333333337E-3</v>
+        <v>0</v>
       </c>
       <c r="J66" s="28">
-        <v>5.4199440390777969E-3</v>
+        <v>3.1706672628605111E-2</v>
       </c>
       <c r="K66"/>
       <c r="L66" s="27">
-        <v>339</v>
+        <v>39</v>
       </c>
       <c r="M66" s="29">
         <v>2486937</v>
@@ -3990,35 +3994,35 @@
         <v>77</v>
       </c>
       <c r="B67" s="25">
-        <v>19.849009288080715</v>
+        <v>26.067145062270097</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D67" s="26">
-        <v>7.2338547952358084E-2</v>
+        <v>1.1921785488770339E-2</v>
       </c>
       <c r="E67" s="27">
-        <v>13.823888207689716</v>
+        <v>83.880053113012693</v>
       </c>
       <c r="F67" s="28">
-        <v>10.840999999999999</v>
+        <v>7.5739999999999998</v>
       </c>
       <c r="G67" s="25">
-        <v>5595</v>
+        <v>1749</v>
       </c>
       <c r="H67" s="28">
-        <v>2.172849361851438</v>
+        <v>2.7526568202382427</v>
       </c>
       <c r="I67" s="28">
-        <v>0.75284722222222222</v>
+        <v>0.52597222222222217</v>
       </c>
       <c r="J67" s="28">
-        <v>0.37905733623300336</v>
+        <v>0.11849352655433833</v>
       </c>
       <c r="K67"/>
       <c r="L67" s="27">
-        <v>287891</v>
+        <v>47446</v>
       </c>
       <c r="M67" s="29">
         <v>3979773</v>
@@ -4029,35 +4033,35 @@
         <v>78</v>
       </c>
       <c r="B68" s="25">
-        <v>25.288828395869416</v>
+        <v>25.356874621156347</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="26">
-        <v>3.0879540592805493E-2</v>
+        <v>2.807614751054258E-2</v>
       </c>
       <c r="E68" s="27">
-        <v>32.38390147012052</v>
+        <v>35.617422213090329</v>
       </c>
       <c r="F68" s="28">
-        <v>2.004</v>
+        <v>2.5110000000000001</v>
       </c>
       <c r="G68" s="25">
         <v>0</v>
       </c>
       <c r="H68" s="28">
-        <v>2.5406808738409881</v>
+        <v>2.5666860321819613</v>
       </c>
       <c r="I68" s="28">
-        <v>0.13916666666666666</v>
+        <v>0.174375</v>
       </c>
       <c r="J68" s="28">
-        <v>0.29951965745953674</v>
+        <v>0.21313929933673434</v>
       </c>
       <c r="K68"/>
       <c r="L68" s="27">
-        <v>2590808</v>
+        <v>2355602</v>
       </c>
       <c r="M68" s="29">
         <v>83900471</v>
@@ -4068,35 +4072,35 @@
         <v>79</v>
       </c>
       <c r="B69" s="25">
-        <v>51.986971639772115</v>
+        <v>52.731040025185656</v>
       </c>
       <c r="C69" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="26">
-        <v>4.2827256968079799E-5</v>
+        <v>4.9066989771376188E-5</v>
       </c>
       <c r="E69" s="27">
-        <v>23349.615894039733</v>
+        <v>20380.300578034683</v>
       </c>
       <c r="F69" s="28">
-        <v>6.8000000000000005E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G69" s="25">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="H69" s="28">
-        <v>5.1994160128488467</v>
+        <v>5.2723658798178077</v>
       </c>
       <c r="I69" s="28">
-        <v>4.7222222222222223E-3</v>
+        <v>9.7222222222222219E-4</v>
       </c>
       <c r="J69" s="28">
-        <v>6.9781779503126622E-3</v>
+        <v>1.0297893674247813E-2</v>
       </c>
       <c r="K69"/>
       <c r="L69" s="27">
-        <v>1359</v>
+        <v>1557</v>
       </c>
       <c r="M69" s="29">
         <v>31732128</v>
@@ -4107,35 +4111,35 @@
         <v>80</v>
       </c>
       <c r="B70" s="25">
-        <v>26.126732621423173</v>
+        <v>27.472271820547906</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="26">
-        <v>2.5187963798557617E-2</v>
+        <v>2.0632072115923761E-2</v>
       </c>
       <c r="E70" s="27">
-        <v>39.701502193570121</v>
+        <v>48.468229191008085</v>
       </c>
       <c r="F70" s="28">
-        <v>9.2840000000000007</v>
+        <v>5.3449999999999998</v>
       </c>
       <c r="G70" s="25">
-        <v>29787</v>
+        <v>23707</v>
       </c>
       <c r="H70" s="28">
-        <v>2.6042850874439711</v>
+        <v>2.6979680820534355</v>
       </c>
       <c r="I70" s="28">
-        <v>0.64472222222222231</v>
+        <v>0.37118055555555551</v>
       </c>
       <c r="J70" s="28">
-        <v>2.0180484136501291</v>
+        <v>1.6061326666802165</v>
       </c>
       <c r="K70"/>
       <c r="L70" s="27">
-        <v>261218</v>
+        <v>213970</v>
       </c>
       <c r="M70" s="29">
         <v>10370747</v>
@@ -4146,35 +4150,35 @@
         <v>81</v>
       </c>
       <c r="B71" s="25">
-        <v>28.801876531335228</v>
+        <v>43.516889983282894</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D71" s="26">
-        <v>8.9545635535105955E-3</v>
+        <v>9.6447374242357214E-4</v>
       </c>
       <c r="E71" s="27">
-        <v>111.67490118577075</v>
+        <v>1036.834862385321</v>
       </c>
       <c r="F71" s="28">
-        <v>1.264</v>
+        <v>0</v>
       </c>
       <c r="G71" s="25">
         <v>0</v>
       </c>
       <c r="H71" s="28">
-        <v>2.9065209864668562</v>
+        <v>4.3516889983282896</v>
       </c>
       <c r="I71" s="28">
-        <v>8.7777777777777774E-2</v>
+        <v>0</v>
       </c>
       <c r="J71" s="28">
         <v>0</v>
       </c>
       <c r="K71"/>
       <c r="L71" s="27">
-        <v>1012</v>
+        <v>109</v>
       </c>
       <c r="M71" s="29">
         <v>113015</v>
@@ -4185,35 +4189,35 @@
         <v>82</v>
       </c>
       <c r="B72" s="25">
-        <v>36.218579541735004</v>
+        <v>37.158227046694044</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="26">
-        <v>2.4325107447352497E-3</v>
+        <v>1.6585325439066189E-3</v>
       </c>
       <c r="E72" s="27">
-        <v>411.09787579122832</v>
+        <v>602.94264569842744</v>
       </c>
       <c r="F72" s="28">
-        <v>1.0249999999999999</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="G72" s="25">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="H72" s="28">
-        <v>3.6382867466946549</v>
+        <v>3.7318018713360708</v>
       </c>
       <c r="I72" s="28">
-        <v>7.1180555555555552E-2</v>
+        <v>5.3263888888888888E-2</v>
       </c>
       <c r="J72" s="28">
-        <v>4.9253741455119474E-2</v>
+        <v>0</v>
       </c>
       <c r="K72"/>
       <c r="L72" s="27">
-        <v>44393</v>
+        <v>30268</v>
       </c>
       <c r="M72" s="29">
         <v>18249868</v>
@@ -4224,35 +4228,35 @@
         <v>83</v>
       </c>
       <c r="B73" s="25">
-        <v>55.559358349574978</v>
+        <v>65.52133096004215</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D73" s="26">
-        <v>2.2300860539086631E-5</v>
+        <v>2.5190340808270611E-6</v>
       </c>
       <c r="E73" s="27">
-        <v>44841.318936877076</v>
+        <v>396977.5588235294</v>
       </c>
       <c r="F73" s="28">
-        <v>8.5000000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="G73" s="25">
         <v>0</v>
       </c>
       <c r="H73" s="28">
-        <v>5.5577066682908312</v>
+        <v>6.5521330960042148</v>
       </c>
       <c r="I73" s="28">
-        <v>5.9027777777777785E-3</v>
+        <v>0</v>
       </c>
       <c r="J73" s="28">
         <v>0</v>
       </c>
       <c r="K73"/>
       <c r="L73" s="27">
-        <v>301</v>
+        <v>34</v>
       </c>
       <c r="M73" s="29">
         <v>13497237</v>
@@ -4263,35 +4267,35 @@
         <v>84</v>
       </c>
       <c r="B74" s="25">
-        <v>46.964255866397686</v>
+        <v>52.88259155302206</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="26">
-        <v>1.4934333586373537E-4</v>
+        <v>3.8700266436449697E-5</v>
       </c>
       <c r="E74" s="27">
-        <v>6695.9800664451832</v>
+        <v>25839.615384615383</v>
       </c>
       <c r="F74" s="28">
-        <v>0.14199999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="G74" s="25">
         <v>0</v>
       </c>
       <c r="H74" s="28">
-        <v>4.6993839199731022</v>
+        <v>5.2897383219688727</v>
       </c>
       <c r="I74" s="28">
-        <v>9.8611111111111104E-3</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="J74" s="28">
         <v>0</v>
       </c>
       <c r="K74"/>
       <c r="L74" s="27">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="M74" s="29">
         <v>2015490</v>
@@ -4302,35 +4306,35 @@
         <v>85</v>
       </c>
       <c r="B75" s="25">
-        <v>32.204236794645027</v>
+        <v>43.268424473379945</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D75" s="26">
-        <v>4.3741277366767511E-3</v>
+        <v>3.909764161507423E-4</v>
       </c>
       <c r="E75" s="27">
-        <v>228.6170089673127</v>
+        <v>2557.6990291262136</v>
       </c>
       <c r="F75" s="28">
-        <v>2.169</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="G75" s="25">
         <v>0</v>
       </c>
       <c r="H75" s="28">
-        <v>3.2656111794645026</v>
+        <v>4.3306132806713276</v>
       </c>
       <c r="I75" s="28">
-        <v>0.15062500000000001</v>
+        <v>1.2569444444444444E-2</v>
       </c>
       <c r="J75" s="28">
         <v>0</v>
       </c>
       <c r="K75"/>
       <c r="L75" s="27">
-        <v>3457</v>
+        <v>309</v>
       </c>
       <c r="M75" s="29">
         <v>790329</v>
@@ -4341,35 +4345,35 @@
         <v>86</v>
       </c>
       <c r="B76" s="25">
-        <v>49.818626794436327</v>
+        <v>58.771347796150245</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="26">
-        <v>8.9415035918071913E-5</v>
+        <v>8.4043202364854408E-6</v>
       </c>
       <c r="E76" s="27">
-        <v>11183.801356589147</v>
+        <v>118986.42268041238</v>
       </c>
       <c r="F76" s="28">
-        <v>-0.85399999999999998</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="G76" s="25">
         <v>0</v>
       </c>
       <c r="H76" s="28">
-        <v>4.9640710127769658</v>
+        <v>5.878791456223901</v>
       </c>
       <c r="I76" s="28">
-        <v>-5.9305555555555556E-2</v>
+        <v>6.0416666666666665E-3</v>
       </c>
       <c r="J76" s="28">
-        <v>0</v>
+        <v>1.5582339112348664E-3</v>
       </c>
       <c r="K76"/>
       <c r="L76" s="27">
-        <v>1032</v>
+        <v>97</v>
       </c>
       <c r="M76" s="29">
         <v>11541683</v>
@@ -4380,35 +4384,35 @@
         <v>87</v>
       </c>
       <c r="B77" s="25">
-        <v>45.715014806535578</v>
+        <v>41.69470224969114</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D77" s="26">
-        <v>0</v>
+        <v>3.4800775991717774E-4</v>
       </c>
       <c r="E77" s="27">
-        <v>0</v>
+        <v>2873.4991433466589</v>
       </c>
       <c r="F77" s="28">
-        <v>0</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="G77" s="25">
         <v>0</v>
       </c>
       <c r="H77" s="28">
-        <v>4.5715014806535574</v>
+        <v>4.1774493916357809</v>
       </c>
       <c r="I77" s="28">
-        <v>0</v>
+        <v>2.6597222222222223E-2</v>
       </c>
       <c r="J77" s="28">
         <v>0</v>
       </c>
       <c r="K77"/>
       <c r="L77" s="27">
-        <v>0</v>
+        <v>3502</v>
       </c>
       <c r="M77" s="29">
         <v>10062994</v>
@@ -4419,35 +4423,35 @@
         <v>88</v>
       </c>
       <c r="B78" s="25">
-        <v>47.130617051999401</v>
+        <v>15.376895525936703</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="D78" s="26">
-        <v>3.4808283020866434E-4</v>
+        <v>6.508539879250079E-2</v>
       </c>
       <c r="E78" s="27">
-        <v>2872.8794218333969</v>
+        <v>15.364429173862895</v>
       </c>
       <c r="F78" s="28">
-        <v>5.7000000000000002E-2</v>
+        <v>33.743000000000002</v>
       </c>
       <c r="G78" s="25">
         <v>0</v>
       </c>
       <c r="H78" s="28">
-        <v>4.5896988911819321</v>
+        <v>2.2406687192603369</v>
       </c>
       <c r="I78" s="28">
-        <v>3.9583333333333337E-3</v>
+        <v>2.343263888888889</v>
       </c>
       <c r="J78" s="28">
-        <v>1.2455031401800776</v>
+        <v>0</v>
       </c>
       <c r="K78"/>
       <c r="L78" s="27">
-        <v>2629</v>
+        <v>491577</v>
       </c>
       <c r="M78" s="29">
         <v>7552800</v>
@@ -4458,35 +4462,35 @@
         <v>89</v>
       </c>
       <c r="B79" s="25">
-        <v>24.933038310415601</v>
+        <v>31.983369705774269</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D79" s="26">
-        <v>2.0130759686208307E-2</v>
+        <v>3.9046468182702345E-3</v>
       </c>
       <c r="E79" s="27">
-        <v>49.675224163800706</v>
+        <v>256.10510925620713</v>
       </c>
       <c r="F79" s="28">
-        <v>9.3859999999999992</v>
+        <v>5.8129999999999997</v>
       </c>
       <c r="G79" s="25">
-        <v>3412</v>
+        <v>1307</v>
       </c>
       <c r="H79" s="28">
-        <v>2.66572943638156</v>
+        <v>3.3105863036702501</v>
       </c>
       <c r="I79" s="28">
-        <v>0.65180555555555553</v>
+        <v>0.40368055555555554</v>
       </c>
       <c r="J79" s="28">
-        <v>0.23116061326666801</v>
+        <v>8.8548335738433501E-2</v>
       </c>
       <c r="K79"/>
       <c r="L79" s="27">
-        <v>193943</v>
+        <v>37618</v>
       </c>
       <c r="M79" s="29">
         <v>9634162</v>
@@ -4497,35 +4501,35 @@
         <v>90</v>
       </c>
       <c r="B80" s="25">
-        <v>23.17051510657274</v>
+        <v>20.109187190072014</v>
       </c>
       <c r="C80" t="s">
         <v>162</v>
       </c>
       <c r="D80" s="26">
-        <v>5.6275624200091107E-2</v>
+        <v>0.1008508861363587</v>
       </c>
       <c r="E80" s="27">
-        <v>17.769682952683819</v>
+        <v>9.9156292850805254</v>
       </c>
       <c r="F80" s="28">
-        <v>1.9370000000000001</v>
+        <v>3.4860000000000002</v>
       </c>
       <c r="G80" s="25">
         <v>0</v>
       </c>
       <c r="H80" s="28">
-        <v>2.2749751034196164</v>
+        <v>1.9841419453305145</v>
       </c>
       <c r="I80" s="28">
-        <v>0.13451388888888891</v>
+        <v>0.24208333333333334</v>
       </c>
       <c r="J80" s="28">
-        <v>0.82430573904324433</v>
+        <v>0.99401773676686789</v>
       </c>
       <c r="K80"/>
       <c r="L80" s="27">
-        <v>20754</v>
+        <v>37193</v>
       </c>
       <c r="M80" s="29">
         <v>368792</v>
@@ -4536,35 +4540,35 @@
         <v>91</v>
       </c>
       <c r="B81" s="25">
-        <v>37.332873341407371</v>
+        <v>50.66028201014425</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D81" s="26">
-        <v>1.3731990784360015E-3</v>
+        <v>6.4529508472046767E-5</v>
       </c>
       <c r="E81" s="27">
-        <v>728.22653008109012</v>
+        <v>15496.786256061214</v>
       </c>
       <c r="F81" s="28">
-        <v>0.73</v>
+        <v>0.115</v>
       </c>
       <c r="G81" s="25">
-        <v>1231</v>
+        <v>618</v>
       </c>
       <c r="H81" s="28">
-        <v>3.7401557285839395</v>
+        <v>5.0642371275775711</v>
       </c>
       <c r="I81" s="28">
-        <v>5.0694444444444445E-2</v>
+        <v>7.9861111111111122E-3</v>
       </c>
       <c r="J81" s="28">
-        <v>8.3399388901309601E-2</v>
+        <v>4.1869067701875977E-2</v>
       </c>
       <c r="K81"/>
       <c r="L81" s="27">
-        <v>1913428</v>
+        <v>89916</v>
       </c>
       <c r="M81" s="29">
         <v>1393409033</v>
@@ -4575,35 +4579,35 @@
         <v>92</v>
       </c>
       <c r="B82" s="25">
-        <v>40.288907581615618</v>
+        <v>37.007650167656713</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="26">
-        <v>1.2964310391565422E-3</v>
+        <v>1.5905672169120573E-3</v>
       </c>
       <c r="E82" s="27">
-        <v>771.34839401145462</v>
+        <v>628.70653271818946</v>
       </c>
       <c r="F82" s="28">
-        <v>0.23100000000000001</v>
+        <v>1.109</v>
       </c>
       <c r="G82" s="25">
-        <v>948</v>
+        <v>714</v>
       </c>
       <c r="H82" s="28">
-        <v>4.0272806244752548</v>
+        <v>3.7190318833774607</v>
       </c>
       <c r="I82" s="28">
-        <v>1.6041666666666666E-2</v>
+        <v>7.7013888888888882E-2</v>
       </c>
       <c r="J82" s="28">
-        <v>6.4226336863071887E-2</v>
+        <v>4.8373000548769335E-2</v>
       </c>
       <c r="K82"/>
       <c r="L82" s="27">
-        <v>358284</v>
+        <v>439572</v>
       </c>
       <c r="M82" s="29">
         <v>276361788</v>
@@ -4614,35 +4618,35 @@
         <v>93</v>
       </c>
       <c r="B83" s="25">
-        <v>33.593255284708206</v>
+        <v>37.698021177614379</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D83" s="26">
-        <v>5.1384143435703406E-3</v>
+        <v>1.1955837060307595E-3</v>
       </c>
       <c r="E83" s="27">
-        <v>194.6125658884034</v>
+        <v>836.41153267295567</v>
       </c>
       <c r="F83" s="28">
-        <v>1.1259999999999999</v>
+        <v>1.9039999999999999</v>
       </c>
       <c r="G83" s="25">
-        <v>1195</v>
+        <v>910</v>
       </c>
       <c r="H83" s="28">
-        <v>3.3746878203957817</v>
+        <v>3.8033035980836538</v>
       </c>
       <c r="I83" s="28">
-        <v>7.8194444444444441E-2</v>
+        <v>0.13222222222222221</v>
       </c>
       <c r="J83" s="28">
-        <v>8.0960414083724591E-2</v>
+        <v>6.1651863444509937E-2</v>
       </c>
       <c r="K83"/>
       <c r="L83" s="27">
-        <v>436913</v>
+        <v>101659</v>
       </c>
       <c r="M83" s="29">
         <v>85028760</v>
@@ -4653,35 +4657,35 @@
         <v>94</v>
       </c>
       <c r="B84" s="25">
-        <v>36.437892187635136</v>
+        <v>44.120736820309553</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="26">
-        <v>2.0481867234867302E-3</v>
+        <v>3.1748921929342696E-4</v>
       </c>
       <c r="E84" s="27">
-        <v>488.23673571013597</v>
+        <v>3149.7132476671254</v>
       </c>
       <c r="F84" s="28">
-        <v>0.59299999999999997</v>
+        <v>0.215</v>
       </c>
       <c r="G84" s="25">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="H84" s="28">
-        <v>3.6523358747427284</v>
+        <v>4.4165528486976218</v>
       </c>
       <c r="I84" s="28">
-        <v>4.1180555555555554E-2</v>
+        <v>1.4930555555555555E-2</v>
       </c>
       <c r="J84" s="28">
-        <v>3.8075106874521522E-2</v>
+        <v>0</v>
       </c>
       <c r="K84"/>
       <c r="L84" s="27">
-        <v>84343</v>
+        <v>13074</v>
       </c>
       <c r="M84" s="29">
         <v>41179351</v>
@@ -4692,35 +4696,35 @@
         <v>95</v>
       </c>
       <c r="B85" s="25">
-        <v>28.4590488818273</v>
+        <v>29.996628460756021</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="26">
-        <v>1.437956661416716E-2</v>
+        <v>8.989336338809658E-3</v>
       </c>
       <c r="E85" s="27">
-        <v>69.543125104672583</v>
+        <v>111.24291742013261</v>
       </c>
       <c r="F85" s="28">
         <v>1.806</v>
       </c>
       <c r="G85" s="25">
-        <v>3479</v>
+        <v>2317</v>
       </c>
       <c r="H85" s="28">
-        <v>2.8599599065427905</v>
+        <v>3.0215903331524232</v>
       </c>
       <c r="I85" s="28">
         <v>0.12541666666666668</v>
       </c>
       <c r="J85" s="28">
-        <v>0.23569981639939569</v>
+        <v>0.15697512923179069</v>
       </c>
       <c r="K85"/>
       <c r="L85" s="27">
-        <v>71652</v>
+        <v>44793</v>
       </c>
       <c r="M85" s="29">
         <v>4982904</v>
@@ -4731,35 +4735,35 @@
         <v>96</v>
       </c>
       <c r="B86" s="25">
-        <v>20.406798185718234</v>
+        <v>29.007779174051649</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D86" s="26">
-        <v>7.4042621892153701E-2</v>
+        <v>1.1001183941448714E-2</v>
       </c>
       <c r="E86" s="27">
-        <v>13.505734595089615</v>
+        <v>90.899307322036549</v>
       </c>
       <c r="F86" s="28">
-        <v>5.9349999999999996</v>
+        <v>1.83</v>
       </c>
       <c r="G86" s="25">
-        <v>17635</v>
+        <v>5977</v>
       </c>
       <c r="H86" s="28">
-        <v>2.0448497604937357</v>
+        <v>2.898409160503205</v>
       </c>
       <c r="I86" s="28">
-        <v>0.41215277777777776</v>
+        <v>0.12708333333333333</v>
       </c>
       <c r="J86" s="28">
-        <v>1.1947589141142119</v>
+        <v>0.40493756901959987</v>
       </c>
       <c r="K86"/>
       <c r="L86" s="27">
-        <v>687930</v>
+        <v>102212</v>
       </c>
       <c r="M86" s="29">
         <v>9291000</v>
@@ -4770,35 +4774,35 @@
         <v>97</v>
       </c>
       <c r="B87" s="25">
-        <v>25.313743846356367</v>
+        <v>30.217101902415628</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="26">
-        <v>2.2926751395631599E-2</v>
+        <v>9.3303063830518923E-3</v>
       </c>
       <c r="E87" s="27">
-        <v>43.617169425518227</v>
+        <v>107.17761656963997</v>
       </c>
       <c r="F87" s="28">
-        <v>5.8849999999999998</v>
+        <v>2.589</v>
       </c>
       <c r="G87" s="25">
-        <v>12366</v>
+        <v>6326</v>
       </c>
       <c r="H87" s="28">
-        <v>2.5701997663182583</v>
+        <v>3.032789482752555</v>
       </c>
       <c r="I87" s="28">
-        <v>0.40868055555555555</v>
+        <v>0.17979166666666666</v>
       </c>
       <c r="J87" s="28">
-        <v>0.8377878498404504</v>
+        <v>0.42858207489007671</v>
       </c>
       <c r="K87"/>
       <c r="L87" s="27">
-        <v>1384030</v>
+        <v>563247</v>
       </c>
       <c r="M87" s="29">
         <v>60367471</v>
@@ -4809,35 +4813,35 @@
         <v>98</v>
       </c>
       <c r="B88" s="25">
-        <v>36.859961792482508</v>
+        <v>47.024031755538708</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D88" s="26">
-        <v>1.3876081147161121E-3</v>
+        <v>1.5941014211716848E-4</v>
       </c>
       <c r="E88" s="27">
-        <v>720.66456616577796</v>
+        <v>6273.1265822784808</v>
       </c>
       <c r="F88" s="28">
-        <v>1.4890000000000001</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="G88" s="25">
-        <v>642</v>
+        <v>781</v>
       </c>
       <c r="H88" s="28">
-        <v>3.7126675074902242</v>
+        <v>4.7191327885190546</v>
       </c>
       <c r="I88" s="28">
-        <v>0.10340277777777779</v>
+        <v>7.3402777777777775E-2</v>
       </c>
       <c r="J88" s="28">
-        <v>4.3495050913599322E-2</v>
+        <v>5.2912203681496989E-2</v>
       </c>
       <c r="K88"/>
       <c r="L88" s="27">
-        <v>4126</v>
+        <v>474</v>
       </c>
       <c r="M88" s="29">
         <v>2973462</v>
@@ -4848,35 +4852,35 @@
         <v>99</v>
       </c>
       <c r="B89" s="25">
-        <v>30.282372939498568</v>
+        <v>31.274050259142754</v>
       </c>
       <c r="C89" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="26">
-        <v>9.8592872035492742E-3</v>
+        <v>6.8009090557428929E-3</v>
       </c>
       <c r="E89" s="27">
-        <v>101.42721064459985</v>
+        <v>147.03916664722487</v>
       </c>
       <c r="F89" s="28">
-        <v>1.0029999999999999</v>
+        <v>1.496</v>
       </c>
       <c r="G89" s="25">
-        <v>1693</v>
+        <v>1242</v>
       </c>
       <c r="H89" s="28">
-        <v>3.0376631707104917</v>
+        <v>3.150157229460274</v>
       </c>
       <c r="I89" s="28">
-        <v>6.9652777777777772E-2</v>
+        <v>0.10388888888888889</v>
       </c>
       <c r="J89" s="28">
-        <v>0.11469956572698388</v>
+        <v>8.4144631206682793E-2</v>
       </c>
       <c r="K89"/>
       <c r="L89" s="27">
-        <v>1242771</v>
+        <v>857260</v>
       </c>
       <c r="M89" s="29">
         <v>126050796</v>
@@ -4887,35 +4891,35 @@
         <v>100</v>
       </c>
       <c r="B90" s="25">
-        <v>27.080985910263166</v>
+        <v>32.588328092285082</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="26">
-        <v>2.2692910775729179E-2</v>
+        <v>4.6586714878982631E-3</v>
       </c>
       <c r="E90" s="27">
-        <v>44.06662547096132</v>
+        <v>214.65346989966557</v>
       </c>
       <c r="F90" s="28">
-        <v>2.226</v>
+        <v>0</v>
       </c>
       <c r="G90" s="25">
-        <v>6597</v>
+        <v>0</v>
       </c>
       <c r="H90" s="28">
-        <v>2.7097793774940713</v>
+        <v>3.2345582348634885</v>
       </c>
       <c r="I90" s="28">
-        <v>0.15458333333333332</v>
+        <v>0</v>
       </c>
       <c r="J90" s="28">
-        <v>0.4469421353224528</v>
+        <v>0.24274574365019683</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="27">
-        <v>233034</v>
+        <v>47840</v>
       </c>
       <c r="M90" s="29">
         <v>10269022</v>
@@ -4926,35 +4930,35 @@
         <v>101</v>
       </c>
       <c r="B91" s="25">
-        <v>32.177623374528189</v>
+        <v>45.856285028032943</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D91" s="26">
-        <v>4.3318863879562141E-3</v>
+        <v>1.7383560416401025E-4</v>
       </c>
       <c r="E91" s="27">
-        <v>230.84631277040495</v>
+        <v>5752.5614778921872</v>
       </c>
       <c r="F91" s="28">
-        <v>1.0980000000000001</v>
+        <v>0.188</v>
       </c>
       <c r="G91" s="25">
         <v>0</v>
       </c>
       <c r="H91" s="28">
-        <v>3.2406373374528186</v>
+        <v>4.5895451694699609</v>
       </c>
       <c r="I91" s="28">
-        <v>7.6250000000000012E-2</v>
+        <v>1.3055555555555556E-2</v>
       </c>
       <c r="J91" s="28">
         <v>0</v>
       </c>
       <c r="K91"/>
       <c r="L91" s="27">
-        <v>82284</v>
+        <v>3302</v>
       </c>
       <c r="M91" s="29">
         <v>18994958</v>
@@ -4965,35 +4969,35 @@
         <v>102</v>
       </c>
       <c r="B92" s="25">
-        <v>54.998329508229311</v>
+        <v>61.65133016199637</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D92" s="26">
-        <v>2.5752149167796384E-5</v>
+        <v>5.7833216351407133E-6</v>
       </c>
       <c r="E92" s="27">
-        <v>38831.7104519774</v>
+        <v>172911.01257861636</v>
       </c>
       <c r="F92" s="28">
-        <v>5.7000000000000002E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G92" s="25">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H92" s="28">
-        <v>5.5003429578180461</v>
+        <v>6.164569007507402</v>
       </c>
       <c r="I92" s="28">
-        <v>3.9583333333333337E-3</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="J92" s="28">
-        <v>6.7749300488472459E-3</v>
+        <v>7.7234202556858604E-3</v>
       </c>
       <c r="K92"/>
       <c r="L92" s="27">
-        <v>1416</v>
+        <v>318</v>
       </c>
       <c r="M92" s="29">
         <v>54985702</v>
@@ -5004,35 +5008,35 @@
         <v>103</v>
       </c>
       <c r="B93" s="25">
-        <v>28.428853879344732</v>
+        <v>38.623735798492092</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D93" s="26">
-        <v>1.6920947704880219E-2</v>
+        <v>1.0462319174877252E-3</v>
       </c>
       <c r="E93" s="27">
-        <v>59.098344693281405</v>
+        <v>955.81102362204729</v>
       </c>
       <c r="F93" s="28">
-        <v>1.177</v>
+        <v>2.3540000000000001</v>
       </c>
       <c r="G93" s="25">
         <v>0</v>
       </c>
       <c r="H93" s="28">
-        <v>2.8674062212678066</v>
+        <v>3.911415246515876</v>
       </c>
       <c r="I93" s="28">
-        <v>8.173611111111112E-2</v>
+        <v>0.16347222222222224</v>
       </c>
       <c r="J93" s="28">
         <v>0</v>
       </c>
       <c r="K93"/>
       <c r="L93" s="27">
-        <v>2054</v>
+        <v>127</v>
       </c>
       <c r="M93" s="29">
         <v>121388</v>
@@ -5043,35 +5047,35 @@
         <v>104</v>
       </c>
       <c r="B94" s="25">
-        <v>27.768936088640288</v>
+        <v>36.723017354414175</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D94" s="26">
-        <v>1.6760335382285951E-2</v>
+        <v>1.7666411847099943E-3</v>
       </c>
       <c r="E94" s="27">
-        <v>59.664677179246844</v>
+        <v>566.04590035307967</v>
       </c>
       <c r="F94" s="28">
-        <v>0.46200000000000002</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="G94" s="25">
-        <v>6885</v>
+        <v>2368</v>
       </c>
       <c r="H94" s="28">
-        <v>2.7398732154777155</v>
+        <v>3.6617587010857475</v>
       </c>
       <c r="I94" s="28">
-        <v>3.2083333333333332E-2</v>
+        <v>1.8333333333333333E-2</v>
       </c>
       <c r="J94" s="28">
-        <v>0.46645393386313283</v>
+        <v>0.16043034355670277</v>
       </c>
       <c r="K94"/>
       <c r="L94" s="27">
-        <v>72548</v>
+        <v>7647</v>
       </c>
       <c r="M94" s="29">
         <v>4328553</v>
@@ -5082,35 +5086,35 @@
         <v>105</v>
       </c>
       <c r="B95" s="25">
-        <v>42.249788384647808</v>
+        <v>53.318423051098492</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D95" s="26">
-        <v>4.1337606495254396E-4</v>
+        <v>4.6014488981943766E-5</v>
       </c>
       <c r="E95" s="27">
-        <v>2419.1047445255476</v>
+        <v>21732.285245901639</v>
       </c>
       <c r="F95" s="28">
-        <v>0.45300000000000001</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="G95" s="25">
         <v>0</v>
       </c>
       <c r="H95" s="28">
-        <v>4.234416338464781</v>
+        <v>5.3358839717765161</v>
       </c>
       <c r="I95" s="28">
-        <v>3.1458333333333331E-2</v>
+        <v>1.3472222222222222E-2</v>
       </c>
       <c r="J95" s="28">
         <v>0</v>
       </c>
       <c r="K95"/>
       <c r="L95" s="27">
-        <v>2740</v>
+        <v>305</v>
       </c>
       <c r="M95" s="29">
         <v>6628347</v>
@@ -5121,35 +5125,35 @@
         <v>106</v>
       </c>
       <c r="B96" s="25">
-        <v>40.552173805658057</v>
+        <v>43.745872798284601</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="26">
-        <v>7.9641074467453677E-4</v>
+        <v>4.2835704677832409E-4</v>
       </c>
       <c r="E96" s="27">
-        <v>1255.63348647269</v>
+        <v>2334.5011072445427</v>
       </c>
       <c r="F96" s="28">
-        <v>0.503</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="G96" s="25">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="H96" s="28">
-        <v>4.0646396581448521</v>
+        <v>4.3784014862639662</v>
       </c>
       <c r="I96" s="28">
-        <v>3.4930555555555555E-2</v>
+        <v>1.4791666666666667E-2</v>
       </c>
       <c r="J96" s="28">
-        <v>1.0568890876201702E-2</v>
+        <v>6.2329356449394658E-3</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="27">
-        <v>5877</v>
+        <v>3161</v>
       </c>
       <c r="M96" s="29">
         <v>7379358</v>
@@ -5160,35 +5164,35 @@
         <v>107</v>
       </c>
       <c r="B97" s="25">
-        <v>21.888541741950718</v>
+        <v>21.126637072434779</v>
       </c>
       <c r="C97" t="s">
         <v>162</v>
       </c>
       <c r="D97" s="26">
-        <v>6.6691163158419095E-2</v>
+        <v>5.5095680939979665E-2</v>
       </c>
       <c r="E97" s="27">
-        <v>14.994490313875414</v>
+        <v>18.150243048804199</v>
       </c>
       <c r="F97" s="28">
-        <v>4.8970000000000002</v>
+        <v>7.4989999999999997</v>
       </c>
       <c r="G97" s="25">
-        <v>12593</v>
+        <v>7536</v>
       </c>
       <c r="H97" s="28">
-        <v>2.2055583134232717</v>
+        <v>2.2178370010620316</v>
       </c>
       <c r="I97" s="28">
-        <v>0.34006944444444448</v>
+        <v>0.52076388888888892</v>
       </c>
       <c r="J97" s="28">
-        <v>0.85316694105133362</v>
+        <v>0.51055872848112838</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="27">
-        <v>124508</v>
+        <v>102860</v>
       </c>
       <c r="M97" s="29">
         <v>1866934</v>
@@ -5199,35 +5203,35 @@
         <v>108</v>
       </c>
       <c r="B98" s="25">
-        <v>27.388356142959868</v>
+        <v>33.334443117717164</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="26">
-        <v>1.5832561572344892E-2</v>
+        <v>3.2894819453724699E-3</v>
       </c>
       <c r="E98" s="27">
-        <v>63.160973379489235</v>
+        <v>303.99923653837516</v>
       </c>
       <c r="F98" s="28">
-        <v>2.786</v>
+        <v>1.266</v>
       </c>
       <c r="G98" s="25">
         <v>0</v>
       </c>
       <c r="H98" s="28">
-        <v>2.7968772809626534</v>
+        <v>3.3598193117717168</v>
       </c>
       <c r="I98" s="28">
-        <v>0.19347222222222221</v>
+        <v>8.7916666666666671E-2</v>
       </c>
       <c r="J98" s="28">
         <v>0</v>
       </c>
       <c r="K98"/>
       <c r="L98" s="27">
-        <v>107173</v>
+        <v>22267</v>
       </c>
       <c r="M98" s="29">
         <v>6769151</v>
@@ -5238,35 +5242,35 @@
         <v>109</v>
       </c>
       <c r="B99" s="25">
-        <v>48.43572146891232</v>
+        <v>50.200975274905758</v>
       </c>
       <c r="C99" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="26">
-        <v>1.4960165664150302E-4</v>
+        <v>5.4190073767974776E-5</v>
       </c>
       <c r="E99" s="27">
-        <v>6684.4179566563471</v>
+        <v>18453.564102564102</v>
       </c>
       <c r="F99" s="28">
-        <v>0.13200000000000001</v>
+        <v>0</v>
       </c>
       <c r="G99" s="25">
         <v>0</v>
       </c>
       <c r="H99" s="28">
-        <v>4.8463221468912323</v>
+        <v>5.0200975274905755</v>
       </c>
       <c r="I99" s="28">
-        <v>9.1666666666666667E-3</v>
+        <v>0</v>
       </c>
       <c r="J99" s="28">
         <v>0</v>
       </c>
       <c r="K99"/>
       <c r="L99" s="27">
-        <v>323</v>
+        <v>117</v>
       </c>
       <c r="M99" s="29">
         <v>2159067</v>
@@ -5277,16 +5281,16 @@
         <v>110</v>
       </c>
       <c r="B100" s="25">
-        <v>57.61491818534067</v>
+        <v>63.065315558627042</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D100" s="26">
-        <v>2.2199880776988106E-5</v>
+        <v>6.1773581292488638E-6</v>
       </c>
       <c r="E100" s="27">
-        <v>45045.286956521741</v>
+        <v>161881.5</v>
       </c>
       <c r="F100" s="28">
         <v>0</v>
@@ -5295,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="28">
-        <v>5.7614918185340667</v>
+        <v>6.306531555862704</v>
       </c>
       <c r="I100" s="28">
         <v>0</v>
@@ -5305,7 +5309,7 @@
       </c>
       <c r="K100"/>
       <c r="L100" s="27">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="M100" s="29">
         <v>5180208</v>
@@ -5316,35 +5320,35 @@
         <v>111</v>
       </c>
       <c r="B101" s="25">
-        <v>31.632181176066666</v>
+        <v>37.496439889451906</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D101" s="26">
-        <v>6.7683757708875058E-3</v>
+        <v>1.1854501620886457E-3</v>
       </c>
       <c r="E101" s="27">
-        <v>147.74593400993672</v>
+        <v>843.56140138198566</v>
       </c>
       <c r="F101" s="28">
-        <v>1.2929999999999999</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="G101" s="25">
         <v>0</v>
       </c>
       <c r="H101" s="28">
-        <v>3.1901556176066665</v>
+        <v>3.767602322278524</v>
       </c>
       <c r="I101" s="28">
-        <v>8.9791666666666659E-2</v>
+        <v>5.9861111111111108E-2</v>
       </c>
       <c r="J101" s="28">
         <v>0</v>
       </c>
       <c r="K101"/>
       <c r="L101" s="27">
-        <v>47098</v>
+        <v>8249</v>
       </c>
       <c r="M101" s="29">
         <v>6958538</v>
@@ -5355,35 +5359,35 @@
         <v>112</v>
       </c>
       <c r="B102" s="25">
-        <v>23.3271016910562</v>
+        <v>22.415535861238208</v>
       </c>
       <c r="C102" t="s">
         <v>162</v>
       </c>
       <c r="D102" s="26">
-        <v>4.6766351231243793E-2</v>
+        <v>5.2961781774454958E-2</v>
       </c>
       <c r="E102" s="27">
-        <v>21.382895472330912</v>
+        <v>18.881539980256665</v>
       </c>
       <c r="F102" s="28">
-        <v>0</v>
+        <v>3.734</v>
       </c>
       <c r="G102" s="25">
         <v>0</v>
       </c>
       <c r="H102" s="28">
-        <v>2.3327101691056198</v>
+        <v>2.3193452527904874</v>
       </c>
       <c r="I102" s="28">
-        <v>0</v>
+        <v>0.25930555555555557</v>
       </c>
       <c r="J102" s="28">
         <v>0</v>
       </c>
       <c r="K102"/>
       <c r="L102" s="27">
-        <v>1789</v>
+        <v>2026</v>
       </c>
       <c r="M102" s="29">
         <v>38254</v>
@@ -5394,35 +5398,35 @@
         <v>113</v>
       </c>
       <c r="B103" s="25">
-        <v>22.160035326942531</v>
+        <v>26.186650379454704</v>
       </c>
       <c r="C103" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D103" s="26">
-        <v>5.5030704177389027E-2</v>
+        <v>2.4067777454754184E-2</v>
       </c>
       <c r="E103" s="27">
-        <v>18.171673703766256</v>
+        <v>41.549328843510096</v>
       </c>
       <c r="F103" s="28">
-        <v>5.8419999999999996</v>
+        <v>0</v>
       </c>
       <c r="G103" s="25">
-        <v>9186</v>
+        <v>4281</v>
       </c>
       <c r="H103" s="28">
-        <v>2.2754773585988755</v>
+        <v>2.5896615624063553</v>
       </c>
       <c r="I103" s="28">
-        <v>0.40569444444444441</v>
+        <v>0</v>
       </c>
       <c r="J103" s="28">
-        <v>0.62234507428710795</v>
+        <v>0.29003475539115059</v>
       </c>
       <c r="K103"/>
       <c r="L103" s="27">
-        <v>148025</v>
+        <v>64739</v>
       </c>
       <c r="M103" s="29">
         <v>2689862</v>
@@ -5433,35 +5437,35 @@
         <v>114</v>
       </c>
       <c r="B104" s="25">
-        <v>23.72591851639412</v>
+        <v>28.182259674652887</v>
       </c>
       <c r="C104" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D104" s="26">
-        <v>3.4055644645518218E-2</v>
+        <v>1.5454920653923827E-2</v>
       </c>
       <c r="E104" s="27">
-        <v>29.363707849576759</v>
+        <v>64.70431148710631</v>
       </c>
       <c r="F104" s="28">
-        <v>2.7</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="G104" s="25">
-        <v>5943</v>
+        <v>3910</v>
       </c>
       <c r="H104" s="28">
-        <v>2.3885784423591128</v>
+        <v>2.8339234909742959</v>
       </c>
       <c r="I104" s="28">
-        <v>0.1875</v>
+        <v>0.140625</v>
       </c>
       <c r="J104" s="28">
-        <v>0.40263409280299178</v>
+        <v>0.26489976490992734</v>
       </c>
       <c r="K104"/>
       <c r="L104" s="27">
-        <v>21619</v>
+        <v>9811</v>
       </c>
       <c r="M104" s="29">
         <v>634814</v>
@@ -5472,35 +5476,35 @@
         <v>115</v>
       </c>
       <c r="B105" s="25">
-        <v>48.508908860779314</v>
+        <v>58.264871934209602</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="26">
-        <v>1.4278511459376087E-4</v>
+        <v>1.2593513433004777E-5</v>
       </c>
       <c r="E105" s="27">
-        <v>7003.5311653116532</v>
+        <v>79405.958100558666</v>
       </c>
       <c r="F105" s="28">
-        <v>0.16600000000000001</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G105" s="25">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H105" s="28">
-        <v>4.8540714472792619</v>
+        <v>5.8271011862767965</v>
       </c>
       <c r="I105" s="28">
-        <v>1.1527777777777779E-2</v>
+        <v>2.4305555555555556E-3</v>
       </c>
       <c r="J105" s="28">
-        <v>2.7777213200273708E-3</v>
+        <v>1.1517381083040318E-3</v>
       </c>
       <c r="K105"/>
       <c r="L105" s="27">
-        <v>4059</v>
+        <v>358</v>
       </c>
       <c r="M105" s="29">
         <v>28427333</v>
@@ -5511,35 +5515,35 @@
         <v>116</v>
       </c>
       <c r="B106" s="25">
-        <v>53.229060359279131</v>
+        <v>59.728828270444346</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="26">
-        <v>3.6238373373427636E-5</v>
+        <v>1.0179318363322369E-5</v>
       </c>
       <c r="E106" s="27">
-        <v>27595.05758426966</v>
+        <v>98238.404999999999</v>
       </c>
       <c r="F106" s="28">
-        <v>0.153</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G106" s="25">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H106" s="28">
-        <v>5.3258293136560084</v>
+        <v>5.9731650121964979</v>
       </c>
       <c r="I106" s="28">
-        <v>1.0624999999999999E-2</v>
+        <v>1.5277777777777776E-3</v>
       </c>
       <c r="J106" s="28">
-        <v>2.6422227190504256E-3</v>
+        <v>1.7614818127002839E-3</v>
       </c>
       <c r="K106"/>
       <c r="L106" s="27">
-        <v>712</v>
+        <v>200</v>
       </c>
       <c r="M106" s="29">
         <v>19647681</v>
@@ -5550,35 +5554,35 @@
         <v>117</v>
       </c>
       <c r="B107" s="25">
-        <v>35.814777050271367</v>
+        <v>29.033352792134558</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D107" s="26">
-        <v>3.8141706198660339E-3</v>
+        <v>1.2349175979701121E-2</v>
       </c>
       <c r="E107" s="27">
-        <v>262.1801958180684</v>
+        <v>80.977062894216061</v>
       </c>
       <c r="F107" s="28">
-        <v>0.32700000000000001</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="G107" s="25">
-        <v>6064</v>
+        <v>0</v>
       </c>
       <c r="H107" s="28">
-        <v>3.5472070292109268</v>
+        <v>2.9107966574544131</v>
       </c>
       <c r="I107" s="28">
-        <v>2.2708333333333334E-2</v>
+        <v>0.16312500000000002</v>
       </c>
       <c r="J107" s="28">
-        <v>0.41083175816209699</v>
+        <v>0.41476121759042839</v>
       </c>
       <c r="K107"/>
       <c r="L107" s="27">
-        <v>125014</v>
+        <v>404759</v>
       </c>
       <c r="M107" s="29">
         <v>32776195</v>
@@ -5589,35 +5593,35 @@
         <v>118</v>
       </c>
       <c r="B108" s="25">
-        <v>22.643080656078268</v>
+        <v>29.054312025352722</v>
       </c>
       <c r="C108" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D108" s="26">
-        <v>5.1190169603767335E-2</v>
+        <v>1.079246532504323E-2</v>
       </c>
       <c r="E108" s="27">
-        <v>19.535000718700591</v>
+        <v>92.657235384353157</v>
       </c>
       <c r="F108" s="28">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="G108" s="25">
-        <v>9538</v>
+        <v>3664</v>
       </c>
       <c r="H108" s="28">
-        <v>2.2380221161352551</v>
+        <v>2.8806078588362958</v>
       </c>
       <c r="I108" s="28">
-        <v>0.1277777777777778</v>
+        <v>0</v>
       </c>
       <c r="J108" s="28">
-        <v>0.64619282805905032</v>
+        <v>0.24823343698976308</v>
       </c>
       <c r="K108"/>
       <c r="L108" s="27">
-        <v>27828</v>
+        <v>5867</v>
       </c>
       <c r="M108" s="29">
         <v>543620</v>
@@ -5628,35 +5632,35 @@
         <v>119</v>
       </c>
       <c r="B109" s="25">
-        <v>56.46073449653646</v>
+        <v>65.865398443523532</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D109" s="26">
-        <v>1.448043712124307E-5</v>
+        <v>2.3494748971553327E-6</v>
       </c>
       <c r="E109" s="27">
-        <v>69058.688741721853</v>
+        <v>425627.02040816325</v>
       </c>
       <c r="F109" s="28">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G109" s="25">
         <v>0</v>
       </c>
       <c r="H109" s="28">
-        <v>5.6460734496536462</v>
+        <v>6.5868315110190201</v>
       </c>
       <c r="I109" s="28">
-        <v>0</v>
+        <v>9.7222222222222219E-4</v>
       </c>
       <c r="J109" s="28">
         <v>0</v>
       </c>
       <c r="K109"/>
       <c r="L109" s="27">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="M109" s="29">
         <v>20855724</v>
@@ -5667,35 +5671,35 @@
         <v>120</v>
       </c>
       <c r="B110" s="25">
-        <v>31.586987144446439</v>
+        <v>35.94827103884348</v>
       </c>
       <c r="C110" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D110" s="26">
-        <v>5.256733191242007E-3</v>
+        <v>2.7475295485371054E-3</v>
       </c>
       <c r="E110" s="27">
-        <v>190.23221525985994</v>
+        <v>363.96332863187587</v>
       </c>
       <c r="F110" s="28">
-        <v>4.7060000000000004</v>
+        <v>1.661</v>
       </c>
       <c r="G110" s="25">
-        <v>4094.0000000000005</v>
+        <v>3242</v>
       </c>
       <c r="H110" s="28">
-        <v>3.2290038174913298</v>
+        <v>3.6074669473326519</v>
       </c>
       <c r="I110" s="28">
-        <v>0.32680555555555557</v>
+        <v>0.11534722222222223</v>
       </c>
       <c r="J110" s="28">
-        <v>0.27736563619980625</v>
+        <v>0.21964323218362769</v>
       </c>
       <c r="K110"/>
       <c r="L110" s="27">
-        <v>2713</v>
+        <v>1418</v>
       </c>
       <c r="M110" s="29">
         <v>516100</v>
@@ -5745,35 +5749,35 @@
         <v>122</v>
       </c>
       <c r="B112" s="25">
-        <v>46.745819295424042</v>
+        <v>60.884462193873787</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D112" s="26">
-        <v>1.3046819863835597E-4</v>
+        <v>7.5390933402581303E-6</v>
       </c>
       <c r="E112" s="27">
-        <v>7664.7030497592305</v>
+        <v>132641.94444444444</v>
       </c>
       <c r="F112" s="28">
-        <v>0.26900000000000002</v>
+        <v>0.06</v>
       </c>
       <c r="G112" s="25">
-        <v>470</v>
+        <v>264</v>
       </c>
       <c r="H112" s="28">
-        <v>4.677001879086113</v>
+        <v>6.0879076378544834</v>
       </c>
       <c r="I112" s="28">
-        <v>1.8680555555555558E-2</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="J112" s="28">
-        <v>3.184217122958205E-2</v>
+        <v>1.7885815328956729E-2</v>
       </c>
       <c r="K112"/>
       <c r="L112" s="27">
-        <v>623</v>
+        <v>36</v>
       </c>
       <c r="M112" s="29">
         <v>4775110</v>
@@ -5784,35 +5788,35 @@
         <v>123</v>
       </c>
       <c r="B113" s="25">
-        <v>43.862352790786339</v>
+        <v>27.349024249743323</v>
       </c>
       <c r="C113" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D113" s="26">
-        <v>1.8297069013717304E-4</v>
+        <v>1.7306043215635277E-2</v>
       </c>
       <c r="E113" s="27">
-        <v>5465.3562231759661</v>
+        <v>57.783283419548056</v>
       </c>
       <c r="F113" s="28">
-        <v>0</v>
+        <v>3.3650000000000002</v>
       </c>
       <c r="G113" s="25">
         <v>0</v>
       </c>
       <c r="H113" s="28">
-        <v>4.3862352790786341</v>
+        <v>2.805006591640999</v>
       </c>
       <c r="I113" s="28">
-        <v>0</v>
+        <v>0.23368055555555556</v>
       </c>
       <c r="J113" s="28">
         <v>0</v>
       </c>
       <c r="K113"/>
       <c r="L113" s="27">
-        <v>233</v>
+        <v>22038</v>
       </c>
       <c r="M113" s="29">
         <v>1273428</v>
@@ -5823,35 +5827,35 @@
         <v>124</v>
       </c>
       <c r="B114" s="25">
-        <v>33.672000327095375</v>
+        <v>39.051999811369654</v>
       </c>
       <c r="C114" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D114" s="26">
-        <v>3.168316953296205E-3</v>
+        <v>9.0879765445422316E-4</v>
       </c>
       <c r="E114" s="27">
-        <v>315.62498788501426</v>
+        <v>1100.3549526110389</v>
       </c>
       <c r="F114" s="28">
-        <v>3.4369999999999998</v>
+        <v>1.9430000000000001</v>
       </c>
       <c r="G114" s="25">
         <v>0</v>
       </c>
       <c r="H114" s="28">
-        <v>3.4380792818609773</v>
+        <v>3.9453065266509455</v>
       </c>
       <c r="I114" s="28">
-        <v>0.23868055555555553</v>
+        <v>0.13493055555555555</v>
       </c>
       <c r="J114" s="28">
-        <v>7.2491751522665527E-3</v>
+        <v>3.726211526865985E-3</v>
       </c>
       <c r="K114"/>
       <c r="L114" s="27">
-        <v>412712</v>
+        <v>118382</v>
       </c>
       <c r="M114" s="29">
         <v>130262220</v>
@@ -5901,35 +5905,35 @@
         <v>126</v>
       </c>
       <c r="B116" s="25">
-        <v>27.593446380503497</v>
+        <v>35.70708395310691</v>
       </c>
       <c r="C116" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D116" s="26">
-        <v>1.2048881406054883E-2</v>
+        <v>1.9050577469076359E-3</v>
       </c>
       <c r="E116" s="27">
-        <v>82.995256264824164</v>
+        <v>524.91847117140628</v>
       </c>
       <c r="F116" s="28">
-        <v>5.2539999999999996</v>
+        <v>2.3079999999999998</v>
       </c>
       <c r="G116" s="25">
         <v>0</v>
       </c>
       <c r="H116" s="28">
-        <v>2.8688029713836829</v>
+        <v>3.6187917286440245</v>
       </c>
       <c r="I116" s="28">
-        <v>0.36486111111111108</v>
+        <v>0.16027777777777777</v>
       </c>
       <c r="J116" s="28">
         <v>0</v>
       </c>
       <c r="K116"/>
       <c r="L116" s="27">
-        <v>48485</v>
+        <v>7666</v>
       </c>
       <c r="M116" s="29">
         <v>4024025</v>
@@ -5940,35 +5944,35 @@
         <v>127</v>
       </c>
       <c r="B117" s="25">
-        <v>24.442408465194973</v>
+        <v>30.71585487182762</v>
       </c>
       <c r="C117" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D117" s="26">
-        <v>2.9504048582995952E-2</v>
+        <v>8.1730769230769235E-3</v>
       </c>
       <c r="E117" s="27">
-        <v>33.893653516295025</v>
+        <v>122.35294117647058</v>
       </c>
       <c r="F117" s="28">
-        <v>3.6150000000000002</v>
+        <v>0</v>
       </c>
       <c r="G117" s="25">
         <v>0</v>
       </c>
       <c r="H117" s="28">
-        <v>2.5195533465194973</v>
+        <v>3.0715854871827619</v>
       </c>
       <c r="I117" s="28">
-        <v>0.25104166666666666</v>
+        <v>0</v>
       </c>
       <c r="J117" s="28">
         <v>0</v>
       </c>
       <c r="K117"/>
       <c r="L117" s="27">
-        <v>1166</v>
+        <v>323</v>
       </c>
       <c r="M117" s="29">
         <v>39520</v>
@@ -5979,35 +5983,35 @@
         <v>128</v>
       </c>
       <c r="B118" s="25">
-        <v>27.11830962226227</v>
+        <v>33.696123661314857</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="26">
-        <v>1.342842090276522E-2</v>
+        <v>3.0952619814122082E-3</v>
       </c>
       <c r="E118" s="27">
-        <v>74.468919855950972</v>
+        <v>323.0744298884037</v>
       </c>
       <c r="F118" s="28">
-        <v>0.94399999999999995</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="G118" s="25">
-        <v>3269</v>
+        <v>1833</v>
       </c>
       <c r="H118" s="28">
-        <v>2.7093503825632119</v>
+        <v>3.3607772526852822</v>
       </c>
       <c r="I118" s="28">
-        <v>6.5555555555555547E-2</v>
+        <v>1.1944444444444443E-2</v>
       </c>
       <c r="J118" s="28">
-        <v>0.22147246329681647</v>
+        <v>0.12418446779537001</v>
       </c>
       <c r="K118"/>
       <c r="L118" s="27">
-        <v>44707</v>
+        <v>10305</v>
       </c>
       <c r="M118" s="29">
         <v>3329282</v>
@@ -6018,35 +6022,35 @@
         <v>129</v>
       </c>
       <c r="B119" s="25">
-        <v>26.471707744289926</v>
+        <v>34.326253256223367</v>
       </c>
       <c r="C119" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="26">
-        <v>1.3369933333439481E-2</v>
+        <v>2.6797186852660056E-3</v>
       </c>
       <c r="E119" s="27">
-        <v>74.794688579254498</v>
+        <v>373.17349970291144</v>
       </c>
       <c r="F119" s="28">
-        <v>7.5060000000000002</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="G119" s="25">
         <v>0</v>
       </c>
       <c r="H119" s="28">
-        <v>2.8035457744289927</v>
+        <v>3.4800211589556698</v>
       </c>
       <c r="I119" s="28">
-        <v>0.52124999999999999</v>
+        <v>0.1579861111111111</v>
       </c>
       <c r="J119" s="28">
         <v>0</v>
       </c>
       <c r="K119"/>
       <c r="L119" s="27">
-        <v>8397</v>
+        <v>1683</v>
       </c>
       <c r="M119" s="29">
         <v>628051</v>
@@ -6057,35 +6061,35 @@
         <v>130</v>
       </c>
       <c r="B120" s="25">
-        <v>39.031438604116595</v>
+        <v>51.806918769381923</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D120" s="26">
-        <v>8.6563621316142463E-4</v>
+        <v>4.3433103527943538E-5</v>
       </c>
       <c r="E120" s="27">
-        <v>1155.2196925170911</v>
+        <v>23023.913070283601</v>
       </c>
       <c r="F120" s="28">
-        <v>0.81100000000000005</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="G120" s="25">
-        <v>408</v>
+        <v>224</v>
       </c>
       <c r="H120" s="28">
-        <v>3.9172755222850633</v>
+        <v>5.1813201259405837</v>
       </c>
       <c r="I120" s="28">
-        <v>5.631944444444445E-2</v>
+        <v>7.152777777777777E-3</v>
       </c>
       <c r="J120" s="28">
-        <v>2.7641714599296759E-2</v>
+        <v>1.5175843309417831E-2</v>
       </c>
       <c r="K120"/>
       <c r="L120" s="27">
-        <v>32327</v>
+        <v>1622</v>
       </c>
       <c r="M120" s="29">
         <v>37344787</v>
@@ -6096,35 +6100,35 @@
         <v>131</v>
       </c>
       <c r="B121" s="25">
-        <v>52.857277943787139</v>
+        <v>61.642507372188504</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D121" s="26">
-        <v>3.5630954718373216E-5</v>
+        <v>5.067928114393398E-6</v>
       </c>
       <c r="E121" s="27">
-        <v>28065.484293193716</v>
+        <v>197319.29447852759</v>
       </c>
       <c r="F121" s="28">
-        <v>3.5999999999999997E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G121" s="25">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H121" s="28">
-        <v>5.2860916233659294</v>
+        <v>6.164368289876994</v>
       </c>
       <c r="I121" s="28">
-        <v>2.4999999999999996E-3</v>
+        <v>1.2499999999999998E-3</v>
       </c>
       <c r="J121" s="28">
-        <v>3.8617101278429302E-3</v>
+        <v>2.5744734185619532E-3</v>
       </c>
       <c r="K121"/>
       <c r="L121" s="27">
-        <v>1146</v>
+        <v>163</v>
       </c>
       <c r="M121" s="29">
         <v>32163045</v>
@@ -6135,35 +6139,35 @@
         <v>132</v>
       </c>
       <c r="B122" s="25">
-        <v>50.604207054337017</v>
+        <v>42.50613132664067</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D122" s="26">
-        <v>1.3197456760858398E-4</v>
+        <v>4.5281526950673699E-4</v>
       </c>
       <c r="E122" s="27">
-        <v>7577.217475459699</v>
+        <v>2208.406092597816</v>
       </c>
       <c r="F122" s="28">
-        <v>0</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="G122" s="25">
-        <v>403</v>
+        <v>319</v>
       </c>
       <c r="H122" s="28">
-        <v>5.0576904086240164</v>
+        <v>4.249639429978485</v>
       </c>
       <c r="I122" s="28">
-        <v>0</v>
+        <v>3.9583333333333337E-3</v>
       </c>
       <c r="J122" s="28">
-        <v>2.7302968096854403E-2</v>
+        <v>2.1612026855822714E-2</v>
       </c>
       <c r="K122"/>
       <c r="L122" s="27">
-        <v>7233</v>
+        <v>24817</v>
       </c>
       <c r="M122" s="29">
         <v>54806014</v>
@@ -6174,35 +6178,35 @@
         <v>133</v>
       </c>
       <c r="B123" s="25">
-        <v>43.636523147878634</v>
+        <v>49.038240262865038</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D123" s="26">
-        <v>3.6330692787661786E-4</v>
+        <v>1.0048915026374537E-4</v>
       </c>
       <c r="E123" s="27">
-        <v>2752.4936170212768</v>
+        <v>9951.3230769230777</v>
       </c>
       <c r="F123" s="28">
-        <v>0.82799999999999996</v>
+        <v>0.221</v>
       </c>
       <c r="G123" s="25">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="H123" s="28">
-        <v>4.3781110436077384</v>
+        <v>4.9055759474026059</v>
       </c>
       <c r="I123" s="28">
-        <v>5.7499999999999996E-2</v>
+        <v>1.5347222222222222E-2</v>
       </c>
       <c r="J123" s="28">
-        <v>2.7912711801250649E-2</v>
+        <v>2.8522455505646905E-2</v>
       </c>
       <c r="K123"/>
       <c r="L123" s="27">
-        <v>940</v>
+        <v>260</v>
       </c>
       <c r="M123" s="29">
         <v>2587344</v>
@@ -6213,35 +6217,35 @@
         <v>134</v>
       </c>
       <c r="B124" s="25">
-        <v>37.754959778495014</v>
+        <v>52.313769683274998</v>
       </c>
       <c r="C124" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D124" s="26">
-        <v>1.0853609714870335E-3</v>
+        <v>4.2931876480206182E-5</v>
       </c>
       <c r="E124" s="27">
-        <v>921.35245901639348</v>
+        <v>23292.715855572998</v>
       </c>
       <c r="F124" s="28">
-        <v>0.41399999999999998</v>
+        <v>2.4E-2</v>
       </c>
       <c r="G124" s="25">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="H124" s="28">
-        <v>3.7823188464565081</v>
+        <v>5.2302035606054345</v>
       </c>
       <c r="I124" s="28">
-        <v>2.8749999999999998E-2</v>
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="J124" s="28">
-        <v>1.8021313929933676E-2</v>
+        <v>1.6734077220652697E-2</v>
       </c>
       <c r="K124"/>
       <c r="L124" s="27">
-        <v>32208</v>
+        <v>1274</v>
       </c>
       <c r="M124" s="29">
         <v>29674920</v>
@@ -6252,35 +6256,35 @@
         <v>135</v>
       </c>
       <c r="B125" s="25">
-        <v>22.164942318092255</v>
+        <v>24.101923127106271</v>
       </c>
       <c r="C125" t="s">
         <v>162</v>
       </c>
       <c r="D125" s="26">
-        <v>8.1054933956571831E-2</v>
+        <v>4.6949431476937122E-2</v>
       </c>
       <c r="E125" s="27">
-        <v>12.337311884502761</v>
+        <v>21.299512444388768</v>
       </c>
       <c r="F125" s="28">
-        <v>0.433</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="G125" s="25">
-        <v>7775</v>
+        <v>0</v>
       </c>
       <c r="H125" s="28">
-        <v>2.1728399840127715</v>
+        <v>2.3861864977034797</v>
       </c>
       <c r="I125" s="28">
-        <v>3.0069444444444444E-2</v>
+        <v>4.9652777777777775E-2</v>
       </c>
       <c r="J125" s="28">
-        <v>0.52675081129787338</v>
+        <v>0.38901648340480882</v>
       </c>
       <c r="K125"/>
       <c r="L125" s="27">
-        <v>1391964</v>
+        <v>806267</v>
       </c>
       <c r="M125" s="29">
         <v>17173094</v>
@@ -6291,35 +6295,35 @@
         <v>136</v>
       </c>
       <c r="B126" s="25">
-        <v>43.175386047469779</v>
+        <v>23.665900659548285</v>
       </c>
       <c r="C126" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D126" s="26">
-        <v>6.4803074342118102E-4</v>
+        <v>4.8827809531240857E-2</v>
       </c>
       <c r="E126" s="27">
-        <v>1543.1366646598433</v>
+        <v>20.480132318042717</v>
       </c>
       <c r="F126" s="28">
-        <v>0</v>
+        <v>0.502</v>
       </c>
       <c r="G126" s="25">
-        <v>3682</v>
+        <v>1617</v>
       </c>
       <c r="H126" s="28">
-        <v>4.2925933123071225</v>
+        <v>2.3660933373991759</v>
       </c>
       <c r="I126" s="28">
-        <v>0</v>
+        <v>3.4861111111111114E-2</v>
       </c>
       <c r="J126" s="28">
-        <v>0.24945292439855557</v>
+        <v>0.10955061888985997</v>
       </c>
       <c r="K126"/>
       <c r="L126" s="27">
-        <v>3322</v>
+        <v>250306</v>
       </c>
       <c r="M126" s="29">
         <v>5126300</v>
@@ -6330,16 +6334,16 @@
         <v>137</v>
       </c>
       <c r="B127" s="25">
-        <v>57.450604021412296</v>
+        <v>55.134300341622847</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
       </c>
       <c r="D127" s="26">
-        <v>2.1037306305716223E-5</v>
+        <v>2.9690950034308715E-5</v>
       </c>
       <c r="E127" s="27">
-        <v>47534.602836879436</v>
+        <v>33680.296482412057</v>
       </c>
       <c r="F127" s="28">
         <v>2.1000000000000001E-2</v>
@@ -6348,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="28">
-        <v>5.7454979021412296</v>
+        <v>5.5138675341622845</v>
       </c>
       <c r="I127" s="28">
         <v>1.4583333333333334E-3</v>
@@ -6358,7 +6362,7 @@
       </c>
       <c r="K127"/>
       <c r="L127" s="27">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="M127" s="29">
         <v>6702379</v>
@@ -6369,35 +6373,35 @@
         <v>138</v>
       </c>
       <c r="B128" s="25">
-        <v>63.430724687136355</v>
+        <v>69.621365790757338</v>
       </c>
       <c r="C128" t="s">
         <v>11</v>
       </c>
       <c r="D128" s="26">
-        <v>2.8252173328277124E-6</v>
+        <v>1.1141702157630415E-6</v>
       </c>
       <c r="E128" s="27">
-        <v>353955.07042253518</v>
+        <v>897528.92857142852</v>
       </c>
       <c r="F128" s="28">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G128" s="25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H128" s="28">
-        <v>6.3433016353803025</v>
+        <v>6.9620281801949524</v>
       </c>
       <c r="I128" s="28">
-        <v>7.6388888888888882E-4</v>
+        <v>0</v>
       </c>
       <c r="J128" s="28">
-        <v>0</v>
+        <v>1.0839888078155594E-3</v>
       </c>
       <c r="K128"/>
       <c r="L128" s="27">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M128" s="29">
         <v>25130810</v>
@@ -6408,35 +6412,35 @@
         <v>139</v>
       </c>
       <c r="B129" s="25">
-        <v>61.867311913646866</v>
+        <v>67.149600963955677</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="26">
-        <v>5.307456308187129E-6</v>
+        <v>2.0482429424643734E-6</v>
       </c>
       <c r="E129" s="27">
-        <v>188414.17468805704</v>
+        <v>488223.33487297921</v>
       </c>
       <c r="F129" s="28">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="G129" s="25">
         <v>0</v>
       </c>
       <c r="H129" s="28">
-        <v>6.1864883109693016</v>
+        <v>6.7144452017118548</v>
       </c>
       <c r="I129" s="28">
-        <v>1.3888888888888889E-4</v>
+        <v>0</v>
       </c>
       <c r="J129" s="28">
-        <v>2.8454706205158433E-3</v>
+        <v>5.1489468371239064E-3</v>
       </c>
       <c r="K129"/>
       <c r="L129" s="27">
-        <v>1122</v>
+        <v>433</v>
       </c>
       <c r="M129" s="29">
         <v>211400704</v>
@@ -6447,35 +6451,35 @@
         <v>140</v>
       </c>
       <c r="B130" s="25">
-        <v>27.099219513367977</v>
+        <v>34.470491210428136</v>
       </c>
       <c r="C130" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="26">
-        <v>9.766831952007551E-3</v>
+        <v>2.4017350879475823E-3</v>
       </c>
       <c r="E130" s="27">
-        <v>102.38734575487932</v>
+        <v>416.36565373850465</v>
       </c>
       <c r="F130" s="28">
-        <v>13.17</v>
+        <v>4.5960000000000001</v>
       </c>
       <c r="G130" s="25">
-        <v>0</v>
+        <v>1142</v>
       </c>
       <c r="H130" s="28">
-        <v>2.9842969513367978</v>
+        <v>3.5350621509270304</v>
       </c>
       <c r="I130" s="28">
-        <v>0.9145833333333333</v>
+        <v>0.31916666666666665</v>
       </c>
       <c r="J130" s="28">
-        <v>0</v>
+        <v>7.7369701157835535E-2</v>
       </c>
       <c r="K130"/>
       <c r="L130" s="27">
-        <v>20341</v>
+        <v>5002</v>
       </c>
       <c r="M130" s="29">
         <v>2082661</v>
@@ -6486,35 +6490,35 @@
         <v>141</v>
       </c>
       <c r="B131" s="25">
-        <v>23.139386370707413</v>
+        <v>25.400241257061417</v>
       </c>
       <c r="C131" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D131" s="26">
-        <v>4.9824640494259671E-2</v>
+        <v>2.5458369018460637E-2</v>
       </c>
       <c r="E131" s="27">
-        <v>20.070390675778395</v>
+        <v>39.279814008307824</v>
       </c>
       <c r="F131" s="28">
-        <v>1.202</v>
+        <v>0</v>
       </c>
       <c r="G131" s="25">
-        <v>5312</v>
+        <v>0</v>
       </c>
       <c r="H131" s="28">
-        <v>2.3029918753179315</v>
+        <v>2.5272398327039669</v>
       </c>
       <c r="I131" s="28">
-        <v>8.3472222222222225E-2</v>
+        <v>0</v>
       </c>
       <c r="J131" s="28">
-        <v>0.3598842841947657</v>
+        <v>0.12784293002174751</v>
       </c>
       <c r="K131"/>
       <c r="L131" s="27">
-        <v>272323</v>
+        <v>139146</v>
       </c>
       <c r="M131" s="29">
         <v>5465629</v>
@@ -6525,35 +6529,35 @@
         <v>142</v>
       </c>
       <c r="B132" s="25">
-        <v>32.245357723592804</v>
+        <v>37.696239529523403</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D132" s="26">
-        <v>5.7878276425055364E-3</v>
+        <v>1.222389504412472E-3</v>
       </c>
       <c r="E132" s="27">
-        <v>172.7763958719238</v>
+        <v>818.06985121378227</v>
       </c>
       <c r="F132" s="28">
-        <v>1.012</v>
+        <v>5.5E-2</v>
       </c>
       <c r="G132" s="25">
         <v>0</v>
       </c>
       <c r="H132" s="28">
-        <v>3.2456191056926138</v>
+        <v>3.7707697862856735</v>
       </c>
       <c r="I132" s="28">
-        <v>7.0277777777777772E-2</v>
+        <v>3.8194444444444443E-3</v>
       </c>
       <c r="J132" s="28">
         <v>0</v>
       </c>
       <c r="K132"/>
       <c r="L132" s="27">
-        <v>30232</v>
+        <v>6385</v>
       </c>
       <c r="M132" s="29">
         <v>5223376</v>
@@ -6564,35 +6568,35 @@
         <v>143</v>
       </c>
       <c r="B133" s="25">
-        <v>44.180205191061802</v>
+        <v>52.455400875998791</v>
       </c>
       <c r="C133" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D133" s="26">
-        <v>3.3527097604013899E-4</v>
+        <v>4.912079701410563E-5</v>
       </c>
       <c r="E133" s="27">
-        <v>2982.662000185423</v>
+        <v>20357.975863315856</v>
       </c>
       <c r="F133" s="28">
-        <v>0.16900000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="G133" s="25">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="H133" s="28">
-        <v>4.4198611697873993</v>
+        <v>5.2451159905286815</v>
       </c>
       <c r="I133" s="28">
-        <v>1.1736111111111112E-2</v>
+        <v>2.2222222222222222E-3</v>
       </c>
       <c r="J133" s="28">
-        <v>1.6801826521141171E-2</v>
+        <v>1.0907637378644065E-2</v>
       </c>
       <c r="K133"/>
       <c r="L133" s="27">
-        <v>75503</v>
+        <v>11062</v>
       </c>
       <c r="M133" s="29">
         <v>225199929</v>
@@ -6603,35 +6607,35 @@
         <v>144</v>
       </c>
       <c r="B134" s="25">
-        <v>27.456676673851316</v>
+        <v>34.296453566020674</v>
       </c>
       <c r="C134" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="26">
-        <v>1.9086474650548486E-2</v>
+        <v>2.4416227754082329E-3</v>
       </c>
       <c r="E134" s="27">
-        <v>52.393122266361701</v>
+        <v>409.56367628607273</v>
       </c>
       <c r="F134" s="28">
-        <v>2.38</v>
+        <v>1.4219999999999999</v>
       </c>
       <c r="G134" s="25">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="H134" s="28">
-        <v>2.7705157311101236</v>
+        <v>3.4569872051756056</v>
       </c>
       <c r="I134" s="28">
-        <v>0.16527777777777777</v>
+        <v>9.8749999999999991E-2</v>
       </c>
       <c r="J134" s="28">
-        <v>0.24735269608341293</v>
+        <v>2.2831514264615219E-2</v>
       </c>
       <c r="K134"/>
       <c r="L134" s="27">
-        <v>99684</v>
+        <v>12752</v>
       </c>
       <c r="M134" s="29">
         <v>5222756</v>
@@ -6642,35 +6646,35 @@
         <v>145</v>
       </c>
       <c r="B135" s="25">
-        <v>26.771297369060743</v>
+        <v>38.034812645955967</v>
       </c>
       <c r="C135" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D135" s="26">
-        <v>1.3586642088030742E-2</v>
+        <v>1.1934043015960213E-3</v>
       </c>
       <c r="E135" s="27">
-        <v>73.601703314239643</v>
+        <v>837.93899407152423</v>
       </c>
       <c r="F135" s="28">
-        <v>3.9449999999999998</v>
+        <v>0.88</v>
       </c>
       <c r="G135" s="25">
-        <v>3251</v>
+        <v>1399</v>
       </c>
       <c r="H135" s="28">
-        <v>2.7372919393172719</v>
+        <v>3.8123364707905925</v>
       </c>
       <c r="I135" s="28">
-        <v>0.2739583333333333</v>
+        <v>6.1111111111111109E-2</v>
       </c>
       <c r="J135" s="28">
-        <v>0.22025297588802395</v>
+        <v>9.4781271383372973E-2</v>
       </c>
       <c r="K135"/>
       <c r="L135" s="27">
-        <v>59531</v>
+        <v>5229</v>
       </c>
       <c r="M135" s="29">
         <v>4381583</v>
@@ -6681,35 +6685,35 @@
         <v>146</v>
       </c>
       <c r="B136" s="25">
-        <v>48.768782707357403</v>
+        <v>48.59637721321225</v>
       </c>
       <c r="C136" t="s">
         <v>15</v>
       </c>
       <c r="D136" s="26">
-        <v>1.7830892734459517E-4</v>
+        <v>8.6083953238319316E-5</v>
       </c>
       <c r="E136" s="27">
-        <v>5608.2441574415743</v>
+        <v>11616.566878980891</v>
       </c>
       <c r="F136" s="28">
-        <v>0.20399999999999999</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G136" s="25">
         <v>0</v>
       </c>
       <c r="H136" s="28">
-        <v>4.88112827073574</v>
+        <v>4.859971054654558</v>
       </c>
       <c r="I136" s="28">
-        <v>1.4166666666666666E-2</v>
+        <v>1.1111111111111111E-3</v>
       </c>
       <c r="J136" s="28">
         <v>0</v>
       </c>
       <c r="K136"/>
       <c r="L136" s="27">
-        <v>1626</v>
+        <v>785</v>
       </c>
       <c r="M136" s="29">
         <v>9119005</v>
@@ -6720,35 +6724,35 @@
         <v>147</v>
       </c>
       <c r="B137" s="25">
-        <v>28.678637243980344</v>
+        <v>39.274832927453474</v>
       </c>
       <c r="C137" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D137" s="26">
-        <v>8.1595469913254698E-3</v>
+        <v>8.7331212175231429E-4</v>
       </c>
       <c r="E137" s="27">
-        <v>122.55582338861633</v>
+        <v>1145.0659793814432</v>
       </c>
       <c r="F137" s="28">
-        <v>6.431</v>
+        <v>1.524</v>
       </c>
       <c r="G137" s="25">
-        <v>1426</v>
+        <v>312</v>
       </c>
       <c r="H137" s="28">
-        <v>2.9921818408150447</v>
+        <v>3.957119514570107</v>
       </c>
       <c r="I137" s="28">
-        <v>0.4465972222222222</v>
+        <v>0.10583333333333333</v>
       </c>
       <c r="J137" s="28">
-        <v>9.6610502496561723E-2</v>
+        <v>2.1137781752403405E-2</v>
       </c>
       <c r="K137"/>
       <c r="L137" s="27">
-        <v>58909</v>
+        <v>6305</v>
       </c>
       <c r="M137" s="29">
         <v>7219641</v>
@@ -6759,35 +6763,35 @@
         <v>148</v>
       </c>
       <c r="B138" s="25">
-        <v>28.429679609858063</v>
+        <v>39.980764345311812</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D138" s="26">
-        <v>8.3105773887221946E-3</v>
+        <v>7.4941362131200444E-4</v>
       </c>
       <c r="E138" s="27">
-        <v>120.32858286802579</v>
+        <v>1334.3766000000001</v>
       </c>
       <c r="F138" s="28">
-        <v>4.8390000000000004</v>
+        <v>1.9570000000000001</v>
       </c>
       <c r="G138" s="25">
-        <v>2633</v>
+        <v>1177</v>
       </c>
       <c r="H138" s="28">
-        <v>2.9259420701671917</v>
+        <v>4.030873175197021</v>
       </c>
       <c r="I138" s="28">
-        <v>0.33604166666666668</v>
+        <v>0.13590277777777779</v>
       </c>
       <c r="J138" s="28">
-        <v>0.17838390818614797</v>
+        <v>7.9740926674932086E-2</v>
       </c>
       <c r="K138"/>
       <c r="L138" s="27">
-        <v>277236</v>
+        <v>25000</v>
       </c>
       <c r="M138" s="29">
         <v>33359415</v>
@@ -6798,35 +6802,35 @@
         <v>149</v>
       </c>
       <c r="B139" s="25">
-        <v>37.764041450063985</v>
+        <v>48.783354211039558</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D139" s="26">
-        <v>1.2078499077552E-3</v>
+        <v>1.0753113256370663E-4</v>
       </c>
       <c r="E139" s="27">
-        <v>827.91743707503281</v>
+        <v>9299.6323590989032</v>
       </c>
       <c r="F139" s="28">
-        <v>0.79100000000000004</v>
+        <v>0.92600000000000005</v>
       </c>
       <c r="G139" s="25">
         <v>0</v>
       </c>
       <c r="H139" s="28">
-        <v>3.7903901374150895</v>
+        <v>4.8976270877706227</v>
       </c>
       <c r="I139" s="28">
-        <v>5.4930555555555559E-2</v>
+        <v>6.430555555555556E-2</v>
       </c>
       <c r="J139" s="28">
-        <v>2.4931742579757863E-2</v>
+        <v>0</v>
       </c>
       <c r="K139"/>
       <c r="L139" s="27">
-        <v>134128</v>
+        <v>11941</v>
       </c>
       <c r="M139" s="29">
         <v>111046910</v>
@@ -6837,35 +6841,35 @@
         <v>150</v>
       </c>
       <c r="B140" s="25">
-        <v>26.899796236694591</v>
+        <v>32.422251885206514</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="26">
-        <v>1.5899436463211365E-2</v>
+        <v>4.4293727015371591E-3</v>
       </c>
       <c r="E140" s="27">
-        <v>62.895310932172514</v>
+        <v>225.76560325414982</v>
       </c>
       <c r="F140" s="28">
-        <v>5.3140000000000001</v>
+        <v>3.9910000000000001</v>
       </c>
       <c r="G140" s="25">
-        <v>3532</v>
+        <v>1741</v>
       </c>
       <c r="H140" s="28">
-        <v>2.776758904070264</v>
+        <v>3.3135758686389418</v>
       </c>
       <c r="I140" s="28">
-        <v>0.36902777777777779</v>
+        <v>0.2771527777777778</v>
       </c>
       <c r="J140" s="28">
-        <v>0.23929052932528472</v>
+        <v>0.11795153215043055</v>
       </c>
       <c r="K140"/>
       <c r="L140" s="27">
-        <v>600951</v>
+        <v>167417</v>
       </c>
       <c r="M140" s="29">
         <v>37797000</v>
@@ -6876,35 +6880,35 @@
         <v>151</v>
       </c>
       <c r="B141" s="25">
-        <v>22.001008071299246</v>
+        <v>28.39952057599891</v>
       </c>
       <c r="C141" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D141" s="26">
-        <v>5.7228698525746115E-2</v>
+        <v>1.4672416382382125E-2</v>
       </c>
       <c r="E141" s="27">
-        <v>17.473750509110719</v>
+        <v>68.155099605866425</v>
       </c>
       <c r="F141" s="28">
-        <v>4.5519999999999996</v>
+        <v>2.0230000000000001</v>
       </c>
       <c r="G141" s="25">
-        <v>16370.000000000002</v>
+        <v>5784</v>
       </c>
       <c r="H141" s="28">
-        <v>2.1840285355636286</v>
+        <v>2.8429116955306917</v>
       </c>
       <c r="I141" s="28">
-        <v>0.31611111111111106</v>
+        <v>0.14048611111111112</v>
       </c>
       <c r="J141" s="28">
-        <v>1.1090560489962942</v>
+        <v>0.3918619540253247</v>
       </c>
       <c r="K141"/>
       <c r="L141" s="27">
-        <v>581897</v>
+        <v>149188</v>
       </c>
       <c r="M141" s="29">
         <v>10167923</v>
@@ -6915,35 +6919,35 @@
         <v>152</v>
       </c>
       <c r="B142" s="25">
-        <v>31.443811982982755</v>
+        <v>39.244885734812847</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D142" s="26">
-        <v>5.5020876812474492E-3</v>
+        <v>1.0513478135650825E-3</v>
       </c>
       <c r="E142" s="27">
-        <v>181.74919374844953</v>
+        <v>951.16001298279787</v>
       </c>
       <c r="F142" s="28">
-        <v>0.19500000000000001</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="G142" s="25">
-        <v>0</v>
+        <v>5803</v>
       </c>
       <c r="H142" s="28">
-        <v>3.1484436982982755</v>
+        <v>3.8871944877411573</v>
       </c>
       <c r="I142" s="28">
-        <v>1.3541666666666667E-2</v>
+        <v>6.7361111111111111E-3</v>
       </c>
       <c r="J142" s="28">
-        <v>0</v>
+        <v>0.39314919073460564</v>
       </c>
       <c r="K142"/>
       <c r="L142" s="27">
-        <v>16124</v>
+        <v>3081</v>
       </c>
       <c r="M142" s="29">
         <v>2930524</v>
@@ -6954,35 +6958,35 @@
         <v>153</v>
       </c>
       <c r="B143" s="25">
-        <v>25.831097130709953</v>
+        <v>32.394885964482476</v>
       </c>
       <c r="C143" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="26">
-        <v>2.0599680924678523E-2</v>
+        <v>3.9908463986291767E-3</v>
       </c>
       <c r="E143" s="27">
-        <v>48.544441229766569</v>
+        <v>250.57341228254035</v>
       </c>
       <c r="F143" s="28">
-        <v>6.5570000000000004</v>
+        <v>3.3159999999999998</v>
       </c>
       <c r="G143" s="25">
-        <v>4285</v>
+        <v>0</v>
       </c>
       <c r="H143" s="28">
-        <v>2.6906833044783514</v>
+        <v>3.2933622118219192</v>
       </c>
       <c r="I143" s="28">
-        <v>0.45534722222222224</v>
+        <v>0.23027777777777778</v>
       </c>
       <c r="J143" s="28">
-        <v>0.29030575259310448</v>
+        <v>0.15209717959662067</v>
       </c>
       <c r="K143"/>
       <c r="L143" s="27">
-        <v>394026</v>
+        <v>76336</v>
       </c>
       <c r="M143" s="29">
         <v>19127772</v>
@@ -6993,35 +6997,35 @@
         <v>154</v>
       </c>
       <c r="B144" s="25">
-        <v>28.652676771619078</v>
+        <v>29.094386079405144</v>
       </c>
       <c r="C144" t="s">
         <v>17</v>
       </c>
       <c r="D144" s="26">
-        <v>1.4437117456983771E-2</v>
+        <v>8.5410439997877629E-3</v>
       </c>
       <c r="E144" s="27">
-        <v>69.265904567138008</v>
+        <v>117.08170570539727</v>
       </c>
       <c r="F144" s="28">
-        <v>4.5599999999999996</v>
+        <v>4.7080000000000002</v>
       </c>
       <c r="G144" s="25">
-        <v>7122</v>
+        <v>2104</v>
       </c>
       <c r="H144" s="28">
-        <v>2.9120166253540178</v>
+        <v>2.9932674884510733</v>
       </c>
       <c r="I144" s="28">
-        <v>0.31666666666666665</v>
+        <v>0.32694444444444448</v>
       </c>
       <c r="J144" s="28">
-        <v>0.48251051807890083</v>
+        <v>0.14254452822774605</v>
       </c>
       <c r="K144"/>
       <c r="L144" s="27">
-        <v>2106549</v>
+        <v>1246241</v>
       </c>
       <c r="M144" s="29">
         <v>145912022</v>
@@ -7032,35 +7036,35 @@
         <v>155</v>
       </c>
       <c r="B145" s="25">
-        <v>51.377846875418193</v>
+        <v>59.2175636919482</v>
       </c>
       <c r="C145" t="s">
         <v>15</v>
       </c>
       <c r="D145" s="26">
-        <v>4.556918053130953E-5</v>
+        <v>8.13466363203542E-6</v>
       </c>
       <c r="E145" s="27">
-        <v>21944.656198347107</v>
+        <v>122930.71296296296</v>
       </c>
       <c r="F145" s="28">
-        <v>5.3999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="G145" s="25">
-        <v>863</v>
+        <v>788</v>
       </c>
       <c r="H145" s="28">
-        <v>5.133062922909664</v>
+        <v>5.916646890982995</v>
       </c>
       <c r="I145" s="28">
-        <v>3.7499999999999999E-3</v>
+        <v>7.6388888888888882E-4</v>
       </c>
       <c r="J145" s="28">
-        <v>5.8467646321551728E-2</v>
+        <v>5.3386448784916295E-2</v>
       </c>
       <c r="K145"/>
       <c r="L145" s="27">
-        <v>605</v>
+        <v>108</v>
       </c>
       <c r="M145" s="29">
         <v>13276517</v>
@@ -7071,35 +7075,35 @@
         <v>156</v>
       </c>
       <c r="B146" s="25">
-        <v>32.969285737717342</v>
+        <v>46.05146505334762</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D146" s="26">
-        <v>2.3717924774959848E-3</v>
+        <v>2.4278190714525829E-4</v>
       </c>
       <c r="E146" s="27">
-        <v>421.62204724409446</v>
+        <v>4118.9230769230771</v>
       </c>
       <c r="F146" s="28">
-        <v>5.3360000000000003</v>
+        <v>0</v>
       </c>
       <c r="G146" s="25">
-        <v>1401</v>
+        <v>654</v>
       </c>
       <c r="H146" s="28">
-        <v>3.3986035634399663</v>
+        <v>4.6007157010828159</v>
       </c>
       <c r="I146" s="28">
-        <v>0.37055555555555558</v>
+        <v>0</v>
       </c>
       <c r="J146" s="28">
-        <v>9.4916769984349919E-2</v>
+        <v>4.4308042519460987E-2</v>
       </c>
       <c r="K146"/>
       <c r="L146" s="27">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="M146" s="29">
         <v>53546</v>
@@ -7110,35 +7114,35 @@
         <v>157</v>
       </c>
       <c r="B147" s="25">
-        <v>27.80244699828156</v>
+        <v>38.109904629548183</v>
       </c>
       <c r="C147" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D147" s="26">
-        <v>7.8958357058801203E-3</v>
+        <v>1.0574779963232303E-3</v>
       </c>
       <c r="E147" s="27">
-        <v>126.64903846153845</v>
+        <v>945.64615384615388</v>
       </c>
       <c r="F147" s="28">
-        <v>10.071</v>
+        <v>3.0990000000000002</v>
       </c>
       <c r="G147" s="25">
-        <v>0</v>
+        <v>884</v>
       </c>
       <c r="H147" s="28">
-        <v>2.990057199828156</v>
+        <v>3.8695639247916374</v>
       </c>
       <c r="I147" s="28">
-        <v>0.69937499999999997</v>
+        <v>0.21520833333333333</v>
       </c>
       <c r="J147" s="28">
-        <v>0</v>
+        <v>5.9890381631809653E-2</v>
       </c>
       <c r="K147"/>
       <c r="L147" s="27">
-        <v>1456</v>
+        <v>195</v>
       </c>
       <c r="M147" s="29">
         <v>184401</v>
@@ -7149,16 +7153,16 @@
         <v>158</v>
       </c>
       <c r="B148" s="25">
-        <v>23.301173863082312</v>
+        <v>28.132540174254572</v>
       </c>
       <c r="C148" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D148" s="26">
-        <v>3.3962918038468203E-2</v>
+        <v>3.2230116097730029E-2</v>
       </c>
       <c r="E148" s="27">
-        <v>29.44387755102041</v>
+        <v>31.026881720430108</v>
       </c>
       <c r="F148" s="28">
         <v>0</v>
@@ -7167,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="H148" s="28">
-        <v>2.3301173863082312</v>
+        <v>2.8132540174254572</v>
       </c>
       <c r="I148" s="28">
         <v>0</v>
@@ -7177,7 +7181,7 @@
       </c>
       <c r="K148"/>
       <c r="L148" s="27">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="M148" s="29">
         <v>5771</v>
@@ -7188,35 +7192,35 @@
         <v>159</v>
       </c>
       <c r="B149" s="25">
-        <v>30.667810028898401</v>
+        <v>45.535625085334402</v>
       </c>
       <c r="C149" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D149" s="26">
-        <v>0</v>
+        <v>1.6177012465286829E-4</v>
       </c>
       <c r="E149" s="27">
-        <v>0</v>
+        <v>6181.6111111111104</v>
       </c>
       <c r="F149" s="28">
-        <v>7.7030000000000003</v>
+        <v>0</v>
       </c>
       <c r="G149" s="25">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="H149" s="28">
-        <v>3.2247669952985309</v>
+        <v>4.5530137391994838</v>
       </c>
       <c r="I149" s="28">
-        <v>0.53493055555555558</v>
+        <v>0</v>
       </c>
       <c r="J149" s="28">
-        <v>2.4931742579757863E-2</v>
+        <v>5.4876933395662693E-3</v>
       </c>
       <c r="K149"/>
       <c r="L149" s="27">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M149" s="29">
         <v>111269</v>
@@ -7227,16 +7231,16 @@
         <v>160</v>
       </c>
       <c r="B150" s="25">
-        <v>52.488410117620454</v>
+        <v>55.90126050854736</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
       </c>
       <c r="D150" s="26">
-        <v>1.9985610360540412E-5</v>
+        <v>5.9956831081621233E-5</v>
       </c>
       <c r="E150" s="27">
-        <v>50036</v>
+        <v>16678.666666666668</v>
       </c>
       <c r="F150" s="28">
         <v>0</v>
@@ -7245,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="28">
-        <v>5.2488410117620452</v>
+        <v>5.5901260508547361</v>
       </c>
       <c r="I150" s="28">
         <v>0</v>
@@ -7255,7 +7259,7 @@
       </c>
       <c r="K150"/>
       <c r="L150" s="27">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M150" s="29">
         <v>200144</v>
@@ -7266,35 +7270,35 @@
         <v>161</v>
       </c>
       <c r="B151" s="25">
-        <v>21.897657218516393</v>
+        <v>29.894923374460227</v>
       </c>
       <c r="C151" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D151" s="26">
-        <v>4.7721258453396059E-2</v>
+        <v>1.0643928256395178E-2</v>
       </c>
       <c r="E151" s="27">
-        <v>20.955021565003079</v>
+        <v>93.950276243093924</v>
       </c>
       <c r="F151" s="28">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="G151" s="25">
         <v>0</v>
       </c>
       <c r="H151" s="28">
-        <v>2.2772657218516392</v>
+        <v>2.9894923374460225</v>
       </c>
       <c r="I151" s="28">
-        <v>0.29166666666666669</v>
+        <v>0</v>
       </c>
       <c r="J151" s="28">
         <v>0</v>
       </c>
       <c r="K151"/>
       <c r="L151" s="27">
-        <v>1623</v>
+        <v>362</v>
       </c>
       <c r="M151" s="29">
         <v>34010</v>
@@ -7305,35 +7309,35 @@
         <v>163</v>
       </c>
       <c r="B152" s="25">
-        <v>44.56509390308112</v>
+        <v>53.249381910459775</v>
       </c>
       <c r="C152" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D152" s="26">
-        <v>2.1937286223384252E-4</v>
+        <v>3.1338980319120359E-5</v>
       </c>
       <c r="E152" s="27">
-        <v>4558.4489795918362</v>
+        <v>31909.142857142859</v>
       </c>
       <c r="F152" s="28">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="G152" s="25">
         <v>0</v>
       </c>
       <c r="H152" s="28">
-        <v>4.4698427236414453</v>
+        <v>5.3249381910459777</v>
       </c>
       <c r="I152" s="28">
-        <v>4.4444444444444446E-2</v>
+        <v>0</v>
       </c>
       <c r="J152" s="28">
         <v>0</v>
       </c>
       <c r="K152"/>
       <c r="L152" s="27">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="M152" s="29">
         <v>223364</v>
@@ -7344,35 +7348,35 @@
         <v>164</v>
       </c>
       <c r="B153" s="25">
-        <v>38.275771015528392</v>
+        <v>46.799523468168545</v>
       </c>
       <c r="C153" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D153" s="26">
-        <v>1.4432376513411739E-3</v>
+        <v>1.6326793938316976E-4</v>
       </c>
       <c r="E153" s="27">
-        <v>692.8865797470836</v>
+        <v>6124.9012131715772</v>
       </c>
       <c r="F153" s="28">
-        <v>7.2999999999999995E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G153" s="25">
-        <v>3517</v>
+        <v>1026</v>
       </c>
       <c r="H153" s="28">
-        <v>3.8052705059043768</v>
+        <v>4.6738346019200705</v>
       </c>
       <c r="I153" s="28">
-        <v>5.0694444444444441E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="J153" s="28">
-        <v>0.23827428981795762</v>
+        <v>6.9510782301172747E-2</v>
       </c>
       <c r="K153"/>
       <c r="L153" s="27">
-        <v>51005</v>
+        <v>5770</v>
       </c>
       <c r="M153" s="29">
         <v>35340680</v>
@@ -7383,35 +7387,35 @@
         <v>165</v>
       </c>
       <c r="B154" s="25">
-        <v>52.881529678709377</v>
+        <v>59.782630218010503</v>
       </c>
       <c r="C154" t="s">
         <v>15</v>
       </c>
       <c r="D154" s="26">
-        <v>3.4833058351827612E-5</v>
+        <v>8.4320425058681201E-6</v>
       </c>
       <c r="E154" s="27">
-        <v>28708.36060100167</v>
+        <v>118595.22758620689</v>
       </c>
       <c r="F154" s="28">
-        <v>0.05</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G154" s="25">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H154" s="28">
-        <v>5.2886323153435502</v>
+        <v>5.9781022937840049</v>
       </c>
       <c r="I154" s="28">
-        <v>3.4722222222222225E-3</v>
+        <v>1.1805555555555556E-3</v>
       </c>
       <c r="J154" s="28">
-        <v>5.6231919405432141E-3</v>
+        <v>5.1489468371239064E-3</v>
       </c>
       <c r="K154"/>
       <c r="L154" s="27">
-        <v>599</v>
+        <v>145</v>
       </c>
       <c r="M154" s="29">
         <v>17196308</v>
@@ -7422,35 +7426,35 @@
         <v>166</v>
       </c>
       <c r="B155" s="25">
-        <v>23.391372073899543</v>
+        <v>31.524423304359946</v>
       </c>
       <c r="C155" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D155" s="26">
-        <v>2.9196191192463649E-2</v>
+        <v>5.0439879113102189E-3</v>
       </c>
       <c r="E155" s="27">
-        <v>34.25104300105172</v>
+        <v>198.25582804385459</v>
       </c>
       <c r="F155" s="28">
-        <v>8.8770000000000007</v>
+        <v>3.8879999999999999</v>
       </c>
       <c r="G155" s="25">
-        <v>4172</v>
+        <v>1898</v>
       </c>
       <c r="H155" s="28">
-        <v>2.4958096992261636</v>
+        <v>3.2205835132032825</v>
       </c>
       <c r="I155" s="28">
-        <v>0.61645833333333333</v>
+        <v>0.27</v>
       </c>
       <c r="J155" s="28">
-        <v>0.28265008163790706</v>
+        <v>0.12858817232712072</v>
       </c>
       <c r="K155"/>
       <c r="L155" s="27">
-        <v>200623</v>
+        <v>34660</v>
       </c>
       <c r="M155" s="29">
         <v>6871547</v>
@@ -7461,35 +7465,35 @@
         <v>167</v>
       </c>
       <c r="B156" s="25">
-        <v>24.470224081582472</v>
+        <v>34.283821721475093</v>
       </c>
       <c r="C156" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D156" s="26">
-        <v>1.7531088868668488E-2</v>
+        <v>3.5790112223233242E-3</v>
       </c>
       <c r="E156" s="27">
-        <v>57.041522491349475</v>
+        <v>279.40677966101697</v>
       </c>
       <c r="F156" s="28">
-        <v>4.3330000000000002</v>
+        <v>0</v>
       </c>
       <c r="G156" s="25">
         <v>0</v>
       </c>
       <c r="H156" s="28">
-        <v>2.5372932414915805</v>
+        <v>3.4283821721475096</v>
       </c>
       <c r="I156" s="28">
-        <v>0.3009027777777778</v>
+        <v>0</v>
       </c>
       <c r="J156" s="28">
         <v>0</v>
       </c>
       <c r="K156"/>
       <c r="L156" s="27">
-        <v>1734</v>
+        <v>354</v>
       </c>
       <c r="M156" s="29">
         <v>98910</v>
@@ -7500,16 +7504,16 @@
         <v>168</v>
       </c>
       <c r="B157" s="25">
-        <v>63.27656057227064</v>
+        <v>74.767662866246354</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="26">
-        <v>4.5447047250066729E-6</v>
+        <v>2.4565971486522553E-7</v>
       </c>
       <c r="E157" s="27">
-        <v>220036.29729729728</v>
+        <v>4070671.5000000005</v>
       </c>
       <c r="F157" s="28">
         <v>0</v>
@@ -7518,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="H157" s="28">
-        <v>6.3276560572270641</v>
+        <v>7.4767662866246347</v>
       </c>
       <c r="I157" s="28">
         <v>0</v>
@@ -7528,7 +7532,7 @@
       </c>
       <c r="K157"/>
       <c r="L157" s="27">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="M157" s="29">
         <v>8141343</v>
@@ -7539,35 +7543,35 @@
         <v>169</v>
       </c>
       <c r="B158" s="25">
-        <v>30.787212119214313</v>
+        <v>24.455503274074541</v>
       </c>
       <c r="C158" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D158" s="26">
-        <v>1.9541037113099603E-2</v>
+        <v>4.4110312454158723E-2</v>
       </c>
       <c r="E158" s="27">
-        <v>51.174356520188802</v>
+        <v>22.670435650149649</v>
       </c>
       <c r="F158" s="28">
-        <v>0.57599999999999996</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="G158" s="25">
         <v>0</v>
       </c>
       <c r="H158" s="28">
-        <v>2.7962963018586278</v>
+        <v>2.3505572357189384</v>
       </c>
       <c r="I158" s="28">
-        <v>3.9999999999999994E-2</v>
+        <v>0.121875</v>
       </c>
       <c r="J158" s="28">
-        <v>2.9442491006280358</v>
+        <v>1.315555916885158</v>
       </c>
       <c r="K158"/>
       <c r="L158" s="27">
-        <v>106569</v>
+        <v>240560</v>
       </c>
       <c r="M158" s="29">
         <v>5453600</v>
@@ -7578,35 +7582,35 @@
         <v>170</v>
       </c>
       <c r="B159" s="25">
-        <v>23.393627035505936</v>
+        <v>23.762369096458432</v>
       </c>
       <c r="C159" t="s">
         <v>162</v>
       </c>
       <c r="D159" s="26">
-        <v>5.1764364768124904E-2</v>
+        <v>3.2051449093181292E-2</v>
       </c>
       <c r="E159" s="27">
-        <v>19.318309120172433</v>
+        <v>31.199837395581049</v>
       </c>
       <c r="F159" s="28">
-        <v>3.7749999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="G159" s="25">
-        <v>12138</v>
+        <v>5748</v>
       </c>
       <c r="H159" s="28">
-        <v>2.3357744359510191</v>
+        <v>2.4497946117250691</v>
       </c>
       <c r="I159" s="28">
-        <v>0.26215277777777779</v>
+        <v>0.375</v>
       </c>
       <c r="J159" s="28">
-        <v>0.82234100932907872</v>
+        <v>0.38942297920773972</v>
       </c>
       <c r="K159"/>
       <c r="L159" s="27">
-        <v>282078</v>
+        <v>174657</v>
       </c>
       <c r="M159" s="29">
         <v>5449270</v>
@@ -7617,35 +7621,35 @@
         <v>171</v>
       </c>
       <c r="B160" s="25">
-        <v>18.598923546575577</v>
+        <v>28.681953937978506</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D160" s="26">
-        <v>8.2713762247302786E-2</v>
+        <v>1.2011701414762814E-2</v>
       </c>
       <c r="E160" s="27">
-        <v>12.089886529525007</v>
+        <v>83.252152669309936</v>
       </c>
       <c r="F160" s="28">
-        <v>9.4149999999999991</v>
+        <v>3.5049999999999999</v>
       </c>
       <c r="G160" s="25">
-        <v>1239</v>
+        <v>5387</v>
       </c>
       <c r="H160" s="28">
-        <v>2.0476440496603692</v>
+        <v>2.9047196789580436</v>
       </c>
       <c r="I160" s="28">
-        <v>0.6538194444444444</v>
+        <v>0.24340277777777777</v>
       </c>
       <c r="J160" s="28">
-        <v>8.3941383305217374E-2</v>
+        <v>0.36496548173140109</v>
       </c>
       <c r="K160"/>
       <c r="L160" s="27">
-        <v>171939</v>
+        <v>24969</v>
       </c>
       <c r="M160" s="29">
         <v>2078723</v>
@@ -7656,35 +7660,35 @@
         <v>172</v>
       </c>
       <c r="B161" s="25">
-        <v>32.79049994035514</v>
+        <v>35.346524417516711</v>
       </c>
       <c r="C161" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D161" s="26">
-        <v>4.8977620579691615E-3</v>
+        <v>2.6093935326245215E-3</v>
       </c>
       <c r="E161" s="27">
-        <v>204.17488399071925</v>
+        <v>383.23081110506257</v>
       </c>
       <c r="F161" s="28">
-        <v>5.8849999999999998</v>
+        <v>1.42</v>
       </c>
       <c r="G161" s="25">
         <v>0</v>
       </c>
       <c r="H161" s="28">
-        <v>3.4016541607021806</v>
+        <v>3.5642357750850042</v>
       </c>
       <c r="I161" s="28">
-        <v>0.40868055555555555</v>
+        <v>9.8611111111111108E-2</v>
       </c>
       <c r="J161" s="28">
         <v>0</v>
       </c>
       <c r="K161"/>
       <c r="L161" s="27">
-        <v>3448</v>
+        <v>1837</v>
       </c>
       <c r="M161" s="29">
         <v>703995</v>
@@ -7695,35 +7699,35 @@
         <v>173</v>
       </c>
       <c r="B162" s="25">
-        <v>51.287870959934942</v>
+        <v>62.657680738285919</v>
       </c>
       <c r="C162" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D162" s="26">
-        <v>4.9818148476420432E-5</v>
+        <v>5.3180109416546958E-6</v>
       </c>
       <c r="E162" s="27">
-        <v>20073.006134969324</v>
+        <v>188040.22988505749</v>
       </c>
       <c r="F162" s="28">
-        <v>4.3999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="G162" s="25">
         <v>0</v>
       </c>
       <c r="H162" s="28">
-        <v>5.1297037626601609</v>
+        <v>6.2657680738285917</v>
       </c>
       <c r="I162" s="28">
-        <v>3.0555555555555553E-3</v>
+        <v>0</v>
       </c>
       <c r="J162" s="28">
         <v>0</v>
       </c>
       <c r="K162"/>
       <c r="L162" s="27">
-        <v>815</v>
+        <v>87</v>
       </c>
       <c r="M162" s="29">
         <v>16359500</v>
@@ -7734,35 +7738,35 @@
         <v>174</v>
       </c>
       <c r="B163" s="25">
-        <v>41.082591524025673</v>
+        <v>43.757889738027927</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="26">
-        <v>6.7139673371284991E-4</v>
+        <v>3.7858501572799147E-4</v>
       </c>
       <c r="E163" s="27">
-        <v>1489.432327842826</v>
+        <v>2641.414632000352</v>
       </c>
       <c r="F163" s="28">
-        <v>2.76</v>
+        <v>0.433</v>
       </c>
       <c r="G163" s="25">
-        <v>516</v>
+        <v>420</v>
       </c>
       <c r="H163" s="28">
-        <v>4.1622632884973623</v>
+        <v>4.38196433651561</v>
       </c>
       <c r="I163" s="28">
-        <v>0.19166666666666665</v>
+        <v>3.0069444444444444E-2</v>
       </c>
       <c r="J163" s="28">
-        <v>3.4958639052051786E-2</v>
+        <v>2.8454706205158432E-2</v>
       </c>
       <c r="K163"/>
       <c r="L163" s="27">
-        <v>40312</v>
+        <v>22731</v>
       </c>
       <c r="M163" s="29">
         <v>60041996</v>
@@ -7773,35 +7777,35 @@
         <v>175</v>
       </c>
       <c r="B164" s="25">
-        <v>31.984495790227474</v>
+        <v>22.675908203729708</v>
       </c>
       <c r="C164" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D164" s="26">
-        <v>8.687328750248708E-3</v>
+        <v>6.1544443540052403E-2</v>
       </c>
       <c r="E164" s="27">
-        <v>115.11018274419179</v>
+        <v>16.248420531241162</v>
       </c>
       <c r="F164" s="28">
-        <v>0.49</v>
+        <v>3.6059999999999999</v>
       </c>
       <c r="G164" s="25">
-        <v>4360</v>
+        <v>10610</v>
       </c>
       <c r="H164" s="28">
-        <v>3.1791192173431067</v>
+        <v>2.2708338125547014</v>
       </c>
       <c r="I164" s="28">
-        <v>3.4027777777777775E-2</v>
+        <v>0.25041666666666668</v>
       </c>
       <c r="J164" s="28">
-        <v>0.29538695012973992</v>
+        <v>0.71882007818269278</v>
       </c>
       <c r="K164"/>
       <c r="L164" s="27">
-        <v>445705</v>
+        <v>3157549</v>
       </c>
       <c r="M164" s="29">
         <v>51305184</v>
@@ -7812,35 +7816,35 @@
         <v>176</v>
       </c>
       <c r="B165" s="25">
-        <v>59.02492538919055</v>
+        <v>60.992950293183611</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D165" s="26">
-        <v>9.9284998642958587E-6</v>
+        <v>8.2591060818036333E-6</v>
       </c>
       <c r="E165" s="27">
-        <v>100720.15044247787</v>
+        <v>121078.47872340427</v>
       </c>
       <c r="F165" s="28">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G165" s="25">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H165" s="28">
-        <v>5.9021605673466615</v>
+        <v>6.099186466568959</v>
       </c>
       <c r="I165" s="28">
-        <v>0</v>
+        <v>9.0277777777777774E-4</v>
       </c>
       <c r="J165" s="28">
-        <v>3.3197157239351505E-3</v>
+        <v>3.7939608273544578E-3</v>
       </c>
       <c r="K165"/>
       <c r="L165" s="27">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="M165" s="29">
         <v>11381377</v>
@@ -7851,35 +7855,35 @@
         <v>177</v>
       </c>
       <c r="B166" s="25">
-        <v>25.458910845613921</v>
+        <v>31.835997096023039</v>
       </c>
       <c r="C166" t="s">
         <v>17</v>
       </c>
       <c r="D166" s="26">
-        <v>1.9146089639000666E-2</v>
+        <v>5.4364499499210735E-3</v>
       </c>
       <c r="E166" s="27">
-        <v>52.229986323838979</v>
+        <v>183.94356780834855</v>
       </c>
       <c r="F166" s="28">
-        <v>4.7859999999999996</v>
+        <v>2.5609999999999999</v>
       </c>
       <c r="G166" s="25">
-        <v>3157</v>
+        <v>0</v>
       </c>
       <c r="H166" s="28">
-        <v>2.6242109637305147</v>
+        <v>3.2241424835466006</v>
       </c>
       <c r="I166" s="28">
-        <v>0.33236111111111111</v>
+        <v>0.17784722222222221</v>
       </c>
       <c r="J166" s="28">
-        <v>0.21388454164210755</v>
+        <v>0.12811392722370141</v>
       </c>
       <c r="K166"/>
       <c r="L166" s="27">
-        <v>894988</v>
+        <v>254128</v>
       </c>
       <c r="M166" s="29">
         <v>46745211</v>
@@ -7890,35 +7894,35 @@
         <v>178</v>
       </c>
       <c r="B167" s="25">
-        <v>40.689100017184323</v>
+        <v>41.880905087038194</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
       </c>
       <c r="D167" s="26">
-        <v>8.1131096147582396E-4</v>
+        <v>6.1077420584700244E-4</v>
       </c>
       <c r="E167" s="27">
-        <v>1232.5730176022018</v>
+        <v>1637.2662604722009</v>
       </c>
       <c r="F167" s="28">
-        <v>1.3819999999999999</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="G167" s="25">
-        <v>381</v>
+        <v>303</v>
       </c>
       <c r="H167" s="28">
-        <v>4.0951204200364879</v>
+        <v>4.1980793715656857</v>
       </c>
       <c r="I167" s="28">
-        <v>9.5972222222222209E-2</v>
+        <v>4.0138888888888884E-2</v>
       </c>
       <c r="J167" s="28">
-        <v>2.5812483486108005E-2</v>
+        <v>2.0528038048007152E-2</v>
       </c>
       <c r="K167"/>
       <c r="L167" s="27">
-        <v>17441</v>
+        <v>13130</v>
       </c>
       <c r="M167" s="29">
         <v>21497306</v>
@@ -7929,35 +7933,35 @@
         <v>179</v>
       </c>
       <c r="B168" s="25">
-        <v>50.488111392348102</v>
+        <v>57.028077227627293</v>
       </c>
       <c r="C168" t="s">
         <v>15</v>
       </c>
       <c r="D168" s="26">
-        <v>5.2305365089778296E-5</v>
+        <v>5.9453096973055786E-6</v>
       </c>
       <c r="E168" s="27">
-        <v>19118.497658578119</v>
+        <v>168199.81647940076</v>
       </c>
       <c r="F168" s="28">
-        <v>0.56000000000000005</v>
+        <v>0</v>
       </c>
       <c r="G168" s="25">
         <v>0</v>
       </c>
       <c r="H168" s="28">
-        <v>5.0604778059014768</v>
+        <v>5.7028077227627296</v>
       </c>
       <c r="I168" s="28">
-        <v>3.888888888888889E-2</v>
+        <v>0</v>
       </c>
       <c r="J168" s="28">
         <v>0</v>
       </c>
       <c r="K168"/>
       <c r="L168" s="27">
-        <v>2349</v>
+        <v>267</v>
       </c>
       <c r="M168" s="29">
         <v>44909351</v>
@@ -7968,35 +7972,35 @@
         <v>180</v>
       </c>
       <c r="B169" s="25">
-        <v>29.7156794422724</v>
+        <v>38.827837508960215</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D169" s="26">
-        <v>7.02097675220261E-3</v>
+        <v>1.1642486118574244E-3</v>
       </c>
       <c r="E169" s="27">
-        <v>142.4303249097473</v>
+        <v>858.92307692307691</v>
       </c>
       <c r="F169" s="28">
-        <v>4.8280000000000003</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="G169" s="25">
-        <v>250</v>
+        <v>412</v>
       </c>
       <c r="H169" s="28">
-        <v>3.0704575450483613</v>
+        <v>3.8900549797158965</v>
       </c>
       <c r="I169" s="28">
-        <v>0.33527777777777779</v>
+        <v>3.3541666666666664E-2</v>
       </c>
       <c r="J169" s="28">
-        <v>1.6937325122118114E-2</v>
+        <v>2.7912711801250649E-2</v>
       </c>
       <c r="K169"/>
       <c r="L169" s="27">
-        <v>4155</v>
+        <v>689</v>
       </c>
       <c r="M169" s="29">
         <v>591798</v>
@@ -8007,35 +8011,35 @@
         <v>181</v>
       </c>
       <c r="B170" s="25">
-        <v>22.90941361986259</v>
+        <v>34.246567420117451</v>
       </c>
       <c r="C170" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D170" s="26">
-        <v>3.6842828936043223E-2</v>
+        <v>2.6819462175739573E-3</v>
       </c>
       <c r="E170" s="27">
-        <v>27.142323998407818</v>
+        <v>372.86355462585783</v>
       </c>
       <c r="F170" s="28">
-        <v>4.1479999999999997</v>
+        <v>4.556</v>
       </c>
       <c r="G170" s="25">
         <v>0</v>
       </c>
       <c r="H170" s="28">
-        <v>2.3441337716933788</v>
+        <v>3.5149867810353421</v>
       </c>
       <c r="I170" s="28">
-        <v>0.28805555555555551</v>
+        <v>0.31638888888888889</v>
       </c>
       <c r="J170" s="28">
-        <v>0.33224256959546894</v>
+        <v>4.5866276430695858E-2</v>
       </c>
       <c r="K170"/>
       <c r="L170" s="27">
-        <v>374329</v>
+        <v>27249</v>
       </c>
       <c r="M170" s="29">
         <v>10160159</v>
@@ -8046,35 +8050,35 @@
         <v>182</v>
       </c>
       <c r="B171" s="25">
-        <v>22.786051010860167</v>
+        <v>25.799087677764621</v>
       </c>
       <c r="C171" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D171" s="26">
-        <v>4.8671939880860451E-2</v>
+        <v>3.3630336960819435E-2</v>
       </c>
       <c r="E171" s="27">
-        <v>20.545719000471475</v>
+        <v>29.735057402637278</v>
       </c>
       <c r="F171" s="28">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="G171" s="25">
-        <v>8089</v>
+        <v>6130</v>
       </c>
       <c r="H171" s="28">
-        <v>2.2740110252542247</v>
+        <v>2.5383784465770285</v>
       </c>
       <c r="I171" s="28">
-        <v>0.16736111111111113</v>
+        <v>0</v>
       </c>
       <c r="J171" s="28">
-        <v>0.54802409165125376</v>
+        <v>0.41530321199433617</v>
       </c>
       <c r="K171"/>
       <c r="L171" s="27">
-        <v>424200</v>
+        <v>293105</v>
       </c>
       <c r="M171" s="29">
         <v>8715494</v>
@@ -8085,16 +8089,16 @@
         <v>183</v>
       </c>
       <c r="B172" s="25">
-        <v>52.644134267127761</v>
+        <v>51.463085145303936</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
       </c>
       <c r="D172" s="26">
-        <v>6.5715662718109248E-5</v>
+        <v>5.9259003100509835E-5</v>
       </c>
       <c r="E172" s="27">
-        <v>15217.072439633637</v>
+        <v>16875.072945521701</v>
       </c>
       <c r="F172" s="28">
         <v>0.17199999999999999</v>
@@ -8103,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="H172" s="28">
-        <v>5.2679967600461097</v>
+        <v>5.149891847863727</v>
       </c>
       <c r="I172" s="28">
         <v>1.1944444444444443E-2</v>
@@ -8113,7 +8117,7 @@
       </c>
       <c r="K172"/>
       <c r="L172" s="27">
-        <v>1201</v>
+        <v>1083</v>
       </c>
       <c r="M172" s="29">
         <v>18275704</v>
@@ -8124,35 +8128,35 @@
         <v>184</v>
       </c>
       <c r="B173" s="25">
-        <v>54.640570361827599</v>
+        <v>54.60062699602431</v>
       </c>
       <c r="C173" t="s">
         <v>15</v>
       </c>
       <c r="D173" s="26">
-        <v>3.3955134284591309E-5</v>
+        <v>3.5422331445036612E-5</v>
       </c>
       <c r="E173" s="27">
-        <v>29450.62716049383</v>
+        <v>28230.778698224854</v>
       </c>
       <c r="F173" s="28">
         <v>0</v>
       </c>
       <c r="G173" s="25">
-        <v>1216</v>
+        <v>878</v>
       </c>
       <c r="H173" s="28">
-        <v>5.4558187212433618</v>
+        <v>5.4541143110195431</v>
       </c>
       <c r="I173" s="28">
         <v>0</v>
       </c>
       <c r="J173" s="28">
-        <v>8.2383149393982502E-2</v>
+        <v>5.948388582887882E-2</v>
       </c>
       <c r="K173"/>
       <c r="L173" s="27">
-        <v>810</v>
+        <v>845</v>
       </c>
       <c r="M173" s="29">
         <v>23855008</v>
@@ -8163,16 +8167,16 @@
         <v>185</v>
       </c>
       <c r="B174" s="25">
-        <v>57.292555011591716</v>
+        <v>78.794093648389989</v>
       </c>
       <c r="C174" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D174" s="26">
-        <v>1.2308165698680718E-5</v>
+        <v>0</v>
       </c>
       <c r="E174" s="27">
-        <v>81246.875</v>
+        <v>0</v>
       </c>
       <c r="F174" s="28">
         <v>0</v>
@@ -8181,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="H174" s="28">
-        <v>5.7292555011591713</v>
+        <v>7.8794093648389989</v>
       </c>
       <c r="I174" s="28">
         <v>0</v>
@@ -8191,7 +8195,7 @@
       </c>
       <c r="K174"/>
       <c r="L174" s="27">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M174" s="29">
         <v>9749625</v>
@@ -8202,35 +8206,35 @@
         <v>186</v>
       </c>
       <c r="B175" s="25">
-        <v>59.626415046297033</v>
+        <v>70.427877837404765</v>
       </c>
       <c r="C175" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D175" s="26">
-        <v>8.3904570064039683E-6</v>
+        <v>1.7236210129434506E-6</v>
       </c>
       <c r="E175" s="27">
-        <v>119183.01937984495</v>
+        <v>580173.9433962265</v>
       </c>
       <c r="F175" s="28">
-        <v>7.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G175" s="25">
         <v>0</v>
       </c>
       <c r="H175" s="28">
-        <v>5.9627873379630367</v>
+        <v>7.0428919504071432</v>
       </c>
       <c r="I175" s="28">
-        <v>4.861111111111111E-4</v>
+        <v>3.4722222222222224E-4</v>
       </c>
       <c r="J175" s="28">
         <v>0</v>
       </c>
       <c r="K175"/>
       <c r="L175" s="27">
-        <v>516</v>
+        <v>106</v>
       </c>
       <c r="M175" s="29">
         <v>61498438</v>
@@ -8241,35 +8245,35 @@
         <v>187</v>
       </c>
       <c r="B176" s="25">
-        <v>37.33508794636748</v>
+        <v>33.317392673438135</v>
       </c>
       <c r="C176" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D176" s="26">
-        <v>2.0820763792356815E-3</v>
+        <v>4.5370002969513847E-3</v>
       </c>
       <c r="E176" s="27">
-        <v>480.28977705759979</v>
+        <v>220.40994810424525</v>
       </c>
       <c r="F176" s="28">
-        <v>0.28000000000000003</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="G176" s="25">
         <v>0</v>
       </c>
       <c r="H176" s="28">
-        <v>3.734802924837354</v>
+        <v>3.3449716038308765</v>
       </c>
       <c r="I176" s="28">
-        <v>1.9444444444444445E-2</v>
+        <v>6.3958333333333339E-2</v>
       </c>
       <c r="J176" s="28">
-        <v>4.5392031327276545E-2</v>
+        <v>5.9551635129367286E-2</v>
       </c>
       <c r="K176"/>
       <c r="L176" s="27">
-        <v>145643</v>
+        <v>317367</v>
       </c>
       <c r="M176" s="29">
         <v>69950844</v>
@@ -8280,35 +8284,35 @@
         <v>188</v>
       </c>
       <c r="B177" s="25">
-        <v>42.581018740398278</v>
+        <v>45.862445803807397</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D177" s="26">
-        <v>9.4056366849595385E-4</v>
+        <v>1.4882336526834714E-4</v>
       </c>
       <c r="E177" s="27">
-        <v>1063.192246835443</v>
+        <v>6719.375</v>
       </c>
       <c r="F177" s="28">
         <v>0</v>
       </c>
       <c r="G177" s="25">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="H177" s="28">
-        <v>4.2568688367709377</v>
+        <v>4.5862445803807397</v>
       </c>
       <c r="I177" s="28">
         <v>0</v>
       </c>
       <c r="J177" s="28">
-        <v>1.2330372688901987E-2</v>
+        <v>0</v>
       </c>
       <c r="K177"/>
       <c r="L177" s="27">
-        <v>1264</v>
+        <v>200</v>
       </c>
       <c r="M177" s="29">
         <v>1343875</v>
@@ -8319,35 +8323,35 @@
         <v>189</v>
       </c>
       <c r="B178" s="25">
-        <v>55.152522849233677</v>
+        <v>60.011110606790105</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D178" s="26">
-        <v>1.981542871741571E-5</v>
+        <v>7.7846327104133151E-6</v>
       </c>
       <c r="E178" s="27">
-        <v>50465.726190476191</v>
+        <v>128458.21212121211</v>
       </c>
       <c r="F178" s="28">
-        <v>3.4000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="G178" s="25">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H178" s="28">
-        <v>5.5152492506015722</v>
+        <v>6.0003454935834908</v>
       </c>
       <c r="I178" s="28">
-        <v>2.3611111111111111E-3</v>
+        <v>0</v>
       </c>
       <c r="J178" s="28">
-        <v>7.1136765512896079E-3</v>
+        <v>7.655670955197388E-3</v>
       </c>
       <c r="K178"/>
       <c r="L178" s="27">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="M178" s="29">
         <v>8478242</v>
@@ -8358,35 +8362,35 @@
         <v>190</v>
       </c>
       <c r="B179" s="25">
-        <v>30.453647009340198</v>
+        <v>32.717195093296326</v>
       </c>
       <c r="C179" t="s">
         <v>17</v>
       </c>
       <c r="D179" s="26">
-        <v>6.677478704892637E-3</v>
+        <v>4.2583089041125172E-3</v>
       </c>
       <c r="E179" s="27">
-        <v>149.75712303916339</v>
+        <v>234.83500669344045</v>
       </c>
       <c r="F179" s="28">
-        <v>6.9219999999999997</v>
+        <v>3.1560000000000001</v>
       </c>
       <c r="G179" s="25">
         <v>0</v>
       </c>
       <c r="H179" s="28">
-        <v>3.1895730342673532</v>
+        <v>3.3374695093296327</v>
       </c>
       <c r="I179" s="28">
-        <v>0.48069444444444442</v>
+        <v>0.21916666666666668</v>
       </c>
       <c r="J179" s="28">
         <v>0</v>
       </c>
       <c r="K179"/>
       <c r="L179" s="27">
-        <v>9371</v>
+        <v>5976</v>
       </c>
       <c r="M179" s="29">
         <v>1403374</v>
@@ -8397,35 +8401,35 @@
         <v>191</v>
       </c>
       <c r="B180" s="25">
-        <v>30.012492235581021</v>
+        <v>36.67188159707672</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D180" s="26">
-        <v>6.8955786994447949E-3</v>
+        <v>2.167686961638987E-3</v>
       </c>
       <c r="E180" s="27">
-        <v>145.02046073094868</v>
+        <v>461.32122289645571</v>
       </c>
       <c r="F180" s="28">
-        <v>5.3259999999999996</v>
+        <v>1.819</v>
       </c>
       <c r="G180" s="25">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="H180" s="28">
-        <v>3.10589332208591</v>
+        <v>3.6993930517999738</v>
       </c>
       <c r="I180" s="28">
-        <v>0.36986111111111108</v>
+        <v>0.12631944444444443</v>
       </c>
       <c r="J180" s="28">
-        <v>6.3142348055256328E-2</v>
+        <v>5.6909412410316863E-2</v>
       </c>
       <c r="K180"/>
       <c r="L180" s="27">
-        <v>82304</v>
+        <v>25873</v>
       </c>
       <c r="M180" s="29">
         <v>11935764</v>
@@ -8436,35 +8440,35 @@
         <v>192</v>
       </c>
       <c r="B181" s="25">
-        <v>27.84173536158357</v>
+        <v>30.20043768503005</v>
       </c>
       <c r="C181" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="26">
-        <v>1.6499574990155537E-2</v>
+        <v>7.6018720752352087E-3</v>
       </c>
       <c r="E181" s="27">
-        <v>60.607621747629835</v>
+        <v>131.54654407533675</v>
       </c>
       <c r="F181" s="28">
-        <v>2.8170000000000002</v>
+        <v>1.796</v>
       </c>
       <c r="G181" s="25">
-        <v>5195</v>
+        <v>4260</v>
       </c>
       <c r="H181" s="28">
-        <v>2.8076652745545956</v>
+        <v>3.0285992331615823</v>
       </c>
       <c r="I181" s="28">
-        <v>0.19562500000000002</v>
+        <v>0.12472222222222222</v>
       </c>
       <c r="J181" s="28">
-        <v>0.35195761603761444</v>
+        <v>0.28861202008089265</v>
       </c>
       <c r="K181"/>
       <c r="L181" s="27">
-        <v>1403169</v>
+        <v>646484</v>
       </c>
       <c r="M181" s="29">
         <v>85042736</v>
@@ -8475,35 +8479,35 @@
         <v>193</v>
       </c>
       <c r="B182" s="25">
-        <v>54.164277370647362</v>
+        <v>61.493030239060445</v>
       </c>
       <c r="C182" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D182" s="26">
-        <v>2.7587065681174626E-5</v>
+        <v>7.0877537980864038E-6</v>
       </c>
       <c r="E182" s="27">
-        <v>36248.871538461543</v>
+        <v>141088.42215568863</v>
       </c>
       <c r="F182" s="28">
-        <v>8.2000000000000003E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G182" s="25">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H182" s="28">
-        <v>5.4176211757143573</v>
+        <v>6.1491209540124787</v>
       </c>
       <c r="I182" s="28">
-        <v>5.6944444444444447E-3</v>
+        <v>1.0416666666666667E-3</v>
       </c>
       <c r="J182" s="28">
-        <v>5.1489468371239064E-3</v>
+        <v>4.9456989356584892E-3</v>
       </c>
       <c r="K182"/>
       <c r="L182" s="27">
-        <v>1300</v>
+        <v>334</v>
       </c>
       <c r="M182" s="29">
         <v>47123533</v>
@@ -8514,35 +8518,35 @@
         <v>194</v>
       </c>
       <c r="B183" s="25">
-        <v>28.967176514681469</v>
+        <v>37.613909262387445</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D183" s="26">
-        <v>1.1323993274686611E-2</v>
+        <v>0</v>
       </c>
       <c r="E183" s="27">
-        <v>88.308070814151449</v>
+        <v>0</v>
       </c>
       <c r="F183" s="28">
-        <v>4.7130000000000001</v>
+        <v>0</v>
       </c>
       <c r="G183" s="25">
-        <v>1754</v>
+        <v>0</v>
       </c>
       <c r="H183" s="28">
-        <v>2.9830219241624687</v>
+        <v>3.7613909262387444</v>
       </c>
       <c r="I183" s="28">
-        <v>0.32729166666666665</v>
+        <v>0</v>
       </c>
       <c r="J183" s="28">
-        <v>0.11883227305678069</v>
+        <v>0</v>
       </c>
       <c r="K183"/>
       <c r="L183" s="27">
-        <v>492218</v>
+        <v>0</v>
       </c>
       <c r="M183" s="29">
         <v>43466822</v>
@@ -8553,35 +8557,35 @@
         <v>195</v>
       </c>
       <c r="B184" s="25">
-        <v>38.334597338736998</v>
+        <v>43.446267610708247</v>
       </c>
       <c r="C184" t="s">
         <v>13</v>
       </c>
       <c r="D184" s="26">
-        <v>2.8288224609884635E-3</v>
+        <v>6.954201061086171E-4</v>
       </c>
       <c r="E184" s="27">
-        <v>353.50398046916462</v>
+        <v>1437.9797063903281</v>
       </c>
       <c r="F184" s="28">
-        <v>0.35699999999999998</v>
+        <v>1.4E-2</v>
       </c>
       <c r="G184" s="25">
-        <v>49174</v>
+        <v>36353</v>
       </c>
       <c r="H184" s="28">
-        <v>3.5077468236516851</v>
+        <v>4.0986293956717477</v>
       </c>
       <c r="I184" s="28">
-        <v>2.4791666666666667E-2</v>
+        <v>9.7222222222222219E-4</v>
       </c>
       <c r="J184" s="28">
-        <v>3.3315041022201446</v>
+        <v>2.4628903206574395</v>
       </c>
       <c r="K184"/>
       <c r="L184" s="27">
-        <v>28263</v>
+        <v>6948</v>
       </c>
       <c r="M184" s="29">
         <v>9991083</v>
@@ -8592,35 +8596,35 @@
         <v>196</v>
       </c>
       <c r="B185" s="25">
-        <v>28.781200842314988</v>
+        <v>30.935967606839796</v>
       </c>
       <c r="C185" t="s">
         <v>17</v>
       </c>
       <c r="D185" s="26">
-        <v>1.5754734909323387E-2</v>
+        <v>1.0125483391659116E-2</v>
       </c>
       <c r="E185" s="27">
-        <v>63.47298166268839</v>
+        <v>98.760717026483064</v>
       </c>
       <c r="F185" s="28">
-        <v>2.9990000000000001</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="G185" s="25">
-        <v>16160</v>
+        <v>9836</v>
       </c>
       <c r="H185" s="28">
-        <v>2.8311163813087941</v>
+        <v>3.0587293820568515</v>
       </c>
       <c r="I185" s="28">
-        <v>0.20826388888888889</v>
+        <v>0.10590277777777778</v>
       </c>
       <c r="J185" s="28">
-        <v>1.094828695893715</v>
+        <v>0.66638211960461513</v>
       </c>
       <c r="K185"/>
       <c r="L185" s="27">
-        <v>1074585</v>
+        <v>690630</v>
       </c>
       <c r="M185" s="29">
         <v>68207114</v>
@@ -8631,35 +8635,35 @@
         <v>197</v>
       </c>
       <c r="B186" s="25">
-        <v>26.786739862090148</v>
+        <v>35.928102373143332</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D186" s="26">
-        <v>1.1905862213977129E-2</v>
+        <v>1.9292607940005744E-3</v>
       </c>
       <c r="E186" s="27">
-        <v>83.992236935686165</v>
+        <v>518.33324095410103</v>
       </c>
       <c r="F186" s="28">
-        <v>7.7009999999999996</v>
+        <v>3.782</v>
       </c>
       <c r="G186" s="25">
         <v>0</v>
       </c>
       <c r="H186" s="28">
-        <v>2.8143762166006736</v>
+        <v>3.6529098719762301</v>
       </c>
       <c r="I186" s="28">
-        <v>0.53479166666666667</v>
+        <v>0.26263888888888887</v>
       </c>
       <c r="J186" s="28">
-        <v>0.24735269608341293</v>
+        <v>0.18692032004769549</v>
       </c>
       <c r="K186"/>
       <c r="L186" s="27">
-        <v>3963641</v>
+        <v>642280</v>
       </c>
       <c r="M186" s="29">
         <v>332915074</v>
@@ -8670,35 +8674,35 @@
         <v>198</v>
       </c>
       <c r="B187" s="25">
-        <v>23.445790907792308</v>
+        <v>29.483493131538669</v>
       </c>
       <c r="C187" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D187" s="26">
-        <v>3.6539869710130291E-2</v>
+        <v>8.238665056789489E-3</v>
       </c>
       <c r="E187" s="27">
-        <v>27.367366329791828</v>
+        <v>121.37888761188312</v>
       </c>
       <c r="F187" s="28">
-        <v>5.37</v>
+        <v>2.5</v>
       </c>
       <c r="G187" s="25">
-        <v>6228</v>
+        <v>2427</v>
       </c>
       <c r="H187" s="28">
-        <v>2.4142598264350101</v>
+        <v>2.983989891258648</v>
       </c>
       <c r="I187" s="28">
-        <v>0.37291666666666667</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="J187" s="28">
-        <v>0.42194264344220644</v>
+        <v>0.16442755228552267</v>
       </c>
       <c r="K187"/>
       <c r="L187" s="27">
-        <v>127347</v>
+        <v>28713</v>
       </c>
       <c r="M187" s="29">
         <v>3485152</v>
@@ -8709,35 +8713,35 @@
         <v>199</v>
       </c>
       <c r="B188" s="25">
-        <v>43.62266147748479</v>
+        <v>53.453983114995189</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D188" s="26">
-        <v>3.946868443955809E-4</v>
+        <v>3.4742107625981024E-5</v>
       </c>
       <c r="E188" s="27">
-        <v>2533.6542481708225</v>
+        <v>28783.515691263783</v>
       </c>
       <c r="F188" s="28">
-        <v>8.4000000000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="G188" s="25">
         <v>0</v>
       </c>
       <c r="H188" s="28">
-        <v>4.3640161477484787</v>
+        <v>5.3453983114995189</v>
       </c>
       <c r="I188" s="28">
-        <v>5.8333333333333336E-3</v>
+        <v>0</v>
       </c>
       <c r="J188" s="28">
         <v>0</v>
       </c>
       <c r="K188"/>
       <c r="L188" s="27">
-        <v>13394</v>
+        <v>1179</v>
       </c>
       <c r="M188" s="29">
         <v>33935765</v>
@@ -8748,16 +8752,16 @@
         <v>200</v>
       </c>
       <c r="B189" s="25">
-        <v>100</v>
+        <v>49.395347207956419</v>
       </c>
       <c r="C189" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D189" s="26">
-        <v>0</v>
+        <v>2.671211967029612E-4</v>
       </c>
       <c r="E189" s="27">
-        <v>0</v>
+        <v>3743.6190476190482</v>
       </c>
       <c r="F189" s="28">
         <v>0</v>
@@ -8766,7 +8770,7 @@
         <v>0</v>
       </c>
       <c r="H189" s="28">
-        <v>10</v>
+        <v>4.9395347207956419</v>
       </c>
       <c r="I189" s="28">
         <v>0</v>
@@ -8776,7 +8780,7 @@
       </c>
       <c r="K189"/>
       <c r="L189" s="27">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="M189" s="29">
         <v>314464</v>
@@ -8826,35 +8830,35 @@
         <v>202</v>
       </c>
       <c r="B191" s="25">
-        <v>40.347951314802067</v>
+        <v>47.119332564031609</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D191" s="26">
-        <v>8.5574099823281327E-4</v>
+        <v>1.6627795898734808E-4</v>
       </c>
       <c r="E191" s="27">
-        <v>1168.5778781957338</v>
+        <v>6014.0261889796775</v>
       </c>
       <c r="F191" s="28">
-        <v>0.25900000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G191" s="25">
         <v>0</v>
       </c>
       <c r="H191" s="28">
-        <v>4.0401909648135401</v>
+        <v>4.7131832564031608</v>
       </c>
       <c r="I191" s="28">
-        <v>1.7986111111111112E-2</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="J191" s="28">
         <v>0</v>
       </c>
       <c r="K191"/>
       <c r="L191" s="27">
-        <v>24564</v>
+        <v>4773</v>
       </c>
       <c r="M191" s="29">
         <v>28704947</v>
@@ -8865,35 +8869,35 @@
         <v>203</v>
       </c>
       <c r="B192" s="25">
-        <v>36.551587697373719</v>
+        <v>27.354519010196203</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D192" s="26">
-        <v>2.3171815566833337E-3</v>
+        <v>2.2603804309410679E-2</v>
       </c>
       <c r="E192" s="27">
-        <v>431.55876030333002</v>
+        <v>44.240340533459154</v>
       </c>
       <c r="F192" s="28">
-        <v>0.91</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="G192" s="25">
-        <v>370</v>
+        <v>1706</v>
       </c>
       <c r="H192" s="28">
-        <v>3.6716103789526318</v>
+        <v>2.7423938703562869</v>
       </c>
       <c r="I192" s="28">
-        <v>6.3194444444444442E-2</v>
+        <v>6.1666666666666668E-2</v>
       </c>
       <c r="J192" s="28">
-        <v>2.506724118073481E-2</v>
+        <v>0.115580306633334</v>
       </c>
       <c r="K192"/>
       <c r="L192" s="27">
-        <v>227475</v>
+        <v>2218989</v>
       </c>
       <c r="M192" s="29">
         <v>98168829</v>
@@ -8904,35 +8908,35 @@
         <v>204</v>
       </c>
       <c r="B193" s="25">
-        <v>56.383731142488855</v>
+        <v>69.056130258524036</v>
       </c>
       <c r="C193" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D193" s="26">
-        <v>2.3482617074702828E-5</v>
+        <v>1.049502439092864E-6</v>
       </c>
       <c r="E193" s="27">
-        <v>42584.691340782127</v>
+        <v>952832.46874999988</v>
       </c>
       <c r="F193" s="28">
-        <v>0.34200000000000003</v>
+        <v>1.9E-2</v>
       </c>
       <c r="G193" s="25">
         <v>0</v>
       </c>
       <c r="H193" s="28">
-        <v>5.6454981142488858</v>
+        <v>6.9060088591857367</v>
       </c>
       <c r="I193" s="28">
-        <v>2.375E-2</v>
+        <v>1.3194444444444445E-3</v>
       </c>
       <c r="J193" s="28">
         <v>0</v>
       </c>
       <c r="K193"/>
       <c r="L193" s="27">
-        <v>716</v>
+        <v>32</v>
       </c>
       <c r="M193" s="29">
         <v>30490639</v>
@@ -8943,35 +8947,35 @@
         <v>205</v>
       </c>
       <c r="B194" s="25">
-        <v>45.518518598686157</v>
+        <v>48.461651447722538</v>
       </c>
       <c r="C194" t="s">
         <v>15</v>
       </c>
       <c r="D194" s="26">
-        <v>2.4068931644392687E-4</v>
+        <v>1.4439244895142912E-4</v>
       </c>
       <c r="E194" s="27">
-        <v>4154.7336407553794</v>
+        <v>6925.5699121522694</v>
       </c>
       <c r="F194" s="28">
-        <v>7.5999999999999998E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G194" s="25">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="H194" s="28">
-        <v>4.5522157057931567</v>
+        <v>4.8455264479808609</v>
       </c>
       <c r="I194" s="28">
-        <v>5.2777777777777779E-3</v>
+        <v>1.5972222222222221E-3</v>
       </c>
       <c r="J194" s="28">
-        <v>1.2194874087925042E-2</v>
+        <v>1.1178634580597957E-2</v>
       </c>
       <c r="K194"/>
       <c r="L194" s="27">
-        <v>4554</v>
+        <v>2732</v>
       </c>
       <c r="M194" s="29">
         <v>18920657</v>
@@ -8982,36 +8986,36 @@
         <v>206</v>
       </c>
       <c r="B195" s="25">
-        <v>48.756790294068018</v>
-      </c>
-      <c r="C195" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D195">
-        <v>1.2880850607907901E-4</v>
-      </c>
-      <c r="E195">
-        <v>7763.4624485596705</v>
-      </c>
-      <c r="F195">
-        <v>0.151</v>
-      </c>
-      <c r="G195" s="27">
-        <v>204</v>
-      </c>
-      <c r="H195">
-        <v>4.8774427770101703</v>
-      </c>
-      <c r="I195">
-        <v>1.0486111111111111E-2</v>
-      </c>
-      <c r="J195">
-        <v>1.382085729964838E-2</v>
-      </c>
-      <c r="L195">
-        <v>1944</v>
-      </c>
-      <c r="M195">
+        <v>43.981814012326041</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="26">
+        <v>4.3605389840865172E-4</v>
+      </c>
+      <c r="E195" s="27">
+        <v>2293.2944841209542</v>
+      </c>
+      <c r="F195" s="28">
+        <v>0.114</v>
+      </c>
+      <c r="G195" s="25">
+        <v>295</v>
+      </c>
+      <c r="H195" s="28">
+        <v>4.3985577968681939</v>
+      </c>
+      <c r="I195" s="28">
+        <v>7.9166666666666673E-3</v>
+      </c>
+      <c r="J195" s="28">
+        <v>1.9986043644099373E-2</v>
+      </c>
+      <c r="L195" s="27">
+        <v>6581</v>
+      </c>
+      <c r="M195" s="27">
         <v>15092171</v>
       </c>
     </row>

--- a/SEDRA Report DATA.xlsx
+++ b/SEDRA Report DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvano/Desktop/Covid-19 study/SEDRA/SEDRA 2022.03.10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silvano/Desktop/Covid-19 study/SEDRA/SEDRA 2022.03.31/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FE5325-3423-6D47-9E8E-5871DDF9048B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC889A8E-C50A-3B4B-9A94-0FE39E10FAE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18840" yWindow="1320" windowWidth="27960" windowHeight="24620" xr2:uid="{28802D33-BBEF-DC4E-A6DC-98F4CCB65A55}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="DATA" localSheetId="0">'[1]SO AZ'!$B$9</definedName>
@@ -37,6 +38,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'SO AZ'!$2:$2</definedName>
     <definedName name="ProCapTourism" localSheetId="0">'[1]SO AZ'!$B$21</definedName>
     <definedName name="ProCapTourism">[2]CONST!$B$21</definedName>
+    <definedName name="RD">[4]CONST!$B$5</definedName>
     <definedName name="ReportDate" localSheetId="0">'[1]SO AZ'!$B$5</definedName>
     <definedName name="ReportDate">[2]CONST!$B$5</definedName>
     <definedName name="RG_A" localSheetId="0">'[1]SO AZ'!$B$42</definedName>
@@ -71,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="214">
   <si>
     <t>Sort: A-Z</t>
   </si>
@@ -747,6 +749,18 @@
       </rPr>
       <t xml:space="preserve"> /Mio</t>
     </r>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>United States Virgin Islands</t>
   </si>
 </sst>
 </file>
@@ -1136,6 +1150,33 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="CONST"/>
+      <sheetName val="Table"/>
+      <sheetName val="SO AZ"/>
+      <sheetName val="SO SI"/>
+      <sheetName val="TOUR2019"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>2022-03-31</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1436,10 +1477,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q195"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="R14" sqref="Q14:R14"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1459,8 +1500,8 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>"SEDRA report of 10 March 2022"</f>
-        <v>SEDRA report of 10 March 2022</v>
+        <f>"SEDRA report of " &amp; RD</f>
+        <v>SEDRA report of 2022-03-31</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1537,35 +1578,35 @@
         <v>10</v>
       </c>
       <c r="B4" s="25">
-        <v>51.934475497794764</v>
-      </c>
-      <c r="C4" s="32" t="s">
+        <v>55.396731402485479</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>7.1443941809788008E-5</v>
+        <v>2.0810621138550339E-5</v>
       </c>
       <c r="E4">
-        <v>13996.988053408293</v>
+        <v>48052.386007237634</v>
       </c>
       <c r="F4">
-        <v>7.1999999999999995E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G4" s="27">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5.1949475497794761</v>
+        <v>5.5406523069152147</v>
       </c>
       <c r="I4">
-        <v>4.9999999999999992E-3</v>
+        <v>3.2638888888888891E-3</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4"/>
       <c r="L4">
-        <v>2846</v>
+        <v>829</v>
       </c>
       <c r="M4" s="33">
         <v>39835428</v>
@@ -1576,37 +1617,37 @@
         <v>12</v>
       </c>
       <c r="B5" s="25">
-        <v>41.621754799037056</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="26">
-        <v>5.332527652915104E-4</v>
-      </c>
-      <c r="E5" s="27">
-        <v>1875.2832898172321</v>
-      </c>
-      <c r="F5" s="28">
-        <v>0.497</v>
-      </c>
-      <c r="G5" s="25">
-        <v>263</v>
-      </c>
-      <c r="H5" s="28">
-        <v>4.1707478399675253</v>
-      </c>
-      <c r="I5" s="28">
-        <v>3.4513888888888886E-2</v>
-      </c>
-      <c r="J5" s="28">
-        <v>1.7818066028468256E-2</v>
+        <v>45.637801631023876</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2.7567636430213851E-4</v>
+      </c>
+      <c r="E5">
+        <v>3627.4419191919192</v>
+      </c>
+      <c r="F5">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="G5" s="27">
+        <v>73</v>
+      </c>
+      <c r="H5">
+        <v>4.5663897598754888</v>
+      </c>
+      <c r="I5">
+        <v>1.0347222222222221E-2</v>
+      </c>
+      <c r="J5">
+        <v>4.9456989356584892E-3</v>
       </c>
       <c r="K5"/>
-      <c r="L5" s="27">
-        <v>1532</v>
-      </c>
-      <c r="M5" s="29">
+      <c r="L5">
+        <v>792</v>
+      </c>
+      <c r="M5" s="33">
         <v>2872934</v>
       </c>
     </row>
@@ -1615,37 +1656,37 @@
         <v>14</v>
       </c>
       <c r="B6" s="25">
-        <v>56.084717137539236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1.7101248310439252E-5</v>
-      </c>
-      <c r="E6" s="27">
-        <v>58475.263433813896</v>
-      </c>
-      <c r="F6" s="28">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0</v>
-      </c>
-      <c r="H6" s="28">
-        <v>5.6093467137539239</v>
-      </c>
-      <c r="I6" s="28">
-        <v>2.9166666666666668E-3</v>
-      </c>
-      <c r="J6" s="28">
+        <v>63.76599754002735</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>3.5861071162126873E-6</v>
+      </c>
+      <c r="E6">
+        <v>278853.91249999998</v>
+      </c>
+      <c r="F6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>6.3766622540027349</v>
+      </c>
+      <c r="I6">
+        <v>2.0833333333333335E-4</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6"/>
-      <c r="L6" s="27">
-        <v>763</v>
-      </c>
-      <c r="M6" s="29">
+      <c r="L6">
+        <v>160</v>
+      </c>
+      <c r="M6" s="33">
         <v>44616626</v>
       </c>
     </row>
@@ -1654,37 +1695,37 @@
         <v>16</v>
       </c>
       <c r="B7" s="25">
-        <v>29.037631392016728</v>
-      </c>
-      <c r="C7" t="s">
+        <v>29.339633716026459</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26">
-        <v>1.0807456627970112E-2</v>
-      </c>
-      <c r="E7" s="27">
-        <v>92.528708133971293</v>
-      </c>
-      <c r="F7" s="28">
-        <v>1.847</v>
-      </c>
-      <c r="G7" s="25">
-        <v>0</v>
-      </c>
-      <c r="H7" s="28">
-        <v>2.9422423058683393</v>
-      </c>
-      <c r="I7" s="28">
-        <v>0.1282638888888889</v>
-      </c>
-      <c r="J7" s="28">
+      <c r="D7">
+        <v>1.0212787961837784E-2</v>
+      </c>
+      <c r="E7">
+        <v>97.916455696202533</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.9339633716026459</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7"/>
-      <c r="L7" s="27">
-        <v>836</v>
-      </c>
-      <c r="M7" s="29">
+      <c r="L7">
+        <v>790</v>
+      </c>
+      <c r="M7" s="33">
         <v>77354</v>
       </c>
     </row>
@@ -1693,35 +1734,35 @@
         <v>18</v>
       </c>
       <c r="B8" s="25">
-        <v>63.137950153210355</v>
+        <v>62.5637682650164</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="26">
-        <v>4.5382732771941067E-6</v>
+        <v>4.8919049611313098E-6</v>
       </c>
       <c r="E8" s="27">
-        <v>220348.12337662341</v>
+        <v>204419.34337349399</v>
       </c>
       <c r="F8" s="28">
         <v>0</v>
       </c>
       <c r="G8" s="25">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="H8" s="28">
-        <v>6.3131513969663953</v>
+        <v>6.2561397039499305</v>
       </c>
       <c r="I8" s="28">
         <v>0</v>
       </c>
       <c r="J8" s="28">
-        <v>6.4361835464048838E-3</v>
+        <v>2.3712255170965364E-3</v>
       </c>
       <c r="K8"/>
       <c r="L8" s="27">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="M8" s="29">
         <v>33933611</v>
@@ -1732,16 +1773,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="25">
-        <v>43.697355021642196</v>
+        <v>46.965485751508673</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="26">
-        <v>2.6334980957782997E-4</v>
+        <v>2.1270561542824731E-4</v>
       </c>
       <c r="E9" s="27">
-        <v>3797.2307692307695</v>
+        <v>4701.333333333333</v>
       </c>
       <c r="F9" s="28">
         <v>0</v>
@@ -1750,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="28">
-        <v>4.3697355021642199</v>
+        <v>4.6965485751508673</v>
       </c>
       <c r="I9" s="28">
         <v>0</v>
@@ -1760,7 +1801,7 @@
       </c>
       <c r="K9"/>
       <c r="L9" s="27">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M9" s="29">
         <v>98728</v>
@@ -1771,35 +1812,35 @@
         <v>20</v>
       </c>
       <c r="B10" s="25">
-        <v>36.307703190467606</v>
+        <v>39.273111689056222</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="26">
-        <v>1.8223330823346835E-3</v>
+        <v>1.0414898115093767E-3</v>
       </c>
       <c r="E10" s="27">
-        <v>548.7471032018193</v>
+        <v>960.16301739020605</v>
       </c>
       <c r="F10" s="28">
-        <v>1.4970000000000001</v>
+        <v>0.749</v>
       </c>
       <c r="G10" s="25">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="H10" s="28">
-        <v>3.6569443708106135</v>
+        <v>3.9397446683094284</v>
       </c>
       <c r="I10" s="28">
-        <v>0.10395833333333335</v>
+        <v>5.2013888888888887E-2</v>
       </c>
       <c r="J10" s="28">
-        <v>5.0134482361469619E-2</v>
+        <v>3.1706672628605111E-2</v>
       </c>
       <c r="K10"/>
       <c r="L10" s="27">
-        <v>83109</v>
+        <v>47498</v>
       </c>
       <c r="M10" s="29">
         <v>45605823</v>
@@ -1810,35 +1851,35 @@
         <v>21</v>
       </c>
       <c r="B11" s="25">
-        <v>36.821478577424003</v>
+        <v>48.305313318834102</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D11" s="26">
-        <v>1.177172952109882E-3</v>
+        <v>1.0680132393212152E-4</v>
       </c>
       <c r="E11" s="27">
-        <v>849.49284487693194</v>
+        <v>9363.1798107255527</v>
       </c>
       <c r="F11" s="28">
-        <v>2.7919999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="G11" s="25">
-        <v>971</v>
+        <v>736</v>
       </c>
       <c r="H11" s="28">
-        <v>3.7337360673316362</v>
+        <v>4.8345658167007919</v>
       </c>
       <c r="I11" s="28">
-        <v>0.19388888888888889</v>
+        <v>3.0069444444444444E-2</v>
       </c>
       <c r="J11" s="28">
-        <v>6.5784570774306758E-2</v>
+        <v>4.9863485159515726E-2</v>
       </c>
       <c r="K11"/>
       <c r="L11" s="27">
-        <v>3494</v>
+        <v>317</v>
       </c>
       <c r="M11" s="29">
         <v>2968128</v>
@@ -1849,35 +1890,35 @@
         <v>22</v>
       </c>
       <c r="B12" s="25">
-        <v>28.639119578902442</v>
+        <v>25.687168746107631</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="26">
-        <v>1.4623849333980709E-2</v>
+        <v>2.9499286437678109E-2</v>
       </c>
       <c r="E12" s="27">
-        <v>68.381448492932009</v>
+        <v>33.899125055538462</v>
       </c>
       <c r="F12" s="28">
-        <v>1.0860000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="G12" s="25">
-        <v>3175</v>
+        <v>4651</v>
       </c>
       <c r="H12" s="28">
-        <v>2.8650265549851541</v>
+        <v>2.5554358416202412</v>
       </c>
       <c r="I12" s="28">
-        <v>7.5416666666666674E-2</v>
+        <v>6.0763888888888888E-2</v>
       </c>
       <c r="J12" s="28">
-        <v>0.21510402905090004</v>
+        <v>0.31510199657188537</v>
       </c>
       <c r="K12"/>
       <c r="L12" s="27">
-        <v>377123</v>
+        <v>760734</v>
       </c>
       <c r="M12" s="29">
         <v>25788217</v>
@@ -1888,35 +1929,35 @@
         <v>23</v>
       </c>
       <c r="B13" s="25">
-        <v>26.566207706861597</v>
+        <v>24.599231168641257</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D13" s="26">
-        <v>4.9000715685996968E-2</v>
+        <v>5.4754402043907205E-2</v>
       </c>
       <c r="E13" s="27">
-        <v>20.407865191360298</v>
+        <v>18.263371759554719</v>
       </c>
       <c r="F13" s="28">
-        <v>3.3490000000000002</v>
+        <v>4.5179999999999998</v>
       </c>
       <c r="G13" s="25">
-        <v>56425</v>
+        <v>49768</v>
       </c>
       <c r="H13" s="28">
-        <v>2.3441161760132871</v>
+        <v>2.2168733981930959</v>
       </c>
       <c r="I13" s="28">
-        <v>0.23256944444444447</v>
+        <v>0.31374999999999997</v>
       </c>
       <c r="J13" s="28">
-        <v>3.8227542800620582</v>
+        <v>3.3717471867102971</v>
       </c>
       <c r="K13"/>
       <c r="L13" s="27">
-        <v>443117</v>
+        <v>495148</v>
       </c>
       <c r="M13" s="29">
         <v>9043072</v>
@@ -1927,35 +1968,35 @@
         <v>24</v>
       </c>
       <c r="B14" s="25">
-        <v>38.403226332649709</v>
+        <v>50.171575740293619</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="26">
-        <v>8.4267926424074163E-4</v>
+        <v>8.3632126630973192E-5</v>
       </c>
       <c r="E14" s="27">
-        <v>1186.6911201392918</v>
+        <v>11957.127485380117</v>
       </c>
       <c r="F14" s="28">
-        <v>1.425</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="G14" s="25">
-        <v>579</v>
+        <v>408</v>
       </c>
       <c r="H14" s="28">
-        <v>3.8660874487666885</v>
+        <v>5.0202059025694323</v>
       </c>
       <c r="I14" s="28">
-        <v>9.8958333333333343E-2</v>
+        <v>1.9375000000000003E-2</v>
       </c>
       <c r="J14" s="28">
-        <v>3.9226844982825547E-2</v>
+        <v>2.7641714599296759E-2</v>
       </c>
       <c r="K14"/>
       <c r="L14" s="27">
-        <v>8615</v>
+        <v>855</v>
       </c>
       <c r="M14" s="29">
         <v>10223344</v>
@@ -1966,35 +2007,35 @@
         <v>25</v>
       </c>
       <c r="B15" s="25">
-        <v>45.417337223447767</v>
+        <v>48.217033236162671</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="26">
-        <v>2.0911330918032623E-4</v>
+        <v>1.9399668442030262E-4</v>
       </c>
       <c r="E15" s="27">
-        <v>4782.0963855421687</v>
+        <v>5154.727272727273</v>
       </c>
       <c r="F15" s="28">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="G15" s="25">
-        <v>471</v>
+        <v>665</v>
       </c>
       <c r="H15" s="28">
-        <v>4.5385427302917698</v>
+        <v>4.8246979951337838</v>
       </c>
       <c r="I15" s="28">
-        <v>0</v>
+        <v>2.4999999999999998E-2</v>
       </c>
       <c r="J15" s="28">
-        <v>3.1909920530070524E-2</v>
+        <v>4.5053284824834186E-2</v>
       </c>
       <c r="K15"/>
       <c r="L15" s="27">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M15" s="29">
         <v>396914</v>
@@ -2005,35 +2046,35 @@
         <v>26</v>
       </c>
       <c r="B16" s="25">
-        <v>27.418344763279851</v>
+        <v>31.290332603648817</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="26">
-        <v>1.6800940344735872E-2</v>
+        <v>6.9576358680886238E-3</v>
       </c>
       <c r="E16" s="27">
-        <v>59.520477989990802</v>
+        <v>143.72698125616574</v>
       </c>
       <c r="F16" s="28">
-        <v>0.49</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="G16" s="25">
-        <v>5431</v>
+        <v>3195</v>
       </c>
       <c r="H16" s="28">
-        <v>2.7152481645660291</v>
+        <v>3.1159081921921481</v>
       </c>
       <c r="I16" s="28">
-        <v>3.4027777777777775E-2</v>
+        <v>2.8402777777777777E-2</v>
       </c>
       <c r="J16" s="28">
-        <v>0.36794645095289391</v>
+        <v>0.21645901506066947</v>
       </c>
       <c r="K16"/>
       <c r="L16" s="27">
-        <v>29373</v>
+        <v>12164</v>
       </c>
       <c r="M16" s="29">
         <v>1748295</v>
@@ -2044,35 +2085,35 @@
         <v>27</v>
       </c>
       <c r="B17" s="25">
-        <v>51.123595850793187</v>
+        <v>60.004822812209056</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D17" s="26">
-        <v>5.5001851013424888E-5</v>
+        <v>7.3359853762302795E-6</v>
       </c>
       <c r="E17" s="27">
-        <v>18181.206297146608</v>
+        <v>136314.33934426229</v>
       </c>
       <c r="F17" s="28">
-        <v>3.5999999999999997E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G17" s="25">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="H17" s="28">
-        <v>5.1123507929138476</v>
+        <v>6.0004567071302706</v>
       </c>
       <c r="I17" s="28">
-        <v>2.4999999999999996E-3</v>
+        <v>2.0833333333333335E-4</v>
       </c>
       <c r="J17" s="28">
-        <v>7.5879216547089156E-3</v>
+        <v>8.8074090635014194E-4</v>
       </c>
       <c r="K17"/>
       <c r="L17" s="27">
-        <v>9147</v>
+        <v>1220</v>
       </c>
       <c r="M17" s="29">
         <v>166303494</v>
@@ -2083,35 +2124,35 @@
         <v>28</v>
       </c>
       <c r="B18" s="25">
-        <v>30.358200917005874</v>
+        <v>28.169813237599076</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="26">
-        <v>7.4485241981453419E-3</v>
+        <v>6.3293339079900455E-3</v>
       </c>
       <c r="E18" s="27">
-        <v>134.25478301446569</v>
+        <v>157.99450851180669</v>
       </c>
       <c r="F18" s="28">
-        <v>3.476</v>
+        <v>22.344000000000001</v>
       </c>
       <c r="G18" s="25">
-        <v>3187</v>
+        <v>3153</v>
       </c>
       <c r="H18" s="28">
-        <v>3.0866450563015779</v>
+        <v>3.2611199693158923</v>
       </c>
       <c r="I18" s="28">
-        <v>0.24138888888888888</v>
+        <v>1.5516666666666667</v>
       </c>
       <c r="J18" s="28">
-        <v>0.21591702065676172</v>
+        <v>0.21361354444015365</v>
       </c>
       <c r="K18"/>
       <c r="L18" s="27">
-        <v>2143</v>
+        <v>1821</v>
       </c>
       <c r="M18" s="29">
         <v>287708</v>
@@ -2122,35 +2163,35 @@
         <v>29</v>
       </c>
       <c r="B19" s="25">
-        <v>32.956923127246192</v>
+        <v>37.167267140325052</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D19" s="26">
-        <v>3.5337784594445735E-3</v>
+        <v>1.6978953531803424E-3</v>
       </c>
       <c r="E19" s="27">
-        <v>282.98321795678623</v>
+        <v>588.96444832532893</v>
       </c>
       <c r="F19" s="28">
-        <v>1.4670000000000001</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="G19" s="25">
-        <v>1513</v>
+        <v>1212</v>
       </c>
       <c r="H19" s="28">
-        <v>3.3160043435607132</v>
+        <v>3.7274321654799687</v>
       </c>
       <c r="I19" s="28">
-        <v>0.10187500000000001</v>
+        <v>6.3055555555555559E-2</v>
       </c>
       <c r="J19" s="28">
-        <v>0.10250469163905881</v>
+        <v>8.2112152192028609E-2</v>
       </c>
       <c r="K19"/>
       <c r="L19" s="27">
-        <v>33369</v>
+        <v>16033</v>
       </c>
       <c r="M19" s="29">
         <v>9442867</v>
@@ -2161,35 +2202,35 @@
         <v>30</v>
       </c>
       <c r="B20" s="25">
-        <v>30.920488985283878</v>
+        <v>28.897580380420848</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="26">
-        <v>7.9086449890451906E-3</v>
+        <v>1.3323981240566166E-2</v>
       </c>
       <c r="E20" s="27">
-        <v>126.44391060480891</v>
+        <v>75.052642445592909</v>
       </c>
       <c r="F20" s="28">
-        <v>2.0019999999999998</v>
+        <v>2.0139999999999998</v>
       </c>
       <c r="G20" s="25">
         <v>0</v>
       </c>
       <c r="H20" s="28">
-        <v>3.1140150856993802</v>
+        <v>2.9092574782634895</v>
       </c>
       <c r="I20" s="28">
-        <v>0.13902777777777775</v>
+        <v>0.1398611111111111</v>
       </c>
       <c r="J20" s="28">
-        <v>0.19742146162340876</v>
+        <v>0.22458893111928618</v>
       </c>
       <c r="K20"/>
       <c r="L20" s="27">
-        <v>91996</v>
+        <v>154989</v>
       </c>
       <c r="M20" s="29">
         <v>11632334</v>
@@ -2200,35 +2241,35 @@
         <v>31</v>
       </c>
       <c r="B21" s="25">
-        <v>37.969817664489547</v>
+        <v>43.690447440687279</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="26">
-        <v>1.1804946717212255E-3</v>
+        <v>3.6797846461603052E-4</v>
       </c>
       <c r="E21" s="27">
-        <v>847.10251046025098</v>
+        <v>2717.55033557047</v>
       </c>
       <c r="F21" s="28">
-        <v>0.35299999999999998</v>
+        <v>0</v>
       </c>
       <c r="G21" s="25">
         <v>0</v>
       </c>
       <c r="H21" s="28">
-        <v>3.790366027354898</v>
+        <v>4.3580016080891069</v>
       </c>
       <c r="I21" s="28">
-        <v>2.4513888888888887E-2</v>
+        <v>0</v>
       </c>
       <c r="J21" s="28">
-        <v>0.1396990576072302</v>
+        <v>0.11043135979621009</v>
       </c>
       <c r="K21"/>
       <c r="L21" s="27">
-        <v>478</v>
+        <v>149</v>
       </c>
       <c r="M21" s="29">
         <v>404915</v>
@@ -2239,16 +2280,16 @@
         <v>32</v>
       </c>
       <c r="B22" s="25">
-        <v>71.920610439999024</v>
+        <v>56.649931518581667</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D22" s="26">
-        <v>6.4251707348572181E-7</v>
+        <v>0</v>
       </c>
       <c r="E22" s="27">
-        <v>1556378.875</v>
+        <v>0</v>
       </c>
       <c r="F22" s="28">
         <v>0</v>
@@ -2257,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="28">
-        <v>7.1920610439999022</v>
+        <v>5.6649931518581669</v>
       </c>
       <c r="I22" s="28">
         <v>0</v>
@@ -2267,7 +2308,7 @@
       </c>
       <c r="K22"/>
       <c r="L22" s="27">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M22" s="29">
         <v>12451031</v>
@@ -2278,16 +2319,16 @@
         <v>33</v>
       </c>
       <c r="B23" s="25">
-        <v>31.819475056333545</v>
+        <v>30.359554507187415</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="26">
-        <v>6.7534299269137073E-3</v>
+        <v>9.4614694191563018E-3</v>
       </c>
       <c r="E23" s="27">
-        <v>148.07290677805202</v>
+        <v>105.69182816099743</v>
       </c>
       <c r="F23" s="28">
         <v>0.183</v>
@@ -2296,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="28">
-        <v>3.1857600056333544</v>
+        <v>3.0397679507187414</v>
       </c>
       <c r="I23" s="28">
         <v>1.2708333333333334E-2</v>
@@ -2306,7 +2347,7 @@
       </c>
       <c r="K23"/>
       <c r="L23" s="27">
-        <v>5267</v>
+        <v>7379</v>
       </c>
       <c r="M23" s="29">
         <v>779900</v>
@@ -2317,35 +2358,35 @@
         <v>34</v>
       </c>
       <c r="B24" s="25">
-        <v>43.662971964968428</v>
+        <v>44.075093674793685</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="26">
-        <v>4.1350684225791468E-4</v>
+        <v>2.5369865940287346E-4</v>
       </c>
       <c r="E24" s="27">
-        <v>2418.3396689147762</v>
+        <v>3941.6842105263158</v>
       </c>
       <c r="F24" s="28">
-        <v>0.22900000000000001</v>
+        <v>4.95</v>
       </c>
       <c r="G24" s="25">
         <v>0</v>
       </c>
       <c r="H24" s="28">
-        <v>4.3683783826007838</v>
+        <v>4.5075314495169962</v>
       </c>
       <c r="I24" s="28">
-        <v>1.590277777777778E-2</v>
+        <v>0.34375</v>
       </c>
       <c r="J24" s="28">
-        <v>2.6896472293923567E-2</v>
+        <v>3.1029179623720385E-2</v>
       </c>
       <c r="K24"/>
       <c r="L24" s="27">
-        <v>4893</v>
+        <v>3002</v>
       </c>
       <c r="M24" s="29">
         <v>11832936</v>
@@ -2356,35 +2397,35 @@
         <v>35</v>
       </c>
       <c r="B25" s="25">
-        <v>38.436319964050512</v>
+        <v>42.69411539138806</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="26">
-        <v>8.1723104227753431E-4</v>
+        <v>5.0284069755434345E-4</v>
       </c>
       <c r="E25" s="27">
-        <v>1223.6441694788152</v>
+        <v>1988.7014015843997</v>
       </c>
       <c r="F25" s="28">
-        <v>4.5960000000000001</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="G25" s="25">
         <v>0</v>
       </c>
       <c r="H25" s="28">
-        <v>3.9393819964050514</v>
+        <v>4.2858282058054726</v>
       </c>
       <c r="I25" s="28">
-        <v>0.31916666666666665</v>
+        <v>5.4722222222222228E-2</v>
       </c>
       <c r="J25" s="28">
         <v>0</v>
       </c>
       <c r="K25"/>
       <c r="L25" s="27">
-        <v>2667</v>
+        <v>1641</v>
       </c>
       <c r="M25" s="29">
         <v>3263459</v>
@@ -2395,16 +2436,16 @@
         <v>36</v>
       </c>
       <c r="B26" s="25">
-        <v>41.716153669981928</v>
+        <v>36.059668205218941</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="26">
-        <v>5.4145600774223692E-4</v>
+        <v>1.7343278103151959E-2</v>
       </c>
       <c r="E26" s="27">
-        <v>1846.8721109399075</v>
+        <v>57.659226476813544</v>
       </c>
       <c r="F26" s="28">
         <v>0</v>
@@ -2413,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="28">
-        <v>4.1716153669981928</v>
+        <v>3.605966820521894</v>
       </c>
       <c r="I26" s="28">
         <v>0</v>
@@ -2423,7 +2464,7 @@
       </c>
       <c r="K26"/>
       <c r="L26" s="27">
-        <v>1298</v>
+        <v>41576</v>
       </c>
       <c r="M26" s="29">
         <v>2397240</v>
@@ -2434,35 +2475,35 @@
         <v>37</v>
       </c>
       <c r="B27" s="25">
-        <v>33.823091099490902</v>
+        <v>36.488626318312235</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D27" s="26">
-        <v>3.1308015650816138E-3</v>
+        <v>1.9573497114801757E-3</v>
       </c>
       <c r="E27" s="27">
-        <v>319.40702060238431</v>
+        <v>510.89490760636011</v>
       </c>
       <c r="F27" s="28">
-        <v>2.3740000000000001</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="G27" s="25">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="H27" s="28">
-        <v>3.4279260579447275</v>
+        <v>3.6686334651645569</v>
       </c>
       <c r="I27" s="28">
-        <v>0.16486111111111112</v>
+        <v>6.5902777777777768E-2</v>
       </c>
       <c r="J27" s="28">
-        <v>3.8413853376963882E-2</v>
+        <v>0</v>
       </c>
       <c r="K27"/>
       <c r="L27" s="27">
-        <v>669971</v>
+        <v>418860</v>
       </c>
       <c r="M27" s="29">
         <v>213993441</v>
@@ -2473,35 +2514,35 @@
         <v>38</v>
       </c>
       <c r="B28" s="25">
-        <v>17.604771315354206</v>
+        <v>23.364283989641823</v>
       </c>
       <c r="C28" t="s">
         <v>162</v>
       </c>
       <c r="D28" s="26">
-        <v>0.12675638458820651</v>
+        <v>3.1281990886277776E-2</v>
       </c>
       <c r="E28" s="27">
-        <v>7.8891489627816398</v>
+        <v>31.967274833478136</v>
       </c>
       <c r="F28" s="28">
-        <v>6.7949999999999999</v>
+        <v>2.5880000000000001</v>
       </c>
       <c r="G28" s="25">
         <v>0</v>
       </c>
       <c r="H28" s="28">
-        <v>1.9020396315354207</v>
+        <v>2.3903450656308491</v>
       </c>
       <c r="I28" s="28">
-        <v>0.47187499999999999</v>
+        <v>0.17972222222222223</v>
       </c>
       <c r="J28" s="28">
         <v>0</v>
       </c>
       <c r="K28"/>
       <c r="L28" s="27">
-        <v>55967</v>
+        <v>13812</v>
       </c>
       <c r="M28" s="29">
         <v>441532</v>
@@ -2512,35 +2553,35 @@
         <v>39</v>
       </c>
       <c r="B29" s="25">
-        <v>32.26845974957677</v>
+        <v>34.982981595869319</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="26">
-        <v>3.7925632063659847E-3</v>
+        <v>2.5706665042690984E-3</v>
       </c>
       <c r="E29" s="27">
-        <v>263.67391803027988</v>
+        <v>389.00417395228158</v>
       </c>
       <c r="F29" s="28">
-        <v>6.4630000000000001</v>
+        <v>2.7549999999999999</v>
       </c>
       <c r="G29" s="25">
-        <v>2177</v>
+        <v>1636</v>
       </c>
       <c r="H29" s="28">
-        <v>3.3467427855746696</v>
+        <v>3.5446102073603512</v>
       </c>
       <c r="I29" s="28">
-        <v>0.44881944444444444</v>
+        <v>0.19131944444444443</v>
       </c>
       <c r="J29" s="28">
-        <v>0.14749022716340454</v>
+        <v>0.11083785559914093</v>
       </c>
       <c r="K29"/>
       <c r="L29" s="27">
-        <v>26156</v>
+        <v>17729</v>
       </c>
       <c r="M29" s="29">
         <v>6896655</v>
@@ -2551,35 +2592,35 @@
         <v>40</v>
       </c>
       <c r="B30" s="25">
-        <v>80.636627613823521</v>
+        <v>64.010955879447295</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="26">
-        <v>0</v>
+        <v>2.1863417186050751E-6</v>
       </c>
       <c r="E30" s="27">
-        <v>0</v>
+        <v>457385.04255319148</v>
       </c>
       <c r="F30" s="28">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G30" s="25">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H30" s="28">
-        <v>8.0635679123616679</v>
+        <v>6.4015122546113963</v>
       </c>
       <c r="I30" s="28">
-        <v>0</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="J30" s="28">
-        <v>9.4849020683861445E-4</v>
+        <v>0</v>
       </c>
       <c r="K30"/>
       <c r="L30" s="27">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="M30" s="29">
         <v>21497097</v>
@@ -2590,35 +2631,35 @@
         <v>41</v>
       </c>
       <c r="B31" s="25">
-        <v>58.175505757679019</v>
+        <v>57.962338590794637</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="26">
-        <v>1.5584929748277274E-5</v>
+        <v>1.7380052546508163E-5</v>
       </c>
       <c r="E31" s="27">
-        <v>64164.549738219896</v>
+        <v>57537.225352112677</v>
       </c>
       <c r="F31" s="28">
         <v>0</v>
       </c>
       <c r="G31" s="25">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H31" s="28">
-        <v>5.8164869117502329</v>
+        <v>5.7951295454815019</v>
       </c>
       <c r="I31" s="28">
         <v>0</v>
       </c>
       <c r="J31" s="28">
-        <v>1.0636640176690176E-2</v>
+        <v>1.104313597962101E-2</v>
       </c>
       <c r="K31"/>
       <c r="L31" s="27">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="M31" s="29">
         <v>12255429</v>
@@ -2629,35 +2670,35 @@
         <v>42</v>
       </c>
       <c r="B32" s="25">
-        <v>44.711057158296491</v>
+        <v>51.179401985789511</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32" s="26">
-        <v>2.8926419144167454E-4</v>
+        <v>5.9068432401696498E-5</v>
       </c>
       <c r="E32" s="27">
-        <v>3457.0473276213793</v>
+        <v>16929.516483516483</v>
       </c>
       <c r="F32" s="28">
-        <v>9.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G32" s="25">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="H32" s="28">
-        <v>4.4718779278612475</v>
+        <v>5.1174320788252876</v>
       </c>
       <c r="I32" s="28">
-        <v>6.4583333333333333E-3</v>
+        <v>0</v>
       </c>
       <c r="J32" s="28">
-        <v>1.1652879684017261E-2</v>
+        <v>5.081197536635434E-3</v>
       </c>
       <c r="K32"/>
       <c r="L32" s="27">
-        <v>4902</v>
+        <v>1001</v>
       </c>
       <c r="M32" s="29">
         <v>16946446</v>
@@ -2668,16 +2709,16 @@
         <v>43</v>
       </c>
       <c r="B33" s="25">
-        <v>61.427044758999784</v>
+        <v>61.436841820298007</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="26">
-        <v>3.0120192055160212E-6</v>
+        <v>4.7751523989888135E-6</v>
       </c>
       <c r="E33" s="27">
-        <v>332003.19512195117</v>
+        <v>209417.40000000002</v>
       </c>
       <c r="F33" s="28">
         <v>0</v>
@@ -2686,17 +2727,17 @@
         <v>0</v>
       </c>
       <c r="H33" s="28">
-        <v>6.1427044758999783</v>
+        <v>6.1433386605973093</v>
       </c>
       <c r="I33" s="28">
         <v>0</v>
       </c>
       <c r="J33" s="28">
-        <v>0</v>
+        <v>3.4552143249120949E-3</v>
       </c>
       <c r="K33"/>
       <c r="L33" s="27">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="M33" s="29">
         <v>27224262</v>
@@ -2707,35 +2748,35 @@
         <v>44</v>
       </c>
       <c r="B34" s="25">
-        <v>36.329028132258522</v>
+        <v>36.495323658505249</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="26">
-        <v>2.1330562565906883E-3</v>
+        <v>2.457345113718212E-3</v>
       </c>
       <c r="E34" s="27">
-        <v>468.81088902846022</v>
+        <v>406.94324717251402</v>
       </c>
       <c r="F34" s="28">
-        <v>1.5609999999999999</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="G34" s="25">
-        <v>1126</v>
+        <v>1061</v>
       </c>
       <c r="H34" s="28">
-        <v>3.6577950753241835</v>
+        <v>3.6616566650686981</v>
       </c>
       <c r="I34" s="28">
-        <v>0.10840277777777778</v>
+        <v>6.4375000000000002E-2</v>
       </c>
       <c r="J34" s="28">
-        <v>7.6285712350019977E-2</v>
+        <v>7.188200781826927E-2</v>
       </c>
       <c r="K34"/>
       <c r="L34" s="27">
-        <v>81201</v>
+        <v>93546</v>
       </c>
       <c r="M34" s="29">
         <v>38067913</v>
@@ -2746,16 +2787,16 @@
         <v>45</v>
       </c>
       <c r="B35" s="25">
-        <v>52.199985043440364</v>
+        <v>51.570056971781256</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="26">
-        <v>5.3390187951258319E-5</v>
+        <v>6.2288552609801367E-5</v>
       </c>
       <c r="E35" s="27">
-        <v>18730.033333333333</v>
+        <v>16054.314285714287</v>
       </c>
       <c r="F35" s="28">
         <v>0</v>
@@ -2764,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="28">
-        <v>5.2199985043440362</v>
+        <v>5.1570056971781257</v>
       </c>
       <c r="I35" s="28">
         <v>0</v>
@@ -2774,7 +2815,7 @@
       </c>
       <c r="K35"/>
       <c r="L35" s="27">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M35" s="29">
         <v>561901</v>
@@ -2785,16 +2826,16 @@
         <v>46</v>
       </c>
       <c r="B36" s="25">
-        <v>55.682884624539582</v>
+        <v>54.179619293672175</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="26">
-        <v>2.7032591752783088E-5</v>
+        <v>0</v>
       </c>
       <c r="E36" s="27">
-        <v>36992.383458646618</v>
+        <v>0</v>
       </c>
       <c r="F36" s="28">
         <v>0</v>
@@ -2803,17 +2844,17 @@
         <v>0</v>
       </c>
       <c r="H36" s="28">
-        <v>5.568112314272688</v>
+        <v>5.4178061059760942</v>
       </c>
       <c r="I36" s="28">
         <v>0</v>
       </c>
       <c r="J36" s="28">
-        <v>1.7614818127002839E-3</v>
+        <v>1.5582339112348664E-3</v>
       </c>
       <c r="K36"/>
       <c r="L36" s="27">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="M36" s="29">
         <v>4919987</v>
@@ -2824,35 +2865,35 @@
         <v>47</v>
       </c>
       <c r="B37" s="25">
-        <v>68.454647320509636</v>
+        <v>66.788802630656335</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="26">
-        <v>7.0943012955672147E-7</v>
+        <v>2.4238862759854649E-6</v>
       </c>
       <c r="E37" s="27">
-        <v>1409582.0833333333</v>
+        <v>412560.60975609755</v>
       </c>
       <c r="F37" s="28">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G37" s="25">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H37" s="28">
-        <v>6.8454444072608167</v>
+        <v>6.6789249809914208</v>
       </c>
       <c r="I37" s="28">
-        <v>0</v>
+        <v>5.5555555555555556E-4</v>
       </c>
       <c r="J37" s="28">
-        <v>2.0324790146541738E-4</v>
+        <v>1.2194874087925042E-3</v>
       </c>
       <c r="K37"/>
       <c r="L37" s="27">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="M37" s="29">
         <v>16914985</v>
@@ -2863,35 +2904,35 @@
         <v>48</v>
       </c>
       <c r="B38" s="25">
-        <v>26.651835586715745</v>
+        <v>30.899238736371327</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="26">
-        <v>1.5406486719332063E-2</v>
+        <v>6.1250667669076816E-3</v>
       </c>
       <c r="E38" s="27">
-        <v>64.907724792648523</v>
+        <v>163.26352643252292</v>
       </c>
       <c r="F38" s="28">
-        <v>6.2759999999999998</v>
+        <v>3.22</v>
       </c>
       <c r="G38" s="25">
-        <v>4286</v>
+        <v>3745</v>
       </c>
       <c r="H38" s="28">
-        <v>2.7668962084822151</v>
+        <v>3.131635093937533</v>
       </c>
       <c r="I38" s="28">
-        <v>0.43583333333333329</v>
+        <v>0.22361111111111112</v>
       </c>
       <c r="J38" s="28">
-        <v>0.2903735018935929</v>
+        <v>0.25372113032932936</v>
       </c>
       <c r="K38"/>
       <c r="L38" s="27">
-        <v>295995</v>
+        <v>117677</v>
       </c>
       <c r="M38" s="29">
         <v>19212362</v>
@@ -2902,16 +2943,16 @@
         <v>49</v>
       </c>
       <c r="B39" s="25">
-        <v>66.097185931589564</v>
+        <v>53.430519073565137</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D39" s="26">
-        <v>3.0023207704133464E-6</v>
+        <v>5.3667176188290411E-5</v>
       </c>
       <c r="E39" s="27">
-        <v>333075.66928044282</v>
+        <v>18633.363463945192</v>
       </c>
       <c r="F39" s="28">
         <v>0</v>
@@ -2920,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="28">
-        <v>6.6097185931589566</v>
+        <v>5.3430519073565135</v>
       </c>
       <c r="I39" s="28">
         <v>0</v>
@@ -2930,7 +2971,7 @@
       </c>
       <c r="K39"/>
       <c r="L39" s="27">
-        <v>4336</v>
+        <v>77507</v>
       </c>
       <c r="M39" s="29">
         <v>1444216102</v>
@@ -2941,35 +2982,35 @@
         <v>50</v>
       </c>
       <c r="B40" s="25">
-        <v>43.269252333044527</v>
+        <v>48.913237439542996</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" s="26">
-        <v>3.5731394711734077E-4</v>
+        <v>1.1089255319151012E-4</v>
       </c>
       <c r="E40" s="27">
-        <v>2798.65929686647</v>
+        <v>9017.7380826737026</v>
       </c>
       <c r="F40" s="28">
-        <v>0.78300000000000003</v>
+        <v>0.251</v>
       </c>
       <c r="G40" s="25">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="H40" s="28">
-        <v>4.3399789919509573</v>
+        <v>4.8936058160497176</v>
       </c>
       <c r="I40" s="28">
-        <v>5.4375E-2</v>
+        <v>1.7430555555555557E-2</v>
       </c>
       <c r="J40" s="28">
-        <v>3.2587413534955249E-2</v>
+        <v>2.9470945712485517E-2</v>
       </c>
       <c r="K40"/>
       <c r="L40" s="27">
-        <v>18318</v>
+        <v>5685</v>
       </c>
       <c r="M40" s="29">
         <v>51265841</v>
@@ -2980,16 +3021,16 @@
         <v>51</v>
       </c>
       <c r="B41" s="25">
-        <v>54.862379267236548</v>
+        <v>57.368481617217185</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="26">
-        <v>3.4891992400298944E-5</v>
+        <v>1.3506577703341527E-5</v>
       </c>
       <c r="E41" s="27">
-        <v>28659.870967741936</v>
+        <v>74038</v>
       </c>
       <c r="F41" s="28">
         <v>0</v>
@@ -2998,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="28">
-        <v>5.4862379267236552</v>
+        <v>5.7368481617217189</v>
       </c>
       <c r="I41" s="28">
         <v>0</v>
@@ -3008,7 +3049,7 @@
       </c>
       <c r="K41"/>
       <c r="L41" s="27">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="M41" s="29">
         <v>888456</v>
@@ -3019,35 +3060,35 @@
         <v>52</v>
       </c>
       <c r="B42" s="25">
-        <v>56.849401840994531</v>
+        <v>65.143218966397399</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D42" s="26">
-        <v>1.3081099102230027E-5</v>
+        <v>3.8889754087710889E-6</v>
       </c>
       <c r="E42" s="27">
-        <v>76446.175675675666</v>
+        <v>257137.13636363638</v>
       </c>
       <c r="F42" s="28">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G42" s="25">
         <v>0</v>
       </c>
       <c r="H42" s="28">
-        <v>5.6849401840994531</v>
+        <v>6.5148427299730729</v>
       </c>
       <c r="I42" s="28">
-        <v>0</v>
+        <v>1.7361111111111112E-3</v>
       </c>
       <c r="J42" s="28">
         <v>0</v>
       </c>
       <c r="K42"/>
       <c r="L42" s="27">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="M42" s="29">
         <v>5657017</v>
@@ -3058,35 +3099,35 @@
         <v>53</v>
       </c>
       <c r="B43" s="25">
-        <v>32.424451378487184</v>
+        <v>36.765520658241073</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D43" s="26">
-        <v>4.2784147195991168E-3</v>
+        <v>1.9643697000206071E-3</v>
       </c>
       <c r="E43" s="27">
-        <v>233.73143220994223</v>
+        <v>509.06914314016836</v>
       </c>
       <c r="F43" s="28">
-        <v>2.113</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="G43" s="25">
         <v>0</v>
       </c>
       <c r="H43" s="28">
-        <v>3.2747317923374482</v>
+        <v>3.6867906064533629</v>
       </c>
       <c r="I43" s="28">
-        <v>0.14673611111111112</v>
+        <v>7.1458333333333332E-2</v>
       </c>
       <c r="J43" s="28">
-        <v>0.1173417884460343</v>
+        <v>0.11198959370744498</v>
       </c>
       <c r="K43"/>
       <c r="L43" s="27">
-        <v>21987</v>
+        <v>10095</v>
       </c>
       <c r="M43" s="29">
         <v>5139053</v>
@@ -3097,35 +3138,35 @@
         <v>54</v>
       </c>
       <c r="B44" s="25">
-        <v>61.750501327908772</v>
+        <v>64.113994384129995</v>
       </c>
       <c r="C44" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="26">
-        <v>5.9511424511661637E-6</v>
+        <v>3.8442162417470868E-6</v>
       </c>
       <c r="E44" s="27">
-        <v>168034.96273291923</v>
+        <v>260131.04807692309</v>
       </c>
       <c r="F44" s="28">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G44" s="25">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="H44" s="28">
-        <v>6.1745445557531475</v>
+        <v>6.4110403671204113</v>
       </c>
       <c r="I44" s="28">
-        <v>3.4722222222222224E-4</v>
+        <v>0</v>
       </c>
       <c r="J44" s="28">
-        <v>6.0974370439625209E-3</v>
+        <v>3.5907129258890402E-3</v>
       </c>
       <c r="K44"/>
       <c r="L44" s="27">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="M44" s="29">
         <v>27053629</v>
@@ -3136,35 +3177,35 @@
         <v>55</v>
       </c>
       <c r="B45" s="25">
-        <v>31.610473053262137</v>
+        <v>32.521518337435154</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="26">
-        <v>4.814221283170046E-3</v>
+        <v>4.8458260946473456E-3</v>
       </c>
       <c r="E45" s="27">
-        <v>207.71791348600507</v>
+        <v>206.36316295060416</v>
       </c>
       <c r="F45" s="28">
-        <v>5.2149999999999999</v>
+        <v>2.73</v>
       </c>
       <c r="G45" s="25">
-        <v>1208</v>
+        <v>1201</v>
       </c>
       <c r="H45" s="28">
-        <v>3.2615090231605395</v>
+        <v>3.3008901427548496</v>
       </c>
       <c r="I45" s="28">
-        <v>0.36215277777777777</v>
+        <v>0.18958333333333333</v>
       </c>
       <c r="J45" s="28">
-        <v>8.184115499007473E-2</v>
+        <v>8.1366909886655431E-2</v>
       </c>
       <c r="K45"/>
       <c r="L45" s="27">
-        <v>19650</v>
+        <v>19779</v>
       </c>
       <c r="M45" s="29">
         <v>4081657</v>
@@ -3175,35 +3216,35 @@
         <v>56</v>
       </c>
       <c r="B46" s="25">
-        <v>41.71340310858362</v>
+        <v>40.308425498950115</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="26">
-        <v>6.6339751065120581E-4</v>
+        <v>9.8732069579336354E-4</v>
       </c>
       <c r="E46" s="27">
-        <v>1507.3918486947255</v>
+        <v>1012.8421335242527</v>
       </c>
       <c r="F46" s="28">
-        <v>0.05</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G46" s="25">
         <v>0</v>
       </c>
       <c r="H46" s="28">
-        <v>4.1723819775250286</v>
+        <v>4.0313633832283449</v>
       </c>
       <c r="I46" s="28">
-        <v>3.4722222222222225E-3</v>
+        <v>1.7361111111111112E-3</v>
       </c>
       <c r="J46" s="28">
         <v>0</v>
       </c>
       <c r="K46"/>
       <c r="L46" s="27">
-        <v>7508</v>
+        <v>11174</v>
       </c>
       <c r="M46" s="29">
         <v>11317498</v>
@@ -3214,35 +3255,35 @@
         <v>57</v>
       </c>
       <c r="B47" s="25">
-        <v>31.0141378556673</v>
+        <v>27.897522234615167</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="26">
-        <v>3.510025055663752E-2</v>
+        <v>7.0293134524918949E-2</v>
       </c>
       <c r="E47" s="27">
-        <v>28.489825119236883</v>
+        <v>14.226140387088579</v>
       </c>
       <c r="F47" s="28">
-        <v>4.4640000000000004</v>
+        <v>2.073</v>
       </c>
       <c r="G47" s="25">
-        <v>0</v>
+        <v>95930</v>
       </c>
       <c r="H47" s="28">
-        <v>2.5105726712262357</v>
+        <v>2.1830206838756006</v>
       </c>
       <c r="I47" s="28">
-        <v>0.31000000000000005</v>
+        <v>0.14395833333333333</v>
       </c>
       <c r="J47" s="28">
-        <v>6.8384111434049446</v>
+        <v>6.4991903958591628</v>
       </c>
       <c r="K47"/>
       <c r="L47" s="27">
-        <v>31450</v>
+        <v>62983</v>
       </c>
       <c r="M47" s="29">
         <v>896005</v>
@@ -3253,35 +3294,35 @@
         <v>58</v>
       </c>
       <c r="B48" s="25">
-        <v>28.949326125484056</v>
+        <v>29.554453711855842</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="26">
-        <v>1.0502815362094811E-2</v>
+        <v>9.870248205216571E-3</v>
       </c>
       <c r="E48" s="27">
-        <v>95.212565919139195</v>
+        <v>101.31457479169423</v>
       </c>
       <c r="F48" s="28">
-        <v>3.7429999999999999</v>
+        <v>2.6240000000000001</v>
       </c>
       <c r="G48" s="25">
-        <v>3021</v>
+        <v>2491</v>
       </c>
       <c r="H48" s="28">
-        <v>2.9524447155375046</v>
+        <v>2.9932356871005723</v>
       </c>
       <c r="I48" s="28">
-        <v>0.25993055555555555</v>
+        <v>0.18222222222222223</v>
       </c>
       <c r="J48" s="28">
-        <v>0.20467063677567529</v>
+        <v>0.1687635075167849</v>
       </c>
       <c r="K48"/>
       <c r="L48" s="27">
-        <v>112638</v>
+        <v>105854</v>
       </c>
       <c r="M48" s="29">
         <v>10724553</v>
@@ -3292,35 +3333,35 @@
         <v>59</v>
       </c>
       <c r="B49" s="25">
-        <v>64.559815918800723</v>
+        <v>64.840619278272143</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="26">
-        <v>3.8104316324887189E-6</v>
+        <v>3.1068007912621089E-6</v>
       </c>
       <c r="E49" s="27">
-        <v>262437.46022727271</v>
+        <v>321874.5156794425</v>
       </c>
       <c r="F49" s="28">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G49" s="25">
         <v>0</v>
       </c>
       <c r="H49" s="28">
-        <v>6.4559815918800716</v>
+        <v>6.4841244278272141</v>
       </c>
       <c r="I49" s="28">
-        <v>0</v>
+        <v>2.0833333333333335E-4</v>
       </c>
       <c r="J49" s="28">
         <v>0</v>
       </c>
       <c r="K49"/>
       <c r="L49" s="27">
-        <v>352</v>
+        <v>287</v>
       </c>
       <c r="M49" s="29">
         <v>92377986</v>
@@ -3331,35 +3372,35 @@
         <v>60</v>
       </c>
       <c r="B50" s="25">
-        <v>22.072081356244198</v>
+        <v>27.654224750933565</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D50" s="26">
-        <v>3.9799583782160294E-2</v>
+        <v>1.2457291914302749E-2</v>
       </c>
       <c r="E50" s="27">
-        <v>25.125890900603803</v>
+        <v>80.274268828191893</v>
       </c>
       <c r="F50" s="28">
-        <v>8.8960000000000008</v>
+        <v>4.423</v>
       </c>
       <c r="G50" s="25">
-        <v>9208</v>
+        <v>4282</v>
       </c>
       <c r="H50" s="28">
-        <v>2.3301579130679677</v>
+        <v>2.828558057957526</v>
       </c>
       <c r="I50" s="28">
-        <v>0.61777777777777787</v>
+        <v>0.30715277777777777</v>
       </c>
       <c r="J50" s="28">
-        <v>0.62383555889785436</v>
+        <v>0.29010250469163906</v>
       </c>
       <c r="K50"/>
       <c r="L50" s="27">
-        <v>231367</v>
+        <v>72418</v>
       </c>
       <c r="M50" s="29">
         <v>5813302</v>
@@ -3370,35 +3411,35 @@
         <v>61</v>
       </c>
       <c r="B51" s="25">
-        <v>59.143948329481375</v>
+        <v>58.117462865708021</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="26">
-        <v>1.8958348508327205E-5</v>
+        <v>1.4967117243416214E-5</v>
       </c>
       <c r="E51" s="27">
-        <v>52747.210526315786</v>
+        <v>66813.133333333331</v>
       </c>
       <c r="F51" s="28">
         <v>0</v>
       </c>
       <c r="G51" s="25">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="H51" s="28">
-        <v>5.9115425873975731</v>
+        <v>5.808636593678381</v>
       </c>
       <c r="I51" s="28">
         <v>0</v>
       </c>
       <c r="J51" s="28">
-        <v>2.8522455505646905E-2</v>
+        <v>3.1096928924208858E-2</v>
       </c>
       <c r="K51"/>
       <c r="L51" s="27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M51" s="29">
         <v>1002197</v>
@@ -3409,35 +3450,35 @@
         <v>62</v>
       </c>
       <c r="B52" s="25">
-        <v>31.793657445124396</v>
+        <v>34.410183012548487</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="26">
-        <v>6.7339134290306489E-3</v>
+        <v>2.9928504129025108E-3</v>
       </c>
       <c r="E52" s="27">
-        <v>148.50205761316872</v>
+        <v>334.12962962962962</v>
       </c>
       <c r="F52" s="28">
-        <v>1.9790000000000001</v>
+        <v>0</v>
       </c>
       <c r="G52" s="25">
         <v>0</v>
       </c>
       <c r="H52" s="28">
-        <v>3.2205949111791061</v>
+        <v>3.4410183012548488</v>
       </c>
       <c r="I52" s="28">
-        <v>0.13743055555555556</v>
+        <v>0</v>
       </c>
       <c r="J52" s="28">
         <v>0</v>
       </c>
       <c r="K52"/>
       <c r="L52" s="27">
-        <v>486</v>
+        <v>216</v>
       </c>
       <c r="M52" s="29">
         <v>72172</v>
@@ -3448,35 +3489,35 @@
         <v>63</v>
       </c>
       <c r="B53" s="25">
-        <v>44.643672393129997</v>
+        <v>49.602605875105127</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D53" s="26">
-        <v>2.5215191851823043E-4</v>
+        <v>8.6728574436031471E-5</v>
       </c>
       <c r="E53" s="27">
-        <v>3965.8631426502534</v>
+        <v>11530.225263157894</v>
       </c>
       <c r="F53" s="28">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G53" s="25">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="H53" s="28">
-        <v>4.4622666832606157</v>
+        <v>4.9584720059776171</v>
       </c>
       <c r="I53" s="28">
-        <v>1.8055555555555555E-3</v>
+        <v>0</v>
       </c>
       <c r="J53" s="28">
-        <v>2.6422227190504258E-2</v>
+        <v>1.7885815328956729E-2</v>
       </c>
       <c r="K53"/>
       <c r="L53" s="27">
-        <v>2762</v>
+        <v>950</v>
       </c>
       <c r="M53" s="29">
         <v>10953714</v>
@@ -3487,35 +3528,35 @@
         <v>64</v>
       </c>
       <c r="B54" s="25">
-        <v>38.969018469420938</v>
+        <v>42.035573988045797</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="26">
-        <v>8.9443068201345741E-4</v>
+        <v>5.6969644252494655E-4</v>
       </c>
       <c r="E54" s="27">
-        <v>1118.0296249999999</v>
+        <v>1755.3207732312824</v>
       </c>
       <c r="F54" s="28">
-        <v>0.41499999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G54" s="25">
         <v>0</v>
       </c>
       <c r="H54" s="28">
-        <v>3.9037929733927759</v>
+        <v>4.2032444241360434</v>
       </c>
       <c r="I54" s="28">
-        <v>2.8819444444444443E-2</v>
+        <v>4.4444444444444444E-3</v>
       </c>
       <c r="J54" s="28">
-        <v>1.7547068826514366E-2</v>
+        <v>1.6463080018698808E-2</v>
       </c>
       <c r="K54"/>
       <c r="L54" s="27">
-        <v>16000</v>
+        <v>10191</v>
       </c>
       <c r="M54" s="29">
         <v>17888474</v>
@@ -3526,35 +3567,35 @@
         <v>65</v>
       </c>
       <c r="B55" s="25">
-        <v>47.053681366782797</v>
+        <v>51.134363923089438</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="26">
-        <v>1.6637519993966524E-4</v>
+        <v>9.4870120062448351E-5</v>
       </c>
       <c r="E55" s="27">
-        <v>6010.5111841346716</v>
+        <v>10540.726620159741</v>
       </c>
       <c r="F55" s="28">
-        <v>0.16400000000000001</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="G55" s="25">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="H55" s="28">
-        <v>4.7087848033449466</v>
+        <v>5.1141530431392113</v>
       </c>
       <c r="I55" s="28">
-        <v>1.1388888888888889E-2</v>
+        <v>5.347222222222222E-3</v>
       </c>
       <c r="J55" s="28">
-        <v>0</v>
+        <v>8.8751583639898914E-3</v>
       </c>
       <c r="K55"/>
       <c r="L55" s="27">
-        <v>17346</v>
+        <v>9891</v>
       </c>
       <c r="M55" s="29">
         <v>104258327</v>
@@ -3565,35 +3606,35 @@
         <v>66</v>
       </c>
       <c r="B56" s="25">
-        <v>38.748239760726179</v>
+        <v>42.017278942649405</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="26">
-        <v>1.3159469203037509E-3</v>
+        <v>1.1459691646851269E-4</v>
       </c>
       <c r="E56" s="27">
-        <v>759.90906971321988</v>
+        <v>8726.2382864792507</v>
       </c>
       <c r="F56" s="28">
-        <v>0.28499999999999998</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="G56" s="25">
         <v>0</v>
       </c>
       <c r="H56" s="28">
-        <v>3.8807614760726179</v>
+        <v>4.198723927543397</v>
       </c>
       <c r="I56" s="28">
-        <v>1.9791666666666666E-2</v>
+        <v>6.1111111111111106E-3</v>
       </c>
       <c r="J56" s="28">
-        <v>0</v>
+        <v>4.8373000548769335E-2</v>
       </c>
       <c r="K56"/>
       <c r="L56" s="27">
-        <v>8578</v>
+        <v>747</v>
       </c>
       <c r="M56" s="29">
         <v>6518500</v>
@@ -3604,35 +3645,35 @@
         <v>67</v>
       </c>
       <c r="B57" s="25">
-        <v>58.947635464574255</v>
+        <v>51.502490166290258</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="26">
-        <v>1.1725019329039217E-5</v>
+        <v>6.9660408954880059E-5</v>
       </c>
       <c r="E57" s="27">
-        <v>85287.705882352937</v>
+        <v>14355.356435643564</v>
       </c>
       <c r="F57" s="28">
         <v>0</v>
       </c>
       <c r="G57" s="25">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H57" s="28">
-        <v>5.8924532953107684</v>
+        <v>5.1490972785207214</v>
       </c>
       <c r="I57" s="28">
         <v>0</v>
       </c>
       <c r="J57" s="28">
-        <v>2.3102511466569109E-2</v>
+        <v>1.1517381083040318E-2</v>
       </c>
       <c r="K57"/>
       <c r="L57" s="27">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="M57" s="29">
         <v>1449891</v>
@@ -3643,16 +3684,16 @@
         <v>68</v>
       </c>
       <c r="B58" s="25">
-        <v>61.41522192762632</v>
+        <v>70.034458205758597</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="26">
-        <v>6.3862953433911004E-6</v>
+        <v>1.6659900895802872E-6</v>
       </c>
       <c r="E58" s="27">
-        <v>156585.30434782608</v>
+        <v>600243.66666666663</v>
       </c>
       <c r="F58" s="28">
         <v>0</v>
@@ -3661,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="28">
-        <v>6.1415221927626318</v>
+        <v>7.003445820575859</v>
       </c>
       <c r="I58" s="28">
         <v>0</v>
@@ -3671,7 +3712,7 @@
       </c>
       <c r="K58"/>
       <c r="L58" s="27">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M58" s="29">
         <v>3601462</v>
@@ -3682,35 +3723,35 @@
         <v>69</v>
       </c>
       <c r="B59" s="25">
-        <v>22.807279705387224</v>
+        <v>27.620691217228412</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D59" s="26">
-        <v>3.5321026148742669E-2</v>
+        <v>1.3304527357627749E-2</v>
       </c>
       <c r="E59" s="27">
-        <v>28.311748242784198</v>
+        <v>75.162384436503885</v>
       </c>
       <c r="F59" s="28">
-        <v>6.468</v>
+        <v>3.8809999999999998</v>
       </c>
       <c r="G59" s="25">
-        <v>3960</v>
+        <v>2600</v>
       </c>
       <c r="H59" s="28">
-        <v>2.3886492475452874</v>
+        <v>2.8253084702625051</v>
       </c>
       <c r="I59" s="28">
-        <v>0.44916666666666666</v>
+        <v>0.26951388888888889</v>
       </c>
       <c r="J59" s="28">
-        <v>0.26828722993435095</v>
+        <v>0.1761481812700284</v>
       </c>
       <c r="K59"/>
       <c r="L59" s="27">
-        <v>46807</v>
+        <v>17631</v>
       </c>
       <c r="M59" s="29">
         <v>1325188</v>
@@ -3721,35 +3762,35 @@
         <v>70</v>
       </c>
       <c r="B60" s="25">
-        <v>45.71771320792773</v>
+        <v>47.104423849495426</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="26">
-        <v>2.4224454928439766E-4</v>
+        <v>2.0812559868096136E-4</v>
       </c>
       <c r="E60" s="27">
-        <v>4128.0598591549297</v>
+        <v>4804.7909836065573</v>
       </c>
       <c r="F60" s="28">
         <v>0.122</v>
       </c>
       <c r="G60" s="25">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="H60" s="28">
-        <v>4.5743129874594395</v>
+        <v>4.709230740369148</v>
       </c>
       <c r="I60" s="28">
         <v>8.4722222222222213E-3</v>
       </c>
       <c r="J60" s="28">
-        <v>0</v>
+        <v>3.7533112470613743E-2</v>
       </c>
       <c r="K60"/>
       <c r="L60" s="27">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="M60" s="29">
         <v>1172369</v>
@@ -3760,35 +3801,35 @@
         <v>71</v>
       </c>
       <c r="B61" s="25">
-        <v>62.783565099313655</v>
+        <v>64.556362611771689</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="26">
-        <v>4.8355806708640298E-6</v>
+        <v>3.0964683243252122E-6</v>
       </c>
       <c r="E61" s="27">
-        <v>206800.39649122808</v>
+        <v>322948.56438356166</v>
       </c>
       <c r="F61" s="28">
-        <v>1.2999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G61" s="25">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H61" s="28">
-        <v>6.2783360212725983</v>
+        <v>6.4554772226583035</v>
       </c>
       <c r="I61" s="28">
-        <v>9.0277777777777774E-4</v>
+        <v>4.861111111111111E-4</v>
       </c>
       <c r="J61" s="28">
-        <v>2.9132199210043152E-3</v>
+        <v>3.0487185219812605E-3</v>
       </c>
       <c r="K61"/>
       <c r="L61" s="27">
-        <v>570</v>
+        <v>365</v>
       </c>
       <c r="M61" s="29">
         <v>117876226</v>
@@ -3799,35 +3840,35 @@
         <v>72</v>
       </c>
       <c r="B62" s="25">
-        <v>43.740096431562982</v>
+        <v>44.892436111418199</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="26">
-        <v>4.1311375912477476E-4</v>
+        <v>2.7688589753671231E-4</v>
       </c>
       <c r="E62" s="27">
-        <v>2420.6407506702412</v>
+        <v>3611.596</v>
       </c>
       <c r="F62" s="28">
         <v>0</v>
       </c>
       <c r="G62" s="25">
-        <v>660</v>
+        <v>132</v>
       </c>
       <c r="H62" s="28">
-        <v>4.369538189324059</v>
+        <v>4.4883493203753719</v>
       </c>
       <c r="I62" s="28">
         <v>0</v>
       </c>
       <c r="J62" s="28">
-        <v>4.4714538322391827E-2</v>
+        <v>8.9429076644783646E-3</v>
       </c>
       <c r="K62"/>
       <c r="L62" s="27">
-        <v>373</v>
+        <v>250</v>
       </c>
       <c r="M62" s="29">
         <v>902899</v>
@@ -3838,35 +3879,35 @@
         <v>73</v>
       </c>
       <c r="B63" s="25">
-        <v>28.1393623791034</v>
+        <v>26.425862907016796</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="26">
-        <v>1.3597709305504815E-2</v>
+        <v>1.8161038908607426E-2</v>
       </c>
       <c r="E63" s="27">
-        <v>73.541798661276417</v>
+        <v>55.062929220753439</v>
       </c>
       <c r="F63" s="28">
-        <v>4.8659999999999997</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="G63" s="25">
-        <v>0</v>
+        <v>2412</v>
       </c>
       <c r="H63" s="28">
-        <v>2.8999050469792613</v>
+        <v>2.7297659927571933</v>
       </c>
       <c r="I63" s="28">
-        <v>0.33791666666666664</v>
+        <v>0.34506944444444448</v>
       </c>
       <c r="J63" s="28">
-        <v>0.15406190931078637</v>
+        <v>0.16341131277819557</v>
       </c>
       <c r="K63"/>
       <c r="L63" s="27">
-        <v>75445</v>
+        <v>100764</v>
       </c>
       <c r="M63" s="29">
         <v>5548361</v>
@@ -3877,35 +3918,35 @@
         <v>74</v>
       </c>
       <c r="B64" s="25">
-        <v>29.254278912560334</v>
+        <v>26.454583889434538</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="26">
-        <v>1.147942807985524E-2</v>
+        <v>2.6033253240781942E-2</v>
       </c>
       <c r="E64" s="27">
-        <v>87.112353772646344</v>
+        <v>38.412410110675964</v>
       </c>
       <c r="F64" s="28">
-        <v>1.9870000000000001</v>
+        <v>1.7589999999999999</v>
       </c>
       <c r="G64" s="25">
-        <v>0</v>
+        <v>7209</v>
       </c>
       <c r="H64" s="28">
-        <v>2.9388161637674322</v>
+        <v>2.6332637515546473</v>
       </c>
       <c r="I64" s="28">
-        <v>0.13798611111111111</v>
+        <v>0.12215277777777778</v>
       </c>
       <c r="J64" s="28">
-        <v>0.28007560821934518</v>
+        <v>0.48840470722139789</v>
       </c>
       <c r="K64"/>
       <c r="L64" s="27">
-        <v>773966</v>
+        <v>1755214</v>
       </c>
       <c r="M64" s="29">
         <v>67422000</v>
@@ -3916,35 +3957,35 @@
         <v>75</v>
       </c>
       <c r="B65" s="25">
-        <v>55.979753680517632</v>
+        <v>61.388508152293134</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D65" s="26">
-        <v>1.9308162218402521E-5</v>
+        <v>6.1435061604008025E-6</v>
       </c>
       <c r="E65" s="27">
-        <v>51791.568181818184</v>
+        <v>162773.5</v>
       </c>
       <c r="F65" s="28">
         <v>0</v>
       </c>
       <c r="G65" s="25">
-        <v>546</v>
+        <v>72</v>
       </c>
       <c r="H65" s="28">
-        <v>5.5942762562450925</v>
+        <v>6.1383630202657962</v>
       </c>
       <c r="I65" s="28">
         <v>0</v>
       </c>
       <c r="J65" s="28">
-        <v>3.6991118066705964E-2</v>
+        <v>4.8779496351700168E-3</v>
       </c>
       <c r="K65"/>
       <c r="L65" s="27">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M65" s="29">
         <v>2278829</v>
@@ -3955,35 +3996,35 @@
         <v>76</v>
       </c>
       <c r="B66" s="25">
-        <v>59.155049557077604</v>
+        <v>61.371146696007258</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D66" s="26">
-        <v>1.5681941279574031E-5</v>
+        <v>6.0315158767592424E-6</v>
       </c>
       <c r="E66" s="27">
-        <v>63767.615384615383</v>
+        <v>165795.79999999999</v>
       </c>
       <c r="F66" s="28">
         <v>0</v>
       </c>
       <c r="G66" s="25">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="H66" s="28">
-        <v>5.9123342884448995</v>
+        <v>6.1369317464894069</v>
       </c>
       <c r="I66" s="28">
         <v>0</v>
       </c>
       <c r="J66" s="28">
-        <v>3.1706672628605111E-2</v>
+        <v>1.8292311131887563E-3</v>
       </c>
       <c r="K66"/>
       <c r="L66" s="27">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M66" s="29">
         <v>2486937</v>
@@ -3994,35 +4035,35 @@
         <v>77</v>
       </c>
       <c r="B67" s="25">
-        <v>26.067145062270097</v>
+        <v>35.538576293486727</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D67" s="26">
-        <v>1.1921785488770339E-2</v>
+        <v>2.1574094803899621E-3</v>
       </c>
       <c r="E67" s="27">
-        <v>83.880053113012693</v>
+        <v>463.51886792452825</v>
       </c>
       <c r="F67" s="28">
-        <v>7.5739999999999998</v>
+        <v>2.0459999999999998</v>
       </c>
       <c r="G67" s="25">
-        <v>1749</v>
+        <v>997</v>
       </c>
       <c r="H67" s="28">
-        <v>2.7526568202382427</v>
+        <v>3.5897280240899718</v>
       </c>
       <c r="I67" s="28">
-        <v>0.52597222222222217</v>
+        <v>0.14208333333333331</v>
       </c>
       <c r="J67" s="28">
-        <v>0.11849352655433833</v>
+        <v>6.7546052587007036E-2</v>
       </c>
       <c r="K67"/>
       <c r="L67" s="27">
-        <v>47446</v>
+        <v>8586</v>
       </c>
       <c r="M67" s="29">
         <v>3979773</v>
@@ -4033,35 +4074,35 @@
         <v>78</v>
       </c>
       <c r="B68" s="25">
-        <v>25.356874621156347</v>
+        <v>23.829700182021966</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D68" s="26">
-        <v>2.807614751054258E-2</v>
+        <v>4.0579104734704052E-2</v>
       </c>
       <c r="E68" s="27">
-        <v>35.617422213090329</v>
+        <v>24.643224796055698</v>
       </c>
       <c r="F68" s="28">
-        <v>2.5110000000000001</v>
+        <v>3.2109999999999999</v>
       </c>
       <c r="G68" s="25">
         <v>0</v>
       </c>
       <c r="H68" s="28">
-        <v>2.5666860321819613</v>
+        <v>2.4233284505341954</v>
       </c>
       <c r="I68" s="28">
-        <v>0.174375</v>
+        <v>0.22298611111111111</v>
       </c>
       <c r="J68" s="28">
-        <v>0.21313929933673434</v>
+        <v>0.2653740100133466</v>
       </c>
       <c r="K68"/>
       <c r="L68" s="27">
-        <v>2355602</v>
+        <v>3404606</v>
       </c>
       <c r="M68" s="29">
         <v>83900471</v>
@@ -4072,35 +4113,35 @@
         <v>79</v>
       </c>
       <c r="B69" s="25">
-        <v>52.731040025185656</v>
+        <v>62.087790337114718</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D69" s="26">
-        <v>4.9066989771376188E-5</v>
+        <v>6.176705199222693E-6</v>
       </c>
       <c r="E69" s="27">
-        <v>20380.300578034683</v>
+        <v>161898.61224489796</v>
       </c>
       <c r="F69" s="28">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
       <c r="G69" s="25">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="H69" s="28">
-        <v>5.2723658798178077</v>
+        <v>6.2082980136780037</v>
       </c>
       <c r="I69" s="28">
-        <v>9.7222222222222219E-4</v>
+        <v>0</v>
       </c>
       <c r="J69" s="28">
-        <v>1.0297893674247813E-2</v>
+        <v>4.8102003346815443E-3</v>
       </c>
       <c r="K69"/>
       <c r="L69" s="27">
-        <v>1557</v>
+        <v>196</v>
       </c>
       <c r="M69" s="29">
         <v>31732128</v>
@@ -4111,35 +4152,35 @@
         <v>80</v>
       </c>
       <c r="B70" s="25">
-        <v>27.472271820547906</v>
+        <v>25.998480624864381</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="26">
-        <v>2.0632072115923761E-2</v>
+        <v>2.8692532948687302E-2</v>
       </c>
       <c r="E70" s="27">
-        <v>48.468229191008085</v>
+        <v>34.852273300107875</v>
       </c>
       <c r="F70" s="28">
-        <v>5.3449999999999998</v>
+        <v>5.3029999999999999</v>
       </c>
       <c r="G70" s="25">
-        <v>23707</v>
+        <v>24827</v>
       </c>
       <c r="H70" s="28">
-        <v>2.6979680820534355</v>
+        <v>2.5421260408303743</v>
       </c>
       <c r="I70" s="28">
-        <v>0.37118055555555551</v>
+        <v>0.36826388888888889</v>
       </c>
       <c r="J70" s="28">
-        <v>1.6061326666802165</v>
+        <v>1.6820118832273059</v>
       </c>
       <c r="K70"/>
       <c r="L70" s="27">
-        <v>213970</v>
+        <v>297563</v>
       </c>
       <c r="M70" s="29">
         <v>10370747</v>
@@ -4150,16 +4191,16 @@
         <v>81</v>
       </c>
       <c r="B71" s="25">
-        <v>43.516889983282894</v>
+        <v>36.906008389797634</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="26">
-        <v>9.6447374242357214E-4</v>
+        <v>8.0520284917931246E-4</v>
       </c>
       <c r="E71" s="27">
-        <v>1036.834862385321</v>
+        <v>1241.9230769230769</v>
       </c>
       <c r="F71" s="28">
         <v>0</v>
@@ -4168,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="H71" s="28">
-        <v>4.3516889983282896</v>
+        <v>3.6906008389797638</v>
       </c>
       <c r="I71" s="28">
         <v>0</v>
@@ -4178,7 +4219,7 @@
       </c>
       <c r="K71"/>
       <c r="L71" s="27">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="M71" s="29">
         <v>113015</v>
@@ -4186,3061 +4227,3061 @@
     </row>
     <row r="72" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="B72" s="25">
-        <v>37.158227046694044</v>
+        <v>100.16083683935963</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72" s="26">
-        <v>1.6585325439066189E-3</v>
+        <v>0</v>
       </c>
       <c r="E72" s="27">
-        <v>602.94264569842744</v>
+        <v>0</v>
       </c>
       <c r="F72" s="28">
-        <v>0.76700000000000002</v>
+        <v>0</v>
       </c>
       <c r="G72" s="25">
-        <v>0</v>
+        <v>2374</v>
       </c>
       <c r="H72" s="28">
-        <v>3.7318018713360708</v>
+        <v>10</v>
       </c>
       <c r="I72" s="28">
-        <v>5.3263888888888888E-2</v>
+        <v>0</v>
       </c>
       <c r="J72" s="28">
-        <v>0</v>
+        <v>0.16083683935963361</v>
       </c>
       <c r="K72"/>
       <c r="L72" s="27">
-        <v>30268</v>
+        <v>0</v>
       </c>
       <c r="M72" s="29">
-        <v>18249868</v>
+        <v>170184</v>
       </c>
     </row>
     <row r="73" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B73" s="25">
-        <v>65.52133096004215</v>
+        <v>39.78644738632125</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D73" s="26">
-        <v>2.5190340808270611E-6</v>
+        <v>9.1776006270291924E-4</v>
       </c>
       <c r="E73" s="27">
-        <v>396977.5588235294</v>
+        <v>1089.609409516986</v>
       </c>
       <c r="F73" s="28">
-        <v>0</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="G73" s="25">
         <v>0</v>
       </c>
       <c r="H73" s="28">
-        <v>6.5521330960042148</v>
+        <v>3.9859780719654583</v>
       </c>
       <c r="I73" s="28">
-        <v>0</v>
+        <v>2.4444444444444442E-2</v>
       </c>
       <c r="J73" s="28">
         <v>0</v>
       </c>
       <c r="K73"/>
       <c r="L73" s="27">
-        <v>34</v>
+        <v>16749</v>
       </c>
       <c r="M73" s="29">
-        <v>13497237</v>
+        <v>18249868</v>
       </c>
     </row>
     <row r="74" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B74" s="25">
-        <v>52.88259155302206</v>
+        <v>66.923125983292991</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D74" s="26">
-        <v>3.8700266436449697E-5</v>
+        <v>1.7781417041132196E-6</v>
       </c>
       <c r="E74" s="27">
-        <v>25839.615384615383</v>
+        <v>562384.875</v>
       </c>
       <c r="F74" s="28">
-        <v>7.0999999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="G74" s="25">
         <v>0</v>
       </c>
       <c r="H74" s="28">
-        <v>5.2897383219688727</v>
+        <v>6.6919874016869541</v>
       </c>
       <c r="I74" s="28">
-        <v>4.9305555555555552E-3</v>
+        <v>0</v>
       </c>
       <c r="J74" s="28">
-        <v>0</v>
+        <v>3.2519664234466781E-3</v>
       </c>
       <c r="K74"/>
       <c r="L74" s="27">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="M74" s="29">
-        <v>2015490</v>
+        <v>13497237</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" s="25">
-        <v>43.268424473379945</v>
+        <v>54.56513076978689</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D75" s="26">
-        <v>3.909764161507423E-4</v>
+        <v>2.6296334886305563E-5</v>
       </c>
       <c r="E75" s="27">
-        <v>2557.6990291262136</v>
+        <v>38028.113207547169</v>
       </c>
       <c r="F75" s="28">
-        <v>0.18099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="G75" s="25">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H75" s="28">
-        <v>4.3306132806713276</v>
+        <v>5.4575179985419364</v>
       </c>
       <c r="I75" s="28">
-        <v>1.2569444444444444E-2</v>
+        <v>4.9305555555555552E-3</v>
       </c>
       <c r="J75" s="28">
-        <v>0</v>
+        <v>4.7424510341930728E-3</v>
       </c>
       <c r="K75"/>
       <c r="L75" s="27">
-        <v>309</v>
+        <v>53</v>
       </c>
       <c r="M75" s="29">
-        <v>790329</v>
+        <v>2015490</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B76" s="25">
-        <v>58.771347796150245</v>
+        <v>49.394495252700438</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="26">
-        <v>8.4043202364854408E-6</v>
+        <v>9.8693075921546595E-5</v>
       </c>
       <c r="E76" s="27">
-        <v>118986.42268041238</v>
+        <v>10132.423076923076</v>
       </c>
       <c r="F76" s="28">
-        <v>8.6999999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="G76" s="25">
         <v>0</v>
       </c>
       <c r="H76" s="28">
-        <v>5.878791456223901</v>
+        <v>4.9394495252700441</v>
       </c>
       <c r="I76" s="28">
-        <v>6.0416666666666665E-3</v>
+        <v>0</v>
       </c>
       <c r="J76" s="28">
-        <v>1.5582339112348664E-3</v>
+        <v>0</v>
       </c>
       <c r="K76"/>
       <c r="L76" s="27">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="M76" s="29">
-        <v>11541683</v>
+        <v>790329</v>
       </c>
     </row>
     <row r="77" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" s="25">
-        <v>41.69470224969114</v>
+        <v>62.547643211151865</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D77" s="26">
-        <v>3.4800775991717774E-4</v>
+        <v>5.9783308898710876E-6</v>
       </c>
       <c r="E77" s="27">
-        <v>2873.4991433466589</v>
+        <v>167270.76811594202</v>
       </c>
       <c r="F77" s="28">
-        <v>0.38300000000000001</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="G77" s="25">
         <v>0</v>
       </c>
       <c r="H77" s="28">
-        <v>4.1774493916357809</v>
+        <v>6.2561027398803875</v>
       </c>
       <c r="I77" s="28">
-        <v>2.6597222222222223E-2</v>
+        <v>5.138888888888889E-3</v>
       </c>
       <c r="J77" s="28">
-        <v>0</v>
+        <v>2.0324790146541735E-3</v>
       </c>
       <c r="K77"/>
       <c r="L77" s="27">
-        <v>3502</v>
+        <v>69</v>
       </c>
       <c r="M77" s="29">
-        <v>10062994</v>
+        <v>11541683</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B78" s="25">
-        <v>15.376895525936703</v>
+        <v>43.849332798240823</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="D78" s="26">
-        <v>6.508539879250079E-2</v>
+        <v>3.8368302713884158E-4</v>
       </c>
       <c r="E78" s="27">
-        <v>15.364429173862895</v>
+        <v>2606.3180523180522</v>
       </c>
       <c r="F78" s="28">
-        <v>33.743000000000002</v>
+        <v>0</v>
       </c>
       <c r="G78" s="25">
         <v>0</v>
       </c>
       <c r="H78" s="28">
-        <v>2.2406687192603369</v>
+        <v>4.3849332798240823</v>
       </c>
       <c r="I78" s="28">
-        <v>2.343263888888889</v>
+        <v>0</v>
       </c>
       <c r="J78" s="28">
         <v>0</v>
       </c>
       <c r="K78"/>
       <c r="L78" s="27">
-        <v>491577</v>
+        <v>3861</v>
       </c>
       <c r="M78" s="29">
-        <v>7552800</v>
+        <v>10062994</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B79" s="25">
-        <v>31.983369705774269</v>
+        <v>22.342811299017946</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D79" s="26">
-        <v>3.9046468182702345E-3</v>
+        <v>2.125741446880627E-2</v>
       </c>
       <c r="E79" s="27">
-        <v>256.10510925620713</v>
+        <v>47.042409671572628</v>
       </c>
       <c r="F79" s="28">
-        <v>5.8129999999999997</v>
+        <v>19.954999999999998</v>
       </c>
       <c r="G79" s="25">
-        <v>1307</v>
+        <v>0</v>
       </c>
       <c r="H79" s="28">
-        <v>3.3105863036702501</v>
+        <v>2.5381494265319442</v>
       </c>
       <c r="I79" s="28">
-        <v>0.40368055555555554</v>
+        <v>1.3857638888888888</v>
       </c>
       <c r="J79" s="28">
-        <v>8.8548335738433501E-2</v>
+        <v>1.1186087003651686</v>
       </c>
       <c r="K79"/>
       <c r="L79" s="27">
-        <v>37618</v>
+        <v>160553</v>
       </c>
       <c r="M79" s="29">
-        <v>9634162</v>
+        <v>7552800</v>
       </c>
     </row>
     <row r="80" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B80" s="25">
-        <v>20.109187190072014</v>
+        <v>34.621250529972386</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D80" s="26">
-        <v>0.1008508861363587</v>
+        <v>3.2285112083438082E-3</v>
       </c>
       <c r="E80" s="27">
-        <v>9.9156292850805254</v>
+        <v>309.74029063786008</v>
       </c>
       <c r="F80" s="28">
-        <v>3.4860000000000002</v>
+        <v>3.7069999999999999</v>
       </c>
       <c r="G80" s="25">
-        <v>0</v>
+        <v>1118</v>
       </c>
       <c r="H80" s="28">
-        <v>1.9841419453305145</v>
+        <v>3.5317798478692941</v>
       </c>
       <c r="I80" s="28">
-        <v>0.24208333333333334</v>
+        <v>0.25743055555555555</v>
       </c>
       <c r="J80" s="28">
-        <v>0.99401773676686789</v>
+        <v>7.5743717946112218E-2</v>
       </c>
       <c r="K80"/>
       <c r="L80" s="27">
-        <v>37193</v>
+        <v>31104</v>
       </c>
       <c r="M80" s="29">
-        <v>368792</v>
+        <v>9634162</v>
       </c>
     </row>
     <row r="81" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B81" s="25">
-        <v>50.66028201014425</v>
+        <v>23.303481185665724</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="D81" s="26">
-        <v>6.4529508472046767E-5</v>
+        <v>3.2899303672530855E-2</v>
       </c>
       <c r="E81" s="27">
-        <v>15496.786256061214</v>
+        <v>30.39578010384901</v>
       </c>
       <c r="F81" s="28">
-        <v>0.115</v>
+        <v>2.3239999999999998</v>
       </c>
       <c r="G81" s="25">
-        <v>618</v>
+        <v>4984</v>
       </c>
       <c r="H81" s="28">
-        <v>5.0642371275775711</v>
+        <v>2.3449985338697843</v>
       </c>
       <c r="I81" s="28">
-        <v>7.9861111111111122E-3</v>
+        <v>0.16138888888888889</v>
       </c>
       <c r="J81" s="28">
-        <v>4.1869067701875977E-2</v>
+        <v>0.33766251363454675</v>
       </c>
       <c r="K81"/>
       <c r="L81" s="27">
-        <v>89916</v>
+        <v>12133</v>
       </c>
       <c r="M81" s="29">
-        <v>1393409033</v>
+        <v>368792</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B82" s="25">
-        <v>37.007650167656713</v>
+        <v>57.254995134905776</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D82" s="26">
-        <v>1.5905672169120573E-3</v>
+        <v>1.5623553087731419E-5</v>
       </c>
       <c r="E82" s="27">
-        <v>628.70653271818946</v>
+        <v>64005.927101515845</v>
       </c>
       <c r="F82" s="28">
-        <v>1.109</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="G82" s="25">
-        <v>714</v>
+        <v>432</v>
       </c>
       <c r="H82" s="28">
-        <v>3.7190318833774607</v>
+        <v>5.7320310770428087</v>
       </c>
       <c r="I82" s="28">
-        <v>7.7013888888888882E-2</v>
+        <v>3.152777777777778E-2</v>
       </c>
       <c r="J82" s="28">
-        <v>4.8373000548769335E-2</v>
+        <v>2.9267697811020101E-2</v>
       </c>
       <c r="K82"/>
       <c r="L82" s="27">
-        <v>439572</v>
+        <v>21770</v>
       </c>
       <c r="M82" s="29">
-        <v>276361788</v>
+        <v>1393409033</v>
       </c>
     </row>
     <row r="83" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B83" s="25">
-        <v>37.698021177614379</v>
+        <v>44.431393451589585</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
       </c>
       <c r="D83" s="26">
-        <v>1.1955837060307595E-3</v>
+        <v>2.6680967920210446E-4</v>
       </c>
       <c r="E83" s="27">
-        <v>836.41153267295567</v>
+        <v>3747.9899641965931</v>
       </c>
       <c r="F83" s="28">
-        <v>1.9039999999999999</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="G83" s="25">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="H83" s="28">
-        <v>3.8033035980836538</v>
+        <v>4.451181011825625</v>
       </c>
       <c r="I83" s="28">
-        <v>0.13222222222222221</v>
+        <v>2.6805555555555555E-2</v>
       </c>
       <c r="J83" s="28">
-        <v>6.1651863444509937E-2</v>
+        <v>0</v>
       </c>
       <c r="K83"/>
       <c r="L83" s="27">
-        <v>101659</v>
+        <v>73736</v>
       </c>
       <c r="M83" s="29">
-        <v>85028760</v>
+        <v>276361788</v>
       </c>
     </row>
     <row r="84" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B84" s="25">
-        <v>44.120736820309553</v>
+        <v>44.805325780623981</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="26">
-        <v>3.1748921929342696E-4</v>
+        <v>3.1167101578336552E-4</v>
       </c>
       <c r="E84" s="27">
-        <v>3149.7132476671254</v>
+        <v>3208.5113769291725</v>
       </c>
       <c r="F84" s="28">
-        <v>0.215</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G84" s="25">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="H84" s="28">
-        <v>4.4165528486976218</v>
+        <v>4.4875499532173748</v>
       </c>
       <c r="I84" s="28">
-        <v>1.4930555555555555E-2</v>
+        <v>3.9583333333333331E-2</v>
       </c>
       <c r="J84" s="28">
-        <v>0</v>
+        <v>4.8576248450234748E-2</v>
       </c>
       <c r="K84"/>
       <c r="L84" s="27">
-        <v>13074</v>
+        <v>26501</v>
       </c>
       <c r="M84" s="29">
-        <v>41179351</v>
+        <v>85028760</v>
       </c>
     </row>
     <row r="85" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B85" s="25">
-        <v>29.996628460756021</v>
+        <v>49.095990410018757</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D85" s="26">
-        <v>8.989336338809658E-3</v>
+        <v>1.0723821266634338E-4</v>
       </c>
       <c r="E85" s="27">
-        <v>111.24291742013261</v>
+        <v>9325.03419384058</v>
       </c>
       <c r="F85" s="28">
-        <v>1.806</v>
+        <v>0.09</v>
       </c>
       <c r="G85" s="25">
-        <v>2317</v>
+        <v>0</v>
       </c>
       <c r="H85" s="28">
-        <v>3.0215903331524232</v>
+        <v>4.9114740410018758</v>
       </c>
       <c r="I85" s="28">
-        <v>0.12541666666666668</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="J85" s="28">
-        <v>0.15697512923179069</v>
+        <v>0</v>
       </c>
       <c r="K85"/>
       <c r="L85" s="27">
-        <v>44793</v>
+        <v>4416</v>
       </c>
       <c r="M85" s="29">
-        <v>4982904</v>
+        <v>41179351</v>
       </c>
     </row>
     <row r="86" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B86" s="25">
-        <v>29.007779174051649</v>
+        <v>27.476548013316066</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="26">
-        <v>1.1001183941448714E-2</v>
+        <v>1.8856072683720176E-2</v>
       </c>
       <c r="E86" s="27">
-        <v>90.899307322036549</v>
+        <v>53.033312756763664</v>
       </c>
       <c r="F86" s="28">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="G86" s="25">
-        <v>5977</v>
+        <v>3236</v>
       </c>
       <c r="H86" s="28">
-        <v>2.898409160503205</v>
+        <v>2.7615644610268704</v>
       </c>
       <c r="I86" s="28">
-        <v>0.12708333333333333</v>
+        <v>0.11944444444444444</v>
       </c>
       <c r="J86" s="28">
-        <v>0.40493756901959987</v>
+        <v>0.21923673638069688</v>
       </c>
       <c r="K86"/>
       <c r="L86" s="27">
-        <v>102212</v>
+        <v>93958</v>
       </c>
       <c r="M86" s="29">
-        <v>9291000</v>
+        <v>4982904</v>
       </c>
     </row>
     <row r="87" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" s="25">
-        <v>30.217101902415628</v>
+        <v>28.273041396055589</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
       </c>
       <c r="D87" s="26">
-        <v>9.3303063830518923E-3</v>
+        <v>1.860122699386503E-2</v>
       </c>
       <c r="E87" s="27">
-        <v>107.17761656963997</v>
+        <v>53.759894459102902</v>
       </c>
       <c r="F87" s="28">
-        <v>2.589</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="G87" s="25">
-        <v>6326</v>
+        <v>7247</v>
       </c>
       <c r="H87" s="28">
-        <v>3.032789482752555</v>
+        <v>2.7878103882082295</v>
       </c>
       <c r="I87" s="28">
-        <v>0.17979166666666666</v>
+        <v>3.201388888888889E-2</v>
       </c>
       <c r="J87" s="28">
-        <v>0.42858207489007671</v>
+        <v>0.49097918063995988</v>
       </c>
       <c r="K87"/>
       <c r="L87" s="27">
-        <v>563247</v>
+        <v>172824</v>
       </c>
       <c r="M87" s="29">
-        <v>60367471</v>
+        <v>9291000</v>
       </c>
     </row>
     <row r="88" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88" s="25">
-        <v>47.024031755538708</v>
+        <v>27.906894689670533</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D88" s="26">
-        <v>1.5941014211716848E-4</v>
+        <v>1.650756580476926E-2</v>
       </c>
       <c r="E88" s="27">
-        <v>6273.1265822784808</v>
+        <v>60.578283426323608</v>
       </c>
       <c r="F88" s="28">
-        <v>1.0569999999999999</v>
+        <v>2.2410000000000001</v>
       </c>
       <c r="G88" s="25">
-        <v>781</v>
+        <v>7754</v>
       </c>
       <c r="H88" s="28">
-        <v>4.7191327885190546</v>
+        <v>2.7848441613682917</v>
       </c>
       <c r="I88" s="28">
-        <v>7.3402777777777775E-2</v>
+        <v>0.15562500000000001</v>
       </c>
       <c r="J88" s="28">
-        <v>5.2912203681496989E-2</v>
+        <v>0.52532807598761544</v>
       </c>
       <c r="K88"/>
       <c r="L88" s="27">
-        <v>474</v>
+        <v>996520</v>
       </c>
       <c r="M88" s="29">
-        <v>2973462</v>
+        <v>60367471</v>
       </c>
     </row>
     <row r="89" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" s="25">
-        <v>31.274050259142754</v>
+        <v>49.867807185986479</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D89" s="26">
-        <v>6.8009090557428929E-3</v>
+        <v>1.01228803327569E-4</v>
       </c>
       <c r="E89" s="27">
-        <v>147.03916664722487</v>
+        <v>9878.611295681063</v>
       </c>
       <c r="F89" s="28">
-        <v>1.496</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="G89" s="25">
-        <v>1242</v>
+        <v>901</v>
       </c>
       <c r="H89" s="28">
-        <v>3.150157229460274</v>
+        <v>4.9946973399579697</v>
       </c>
       <c r="I89" s="28">
-        <v>0.10388888888888889</v>
+        <v>4.6736111111111117E-2</v>
       </c>
       <c r="J89" s="28">
-        <v>8.4144631206682793E-2</v>
+        <v>6.1042119740113684E-2</v>
       </c>
       <c r="K89"/>
       <c r="L89" s="27">
-        <v>857260</v>
+        <v>301</v>
       </c>
       <c r="M89" s="29">
-        <v>126050796</v>
+        <v>2973462</v>
       </c>
     </row>
     <row r="90" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" s="25">
-        <v>32.588328092285082</v>
+        <v>33.132538641495337</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="26">
-        <v>4.6586714878982631E-3</v>
+        <v>4.6688796792683481E-3</v>
       </c>
       <c r="E90" s="27">
-        <v>214.65346989966557</v>
+        <v>214.1841445262321</v>
       </c>
       <c r="F90" s="28">
-        <v>0</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="G90" s="25">
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="H90" s="28">
-        <v>3.2345582348634885</v>
+        <v>3.3214911221998444</v>
       </c>
       <c r="I90" s="28">
-        <v>0</v>
+        <v>4.8888888888888885E-2</v>
       </c>
       <c r="J90" s="28">
-        <v>0.24274574365019683</v>
+        <v>6.429408616356036E-2</v>
       </c>
       <c r="K90"/>
       <c r="L90" s="27">
-        <v>47840</v>
+        <v>588516</v>
       </c>
       <c r="M90" s="29">
-        <v>10269022</v>
+        <v>126050796</v>
       </c>
     </row>
     <row r="91" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B91" s="25">
-        <v>45.856285028032943</v>
+        <v>36.634276529111496</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D91" s="26">
-        <v>1.7383560416401025E-4</v>
+        <v>1.1983614408460708E-3</v>
       </c>
       <c r="E91" s="27">
-        <v>5752.5614778921872</v>
+        <v>834.47277750690716</v>
       </c>
       <c r="F91" s="28">
-        <v>0.188</v>
+        <v>0.39</v>
       </c>
       <c r="G91" s="25">
         <v>0</v>
       </c>
       <c r="H91" s="28">
-        <v>4.5895451694699609</v>
+        <v>3.6715526529111493</v>
       </c>
       <c r="I91" s="28">
-        <v>1.3055555555555556E-2</v>
+        <v>2.7083333333333334E-2</v>
       </c>
       <c r="J91" s="28">
         <v>0</v>
       </c>
       <c r="K91"/>
       <c r="L91" s="27">
-        <v>3302</v>
+        <v>12306</v>
       </c>
       <c r="M91" s="29">
-        <v>18994958</v>
+        <v>10269022</v>
       </c>
     </row>
     <row r="92" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B92" s="25">
-        <v>61.65133016199637</v>
+        <v>54.168257119914756</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D92" s="26">
-        <v>5.7833216351407133E-6</v>
+        <v>2.7165103497464957E-5</v>
       </c>
       <c r="E92" s="27">
-        <v>172911.01257861636</v>
+        <v>36811.934108527137</v>
       </c>
       <c r="F92" s="28">
-        <v>0.01</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="G92" s="25">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="H92" s="28">
-        <v>6.164569007507402</v>
+        <v>5.4176173786581421</v>
       </c>
       <c r="I92" s="28">
-        <v>6.9444444444444447E-4</v>
+        <v>2.638888888888889E-3</v>
       </c>
       <c r="J92" s="28">
-        <v>7.7234202556858604E-3</v>
+        <v>0</v>
       </c>
       <c r="K92"/>
       <c r="L92" s="27">
-        <v>318</v>
+        <v>516</v>
       </c>
       <c r="M92" s="29">
-        <v>54985702</v>
+        <v>18994958</v>
       </c>
     </row>
     <row r="93" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B93" s="25">
-        <v>38.623735798492092</v>
+        <v>64.64233589624304</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D93" s="26">
-        <v>1.0462319174877252E-3</v>
+        <v>3.3826975601766439E-6</v>
       </c>
       <c r="E93" s="27">
-        <v>955.81102362204729</v>
+        <v>295622.05376344087</v>
       </c>
       <c r="F93" s="28">
-        <v>2.3540000000000001</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G93" s="25">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H93" s="28">
-        <v>3.911415246515876</v>
+        <v>6.4637879698706397</v>
       </c>
       <c r="I93" s="28">
-        <v>0.16347222222222224</v>
+        <v>2.0833333333333335E-4</v>
       </c>
       <c r="J93" s="28">
-        <v>0</v>
+        <v>5.081197536635434E-3</v>
       </c>
       <c r="K93"/>
       <c r="L93" s="27">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="M93" s="29">
-        <v>121388</v>
+        <v>54985702</v>
       </c>
     </row>
     <row r="94" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B94" s="25">
-        <v>36.723017354414175</v>
+        <v>48.573954691885028</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D94" s="26">
-        <v>1.7666411847099943E-3</v>
+        <v>2.389033512373546E-4</v>
       </c>
       <c r="E94" s="27">
-        <v>566.04590035307967</v>
+        <v>4185.7931034482754</v>
       </c>
       <c r="F94" s="28">
-        <v>0.26400000000000001</v>
+        <v>0</v>
       </c>
       <c r="G94" s="25">
-        <v>2368</v>
+        <v>0</v>
       </c>
       <c r="H94" s="28">
-        <v>3.6617587010857475</v>
+        <v>4.8573954691885026</v>
       </c>
       <c r="I94" s="28">
-        <v>1.8333333333333333E-2</v>
+        <v>0</v>
       </c>
       <c r="J94" s="28">
-        <v>0.16043034355670277</v>
+        <v>0</v>
       </c>
       <c r="K94"/>
       <c r="L94" s="27">
-        <v>7647</v>
+        <v>29</v>
       </c>
       <c r="M94" s="29">
-        <v>4328553</v>
+        <v>121388</v>
       </c>
     </row>
     <row r="95" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B95" s="25">
-        <v>53.318423051098492</v>
+        <v>42.268339463386511</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D95" s="26">
-        <v>4.6014488981943766E-5</v>
+        <v>5.4729605944526963E-4</v>
       </c>
       <c r="E95" s="27">
-        <v>21732.285245901639</v>
+        <v>1827.1646264246517</v>
       </c>
       <c r="F95" s="28">
-        <v>0.19400000000000001</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G95" s="25">
         <v>0</v>
       </c>
       <c r="H95" s="28">
-        <v>5.3358839717765161</v>
+        <v>4.2275214463386508</v>
       </c>
       <c r="I95" s="28">
-        <v>1.3472222222222222E-2</v>
+        <v>2.2916666666666667E-3</v>
       </c>
       <c r="J95" s="28">
         <v>0</v>
       </c>
       <c r="K95"/>
       <c r="L95" s="27">
-        <v>305</v>
+        <v>2369</v>
       </c>
       <c r="M95" s="29">
-        <v>6628347</v>
+        <v>4328553</v>
       </c>
     </row>
     <row r="96" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B96" s="25">
-        <v>43.745872798284601</v>
+        <v>56.472019004853081</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D96" s="26">
-        <v>4.2835704677832409E-4</v>
+        <v>2.3987881141406749E-5</v>
       </c>
       <c r="E96" s="27">
-        <v>2334.5011072445427</v>
+        <v>41687.716981132078</v>
       </c>
       <c r="F96" s="28">
-        <v>0.21299999999999999</v>
+        <v>0.129</v>
       </c>
       <c r="G96" s="25">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="H96" s="28">
-        <v>4.3784014862639662</v>
+        <v>5.649889400485308</v>
       </c>
       <c r="I96" s="28">
-        <v>1.4791666666666667E-2</v>
+        <v>8.9583333333333338E-3</v>
       </c>
       <c r="J96" s="28">
-        <v>6.2329356449394658E-3</v>
+        <v>0</v>
       </c>
       <c r="K96"/>
       <c r="L96" s="27">
-        <v>3161</v>
+        <v>159</v>
       </c>
       <c r="M96" s="29">
-        <v>7379358</v>
+        <v>6628347</v>
       </c>
     </row>
     <row r="97" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97" s="25">
-        <v>21.126637072434779</v>
+        <v>35.088228576023141</v>
       </c>
       <c r="C97" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="D97" s="26">
-        <v>5.5095680939979665E-2</v>
+        <v>3.7627934571001975E-3</v>
       </c>
       <c r="E97" s="27">
-        <v>18.150243048804199</v>
+        <v>265.76000288111788</v>
       </c>
       <c r="F97" s="28">
-        <v>7.4989999999999997</v>
+        <v>0.252</v>
       </c>
       <c r="G97" s="25">
-        <v>7536</v>
+        <v>196</v>
       </c>
       <c r="H97" s="28">
-        <v>2.2178370010620316</v>
+        <v>3.5127449713127401</v>
       </c>
       <c r="I97" s="28">
-        <v>0.52076388888888892</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="J97" s="28">
-        <v>0.51055872848112838</v>
+        <v>1.3278862895740602E-2</v>
       </c>
       <c r="K97"/>
       <c r="L97" s="27">
-        <v>102860</v>
+        <v>27767</v>
       </c>
       <c r="M97" s="29">
-        <v>1866934</v>
+        <v>7379358</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B98" s="25">
-        <v>33.334443117717164</v>
+        <v>25.420013377257295</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="26">
-        <v>3.2894819453724699E-3</v>
+        <v>2.0258348715059021E-2</v>
       </c>
       <c r="E98" s="27">
-        <v>303.99923653837516</v>
+        <v>49.362364823775152</v>
       </c>
       <c r="F98" s="28">
-        <v>1.266</v>
+        <v>4.3620000000000001</v>
       </c>
       <c r="G98" s="25">
-        <v>0</v>
+        <v>3581</v>
       </c>
       <c r="H98" s="28">
-        <v>3.3598193117717168</v>
+        <v>2.6086153132208074</v>
       </c>
       <c r="I98" s="28">
-        <v>8.7916666666666671E-2</v>
+        <v>0.30291666666666667</v>
       </c>
       <c r="J98" s="28">
-        <v>0</v>
+        <v>0.24261024504921985</v>
       </c>
       <c r="K98"/>
       <c r="L98" s="27">
-        <v>22267</v>
+        <v>37821</v>
       </c>
       <c r="M98" s="29">
-        <v>6769151</v>
+        <v>1866934</v>
       </c>
     </row>
     <row r="99" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B99" s="25">
-        <v>50.200975274905758</v>
+        <v>40.417089438605402</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D99" s="26">
-        <v>5.4190073767974776E-5</v>
+        <v>7.7808871452269277E-4</v>
       </c>
       <c r="E99" s="27">
-        <v>18453.564102564102</v>
+        <v>1285.2004936396429</v>
       </c>
       <c r="F99" s="28">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="G99" s="25">
         <v>0</v>
       </c>
       <c r="H99" s="28">
-        <v>5.0200975274905755</v>
+        <v>4.0575422771938738</v>
       </c>
       <c r="I99" s="28">
-        <v>0</v>
+        <v>5.2777777777777778E-2</v>
       </c>
       <c r="J99" s="28">
         <v>0</v>
       </c>
       <c r="K99"/>
       <c r="L99" s="27">
-        <v>117</v>
+        <v>5267</v>
       </c>
       <c r="M99" s="29">
-        <v>2159067</v>
+        <v>6769151</v>
       </c>
     </row>
     <row r="100" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100" s="25">
-        <v>63.065315558627042</v>
+        <v>52.002612922029513</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D100" s="26">
-        <v>6.1773581292488638E-6</v>
+        <v>6.252700819381705E-5</v>
       </c>
       <c r="E100" s="27">
-        <v>161881.5</v>
+        <v>15993.088888888889</v>
       </c>
       <c r="F100" s="28">
         <v>0</v>
       </c>
       <c r="G100" s="25">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="H100" s="28">
-        <v>6.306531555862704</v>
+        <v>5.196636704626818</v>
       </c>
       <c r="I100" s="28">
         <v>0</v>
       </c>
       <c r="J100" s="28">
-        <v>0</v>
+        <v>3.6245875761332765E-2</v>
       </c>
       <c r="K100"/>
       <c r="L100" s="27">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="M100" s="29">
-        <v>5180208</v>
+        <v>2159067</v>
       </c>
     </row>
     <row r="101" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101" s="25">
-        <v>37.496439889451906</v>
+        <v>71.279849749390365</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D101" s="26">
-        <v>1.1854501620886457E-3</v>
+        <v>5.7912732461708098E-7</v>
       </c>
       <c r="E101" s="27">
-        <v>843.56140138198566</v>
+        <v>1726736</v>
       </c>
       <c r="F101" s="28">
-        <v>0.86199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G101" s="25">
         <v>0</v>
       </c>
       <c r="H101" s="28">
-        <v>3.767602322278524</v>
+        <v>7.1279849749390358</v>
       </c>
       <c r="I101" s="28">
-        <v>5.9861111111111108E-2</v>
+        <v>0</v>
       </c>
       <c r="J101" s="28">
         <v>0</v>
       </c>
       <c r="K101"/>
       <c r="L101" s="27">
-        <v>8249</v>
+        <v>3</v>
       </c>
       <c r="M101" s="29">
-        <v>6958538</v>
+        <v>5180208</v>
       </c>
     </row>
     <row r="102" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" s="25">
-        <v>22.415535861238208</v>
+        <v>47.165995224840479</v>
       </c>
       <c r="C102" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="D102" s="26">
-        <v>5.2961781774454958E-2</v>
+        <v>1.3580438879546249E-4</v>
       </c>
       <c r="E102" s="27">
-        <v>18.881539980256665</v>
+        <v>7363.5322751322756</v>
       </c>
       <c r="F102" s="28">
-        <v>3.734</v>
+        <v>0.47199999999999998</v>
       </c>
       <c r="G102" s="25">
         <v>0</v>
       </c>
       <c r="H102" s="28">
-        <v>2.3193452527904874</v>
+        <v>4.7264328558173814</v>
       </c>
       <c r="I102" s="28">
-        <v>0.25930555555555557</v>
+        <v>3.2777777777777774E-2</v>
       </c>
       <c r="J102" s="28">
         <v>0</v>
       </c>
       <c r="K102"/>
       <c r="L102" s="27">
-        <v>2026</v>
+        <v>945</v>
       </c>
       <c r="M102" s="29">
-        <v>38254</v>
+        <v>6958538</v>
       </c>
     </row>
     <row r="103" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B103" s="25">
-        <v>26.186650379454704</v>
+        <v>22.459059181993229</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D103" s="26">
-        <v>2.4067777454754184E-2</v>
+        <v>3.7956814973597534E-2</v>
       </c>
       <c r="E103" s="27">
-        <v>41.549328843510096</v>
+        <v>26.345730027548207</v>
       </c>
       <c r="F103" s="28">
-        <v>0</v>
+        <v>3.734</v>
       </c>
       <c r="G103" s="25">
-        <v>4281</v>
+        <v>0</v>
       </c>
       <c r="H103" s="28">
-        <v>2.5896615624063553</v>
+        <v>2.3236975848659895</v>
       </c>
       <c r="I103" s="28">
-        <v>0</v>
+        <v>0.25930555555555557</v>
       </c>
       <c r="J103" s="28">
-        <v>0.29003475539115059</v>
+        <v>0</v>
       </c>
       <c r="K103"/>
       <c r="L103" s="27">
-        <v>64739</v>
+        <v>1452</v>
       </c>
       <c r="M103" s="29">
-        <v>2689862</v>
+        <v>38254</v>
       </c>
     </row>
     <row r="104" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" s="25">
-        <v>28.182259674652887</v>
+        <v>26.432232021434874</v>
       </c>
       <c r="C104" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="26">
-        <v>1.5454920653923827E-2</v>
+        <v>1.6546573764750758E-2</v>
       </c>
       <c r="E104" s="27">
-        <v>64.70431148710631</v>
+        <v>60.435472274647253</v>
       </c>
       <c r="F104" s="28">
-        <v>2.0249999999999999</v>
+        <v>4.6740000000000004</v>
       </c>
       <c r="G104" s="25">
-        <v>3910</v>
+        <v>3279</v>
       </c>
       <c r="H104" s="28">
-        <v>2.8339234909742959</v>
+        <v>2.7183832065133173</v>
       </c>
       <c r="I104" s="28">
-        <v>0.140625</v>
+        <v>0.32458333333333333</v>
       </c>
       <c r="J104" s="28">
-        <v>0.26489976490992734</v>
+        <v>0.22214995630170117</v>
       </c>
       <c r="K104"/>
       <c r="L104" s="27">
-        <v>9811</v>
+        <v>44508</v>
       </c>
       <c r="M104" s="29">
-        <v>634814</v>
+        <v>2689862</v>
       </c>
     </row>
     <row r="105" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B105" s="25">
-        <v>58.264871934209602</v>
+        <v>25.446895207518413</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D105" s="26">
-        <v>1.2593513433004777E-5</v>
+        <v>2.8559546575847413E-2</v>
       </c>
       <c r="E105" s="27">
-        <v>79405.958100558666</v>
+        <v>35.014561500275789</v>
       </c>
       <c r="F105" s="28">
-        <v>3.5000000000000003E-2</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="G105" s="25">
-        <v>0</v>
+        <v>5254</v>
       </c>
       <c r="H105" s="28">
-        <v>5.8271011862767965</v>
+        <v>2.5700315382751979</v>
       </c>
       <c r="I105" s="28">
-        <v>2.4305555555555556E-3</v>
+        <v>0.203125</v>
       </c>
       <c r="J105" s="28">
-        <v>1.1517381083040318E-3</v>
+        <v>0.35595482476643425</v>
       </c>
       <c r="K105"/>
       <c r="L105" s="27">
-        <v>358</v>
+        <v>18130</v>
       </c>
       <c r="M105" s="29">
-        <v>28427333</v>
+        <v>634814</v>
       </c>
     </row>
     <row r="106" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B106" s="25">
-        <v>59.728828270444346</v>
+        <v>63.111991548644369</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D106" s="26">
-        <v>1.0179318363322369E-5</v>
+        <v>4.8896602435409608E-6</v>
       </c>
       <c r="E106" s="27">
-        <v>98238.404999999999</v>
+        <v>204513.18705035973</v>
       </c>
       <c r="F106" s="28">
-        <v>2.1999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G106" s="25">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="H106" s="28">
-        <v>5.9731650121964979</v>
+        <v>6.3116158215311033</v>
       </c>
       <c r="I106" s="28">
-        <v>1.5277777777777776E-3</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="J106" s="28">
-        <v>1.7614818127002839E-3</v>
+        <v>0</v>
       </c>
       <c r="K106"/>
       <c r="L106" s="27">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="M106" s="29">
-        <v>19647681</v>
+        <v>28427333</v>
       </c>
     </row>
     <row r="107" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107" s="25">
-        <v>29.033352792134558</v>
+        <v>62.514995024571796</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D107" s="26">
-        <v>1.2349175979701121E-2</v>
+        <v>5.140555773477796E-6</v>
       </c>
       <c r="E107" s="27">
-        <v>80.977062894216061</v>
+        <v>194531.49504950497</v>
       </c>
       <c r="F107" s="28">
-        <v>2.3490000000000002</v>
+        <v>0</v>
       </c>
       <c r="G107" s="25">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H107" s="28">
-        <v>2.9107966574544131</v>
+        <v>6.2513504539961051</v>
       </c>
       <c r="I107" s="28">
-        <v>0.16312500000000002</v>
+        <v>0</v>
       </c>
       <c r="J107" s="28">
-        <v>0.41476121759042839</v>
+        <v>1.490484610746394E-3</v>
       </c>
       <c r="K107"/>
       <c r="L107" s="27">
-        <v>404759</v>
+        <v>101</v>
       </c>
       <c r="M107" s="29">
-        <v>32776195</v>
+        <v>19647681</v>
       </c>
     </row>
     <row r="108" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108" s="25">
-        <v>29.054312025352722</v>
+        <v>30.303767945259004</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="26">
-        <v>1.079246532504323E-2</v>
+        <v>8.3744315043280653E-3</v>
       </c>
       <c r="E108" s="27">
-        <v>92.657235384353157</v>
+        <v>119.41109070904467</v>
       </c>
       <c r="F108" s="28">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="G108" s="25">
-        <v>3664</v>
+        <v>3714</v>
       </c>
       <c r="H108" s="28">
-        <v>2.8806078588362958</v>
+        <v>3.0341730376578151</v>
       </c>
       <c r="I108" s="28">
-        <v>0</v>
+        <v>9.6527777777777768E-2</v>
       </c>
       <c r="J108" s="28">
-        <v>0.24823343698976308</v>
+        <v>0.25162090201418669</v>
       </c>
       <c r="K108"/>
       <c r="L108" s="27">
-        <v>5867</v>
+        <v>274482</v>
       </c>
       <c r="M108" s="29">
-        <v>543620</v>
+        <v>32776195</v>
       </c>
     </row>
     <row r="109" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B109" s="25">
-        <v>65.865398443523532</v>
+        <v>35.68277867607128</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D109" s="26">
-        <v>2.3494748971553327E-6</v>
+        <v>4.3081564328023248E-3</v>
       </c>
       <c r="E109" s="27">
-        <v>425627.02040816325</v>
+        <v>232.11784799316825</v>
       </c>
       <c r="F109" s="28">
-        <v>1.4E-2</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="G109" s="25">
         <v>0</v>
       </c>
       <c r="H109" s="28">
-        <v>6.5868315110190201</v>
+        <v>3.5737570342737945</v>
       </c>
       <c r="I109" s="28">
-        <v>9.7222222222222219E-4</v>
+        <v>1.8263888888888889E-2</v>
       </c>
       <c r="J109" s="28">
         <v>0</v>
       </c>
       <c r="K109"/>
       <c r="L109" s="27">
-        <v>49</v>
+        <v>2342</v>
       </c>
       <c r="M109" s="29">
-        <v>20855724</v>
+        <v>543620</v>
       </c>
     </row>
     <row r="110" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B110" s="25">
-        <v>35.94827103884348</v>
+        <v>66.119802913863964</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D110" s="26">
-        <v>2.7475295485371054E-3</v>
+        <v>2.1576810279997953E-6</v>
       </c>
       <c r="E110" s="27">
-        <v>363.96332863187587</v>
+        <v>463460.53333333327</v>
       </c>
       <c r="F110" s="28">
-        <v>1.661</v>
+        <v>0</v>
       </c>
       <c r="G110" s="25">
-        <v>3242</v>
+        <v>48</v>
       </c>
       <c r="H110" s="28">
-        <v>3.6074669473326519</v>
+        <v>6.6116550947440516</v>
       </c>
       <c r="I110" s="28">
-        <v>0.11534722222222223</v>
+        <v>0</v>
       </c>
       <c r="J110" s="28">
-        <v>0.21964323218362769</v>
+        <v>3.2519664234466781E-3</v>
       </c>
       <c r="K110"/>
       <c r="L110" s="27">
-        <v>1418</v>
+        <v>45</v>
       </c>
       <c r="M110" s="29">
-        <v>516100</v>
+        <v>20855724</v>
       </c>
     </row>
     <row r="111" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B111" s="25">
-        <v>100</v>
+        <v>30.2990188206041</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D111" s="26">
-        <v>0</v>
+        <v>1.1259445843828715E-2</v>
       </c>
       <c r="E111" s="27">
-        <v>0</v>
+        <v>88.814317673378085</v>
       </c>
       <c r="F111" s="28">
-        <v>0</v>
+        <v>3.3220000000000001</v>
       </c>
       <c r="G111" s="25">
-        <v>0</v>
+        <v>5388</v>
       </c>
       <c r="H111" s="28">
-        <v>10</v>
+        <v>3.0626068922905545</v>
       </c>
       <c r="I111" s="28">
-        <v>0</v>
+        <v>0.23069444444444445</v>
       </c>
       <c r="J111" s="28">
-        <v>0</v>
+        <v>0.36503323103188962</v>
       </c>
       <c r="K111"/>
       <c r="L111" s="27">
-        <v>0</v>
+        <v>5811</v>
       </c>
       <c r="M111" s="29">
-        <v>59618</v>
+        <v>516100</v>
       </c>
     </row>
     <row r="112" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B112" s="25">
-        <v>60.884462193873787</v>
+        <v>100</v>
       </c>
       <c r="C112" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="26">
-        <v>7.5390933402581303E-6</v>
+        <v>0</v>
       </c>
       <c r="E112" s="27">
-        <v>132641.94444444444</v>
+        <v>0</v>
       </c>
       <c r="F112" s="28">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G112" s="25">
-        <v>264</v>
+        <v>0</v>
       </c>
       <c r="H112" s="28">
-        <v>6.0879076378544834</v>
+        <v>10</v>
       </c>
       <c r="I112" s="28">
-        <v>4.1666666666666666E-3</v>
+        <v>0</v>
       </c>
       <c r="J112" s="28">
-        <v>1.7885815328956729E-2</v>
+        <v>0</v>
       </c>
       <c r="K112"/>
       <c r="L112" s="27">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="M112" s="29">
-        <v>4775110</v>
+        <v>59618</v>
       </c>
     </row>
     <row r="113" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B113" s="25">
-        <v>27.349024249743323</v>
+        <v>67.528046750038243</v>
       </c>
       <c r="C113" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D113" s="26">
-        <v>1.7306043215635277E-2</v>
+        <v>1.8847733350645326E-6</v>
       </c>
       <c r="E113" s="27">
-        <v>57.783283419548056</v>
+        <v>530567.77777777775</v>
       </c>
       <c r="F113" s="28">
-        <v>3.3650000000000002</v>
+        <v>0.03</v>
       </c>
       <c r="G113" s="25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H113" s="28">
-        <v>2.805006591640999</v>
+        <v>6.7533619257033362</v>
       </c>
       <c r="I113" s="28">
-        <v>0.23368055555555556</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="J113" s="28">
-        <v>0</v>
+        <v>6.7749300488472461E-4</v>
       </c>
       <c r="K113"/>
       <c r="L113" s="27">
-        <v>22038</v>
+        <v>9</v>
       </c>
       <c r="M113" s="29">
-        <v>1273428</v>
+        <v>4775110</v>
       </c>
     </row>
     <row r="114" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B114" s="25">
-        <v>39.051999811369654</v>
+        <v>27.141603244800194</v>
       </c>
       <c r="C114" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D114" s="26">
-        <v>9.0879765445422316E-4</v>
+        <v>2.2758255668950268E-2</v>
       </c>
       <c r="E114" s="27">
-        <v>1100.3549526110389</v>
+        <v>43.940098685345568</v>
       </c>
       <c r="F114" s="28">
-        <v>1.9430000000000001</v>
+        <v>0</v>
       </c>
       <c r="G114" s="25">
         <v>0</v>
       </c>
       <c r="H114" s="28">
-        <v>3.9453065266509455</v>
+        <v>2.7141603244800194</v>
       </c>
       <c r="I114" s="28">
-        <v>0.13493055555555555</v>
+        <v>0</v>
       </c>
       <c r="J114" s="28">
-        <v>3.726211526865985E-3</v>
+        <v>0</v>
       </c>
       <c r="K114"/>
       <c r="L114" s="27">
-        <v>118382</v>
+        <v>28981</v>
       </c>
       <c r="M114" s="29">
-        <v>130262220</v>
+        <v>1273428</v>
       </c>
     </row>
     <row r="115" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B115" s="25">
-        <v>100</v>
+        <v>44.57879197700894</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D115" s="26">
-        <v>0</v>
+        <v>2.6547221443024694E-4</v>
       </c>
       <c r="E115" s="27">
-        <v>0</v>
+        <v>3766.8725600763423</v>
       </c>
       <c r="F115" s="28">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="G115" s="25">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="H115" s="28">
-        <v>10</v>
+        <v>4.4744222261285005</v>
       </c>
       <c r="I115" s="28">
-        <v>0</v>
+        <v>5.6250000000000001E-2</v>
       </c>
       <c r="J115" s="28">
-        <v>0</v>
+        <v>3.3197157239351505E-3</v>
       </c>
       <c r="K115"/>
       <c r="L115" s="27">
-        <v>0</v>
+        <v>34581</v>
       </c>
       <c r="M115" s="29">
-        <v>116255</v>
+        <v>130262220</v>
       </c>
     </row>
     <row r="116" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B116" s="25">
-        <v>35.70708395310691</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D116" s="26">
-        <v>1.9050577469076359E-3</v>
+        <v>0</v>
       </c>
       <c r="E116" s="27">
-        <v>524.91847117140628</v>
+        <v>0</v>
       </c>
       <c r="F116" s="28">
-        <v>2.3079999999999998</v>
+        <v>0</v>
       </c>
       <c r="G116" s="25">
         <v>0</v>
       </c>
       <c r="H116" s="28">
-        <v>3.6187917286440245</v>
+        <v>10</v>
       </c>
       <c r="I116" s="28">
-        <v>0.16027777777777777</v>
+        <v>0</v>
       </c>
       <c r="J116" s="28">
         <v>0</v>
       </c>
       <c r="K116"/>
       <c r="L116" s="27">
-        <v>7666</v>
+        <v>0</v>
       </c>
       <c r="M116" s="29">
-        <v>4024025</v>
+        <v>116255</v>
       </c>
     </row>
     <row r="117" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B117" s="25">
-        <v>30.71585487182762</v>
+        <v>39.346340964717726</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D117" s="26">
-        <v>8.1730769230769235E-3</v>
+        <v>1.0126676648380664E-3</v>
       </c>
       <c r="E117" s="27">
-        <v>122.35294117647058</v>
+        <v>987.49079754601223</v>
       </c>
       <c r="F117" s="28">
-        <v>0</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="G117" s="25">
         <v>0</v>
       </c>
       <c r="H117" s="28">
-        <v>3.0715854871827619</v>
+        <v>3.9516549298051058</v>
       </c>
       <c r="I117" s="28">
-        <v>0</v>
+        <v>5.6736111111111105E-2</v>
       </c>
       <c r="J117" s="28">
         <v>0</v>
       </c>
       <c r="K117"/>
       <c r="L117" s="27">
-        <v>323</v>
+        <v>4075</v>
       </c>
       <c r="M117" s="29">
-        <v>39520</v>
+        <v>4024025</v>
       </c>
     </row>
     <row r="118" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B118" s="25">
-        <v>33.696123661314857</v>
+        <v>27.232481536955024</v>
       </c>
       <c r="C118" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="26">
-        <v>3.0952619814122082E-3</v>
+        <v>1.8800607287449391E-2</v>
       </c>
       <c r="E118" s="27">
-        <v>323.0744298884037</v>
+        <v>53.189771197846575</v>
       </c>
       <c r="F118" s="28">
-        <v>0.17199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G118" s="25">
-        <v>1833</v>
+        <v>0</v>
       </c>
       <c r="H118" s="28">
-        <v>3.3607772526852822</v>
+        <v>2.7232481536955024</v>
       </c>
       <c r="I118" s="28">
-        <v>1.1944444444444443E-2</v>
+        <v>0</v>
       </c>
       <c r="J118" s="28">
-        <v>0.12418446779537001</v>
+        <v>0</v>
       </c>
       <c r="K118"/>
       <c r="L118" s="27">
-        <v>10305</v>
+        <v>743</v>
       </c>
       <c r="M118" s="29">
-        <v>3329282</v>
+        <v>39520</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B119" s="25">
-        <v>34.326253256223367</v>
+        <v>40.571548737380368</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D119" s="26">
-        <v>2.6797186852660056E-3</v>
+        <v>7.2748418427757099E-4</v>
       </c>
       <c r="E119" s="27">
-        <v>373.17349970291144</v>
+        <v>1374.6003303055325</v>
       </c>
       <c r="F119" s="28">
-        <v>2.2749999999999999</v>
+        <v>0</v>
       </c>
       <c r="G119" s="25">
         <v>0</v>
       </c>
       <c r="H119" s="28">
-        <v>3.4800211589556698</v>
+        <v>4.050095396627138</v>
       </c>
       <c r="I119" s="28">
-        <v>0.1579861111111111</v>
+        <v>0</v>
       </c>
       <c r="J119" s="28">
-        <v>0</v>
+        <v>7.0594771108988305E-2</v>
       </c>
       <c r="K119"/>
       <c r="L119" s="27">
-        <v>1683</v>
+        <v>2422</v>
       </c>
       <c r="M119" s="29">
-        <v>628051</v>
+        <v>3329282</v>
       </c>
     </row>
     <row r="120" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B120" s="25">
-        <v>51.806918769381923</v>
+        <v>36.95379904230289</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D120" s="26">
-        <v>4.3433103527943538E-5</v>
+        <v>1.8708671747994987E-3</v>
       </c>
       <c r="E120" s="27">
-        <v>23023.913070283601</v>
+        <v>534.51148936170216</v>
       </c>
       <c r="F120" s="28">
-        <v>0.10299999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G120" s="25">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="H120" s="28">
-        <v>5.1813201259405837</v>
+        <v>3.7143382375636227</v>
       </c>
       <c r="I120" s="28">
-        <v>7.152777777777777E-3</v>
+        <v>6.3194444444444442E-2</v>
       </c>
       <c r="J120" s="28">
-        <v>1.5175843309417831E-2</v>
+        <v>0</v>
       </c>
       <c r="K120"/>
       <c r="L120" s="27">
-        <v>1622</v>
+        <v>1175</v>
       </c>
       <c r="M120" s="29">
-        <v>37344787</v>
+        <v>628051</v>
       </c>
     </row>
     <row r="121" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B121" s="25">
-        <v>61.642507372188504</v>
+        <v>56.216266675467963</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D121" s="26">
-        <v>5.067928114393398E-6</v>
+        <v>2.5492179136006317E-5</v>
       </c>
       <c r="E121" s="27">
-        <v>197319.29447852759</v>
+        <v>39227.717436974795</v>
       </c>
       <c r="F121" s="28">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G121" s="25">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="H121" s="28">
-        <v>6.164368289876994</v>
+        <v>5.6207535547882479</v>
       </c>
       <c r="I121" s="28">
-        <v>1.2499999999999998E-3</v>
+        <v>1.0416666666666667E-3</v>
       </c>
       <c r="J121" s="28">
-        <v>2.5744734185619532E-3</v>
+        <v>1.1856127585482679E-2</v>
       </c>
       <c r="K121"/>
       <c r="L121" s="27">
-        <v>163</v>
+        <v>952</v>
       </c>
       <c r="M121" s="29">
-        <v>32163045</v>
+        <v>37344787</v>
       </c>
     </row>
     <row r="122" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B122" s="25">
-        <v>42.50613132664067</v>
+        <v>67.324640259902168</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D122" s="26">
-        <v>4.5281526950673699E-4</v>
+        <v>1.741128677337609E-6</v>
       </c>
       <c r="E122" s="27">
-        <v>2208.406092597816</v>
+        <v>574340.08928571432</v>
       </c>
       <c r="F122" s="28">
-        <v>5.7000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="G122" s="25">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="H122" s="28">
-        <v>4.249639429978485</v>
+        <v>6.7323149775291427</v>
       </c>
       <c r="I122" s="28">
-        <v>3.9583333333333337E-3</v>
+        <v>0</v>
       </c>
       <c r="J122" s="28">
-        <v>2.1612026855822714E-2</v>
+        <v>1.490484610746394E-3</v>
       </c>
       <c r="K122"/>
       <c r="L122" s="27">
-        <v>24817</v>
+        <v>56</v>
       </c>
       <c r="M122" s="29">
-        <v>54806014</v>
+        <v>32163045</v>
       </c>
     </row>
     <row r="123" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B123" s="25">
-        <v>49.038240262865038</v>
+        <v>50.464165818945041</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
       </c>
       <c r="D123" s="26">
-        <v>1.0048915026374537E-4</v>
+        <v>6.8295424659052927E-5</v>
       </c>
       <c r="E123" s="27">
-        <v>9951.3230769230777</v>
+        <v>14642.269302698371</v>
       </c>
       <c r="F123" s="28">
-        <v>0.221</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G123" s="25">
-        <v>421</v>
+        <v>254</v>
       </c>
       <c r="H123" s="28">
-        <v>4.9055759474026059</v>
+        <v>5.0447999163287633</v>
       </c>
       <c r="I123" s="28">
-        <v>1.5347222222222222E-2</v>
+        <v>3.4722222222222224E-4</v>
       </c>
       <c r="J123" s="28">
-        <v>2.8522455505646905E-2</v>
+        <v>1.7208322324072003E-2</v>
       </c>
       <c r="K123"/>
       <c r="L123" s="27">
-        <v>260</v>
+        <v>3743</v>
       </c>
       <c r="M123" s="29">
-        <v>2587344</v>
+        <v>54806014</v>
       </c>
     </row>
     <row r="124" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B124" s="25">
-        <v>52.313769683274998</v>
+        <v>51.760988992460014</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
       </c>
       <c r="D124" s="26">
-        <v>4.2931876480206182E-5</v>
+        <v>6.0679986890030857E-5</v>
       </c>
       <c r="E124" s="27">
-        <v>23292.715855572998</v>
+        <v>16479.898089171973</v>
       </c>
       <c r="F124" s="28">
-        <v>2.4E-2</v>
+        <v>0.11</v>
       </c>
       <c r="G124" s="25">
-        <v>247</v>
+        <v>370</v>
       </c>
       <c r="H124" s="28">
-        <v>5.2302035606054345</v>
+        <v>5.1758838417945947</v>
       </c>
       <c r="I124" s="28">
-        <v>1.6666666666666668E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
       <c r="J124" s="28">
-        <v>1.6734077220652697E-2</v>
+        <v>2.506724118073481E-2</v>
       </c>
       <c r="K124"/>
       <c r="L124" s="27">
-        <v>1274</v>
+        <v>157</v>
       </c>
       <c r="M124" s="29">
-        <v>29674920</v>
+        <v>2587344</v>
       </c>
     </row>
     <row r="125" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B125" s="25">
-        <v>24.101923127106271</v>
+        <v>58.996361787319465</v>
       </c>
       <c r="C125" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="D125" s="26">
-        <v>4.6949431476937122E-2</v>
+        <v>1.0749818365137968E-5</v>
       </c>
       <c r="E125" s="27">
-        <v>21.299512444388768</v>
+        <v>93024.827586206899</v>
       </c>
       <c r="F125" s="28">
-        <v>0.71499999999999997</v>
+        <v>0</v>
       </c>
       <c r="G125" s="25">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="H125" s="28">
-        <v>2.3861864977034797</v>
+        <v>5.8985250902039352</v>
       </c>
       <c r="I125" s="28">
-        <v>4.9652777777777775E-2</v>
+        <v>0</v>
       </c>
       <c r="J125" s="28">
-        <v>0.38901648340480882</v>
+        <v>1.1110885280109483E-2</v>
       </c>
       <c r="K125"/>
       <c r="L125" s="27">
-        <v>806267</v>
+        <v>319</v>
       </c>
       <c r="M125" s="29">
-        <v>17173094</v>
+        <v>29674920</v>
       </c>
     </row>
     <row r="126" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B126" s="25">
-        <v>23.665900659548285</v>
+        <v>24.770785959002989</v>
       </c>
       <c r="C126" t="s">
         <v>162</v>
       </c>
       <c r="D126" s="26">
-        <v>4.8827809531240857E-2</v>
+        <v>2.7861316079676731E-2</v>
       </c>
       <c r="E126" s="27">
-        <v>20.480132318042717</v>
+        <v>35.892058980280687</v>
       </c>
       <c r="F126" s="28">
-        <v>0.502</v>
+        <v>1.131</v>
       </c>
       <c r="G126" s="25">
-        <v>1617</v>
+        <v>2219</v>
       </c>
       <c r="H126" s="28">
-        <v>2.3660933373991759</v>
+        <v>2.4856075261219068</v>
       </c>
       <c r="I126" s="28">
-        <v>3.4861111111111114E-2</v>
+        <v>7.8541666666666662E-2</v>
       </c>
       <c r="J126" s="28">
-        <v>0.10955061888985997</v>
+        <v>0.15033569778392036</v>
       </c>
       <c r="K126"/>
       <c r="L126" s="27">
-        <v>250306</v>
+        <v>478465</v>
       </c>
       <c r="M126" s="29">
-        <v>5126300</v>
+        <v>17173094</v>
       </c>
     </row>
     <row r="127" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B127" s="25">
-        <v>55.134300341622847</v>
+        <v>22.827757837045027</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="D127" s="26">
-        <v>2.9690950034308715E-5</v>
+        <v>4.2924136316641631E-2</v>
       </c>
       <c r="E127" s="27">
-        <v>33680.296482412057</v>
+        <v>23.296916043300826</v>
       </c>
       <c r="F127" s="28">
-        <v>2.1000000000000001E-2</v>
+        <v>3.149</v>
       </c>
       <c r="G127" s="25">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="H127" s="28">
-        <v>5.5138675341622845</v>
+        <v>2.3447553627950359</v>
       </c>
       <c r="I127" s="28">
-        <v>1.4583333333333334E-3</v>
+        <v>0.21868055555555554</v>
       </c>
       <c r="J127" s="28">
-        <v>0</v>
+        <v>3.6245875761332765E-2</v>
       </c>
       <c r="K127"/>
       <c r="L127" s="27">
-        <v>199</v>
+        <v>220042</v>
       </c>
       <c r="M127" s="29">
-        <v>6702379</v>
+        <v>5126300</v>
       </c>
     </row>
     <row r="128" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B128" s="25">
-        <v>69.621365790757338</v>
+        <v>56.370094441021593</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D128" s="26">
-        <v>1.1141702157630415E-6</v>
+        <v>2.1484908567539973E-5</v>
       </c>
       <c r="E128" s="27">
-        <v>897528.92857142852</v>
+        <v>46544.298611111109</v>
       </c>
       <c r="F128" s="28">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="G128" s="25">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H128" s="28">
-        <v>6.9620281801949524</v>
+        <v>5.6379052774354923</v>
       </c>
       <c r="I128" s="28">
-        <v>0</v>
+        <v>2.9861111111111108E-3</v>
       </c>
       <c r="J128" s="28">
-        <v>1.0839888078155594E-3</v>
+        <v>0</v>
       </c>
       <c r="K128"/>
       <c r="L128" s="27">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="M128" s="29">
-        <v>25130810</v>
+        <v>6702379</v>
       </c>
     </row>
     <row r="129" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B129" s="25">
-        <v>67.149600963955677</v>
+        <v>71.415890734097914</v>
       </c>
       <c r="C129" t="s">
         <v>11</v>
       </c>
       <c r="D129" s="26">
-        <v>2.0482429424643734E-6</v>
+        <v>5.1729331446141209E-7</v>
       </c>
       <c r="E129" s="27">
-        <v>488223.33487297921</v>
+        <v>1933139.2307692308</v>
       </c>
       <c r="F129" s="28">
         <v>0</v>
       </c>
       <c r="G129" s="25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H129" s="28">
-        <v>6.7144452017118548</v>
+        <v>7.141521324109303</v>
       </c>
       <c r="I129" s="28">
         <v>0</v>
       </c>
       <c r="J129" s="28">
-        <v>5.1489468371239064E-3</v>
+        <v>6.7749300488472461E-4</v>
       </c>
       <c r="K129"/>
       <c r="L129" s="27">
-        <v>433</v>
+        <v>13</v>
       </c>
       <c r="M129" s="29">
-        <v>211400704</v>
+        <v>25130810</v>
       </c>
     </row>
     <row r="130" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B130" s="25">
-        <v>34.470491210428136</v>
+        <v>67.78848064707681</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D130" s="26">
-        <v>2.4017350879475823E-3</v>
+        <v>1.5279040887205371E-6</v>
       </c>
       <c r="E130" s="27">
-        <v>416.36565373850465</v>
+        <v>654491.34365325083</v>
       </c>
       <c r="F130" s="28">
-        <v>4.5960000000000001</v>
+        <v>0</v>
       </c>
       <c r="G130" s="25">
-        <v>1142</v>
+        <v>68</v>
       </c>
       <c r="H130" s="28">
-        <v>3.5350621509270304</v>
+        <v>6.7783873694643599</v>
       </c>
       <c r="I130" s="28">
-        <v>0.31916666666666665</v>
+        <v>0</v>
       </c>
       <c r="J130" s="28">
-        <v>7.7369701157835535E-2</v>
+        <v>4.6069524332161271E-3</v>
       </c>
       <c r="K130"/>
       <c r="L130" s="27">
-        <v>5002</v>
+        <v>323</v>
       </c>
       <c r="M130" s="29">
-        <v>2082661</v>
+        <v>211400704</v>
       </c>
     </row>
     <row r="131" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B131" s="25">
-        <v>25.400241257061417</v>
+        <v>37.340431040819404</v>
       </c>
       <c r="C131" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D131" s="26">
-        <v>2.5458369018460637E-2</v>
+        <v>1.6474116526885556E-3</v>
       </c>
       <c r="E131" s="27">
-        <v>39.279814008307824</v>
+        <v>607.01282424949</v>
       </c>
       <c r="F131" s="28">
-        <v>0</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="G131" s="25">
-        <v>0</v>
+        <v>1065</v>
       </c>
       <c r="H131" s="28">
-        <v>2.5272398327039669</v>
+        <v>3.7697028035799183</v>
       </c>
       <c r="I131" s="28">
-        <v>0</v>
+        <v>0.14291666666666666</v>
       </c>
       <c r="J131" s="28">
-        <v>0.12784293002174751</v>
+        <v>7.2153005020223163E-2</v>
       </c>
       <c r="K131"/>
       <c r="L131" s="27">
-        <v>139146</v>
+        <v>3431</v>
       </c>
       <c r="M131" s="29">
-        <v>5465629</v>
+        <v>2082661</v>
       </c>
     </row>
     <row r="132" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="B132" s="25">
-        <v>37.696239529523403</v>
+        <v>100.02689647229393</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D132" s="26">
-        <v>1.222389504412472E-3</v>
+        <v>0</v>
       </c>
       <c r="E132" s="27">
-        <v>818.06985121378227</v>
+        <v>0</v>
       </c>
       <c r="F132" s="28">
-        <v>5.5E-2</v>
+        <v>0</v>
       </c>
       <c r="G132" s="25">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="H132" s="28">
-        <v>3.7707697862856735</v>
+        <v>10</v>
       </c>
       <c r="I132" s="28">
-        <v>3.8194444444444443E-3</v>
+        <v>0</v>
       </c>
       <c r="J132" s="28">
-        <v>0</v>
+        <v>2.6896472293923567E-2</v>
       </c>
       <c r="K132"/>
       <c r="L132" s="27">
-        <v>6385</v>
+        <v>0</v>
       </c>
       <c r="M132" s="29">
-        <v>5223376</v>
+        <v>57910</v>
       </c>
     </row>
     <row r="133" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B133" s="25">
-        <v>52.455400875998791</v>
+        <v>31.22036652322701</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D133" s="26">
-        <v>4.912079701410563E-5</v>
+        <v>6.151167596629775E-3</v>
       </c>
       <c r="E133" s="27">
-        <v>20357.975863315856</v>
+        <v>162.57076145151694</v>
       </c>
       <c r="F133" s="28">
-        <v>3.2000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="G133" s="25">
-        <v>161</v>
+        <v>775</v>
       </c>
       <c r="H133" s="28">
-        <v>5.2451159905286815</v>
+        <v>3.1167860815348445</v>
       </c>
       <c r="I133" s="28">
-        <v>2.2222222222222222E-3</v>
+        <v>0</v>
       </c>
       <c r="J133" s="28">
-        <v>1.0907637378644065E-2</v>
+        <v>5.2505707878566156E-2</v>
       </c>
       <c r="K133"/>
       <c r="L133" s="27">
-        <v>11062</v>
+        <v>33620</v>
       </c>
       <c r="M133" s="29">
-        <v>225199929</v>
+        <v>5465629</v>
       </c>
     </row>
     <row r="134" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B134" s="25">
-        <v>34.296453566020674</v>
+        <v>45.291830602091437</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D134" s="26">
-        <v>2.4416227754082329E-3</v>
+        <v>2.2265293557270239E-4</v>
       </c>
       <c r="E134" s="27">
-        <v>409.56367628607273</v>
+        <v>4491.2949269131559</v>
       </c>
       <c r="F134" s="28">
-        <v>1.4219999999999999</v>
+        <v>0</v>
       </c>
       <c r="G134" s="25">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="H134" s="28">
-        <v>3.4569872051756056</v>
+        <v>4.5291830602091441</v>
       </c>
       <c r="I134" s="28">
-        <v>9.8749999999999991E-2</v>
+        <v>0</v>
       </c>
       <c r="J134" s="28">
-        <v>2.2831514264615219E-2</v>
+        <v>0</v>
       </c>
       <c r="K134"/>
       <c r="L134" s="27">
-        <v>12752</v>
+        <v>1163</v>
       </c>
       <c r="M134" s="29">
-        <v>5222756</v>
+        <v>5223376</v>
       </c>
     </row>
     <row r="135" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B135" s="25">
-        <v>38.034812645955967</v>
+        <v>56.781642473066839</v>
       </c>
       <c r="C135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D135" s="26">
-        <v>1.1934043015960213E-3</v>
+        <v>1.845471274549114E-5</v>
       </c>
       <c r="E135" s="27">
-        <v>837.93899407152423</v>
+        <v>54186.700914340712</v>
       </c>
       <c r="F135" s="28">
-        <v>0.88</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G135" s="25">
-        <v>1399</v>
+        <v>131</v>
       </c>
       <c r="H135" s="28">
-        <v>3.8123364707905925</v>
+        <v>5.6775892314702849</v>
       </c>
       <c r="I135" s="28">
-        <v>6.1111111111111109E-2</v>
+        <v>1.0416666666666667E-3</v>
       </c>
       <c r="J135" s="28">
-        <v>9.4781271383372973E-2</v>
+        <v>8.8751583639898914E-3</v>
       </c>
       <c r="K135"/>
       <c r="L135" s="27">
-        <v>5229</v>
+        <v>4156</v>
       </c>
       <c r="M135" s="29">
-        <v>4381583</v>
+        <v>225199929</v>
       </c>
     </row>
     <row r="136" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B136" s="25">
-        <v>48.59637721321225</v>
+        <v>44.40489960471325</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D136" s="26">
-        <v>8.6083953238319316E-5</v>
+        <v>2.6231361373190706E-4</v>
       </c>
       <c r="E136" s="27">
-        <v>11616.566878980891</v>
+        <v>3812.2306569343068</v>
       </c>
       <c r="F136" s="28">
-        <v>1.6E-2</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="G136" s="25">
         <v>0</v>
       </c>
       <c r="H136" s="28">
-        <v>4.859971054654558</v>
+        <v>4.4439066271379914</v>
       </c>
       <c r="I136" s="28">
-        <v>1.1111111111111111E-3</v>
+        <v>1.1388888888888889E-2</v>
       </c>
       <c r="J136" s="28">
         <v>0</v>
       </c>
       <c r="K136"/>
       <c r="L136" s="27">
-        <v>785</v>
+        <v>1370</v>
       </c>
       <c r="M136" s="29">
-        <v>9119005</v>
+        <v>5222756</v>
       </c>
     </row>
     <row r="137" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B137" s="25">
-        <v>39.274832927453474</v>
+        <v>40.581406060119953</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="26">
-        <v>8.7331212175231429E-4</v>
+        <v>8.6749469312803155E-4</v>
       </c>
       <c r="E137" s="27">
-        <v>1145.0659793814432</v>
+        <v>1152.7448039989476</v>
       </c>
       <c r="F137" s="28">
-        <v>1.524</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="G137" s="25">
-        <v>312</v>
+        <v>1405</v>
       </c>
       <c r="H137" s="28">
-        <v>3.957119514570107</v>
+        <v>4.0554134959600319</v>
       </c>
       <c r="I137" s="28">
-        <v>0.10583333333333333</v>
+        <v>2.2638888888888889E-2</v>
       </c>
       <c r="J137" s="28">
-        <v>2.1137781752403405E-2</v>
+        <v>9.5187767186303798E-2</v>
       </c>
       <c r="K137"/>
       <c r="L137" s="27">
-        <v>6305</v>
+        <v>3801</v>
       </c>
       <c r="M137" s="29">
-        <v>7219641</v>
+        <v>4381583</v>
       </c>
     </row>
     <row r="138" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B138" s="25">
-        <v>39.980764345311812</v>
+        <v>47.512880716538447</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D138" s="26">
-        <v>7.4941362131200444E-4</v>
+        <v>1.8313401516941816E-4</v>
       </c>
       <c r="E138" s="27">
-        <v>1334.3766000000001</v>
+        <v>5460.4820359281439</v>
       </c>
       <c r="F138" s="28">
-        <v>1.9570000000000001</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G138" s="25">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="H138" s="28">
-        <v>4.030873175197021</v>
+        <v>4.7516214049871781</v>
       </c>
       <c r="I138" s="28">
-        <v>0.13590277777777779</v>
+        <v>1.1111111111111111E-3</v>
       </c>
       <c r="J138" s="28">
-        <v>7.9740926674932086E-2</v>
+        <v>0</v>
       </c>
       <c r="K138"/>
       <c r="L138" s="27">
-        <v>25000</v>
+        <v>1670</v>
       </c>
       <c r="M138" s="29">
-        <v>33359415</v>
+        <v>9119005</v>
       </c>
     </row>
     <row r="139" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B139" s="25">
-        <v>48.783354211039558</v>
+        <v>45.84024443407931</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
       </c>
       <c r="D139" s="26">
-        <v>1.0753113256370663E-4</v>
+        <v>1.8283457584663835E-4</v>
       </c>
       <c r="E139" s="27">
-        <v>9299.6323590989032</v>
+        <v>5469.4250000000002</v>
       </c>
       <c r="F139" s="28">
-        <v>0.92600000000000005</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="G139" s="25">
         <v>0</v>
       </c>
       <c r="H139" s="28">
-        <v>4.8976270877706227</v>
+        <v>4.6054546938093459</v>
       </c>
       <c r="I139" s="28">
-        <v>6.430555555555556E-2</v>
+        <v>7.6944444444444454E-2</v>
       </c>
       <c r="J139" s="28">
-        <v>0</v>
+        <v>1.6530829319187278E-2</v>
       </c>
       <c r="K139"/>
       <c r="L139" s="27">
-        <v>11941</v>
+        <v>1320</v>
       </c>
       <c r="M139" s="29">
-        <v>111046910</v>
+        <v>7219641</v>
       </c>
     </row>
     <row r="140" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B140" s="25">
-        <v>32.422251885206514</v>
+        <v>45.753876483408561</v>
       </c>
       <c r="C140" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D140" s="26">
-        <v>4.4293727015371591E-3</v>
+        <v>2.1870887124369537E-4</v>
       </c>
       <c r="E140" s="27">
-        <v>225.76560325414982</v>
+        <v>4572.2882401315792</v>
       </c>
       <c r="F140" s="28">
-        <v>3.9910000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G140" s="25">
-        <v>1741</v>
+        <v>1444</v>
       </c>
       <c r="H140" s="28">
-        <v>3.3135758686389418</v>
+        <v>4.5821046493503204</v>
       </c>
       <c r="I140" s="28">
-        <v>0.2771527777777778</v>
+        <v>5.5E-2</v>
       </c>
       <c r="J140" s="28">
-        <v>0.11795153215043055</v>
+        <v>9.7829989905354228E-2</v>
       </c>
       <c r="K140"/>
       <c r="L140" s="27">
-        <v>167417</v>
+        <v>7296</v>
       </c>
       <c r="M140" s="29">
-        <v>37797000</v>
+        <v>33359415</v>
       </c>
     </row>
     <row r="141" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B141" s="25">
-        <v>28.39952057599891</v>
+        <v>52.413843284528674</v>
       </c>
       <c r="C141" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D141" s="26">
-        <v>1.4672416382382125E-2</v>
+        <v>5.028505520774959E-5</v>
       </c>
       <c r="E141" s="27">
-        <v>68.155099605866425</v>
+        <v>19886.624283667621</v>
       </c>
       <c r="F141" s="28">
-        <v>2.0230000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="G141" s="25">
-        <v>5784</v>
+        <v>0</v>
       </c>
       <c r="H141" s="28">
-        <v>2.8429116955306917</v>
+        <v>5.2541968284528675</v>
       </c>
       <c r="I141" s="28">
-        <v>0.14048611111111112</v>
+        <v>4.2708333333333334E-2</v>
       </c>
       <c r="J141" s="28">
-        <v>0.3918619540253247</v>
+        <v>0</v>
       </c>
       <c r="K141"/>
       <c r="L141" s="27">
-        <v>149188</v>
+        <v>5584</v>
       </c>
       <c r="M141" s="29">
-        <v>10167923</v>
+        <v>111046910</v>
       </c>
     </row>
     <row r="142" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B142" s="25">
-        <v>39.244885734812847</v>
+        <v>34.710113635412959</v>
       </c>
       <c r="C142" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D142" s="26">
-        <v>1.0513478135650825E-3</v>
+        <v>2.6329338307273065E-3</v>
       </c>
       <c r="E142" s="27">
-        <v>951.16001298279787</v>
+        <v>379.80445552016238</v>
       </c>
       <c r="F142" s="28">
-        <v>9.7000000000000003E-2</v>
+        <v>2.0670000000000002</v>
       </c>
       <c r="G142" s="25">
-        <v>5803</v>
+        <v>0</v>
       </c>
       <c r="H142" s="28">
-        <v>3.8871944877411573</v>
+        <v>3.5036201464759249</v>
       </c>
       <c r="I142" s="28">
-        <v>6.7361111111111111E-3</v>
+        <v>0.14354166666666668</v>
       </c>
       <c r="J142" s="28">
-        <v>0.39314919073460564</v>
+        <v>0.104537170653713</v>
       </c>
       <c r="K142"/>
       <c r="L142" s="27">
-        <v>3081</v>
+        <v>99517</v>
       </c>
       <c r="M142" s="29">
-        <v>2930524</v>
+        <v>37797000</v>
       </c>
     </row>
     <row r="143" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B143" s="25">
-        <v>32.394885964482476</v>
+        <v>28.020492109333208</v>
       </c>
       <c r="C143" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="26">
-        <v>3.9908463986291767E-3</v>
+        <v>1.7286027834789858E-2</v>
       </c>
       <c r="E143" s="27">
-        <v>250.57341228254035</v>
+        <v>57.850190313092064</v>
       </c>
       <c r="F143" s="28">
-        <v>3.3159999999999998</v>
+        <v>4.032</v>
       </c>
       <c r="G143" s="25">
-        <v>0</v>
+        <v>4974</v>
       </c>
       <c r="H143" s="28">
-        <v>3.2933622118219192</v>
+        <v>2.8523507088703548</v>
       </c>
       <c r="I143" s="28">
-        <v>0.23027777777777778</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J143" s="28">
-        <v>0.15209717959662067</v>
+        <v>0.33698502062966201</v>
       </c>
       <c r="K143"/>
       <c r="L143" s="27">
-        <v>76336</v>
+        <v>175763</v>
       </c>
       <c r="M143" s="29">
-        <v>19127772</v>
+        <v>10167923</v>
       </c>
     </row>
     <row r="144" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>154</v>
+        <v>212</v>
       </c>
       <c r="B144" s="25">
-        <v>29.094386079405144</v>
+        <v>100.05474143479469</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D144" s="26">
-        <v>8.5410439997877629E-3</v>
+        <v>0</v>
       </c>
       <c r="E144" s="27">
-        <v>117.08170570539727</v>
+        <v>0</v>
       </c>
       <c r="F144" s="28">
-        <v>4.7080000000000002</v>
+        <v>0</v>
       </c>
       <c r="G144" s="25">
-        <v>2104</v>
+        <v>808</v>
       </c>
       <c r="H144" s="28">
-        <v>2.9932674884510733</v>
+        <v>10</v>
       </c>
       <c r="I144" s="28">
-        <v>0.32694444444444448</v>
+        <v>0</v>
       </c>
       <c r="J144" s="28">
-        <v>0.14254452822774605</v>
+        <v>5.4741434794685746E-2</v>
       </c>
       <c r="K144"/>
       <c r="L144" s="27">
-        <v>1246241</v>
+        <v>0</v>
       </c>
       <c r="M144" s="29">
-        <v>145912022</v>
+        <v>2828246</v>
       </c>
     </row>
     <row r="145" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B145" s="25">
-        <v>59.2175636919482</v>
+        <v>42.627606888217272</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D145" s="26">
-        <v>8.13466363203542E-6</v>
+        <v>6.4766574168988211E-4</v>
       </c>
       <c r="E145" s="27">
-        <v>122930.71296296296</v>
+        <v>1544.0063224446785</v>
       </c>
       <c r="F145" s="28">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G145" s="25">
-        <v>788</v>
+        <v>6308</v>
       </c>
       <c r="H145" s="28">
-        <v>5.916646890982995</v>
+        <v>4.2200244300735985</v>
       </c>
       <c r="I145" s="28">
-        <v>7.6388888888888882E-4</v>
+        <v>0</v>
       </c>
       <c r="J145" s="28">
-        <v>5.3386448784916295E-2</v>
+        <v>0.42736258748128425</v>
       </c>
       <c r="K145"/>
       <c r="L145" s="27">
-        <v>108</v>
+        <v>1898</v>
       </c>
       <c r="M145" s="29">
-        <v>13276517</v>
+        <v>2930524</v>
       </c>
     </row>
     <row r="146" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B146" s="25">
-        <v>46.05146505334762</v>
+        <v>35.702626033546863</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D146" s="26">
-        <v>2.4278190714525829E-4</v>
+        <v>2.4409011148815449E-3</v>
       </c>
       <c r="E146" s="27">
-        <v>4118.9230769230771</v>
+        <v>409.68476514810772</v>
       </c>
       <c r="F146" s="28">
-        <v>0</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="G146" s="25">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="H146" s="28">
-        <v>4.6007157010828159</v>
+        <v>3.5996792700213529</v>
       </c>
       <c r="I146" s="28">
-        <v>0</v>
+        <v>9.8055555555555549E-2</v>
       </c>
       <c r="J146" s="28">
-        <v>4.4308042519460987E-2</v>
+        <v>0</v>
       </c>
       <c r="K146"/>
       <c r="L146" s="27">
-        <v>13</v>
+        <v>46689</v>
       </c>
       <c r="M146" s="29">
-        <v>53546</v>
+        <v>19127772</v>
       </c>
     </row>
     <row r="147" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B147" s="25">
-        <v>38.109904629548183</v>
+        <v>35.184381784798745</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
       </c>
       <c r="D147" s="26">
-        <v>1.0574779963232303E-3</v>
+        <v>2.4130842351016151E-3</v>
       </c>
       <c r="E147" s="27">
-        <v>945.64615384615388</v>
+        <v>414.40741498105638</v>
       </c>
       <c r="F147" s="28">
-        <v>3.0990000000000002</v>
+        <v>2.3780000000000001</v>
       </c>
       <c r="G147" s="25">
-        <v>884</v>
+        <v>1538</v>
       </c>
       <c r="H147" s="28">
-        <v>3.8695639247916374</v>
+        <v>3.5575600027314138</v>
       </c>
       <c r="I147" s="28">
-        <v>0.21520833333333333</v>
+        <v>0.16513888888888889</v>
       </c>
       <c r="J147" s="28">
-        <v>5.9890381631809653E-2</v>
+        <v>0.10419842415127065</v>
       </c>
       <c r="K147"/>
       <c r="L147" s="27">
-        <v>195</v>
+        <v>352098</v>
       </c>
       <c r="M147" s="29">
-        <v>184401</v>
+        <v>145912022</v>
       </c>
     </row>
     <row r="148" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B148" s="25">
-        <v>28.132540174254572</v>
+        <v>60.956137686948061</v>
       </c>
       <c r="C148" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D148" s="26">
-        <v>3.2230116097730029E-2</v>
+        <v>7.4567749960324683E-6</v>
       </c>
       <c r="E148" s="27">
-        <v>31.026881720430108</v>
+        <v>134106.23232323234</v>
       </c>
       <c r="F148" s="28">
         <v>0</v>
       </c>
       <c r="G148" s="25">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="H148" s="28">
-        <v>2.8132540174254572</v>
+        <v>6.0913929872743742</v>
       </c>
       <c r="I148" s="28">
         <v>0</v>
       </c>
       <c r="J148" s="28">
-        <v>0</v>
+        <v>4.2207814204318343E-2</v>
       </c>
       <c r="K148"/>
       <c r="L148" s="27">
-        <v>186</v>
+        <v>99</v>
       </c>
       <c r="M148" s="29">
-        <v>5771</v>
+        <v>13276517</v>
       </c>
     </row>
     <row r="149" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B149" s="25">
-        <v>45.535625085334402</v>
+        <v>47.836331667875953</v>
       </c>
       <c r="C149" t="s">
         <v>15</v>
       </c>
       <c r="D149" s="26">
-        <v>1.6177012465286829E-4</v>
+        <v>9.3377656594330105E-5</v>
       </c>
       <c r="E149" s="27">
-        <v>6181.6111111111104</v>
+        <v>10709.2</v>
       </c>
       <c r="F149" s="28">
-        <v>0</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="G149" s="25">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="H149" s="28">
-        <v>4.5530137391994838</v>
+        <v>4.8335255588798969</v>
       </c>
       <c r="I149" s="28">
-        <v>0</v>
+        <v>0.18527777777777779</v>
       </c>
       <c r="J149" s="28">
-        <v>5.4876933395662693E-3</v>
+        <v>5.6909412410316863E-2</v>
       </c>
       <c r="K149"/>
       <c r="L149" s="27">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M149" s="29">
-        <v>111269</v>
+        <v>53546</v>
       </c>
     </row>
     <row r="150" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B150" s="25">
-        <v>55.90126050854736</v>
+        <v>43.32731682864906</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D150" s="26">
-        <v>5.9956831081621233E-5</v>
+        <v>4.5010601894783649E-4</v>
       </c>
       <c r="E150" s="27">
-        <v>16678.666666666668</v>
+        <v>2221.6987951807228</v>
       </c>
       <c r="F150" s="28">
         <v>0</v>
@@ -7249,37 +7290,37 @@
         <v>0</v>
       </c>
       <c r="H150" s="28">
-        <v>5.5901260508547361</v>
+        <v>4.3276640351883682</v>
       </c>
       <c r="I150" s="28">
         <v>0</v>
       </c>
       <c r="J150" s="28">
-        <v>0</v>
+        <v>5.0676476765377398E-2</v>
       </c>
       <c r="K150"/>
       <c r="L150" s="27">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="M150" s="29">
-        <v>200144</v>
+        <v>184401</v>
       </c>
     </row>
     <row r="151" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B151" s="25">
-        <v>29.894923374460227</v>
+        <v>20.624052959596316</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="D151" s="26">
-        <v>1.0643928256395178E-2</v>
+        <v>4.5745971235487785E-2</v>
       </c>
       <c r="E151" s="27">
-        <v>93.950276243093924</v>
+        <v>21.859848484848484</v>
       </c>
       <c r="F151" s="28">
         <v>0</v>
@@ -7288,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="H151" s="28">
-        <v>2.9894923374460225</v>
+        <v>2.0624052959596315</v>
       </c>
       <c r="I151" s="28">
         <v>0</v>
@@ -7298,27 +7339,27 @@
       </c>
       <c r="K151"/>
       <c r="L151" s="27">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="M151" s="29">
-        <v>34010</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="152" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B152" s="25">
-        <v>53.249381910459775</v>
+        <v>50.691749088517099</v>
       </c>
       <c r="C152" t="s">
         <v>15</v>
       </c>
       <c r="D152" s="26">
-        <v>3.1338980319120359E-5</v>
+        <v>8.0885062326434143E-5</v>
       </c>
       <c r="E152" s="27">
-        <v>31909.142857142859</v>
+        <v>12363.222222222221</v>
       </c>
       <c r="F152" s="28">
         <v>0</v>
@@ -7327,973 +7368,973 @@
         <v>0</v>
       </c>
       <c r="H152" s="28">
-        <v>5.3249381910459777</v>
+        <v>5.065462247184942</v>
       </c>
       <c r="I152" s="28">
         <v>0</v>
       </c>
       <c r="J152" s="28">
-        <v>0</v>
+        <v>3.712661666768291E-2</v>
       </c>
       <c r="K152"/>
       <c r="L152" s="27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M152" s="29">
-        <v>223364</v>
+        <v>111269</v>
       </c>
     </row>
     <row r="153" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B153" s="25">
-        <v>46.799523468168545</v>
+        <v>32.244939530399648</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D153" s="26">
-        <v>1.6326793938316976E-4</v>
+        <v>8.3140139099848118E-3</v>
       </c>
       <c r="E153" s="27">
-        <v>6124.9012131715772</v>
+        <v>120.27884615384615</v>
       </c>
       <c r="F153" s="28">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G153" s="25">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="H153" s="28">
-        <v>4.6738346019200705</v>
+        <v>3.224493953039965</v>
       </c>
       <c r="I153" s="28">
-        <v>2.7777777777777779E-3</v>
+        <v>0</v>
       </c>
       <c r="J153" s="28">
-        <v>6.9510782301172747E-2</v>
+        <v>0</v>
       </c>
       <c r="K153"/>
       <c r="L153" s="27">
-        <v>5770</v>
+        <v>1664</v>
       </c>
       <c r="M153" s="29">
-        <v>35340680</v>
+        <v>200144</v>
       </c>
     </row>
     <row r="154" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B154" s="25">
-        <v>59.782630218010503</v>
+        <v>27.80810042934289</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D154" s="26">
-        <v>8.4320425058681201E-6</v>
+        <v>1.5024992649220817E-2</v>
       </c>
       <c r="E154" s="27">
-        <v>118595.22758620689</v>
+        <v>66.555772994129157</v>
       </c>
       <c r="F154" s="28">
-        <v>1.7000000000000001E-2</v>
+        <v>4.2</v>
       </c>
       <c r="G154" s="25">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H154" s="28">
-        <v>5.9781022937840049</v>
+        <v>2.8683100429342892</v>
       </c>
       <c r="I154" s="28">
-        <v>1.1805555555555556E-3</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="J154" s="28">
-        <v>5.1489468371239064E-3</v>
+        <v>0</v>
       </c>
       <c r="K154"/>
       <c r="L154" s="27">
-        <v>145</v>
+        <v>511</v>
       </c>
       <c r="M154" s="29">
-        <v>17196308</v>
+        <v>34010</v>
       </c>
     </row>
     <row r="155" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B155" s="25">
-        <v>31.524423304359946</v>
+        <v>55.31447808793623</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D155" s="26">
-        <v>5.0439879113102189E-3</v>
+        <v>3.1338980319120359E-5</v>
       </c>
       <c r="E155" s="27">
-        <v>198.25582804385459</v>
+        <v>31909.142857142859</v>
       </c>
       <c r="F155" s="28">
-        <v>3.8879999999999999</v>
+        <v>0</v>
       </c>
       <c r="G155" s="25">
-        <v>1898</v>
+        <v>0</v>
       </c>
       <c r="H155" s="28">
-        <v>3.2205835132032825</v>
+        <v>5.5314478087936232</v>
       </c>
       <c r="I155" s="28">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="J155" s="28">
-        <v>0.12858817232712072</v>
+        <v>0</v>
       </c>
       <c r="K155"/>
       <c r="L155" s="27">
-        <v>34660</v>
+        <v>7</v>
       </c>
       <c r="M155" s="29">
-        <v>6871547</v>
+        <v>223364</v>
       </c>
     </row>
     <row r="156" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B156" s="25">
-        <v>34.283821721475093</v>
+        <v>53.498384953369097</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D156" s="26">
-        <v>3.5790112223233242E-3</v>
+        <v>4.3745621193480148E-5</v>
       </c>
       <c r="E156" s="27">
-        <v>279.40677966101697</v>
+        <v>22859.430789133246</v>
       </c>
       <c r="F156" s="28">
-        <v>0</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="G156" s="25">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="H156" s="28">
-        <v>3.4283821721475096</v>
+        <v>5.3478148423623768</v>
       </c>
       <c r="I156" s="28">
-        <v>0</v>
+        <v>3.0555555555555553E-3</v>
       </c>
       <c r="J156" s="28">
-        <v>0</v>
+        <v>2.9403196411997047E-2</v>
       </c>
       <c r="K156"/>
       <c r="L156" s="27">
-        <v>354</v>
+        <v>1546</v>
       </c>
       <c r="M156" s="29">
-        <v>98910</v>
+        <v>35340680</v>
       </c>
     </row>
     <row r="157" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B157" s="25">
-        <v>74.767662866246354</v>
+        <v>63.777762364667296</v>
       </c>
       <c r="C157" t="s">
         <v>11</v>
       </c>
       <c r="D157" s="26">
-        <v>2.4565971486522553E-7</v>
+        <v>4.4777053307023809E-6</v>
       </c>
       <c r="E157" s="27">
-        <v>4070671.5000000005</v>
+        <v>223328.67532467534</v>
       </c>
       <c r="F157" s="28">
         <v>0</v>
       </c>
       <c r="G157" s="25">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="H157" s="28">
-        <v>7.4767662866246347</v>
+        <v>6.3772410169928708</v>
       </c>
       <c r="I157" s="28">
         <v>0</v>
       </c>
       <c r="J157" s="28">
-        <v>0</v>
+        <v>5.3521947385893245E-3</v>
       </c>
       <c r="K157"/>
       <c r="L157" s="27">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="M157" s="29">
-        <v>8141343</v>
+        <v>17196308</v>
       </c>
     </row>
     <row r="158" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B158" s="25">
-        <v>24.455503274074541</v>
+        <v>33.735555651148687</v>
       </c>
       <c r="C158" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D158" s="26">
-        <v>4.4110312454158723E-2</v>
+        <v>3.8730725410158731E-3</v>
       </c>
       <c r="E158" s="27">
-        <v>22.670435650149649</v>
+        <v>258.19294356353799</v>
       </c>
       <c r="F158" s="28">
-        <v>1.7549999999999999</v>
+        <v>1.4970000000000001</v>
       </c>
       <c r="G158" s="25">
-        <v>0</v>
+        <v>2007.0000000000002</v>
       </c>
       <c r="H158" s="28">
-        <v>2.3505572357189384</v>
+        <v>3.3911457805068319</v>
       </c>
       <c r="I158" s="28">
-        <v>0.121875</v>
+        <v>0.10395833333333335</v>
       </c>
       <c r="J158" s="28">
-        <v>1.315555916885158</v>
+        <v>0.13597284608036422</v>
       </c>
       <c r="K158"/>
       <c r="L158" s="27">
-        <v>240560</v>
+        <v>26614</v>
       </c>
       <c r="M158" s="29">
-        <v>5453600</v>
+        <v>6871547</v>
       </c>
     </row>
     <row r="159" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B159" s="25">
-        <v>23.762369096458432</v>
+        <v>32.50227224344377</v>
       </c>
       <c r="C159" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="D159" s="26">
-        <v>3.2051449093181292E-2</v>
+        <v>6.5716307754524316E-3</v>
       </c>
       <c r="E159" s="27">
-        <v>31.199837395581049</v>
+        <v>152.16923076923078</v>
       </c>
       <c r="F159" s="28">
-        <v>5.4</v>
+        <v>1.444</v>
       </c>
       <c r="G159" s="25">
-        <v>5748</v>
+        <v>0</v>
       </c>
       <c r="H159" s="28">
-        <v>2.4497946117250691</v>
+        <v>3.2803105576777103</v>
       </c>
       <c r="I159" s="28">
-        <v>0.375</v>
+        <v>0.10027777777777777</v>
       </c>
       <c r="J159" s="28">
-        <v>0.38942297920773972</v>
+        <v>0</v>
       </c>
       <c r="K159"/>
       <c r="L159" s="27">
-        <v>174657</v>
+        <v>650</v>
       </c>
       <c r="M159" s="29">
-        <v>5449270</v>
+        <v>98910</v>
       </c>
     </row>
     <row r="160" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B160" s="25">
-        <v>28.681953937978506</v>
+        <v>71.648408570593702</v>
       </c>
       <c r="C160" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D160" s="26">
-        <v>1.2011701414762814E-2</v>
+        <v>4.9131942973045107E-7</v>
       </c>
       <c r="E160" s="27">
-        <v>83.252152669309936</v>
+        <v>2035335.7500000002</v>
       </c>
       <c r="F160" s="28">
-        <v>3.5049999999999999</v>
+        <v>0</v>
       </c>
       <c r="G160" s="25">
-        <v>5387</v>
+        <v>0</v>
       </c>
       <c r="H160" s="28">
-        <v>2.9047196789580436</v>
+        <v>7.16484085705937</v>
       </c>
       <c r="I160" s="28">
-        <v>0.24340277777777777</v>
+        <v>0</v>
       </c>
       <c r="J160" s="28">
-        <v>0.36496548173140109</v>
+        <v>0</v>
       </c>
       <c r="K160"/>
       <c r="L160" s="27">
-        <v>24969</v>
+        <v>4</v>
       </c>
       <c r="M160" s="29">
-        <v>2078723</v>
+        <v>8141343</v>
       </c>
     </row>
     <row r="161" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B161" s="25">
-        <v>35.346524417516711</v>
+        <v>27.02890955480586</v>
       </c>
       <c r="C161" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D161" s="26">
-        <v>2.6093935326245215E-3</v>
+        <v>2.0189966260818541E-2</v>
       </c>
       <c r="E161" s="27">
-        <v>383.23081110506257</v>
+        <v>49.529552802702803</v>
       </c>
       <c r="F161" s="28">
-        <v>1.42</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G161" s="25">
         <v>0</v>
       </c>
       <c r="H161" s="28">
-        <v>3.5642357750850042</v>
+        <v>2.6380993777348762</v>
       </c>
       <c r="I161" s="28">
-        <v>9.8611111111111108E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="J161" s="28">
-        <v>0</v>
+        <v>0.87708244412376435</v>
       </c>
       <c r="K161"/>
       <c r="L161" s="27">
-        <v>1837</v>
+        <v>110108</v>
       </c>
       <c r="M161" s="29">
-        <v>703995</v>
+        <v>5453600</v>
       </c>
     </row>
     <row r="162" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B162" s="25">
-        <v>62.657680738285919</v>
+        <v>25.654216765327604</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D162" s="26">
-        <v>5.3180109416546958E-6</v>
+        <v>2.2187559067544826E-2</v>
       </c>
       <c r="E162" s="27">
-        <v>188040.22988505749</v>
+        <v>45.070302549087721</v>
       </c>
       <c r="F162" s="28">
-        <v>0</v>
+        <v>3.7490000000000001</v>
       </c>
       <c r="G162" s="25">
-        <v>0</v>
+        <v>4550</v>
       </c>
       <c r="H162" s="28">
-        <v>6.2657680738285917</v>
+        <v>2.6126999114771721</v>
       </c>
       <c r="I162" s="28">
-        <v>0</v>
+        <v>0.26034722222222223</v>
       </c>
       <c r="J162" s="28">
-        <v>0</v>
+        <v>0.30825931722254968</v>
       </c>
       <c r="K162"/>
       <c r="L162" s="27">
-        <v>87</v>
+        <v>120906</v>
       </c>
       <c r="M162" s="29">
-        <v>16359500</v>
+        <v>5449270</v>
       </c>
     </row>
     <row r="163" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B163" s="25">
-        <v>43.757889738027927</v>
+        <v>27.338705581675157</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D163" s="26">
-        <v>3.7858501572799147E-4</v>
+        <v>1.8807700689317433E-2</v>
       </c>
       <c r="E163" s="27">
-        <v>2641.414632000352</v>
+        <v>53.169710456312664</v>
       </c>
       <c r="F163" s="28">
-        <v>0.433</v>
+        <v>1.7869999999999999</v>
       </c>
       <c r="G163" s="25">
-        <v>420</v>
+        <v>6392</v>
       </c>
       <c r="H163" s="28">
-        <v>4.38196433651561</v>
+        <v>2.7277943719619508</v>
       </c>
       <c r="I163" s="28">
-        <v>3.0069444444444444E-2</v>
+        <v>0.12409722222222222</v>
       </c>
       <c r="J163" s="28">
-        <v>2.8454706205158432E-2</v>
+        <v>0.43305352872231595</v>
       </c>
       <c r="K163"/>
       <c r="L163" s="27">
-        <v>22731</v>
+        <v>39096</v>
       </c>
       <c r="M163" s="29">
-        <v>60041996</v>
+        <v>2078723</v>
       </c>
     </row>
     <row r="164" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B164" s="25">
-        <v>22.675908203729708</v>
+        <v>35.959182785429114</v>
       </c>
       <c r="C164" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="D164" s="26">
-        <v>6.1544443540052403E-2</v>
+        <v>2.4318354533767995E-3</v>
       </c>
       <c r="E164" s="27">
-        <v>16.248420531241162</v>
+        <v>411.21203271028037</v>
       </c>
       <c r="F164" s="28">
-        <v>3.6059999999999999</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="G164" s="25">
-        <v>10610</v>
+        <v>0</v>
       </c>
       <c r="H164" s="28">
-        <v>2.2708338125547014</v>
+        <v>3.612834945209578</v>
       </c>
       <c r="I164" s="28">
-        <v>0.25041666666666668</v>
+        <v>5.6388888888888891E-2</v>
       </c>
       <c r="J164" s="28">
-        <v>0.71882007818269278</v>
+        <v>0</v>
       </c>
       <c r="K164"/>
       <c r="L164" s="27">
-        <v>3157549</v>
+        <v>1712</v>
       </c>
       <c r="M164" s="29">
-        <v>51305184</v>
+        <v>703995</v>
       </c>
     </row>
     <row r="165" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B165" s="25">
-        <v>60.992950293183611</v>
+        <v>75.816165425631013</v>
       </c>
       <c r="C165" t="s">
         <v>11</v>
       </c>
       <c r="D165" s="26">
-        <v>8.2591060818036333E-6</v>
+        <v>0</v>
       </c>
       <c r="E165" s="27">
-        <v>121078.47872340427</v>
+        <v>0</v>
       </c>
       <c r="F165" s="28">
-        <v>1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G165" s="25">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="H165" s="28">
-        <v>6.099186466568959</v>
+        <v>7.5816165425631015</v>
       </c>
       <c r="I165" s="28">
-        <v>9.0277777777777774E-4</v>
+        <v>0</v>
       </c>
       <c r="J165" s="28">
-        <v>3.7939608273544578E-3</v>
+        <v>0</v>
       </c>
       <c r="K165"/>
       <c r="L165" s="27">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="M165" s="29">
-        <v>11381377</v>
+        <v>16359500</v>
       </c>
     </row>
     <row r="166" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B166" s="25">
-        <v>31.835997096023039</v>
+        <v>45.064690304189526</v>
       </c>
       <c r="C166" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D166" s="26">
-        <v>5.4364499499210735E-3</v>
+        <v>3.0760136621707247E-4</v>
       </c>
       <c r="E166" s="27">
-        <v>183.94356780834855</v>
+        <v>3250.9608533217825</v>
       </c>
       <c r="F166" s="28">
-        <v>2.5609999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="G166" s="25">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="H166" s="28">
-        <v>3.2241424835466006</v>
+        <v>4.5088054658233823</v>
       </c>
       <c r="I166" s="28">
-        <v>0.17784722222222221</v>
+        <v>1.6527777777777777E-2</v>
       </c>
       <c r="J166" s="28">
-        <v>0.12811392722370141</v>
+        <v>2.6218979289038841E-2</v>
       </c>
       <c r="K166"/>
       <c r="L166" s="27">
-        <v>254128</v>
+        <v>18469</v>
       </c>
       <c r="M166" s="29">
-        <v>46745211</v>
+        <v>60041996</v>
       </c>
     </row>
     <row r="167" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B167" s="25">
-        <v>41.880905087038194</v>
+        <v>19.354442657091909</v>
       </c>
       <c r="C167" t="s">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="D167" s="26">
-        <v>6.1077420584700244E-4</v>
+        <v>9.1963591827289817E-2</v>
       </c>
       <c r="E167" s="27">
-        <v>1637.2662604722009</v>
+        <v>10.873868453050722</v>
       </c>
       <c r="F167" s="28">
-        <v>0.57799999999999996</v>
+        <v>6.3929999999999998</v>
       </c>
       <c r="G167" s="25">
-        <v>303</v>
+        <v>9421</v>
       </c>
       <c r="H167" s="28">
-        <v>4.1980793715656857</v>
+        <v>2.0048051497190009</v>
       </c>
       <c r="I167" s="28">
-        <v>4.0138888888888884E-2</v>
+        <v>0.44395833333333334</v>
       </c>
       <c r="J167" s="28">
-        <v>2.0528038048007152E-2</v>
+        <v>0.63826615990189894</v>
       </c>
       <c r="K167"/>
       <c r="L167" s="27">
-        <v>13130</v>
+        <v>4718209</v>
       </c>
       <c r="M167" s="29">
-        <v>21497306</v>
+        <v>51305184</v>
       </c>
     </row>
     <row r="168" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B168" s="25">
-        <v>57.028077227627293</v>
+        <v>58.76853893553362</v>
       </c>
       <c r="C168" t="s">
         <v>15</v>
       </c>
       <c r="D168" s="26">
-        <v>5.9453096973055786E-6</v>
+        <v>1.5639583857032414E-5</v>
       </c>
       <c r="E168" s="27">
-        <v>168199.81647940076</v>
+        <v>63940.3202247191</v>
       </c>
       <c r="F168" s="28">
         <v>0</v>
       </c>
       <c r="G168" s="25">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="H168" s="28">
-        <v>5.7028077227627296</v>
+        <v>5.8763931983100406</v>
       </c>
       <c r="I168" s="28">
         <v>0</v>
       </c>
       <c r="J168" s="28">
-        <v>0</v>
+        <v>4.6069524332161271E-3</v>
       </c>
       <c r="K168"/>
       <c r="L168" s="27">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="M168" s="29">
-        <v>44909351</v>
+        <v>11381377</v>
       </c>
     </row>
     <row r="169" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B169" s="25">
-        <v>38.827837508960215</v>
+        <v>33.0559105537383</v>
       </c>
       <c r="C169" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D169" s="26">
-        <v>1.1642486118574244E-3</v>
+        <v>5.3111109071686509E-3</v>
       </c>
       <c r="E169" s="27">
-        <v>858.92307692307691</v>
+        <v>188.28452605842855</v>
       </c>
       <c r="F169" s="28">
-        <v>0.48299999999999998</v>
+        <v>0</v>
       </c>
       <c r="G169" s="25">
-        <v>412</v>
+        <v>1434</v>
       </c>
       <c r="H169" s="28">
-        <v>3.8900549797158965</v>
+        <v>3.2958758056837834</v>
       </c>
       <c r="I169" s="28">
-        <v>3.3541666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="J169" s="28">
-        <v>2.7912711801250649E-2</v>
+        <v>9.7152496900469495E-2</v>
       </c>
       <c r="K169"/>
       <c r="L169" s="27">
-        <v>689</v>
+        <v>248269</v>
       </c>
       <c r="M169" s="29">
-        <v>591798</v>
+        <v>46745211</v>
       </c>
     </row>
     <row r="170" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B170" s="25">
-        <v>34.246567420117451</v>
+        <v>46.589013076275286</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D170" s="26">
-        <v>2.6819462175739573E-3</v>
+        <v>1.9518724811378691E-4</v>
       </c>
       <c r="E170" s="27">
-        <v>372.86355462585783</v>
+        <v>5123.285510009533</v>
       </c>
       <c r="F170" s="28">
-        <v>4.556</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="G170" s="25">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="H170" s="28">
-        <v>3.5149867810353421</v>
+        <v>4.6613567874450119</v>
       </c>
       <c r="I170" s="28">
-        <v>0.31638888888888889</v>
+        <v>1.2430555555555556E-2</v>
       </c>
       <c r="J170" s="28">
-        <v>4.5866276430695858E-2</v>
+        <v>1.2736868491832821E-2</v>
       </c>
       <c r="K170"/>
       <c r="L170" s="27">
-        <v>27249</v>
+        <v>4196</v>
       </c>
       <c r="M170" s="29">
-        <v>10160159</v>
+        <v>21497306</v>
       </c>
     </row>
     <row r="171" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B171" s="25">
-        <v>25.799087677764621</v>
+        <v>63.171352613018982</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D171" s="26">
-        <v>3.3630336960819435E-2</v>
+        <v>4.0080739532397159E-6</v>
       </c>
       <c r="E171" s="27">
-        <v>29.735057402637278</v>
+        <v>249496.39444444445</v>
       </c>
       <c r="F171" s="28">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="G171" s="25">
-        <v>6130</v>
+        <v>0</v>
       </c>
       <c r="H171" s="28">
-        <v>2.5383784465770285</v>
+        <v>6.3175935946352313</v>
       </c>
       <c r="I171" s="28">
-        <v>0</v>
+        <v>1.5277777777777776E-3</v>
       </c>
       <c r="J171" s="28">
-        <v>0.41530321199433617</v>
+        <v>0</v>
       </c>
       <c r="K171"/>
       <c r="L171" s="27">
-        <v>293105</v>
+        <v>180</v>
       </c>
       <c r="M171" s="29">
-        <v>8715494</v>
+        <v>44909351</v>
       </c>
     </row>
     <row r="172" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B172" s="25">
-        <v>51.463085145303936</v>
+        <v>42.040004254985305</v>
       </c>
       <c r="C172" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D172" s="26">
-        <v>5.9259003100509835E-5</v>
+        <v>5.5424317081166207E-4</v>
       </c>
       <c r="E172" s="27">
-        <v>16875.072945521701</v>
+        <v>1804.2621951219512</v>
       </c>
       <c r="F172" s="28">
-        <v>0.17199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G172" s="25">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H172" s="28">
-        <v>5.149891847863727</v>
+        <v>4.2038039525271138</v>
       </c>
       <c r="I172" s="28">
-        <v>1.1944444444444443E-2</v>
+        <v>0</v>
       </c>
       <c r="J172" s="28">
-        <v>0</v>
+        <v>1.9647297141657015E-3</v>
       </c>
       <c r="K172"/>
       <c r="L172" s="27">
-        <v>1083</v>
+        <v>328</v>
       </c>
       <c r="M172" s="29">
-        <v>18275704</v>
+        <v>591798</v>
       </c>
     </row>
     <row r="173" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B173" s="25">
-        <v>54.60062699602431</v>
+        <v>38.220270591822931</v>
       </c>
       <c r="C173" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D173" s="26">
-        <v>3.5422331445036612E-5</v>
+        <v>1.3922026220258954E-3</v>
       </c>
       <c r="E173" s="27">
-        <v>28230.778698224854</v>
+        <v>718.2862495581478</v>
       </c>
       <c r="F173" s="28">
-        <v>0</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="G173" s="25">
-        <v>878</v>
+        <v>0</v>
       </c>
       <c r="H173" s="28">
-        <v>5.4541143110195431</v>
+        <v>3.8700394958366968</v>
       </c>
       <c r="I173" s="28">
-        <v>0</v>
+        <v>0.171875</v>
       </c>
       <c r="J173" s="28">
-        <v>5.948388582887882E-2</v>
+        <v>3.5500633455959565E-2</v>
       </c>
       <c r="K173"/>
       <c r="L173" s="27">
-        <v>845</v>
+        <v>14145</v>
       </c>
       <c r="M173" s="29">
-        <v>23855008</v>
+        <v>10160159</v>
       </c>
     </row>
     <row r="174" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B174" s="25">
-        <v>78.794093648389989</v>
+        <v>24.514285950578465</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="D174" s="26">
-        <v>0</v>
+        <v>2.9390301915186906E-2</v>
       </c>
       <c r="E174" s="27">
-        <v>0</v>
+        <v>34.02482910470777</v>
       </c>
       <c r="F174" s="28">
-        <v>0</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="G174" s="25">
-        <v>0</v>
+        <v>4096</v>
       </c>
       <c r="H174" s="28">
-        <v>7.8794093648389989</v>
+        <v>2.4462201482444348</v>
       </c>
       <c r="I174" s="28">
-        <v>0</v>
+        <v>7.5138888888888894E-2</v>
       </c>
       <c r="J174" s="28">
-        <v>0</v>
+        <v>0.2775011348007832</v>
       </c>
       <c r="K174"/>
       <c r="L174" s="27">
-        <v>0</v>
+        <v>256151</v>
       </c>
       <c r="M174" s="29">
-        <v>9749625</v>
+        <v>8715494</v>
       </c>
     </row>
     <row r="175" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B175" s="25">
-        <v>70.427877837404765</v>
+        <v>58.27799596928741</v>
       </c>
       <c r="C175" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D175" s="26">
-        <v>1.7236210129434506E-6</v>
+        <v>1.1326513057992185E-5</v>
       </c>
       <c r="E175" s="27">
-        <v>580173.9433962265</v>
+        <v>88288.425120772939</v>
       </c>
       <c r="F175" s="28">
-        <v>5.0000000000000001E-3</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="G175" s="25">
         <v>0</v>
       </c>
       <c r="H175" s="28">
-        <v>7.0428919504071432</v>
+        <v>5.8295912635954075</v>
       </c>
       <c r="I175" s="28">
-        <v>3.4722222222222224E-4</v>
+        <v>5.9722222222222216E-3</v>
       </c>
       <c r="J175" s="28">
         <v>0</v>
       </c>
       <c r="K175"/>
       <c r="L175" s="27">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="M175" s="29">
-        <v>61498438</v>
+        <v>18275704</v>
       </c>
     </row>
     <row r="176" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B176" s="25">
-        <v>33.317392673438135</v>
+        <v>52.00558038023005</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D176" s="26">
-        <v>4.5370002969513847E-3</v>
+        <v>7.591697307332699E-5</v>
       </c>
       <c r="E176" s="27">
-        <v>220.40994810424525</v>
+        <v>13172.284925455549</v>
       </c>
       <c r="F176" s="28">
-        <v>0.92100000000000004</v>
+        <v>0</v>
       </c>
       <c r="G176" s="25">
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="H176" s="28">
-        <v>3.3449716038308765</v>
+        <v>5.1925229709850722</v>
       </c>
       <c r="I176" s="28">
-        <v>6.3958333333333339E-2</v>
+        <v>0</v>
       </c>
       <c r="J176" s="28">
-        <v>5.9551635129367286E-2</v>
+        <v>8.0350670379328332E-2</v>
       </c>
       <c r="K176"/>
       <c r="L176" s="27">
-        <v>317367</v>
+        <v>1811</v>
       </c>
       <c r="M176" s="29">
-        <v>69950844</v>
+        <v>23855008</v>
       </c>
     </row>
     <row r="177" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B177" s="25">
-        <v>45.862445803807397</v>
+        <v>100</v>
       </c>
       <c r="C177" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D177" s="26">
-        <v>1.4882336526834714E-4</v>
+        <v>0</v>
       </c>
       <c r="E177" s="27">
-        <v>6719.375</v>
+        <v>0</v>
       </c>
       <c r="F177" s="28">
         <v>0</v>
@@ -8302,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="H177" s="28">
-        <v>4.5862445803807397</v>
+        <v>10</v>
       </c>
       <c r="I177" s="28">
         <v>0</v>
@@ -8312,486 +8353,486 @@
       </c>
       <c r="K177"/>
       <c r="L177" s="27">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M177" s="29">
-        <v>1343875</v>
+        <v>9749625</v>
       </c>
     </row>
     <row r="178" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B178" s="25">
-        <v>60.011110606790105</v>
+        <v>69.914926586555708</v>
       </c>
       <c r="C178" t="s">
         <v>11</v>
       </c>
       <c r="D178" s="26">
-        <v>7.7846327104133151E-6</v>
+        <v>6.8294417493985781E-7</v>
       </c>
       <c r="E178" s="27">
-        <v>128458.21212121211</v>
+        <v>1464248.5238095238</v>
       </c>
       <c r="F178" s="28">
         <v>0</v>
       </c>
       <c r="G178" s="25">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="H178" s="28">
-        <v>6.0003454935834908</v>
+        <v>6.991492658655571</v>
       </c>
       <c r="I178" s="28">
         <v>0</v>
       </c>
       <c r="J178" s="28">
-        <v>7.655670955197388E-3</v>
+        <v>0</v>
       </c>
       <c r="K178"/>
       <c r="L178" s="27">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="M178" s="29">
-        <v>8478242</v>
+        <v>61498438</v>
       </c>
     </row>
     <row r="179" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B179" s="25">
-        <v>32.717195093296326</v>
+        <v>32.713751062073413</v>
       </c>
       <c r="C179" t="s">
         <v>17</v>
       </c>
       <c r="D179" s="26">
-        <v>4.2583089041125172E-3</v>
+        <v>5.0543636042475774E-3</v>
       </c>
       <c r="E179" s="27">
-        <v>234.83500669344045</v>
+        <v>197.84884474073485</v>
       </c>
       <c r="F179" s="28">
-        <v>3.1560000000000001</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="G179" s="25">
         <v>0</v>
       </c>
       <c r="H179" s="28">
-        <v>3.3374695093296327</v>
+        <v>3.2987292728740081</v>
       </c>
       <c r="I179" s="28">
-        <v>0.21916666666666668</v>
+        <v>9.1180555555555556E-2</v>
       </c>
       <c r="J179" s="28">
         <v>0</v>
       </c>
       <c r="K179"/>
       <c r="L179" s="27">
-        <v>5976</v>
+        <v>353557</v>
       </c>
       <c r="M179" s="29">
-        <v>1403374</v>
+        <v>69950844</v>
       </c>
     </row>
     <row r="180" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B180" s="25">
-        <v>36.67188159707672</v>
+        <v>58.628571048282147</v>
       </c>
       <c r="C180" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D180" s="26">
-        <v>2.167686961638987E-3</v>
+        <v>2.5299972095619013E-5</v>
       </c>
       <c r="E180" s="27">
-        <v>461.32122289645571</v>
+        <v>39525.735294117643</v>
       </c>
       <c r="F180" s="28">
-        <v>1.819</v>
+        <v>0</v>
       </c>
       <c r="G180" s="25">
         <v>0</v>
       </c>
       <c r="H180" s="28">
-        <v>3.6993930517999738</v>
+        <v>5.8628571048282145</v>
       </c>
       <c r="I180" s="28">
-        <v>0.12631944444444443</v>
+        <v>0</v>
       </c>
       <c r="J180" s="28">
-        <v>5.6909412410316863E-2</v>
+        <v>0</v>
       </c>
       <c r="K180"/>
       <c r="L180" s="27">
-        <v>25873</v>
+        <v>34</v>
       </c>
       <c r="M180" s="29">
-        <v>11935764</v>
+        <v>1343875</v>
       </c>
     </row>
     <row r="181" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B181" s="25">
-        <v>30.20043768503005</v>
+        <v>61.345185338200672</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D181" s="26">
-        <v>7.6018720752352087E-3</v>
+        <v>8.0205306713349301E-6</v>
       </c>
       <c r="E181" s="27">
-        <v>131.54654407533675</v>
+        <v>124680.0294117647</v>
       </c>
       <c r="F181" s="28">
-        <v>1.796</v>
+        <v>0</v>
       </c>
       <c r="G181" s="25">
-        <v>4260</v>
+        <v>88</v>
       </c>
       <c r="H181" s="28">
-        <v>3.0285992331615823</v>
+        <v>6.1339223399757685</v>
       </c>
       <c r="I181" s="28">
-        <v>0.12472222222222222</v>
+        <v>0</v>
       </c>
       <c r="J181" s="28">
-        <v>0.28861202008089265</v>
+        <v>5.9619384429855761E-3</v>
       </c>
       <c r="K181"/>
       <c r="L181" s="27">
-        <v>646484</v>
+        <v>68</v>
       </c>
       <c r="M181" s="29">
-        <v>85042736</v>
+        <v>8478242</v>
       </c>
     </row>
     <row r="182" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B182" s="25">
-        <v>61.493030239060445</v>
+        <v>35.063684894266572</v>
       </c>
       <c r="C182" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D182" s="26">
-        <v>7.0877537980864038E-6</v>
+        <v>2.5566955066860294E-3</v>
       </c>
       <c r="E182" s="27">
-        <v>141088.42215568863</v>
+        <v>391.12987736900783</v>
       </c>
       <c r="F182" s="28">
-        <v>1.4999999999999999E-2</v>
+        <v>2.3410000000000002</v>
       </c>
       <c r="G182" s="25">
-        <v>73</v>
+        <v>750</v>
       </c>
       <c r="H182" s="28">
-        <v>6.1491209540124787</v>
+        <v>3.5500581252233552</v>
       </c>
       <c r="I182" s="28">
-        <v>1.0416666666666667E-3</v>
+        <v>0.16256944444444446</v>
       </c>
       <c r="J182" s="28">
-        <v>4.9456989356584892E-3</v>
+        <v>5.0811975366354345E-2</v>
       </c>
       <c r="K182"/>
       <c r="L182" s="27">
-        <v>334</v>
+        <v>3588</v>
       </c>
       <c r="M182" s="29">
-        <v>47123533</v>
+        <v>1403374</v>
       </c>
     </row>
     <row r="183" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B183" s="25">
-        <v>37.613909262387445</v>
+        <v>42.291060994019489</v>
       </c>
       <c r="C183" t="s">
         <v>13</v>
       </c>
       <c r="D183" s="26">
-        <v>0</v>
+        <v>5.1291228613434378E-4</v>
       </c>
       <c r="E183" s="27">
-        <v>0</v>
+        <v>1949.6510944135905</v>
       </c>
       <c r="F183" s="28">
-        <v>0</v>
+        <v>1.891</v>
       </c>
       <c r="G183" s="25">
         <v>0</v>
       </c>
       <c r="H183" s="28">
-        <v>3.7613909262387444</v>
+        <v>4.2667811005028753</v>
       </c>
       <c r="I183" s="28">
-        <v>0</v>
+        <v>0.13131944444444443</v>
       </c>
       <c r="J183" s="28">
-        <v>0</v>
+        <v>1.7208322324072003E-2</v>
       </c>
       <c r="K183"/>
       <c r="L183" s="27">
-        <v>0</v>
+        <v>6122</v>
       </c>
       <c r="M183" s="29">
-        <v>43466822</v>
+        <v>11935764</v>
       </c>
     </row>
     <row r="184" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B184" s="25">
-        <v>43.446267610708247</v>
+        <v>35.573242923558496</v>
       </c>
       <c r="C184" t="s">
         <v>13</v>
       </c>
       <c r="D184" s="26">
-        <v>6.954201061086171E-4</v>
+        <v>2.541992534200687E-3</v>
       </c>
       <c r="E184" s="27">
-        <v>1437.9797063903281</v>
+        <v>393.39218606888767</v>
       </c>
       <c r="F184" s="28">
-        <v>1.4E-2</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="G184" s="25">
-        <v>36353</v>
+        <v>3223</v>
       </c>
       <c r="H184" s="28">
-        <v>4.0986293956717477</v>
+        <v>3.5507178594750815</v>
       </c>
       <c r="I184" s="28">
-        <v>9.7222222222222219E-4</v>
+        <v>5.0763888888888886E-2</v>
       </c>
       <c r="J184" s="28">
-        <v>2.4628903206574395</v>
+        <v>0.21835599547434673</v>
       </c>
       <c r="K184"/>
       <c r="L184" s="27">
-        <v>6948</v>
+        <v>216178</v>
       </c>
       <c r="M184" s="29">
-        <v>9991083</v>
+        <v>85042736</v>
       </c>
     </row>
     <row r="185" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B185" s="25">
-        <v>30.935967606839796</v>
+        <v>61.9280873806225</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D185" s="26">
-        <v>1.0125483391659116E-2</v>
+        <v>5.89938789182042E-6</v>
       </c>
       <c r="E185" s="27">
-        <v>98.760717026483064</v>
+        <v>169509.11151079138</v>
       </c>
       <c r="F185" s="28">
-        <v>1.5249999999999999</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G185" s="25">
-        <v>9836</v>
+        <v>68</v>
       </c>
       <c r="H185" s="28">
-        <v>3.0587293820568515</v>
+        <v>6.1924105428189282</v>
       </c>
       <c r="I185" s="28">
-        <v>0.10590277777777778</v>
+        <v>2.0833333333333335E-4</v>
       </c>
       <c r="J185" s="28">
-        <v>0.66638211960461513</v>
+        <v>4.6069524332161271E-3</v>
       </c>
       <c r="K185"/>
       <c r="L185" s="27">
-        <v>690630</v>
+        <v>278</v>
       </c>
       <c r="M185" s="29">
-        <v>68207114</v>
+        <v>47123533</v>
       </c>
     </row>
     <row r="186" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B186" s="25">
-        <v>35.928102373143332</v>
+        <v>100</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D186" s="26">
-        <v>1.9292607940005744E-3</v>
+        <v>0</v>
       </c>
       <c r="E186" s="27">
-        <v>518.33324095410103</v>
+        <v>0</v>
       </c>
       <c r="F186" s="28">
-        <v>3.782</v>
+        <v>0</v>
       </c>
       <c r="G186" s="25">
         <v>0</v>
       </c>
       <c r="H186" s="28">
-        <v>3.6529098719762301</v>
+        <v>10</v>
       </c>
       <c r="I186" s="28">
-        <v>0.26263888888888887</v>
+        <v>0</v>
       </c>
       <c r="J186" s="28">
-        <v>0.18692032004769549</v>
+        <v>0</v>
       </c>
       <c r="K186"/>
       <c r="L186" s="27">
-        <v>642280</v>
+        <v>0</v>
       </c>
       <c r="M186" s="29">
-        <v>332915074</v>
+        <v>43466822</v>
       </c>
     </row>
     <row r="187" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B187" s="25">
-        <v>29.483493131538669</v>
+        <v>45.289275853995335</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D187" s="26">
-        <v>8.238665056789489E-3</v>
+        <v>4.6171170833031813E-4</v>
       </c>
       <c r="E187" s="27">
-        <v>121.37888761188312</v>
+        <v>2165.8536743984391</v>
       </c>
       <c r="F187" s="28">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G187" s="25">
-        <v>2427</v>
+        <v>29618</v>
       </c>
       <c r="H187" s="28">
-        <v>2.983989891258648</v>
+        <v>4.3282677072127758</v>
       </c>
       <c r="I187" s="28">
-        <v>0.1736111111111111</v>
+        <v>0</v>
       </c>
       <c r="J187" s="28">
-        <v>0.16442755228552267</v>
+        <v>2.0065987818675772</v>
       </c>
       <c r="K187"/>
       <c r="L187" s="27">
-        <v>28713</v>
+        <v>4613</v>
       </c>
       <c r="M187" s="29">
-        <v>3485152</v>
+        <v>9991083</v>
       </c>
     </row>
     <row r="188" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B188" s="25">
-        <v>53.453983114995189</v>
+        <v>27.843562150435091</v>
       </c>
       <c r="C188" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D188" s="26">
-        <v>3.4742107625981024E-5</v>
+        <v>1.6922003179902907E-2</v>
       </c>
       <c r="E188" s="27">
-        <v>28783.515691263783</v>
+        <v>59.094658556005406</v>
       </c>
       <c r="F188" s="28">
-        <v>0</v>
+        <v>2.302</v>
       </c>
       <c r="G188" s="25">
-        <v>0</v>
+        <v>10110</v>
       </c>
       <c r="H188" s="28">
-        <v>5.3453983114995189</v>
+        <v>2.7638200055829967</v>
       </c>
       <c r="I188" s="28">
-        <v>0</v>
+        <v>0.15986111111111112</v>
       </c>
       <c r="J188" s="28">
-        <v>0</v>
+        <v>0.68494542793845647</v>
       </c>
       <c r="K188"/>
       <c r="L188" s="27">
-        <v>1179</v>
+        <v>1154201</v>
       </c>
       <c r="M188" s="29">
-        <v>33935765</v>
+        <v>68207114</v>
       </c>
     </row>
     <row r="189" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B189" s="25">
-        <v>49.395347207956419</v>
+        <v>38.629980071678752</v>
       </c>
       <c r="C189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D189" s="26">
-        <v>2.671211967029612E-4</v>
+        <v>1.2434913055333746E-3</v>
       </c>
       <c r="E189" s="27">
-        <v>3743.6190476190482</v>
+        <v>804.18736789725028</v>
       </c>
       <c r="F189" s="28">
-        <v>0</v>
+        <v>1.9219999999999999</v>
       </c>
       <c r="G189" s="25">
         <v>0</v>
       </c>
       <c r="H189" s="28">
-        <v>4.9395347207956419</v>
+        <v>3.8908786743968609</v>
       </c>
       <c r="I189" s="28">
-        <v>0</v>
+        <v>0.13347222222222221</v>
       </c>
       <c r="J189" s="28">
-        <v>0</v>
+        <v>0.12160999437680806</v>
       </c>
       <c r="K189"/>
       <c r="L189" s="27">
-        <v>84</v>
+        <v>413977</v>
       </c>
       <c r="M189" s="29">
-        <v>314464</v>
+        <v>332915074</v>
       </c>
     </row>
     <row r="190" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B190" s="25">
-        <v>100</v>
+        <v>100.04356280021409</v>
       </c>
       <c r="C190" t="s">
         <v>11</v>
@@ -8806,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="G190" s="25">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="H190" s="28">
         <v>10</v>
@@ -8815,207 +8856,359 @@
         <v>0</v>
       </c>
       <c r="J190" s="28">
-        <v>0</v>
+        <v>4.3562800214087788E-2</v>
       </c>
       <c r="K190"/>
       <c r="L190" s="27">
         <v>0</v>
       </c>
       <c r="M190" s="29">
-        <v>812</v>
+        <v>104218</v>
       </c>
     </row>
     <row r="191" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B191" s="25">
-        <v>47.119332564031609</v>
+        <v>32.726679758997733</v>
       </c>
       <c r="C191" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D191" s="26">
-        <v>1.6627795898734808E-4</v>
+        <v>4.8359440276923363E-3</v>
       </c>
       <c r="E191" s="27">
-        <v>6014.0261889796775</v>
+        <v>206.78485819390053</v>
       </c>
       <c r="F191" s="28">
-        <v>0.06</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="G191" s="25">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="H191" s="28">
-        <v>4.7131832564031608</v>
+        <v>3.2646256647678857</v>
       </c>
       <c r="I191" s="28">
-        <v>4.1666666666666666E-3</v>
+        <v>3.4166666666666665E-2</v>
       </c>
       <c r="J191" s="28">
-        <v>0</v>
+        <v>0.18292311131887565</v>
       </c>
       <c r="K191"/>
       <c r="L191" s="27">
-        <v>4773</v>
+        <v>16854</v>
       </c>
       <c r="M191" s="29">
-        <v>28704947</v>
+        <v>3485152</v>
       </c>
     </row>
     <row r="192" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B192" s="25">
-        <v>27.354519010196203</v>
+        <v>59.293735607864527</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D192" s="26">
-        <v>2.2603804309410679E-2</v>
+        <v>1.0755614320172243E-5</v>
       </c>
       <c r="E192" s="27">
-        <v>44.240340533459154</v>
+        <v>92974.698630136991</v>
       </c>
       <c r="F192" s="28">
-        <v>0.88800000000000001</v>
+        <v>0</v>
       </c>
       <c r="G192" s="25">
-        <v>1706</v>
+        <v>0</v>
       </c>
       <c r="H192" s="28">
-        <v>2.7423938703562869</v>
+        <v>5.9293735607864528</v>
       </c>
       <c r="I192" s="28">
-        <v>6.1666666666666668E-2</v>
+        <v>0</v>
       </c>
       <c r="J192" s="28">
-        <v>0.115580306633334</v>
+        <v>0</v>
       </c>
       <c r="K192"/>
       <c r="L192" s="27">
-        <v>2218989</v>
+        <v>365</v>
       </c>
       <c r="M192" s="29">
-        <v>98168829</v>
+        <v>33935765</v>
       </c>
     </row>
     <row r="193" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B193" s="25">
-        <v>69.056130258524036</v>
+        <v>31.240710513333454</v>
       </c>
       <c r="C193" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D193" s="26">
-        <v>1.049502439092864E-6</v>
+        <v>9.2411214002238729E-3</v>
       </c>
       <c r="E193" s="27">
-        <v>952832.46874999988</v>
+        <v>108.21197522367515</v>
       </c>
       <c r="F193" s="28">
-        <v>1.9E-2</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="G193" s="25">
         <v>0</v>
       </c>
       <c r="H193" s="28">
-        <v>6.9060088591857367</v>
+        <v>3.1335293846666787</v>
       </c>
       <c r="I193" s="28">
-        <v>1.3194444444444445E-3</v>
+        <v>3.152777777777778E-2</v>
       </c>
       <c r="J193" s="28">
         <v>0</v>
       </c>
       <c r="K193"/>
       <c r="L193" s="27">
-        <v>32</v>
+        <v>2906</v>
       </c>
       <c r="M193" s="29">
-        <v>30490639</v>
+        <v>314464</v>
       </c>
     </row>
     <row r="194" spans="1:13" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B194" s="25">
-        <v>48.461651447722538</v>
+        <v>100</v>
       </c>
       <c r="C194" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D194" s="26">
-        <v>1.4439244895142912E-4</v>
+        <v>0</v>
       </c>
       <c r="E194" s="27">
-        <v>6925.5699121522694</v>
+        <v>0</v>
       </c>
       <c r="F194" s="28">
-        <v>2.3E-2</v>
+        <v>0</v>
       </c>
       <c r="G194" s="25">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="H194" s="28">
-        <v>4.8455264479808609</v>
+        <v>10</v>
       </c>
       <c r="I194" s="28">
-        <v>1.5972222222222221E-3</v>
+        <v>0</v>
       </c>
       <c r="J194" s="28">
-        <v>1.1178634580597957E-2</v>
+        <v>0</v>
       </c>
       <c r="K194"/>
       <c r="L194" s="27">
-        <v>2732</v>
+        <v>0</v>
       </c>
       <c r="M194" s="29">
-        <v>18920657</v>
+        <v>812</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>202</v>
+      </c>
+      <c r="B195" s="25">
+        <v>52.159354490873703</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="26">
+        <v>4.5776081732532028E-5</v>
+      </c>
+      <c r="E195" s="27">
+        <v>21845.469558599696</v>
+      </c>
+      <c r="F195" s="28">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G195" s="25">
+        <v>0</v>
+      </c>
+      <c r="H195" s="28">
+        <v>5.21687294908737</v>
+      </c>
+      <c r="I195" s="28">
+        <v>3.1249999999999997E-3</v>
+      </c>
+      <c r="J195" s="28">
+        <v>0</v>
+      </c>
+      <c r="L195" s="27">
+        <v>1314</v>
+      </c>
+      <c r="M195" s="27">
+        <v>28704947</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>203</v>
+      </c>
+      <c r="B196" s="25">
+        <v>25.338490471981117</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" s="26">
+        <v>2.4347708171195564E-2</v>
+      </c>
+      <c r="E196" s="27">
+        <v>41.071627480037115</v>
+      </c>
+      <c r="F196" s="28">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G196" s="25">
+        <v>1234</v>
+      </c>
+      <c r="H196" s="28">
+        <v>2.536030450184501</v>
+      </c>
+      <c r="I196" s="28">
+        <v>3.5138888888888886E-2</v>
+      </c>
+      <c r="J196" s="28">
+        <v>8.3602636802775007E-2</v>
+      </c>
+      <c r="L196" s="27">
+        <v>2390186</v>
+      </c>
+      <c r="M196" s="27">
+        <v>98168829</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>204</v>
+      </c>
+      <c r="B197" s="25">
+        <v>73.513865103199507</v>
+      </c>
+      <c r="C197" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" s="26">
+        <v>2.9517256099486797E-7</v>
+      </c>
+      <c r="E197" s="27">
+        <v>3387848.7777777775</v>
+      </c>
+      <c r="F197" s="28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G197" s="25">
+        <v>0</v>
+      </c>
+      <c r="H197" s="28">
+        <v>7.351490676986618</v>
+      </c>
+      <c r="I197" s="28">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="J197" s="28">
+        <v>0</v>
+      </c>
+      <c r="L197" s="27">
+        <v>9</v>
+      </c>
+      <c r="M197" s="27">
+        <v>30490639</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>205</v>
+      </c>
+      <c r="B198" s="25">
+        <v>51.629847697564209</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198" s="26">
+        <v>6.4849756538581092E-5</v>
+      </c>
+      <c r="E198" s="27">
+        <v>15420.25835370823</v>
+      </c>
+      <c r="F198" s="28">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G198" s="25">
+        <v>122</v>
+      </c>
+      <c r="H198" s="28">
+        <v>5.1623248949571279</v>
+      </c>
+      <c r="I198" s="28">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="J198" s="28">
+        <v>8.2654146595936388E-3</v>
+      </c>
+      <c r="L198" s="27">
+        <v>1227</v>
+      </c>
+      <c r="M198" s="27">
+        <v>18920657</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>206</v>
       </c>
-      <c r="B195" s="25">
-        <v>43.981814012326041</v>
-      </c>
-      <c r="C195" t="s">
-        <v>13</v>
-      </c>
-      <c r="D195" s="26">
-        <v>4.3605389840865172E-4</v>
-      </c>
-      <c r="E195" s="27">
-        <v>2293.2944841209542</v>
-      </c>
-      <c r="F195" s="28">
+      <c r="B199" s="25">
+        <v>46.744477718938121</v>
+      </c>
+      <c r="C199" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199">
+        <v>1.7466009363397751E-4</v>
+      </c>
+      <c r="E199">
+        <v>5725.4062974203343</v>
+      </c>
+      <c r="F199">
         <v>0.114</v>
       </c>
-      <c r="G195" s="25">
-        <v>295</v>
-      </c>
-      <c r="H195" s="28">
-        <v>4.3985577968681939</v>
-      </c>
-      <c r="I195" s="28">
+      <c r="G199" s="27">
+        <v>180</v>
+      </c>
+      <c r="H199">
+        <v>4.6756032844850193</v>
+      </c>
+      <c r="I199">
         <v>7.9166666666666673E-3</v>
       </c>
-      <c r="J195" s="28">
-        <v>1.9986043644099373E-2</v>
-      </c>
-      <c r="L195" s="27">
-        <v>6581</v>
-      </c>
-      <c r="M195" s="27">
+      <c r="J199">
+        <v>1.2194874087925042E-2</v>
+      </c>
+      <c r="L199">
+        <v>2636</v>
+      </c>
+      <c r="M199">
         <v>15092171</v>
       </c>
     </row>
